--- a/ch1_evidence_causes/data/samples_5.2_narrowed_criteria2.xlsx
+++ b/ch1_evidence_causes/data/samples_5.2_narrowed_criteria2.xlsx
@@ -468,27 +468,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391600179</t>
+          <t>https://openalex.org/W4393049949</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18260/1-2--43202</t>
+          <t>https://doi.org/10.1093/oso/9780192866264.003.0016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wiggins et al. (2024)</t>
+          <t>Motoyama (2024)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doing Academia Differently: The Creation of a Cohort-Based Postdoctoral Scholars Program for Emerging Engineering Faculty</t>
+          <t>The Evolution of an Entrepreneurial Ecosystem in St. Louis, United States</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Abstract The postdoctoral to professoriate pathway is a conventional path to develop significant engineering faculty talent and diversify the engineering academia workforce. Relatively few studies have examined the science, technology, engineering, and mathematics (STEM) postdoc experience, even though these scholars have faced structural and interpersonal challenges as they navigate the transition to faculty positions. Even less literature exists about the experiences of underrepresented minority (URM) postdocs in STEM. Data suggest that the number of URM postdocs is abysmal, revealing the need for more empirical studies and practical recommendations for how to recruit, support, and retain these individuals. This paper examines the work and community of a public land grant university's College of Engineering (name of postdoc scholars program). (Program) was founded under (Dean) leadership and influenced by (Faculty)'s research work and lived experience with the mission to diversify the next generation of engineering leaders in academia. With a focus on intersectional mentorship, the purpose of the postdoc program is to create well-rounded scholars versed in research, teaching, and service. Using ethnography partnered with semi-structured interviews, this study aims to explore the experiences of the first cohort of (Program) postdoc scholars to understand how a newly created intersectional mentorship model facilitates scholars' progression toward faculty positions while curating an inclusive community and culture for scholars. The intersectional mentorship model framing this postdoc program is based on research conducted by (Faculty), with some adaptations from Walker et al.'s (2009) The Formation of Scholars, which presents a multiple apprenticeship framework that offers a holistic approach to mentoring for scholars. The three mentor types in the program are primary (focused on research), secondary (focused on teaching and/or service), and intersectional (aligned with identities of scholars' choosing). This model engages scholars, mentors, and members of the administrative team in authentic dialogue to promote a culture that differs from traditional models of postdoc mentorship and development. Initial findings show that to maximize the progression of postdoctoral scholars, it is important to understand and address their self-identified issues surrounding mentorship and professional barriers that impede their success. The target audiences of this work are institutional programs, individuals who work with postdoctoral scholars, and those with an interest in diversifying and retaining future URM STEM faculty. Recommendations offer suggestions about ways to support, mentor, and build an inclusive community for postdocs that helps them become independent, confident, and competent emerging faculty who can succeed in academia.</t>
+          <t>Abstract While studies of entrepreneurship and local systems—so-called entrepreneurship ecosystems—have grown exponentially in the past decade, most have been cross-sectional, and we still have limited understanding about the evolution of the ecosystem. Building upon the author’s earlier work, this chapter conducts an exploratory analysis of St. Louis, Missouri, over about fifteen years, during which the stakeholders in the region gained confidence as an upcoming entrepreneurial hub with increased venture capital investment and successful exits. The region has also experienced substantial transformation with privatization of support services and major reorientations by non-profit organizations, partially induced by a radical reduction in government funding. As a result, many organizations have pursued niche strategies with sectors and between districts inside the city. Given that the new entrepreneurial community emerged around Caucasian male entrepreneurs, the inclusion of women and minorities has become a pressing regional issue. Overall, the highly complex evolution, with many actors within the ecosystem, suggests that ecosystems do not follow linear patterns of nascence, growth, and maturity, but rather develop in a unique, highly complex way.</t>
         </is>
       </c>
     </row>
@@ -522,98 +522,98 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W4318499542</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/challe14010009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Soleri et al. (2023)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087507141</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0168-0102(92)90045-e</t>
+          <t>https://openalex.org/W1496992349</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Murakami et al. (1992)</t>
+          <t>Bercaw (2013)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Plasticity of neuronal connections in developing brains of mammals</t>
+          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Although mature nervous systems show substantial malleability following various surgical or environmental manipulations, developing brains show far more prominent plasticity, particularly in terms of morphological features. Neuronal circuits, for example, can be dramatically rewired following neonatal but not adult brain lesions. It remains unknown why neuronal circuits in developing brains show such remarkable plasticity. A number of anatomical and physiological studies suggest that there are transient projections in developing brains and they are eliminated by cell death and/or collateral elimination as development proceeds. This raises a possibility that aberrant projections observed following various surgical or environmental manipulations such as partial denervation, results from retention or stabilization of transient projections. However, evidence suggests that cell death does not play an important role in developmental fine-tuning of neuronal projections. Furthermore, although the elimination of axon collaterals takes place, individual neurons appear to elaborate axonal arbors in appropriate target areas, resulting in a net increase in the size of axonal arbor emerging from individual neurons. In accord with these observations, the number of synapses appear to increase during the period when axonal elimination proceeds. Taken together, reinforcement of appropriate projections rather than elimination of excessive connections plays a major role in developmental specification of neuronal connections. Appearance of aberrant projections after partial denervation may not be a consequence of disordered axonal growth, since they form topographic maps which precisely mirrors those for normal projections. They may be induced due to reinforcement of pre-existing neuronal connections rather than to construction of novel pathways. Observations of axonal morphology in denervated areas indicate that lesion-induced enlargement of projections is due to transformation of axonal morphology, from simple and poorly branched to multiply branched. Perhaps such simple and poorly branched axons in inappropriate target areas may represent ones in the course of elimination but they may serve as a source of sprouting when denervated. In other words, after total elimination of axons any surgical or environmental manipulation cannot induce enlargement of projections. The mechanisms underlying such modifiability of neuronal connections remains unclarified but possible participation of an activity-dependent competitive mechanism is discussed.</t>
+          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W2087507141</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0168-0102(92)90045-e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Murakami et al. (1992)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>Plasticity of neuronal connections in developing brains of mammals</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t>Although mature nervous systems show substantial malleability following various surgical or environmental manipulations, developing brains show far more prominent plasticity, particularly in terms of morphological features. Neuronal circuits, for example, can be dramatically rewired following neonatal but not adult brain lesions. It remains unknown why neuronal circuits in developing brains show such remarkable plasticity. A number of anatomical and physiological studies suggest that there are transient projections in developing brains and they are eliminated by cell death and/or collateral elimination as development proceeds. This raises a possibility that aberrant projections observed following various surgical or environmental manipulations such as partial denervation, results from retention or stabilization of transient projections. However, evidence suggests that cell death does not play an important role in developmental fine-tuning of neuronal projections. Furthermore, although the elimination of axon collaterals takes place, individual neurons appear to elaborate axonal arbors in appropriate target areas, resulting in a net increase in the size of axonal arbor emerging from individual neurons. In accord with these observations, the number of synapses appear to increase during the period when axonal elimination proceeds. Taken together, reinforcement of appropriate projections rather than elimination of excessive connections plays a major role in developmental specification of neuronal connections. Appearance of aberrant projections after partial denervation may not be a consequence of disordered axonal growth, since they form topographic maps which precisely mirrors those for normal projections. They may be induced due to reinforcement of pre-existing neuronal connections rather than to construction of novel pathways. Observations of axonal morphology in denervated areas indicate that lesion-induced enlargement of projections is due to transformation of axonal morphology, from simple and poorly branched to multiply branched. Perhaps such simple and poorly branched axons in inappropriate target areas may represent ones in the course of elimination but they may serve as a source of sprouting when denervated. In other words, after total elimination of axons any surgical or environmental manipulation cannot induce enlargement of projections. The mechanisms underlying such modifiability of neuronal connections remains unclarified but possible participation of an activity-dependent competitive mechanism is discussed.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2998473910</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.24252/jad.v17i119i2a2</t>
+          <t>https://openalex.org/W2368076451</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Abbas (2019)</t>
+          <t>Weisen (2007)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SALAFĪ AND SOCIAL RELIGION DYNAMICS IN KENDARI</t>
+          <t>The Nature of Economics in a Perspective of Philosophy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>This article reveals the existence of the salafī community with its various social and religious effects as a new phenomenon of religious diversity in Kendari. Since the presence of the Islamic Center Muadz bin Jabal, the social and religious life of Kendari has indicated some shifts both socially and culturally. Since this issue has not been explored, it is aimed at providing an overview of the existence of ICM as salafī community and its implications for society in a comprehensive manner. This research is qualitative research with a sociological approach with functional and interactional theories. This study shows that the ICM as salafī community has a big influence on presenting new religious phenomenon. They have taken over some religious stages which have been dominated by old communities such as NU and Muhammadiyah, reinforced by the presence of their mass media. The thoughts of salafī, which were initially opposed, began to be accepted by the public and the government, for the salafī in Kendari is generally tolerant, socializing, and adaptable. although there are small groups that are still extreme and less tolerant.Keywords: Salafī; social transformation; Islamic Center Muadz bin Jabal; Kendari; يكشف هذا المقال عن وجود مجتمع السلفي كظاهرة جديدة للتنوع الديني في كنداري مع آثارها الإجتماعية والدينية المختلفة. منذ وجود المركز الإسلامي معاذ بن جبل (ICM)، أشارت الحياة الإجتماعية والدينية في كنداري إلى عدد من التحولات الإجتماعية والثقافية. لم تتأثر ظاهرة الحياة الإجتماعية للتنوع الجديد بالبحث العلمي الذي يقدم نظرة عامة على وجود السلفي وآثاره على المجتمع بطريقة شاملة. هذا البحث هو البحث النوعي مع النهج الاجتماعي مع النظريات الوظيفية والتفاعلية. توضح هذه الدراسة أن المركز الإسلامي معاذ بن جبل كمجتمع السلفيين له تأثير كبير في تقديم ظاهرة دينية جديدة. لقد استولوا على عدد من المراحل الدينية التي سيطرت عليها المجتمعات القديمة مثل نهضة العلماء (NU) والمحمدية(Muhammadiyah)، معززة بوجود وسائل الإعلام الجماهيرية. فتقبل أفكار السلفي بين المسلمين بزيادة التقاليد الرمزية السلفية بينهم. فالبحث يدل على أن السلفيين في كنداري متسامحون وناشؤون الإجتماعية وقابلون للتكيف عامهم. ثم يتم قبوله من قبل الجمهور والحكومة بسهولة، على الرغم من وجود قليل منهم ما يزالون متطرفة وأقل تسامحًا وتعارض موقف السلفيين الذين يعتبرون غير متناسقين.الكلمات المفتاحية: السلفي،التحول الاجتماعي، المركز الإسلامي معاذ بن جبل، كنداري Kajian ini bertujuan untuk mengungkap eksistensi komunitas salafī sebagai sebuah fenomena keberagamaan baru Kota Kendari dengan berbagai efek sosial keagamaan yang ditimbulkannya. Sejak hadirnya institusi Islamic Center Muadz bin Jabal (ICM), kehidupan sosial keagamaan masyarakat Kota Kendari terindikasi telah terjadi sejumlah pergeseran sosial kultural. Fenomena kehidupan sosial keberagamaan wajah baru tersebut belum tersentuh penelitian ilmiah yang memberikan gambaran eksistensi komunitas ICM sebagai salafī dan implikasinya terhadap masyarakat secara komprehensif. Penelitian ini adalah sebuah penelitian kualitatif dengan pendekatan sosiologi dengan teori fungsional dan interaksional. Penelitian ini menunjukkan bahwa ICM sebagai komunitas salafī telah mewarnai Kota Kendari. Para ustadz dan pembina mereka telah banyak berkiprah dan mengambil alih sejumlah panggung keagamaan yang selama ini dikuasai oleh komunitas lama seperti NU dan Muhammadiyah, diperkuat oleh kehadiran media radio dan tv mereka. Paham-paham salafī yang awalnya banyak ditentang masyarakat mulai diterima dan tidak dipersoalkan lagi, bahkan tradisi simbolik salafī seperti memakai jubah dan memperpanjang jenggot semakin marak di masyarakat. Penelitian ini menemukan bahwa salafī di Kota Kendari secara umum toleran, bersosialisasi, beradaptasi dan lebih terbuka sehingga mudah diterima masyarakat bahkan pemerintah, meski terdapat kelompok kecil yang masih ekstrim dan kurang toleran bahkan tidak menerima sikap salafī lainnya yang dianggap tidak konsisten terhadap manhaj salafī.Kata Kunci: Salafī; Transformasi sosial; Islamic Center Muadz bin Jabal; Kendari</t>
+          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
         </is>
       </c>
     </row>
@@ -647,545 +647,437 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205156204</t>
+          <t>https://openalex.org/W4312220199</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.110.s3.1301</t>
+          <t>https://doi.org/10.1021/acsaem.2c03107</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Blum (2002)</t>
+          <t>Periyasamy et al. (2022)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>In 1984, US Surgeon General C. Everett Koop, MD, cohosted a national invitational conference with Undersecretary of Education Madeline Will, focusing on the needs of older adolescents with chronic and disabling conditions.1 For the first time, issues of health care transition were on the national radar. This new attention was brought about by dramatically improved survival rates during the 1970s and early 1980s for children born with chronic and disabling conditions. That conference was followed 5 years later by the 1989 Surgeon General’s Conference titled “Growing Up and Getting Medical Care: Youth with Special Health Care Needs.”2 That conference set forth a national agenda in training, research, and program development with a goal of establishing a seamless health care system that would allow young people with special health care needs to move from child-centered to adult-centered services.Today, nearly 2 decades after the first invitational conference, the process of transitioning youth with special health needs to adult health care appears to be only marginally further ahead of where it was at that time. No doubt, there is more awareness today of the issues facing older adolescents and young adults with special health care needs than there was a generation ago. So too, our knowledge of impediments to and factors that facilitate the transition process has been more clearly established. But it is equally clear that the medical community, specifically, and the health care community, more broadly, have yet to put into place a set of changes needed to ensure that young people most dependent on coordinated health care services are able to make the transition to the adult health care system and still receive the services that they need.It is against this backdrop that in September 2001, the American Academy of Pediatrics sponsored a national invitational conference to bring together leaders from the primary care specialties of pediatrics, internal medicine, and family practice; subspecialties of adolescent medicine, physical medicine and rehabilitation, and neurology and neurodevelopmental disabilities; psychiatry; and the professions of social work, psychology, and nursing as well as parents of young adults with disabilities. The conference was supported by the Maternal and Child Health Bureau of the US Department of Health and Human Services, Health Resources and Services Administration, which has set health care transitions as 1 of its 6 action steps to help ensure that by the year 2010, comprehensive community-based service systems are in place for all children and youth with special health care needs.3 In addition, the Johnson Foundation provided support that allowed the meeting to be held at its educational conference center Wingspread in Racine, Wisconsin. Thirty-eight individuals met from Friday evening until Sunday afternoon to craft a national policy statement on health care transitions.The policy statement (see pages 1304–1306) represents a consensus for the critical first steps that the medical profession needs to undertake if the vision of a family-centered, continuous, comprehensive, coordinated, compassionate, and culturally competent health care system that is as developmentally appropriate as it is technically sophisticated is to be realized. This consensus document has now been approved as policy by the boards of directors of the American Academy of Pediatrics, the American Academy of Family Practice, and the American College of Physicians-American Society of Internal Medicine.In preparing for the conference, 4 papers were commissioned that together deepen our understanding of the health care transition process, the financial factors that complicate that process, and models of care coordination that have the promise of facilitating it.In their article, “Health Care Transition: Destinations Unknown,” Reiss and Gibson review the evolving policies in the United States related to health care transition from the first conference that was held through a 1999 meeting titled “Transition Revolution.” In the 1999 meeting, it was recommended that youth with special health care needs participate as decision makers and partners in the planning process for their own health care. Additionally, participants urged that all youth with special health care needs have identified medical homes that are responsive to their needs. They saw Title V of the Social Security Act4 as a vehicle to facilitate the development of transition systems for children, youth, and young adults with special health care needs and their families, and they identified as a priority the need to provide youth with special health care needs accessible and affordable insurance coverage. Reiss and Gibson provide data from youth, parent, and provider focus groups that identify factors that impede and that promote health care transition in 3 domains: service needs, structural issues, and personal preferences and interpersonal dynamics. They con</t>
+          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
+          <t>https://openalex.org/W3117802593</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
+          <t>Abysova &amp; Шоріна (2020)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3117802593</t>
+          <t>https://openalex.org/W4380877901</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
+          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Abysova &amp; Шоріна (2020)</t>
+          <t>Rani et al. (2023)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
+          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
+          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392774098</t>
+          <t>https://openalex.org/W4281249674</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4271/2023-01-5143</t>
+          <t>https://doi.org/10.1177/21651434221098411</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kumar et al. (2024)</t>
+          <t>Howorth et al. (2022)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Design and Testing of Unmanned Aerial Vehicle with Morphing Control Surface</t>
+          <t>Effects of an Abbreviated and Adapted PEERS® Curriculum as Part of a College Transition Program for Young Adults on the Autism Spectrum</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&amp;lt;div class="section abstract"&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The prospective generation of Unmanned Aerial Vehicles (UAVs) can attempt to eliminate conventional primary control surfaces, thereby seeking to enhance operational efficiency. This endeavor constitutes an experimental manifestation of morphing principles utilizing Shape Memory Alloy (SMA), specifically Nitinol, to actuate control surfaces through a meticulously orchestrated application of power cycles at diverse frequencies. The integration of Morphing Technology has garnered heightened attention within the aviation industry, owing to its capacity to augment efficiency and performance across a spectrum of flight conditions.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The intrinsic appeal of morphing lies in its potential to dynamically alter wing geometry during flight, thereby optimizing fuel efficiency and mitigating environmental impact through diminished carbon emissions resulting from reduced drag. This, in turn, necessitates reduced thrust to achieve similar or same performance levels.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The pivotal material employed for achieving desired shape alterations is Nitinol, distinguished by its Shape Memory Alloy (SMA) characteristics when subjected to controlled heating beyond its transformation temperature. The process entails the passage of current through the Nitinol wire until it reverts to its initial preset configuration. However, this method is inherently limited, attaining only maximum deflection when activated and maintaining a neutral deflection when inactive.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;To overcome this inherent constraint, a strategy is devised, involving the manipulation of the control surface deflection angle. This is accomplished through the judicious activation and deactivation of the circuit at varied time intervals, enabling a spectrum of deflection angles to be achieved. This transformative approach holds considerable promise for application in low and medium altitude UAVs, thereby potentially extending their range and/or endurance. With a potential to improve of approx. 2% can be observed compared to conventional methods.&amp;lt;/div&amp;gt;&amp;lt;/div&amp;gt;</t>
+          <t>College students on the autism spectrum report the following support needs: interpersonal skills and coping with unexpected change. The purpose of this pilot study was to investigate the effects of an interpersonal skills seminar using elements of the PEERS® curriculum on the acquisition of conversational behaviors by three young adults on the autism spectrum who were attending a summer college transition program designed to help prepare and familiarize individuals with college living. A multiple probe across behaviors design was used. According to visual analysis, a functional relation was not established between participation and acquisition of foundational conversational skills. Our findings provide a model for how state vocational rehabilitation agencies and institutes of higher education can collaborate to provide effective support for college students with autism spectrum disorder.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2966563235</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oxfordhb/9780190460518.013.24</t>
+          <t>https://openalex.org/W2891140531</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Borge-Holthoefer et al. (2018)</t>
+          <t>Malamud &amp; Pop-Eleches (2008)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Studying Networked Communication in the Middle East</t>
+          <t>General Education vs. Vocational Training: Evidence from an Economy in Transition</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Digital infrastructure has been rapidly embraced in the Arab Middle East and North Africa in the last decade, opening a unique window for computational social science and network data science scholars. However, there are currently two coexisting social and economic realities in the region, which result in very different usages and dynamics of networked communication: countries with chronic civil unrest in which digital media have largely served as mobilization tools (e.g., Tunisia, Egypt), and relatively stable and wealthy societies that face social change and economic hyper-development (e.g., Qatar, Kuwait). Given such diversity across the region, how and why should social scientists study digital networks in the Middle East? What can digital networks teach us about the social and political aspects of the modern Middle East? In sum, while claims about digital technologies’ impacts across the region have been critiqued for being speculative and overblown, we suggest that digital technologies have instead broadened our ability to understand ongoing transformations among Arab states and societies.</t>
+          <t>This paper examines the relative benefits of general education and vocational training in Romania, a country which experienced major technological and institutional change during its transition from Communism to a market economy. To avoid the bias caused by non-random selection, we exploit a 1973 educational reform which shifted a large proportion of students from vocational training to general education while keeping average years of schooling unchanged. Using data from the 1992 and 2002 Romanian Censuses and household surveys from 1995-2000, we analyze the effect of this policy with a regression discontinuity design. We found that men in cohorts affected by the policy were significantly less likely to work in manual or craft-related occupations than their counterparts who were unaffected by the policy. However, in contrast to cross-sectional findings, we found no difference in labor market participation or earnings between cohorts affected and unaffected by the policy. We therefore conclude that differences in labor market returns between graduates of vocational and general schools are largely driven by selection.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2891140531</t>
+          <t>https://openalex.org/W2994567979</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Malamud &amp; Pop-Eleches (2008)</t>
+          <t>IuV et al. (2013)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>General Education vs. Vocational Training: Evidence from an Economy in Transition</t>
+          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>This paper examines the relative benefits of general education and vocational training in Romania, a country which experienced major technological and institutional change during its transition from Communism to a market economy. To avoid the bias caused by non-random selection, we exploit a 1973 educational reform which shifted a large proportion of students from vocational training to general education while keeping average years of schooling unchanged. Using data from the 1992 and 2002 Romanian Censuses and household surveys from 1995-2000, we analyze the effect of this policy with a regression discontinuity design. We found that men in cohorts affected by the policy were significantly less likely to work in manual or craft-related occupations than their counterparts who were unaffected by the policy. However, in contrast to cross-sectional findings, we found no difference in labor market participation or earnings between cohorts affected and unaffected by the policy. We therefore conclude that differences in labor market returns between graduates of vocational and general schools are largely driven by selection.</t>
+          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2994567979</t>
+          <t>https://openalex.org/W2147719913</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/1471-2091-8-s1-s12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IuV et al. (2013)</t>
+          <t>Upadhya &amp; Hegde (2007)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
+          <t>Role of the ubiquitin proteasome system in Alzheimer's disease</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
+          <t>Though Alzheimer's disease (AD) is a syndrome with well-defined clinical and neuropathological manifestations, an array of molecular defects underlies its pathology. A role for the ubiquitin proteasome system (UPS) was suspected in the pathogenesis of AD since the presence of ubiquitin immunoreactivity in AD-related neuronal inclusions, such as neurofibrillary tangles, is seen in all AD cases. Recent studies have indicated that components of the UPS could be linked to the early phase of AD, which is marked by synaptic dysfunction, as well as to the late stages of the disease, characterized by neurodegeneration. Insoluble protein aggregates in the brain of AD patients could result from malfunction or overload of the UPS, or from structural changes in the protein substrates, which prevent their recognition and degradation by the UPS. Defective proteolysis could cause the synaptic dysfunction observed early in AD since the UPS is known to play a role in the normal functioning of synapses. In this review, we discuss recent observations on possible links between the UPS and AD, and the potential for utilizing UPS components as targets for treatment of this disease. Publication history: Republished from Current BioData's Targeted Proteins database (TPdb; http://www.targetedproteinsdb.com ).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3011699526</t>
+          <t>https://openalex.org/W2019313590</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/milcom47813.2019.9021021</t>
+          <t>https://doi.org/10.1353/mon.2012.0017</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vanderpoorten et al. (2019)</t>
+          <t>Kniesche (2012)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Flexible Modem Interface Demonstration for Military Terminals</t>
+          <t>Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Satellite Communications (SATCOM) industry is undergoing revolutionary changes as next generation technologies enable ubiquitous and diverse service offerings at an order of magnitude lower price point. The flexibility to roam between hybrid service providers comprised of government, commercial and international systems is an important attribute of the DoD SATCOM Enterprise that delivers high capacity, global coverage and resiliency to warfighters. Terminal flexibility to operate across networks, in multiple frequency bands, and supporting various waveforms/modems is a key capability in an architecture where roaming at the speed of military operations for assured communications is essential. What follows is the results of the Air Force Space Command (AFSPC), Space and Missile Systems Center (SMC), Advanced Concept Division (MCX) pioneered Flexible Modem Interface (FMI) effort which establishes the building blocks for a SATCOM Enterprise. FMI has been matured through a series of technology development initiatives, including a multi-vendor demonstration of the architecture, interfaces, and operational benefits of flexible terminals. The results of the rich learning through various vendor implementation of the core FMI capabilities and robust demonstrated use cases paved the way to the future FMI development.</t>
+          <t>Reviewed by: Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933 Thomas W. Kniesche Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933. By Erik Butler. Rochester, N.Y.: Camden House, 2010. ix + 225 pages. $75.00. The purpose of Erik Butler's book is to provide "a coherent, historically informed theory of the vampire" and "to account for the logic underlying the vampire's many and conflicting forms" (vii). At first glance, this seems to be a lofty goal for such a relatively slim volume, but the author is able to cover a lot of ground. Literary and non-literary texts by English, French, and German authors and films from the Weimar period are used to shed light on the figure of the vampire. The last chapter adds Hollywood movies, the TV show Buffy, the Vampire Slayer, the novels of Anne Rice, and [End Page 112] other monsters, such as cyborgs and zombies, to the mix. The historical framework indicated in the subtitle hints at his major thesis. According to Butler, the vampire is an eminently modern phenomenon: it owes its far-reaching impact and ongoing fascination to processes of change and transformation, to the crises that are constantly generated by modernization and the uncertainties and upheavals in its wake. Butler dismisses the countless pre-modern examples of vampire stories and myths of similar beings that are a staple of many diverse cultures and maintains that "real" vampires did not exist before the 1700s (5). In his introduction, Butler calls his methodological approach to the topic of vampirism a "[c]ultural teratology" (1) and defines the term as "the science of phenomena that contravene the rules of regularity and stability [ . . . ]" (8). He lists Carlo Ginzburg, Michel Foucault, Jacques Lacan, and René Girard as his sources of inspiration (8-9). He also freely admits his "debt to psychoanalysis" and states that "in large part, the study reads works as imaginary projections" (viii). His readings are indeed informed by Freudian and, to a limited extent, Lacanian concepts, but the study does not provide any in-depth discussion of psychoanalytic thinking. Referring to Foucault's Madness and Civilization, Butler argues that monstrosity is that against which man defines himself and his normalcy. He then goes on to claim that the vampire is a different kind of monster: by shape-shifting all the time, the vampire does not provide a steady monstrosity that would allow "us" to define ourselves. "Instead of giving us a stable enemy, the vampire belongs to multiple worlds, including our own. It therefore reflects an anxiety that we, perhaps, do not know at all who 'we' are" (9). The first of three parts of the book is devoted to the beginning of the modern discourse on vampires in the early 18th century and to the image of the vampire in the Enlightenment and Romanticism. Chapter One discusses early reports of vampirism in Eastern Europe and shows that vampirism was invented as a scholarly discourse during a time of crisis and confusion, brought about by secularization and metaphysical uncertainty. Butler also stresses the political dimension of the belief in vampires and claims that "Serbian vampirism suggested the vulnerability of the House of Habsburg" (36). The second chapter highlights the vampire as a means of political satire. According to this line of reasoning, in the late 18th and early 19th century, the vampire was "a uniquely dynamic allegory for the depersonalizing aspects of modernization" (54). The Romantic vampire—in the works of Shelley, Baudelaire, Brentano, and Heine—is, according to Butler, an extension of the writer's "sense of dislocation and alienation resulting from political transformations" (63). The second part of the study, entitled "England and France," looks at the 19th century vampire and features Polidori's vampire Lord Ruthven and Bram Stoker's Count Dracula. What is new about these two vampires, according to Butler, is that they represent the fluidity of modern class relations. Although Lord Ruthven may have been modeled after Lord Byron (88), the former also bears traits of a "factory owner" (92). Butler notes that Bram Stoker's Dracula establishes himself in London via "property deeds...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019313590</t>
+          <t>https://openalex.org/W1541265469</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mon.2012.0017</t>
+          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kniesche (2012)</t>
+          <t>Razavi (2012)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933</t>
+          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Reviewed by: Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933 Thomas W. Kniesche Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933. By Erik Butler. Rochester, N.Y.: Camden House, 2010. ix + 225 pages. $75.00. The purpose of Erik Butler's book is to provide "a coherent, historically informed theory of the vampire" and "to account for the logic underlying the vampire's many and conflicting forms" (vii). At first glance, this seems to be a lofty goal for such a relatively slim volume, but the author is able to cover a lot of ground. Literary and non-literary texts by English, French, and German authors and films from the Weimar period are used to shed light on the figure of the vampire. The last chapter adds Hollywood movies, the TV show Buffy, the Vampire Slayer, the novels of Anne Rice, and [End Page 112] other monsters, such as cyborgs and zombies, to the mix. The historical framework indicated in the subtitle hints at his major thesis. According to Butler, the vampire is an eminently modern phenomenon: it owes its far-reaching impact and ongoing fascination to processes of change and transformation, to the crises that are constantly generated by modernization and the uncertainties and upheavals in its wake. Butler dismisses the countless pre-modern examples of vampire stories and myths of similar beings that are a staple of many diverse cultures and maintains that "real" vampires did not exist before the 1700s (5). In his introduction, Butler calls his methodological approach to the topic of vampirism a "[c]ultural teratology" (1) and defines the term as "the science of phenomena that contravene the rules of regularity and stability [ . . . ]" (8). He lists Carlo Ginzburg, Michel Foucault, Jacques Lacan, and René Girard as his sources of inspiration (8-9). He also freely admits his "debt to psychoanalysis" and states that "in large part, the study reads works as imaginary projections" (viii). His readings are indeed informed by Freudian and, to a limited extent, Lacanian concepts, but the study does not provide any in-depth discussion of psychoanalytic thinking. Referring to Foucault's Madness and Civilization, Butler argues that monstrosity is that against which man defines himself and his normalcy. He then goes on to claim that the vampire is a different kind of monster: by shape-shifting all the time, the vampire does not provide a steady monstrosity that would allow "us" to define ourselves. "Instead of giving us a stable enemy, the vampire belongs to multiple worlds, including our own. It therefore reflects an anxiety that we, perhaps, do not know at all who 'we' are" (9). The first of three parts of the book is devoted to the beginning of the modern discourse on vampires in the early 18th century and to the image of the vampire in the Enlightenment and Romanticism. Chapter One discusses early reports of vampirism in Eastern Europe and shows that vampirism was invented as a scholarly discourse during a time of crisis and confusion, brought about by secularization and metaphysical uncertainty. Butler also stresses the political dimension of the belief in vampires and claims that "Serbian vampirism suggested the vulnerability of the House of Habsburg" (36). The second chapter highlights the vampire as a means of political satire. According to this line of reasoning, in the late 18th and early 19th century, the vampire was "a uniquely dynamic allegory for the depersonalizing aspects of modernization" (54). The Romantic vampire—in the works of Shelley, Baudelaire, Brentano, and Heine—is, according to Butler, an extension of the writer's "sense of dislocation and alienation resulting from political transformations" (63). The second part of the study, entitled "England and France," looks at the 19th century vampire and features Polidori's vampire Lord Ruthven and Bram Stoker's Count Dracula. What is new about these two vampires, according to Butler, is that they represent the fluidity of modern class relations. Although Lord Ruthven may have been modeled after Lord Byron (88), the former also bears traits of a "factory owner" (92). Butler notes that Bram Stoker's Dracula establishes himself in London via "property deeds...</t>
+          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2989934957</t>
+          <t>https://openalex.org/W2116178833</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/1386/1/012135</t>
+          <t>https://doi.org/10.1093/forestry/cpp023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salazar et al. (2019)</t>
+          <t>Macdonald et al. (2009)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Semi-automatic detection of the evolutionary forms of visceral leishmaniasis in microscopic blood smears</t>
+          <t>The effects of transformation of even-aged stands to continuous cover forestry on conifer log quality and wood properties in the UK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Abstract Leishmaniasis is a complex group of diseases caused by obligate unicellular and intracellular eukaryotic protozoa of the leishmania genus. Leishmania species generate diverse syndromes ranging from skin ulcers of spontaneous resolution to fatal visceral disease. These syndromes belong to three categories: visceral leishmaniasis, cutaneous leishmaniasis and mucosal leishmaniasis. The visceral leishmaniasis is based on the reticuloendothelial system producing hepatomegaly, splenomegaly and lymphadenopathy. In the present article, a semiautomatic segmentation strategy is proposed to obtain the segmentations of the evolutionary shapes of visceral leishmaniasis called parasites, specifically of the type amastigote and promastigote. For this purpose, the optical microscopy images containing said evolutionary shapes, which are generated from a blood smear, are subjected to a process of transformation of the color intensity space into a space of intensity in gray levels that facilitate their subsequent preprocessing and adaptation. In the preprocessing stage, smoothing filters and edge detectors are used to enhance the optical microscopy images. In a complementary way, a segmentation technique that groups the pixels corresponding to each one of the parasites, presents in the considered images, is applied. The results reveal a high correspondence between the available manual segmentations and the semi-automatic segmentations which are useful for the characterization of the parasites. The obtained segmentations let us to calculate areas and perimeters associated with the parasites segmented. These results are very important in clinical context where both the area and perimeter calculated are vital for monitoring the development of visceral leishmaniasis.</t>
+          <t>There is an increasing move in the UK to transform even-aged, single-species conifer plantations to continuous cover forest, i.e. more diverse and irregular stand structures. However, experience of doing this is limited and research to date has not addressed the consequences of this change on timber quality. This paper reviews the impact of transformation on timber quality and wood properties and uses coupled growth and timber property model simulations to examine the effects of different transformation scenarios on Sitka spruce (Picea sitchensis (Bong.) Carr.). The results of the modelling broadly confirmed the conclusions from the literature review. Five key aspects of transformation are considered. Retaining trees to older ages can produce higher quality timber with improved mechanical properties. Regular selective thinning and increased use of crown thinning will improve timber quality, but timing is critical to avoid producing highly tapered trees with heavy branches. Creating gaps in a uniform canopy will generally have a negative impact on the timber quality of the trees around the gap edges. Increased variation in tree age, size, spacing and species will result in greater variation in log quality and wood properties. Using natural regeneration reduces the opportunities for improved growth and timber quality offered by selectively bred planting stock but can deliver good-quality timber if the characteristics of the original stand are suitable and adequate stocking is achieved. The main conclusion of this review is that transformation to continuous cover forestry will not lead to a significant reduction or improvement in the quality of timber being produced in forests in the UK. The main effect will probably be to increase the variation of log sizes and wood properties that are available in the market.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W3116970065</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Лиханова et al. (2020)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229036095</t>
+          <t>https://openalex.org/W2322574685</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18255/2412-6519-2022-1-32-43</t>
+          <t>https://doi.org/10.1111/anti.12229</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Karadhe (2022)</t>
+          <t>Verga (2016)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Paradoxes of the methodology of modern political science: possibilities and limits</t>
+          <t>Rhetoric in the Representation of a Multi-Ethnic Neighbourhood: The Case of Via Padova, Milan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The article attempts to consider the reasons for limiting the analytical and predictive capabilities of the methodology of modern political science. On the basis of various approaches, the factors that hinder the objective analysis and forecasting of the political are analyzed. The ontological, epistemological and praxiological aspects of the analysis of this problem are presented. It is noted that the formation of a global system is accompanied by the emergence of new properties, including interdependence, increased turbulence and chaotic behavior, cascading effects of changes, the growth of fluctuations and emergent manifestations that increase uncertainty and instability. At the same time, the research apparatus of the methodology of political science does not reflect the complexity, dynamics and diversity of the new emerging interconnections of the open global system, which necessitates its revision, activation of its further development, transition to a new constructivist paradigm. The article examines the importance of interdisciplinarity in the formation of new areas of political science, as well as the role of transdisciplinarity in the formation of new research strategies. The impossibility of forecasting based on successful models and methods in the past, extrapolation of the system of causal relationships of local systems in a state of relative stability to the prediction of open unstable systems is noted. The praxeological analysis allowed us to consider the features of the process of interpreting the results of analytical and predictive activities, the importance of the interest of political actors in the implementation of the results of scientific activity in political practice.</t>
+          <t>This paper analyses how the neighbourhood of Via Padova in Milan, Italy has been represented and problematized by the media and the last two municipal administrations over the last decade. Since the late 1990s, Via Padova has undergone a significant socio-demographic transformation, one which has eventually characterised the area as one of the most multi-ethnic and diverse districts in the whole city. However, this transformation process and the upcoming new framework for the neighbourhood have been explained and approached in very different (and contested) ways. The aim of this paper is to compare the different narratives provided by both the media and also governmental institutions during the formerly right-wing and current left-wing administrations, and the implications of this, both in the shaping of a collective image of the area and in the development of local policies. L'articolo analizza come nello scorso decennio il quartiere di Via Padova a Milano sia stato rappresentato e problematizzato dai media e dalle ultime due amministrazioni comunali. A partire dalla fine degli Anni Novanta l'area in questione ha subito un profondo mutamento socio-demografico che ha progressivamente caratterizzato Via Padova come uno dei settori più eterogenei e multietnici della città. Tuttavia, negli anni sono emerse letture ed interpretazioni discordanti di questo processo di trasformazione e della risultante nuova struttura del quartiere. L'articolo compara le diverse narrative fornite dai media e dalla giunta comunale, sia durante la passata amministrazione di centro-destra che durante quella attuale di centro-sinistra, al fine di individuare le implicazioni di queste nella costruzione di un immaginario pubblico del quartiere e nello sviluppo di specifiche politiche locali.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3116970065</t>
+          <t>https://openalex.org/W2490211392</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
+          <t>https://doi.org/10.1017/chol9780521816052</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Лиханова et al. (2020)</t>
+          <t>Brown &amp; Tackett (2006)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
+          <t>The Cambridge History of Christianity</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
+          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322574685</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/anti.12229</t>
+          <t>https://openalex.org/W589563035</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Verga (2016)</t>
+          <t>Chaouche (1991)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rhetoric in the Representation of a Multi-Ethnic Neighbourhood: The Case of Via Padova, Milan</t>
+          <t>Une méthode de collocation pour la prédiction et l'analyse des écoulements et des transferts dans les milieux en rotation rapide</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>This paper analyses how the neighbourhood of Via Padova in Milan, Italy has been represented and problematized by the media and the last two municipal administrations over the last decade. Since the late 1990s, Via Padova has undergone a significant socio-demographic transformation, one which has eventually characterised the area as one of the most multi-ethnic and diverse districts in the whole city. However, this transformation process and the upcoming new framework for the neighbourhood have been explained and approached in very different (and contested) ways. The aim of this paper is to compare the different narratives provided by both the media and also governmental institutions during the formerly right-wing and current left-wing administrations, and the implications of this, both in the shaping of a collective image of the area and in the development of local policies. L'articolo analizza come nello scorso decennio il quartiere di Via Padova a Milano sia stato rappresentato e problematizzato dai media e dalle ultime due amministrazioni comunali. A partire dalla fine degli Anni Novanta l'area in questione ha subito un profondo mutamento socio-demografico che ha progressivamente caratterizzato Via Padova come uno dei settori più eterogenei e multietnici della città. Tuttavia, negli anni sono emerse letture ed interpretazioni discordanti di questo processo di trasformazione e della risultante nuova struttura del quartiere. L'articolo compara le diverse narrative fornite dai media e dalla giunta comunale, sia durante la passata amministrazione di centro-destra che durante quella attuale di centro-sinistra, al fine di individuare le implicazioni di queste nella costruzione di un immaginario pubblico del quartiere e nello sviluppo di specifiche politiche locali.</t>
+          <t>Une methode pseudo-spectrale de type collocation, sur la base des polynomes de chebyshev, est developpee pour la resolution des equations de navier-stokes instationnaires et la prediction des mouvements et des transferts d'un fluide de boussinesq dans une cavite en rotation rapide. L'utilisation de schemas d'adams-bashforth et d'euder retarde du second ordre associee a la technique de la matrice d'influence conduit a la resolution d'une succession d'equations de poisson-helmholtz avec des conditions limites de type dirichlet. Cette technique a ete etendue a diverses configurations de conditions limites de type neumann. Quelques regimes d'ecoulements stationnaires ou dependant du temps, generes par differents mecanismes moteurs sont etudies. Dans le cas des gradients thermiques, on s'est interesse a l'etude de l'interaction convection-rotation en cavite fermee afin de delimiter les differents regimes domines par l'une des forces en competition. Dans le cas d'un flux force radial, l'etude porte sur les differents regimes laminaires, lineaire ou non lineaire, avec des conditions de type dirichlet en sortie de cavite. L'extension a des conditions de tyupe neumann a aussi ete examinee. Dans le cas ou le mouvement est genere par la rotation differentielle dans une cavite fermee de grand allongement et pour lequel existent des resultats experimentaux, on s'est notamment attache a identifier les differents regimes avec une particuliere attention pour ceux au voisinage de la transition turbulente. Enfin, il est propose une extension de la methode de collocation en configuration tridimensionnelle en vue d'une simulation directe de la turbulence</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3087208638</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/adsc.202000896</t>
+          <t>https://openalex.org/W3106467977</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kumar et al. (2020)</t>
+          <t>Vélez &amp; Ramírez (2018)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Propargylic Alcohols as Coupling Partners in Transition‐Metal‐Catalyzed Arene C−H Activation</t>
+          <t>La escultura como medio representativo de la carrera de artes plásticas utmach</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Abstract Transition‐metal‐catalyzed site selective arene C−H bond activation concomitant functionalization with various coupling partners gain magnificent attraction in synthetic organic chemistry as complementary to traditional transformations. Mechanistically, these C−H functionalization approaches involve directing group assisted concerted metalation‐deprotonation (CMD), migratory insertion, and reductive elimination sequences. In this realm, diverse categories of coupling partners were employed as C−H functionalization buddies. Particularly alkynes gain enormous attention as annulating agents. These units coordinates with metalcycle through π‐interaction produce annulation outcomes in a straightforward manner. Very recently, propargylic alcohols were appointed as valuable archetypes in arene C−H activation armoury, as they have shown regio‐ and chemoselective migratory insertion into primary metalcycle species via hydroxy chelation. The influential regioselectivity was drawn by dual coordination of metal complexes with the pendent directing group and a propargylic hydroxyl group. In this review, we focused on annulations and functionalization of arenes and propargylic alcohols, which afford intricate cycles as well as complex acyclic motifs in a trouble‐free manner. We categorized these transformations based on number of atoms of propargylic alcohols involved in annulation along with some addition reactions. We anticipate to pave a way towards enhanced endeavours for discovering novel reaction avenues. magnified image</t>
+          <t>The present project of titulacion, aims to inform the student community the emergence of the School of Fine Arts, name with which the current Career of Plastic Arts of the UTMACH was founded; for which sculpture is used as an ideal artistic medium, taking advantage of new materials and contemporary possibilities to achieve the dissemination and massification of that. Life and art through time have created a close communicative relationship, which strengthens history by marking an important value of sculpture, thanks to this plastic method can generate a contribution of knowledge, through the representation of a social event and cultural, full of merits and connotation of constant effort in order to conceive an objective, reaching the expectant in a diachronic manner. In search of altering space and time, this enriching contribution becomes a transcendental aesthetic contemplation in the academic community. As a main element of artistic promotion and diffusion, the Totem will be taken into account and what it represented for the ancestral culture that was to inform allegorically; then, in this aspect will be inserted compositional elements that are able to reach the viewer and thus demonstrate that the sculpture is of great importance because it transmits a message to the university spectator. By means of which the representation of this artistic object, named perpetuidad memorial, was used as a way to recognize the effort and work of Soc. Ramiro Ordonez, who saw in the city of Machala, the inherent need of implement a career that defines a cultural vision. For this, a small space is intervened within the UTMACH Campus Machala, which will be strategic, managing to convey the message directly about what art is and who formed it as an educational space for higher education. The arts degree is finally legitimized on September 2, 2003. Starting in 2004 its academic period, with the aim of training artists with extensive experience with a critical thinking that understands the importance of art in social development. Art seeks to confront the barriers that arise along the way, conjugating, signs and symbols, which put into question the present, retaking part of the past, to visualize the future, starting from images and pre-Columbian icons and those ideologies of contemplation by man guiding us in his anthropomorphic and sequential figures, capable of intervening in the educational and transitional space, orienting motivated students, predominating the will, delimited by curiosity. Art and public spaces, since a long time ago have been giving diversities of artistic interventions, giving another meaning to things. The totemic sculpture allows us to make visible, the artistic representation and other facts relevant to the construction of identity or origin, which will last over time, even if the work or the artist is extinguished, part of it will remain latent in the subconscious, as well as photographic records and electronic media.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2490211392</t>
+          <t>https://openalex.org/W2076518520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/chol9780521816052</t>
+          <t>https://doi.org/10.3200/demo.13.4.543-594</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brown &amp; Tackett (2006)</t>
+          <t>Hahn (2005)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The Cambridge History of Christianity</t>
+          <t>The Rise of Islamist Extremism in Kabardino-Balkariya</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
+          <t>Abstract: This article examines the expansion of Russia's emerging Chechen-led revolutionary Islamist terrorist network into the central-western North Caucasian republic of Kabardino-Balkariya (the Republic of Kabardino-Balkaria or KBR), which in many ways is the geopolitical and ethnopolitical gateway to the western North Caucasus. The network's expansion into the region demonstrates the ability of Chechen-based Islamism to travel across geography and ethnicity among Russia's Muslims. This article argues for a comprehensive, multicausal explanation of communal mobilization that includes international, institutional, and economic factors in addition to communal-political ones, especially in cases of extremist terrorist groups, such as those in Russia's growing revolutionary Islamist network. It also shows that in Russia, as elsewhere, the international jihadist movement, inspired and funded by al Qaeda, has made some progress in coopting local nationalist movements among Muslim peoples to the Islamist cause. Key words: Chechnya, jihad, Kabardino-Balkariya, Islamism, terrorism ********** Russia's ongoing Chechen war and President Vladimir Putin's antifederalist, antidemocratic recentralizing counterrevolution are leading to the radical re-Islamization of some of Russia's Muslims and the formation of a geographically expansive, ethnically diverse, flexibly organized terrorist Islamist network across Russia, not unlike the al Qaeda model on the international level. If earlier the Islamist network of combat jamaats was limited first to the eastern North Caucasus--Chechnya, then Dagestan and Ingushetiya--it has recently spread to the western North Caucasus, dominated by the Circassian (or Adygei) groups. The emergence of Islamist cells, jamaats, or a full-fledged network node in the KBR, would not only reflect on the jihadist movement's geographical reach, but also on its potential multiethnic, pan-Caucasus and pan-Islamic appeal. The appearance of Islamism in the KBR seems to confirm that frustrated ethnonationalist aspirations under certain conditions can transmogrify into Islamic nationalism or revolutionary Islamist jihadism. The Immediate Causes of Communalism and Islamist Mobilization under Putin Watershed historical turns and processes, such as war, revolution, and other forms of regime transformation, have multiple causes. They are simply too large and multifaceted to be explained by one or two causes. Long-term historical, cultural, and structural causes mix with intermediate and immediate tipping or precipitating causes to produce major events. Putting aside historical (past conflict between the parties) and cultural (tendencies toward authoritarianism, expansion, and violence among the parties) structural causes, there are at least six intermediate and immediate causes of rising communalism (the drive for isolation and self-determination based on ethnic, national, linguistic, religious, or regional identity communities), Islamic nationalism, and Islamist terrorism in Russia. First and foremost, the festering Chechnya quagmire and the penetration of international Islamist terrorists through the Chechen movement are fomenting Islamist mobilization, revolution, and war throughout many Muslim-populated regions of Russia. The ongoing Chechen war is facilitating the international Islamists' deeper infiltration into Russia by justifying radicalism in some Muslims' eyes and extending the influence of Islamists beyond Chechnya. In the new war, both sides have attained an inhumane scale of atrocity. On the Russian side, the indiscriminate use of force at the start of the war was succeeded by more precise, but still often criminal, security sweeps, involving the seizure and murder of many thousands of innocent Chechens. On the Chechen side, there have been small-scale and unprecedented large-scale terrorist attacks, including suicide bombings and hospital and school sieges, targeting innocent citizens, including schoolchildren. …</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W589563035</t>
+          <t>https://openalex.org/W2026250138</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chaouche (1991)</t>
+          <t>Callahan (2015)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Une méthode de collocation pour la prédiction et l'analyse des écoulements et des transferts dans les milieux en rotation rapide</t>
+          <t>Opening the Door to Transgender Care</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>Une methode pseudo-spectrale de type collocation, sur la base des polynomes de chebyshev, est developpee pour la resolution des equations de navier-stokes instationnaires et la prediction des mouvements et des transferts d'un fluide de boussinesq dans une cavite en rotation rapide. L'utilisation de schemas d'adams-bashforth et d'euder retarde du second ordre associee a la technique de la matrice d'influence conduit a la resolution d'une succession d'equations de poisson-helmholtz avec des conditions limites de type dirichlet. Cette technique a ete etendue a diverses configurations de conditions limites de type neumann. Quelques regimes d'ecoulements stationnaires ou dependant du temps, generes par differents mecanismes moteurs sont etudies. Dans le cas des gradients thermiques, on s'est interesse a l'etude de l'interaction convection-rotation en cavite fermee afin de delimiter les differents regimes domines par l'une des forces en competition. Dans le cas d'un flux force radial, l'etude porte sur les differents regimes laminaires, lineaire ou non lineaire, avec des conditions de type dirichlet en sortie de cavite. L'extension a des conditions de tyupe neumann a aussi ete examinee. Dans le cas ou le mouvement est genere par la rotation differentielle dans une cavite fermee de grand allongement et pour lequel existent des resultats experimentaux, on s'est notamment attache a identifier les differents regimes avec une particuliere attention pour ceux au voisinage de la transition turbulente. Enfin, il est propose une extension de la methode de collocation en configuration tridimensionnelle en vue d'une simulation directe de la turbulence</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4394323842</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6084/m9.figshare.5734311</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Lavinas &amp; Simões (2017)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SOCIAL POLICY AND STRUCTURAL HETEROGENEITY IN LATIN AMERICA: THE TURNING POINT OF THE 21ST CENTURY</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ABSTRACT This article addresses the complementarity between social policy and pro-growth macroeconomic policies, which turned redistribution into a crucial issue to consolidate market societies through the expansion of demand. It focuses on the recent economic history of Latin America, marked by the emergence of new conceptual paradigms so as to grasp the singularities of the region´s development. Three questions are then raised: i) which social inclusion model distinguishes the new period of economic growth led by the so called social-developmentalist strategies? ii) what role is assigned to the social protection system and to social policies in general in this context? iii) which mechanisms enabled the transition towards a mass-consumption society? Brazil will serve as a case study.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3106467977</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Vélez &amp; Ramírez (2018)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>La escultura como medio representativo de la carrera de artes plásticas utmach</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>The present project of titulacion, aims to inform the student community the emergence of the School of Fine Arts, name with which the current Career of Plastic Arts of the UTMACH was founded; for which sculpture is used as an ideal artistic medium, taking advantage of new materials and contemporary possibilities to achieve the dissemination and massification of that. Life and art through time have created a close communicative relationship, which strengthens history by marking an important value of sculpture, thanks to this plastic method can generate a contribution of knowledge, through the representation of a social event and cultural, full of merits and connotation of constant effort in order to conceive an objective, reaching the expectant in a diachronic manner. In search of altering space and time, this enriching contribution becomes a transcendental aesthetic contemplation in the academic community. As a main element of artistic promotion and diffusion, the Totem will be taken into account and what it represented for the ancestral culture that was to inform allegorically; then, in this aspect will be inserted compositional elements that are able to reach the viewer and thus demonstrate that the sculpture is of great importance because it transmits a message to the university spectator. By means of which the representation of this artistic object, named perpetuidad memorial, was used as a way to recognize the effort and work of Soc. Ramiro Ordonez, who saw in the city of Machala, the inherent need of implement a career that defines a cultural vision. For this, a small space is intervened within the UTMACH Campus Machala, which will be strategic, managing to convey the message directly about what art is and who formed it as an educational space for higher education. The arts degree is finally legitimized on September 2, 2003. Starting in 2004 its academic period, with the aim of training artists with extensive experience with a critical thinking that understands the importance of art in social development. Art seeks to confront the barriers that arise along the way, conjugating, signs and symbols, which put into question the present, retaking part of the past, to visualize the future, starting from images and pre-Columbian icons and those ideologies of contemplation by man guiding us in his anthropomorphic and sequential figures, capable of intervening in the educational and transitional space, orienting motivated students, predominating the will, delimited by curiosity. Art and public spaces, since a long time ago have been giving diversities of artistic interventions, giving another meaning to things. The totemic sculpture allows us to make visible, the artistic representation and other facts relevant to the construction of identity or origin, which will last over time, even if the work or the artist is extinguished, part of it will remain latent in the subconscious, as well as photographic records and electronic media.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1975763821</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijnurstu.2010.03.019</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Gibson et al. (2010)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Children and young people's experiences of cancer care: A qualitative research study using participatory methods</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Little is known about whether children's cancer services actually meet children's needs, as the majority of previous research has sought the views of parents as proxies.To explore children's and young peoples' views of cancer care and to present a conceptual model of communication and information sharing.Three Principal Cancer Treatment centres in the United Kingdom.Thirty-eight participants at different stages of the cancer journey (e.g. on treatment, near end of treatment, up to 18 months following treatment) were grouped for data collection by age: young children (4-5 years), older children (6-12 years) and young people (13-19 years).Data were collected concurrently over 6 months using age-appropriate, participatory-based techniques. Techniques included play and puppets, the draw and write method, interviews and an activities day.Some findings confirmed previously reported issues, such as, young children's inabilities to voice their preferences, and the importance of familiar environments and parental support for all ages. New findings suggested children worry about the permanence of symptoms, and older children are unhappy about their parents leading communications with health professionals. As communication and information sharing featured as an area in which children's and young people's preferences changed most dramatically, we propose a conceptual model of communication roles of patients, their parents, and health professionals to illuminate communication patterns. The model suggests children (aged 4-12 years) reside in the background of information sharing with health professionals until they gain autonomy as young people (around age 13). They then move into the foreground, and their parents transition into a supportive background role. Reviewing this model may help younger children realise their abilities to voice their preferences and older children to move into the foreground. Parents and professionals, in turn, can learn to develop in their supportive background roles. We encourage further testing of the model to define roles within relevant contexts.Overall, this study offers a perspective on the needs and preferences of children and young people receiving cancer care. Differences across ages were more striking with reference to preferences for communication. These differences are highly relevant to the way we communicate information to children and young people.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2026250138</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Callahan (2015)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Opening the Door to Transgender Care</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
 _x000D_
@@ -1201,462 +1093,516 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2980528933</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.abrep.2019.100224</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Calabro et al. (2019)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Pilot study to inform young adults about the risks of electronic cigarettes through text messaging</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Young adults are rapidly adopting electronic cigarette (e-cigarette) use. The popularity of e-cigarettes among young people can be attributed to heavy industry advertising and misleading health claims. Data indicate that young e-cigarette users who have never used conventional cigarettes may transition toward smoking combustible cigarettes. Communicating e-cigarette risks via text messaging is limited. This pilot study assessed the impact of exposure to 16 text messages on e-cigarette knowledge and risk perception. The short text messages delivered to participants conveyed e-cigarette use may lead to addiction to nicotine and explained the latest health-related findings.A two-group randomized pretest and posttest study was conducted among 95 racially, ethnically diverse young adults recruited from vocational training programs. Fifty percent of participants were randomized to receive either gain- or loss-framed messages. Knowledge and risk perceptions about e-cigarettes and tobacco use were assessed pre- and post-message exposure.Participants had a mean age of 20.8 years, SD = 1.7. Current use of e-cigarettes was reported by 10.5% (10/95) and 27.4% (26/95) used a variety of other tobacco products. Findings revealed significant increases in knowledge about e-cigarettes after exposure to the messages (range for ps: p &lt; 04 to p &lt; 0.0001). A statistically significant increase in perceived e-cigarette risk was found post-exposure (p = 0.002). Participants randomized to gain-framed messages reported a significantly higher perceived risk of using e-cigarettes post-exposure than did those who received loss-framed messages (p = 0.02).This was a small-scale pilot requiring additional evidence to support the effectiveness of text messaging for increasing e-cigarette knowledge and risk perception. Future research may apply text messages to test new ways to educate young populations about tobacco use and consider addressing these messages to specific subgroups at high risk of use such as non-college bound young adults.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4231551309</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/9781119428299.oth1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Andre (2017)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Free Access Conclusion Jean–Claude André, Jean–Claude AndréSearch for more papers by this author Book Author(s):Jean–Claude André, Jean–Claude AndréSearch for more papers by this author First published: 30 October 2017 https://doi.org/10.1002/9781119428299.oth1Citations: 1 AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat Citing Literature Bibliography Dufourmentelle A., Eloge du risque, Payot, Paris, 2011. Koestler A., Le cri d'Archimède: la découverte de l'art et l'art de la découverte, Les Belles Lettres, Paris, 2011. Lagadec P., Piloter en univers inconnu, Préventique, Bordeaux, 2013. Louisot J.M., “Optimiser la prise de risques”, Risk-Assur, vol. 474, pp. 28– 37, available at: https://www.riskassur-hebdo.com, 2017. Novel A.S., Riot S., Vive la co-révolution; pour une société collaborative, Manifestô-Gallimard, Paris, 2013. Pauli G., Croissance sans limites: objectif zéro pollution – Croissance économique et régénération de la nature, Quintessence Editions, Paris, 2007. Reich M.R., “ Le cas de la pollution du Michigan par le PBB ”, in M. Akrich , Y. Barth , C. RÉmy (eds), Sciences, politique et environnement, MINES ParisTech Editions, Paris, 2010. Rouquette M.L., Propagande et citoyenneté, PUF, Paris, 2007. Saint ExupÉry A., Citadelle, Folio, Paris, 2000. Schmitt L., “ L'industrie en pleine révolution”, available at: http://www.estrepublicain.fr/actualite/2017/01/19/l-industrie-en-pleine-revolution, 2017. From Additive Manufacturing to 3D/4D Printing 2: Current Techniques, Improvements and their Limitations ReferencesRelatedInformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3151650277</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/10494820.2021.1905003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Liu et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Patterns of triggers for on-task and off-task behaviors: university students in independent study</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>With the rapid development of mobile devices and web-based technologies, it becomes common for students to switch between different tasks during study time. However, it remains unclear how the transition between on-task and off-task states happens and how digital devices affect the process. This study examines college students’ independent study in the library to delineate the pattern of on-task and off-task behavior, and identify the triggers for students’ engagement or disengagement. Through video recordings, the researchers captured the behaviors of over 266 students at the library. Observations were taken and used to double-check and confirm the behaviors. The study adopted the behavioral sequences method to scrutinize behavioral transition and explored gender differences. The results indicate that on-task behaviors tended to decline as the learning duration increased, whereas off-task behaviors tended to increase when students interacted with personal devices. As the most used device, smartphones posed persistent interference for learners, leading to reduced focus during independent study time. Moreover, male students were more likely to be influenced by external interruptions, whereas female students were more prone to the influence of internal interruptions. These findings can contribute to the development of research-based guidelines for improving students’ attention and self-adjusting during self-study time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2045183475</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/3527655</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bulger &amp; Barbato (2000)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>On the Hippocratic Sources of Western Medical Practice</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
+        </is>
+      </c>
+    </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306359286</t>
+          <t>https://openalex.org/W2086049761</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10841-022-00436-w</t>
+          <t>https://doi.org/10.1016/j.sbspro.2014.07.567</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Toikkanen et al. (2022)</t>
+          <t>Akbota (2014)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Effects of landscape composition on hoverflies (Diptera: Syrphidae) in mass-flowering crop fields within forest-dominated landscapes</t>
+          <t>Bilingualism among Young People in Kazakhstan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Abstract Agricultural intensification has led to structurally simplified landscapes with reduced and fragmented resources for farmland insects. However, studies on the effects of landscape composition on farmland insects have mainly been performed in areas dominated by open arable land and semi-natural grasslands, while studies from forest-dominated landscapes are scarce. This research examined the effects of landscape composition on hoverfly species richness and abundance in arable land in boreal forest-dominated landscapes. Hoverflies were sampled in 22 mass-flowering caraway ( Carum carvi ) fields in Central Finland using pan traps. The effects of landscape composition on species richness and abundance were examined for all hoverflies, and for species groups with different adult habitat preferences. Landscape composition was measured as proportions of land cover classes within two different radii. Species richness and abundances of all hoverflies, forest species and open-habitat species increased with decreasing arable land cover and/or increasing forest cover within a 500 m radius (the two land cover classes strongly negatively correlated). Wetland species were most abundant in landscapes with an intermediate cover of arable land and forest, and most species-rich in landscapes with intermediate (10%) water cover. The species richness and abundance of mixed-habitat species increased with increasing cover of transitional woodland. Implications for insect conservation Our results show that most hoverfies in arable land benefit from increasing surrounding forest cover even in relatively heterogeneous, forest-dominated landscapes. Preserving or increasing the area of forests and other non-arable habitats is needed to safeguard a diversity of resources for hoverflies, and associated ecosystem services in farmland.</t>
+          <t>Abstract For Kazakhstan, a multilingual and multiethnic country, the issue of multilingualism is a historic and current phenomenon. It is home to 126 nationalities, such as: Belarusians, Kirghiz, Korean, Russian, Tajik, Tatar, Uighurs, Uzbeks, Ukrainians and others. It is well known fact that the observed linguistic and cultural diversity of the country is affected by a number of historical factors, in particular, processes accompanying the accession of Kazakhstan to Russia (1731-1865), as the researchers note,; repeated revision of state borders, especially state-political system pre-Soviet, Soviet and post-Soviet periods, and recent events that have taken extremely consequences for all the people of the country; radical transformation of the entire society - governmental system, the modernization of society and the economy of independent Kazakhstan (Suleimenova and others, 2010, Suleimenova, Smagulova 2005).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220792472</t>
+          <t>https://openalex.org/W2051770317</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1126/sciadv.abg5369</t>
+          <t>https://doi.org/10.1002/kin.10172</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wang et al. (2022)</t>
+          <t>Frenklach et al. (2003)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Single-cell architecture and functional requirement of alternative splicing during hematopoietic stem cell formation</t>
+          <t>Collaborative data processing in developing predictive models of complex reaction systems</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Single-cell transcriptional profiling has rapidly advanced our understanding of the embryonic hematopoiesis; however, whether and what role RNA alternative splicing (AS) plays remains an enigma. This is important for understanding the mechanisms underlying splicing-associated hematopoietic diseases and for the derivation of therapeutic stem cells. Here, we used single-cell full-length transcriptome data to construct an isoform-based transcriptional atlas of the murine endothelial-to-hematopoietic stem cell (HSC) transition, which enables the identification of hemogenic signature isoforms and stage-specific AS events. We showed that the inclusion of these hemogenic-specific AS events was essential for hemogenic function in vitro. Expression data and knockout mouse studies highlighted the critical role of Srsf2: Early Srsf2 deficiency from endothelial cells affected the splicing pattern of several master hematopoietic regulators and significantly impaired HSC generation. These results redefine our understanding of the dynamic HSC developmental transcriptome and demonstrate that elaborately controlled RNA splicing governs cell fate in HSC formation.</t>
+          <t>Abstract The subject of this report is a methodology for the transformation of (experimental) data into predictive models. We use a concrete example, drawn from the field of combustion chemistry, and examine the data in terms of precisely defined modes of scientific collaboration. The numerical methodology that we employ is founded on a combination of response surface technique and robust control theory. The numerical results show that an essential element of scientific collaboration is collaborative processing of data, demonstrating that combining the entire collection of data into a joint analysis extracts substantially more of the information content of the data. © 2003 Wiley Periodicals, Inc. Int J Chem Kinet 36: 57–66, 2004</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253365423</t>
+          <t>https://openalex.org/W3206144518</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3109/00365519409086508</t>
+          <t>https://doi.org/10.1007/s12571-021-01219-y</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Marniemi et al. (1994)</t>
+          <t>Alho et al. (2021)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Health-based reference values of the Mini-Finland Health Survey: 3. Triglycerides in total serum and in different lipoprotein fractions</t>
+          <t>Analysis of banana and cocoa export commodities in food system transformation, with special reference to certification schemes as drivers of change</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Marniemi J, Maatela J, Järvisalo J, Reunanen, A, Mäki J, Tikkanen M J. Health-based reference values of the Mini-Finland health survey: 3. Triglycerides in total serum and in different lipoprotein fractions. Scand J Clin Lab Invest 1994; 54: 43-50.The reference values for triglyceride concentrations in total serum and in its VLDL, LDL and HDL fractions have been produced based on the data obtained in the Mini-Finland Health Survey. The lipoprotein fractions were separated with ultracentrifugation. Efforts were made to obtain reference values for the healthy ambulatory population. Two health-derived selection criteria were used for inclusion of persons into the reference population: those based on the literature available and those based on the recommendations published by the Committee on Reference Values of the Scandinavian Society for Clinical Chemistry and Clinical Physiology, with minor modifications. The frequency distributions of triglycerides especially in total serum and in VLDL fraction were very skewed. Because of that the data were transformed before the calculation of the reference ranges according to the method of Box and Cox [1]. This transformation method appeared to be the best one of many tested methods in obtaining the distributions closer to the normal ones. The 95% inner reference intervals of total serum triglycerides in all subjects and in the two selection groups were 0.5-4.0, 0.5-2.8, and 0.5-3.2 mmol −1 for men and 0.5-3.4, 0.5-2.3, and 0.5-2.4 mmol l−1 for women, respectively. The age dependence of triglyceride level was prominent in women after the early middle age. The distribution and age dependence of VLDL triglycerides resembled those of total triglycerides. In LDL and HDL fractions the skewness was not as clear as in the whole serum or in VLDL fraction. Of the background lifestyle factors obesity, alcohol consumption, smoking and physical exercise had negligible effects on triglyceride reference values.</t>
+          <t>Abstract Food systems analysis is increasingly being applied to understand relations between production, distribution, and consumption of food products, the drivers that influence the system, and the outcomes that show how well the food system performs on health and nutrition, on environmental sustainability, and on income and inclusiveness. Little attention has gone to the position of global export commodities, where production and consumption are far apart. Banana in Costa Rica and cocoa in Cote d’Ivoire were the subject of this study to find out what major drivers determine the functioning of these systems. Next to identifying drivers such as population growth and increased plant disease pressure, it was found that the typical far-away setting and different living conditions between producer and consumer countries required a special eye on governance as a tripartite arena (government, private sector, civil society) with their power relations, and on certification schemes as a driver that follows from corporate social responsibility. The certification schemes addressed cover all food system outcomes, although health and nutrition in a less conspicuous way. The descriptions of the functioning of the schemes were also linked to living wages and incomes for banana plantation workers in Costa Rica and cocoa smallholder farmers in Côte d’Ivoire. Although very meaningful, certification schemes so far do not prove to be a silver bullet, but they do have the potential, in combination with other measures, to help positive food system transformations.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2811050054</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.compenvurbsys.2018.06.007</t>
+          <t>https://openalex.org/W2403581178</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yang et al. (2018)</t>
+          <t>Lebkova &amp; Uranova (1978)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A network-based approach to model the development of city branding in China</t>
+          <t>[Histogenesis of adenomas of the parathyroid gland].</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Against the background of globalization, city branding has become a useful strategy utilized by decision-makers in cities to promote their cities in the race for limited resources. Urban transformation factors, i.e., economic development stage and geographic position play an important role in city branding choices. We argue that city branding choices of a city can be affected by other cities through city interactions and networking. The effects of city interactions can spread across cities either through spatial proximity-referring physical or geographic connections, or logical proximity-representing city interconnectivity caused by collaboration activities. To test our argument, we develop a two-layer network model using the generalized modeling framework (GEMF) to model city branding choices, based on empirical data of sustainable brand developmental pathways from the three economic regions in China. We examine the general evolution pattern of city branding practices and construct different scenarios to analyze the impact of city interactions. The results indicate that taking city interactions as an additional factor to urban transformation allows for a better prediction on city branding choices. Policy-makers and urban planners need to consider infrastructure and economic development policies in designing city branding strategies.</t>
+          <t>The similarity of adenomas of the parathyroid gland with other tumours of the APUD-system elements was investigated. The structure of 10 adenomas was studied. The ultrastructural characteristics were compared with the histological structure of the tumour. Various histological variants of the neoplasias were shown to have similar ultrastructure. The tumour tissue was represented by clear transitional and dark cells. In their cytoplasm, osmiophilic granules of the secrete, villae, laminar structures resembling Nissl bodies, fine granular and fine fibrous substances, and lipid inclusions were found. The structural similarity of adenomas with other endocrine-active tumours developing from cells of the neuroectodermal origin (carcinoids, paragangliomas, etc.) was noted. It is suggested that parathyroid glands belong to the APUD-system.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045183475</t>
+          <t>https://openalex.org/W2066296828</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3527655</t>
+          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bulger &amp; Barbato (2000)</t>
+          <t>Kalantzis (2006)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>On the Hippocratic Sources of Western Medical Practice</t>
+          <t>Changing Subjectivities, New Learning</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
+          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2173200276</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1063/1.4935715</t>
+          <t>https://openalex.org/W2790881213</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Baiardi et al. (2015)</t>
+          <t>Noe et al. (2011)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Vibrationally resolved NEXAFS at C and N K-edges of pyridine, 2-fluoropyridine and 2,6-difluoropyridine: A combined experimental and theoretical assessment</t>
+          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>In the present work, the near edge X-ray absorption spectroscopy (NEXAFS) spectra at both C and N K-edges of pyridine, 2-fluoropyridine, and 2,6-difluoropyridine have been studied both experimentally and theoretically. From an electronic point of view, both transition potential density functional theory and time-dependent density functional theory approaches lead to reliable results provided that suitable basis sets and density functionals are employed. In this connection, the global hybrid B3LYP functional in conjunction with the EPR-III basis set appears particularly suitable after constant scaling of the band positions. For the N K-edge, vertical energies obtained at these levels and broadened by symmetric Gaussian distributions provide spectra in reasonable agreement with the experiment. Vibronic contributions further modulate the band-shapes leading to a better agreement with the experimental results, but are not strictly necessary for semi-quantitative investigations. On the other hand, vibronic contributions are responsible for strong intensity redistribution in the NEXAFS C K-edge spectra, and their inclusion is thus mandatory for a proper description of experiments. In this connection, the simple vertical gradient model is particularly appealing in view of its sufficient reliability and low computational cost. For more quantitative results, the more refined vertical Hessian approach can be employed, and its effectiveness has been improved thanks to a new least-squares fitting approach.</t>
+          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086049761</t>
+          <t>https://openalex.org/W3109180265</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2014.07.567</t>
+          <t>https://doi.org/10.31355/58</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Akbota (2014)</t>
+          <t>Saadé (2020)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bilingualism among Young People in Kazakhstan</t>
+          <t>Digital Innovation &amp;amp; Transformation Opportunities for Researchers &amp;amp; Practitioners – A Structured Literature Review &amp;amp; Proposed Model</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Abstract For Kazakhstan, a multilingual and multiethnic country, the issue of multilingualism is a historic and current phenomenon. It is home to 126 nationalities, such as: Belarusians, Kirghiz, Korean, Russian, Tajik, Tatar, Uighurs, Uzbeks, Ukrainians and others. It is well known fact that the observed linguistic and cultural diversity of the country is affected by a number of historical factors, in particular, processes accompanying the accession of Kazakhstan to Russia (1731-1865), as the researchers note,; repeated revision of state borders, especially state-political system pre-Soviet, Soviet and post-Soviet periods, and recent events that have taken extremely consequences for all the people of the country; radical transformation of the entire society - governmental system, the modernization of society and the economy of independent Kazakhstan (Suleimenova and others, 2010, Suleimenova, Smagulova 2005).</t>
+          <t>Aim/Purpose Although the latest review on digital innovation was made in 2018 (included articles up to 2017), the purpose of this study is to explore and examine opportunities for research in digital innovation and transformation for both researchers (including graduate students) and practitioners. A conceptual model is proposed. Background Digital innovation is omnipresent today, as it has penetrated deep into the structure and psyche of individuals, communities, organizations, institutions and governments. We find ourselves in a quagmire of opportunities risks and uncertainties, where ubiquitous technological interconnectedness form a new paradigm enabling industry to innovate and grow. All humanity is faced with these disruptive digital pressures. Yet, relatively there is little research done. Unfortunately, a coordinated effort for such a seriously important phenome-non does not exist. Methodology A structured literature review approach was conducted, the results of which were used for a qualitative approach, using nVivo, to extract insights and understanding. Findings This study identifies the extent of research done in the different areas of digital innovation and transformation and puts the results into perspective. Scholarly research is scarce, dispersed and diverse, lacking any direction or cohesion. Research on transformation is more than innovation and in both cases those that study their relationships with human or society are a handful. A conceptual model is proposed by integrating knowledge gained from the literature, the integral theory and the concept of impact assessment. Impact on Society This study shows that the integration of human agency digital innovation research and practice is primary. Researchers and practitioners can use the conceptual model to help them expand and extend their work.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2403581178</t>
+          <t>https://openalex.org/W4241610262</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.11647/obp.0193.20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lebkova &amp; Uranova (1978)</t>
+          <t>Sumaila &amp; Pauly (2020)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[Histogenesis of adenomas of the parathyroid gland].</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The similarity of adenomas of the parathyroid gland with other tumours of the APUD-system elements was investigated. The structure of 10 adenomas was studied. The ultrastructural characteristics were compared with the histological structure of the tumour. Various histological variants of the neoplasias were shown to have similar ultrastructure. The tumour tissue was represented by clear transitional and dark cells. In their cytoplasm, osmiophilic granules of the secrete, villae, laminar structures resembling Nissl bodies, fine granular and fine fibrous substances, and lipid inclusions were found. The structural similarity of adenomas with other endocrine-active tumours developing from cells of the neuroectodermal origin (carcinoids, paragangliomas, etc.) was noted. It is suggested that parathyroid glands belong to the APUD-system.</t>
+          <t>Only now, as innumerable species of fish face extinction, are we realizing that their supply is not inexhaustible. The industrial revolution spawned trawlers that were no longer reliant on the natural elements for their power and hoovered up the vast, easily accessible supplies of coastal biomass. Today, the well-oiled machine of commercial fishing, pressed on by the economic imperatives of national fishery departments, forges ever further into deeper water and distant latitudes, laying waste to entire marine ecosystems. When fish stocks began collapsing all over the globe from the mid-twentieth century onwards, greater attention was paid to the effects of vast mechanized ships, totally removing entire webs of biodiversity and indiscriminately damaging habitats with fishing equipment. As ever, implementation has fallen far short of global agreements on quotas and protected marine areas. Governments either do not realize the implications of what marine scientists are telling them or are beholden to powerful fisheries lobbies. At the present rate, industrial fishing will continue to decimate fish populations, with insufficient time for overexploited populations to recover. This will have tragic effects on the diversity of cascading marine food chains, with predictable, and inevitable, consequences.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W4288058171</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.1038/s41598-022-17206-y</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Kim et al. (2022)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Spin-flip-driven reversal of the angle-dependent magnetic torque in layered antiferromagnetic Ca0.9Sr0.1Co2As2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>Abstract Spin-flip transition can occur in antiferromagnets with strong magnetocrystalline anisotropy, inducing a significant modification of the anisotropic magnetic properties through phase conversion. In contrast to ferromagnets, antiferromagnets have not been thoroughly examined in terms of their anisotropic characteristics. We investigated the magnetic-field and angle-dependent magnetic properties of Ising-type antiferromagnetic Ca 0.9 Sr 0.1 Co 2 As 2 using magnetic torque measurements. An A-type antiferromagnetic order emerges below T N = 97 K aligned along the magnetically easy c -axis. The reversal of the angle-dependent torque across the spin-flip transition was observed, revealing the strong influence of the magnetocrystalline anisotropy on the magnetic properties. Based on the easy-axis anisotropic spin model, we theoretically generated torque data and identified specific spin configurations associated with the magnetic torque variation in the presence of a rotating magnetic field. Our results enrich fundamental and applied research on diverse antiferromagnetic compounds by shedding new light on the distinct magnetic features of the Ising-type antiferromagnet.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2790881213</t>
+          <t>https://openalex.org/W2117401019</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1068/c10222</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Noe et al. (2011)</t>
+          <t>Seyfang &amp; Haxeltine (2012)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
+          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
+          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4241610262</t>
+          <t>https://openalex.org/W2497458810</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11647/obp.0193.20</t>
+          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sumaila &amp; Pauly (2020)</t>
+          <t>Amoretti &amp; Casula (2009)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>From Digital Divides to Digital Inequalities</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Only now, as innumerable species of fish face extinction, are we realizing that their supply is not inexhaustible. The industrial revolution spawned trawlers that were no longer reliant on the natural elements for their power and hoovered up the vast, easily accessible supplies of coastal biomass. Today, the well-oiled machine of commercial fishing, pressed on by the economic imperatives of national fishery departments, forges ever further into deeper water and distant latitudes, laying waste to entire marine ecosystems. When fish stocks began collapsing all over the globe from the mid-twentieth century onwards, greater attention was paid to the effects of vast mechanized ships, totally removing entire webs of biodiversity and indiscriminately damaging habitats with fishing equipment. As ever, implementation has fallen far short of global agreements on quotas and protected marine areas. Governments either do not realize the implications of what marine scientists are telling them or are beholden to powerful fisheries lobbies. At the present rate, industrial fishing will continue to decimate fish populations, with insufficient time for overexploited populations to recover. This will have tragic effects on the diversity of cascading marine food chains, with predictable, and inevitable, consequences.</t>
+          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2116511683</t>
+          <t>https://openalex.org/W1644289212</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Silver et al. (1997)</t>
+          <t>Cook &amp; Brueckner (1991)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Prostate-specific membrane antigen expression in normal and malignant human tissues.</t>
+          <t>Fine structure of the solar transition region - Observations and interpretation</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Prostate-specific membrane antigen is a type II membrane protein with folate hydrolase activity produced by prostatic epithelium. The expression of this molecule has also been documented in extraprostatic tissues, including small bowel and brain. In the present study, an extensive immunohistochemical analysis was performed on a panel of well-characterized normal and malignant human tissues to further define the pattern of prostate-specific membrane antigen (PSMA) expression. Detectable PSMA levels were identified in prostatic epithelium, duodenal mucosa, and a subset of proximal renal tubules. A subpopulation of neuroendocrine cells in the colonic crypts also exhibited PSMA immunoreactivity. All other normal tissues, including cerebral cortex and cerebellum, had undetectable levels of PSMA. Thirty-three of 35 primary prostate adenocarcinomas and 7 of 8 lymph node metastases displayed tumor cell PSMA immunostaining. Eight of 18 prostate tumors metastatic to bone expressed PSMA. All of the other nonprostatic primary tumors studied had undetectable PSMA levels. However, intense staining was observed in endothelial cells of capillary vessels in peritumoral and endotumoral areas of certain malignancies, including 8 of 17 renal cell carcinomas, 7 of 13 transitional cell carcinomas, and 3 of 19 colon carcinomas. Extraprostatic PSMA expression appears to be highly restricted. Nevertheless, its diverse anatomical distribution implies a broader functional significance than previously suspected. The decrease in PSMA immunoreactivity noted in advanced prostate cancer suggests that expression of this molecule may be linked to the degree of tumor differentiation. The neoexpression of PSMA in endothelial cells of capillary beds in certain tumors may be related to tumor angiogenesis and suggests a potential mechanism for specific targeting of tumor neovasculature.</t>
+          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117401019</t>
+          <t>https://openalex.org/W2134270495</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1068/c10222</t>
+          <t>https://doi.org/10.1007/s00464-008-9857-4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seyfang &amp; Haxeltine (2012)</t>
+          <t>Aalbers et al. (2008)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
+          <t>Hand-assisted or laparoscopic-assisted approach in colorectal surgery: a systematic review and meta-analysis</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
+          <t>Evidence of benefits of laparoscopic and laparoscopic-assisted colectomies (LAC) over open procedures in gastrointestinal surgery has continued to accumulate. With its wide implementation, technical difficulties and limitations of LAC have become clear. Hand-assisted laparoscopic surgery (HALS) was introduced in an attempt to facilitate the transition from open techniques to minimally invasive procedures. Continuing debate exists about which approach is to be preferred, HALS or LAC. Several studies have compared these two techniques in colorectal surgery, but no single study provided evidence which procedure is superior. Therefore, a systematic review was carried out comparing HALS with LAC colorectal resection.Eligible studies were identified from electronic databases (Medline, Embase Cochrane) and cross-reference search. The database search, quality assessment, and data extraction were independently performed by two reviewers. Minimal outcome criteria for inclusion were operating time, conversion rate, hospital stay, and morbidity.Out of 468 studies a total of 13 studies were selected for comprehensive review. Two randomized controlled trials (RCT) and 11 non-RCTs, comprising 1017 patients, met the inclusion criteria. Because of possible clinical heterogeneity two groups of procedures were created: segmental colectomies and total (procto)colectomies. In the segmental colectomy group significant differences in favor of the HALS group were seen in operating time (WMD 19 min) and conversion rate (OR of 0.3 conversions). In the total (procto)colectomy group a significant difference in favor of the HALS group was seen in operating time (WMD 61 min).This systematic review indicates that HALS provides a more efficient segmental colectomy regarding operating time and conversion rate, particularly accounting for diverticulitis. A significant operating time advantage exists for HALS total (procto)colectomy. HALS must therefore be considered a valuable addition to the laparoscopic armamentarium to avoid conversion and speed up complicated colectomies.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2497458810</t>
+          <t>https://openalex.org/W2069989322</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
+          <t>https://doi.org/10.5840/philtoday201155342</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Amoretti &amp; Casula (2009)</t>
+          <t>Fried (2011)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>From Digital Divides to Digital Inequalities</t>
+          <t>A Letter to Emmanuel Faye</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
+          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2134270495</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s00464-008-9857-4</t>
+          <t>https://openalex.org/W2587599875</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aalbers et al. (2008)</t>
+          <t>Данилович &amp; Александровна (2016)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hand-assisted or laparoscopic-assisted approach in colorectal surgery: a systematic review and meta-analysis</t>
+          <t>Формирование системы управления персоналом на промышленном предприятии</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Evidence of benefits of laparoscopic and laparoscopic-assisted colectomies (LAC) over open procedures in gastrointestinal surgery has continued to accumulate. With its wide implementation, technical difficulties and limitations of LAC have become clear. Hand-assisted laparoscopic surgery (HALS) was introduced in an attempt to facilitate the transition from open techniques to minimally invasive procedures. Continuing debate exists about which approach is to be preferred, HALS or LAC. Several studies have compared these two techniques in colorectal surgery, but no single study provided evidence which procedure is superior. Therefore, a systematic review was carried out comparing HALS with LAC colorectal resection.Eligible studies were identified from electronic databases (Medline, Embase Cochrane) and cross-reference search. The database search, quality assessment, and data extraction were independently performed by two reviewers. Minimal outcome criteria for inclusion were operating time, conversion rate, hospital stay, and morbidity.Out of 468 studies a total of 13 studies were selected for comprehensive review. Two randomized controlled trials (RCT) and 11 non-RCTs, comprising 1017 patients, met the inclusion criteria. Because of possible clinical heterogeneity two groups of procedures were created: segmental colectomies and total (procto)colectomies. In the segmental colectomy group significant differences in favor of the HALS group were seen in operating time (WMD 19 min) and conversion rate (OR of 0.3 conversions). In the total (procto)colectomy group a significant difference in favor of the HALS group was seen in operating time (WMD 61 min).This systematic review indicates that HALS provides a more efficient segmental colectomy regarding operating time and conversion rate, particularly accounting for diverticulitis. A significant operating time advantage exists for HALS total (procto)colectomy. HALS must therefore be considered a valuable addition to the laparoscopic armamentarium to avoid conversion and speed up complicated colectomies.</t>
+          <t>In article authors considered the role of staff in performance of strategic objectives of development of economy: inclusion of Russia into group of the leading countries on GDP, transition from raw to innovative economy, development of investments into the person. All this has to occur in the conditions of a number of threats: competition globalization, deterioration in the relations with the West, in particular, in the conditions of sanctions for deliveries of goods to Russia and the compelled import substitution. In this case the staff is the most important resource of the enterprise and the country in general. Therefore the purpose of article is increase of efficiency of use of this resource. In article authors offered the HR management system including selection, selection and process of staff hiring, development and estimates of efficiency of use of personnel and specified the modern concept of human resource management including approaches: scientific, economic, administrative, standard, system, process, resource; principles of management: scientific character, profitability, rationality of number and structure of staff, efficiency; functions of management: forecasting and planning of number and structure of staff, planning of fund of payment and awarding of work, organization of workplaces, definition of the ideal worker, controlling and monitoring of personnel, motivation, training and certification of personnel; results of human resource management: creation and introduction of innovations, efficiency of use of staff. In article authors offered the organizational and economic mechanism of motivation of the staff including all types of resources: information, organization, technology, training, career, incentives. Conclusions: human resource management promotes improvement of use of this resource. At the same time the system of motivation and development of staff includes material and financial resources, system of training and ensuring career development, revision of privileges for the staff (1-2 times a year) in system of motivation.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1832730022</t>
+          <t>https://openalex.org/W2311719642</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Anthony (1993)</t>
+          <t>Matthews (2015)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kinetics of disorder -&gt; order transformations in highly nonequilibrium materials</t>
+          <t>The use of salivary biomarkers in the detection of oral squamous cell carcinoma</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>Of late, there has been need for rigorous first-principles theoretical considerations of materials that are far removed from equilibrium. This is especially true as nonequilibrium materials of all shapes (e.g., thin film structures) and sizes (e.g., nanocrystalline composites) gain ever-increasing technological importance. To this end, the main contribution of this dissertation is to the study of the kinetics of disorder -&gt; order transformations in highly nonequilibrium binary alloys, specifically body-centered cubic alloys exhibiting B2, D0_3, and/or B32 order at equilibrium. This study takes several independent approaches. Chapter 2 presents two analytical methods. The first of these, a master equation method, is formulated in the Bragg-Williams or point approximation. The second analytical technique employs the path probability method of Kikuchi in the Bethe or pair approximation. Chapter 3 employs kinetic Monte Carlo simulations instead. Apart from the presentation of individual results using these three different techniques, the thermodynamic and kinetic trends exhibited by these different approaches are compared and discussed. One of the more compelling features exhibited by all three of these diverse approaches is the appearance, during ordering, of certain well-developed transient states, which do not persist at equilibrium, e.g., the transient appearance of B2 order during ordering in an alloy that exhibits equilibrium B32 order. These transient states are discussed within the context of pseudostability. Central to the notion of pseudostability is the concept of a free energy surface or manifold in order parameter space. While it is quite straightforward to obtain a closed-form, analytical (albeit approximate) expression for the configurational entropy and free energy in the master equation method and the path probability method, there is no simple, direct means of obtaining the same in the kinetic Monte Carlo simulations. Chapter 4 seeks to remedy this limitation of the Monte Carlo method and introducs a hybrid Monte Carlo-cluster variation method approach to order-disorder kinetics. This method is used to reexamine some of the results of Chapter 3 in the context of the time evolution of the free energy. Chapter 5 summarizes the results of the preceeding chapters and suggests avenues for further investigation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2069989322</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Fried (2011)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>A Letter to Emmanuel Faye</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2311719642</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Matthews (2015)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>The use of salivary biomarkers in the detection of oral squamous cell carcinoma</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>Background_x000D_
 Oral squamous cell carcinoma (OSCC) is the 15th most common cancer worldwide but has poor five year survival (50%). Late stage presentation and limitations of early diagnostic techniques are persistent clinical problems. Sixty percent of patients present with advanced stage disease and with the attendant increase in mortality, morbidity and risk of recurrent disease it is particularly burdensome for both patients and health economies. Early diagnosis and treatment of OSCC improves prognosis. There is an opportunity to diagnose OSCC early in patients with oral epithelial dysplasia however currently there is no way of accurately predicting which lesions will undergo malignant transformation. Aberrant methylation of tumour suppressor genes plays a significant role in the biology of early cancer and is detectable in both tumour and saliva. Saliva is a non-invasive method of longitudinal sampling and has potential as a tumour surrogate in disease surveillance programmes. This study aims to compare rates of methylation of a panel of genes in OSCC patients and a normal cohort to establish a threshold by which we could determine future disease testing in a dysplastic population. _x000D_
@@ -1671,1186 +1617,1152 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4391789038</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/awf.2024.2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Keyserlingk et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Swine industry perspectives on the future of pig farming</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4361005872</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/land12040747</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Peña-Rodríguez et al. (2023)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4210989739</t>
+          <t>https://openalex.org/W3157917116</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/9781108766852.004</t>
+          <t>https://doi.org/10.1177/0973703021998993</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lob (2020)</t>
+          <t>Jejeebhoy &amp; Kumar (2021)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Consolidation (1979–1989)</t>
+          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Chapter 3 “Consolidation (1979–1989)” explores how RJ further safeguarded its existence and promoted its expansion by demobilizing its opponents and those of the IRP, including shah loyalists and royalists, communists and Marxists, Sunni and ethnic separatists, traditional elites and other counterrevolutionaries, and Iraqi forces and their collaborators. By monitoring these adversaries and embellishing the threat that they posed to the IRI, RJ created a self-fulfilling prophesy by radicalizing and pushing Khomeini and the IRP into further confrontation with them. The Cultural Revolution (1980–83) and the Iran-Iraq War (1980–89) facilitated and accelerated the mobilization and expansion of RJ and allowed it to help the IRI in its efforts to Islamize the provinces and villages, and repel invading Iraqi forces and their allies along the western border. RJ further marginalized its opponents and those of the IRI by physically and ideationally penetrating the provinces and villages through infrastructure, healthcare, education, culture, and religion.</t>
+          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391789038</t>
+          <t>https://openalex.org/W2008266806</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/awf.2024.2</t>
+          <t>https://doi.org/10.1037/h0094117</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Keyserlingk et al. (2024)</t>
+          <t>Упитис (1993)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Swine industry perspectives on the future of pig farming</t>
+          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
+          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986137495</t>
+          <t>https://openalex.org/W4231360178</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m112399200</t>
+          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Xie et al. (2002)</t>
+          <t>Burton (2021)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Role of Tyrosine Kinase Jak2 in Prolactin-induced Differentiation and Growth of Mammary Epithelial Cells</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Genetic studies in mice have established a critical role for prolactin receptors and transcription factor Stat5 in mammary gland differentiation. However, the enzymatic coupling between prolactin receptors and Stat5 in this process has not been established. In addition to Jak2, several other tyrosine kinases reportedly also are associated with prolactin receptors and may phosphorylate Stat5. Because Jak2 null mice die in utero, we targeted Jak2 in an ex vivo model of prolactin-induced mammary epithelial cell differentiation to determine the role of Jak2 in regulation of cell differentiation and growth. Two independent targeting strategies were used to suppress Jak2 in immortalized HC11 mouse mammary epithelial cells: 1) stable expression of a specific Jak2 antisense construct and 2) adenoviral delivery of a dominant-negative Jak2 gene. We now demonstrate that Jak2 is essential for prolactin-induced differentiation and activation of Stat5 in normal mouse mammary epithelial cells. Furthermore, suppression of Jak2 in HC11 cells was associated with constitutive activation of oncoprotein Stat3 and a hyperproliferative phenotype characterized by increased mitotic rate, reduced apoptosis, and reduced contact inhibition. Collectively, our data suggest that Jak2 is differentiation-inducing and growth-inhibitory in normal mammary epithelial cells, observations that may shed new light on the role of the Jak2-Stat5 pathway in breast cancer. Genetic studies in mice have established a critical role for prolactin receptors and transcription factor Stat5 in mammary gland differentiation. However, the enzymatic coupling between prolactin receptors and Stat5 in this process has not been established. In addition to Jak2, several other tyrosine kinases reportedly also are associated with prolactin receptors and may phosphorylate Stat5. Because Jak2 null mice die in utero, we targeted Jak2 in an ex vivo model of prolactin-induced mammary epithelial cell differentiation to determine the role of Jak2 in regulation of cell differentiation and growth. Two independent targeting strategies were used to suppress Jak2 in immortalized HC11 mouse mammary epithelial cells: 1) stable expression of a specific Jak2 antisense construct and 2) adenoviral delivery of a dominant-negative Jak2 gene. We now demonstrate that Jak2 is essential for prolactin-induced differentiation and activation of Stat5 in normal mouse mammary epithelial cells. Furthermore, suppression of Jak2 in HC11 cells was associated with constitutive activation of oncoprotein Stat3 and a hyperproliferative phenotype characterized by increased mitotic rate, reduced apoptosis, and reduced contact inhibition. Collectively, our data suggest that Jak2 is differentiation-inducing and growth-inhibitory in normal mammary epithelial cells, observations that may shed new light on the role of the Jak2-Stat5 pathway in breast cancer. Prolactin is a principal differentiation factor for human and mouse mammary epithelial cells and is required for milk production (1.Horseman N.D. Zhao W. Montecino-Rodriguez E. Tanaka M. Nakashima K. Engle S.J. Smith F. Markoff E. Dorshkind K. EMBO J. 1997; 16: 6926-6935Crossref PubMed Scopus (489) Google Scholar). However, prolactin may also stimulate mammary epithelial cell growth and act as a mammary tumor promoter (1.Horseman N.D. Zhao W. Montecino-Rodriguez E. Tanaka M. Nakashima K. Engle S.J. Smith F. Markoff E. Dorshkind K. EMBO J. 1997; 16: 6926-6935Crossref PubMed Scopus (489) Google Scholar, 2.Wennbo H. Gebre-Medhin M. Gritli-Linde A. Ohlsson C. Isaksson O.G. Tornell J. J. Clin. Invest. 1997; 100: 2744-2751Crossref PubMed Scopus (178) Google Scholar). Identifying the roles of individual signaling molecules and pathways activated by prolactin in normal mammary epithelial cells is therefore needed to better understand the role of prolactin in breast cancer.Prolactin activates tyrosine kinase Jak2 1The abbreviations used are: JakJanus kinaseStatsignal transducer and activator of transcriptionPrlprolactinPrlRprolactin receptorAdvadenovirusm.o.i.: multiplicity of infectionWt, wild typeDndominant-negativeEGFepidermal growth factormAbmonoclonal antibodypAbpolyclonal antibodyDAPI4′,6-diamidino-2-phenyl-indoleTUNELterminal deoxynucleotidyl transferase-mediated dUTP nick end labelingPBSphosphate-buffered saline1The abbreviations used are: JakJanus kinaseStatsignal transducer and activator of transcriptionPrlprolactinPrlRprolactin receptorAdvadenovirusm.o.i.: multiplicity of infectionWt, wild typeDndominant-negativeEGFepidermal growth factormAbmonoclonal antibodypAbpolyclonal antibodyDAPI4′,6-diamidino-2-phenyl-indoleTUNELterminal deoxynucleotidyl transferase-mediated dUTP nick end labelingPBSphosphate-buffered saline(3.Rui H. Kirken R.A. Farrar W.L. J. Biol. Chem. 1994; 269: 5364-5368Abstract Full Text PDF PubMed Google Scholar) and transcription factor Stat5 (4.Wakao H. Gouilleux F. Groner B. EMBO J. 1994; 13: 2182-2191Crossref PubMed Scopus (712) Google Sc</t>
+          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2419449107</t>
+          <t>https://openalex.org/W4231662464</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Kraiselburd (1976)</t>
+          <t>Eni et al. (2021)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thymidine kinase gene transfer by herpes simplex virus.</t>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The current state of knowledge concerning the biochemical transformation by Herpes Simplex virus (HSV) of mammalian cells lacking the enzyme thymidine kinase (TK) is reviewed. Transformation of thymidine kinase negative mouse cells (LTK-) to the TK+ phenotype by ultraviolet light-inactivated HSV preparations depends both on the irradiation dose and on the multiplicity of infection. Once stably associated with the transformed cell, the HSV thymidine kinase appears to be regulated differently than the cellular enzyme: HSV TK activity is maximal in stationary cells, whereas cellular TK activity is maximal during the S-pphase of growing cells. Furthermore, infection with an HSV TK- mutant virus leads to the induction of TK activity in HSV TK+ cells, but not in normal TK+ cells. Recent studies indicate that in addition to the TK gene, at least one other HSV gene, perhaps a structural antigen of the virion, is also transferred to TK- cells. This is consistent with the finding that a clone of HSV TK+ cells harbors approximately five copies per cell of 23 per cent of the HSV genome.</t>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3121777233</t>
+          <t>https://openalex.org/W4206524644</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1086/669055</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Périsse (2014)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Le droit du travail et les migrants ruraux : instituer une nouveau salariat en Chine</t>
+          <t>Notes on Contributors</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Les normes du travail sont problematiques en Chine, mais constater l’impuissance du droit du travail a reguler le marche du travail est insatisfaisant. Pour depasser les apparences, nous sommes amenee alors a replacer la legislation du travail d’une part dans la dynamique de la transition chinoise et de l’autre dans une perspective analytique propre a l’institutionnalisme de J. R. Commons. La Chine rencontre en effet les « problemes du travail » engendres par un capitalisme non-raisonnable qui fait porter aux travailleurs migrants ruraux un cout exorbitant et destabilisateur. Le droit du travail se presente alors comme une solution qui assure la viabilite de ce nouveau salariat chinois a travers des politiques socialement inclusives qui visent sa securite economique, une voie « raisonnable » de depassement des conflits. Mais au-dela, dans un contexte marque par l’heritage socialiste et l’absence de democratie, il faut aussi s’interroger sur le rapport a la loi et a l’Etat. La Law &amp; Economics forgee par J. R. Commons nous offre l’opportunite de comprendre en quoi consistent l’enjeu autour du conflit sur les regles et l’edification d’un nouveau compromis. Le droit du travail, clairement instrumentalise par le Parti Communiste et au service de sa politique de stabilite sociale, apparait alors au cœur du processus d’institutionnalisation du salariat des migrants ruraux. (This abstract was borrowed from another version of this item.) (This abstract was borrowed from another version of this item.)</t>
+          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361005872</t>
+          <t>https://openalex.org/W1987249872</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/land12040747</t>
+          <t>https://doi.org/10.2307/939981</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Peña-Rodríguez et al. (2023)</t>
+          <t>Holmes &amp; Kimbell (1982)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
+          <t>Verdi in the Age of Italian Romanticism</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
+          <t>Preface Part I. The Setting: 1. Verdi's Italy 2. Theatrical censorship 3. The operatic experience 4. Dramatic principles and musical form in early ottocento opera Part II. A Documentary History of the Early Operas: 5. Launching a career 6. The genesis of an opera - Ernani 7. Two overcrowded years 8. Verdi the idealist - the Florence Macbeth 9. Opera as a business 10. Collaboration with Cammarano 11. Bouts with the censor 12. Giuseppina's operas - Il Trovatore and La Traviata Part III. The Development of Verdi's Musical Language: 13. The first operas - Oberto and Un Giorno di Regno 14. Italian grand opera - Nabucco and I Lombardi alla Prima Crociata 15. The early 'galley' operas - Ernani to Attila 16. Macbeth and its satellites 17. Verdi a la parisienne - Jerusalem and La Battaglia di Legnano 18. Luisa Miller and Stiffelio 19. 'The popular trilogy' - Rigoletto, Il Trovatore, La Traviata Part IV. The Operas: 20. Nabucco, a risorgimento opera 21. Verdi and French Romanticism - Ernani 22. Byronismo - I Due Foscari and Il Corsaro 23. The impact of Shakespeare - the Florence Macbeth 24. La Battaglia di Legnano - the opera of the revolution 25. Essays with Schiller 26. The originality of Rigoletto 27. Verdi and 'realism' - La Traviata Notes Bibliography Index.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313515625</t>
+          <t>https://openalex.org/W2117387235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijerph20010861</t>
+          <t>https://doi.org/10.1016/j.bbabio.2013.06.006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>King et al. (2023)</t>
+          <t>Spudich et al. (2014)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>An Urgent Call to Integrate the Health Sector into the Post-2020 Global Biodiversity Framework</t>
+          <t>Mechanism divergence in microbial rhodopsins</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>There is a rapidly closing window of opportunity to stop biodiversity loss and secure the resilience of all life on Earth. In December 2022, Parties to the United Nations (UN) Convention on Biological Diversity (CBD) will meet in Montreal, Canada, to finalize the language and terms of the Post-2020 Global Biodiversity Framework (Post-2020 GBF). The Post-2020 GBF aims to address the shortcomings of the previous Strategic Plan on Biodiversity 2011-2020, by introducing a Theory of Change, that states that biodiversity protection will only be successful if unprecedented, transformative changes are implemented effectively by Parties to the CBD. In this policy perspective, we explore the implications of the Theory of Change chosen to underpin the Post-2020 GBF, specifically that broad social transformation is an outcome that requires actors to be specified. We detail how the health sector is uniquely positioned to be an effective actor and ally in support of the implementation of the Post-2020 GBF. Specifically, we highlight how the core competencies and financial and human resources available in the health sector (including unique knowledge, skill sets, experiences, and established trust) provide a compelling, yet mostly untapped opportunity to help create and sustain the enabling conditions necessary to achieve the goals and targets of the framework. While by no means a panacea for the world's biodiversity problems, we posit that explicitly omitting the health sector from the Post-2020 GBF substantially weakens the global, collective effort to catalyze the transformative changes required to safeguard biodiversity.</t>
+          <t>A fundamental design principle of microbial rhodopsins is that they share the same basic light-induced conversion between two conformers. Alternate access of the Schiff base to the outside and to the cytoplasm in the outwardly open “E” conformer and cytoplasmically open “C” conformer, respectively, combined with appropriate timing of pKa changes controlling Schiff base proton release and uptake make the proton path through the pumps vectorial. Phototaxis receptors in prokaryotes, sensory rhodopsins I and II, have evolved new chemical processes not found in their proton pump ancestors, to alter the consequences of the conformational change or modify the change itself. Like proton pumps, sensory rhodopsin II undergoes a photoinduced E → C transition, with the C conformer a transient intermediate in the photocycle. In contrast, one light-sensor (sensory rhodopsin I bound to its transducer HtrI) exists in the dark as the C conformer and undergoes a light-induced C → E transition, with the E conformer a transient photocycle intermediate. Current results indicate that algal phototaxis receptors channelrhodopsins undergo redirected Schiff base proton transfers and a modified E → C transition which, contrary to the proton pumps and other sensory rhodopsins, is not accompanied by the closure of the external half-channel. The article will review our current understanding of how the shared basic structure and chemistry of microbial rhodopsins have been modified during evolution to create diverse molecular functions: light-driven ion transport and photosensory signaling by protein–protein interaction and light-gated ion channel activity. This article is part of a Special Issue entitled: Retinal Proteins — You can teach an old dog new tricks.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3157917116</t>
+          <t>https://openalex.org/W4395600964</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0973703021998993</t>
+          <t>https://doi.org/10.15468/dl.5zj7jg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jejeebhoy &amp; Kumar (2021)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
+          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008266806</t>
+          <t>https://openalex.org/W4322737768</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/h0094117</t>
+          <t>https://doi.org/10.1111/2041-210x.14070</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Упитис (1993)</t>
+          <t>Record et al. (2023)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
+          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
+          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524644</t>
+          <t>https://openalex.org/W2563164174</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/669055</t>
+          <t>https://doi.org/10.1371/journal.pone.0168107</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Chen et al. (2016)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Notes on Contributors</t>
+          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
+          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1987249872</t>
+          <t>https://openalex.org/W2488535010</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/939981</t>
+          <t>https://doi.org/10.1057/9781137012340_8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Holmes &amp; Kimbell (1982)</t>
+          <t>Chew (2013)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Verdi in the Age of Italian Romanticism</t>
+          <t>Intergenerational Identities: Negotiating Solidarity and Plurality</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Preface Part I. The Setting: 1. Verdi's Italy 2. Theatrical censorship 3. The operatic experience 4. Dramatic principles and musical form in early ottocento opera Part II. A Documentary History of the Early Operas: 5. Launching a career 6. The genesis of an opera - Ernani 7. Two overcrowded years 8. Verdi the idealist - the Florence Macbeth 9. Opera as a business 10. Collaboration with Cammarano 11. Bouts with the censor 12. Giuseppina's operas - Il Trovatore and La Traviata Part III. The Development of Verdi's Musical Language: 13. The first operas - Oberto and Un Giorno di Regno 14. Italian grand opera - Nabucco and I Lombardi alla Prima Crociata 15. The early 'galley' operas - Ernani to Attila 16. Macbeth and its satellites 17. Verdi a la parisienne - Jerusalem and La Battaglia di Legnano 18. Luisa Miller and Stiffelio 19. 'The popular trilogy' - Rigoletto, Il Trovatore, La Traviata Part IV. The Operas: 20. Nabucco, a risorgimento opera 21. Verdi and French Romanticism - Ernani 22. Byronismo - I Due Foscari and Il Corsaro 23. The impact of Shakespeare - the Florence Macbeth 24. La Battaglia di Legnano - the opera of the revolution 25. Essays with Schiller 26. The originality of Rigoletto 27. Verdi and 'realism' - La Traviata Notes Bibliography Index.</t>
+          <t>While one may inherit one’s “race”, language is not necessarily inherited and nowhere is this more evident than migrant cities where the second and third generations begin to use languages that are vastly different from their parents and grandparents. This chapter proposes the solidarity-plurality model as a way of understanding early identities. It uses parameters such as dress, food, religious rites and literary endeavours as a means to examine the processes of acculturation and assimilation. The postulation of a cline or continuum rather than a more static classificatory listing is useful for the study of intergenerational identities, for it suggests a gradual/fluid movement rather than a neat transition from one identity stage to the other.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117387235</t>
+          <t>https://openalex.org/W4366463390</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bbabio.2013.06.006</t>
+          <t>https://doi.org/10.1111/hex.13772</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Spudich et al. (2014)</t>
+          <t>Hughes et al. (2023)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mechanism divergence in microbial rhodopsins</t>
+          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A fundamental design principle of microbial rhodopsins is that they share the same basic light-induced conversion between two conformers. Alternate access of the Schiff base to the outside and to the cytoplasm in the outwardly open “E” conformer and cytoplasmically open “C” conformer, respectively, combined with appropriate timing of pKa changes controlling Schiff base proton release and uptake make the proton path through the pumps vectorial. Phototaxis receptors in prokaryotes, sensory rhodopsins I and II, have evolved new chemical processes not found in their proton pump ancestors, to alter the consequences of the conformational change or modify the change itself. Like proton pumps, sensory rhodopsin II undergoes a photoinduced E → C transition, with the C conformer a transient intermediate in the photocycle. In contrast, one light-sensor (sensory rhodopsin I bound to its transducer HtrI) exists in the dark as the C conformer and undergoes a light-induced C → E transition, with the E conformer a transient photocycle intermediate. Current results indicate that algal phototaxis receptors channelrhodopsins undergo redirected Schiff base proton transfers and a modified E → C transition which, contrary to the proton pumps and other sensory rhodopsins, is not accompanied by the closure of the external half-channel. The article will review our current understanding of how the shared basic structure and chemistry of microbial rhodopsins have been modified during evolution to create diverse molecular functions: light-driven ion transport and photosensory signaling by protein–protein interaction and light-gated ion channel activity. This article is part of a Special Issue entitled: Retinal Proteins — You can teach an old dog new tricks.</t>
+          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
+          <t>https://openalex.org/W3013722721</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W2903193854</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Hein et al. (2018)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2298211834</t>
+          <t>https://openalex.org/W2274151390</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bpj.2015.11.2737</t>
+          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Srivastava et al. (2016)</t>
+          <t>Голубев &amp; Testov (2015)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cell Migration in Mechanically Resistive Environment</t>
+          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The mechanical environment of a cell influences its migration. It has been observed that certain cell types such as Dictyostelium and cancer cells tend to migrate by forming blebs rather than pseudopodia in mechanically resistive environment. However, very little is known about the mechanisms governing this transition between different modes of migration. In this work, we disentangle the contributions of two key mechanical factors that might trigger this switch, the environment's stiffness (the extent of local deformation of extra-cellular matrix) and its state of stress (amount of pre-existing tension or compression). A custom built device, “cell squasher”, is used to apply dynamically controlled and uniform force on cells chemotaxing under an agaorse layer. Our results show that switch to bleb mode of migration can be triggered by an increase in either the external load imposed by the device or gel stiffness. This transition is also associated with a decrease in cell speed. Increasing the load even further triggers the rounding up of the cells and dramatically slows down the retraction of blebs; migration ceased in most of the cases. These results show quantitatively that a lower threshold of load is required for switching as gel stiffness increases which implies a collaborative effect of both the physical parameters. Surprisingly, the cells also undergo a significant reduction in their volume within few minutes of the imposition of the load. We also show that cells become highly contractile under load and myosin recruitment to cortex takes place leading to some loss of polarity. The cells also migrate in less adhesive manner under load condition. The involvement of Pip3, Rac, Ras and SCAR signaling in protrusion switching is also seen. This work is of significant importance in quantitatively understanding the effect of physical changes in migration of cells.</t>
+          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W2120493161</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.1542/peds.2012-3786f</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Billett et al. (2013)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
+          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2488535010</t>
+          <t>https://openalex.org/W3126388929</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1057/9781137012340_8</t>
+          <t>https://doi.org/10.1002/agj2.20631</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chew (2013)</t>
+          <t>Govindasamy et al. (2021)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Intergenerational Identities: Negotiating Solidarity and Plurality</t>
+          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>While one may inherit one’s “race”, language is not necessarily inherited and nowhere is this more evident than migrant cities where the second and third generations begin to use languages that are vastly different from their parents and grandparents. This chapter proposes the solidarity-plurality model as a way of understanding early identities. It uses parameters such as dress, food, religious rites and literary endeavours as a means to examine the processes of acculturation and assimilation. The postulation of a cline or continuum rather than a more static classificatory listing is useful for the study of intergenerational identities, for it suggests a gradual/fluid movement rather than a neat transition from one identity stage to the other.</t>
+          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524805</t>
+          <t>https://openalex.org/W2903786861</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/mame.202100778</t>
+          <t>https://doi.org/10.7922/g2028pqq</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wang et al. (2022)</t>
+          <t>O’Brien &amp; Jaishankar (2019)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Smart Shape Memory Polyurethane with Photochromism and Mechanochromism Properties</t>
+          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Abstract The combination of shape memory effects and multi‐functionalities in smart materials is becoming one of the hottest research directions in the field of actuators and robotics. In this study, N ‐hydroxyethyl‐3,3‐dimethyl‐6‐nitroindoline spiropyran (SP) is chemically grafted into a polyurethane matrix to prepare ultraviolet light‐actuated shape memory thermoplastic polyurethane, which first integrates three unique properties including shape memory, photochromism, and mechanochromism. The FTIR, WAXD, SAXS, DSC, TGA, and shape memory tests reveal that the shape memory transformation temperature of 4.6 wt% SP‐based shape memory polyurethane is 41.2 °C, and it has the highest shape memory performance, as indicated by shape fixation and shape recovery ratios of 97.4% and 93.7%, respectively. Furthermore, “bionic fingers” with diversely selective actuation properties are fabricated, which exhibit a series of programmable multi‐segment motions to meet potential applications in the field of soft actuators.</t>
+          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2732874896</t>
+          <t>https://openalex.org/W1963898533</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.foodchem.2017.07.010</t>
+          <t>https://doi.org/10.1353/wal.0.0122</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Romano et al. (2018)</t>
+          <t>Rice (2010)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Microstructure and tuber properties of potato varieties with different genetic profiles</t>
+          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The objectives of this research were to study tuber starch characteristics and chemical - thermal properties of 21 potato varieties, and to determine their genetic diversity through SSR markers. Starch granular size varied among samples, with a wide diameter distribution (5–85 μm), while granule shapes were similar. Differential Scanning Calorimeter analysis showed that the transition temperatures (69 °C–74 °C) and enthalpies of gelatinization (0.9 J/g–3.8 J/g) of tubers were also variety dependent. SSR analysis allowed the detection of 157 alleles across all varieties, with an average value of 6.8 alleles per locus. Variety-specific alleles were also identified. SSR-based cluster analysis revealed that varieties with interesting quality attributes were distributed among all clusters and sub-clusters, suggesting that the genetic basis of traits analyzed may differ among our varieties. The information obtained in this study may be useful to identify and develop varieties with slowly digestible starch.</t>
+          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
+          <t>https://openalex.org/W4394959852</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Sydorenko et al. (2024)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319861856</t>
+          <t>https://openalex.org/W2073120171</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/20530196221149111</t>
+          <t>https://doi.org/10.1111/j.1467-8543.1988.tb00749.x</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kazak et al. (2023)</t>
+          <t>Fulcher (1988)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Renewable energy creditors versus renewable energy debtors: Seeking a pattern in a sustainable energy transition during the climate crisis</t>
+          <t>On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Considering unpredictable and hastily evolving tipping points (like the impacts of the COVID-19 pandemic, ongoing climate crisis and the war in Ukraine), it is clear that sustainable energy transition and utilization of locally sourced renewable energies must be in the heart of both national, regional, and local energy systems. However, if we take a closer look at the actions undertaken at the local (communal) level, we see enormous diversity of patterns, prerequisites, and implications that drive and affect spatial deployment of renewable energies. Therefore, our research targets to better comprehend the question if individual communities are comparatively involved in the energy transition. We also ask whether the demand and supply of renewable energy is territorially balanced and how these differences (if any) can be justified. We are framing our research by the concepts of energy justice and ecological debt. We thoroughly explore and asses the renewable energy balance on the level of individual communities which is based on data on the installed power capacity potentials and energy consumption in local administration units in Poland (380). Spatial distribution and discrepancies in the deployment of the renewable energy creditors and the renewable energy debtors are detected. Noticeable disproportions were identified among communities where improved utilization of local potential of renewable energy could exceed energy demand (29% of communities). This result is contrasting with communities (71% of communities) that can be, on the other hand, classified as renewable energy debtors. We claim that insufficient support (institution, regulatory, and financial) for expanding local renewable energy systems is a clear barrier when adapting to the climate crisis by balancing the energy demand and supply at the local level.</t>
+          <t xml:space="preserve">British Journal of Industrial RelationsVolume 26, Issue 2 p. 246-274 On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author First published: July 1988 https://doi.org/10.1111/j.1467-8543.1988.tb00749.xCitations: 16 AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Allen, V. L. (1971), The Sociology of Industrial Relations, London: Longmans. Åmark, Klas (1986), Fackligt makt och fackligt medlemskap. De svenska fackligt medlemskap, Lund: Arkiv. Bäckström, Knut (1977), Arbetarrörelsen i Sverige, Stockholm: Raben and Sjögren. Barrington Moore Jnr. (1978), Injustice: The Social Base of Obedience and Revolt, London: Macmillan. Brown, Henry Phelps (1983), The Origins of Trade Union Power, Oxford: Clarendon Press. Burgess, Keith (1975), The Origins of British Industrial Relations, London: Croom Helm. Casparsson, Ragnar (1966), LO: Bakgrund, Utveckling, Vertsamhet, Stockholm: Prisma. Cederqvist, Jane (1980), Arbetare i strejk. Studier rörande arbetarnas politiska mobilisering under industrialismens genombrott. Stockholm 1850–1909, Stockholm: Liber. Charles, Rodger (1973), The Development of Industrial Relations in Britain 1911–1913, London: Hutchinson. Clegg, H. A. (1976), Trade Unionism under Collective Bargaining, Oxford: Basil Blackwell. Clegg, H. A. (1985), A History of British Trade Unions Since 1889 vol.2 1911–1933, Oxford: Clarendon Press. Clegg, H. A. Fox, A and Thompson, A. F. (1964), A History of British Trade Unions since 1889, Vol. 1, Oxford: Clarendon Press. Cole, G. D. H. (1953), Attempts at General Union, London: Macmillan. De Geer, Hans (1986), S.A.F. i förhandlingar, Stockholm: Svenska Arbets-givareföreningen. Elvander, Nils (1980), Skandinavisk Arbetarrorelser, Stockholm: Liber. Engels, Frederick (1969), The Condition of the Working Class in England, London: Panther. Flanders, Allan (1970), Management and Unions: The Theory and Reform of Industrial Relations, London: Faber and Faber. Fox, Alan (1985), History and Heritage: the Social Origins of the British Industrial Relations System, London: Allen and Unwin. Fraser, W. Hamish (1974), Trade Unions and Society, London: George Allen and Unwin. Fulcher, James (1976), ‘Class conflict: Joint Regulation and Its Decline’, in Richard Scase ed. Readings in the Swedish Class Structure; Oxford: Pergamon. Fulcher, James (1987), ‘Labour Movement Theory Versus Corporatism: Social Democracy in Sweden’, Sociology, 21, 231–52. Galenson, Walter (1952), The Danish System of Labor Relations, Cambridge, Mass.: Havard University Press. Gårdlund, T. (1942), Industrialismens Samhälle, Stockholm: Tiden. Garside, W. R. (1977), ‘Management and Men: Aspects of British Industrial Relations in the Inter-War period’, in Barry Supple ed. Essays in British Business History, Oxford: Clarendon Press. Hadenius, Axel (1976), Facklig organisationsutveckling, Stockholm: Raben and Sjögren. Hentilä, Seppo (1979), Den svenska arbetarklassen och reformismens genombrott inom SAP före 1914, Helsingfors. Higgins, Winton (1985), ‘Political Unionism and the Corporatist Thesis’, Economic and Industrial Democracy, 6, 349–381. Hinton, James (1982), ‘The Rise of a Mass Labour Movement: Growth and Limits’, in Wrigley (1982). Hinton, James (1983), Labour and Socialism: a History of the British Labour Movement 1867–1974, Brighton: Wheatsheaf. Höglund, Sten (1978), Störforetagen, Svenska Arbetsgivareföreningen och Beslutsordningen i Arbetarnas Fackliga Organisationer, Research Reports from the Department of Sociology, University of Umeå. Hyman, Richard (1975), Industrial Relations: A Marxist Introduction, London: Macmillan. Ingham, Geoffrey K. (1974), Strikes and Industrial Conflict, London: Macmillan. Jackson, Peter and Sisson, Keith (1976), ‘Employers Confederations in Sweden and the UK and the Significance of Industrial Infrastructure’, British Journal of Industrial Relations, 14. Johansson, Ingemar (1982), Strejken som vapen. Fackföreningar och strejker i Norrköping 1870–1910, Kristianstad: Tiden. Karlbom, Rolf (1985), Revolution eller reformer, Göteborg: Göteborgs Universitet. Kirby, R. G. and Musson, A. E. The Voice of the People, Manchester: Manchester University Press. Kjellberg, Anders (1983), Facklig organisering i tolv länder, Lund: Arkiv. Korpi, </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
+          <t>https://openalex.org/W2282662800</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://doi.org/10.1080/19436149.2015.1101873</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Adib-Moghaddam (2015)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Islamic Secularism and the Question of Freedom in Iran</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>My research deals with the question of ‘freedom’ in Iran and the appropriation of ‘liberal’ ideas by influential intellectuals with an Islamic persuasion. At the same time, I am conceptualising the term ‘Islamic secularism’ with a particular emphasis on the spectre of democracy in Iran. I argue that Iranian thinkers, whose philosophical nodal point continues to be a modernistic interpretation of Islam (or Islamism), have struggled to formulate a theory that would transcend the confines of the revolution and satisfy the demands for pluralism and liberty put forward during several protests in Iran and, of course, during the 2011 Arab revolts.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W2958430348</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.1111/1468-0424.12437</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Fisher &amp; Funke (2019)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
+          <t>https://openalex.org/W2002131502</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>Burns (1975)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2073120171</t>
+          <t>https://openalex.org/W2058706419</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-8543.1988.tb00749.x</t>
+          <t>https://doi.org/10.1117/12.2018530</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fulcher (1988)</t>
+          <t>Toth et al. (2013)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden</t>
+          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">British Journal of Industrial RelationsVolume 26, Issue 2 p. 246-274 On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author First published: July 1988 https://doi.org/10.1111/j.1467-8543.1988.tb00749.xCitations: 16 AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Allen, V. L. (1971), The Sociology of Industrial Relations, London: Longmans. Åmark, Klas (1986), Fackligt makt och fackligt medlemskap. De svenska fackligt medlemskap, Lund: Arkiv. Bäckström, Knut (1977), Arbetarrörelsen i Sverige, Stockholm: Raben and Sjögren. Barrington Moore Jnr. (1978), Injustice: The Social Base of Obedience and Revolt, London: Macmillan. Brown, Henry Phelps (1983), The Origins of Trade Union Power, Oxford: Clarendon Press. Burgess, Keith (1975), The Origins of British Industrial Relations, London: Croom Helm. Casparsson, Ragnar (1966), LO: Bakgrund, Utveckling, Vertsamhet, Stockholm: Prisma. Cederqvist, Jane (1980), Arbetare i strejk. Studier rörande arbetarnas politiska mobilisering under industrialismens genombrott. Stockholm 1850–1909, Stockholm: Liber. Charles, Rodger (1973), The Development of Industrial Relations in Britain 1911–1913, London: Hutchinson. Clegg, H. A. (1976), Trade Unionism under Collective Bargaining, Oxford: Basil Blackwell. Clegg, H. A. (1985), A History of British Trade Unions Since 1889 vol.2 1911–1933, Oxford: Clarendon Press. Clegg, H. A. Fox, A and Thompson, A. F. (1964), A History of British Trade Unions since 1889, Vol. 1, Oxford: Clarendon Press. Cole, G. D. H. (1953), Attempts at General Union, London: Macmillan. De Geer, Hans (1986), S.A.F. i förhandlingar, Stockholm: Svenska Arbets-givareföreningen. Elvander, Nils (1980), Skandinavisk Arbetarrorelser, Stockholm: Liber. Engels, Frederick (1969), The Condition of the Working Class in England, London: Panther. Flanders, Allan (1970), Management and Unions: The Theory and Reform of Industrial Relations, London: Faber and Faber. Fox, Alan (1985), History and Heritage: the Social Origins of the British Industrial Relations System, London: Allen and Unwin. Fraser, W. Hamish (1974), Trade Unions and Society, London: George Allen and Unwin. Fulcher, James (1976), ‘Class conflict: Joint Regulation and Its Decline’, in Richard Scase ed. Readings in the Swedish Class Structure; Oxford: Pergamon. Fulcher, James (1987), ‘Labour Movement Theory Versus Corporatism: Social Democracy in Sweden’, Sociology, 21, 231–52. Galenson, Walter (1952), The Danish System of Labor Relations, Cambridge, Mass.: Havard University Press. Gårdlund, T. (1942), Industrialismens Samhälle, Stockholm: Tiden. Garside, W. R. (1977), ‘Management and Men: Aspects of British Industrial Relations in the Inter-War period’, in Barry Supple ed. Essays in British Business History, Oxford: Clarendon Press. Hadenius, Axel (1976), Facklig organisationsutveckling, Stockholm: Raben and Sjögren. Hentilä, Seppo (1979), Den svenska arbetarklassen och reformismens genombrott inom SAP före 1914, Helsingfors. Higgins, Winton (1985), ‘Political Unionism and the Corporatist Thesis’, Economic and Industrial Democracy, 6, 349–381. Hinton, James (1982), ‘The Rise of a Mass Labour Movement: Growth and Limits’, in Wrigley (1982). Hinton, James (1983), Labour and Socialism: a History of the British Labour Movement 1867–1974, Brighton: Wheatsheaf. Höglund, Sten (1978), Störforetagen, Svenska Arbetsgivareföreningen och Beslutsordningen i Arbetarnas Fackliga Organisationer, Research Reports from the Department of Sociology, University of Umeå. Hyman, Richard (1975), Industrial Relations: A Marxist Introduction, London: Macmillan. Ingham, Geoffrey K. (1974), Strikes and Industrial Conflict, London: Macmillan. Jackson, Peter and Sisson, Keith (1976), ‘Employers Confederations in Sweden and the UK and the Significance of Industrial Infrastructure’, British Journal of Industrial Relations, 14. Johansson, Ingemar (1982), Strejken som vapen. Fackföreningar och strejker i Norrköping 1870–1910, Kristianstad: Tiden. Karlbom, Rolf (1985), Revolution eller reformer, Göteborg: Göteborgs Universitet. Kirby, R. G. and Musson, A. E. The Voice of the People, Manchester: Manchester University Press. Kjellberg, Anders (1983), Facklig organisering i tolv länder, Lund: Arkiv. Korpi, </t>
+          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2282662800</t>
+          <t>https://openalex.org/W4200409676</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/19436149.2015.1101873</t>
+          <t>https://doi.org/10.20535/2218-930032021247159</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Adib-Moghaddam (2015)</t>
+          <t>Litynska et al. (2021)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Islamic Secularism and the Question of Freedom in Iran</t>
+          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>My research deals with the question of ‘freedom’ in Iran and the appropriation of ‘liberal’ ideas by influential intellectuals with an Islamic persuasion. At the same time, I am conceptualising the term ‘Islamic secularism’ with a particular emphasis on the spectre of democracy in Iran. I argue that Iranian thinkers, whose philosophical nodal point continues to be a modernistic interpretation of Islam (or Islamism), have struggled to formulate a theory that would transcend the confines of the revolution and satisfy the demands for pluralism and liberty put forward during several protests in Iran and, of course, during the 2011 Arab revolts.</t>
+          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3191909653</t>
+          <t>https://openalex.org/W2040919102</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2021.07.30.454390</t>
+          <t>https://doi.org/10.1074/jbc.m403212200</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lovelace et al. (2021)</t>
+          <t>Pangas et al. (2004)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>An age-depth model and revised stratigraphy of vertebrate-bearing units in Natural Trap Cave, Wyoming</t>
+          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ABSTRACT Almost a half-century ago excavations at Natural Trap Cave (NTC) began to yield evidence of the steppe paleoecology along the western slope of the Bighorn Mountains in north central Wyoming. The first decade of fieldwork led to the discovery of a diverse fauna that existed at the end of the Last Glacial Maximum. Stratigraphic deposits below the entrance of the cave were studied soon after excavations began, but never formally published. Although stratigraphy, taphonomy, and depositional circumstances were briefly discussed over the following years, little has been done to correlate the numerous stratigraphic schemes used by various authors. In this study, four stratigraphic sections were measured and analysed to establish an easily modifiable lithostratigraphic system of nomenclature. We provide the first correlations of all stratigraphic nomenclature used throughout excavations at NTC to facilitate comparisons with current and previous collections and publications. By leveraging more than 100 radioisotopic dates we developed an age-depth model and chronostratigraphic framework to further interrogate spatiotemporal relationships between strata, paleoenvironmental proxies, and fossil assemblages. Deposition is shown to be discontinuous; sediment accumulation in the study area is restricted to the buildup through peak penultimate and Last Glacial maxima. More recent (&amp;lt;10 ka) Holocene deposits unconformably cover the eroded surface of underlying Pleistocene strata. There is active reworking of sediments with transport and deposition of reactivated sediments within the Lower Chamber. We note that the two hiatuses coincide with interglacial periods and may reflect changing depositional circumstances within the cave such as extended periods of non-deposition, erosion, or bypass (possibly leading to deposition in the Lower Chamber). Contrary to previous reports, we demonstrate that it is unlikely a prominent snow cone existed or contributed to the pattern of sediment and fossil distribution within the study area, furthermore, we do not observe a continuous Pleistocene-Holocene transition in the study area. Further stratigraphic work will be needed to better understand the interrelationship between Main and Lower chamber deposits and the evolution of sediment accumulation in NTC.</t>
+          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W2786746787</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.1021/acs.jpcc.7b11165</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Stan &amp; Toroker (2018)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Lateral Chemical Bonding in Two-Dimensional Transition-Metal Dichalcogenide Metal/Semiconductor Heterostructures</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>Discovering better materials for electronic devices is important for technological advancements. One of the most promising materials are transition-metal dichalcogenides (TMDCs) due to their ability to form two-dimensional structures with diverse compositions. Recently, experimental breakthroughs were demonstrated for all two-dimensional transistors that contain a semiconducting TMDC channel and other materials for the metallic source and drain. However, metal/semiconductor interfaces that are made of similar TMDC materials are anticipated to be better candidates because they provide better chemical bonding and thus smaller resistance. Furthermore, smaller resistance is expected to be achieved with a metal and a semiconductor that are joined in direct lateral contact. In this work, we use density functional theory to analyze the electronic structure properties of novel lateral TMDC metal/semiconductor heterojunctions. We discover promising metal/semiconductor heterojunctions, for example, VS2/CrS2, which is characterized by strong covalent bonds with limited metal-induced gap states, high charge density around the Fermi level, and no Schottky barrier. These properties are anticipated to be useful for practical implementation of these material heterojunctions in all two-dimensional transistors.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2592083008</t>
+          <t>https://openalex.org/W2139210122</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0306312708090796</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Weaver et al. (2016)</t>
+          <t>Fullwiley (2008)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Transformative change for an inclusive society: what might social innovations contribute?</t>
+          <t>The Biologistical Construction of Race</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>This paper presents an ethnographic case study of the use of race in two interconnected laboratories of medical genetics. Specifically, it examines how researchers committed to reducing health disparities in Latinos with asthma advance hypotheses and structure research to show that relative frequencies of genetic markers characterize commonly understood groupings of race. They do this first by unapologetically advancing the idea that peoples whom they take to be of the 'Old World', or 'Africans', 'Europeans', 'East Asians', and 'Native Americans', can serve as putatively pure reference populations against which genetic risk for common diseases such as asthma can be calculated for those in the 'New World'. Technologically, they deploy a tool called ancestry informative markers (AIMs), which are a collection of genetic sequence variants said to differ in present-day West Africans, East Asians, Europeans, and (ideally Pre-Columbian) Native Americans. I argue that this technology, compelling as it may be to a range of actors who span the political spectrum, is, at base, designed to bring about a correspondence of familiar ideas of race and supposed socially neutral DNA. This correspondence happens, in part, as the scientists in question often bracket the environment while privileging racialized genetic variance as the primary source of health disparities for common disease, in this case between Mexicans and Puerto Ricans with asthma. With their various collaborators, these scientists represent a growing movement within medical genetics to re-consider race and 'racial admixture' as biogenetically valid points of departure. Furthermore, many actors at the center of this ethnography focus on race as a function of their personal identity politics as scientists of color. This to say, they are driven not by racist notions of human difference, but by a commitment to reduce health disparities and to include 'their' communities in what they describe as the 'genetic revolution'.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002131502</t>
+          <t>https://openalex.org/W3046780771</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
+          <t>https://doi.org/10.3389/fendo.2020.00463</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Burns (1975)</t>
+          <t>Battagello et al. (2020)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
+          <t>The Rat Mammary Gland as a Novel Site of Expression of Melanin-Concentrating Hormone Receptor 1 mRNA and Its Protein Immunoreactivity</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
+          <t>Lactation is a complex physiological process, depending on orchestrated central and peripheral events, including substantial brain plasticity. Among these events is a novel expression of pro-melanin-concentrating hormone (Pmch) mRNA in the rodent hypothalamus, such as the ventral part of the medial preoptic area (vmMPOA). This expression reaches its highest levels around postpartum day 19 (PPD19), when dams transition from lactation to the weaning period. The appearance of this lactation-related Pmch expression occurs simultaneously with the presence of one of the Pmch products, melanin-concentrating hormone (MCH), in the serum. Given the relevance of the MPOA to maternal physiology, and the contemporaneity between Pmch expression in this structure and the weaning period, we hypothesized that MCH has a role in the termination of lactation, acting as a mediator between central and peripheral changes. To test this, we investigated the presence of the MCH receptor 1 (MCHR1) and its gene expression in the mammary gland of female rats in different stages of the reproductive cycle. To that end, in situ hybridization, RT-PCR, RT-qPCR, nucleotide sequencing, immunohistochemistry and western blotting were employed. While Mchr1 expression was detected in the epidermis and dermis of both diestrus and lactating rats, parenchymal expression was exclusively found in the functional mammary gland of lactating rats. The expression of Mchr1 mRNA oscillated through lactation period and reached its maximum in PPD19 dams. Presence of MCHR1 was confirmed with immunohistochemistry, with preferential location of MCHR1 immunoreactive cells in the alveolar secretory cells. As was the case for gene expression, the MCHR1 protein levels were significantly higher in PPD19 than in other groups. Our data demonstrate the presence of an anatomical basis for the participation of MCH peptidergic system on the control of lactation through the mammary gland, suggesting that MCH could modulate a pro-lactation action in early postpartum days and the opposite role at the end of the lactation.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2078953740</t>
+          <t>https://openalex.org/W1994009899</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5465/ambpp.2008.33650020</t>
+          <t>https://doi.org/10.1080/03067319.2014.983494</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Melian &amp; Mähring (2008)</t>
+          <t>Camilleri et al. (2014)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LOST IN TRANSLATION? APPROPRIATION OF OPEN SOURCE SOFTWARE DEVELOPMENT AT HEWLETT-PACKARD.</t>
+          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Academy of Management Annual Meeting Proceedings includes abstracts of all papers and symposia presented at the annual conference, plus 6-page abridged versions of the “Best Papers” accepted for inclusion in the program (approximately 10%). Papers published in the Proceedings are abridged because presenting papers at their full length could preclude subsequent journal publication. Please contact the author(s) directly for the full papers. ArticlesLOST IN TRANSLATION? APPROPRIATION OF OPEN SOURCE SOFTWARE DEVELOPMENT AT HEWLETT-PACKARD.CATHARINA MELIAN and MAGNUS MÄHRINGCATHARINA MELIAN and MAGNUS MÄHRINGPublished Online:30 Nov 2017https://doi.org/10.5465/ambpp.2008.33650020AboutSectionsPDF/EPUB ToolsDownload CitationsAdd to favoritesTrack Citations ShareShare onFacebookTwitterLinkedInRedditEmail AbstractThe article presents a study of how Hewlett-Packard (HP) created their proprietary "Progressive Open Source" (POS) process using the open source software development approach as a template. The longitudinal case study method is used to investigate the transformations involved in making the open source approach compatible with the corporate environment of HP. Actor-network theory is cited and the construction of POS through interactions and translation is analyzed in terms of meanings assigned to the work.FiguresReferencesRelatedDetails Vol. 2008, No. 1 Permissions Metrics in the past 12 months History Published online 30 November 2017 Published in print 1 August 2008 InformationCopyright of Academy of Management Journal is the property of Academy of Management and its content may not be copied or emailed to multiple sites or posted to a listserv without the copyright holder’s express written permission. However, users may print, download, or email articles for individual use.KeywordsOPEN source softwareCOMPUTER softwareINTELLECTUAL cooperationCORPORATIONS -- Sociological aspectsMANAGEMENTDownload PDF</t>
+          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200409676</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20535/2218-930032021247159</t>
+          <t>https://openalex.org/W27668594</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Litynska et al. (2021)</t>
+          <t>Rosario (2012)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
+          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
+          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4223960128</t>
+          <t>https://openalex.org/W2321573811</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-1551132/v1</t>
+          <t>https://doi.org/10.2307/1939742</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hong &amp; Luo (2022)</t>
+          <t>Soderlund (1987)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Urbanization and depressive symptoms among middle-aged and older adults in China</t>
+          <t>Women's Authority in Pennsylvania and New Jersey Quaker Meetings, 1680-1760</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Abstract Background: As a health transition, urbanization plays an important role in individuals’ health. However, it is difficult to isolate healthy migrant effect between urbanization and health. This study examined the effects of urbanization on depressive symptoms and its possible pathways among Chinese middle-aged and older adults independent of the influence of health-selective migration. Methods: Using the baseline survey of the China Health and Retirement Longitudinal Study, this study compared the depressive symptoms among three groups (urbanized rural residents, rural non-migrants and urban non-migrants). The 10-item Center for Epidemiologic Studies Depression Scale (CESD-10) short form was used to measure depressive symptoms. Logistic regression models and Structural Equation Model (SEM) were applied to examine the association between urbanization and depressive symptoms and the corresponding potential mechanisms. Results: Compared with urbanized rural residents, rural residents were more likely to have depressive symptoms (OR=1.19, 95% CI=1.07, 1.32), and urban residents were associated with a decreased risk of depressive symptoms (OR=0.81, 95% CI: 0.70, 0.94). A large proportion of the association between urbanization and depressive symptoms were mainly mediated by social participation, income and living conditions. Conclusions: Planned urbanization had an independent impact on decreased depressive symptoms. Improvements in social participation, income and living conditions are the main drivers behind this relationship. Additionally, urbanization compensates for the negative impact on depressive symptoms from disadvantaged early life conditions, but it cannot completely eliminate the gap between urbanized rural people and urban non-migrants.</t>
+          <t>S CHOLARS seeking the source of the women's rights movement in North America discover that the trail leads to the Society of Friends. The Quakers, who in Sydney E. Ahlstrom's words had by I700 become probably the most potent religious movement in the colonies outside Puritan New England,' dwindled to a small sect after the Revolution. Nevertheless, a large percentage of nineteenth-century feminists were Quakers. These women had sharpened oratorical and organizational talents as ministers and as leaders of their separate women's meetings for discipline, and they had applied these skills to acquiring the same recognition and authority in the larger society that they possessed within their church. Lucretia Mott and her fellow Quaker activists had behind them almost two centuries of female participation in the leadership of their faith when in i848 they helped to draw up the Declaration of Sentiments for the convention at Seneca Falls. , In examining the history of eighteenth-century Friends in order to investigate the origins of American feminism, historians have employed a conceptual framework that makes autonomous female power the standard by which women's experiences should be judged.2 This model makes</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040919102</t>
+          <t>https://openalex.org/W4394933426</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
+          <t>https://doi.org/10.4337/9781800889842.00012</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pangas et al. (2004)</t>
+          <t>Diamint (2024)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
+          <t>Military power and autonomy</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
+          <t>Autonomy refers to the strong influence of the military in civilian politics. Countries in transitions to democracy agreed to subordinate the armed forces to the authority of elected civilians. But, with the beginning of the new century, a reversal of these practices occurred. The rulers who previously favoured democratic civil control of the military tolerate varying degrees of military self-governance to achieve political stability. Why in Latin America, as well as other regions, the has military political participation not ended? To analysis this question the text inquiries into the relationship of the armed forces with political power in three cases: Colombia, Venezuela and Brazil. In these countries the armed forces have acted, simultaneously, as agents of the elected government and as members of their own corporation, demonstrating that they retain very high quotas of power. The three cases allow us to develop the ideas of Concurred Autonomy, Politized Autonomy, and Self-regulated Autonomy.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2786746787</t>
+          <t>https://openalex.org/W1587591531</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.jpcc.7b11165</t>
+          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Stan &amp; Toroker (2018)</t>
+          <t>Bardis et al. (2011)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lateral Chemical Bonding in Two-Dimensional Transition-Metal Dichalcogenide Metal/Semiconductor Heterostructures</t>
+          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Discovering better materials for electronic devices is important for technological advancements. One of the most promising materials are transition-metal dichalcogenides (TMDCs) due to their ability to form two-dimensional structures with diverse compositions. Recently, experimental breakthroughs were demonstrated for all two-dimensional transistors that contain a semiconducting TMDC channel and other materials for the metallic source and drain. However, metal/semiconductor interfaces that are made of similar TMDC materials are anticipated to be better candidates because they provide better chemical bonding and thus smaller resistance. Furthermore, smaller resistance is expected to be achieved with a metal and a semiconductor that are joined in direct lateral contact. In this work, we use density functional theory to analyze the electronic structure properties of novel lateral TMDC metal/semiconductor heterojunctions. We discover promising metal/semiconductor heterojunctions, for example, VS2/CrS2, which is characterized by strong covalent bonds with limited metal-induced gap states, high charge density around the Fermi level, and no Schottky barrier. These properties are anticipated to be useful for practical implementation of these material heterojunctions in all two-dimensional transistors.</t>
+          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W220552507</t>
+          <t>https://openalex.org/W2108558461</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/anie.200504555</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Vella (1994)</t>
+          <t>Sun &amp; DiMagno (2006)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Marketing a Quality Image</t>
+          <t>Room-Temperature Nucleophilic Aromatic Fluorination: Experimental and Theoretical Studies</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jolted by changing market conditions both here and abroad, U.S. corporations are embracing various management systems. Some top executives seem to expect the movement to work miracles. By merely typing the word quality across their corporate brochures, they expect to transform their businesses into more successful enterprises. Just as a lifeboat doesn't guarantee rescue, management programs don't ensure business results. Corporate leaders have discovered that the notion of is more of a revolution than a buzzword. To gain the participation and dedication necessary to institute total programs from the ground up costs a great deal of time and money. But those companies which succeed can reap tremendous benefits if they market their new performance effectively. Corporations that achieve the distinction of total management (TQM) ought to make the most of it. One of the biggest mistakes a company can make is to go through the planning and expense of a revolution, then keep the achievement to itself. Unless customers--both current and future--know that the corporation has succeeded in its quest, all of the investment in people and resources may have been wasted. How should a company market TQM? How should it advertise intangible customer benefits like employee empowerment, proactive management and continuous process improvement? How can it persuade customers that improved is a reality, not just a slogan? And, most important, how can it turn the notion of into the reality of profits? Marketing an intangible These questions arose before a communications planning meeting with a client who was entering The Malcolm Baldrige Award Competition. The Baldrige award, introduced by the U.S. Department of Commerce in 1987, was devised to provide national encouragement and recognition for U.S. companies, both large and small, which demonstrate the ability to excel in a rigorous quest for excellence. The awards selection process involves an application that takes a year to compile and eventually grows to the size of a telephone book. Finalists must submit to a three-day, on-site inspection by a team of judges. Such companies as Xerox, Motorola and AT&amp;T have been Baldrige winners. They qualified by showing how they have reduced errors, instilled a culture of continuous improvement among employees, and established two-way communications designed to discover and fulfill customer desires. When Ames Rubber Corp. entered the Baldrige Award Competiton, VAMCOM Advertising &amp; PR was asked to develop a public relations plan that would go into effect if the company won. With 450 employees, Ames manufactures everything from precision rollers found in copying machines to the flexible boots that protect steering joints in automobiles. Ames President Joel Marvil requested a plan that would capitalize on the prestige of winning a Baldrige, especially in marketing terms. He wanted suggestions for communications to help position Ames to gain new business and generate future growth as a result of winning the award. Unfortunately, is too often seen as an internal procedure or goal, not a marketable resource that differentiates a company. The trouble is that the terms quality, or high-quality, or total have been bandied about so much that they are all but meaning less. But companies that have met a verifiable standard--establishing a fully integrated TQM program, obtaining International Standards Organization (ISO) Certification, or winning or a Malcolm Baldrige award--have a powerful marketing advantage. Such companies possess a resource, a tangible attribute which should be shared with customers and prospects. It takes a special set of tactics to communicate this type of image. For Ames, we conducted a features and benefits analysis. We determined that winning the Malcolm Baldrige Quality Award offered tangible assistance to the growth of the company because it served as a powerful differentiating factor for all new business efforts. …</t>
+          <t>Taming the reagent: The use of anhydrous tetrabutylammonium fluoride (TBAFanh) in nucleophilic aromatic substitution reactions, including variants of the selective halogen-exchange and fluorodenitration processes (see scheme), was investigated. It was shown that TBAFanh permits these reactions to be performed under surprisingly mild conditions if it is used in relatively nonpolar media. Despite their rarity in nature,1 organofluorine compounds play a leading role in the life sciences.2–11 The high electronegativity and small atomic radius of the fluorine atom mean that its incorporation into biologically active compounds induces a relatively small structural perturbation, whereas drastically altering the electronic properties and bioavailability of the compounds.9, 12 Fluorine substitution is a particularly effective strategy for aromatic groups, as the electron-withdrawing nature of the fluorine atom reduces the susceptibility of an aryl ring to cytochrome P-450 catalyzed hydroxylation, a common step in drug catabolism.8 The CF dipole in fluoroaromatic groups can also lead to an increase in molecular recognition through favorable, though generally weak, electrostatic interactions.3, 6, 10, 11, 13 Because of the medicinal importance of fluorinated aromatic compounds, mild and selective methods for their preparation are desirable. We recently reported the preparation of a soluble, highly nucleophilic fluoride-ion source, anhydrous tetrabutylammonium fluoride (TBAFanh).14 TBAFanh can be dissolved in dimethyl sulfoxide (DMSO) and CH3CN (2 M) and fluorinates primary alkyl halides and tosylates rapidly at low temperature (−35 °C, 5 min, THF). The rapid rate observed for SN2 reactions that feature TBAFanh prompted us to investigate nucleophilic aromatic substitution (SNAr) reactions with this reagent. Below we describe variants of the industrially important selective halogen exchange (Halex) and fluorodenitration processes for aromatic fluorination.15–18 We show that TBAFanh permits these reactions to be performed under surprisingly mild conditions. Electron-withdrawing substituents are typically required to activate chloroaromatic substrates toward Halex chemistry. The usual reagents employed to effect halogen exchange are spray-dried KF; a high-boiling-point polar aprotic solvent, such as sulfolane; and a phase-transfer catalyst to improve the solubility of the fluoride ion (Scheme 1). Prolonged and vigorous heating is often required. Such harsh conditions preclude syntheses in which the late introduction of fluorine substituents is desired. In contrast, many aromatic compounds undergo Halex reactions at room temperature in DMSO, CH3CN, or THF upon exposure to TBAFanh. In a typical preparation, TBAFanh (1.3 equiv) and the chloro- or nitroaromatic compound were simply stirred together in DMSO.19 Representative fluorinations are shown in Table 1. A typical Halex reaction.24 DMI=1,3-dimethyl-2-imidazolidinone. Entries Substrate Conditions[a] Product Yield [%][b] 1 TBAFanh (4 equiv) 14 days no reaction 0 2 TBAFanh (4 equiv) 14 days 80 3 TBAFanh (2.5 equiv) 1 h &gt;95 4 TBAFanh (2.5 equiv) 1.5 h &gt;95 5 TBAFanh (1.3 equiv) 20 min &gt;95 6 TBAFanh (1.3 equiv) 30 min &gt;95 7 TBAFanh (1.3 equiv) 1 h &gt;95 8 TBAFanh (2.5 equiv) 30 min &gt;95 9 TBAFanh (1.3 equiv) 30 min &gt;95 10 TBAFanh (1.4 equiv) ≈30 min &gt;90 11 TBAFanh (1.5 equiv) 2 days 80 12 TBAFanh (1.5 equiv) 5 days 2 13 TBAFanh (1.5 equiv) 18 h &gt;95 14 TBAFanh (2.5 equiv) 20 min &gt;95 15 TBAFanh (1.4 equiv) 20 min &gt;85 16 TBAFanh (2.5 equiv) 1 h &gt;90 17 TBAFanh (2.5 equiv) 1.5 h &gt;90 18 TBAFanh (1.3 equiv) 30 min &gt;95 19 TBAFanh (1.3 equiv) 30 min &gt;95 20 TBAFanh (1.3 equiv) 10 min &gt;95 21 TBAFanh (1.3 equiv) 24 h &gt;95 The scope of the room-temperature reactivity of TBAFanh with chloropyridines in DMSO is apparent from inspection of Table 1. If the pyridine ring has no electron-withdrawing groups, the nucleophilic substitution of chloride is sluggish for the ortho position and does not occur at all with m-chloropyridine. Smooth nucleophilic substitution occurs if mildly activating groups are present. A comparison of the mono- and dichloropyridine examples shows that a second electronegative substituent accelerates substitution: fluorination of 2-chloropyridine requires 14 days, whereas 2,6-dichloropyridine is exhaustively fluorinated in 90 minutes under identical conditions. In comparison, typical Halex fluorinations of 2,6-dichloropyridine require heating at 150 °C for ten hours.20–23 Chloropyridine substrates bearing more strongly electron-withdrawing (trifluoromethyl or carbonyl) substituents are also fluorinated rapidly, as are several other heterocyclic derivatives. It is noteworthy that N-benzyl-6-chloropurine is fluorinated quantitatively within 30 minutes. However, 6-chloropurine is deprotonated by TBAFanh if the amine is left unprotected, thus generating an equivalent of bifluoride ion. Fluorination of the 6-chloropurine anion requires excess TBAFanh (4 equiv) and an extended rea</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2139210122</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/0306312708090796</t>
+          <t>https://openalex.org/W80517714</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fullwiley (2008)</t>
+          <t>Gasser (2013)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The Biologistical Construction of Race</t>
+          <t>Career Self-Appraisals and Educational Aspirations of Diverse First-Year College Students.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This paper presents an ethnographic case study of the use of race in two interconnected laboratories of medical genetics. Specifically, it examines how researchers committed to reducing health disparities in Latinos with asthma advance hypotheses and structure research to show that relative frequencies of genetic markers characterize commonly understood groupings of race. They do this first by unapologetically advancing the idea that peoples whom they take to be of the 'Old World', or 'Africans', 'Europeans', 'East Asians', and 'Native Americans', can serve as putatively pure reference populations against which genetic risk for common diseases such as asthma can be calculated for those in the 'New World'. Technologically, they deploy a tool called ancestry informative markers (AIMs), which are a collection of genetic sequence variants said to differ in present-day West Africans, East Asians, Europeans, and (ideally Pre-Columbian) Native Americans. I argue that this technology, compelling as it may be to a range of actors who span the political spectrum, is, at base, designed to bring about a correspondence of familiar ideas of race and supposed socially neutral DNA. This correspondence happens, in part, as the scientists in question often bracket the environment while privileging racialized genetic variance as the primary source of health disparities for common disease, in this case between Mexicans and Puerto Ricans with asthma. With their various collaborators, these scientists represent a growing movement within medical genetics to re-consider race and 'racial admixture' as biogenetically valid points of departure. Furthermore, many actors at the center of this ethnography focus on race as a function of their personal identity politics as scientists of color. This to say, they are driven not by racist notions of human difference, but by a commitment to reduce health disparities and to include 'their' communities in what they describe as the 'genetic revolution'.</t>
+          <t>This study examined the career, social, and academic self-appraisals and educational aspirations of first-year college students of diverse racial/ethnic backgrounds. Participants included 72 first-year students of Black, Asian, and White ethnicities. Career self-appraisals were significantly different for Black and Asian students when compared to White students, and subsequent analysis revealed that White students had higher career self-appraisals. Also, educational aspirations were significantly predicted by academic self-appraisals. Practice implications are explored. Keywords: first-year college students, academic self-appraisal, educational aspirations ********** Today, workers in the United States need to be competitive on the global job market, which requires being able to obtain the necessary training and education sought by employers (Hug, hey &amp; Hughey, 1999). The college preparation of students can be vital in securing a job and developing one's career post-graduation. Hence, educators and researchers have taken interest in the success of first-year college students in order to help these students transition from high school to college, and from college to the world of work. Factors associated with first-year college students' success include membership in learning communities and variables such as gender and ethnicity (Zheng, Saunders, Shelley, &amp; Whalen, 2002). Since it has been shown that ethnicity and other cultural factors can influence success and introduce additional issues and barriers, the career development of first-year college students of different racial/ethnic backgrounds is particularly salient (Alipuria, 2008). The psychological distress of these diverse first-year college students can be mitigated by positive parental/familial attachment (Kenny &amp; Perez, 1996), and research with Black and Latino men in their first year of college has indicated that parental encouragement and other factors helped these men choose to pursue college degrees (Contreras-Godfrey, 2009). Additionally, it has been demonstrated that a career development course can help decrease the dysfunctional career thoughts of diverse first-year students (Osborn, Howard, &amp; Leierer, 2007). Of particular interest to the success of these students are the factors of self-efficacy and educational aspirations. Self-efficacy refers to one's belief in one's ability to perform certain tasks (Bandura, 1977), and different areas of self-efficacy relevant to college students have included academic or educational self-efficacy (one's belief in her ability to do tasks associated with academic study), social self-efficacy (belief in his ability to perform social tasks), and career self-efficacy (belief in her ability to do career-oriented tasks) (c.f., Chung &amp; Sedlacek, 1999). Educational aspirations are the level of education an individual is striving towards, and is usually measured by asking people about what degree they plan to achieve. For instance, if a student is currently working towards earning a bachelor's degree, but hopes to earn a master's degree one day, then that person's educational aspiration is a master's degree. In the next two sections, literature pertaining to academic, social, and career self-efficacy as well as educational aspirations for diverse students will be examined. Racial/ethnic diversity of first-year college students and academic, social, and career self-efficacy. Chung and Sedlacek (1999) investigated the academic, social, and career self-appraisals (efficacy) of first-year college students of different racial/ethnic backgrounds, and found that White students had higher academic and social self-appraisals than Asian and Black students. Other studies of academic self-efficacy have identified this construct as related to performance and adjustment (Chemers, Hu, &amp; Garcia, 2001), student's feelings of class belonging (Freeman, Anderman, &amp; Jensen, 2007), and college persistence (Kahn &amp; Nauta, 2001). …</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W27668594</t>
+          <t>https://openalex.org/W62592376</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14264/318981</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rosario (2012)</t>
+          <t>Blythe (2024)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
+          <t>A retailing history of the Ipswich central business district (CBD) from the mid-1970s to 2003</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
+          <t>This thesis is a retail history of the Ipswich CBD from the mid- 1970s to 2003. It argues that the Ipswich CBD developed its physical composition through a combination of its belated experience of the national retail innovations, their rapid application once adopted, and the mitigating influence of local business factors. This evolution is explained through a matrix of four interconnected themes : the change in the type of CBD retail businesses; the nature of specific businesses involved in the CBD transformation; the increase in civic participation in CBD retail decision making, and the combined effect of these three factors upon the physical composition of the CBD and its image as a retail destination. These four themes are elaborated through a historical narrative that examines the introduction of the corporate supermarket and shopping centre from the mid- 1970s, the impact of the destruction of Reids (formerly Cribb and Foote) Department Store in 1985, the revitalisation of CBD shopping with the completion of the Ipswich Mall in 1987 and Kern Corporation's Ipswich City Square shopping centre in 1988, the negative effects of the recession in the early 1990s and the subsequent competition from suburban shopping centres, and the more recent debate surrounding the proposed Riverlink development and the adoption of the River Heart vision to plan for future CBD retail development.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394933426</t>
+          <t>https://openalex.org/W2074839063</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4337/9781800889842.00012</t>
+          <t>https://doi.org/10.1016/0165-7836(92)90029-s</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Diamint (2024)</t>
+          <t>Ranta et al. (1992)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Military power and autonomy</t>
+          <t>Fish catch and water quality in small lakes</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Autonomy refers to the strong influence of the military in civilian politics. Countries in transitions to democracy agreed to subordinate the armed forces to the authority of elected civilians. But, with the beginning of the new century, a reversal of these practices occurred. The rulers who previously favoured democratic civil control of the military tolerate varying degrees of military self-governance to achieve political stability. Why in Latin America, as well as other regions, the has military political participation not ended? To analysis this question the text inquiries into the relationship of the armed forces with political power in three cases: Colombia, Venezuela and Brazil. In these countries the armed forces have acted, simultaneously, as agents of the elected government and as members of their own corporation, demonstrating that they retain very high quotas of power. The three cases allow us to develop the ideas of Concurred Autonomy, Politized Autonomy, and Self-regulated Autonomy.</t>
+          <t>We examined the relationship between water quality and fish catch in 80 small Finnish lakes. Generally, fishing effort and gear may vary considerably among lakes; therefore, the detection of any relationship between water quality and fish catch may be hampered. To avoid this bias, fish in the present study were trapped with a standardised gill net (catch refers to the pooled biomass of trapped fish, catch per unit effort (CPUE). Water quality was assessed by measuring lake-specific values of pH, calcium, dissolved and total aluminium, conductivity, alkalinity and water colour. From these data, we extracted two principal components, together they retained 78% of the variation in the original data. Despite our efforts to minimise noise in the catch data, we could not find any predictive relationship between water quality and total biomass of fish. We conclude that in Finnish lakes it is difficult, if not impossible, to predict the lake-specific fish catch based on water quality. However, even with the present data there were differences in the total catch of fish originating from lakes with diverse values along the first principal component (a gradient composed of pH, calcium, conductivity and alkalinity). Lakes in the low end averaged a catch of 6.4 kg, while those at the high end averaged 9.2 kg. This was due to roach having increasing catches along the gradual transition from acid to neutral lakes.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1587591531</t>
+          <t>https://openalex.org/W1971995030</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
+          <t>https://doi.org/10.1016/j.pcad.2012.02.004</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bardis et al. (2011)</t>
+          <t>Yusuf et al. (2012)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
+          <t>Disturbances in Calcium Metabolism and Cardiomyocyte Necrosis: The Role of Calcitropic Hormones</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
+          <t>A synchronized dyshomeostasis of extra- and intracellular Ca2+, expressed as plasma ionized hypocalcemia and excessive intracellular Ca2+ accumulation, respectively, represents a common pathophysiologic scenario that accompanies several diverse disorders. These include low-renin and salt-sensitive hypertension, primary aldosteronism and hyperparathyroidism, congestive heart failure, acute and chronic hyperadrenergic stressor states, high dietary Na+, and low dietary Ca2+ with hypovitaminosis D. Homeostatic responses are invoked to restore normal extracellular [Ca2+]o, including increased plasma levels of parathyroid hormone and 1,25(OH)2D3. However, in cardiomyocytes these calcitropic hormones concurrently promote cytosolic free [Ca2+]i and mitochondrial [Ca2+]m overloading. The latter sets into motion organellar-based oxidative stress, in which the rate of reactive oxygen species generation overwhelms their detoxification by endogenous antioxidant defenses, including those related to intrinsically coupled increments in intracellular Zn2+. In turn, the opening potential of the mitochondrial permeability transition pore increases, allowing for osmotic swelling and ensuing organellar degeneration. Collectively, these pathophysiologic events represent the major components to a mitochondriocentric signal-transducer-effector pathway to cardiomyocyte necrosis. From necrotic cells, there follows a spillage of intracellular contents, including troponins, and a subsequent wound healing response with reparative fibrosis or scarring. Taken together, the loss of terminally differentiated cardiomyocytes from this postmitotic organ and the ensuing replacement fibrosis each contribute to the adverse structural remodeling of myocardium and progressive nature of heart failure. In conclusion, hormone-induced ionized hypocalcemia and intracellular Ca2+ overloading comprise a pathophysiologic cascade common to diverse disorders and that initiates a mitochondriocentric pathway to nonischemic cardiomyocyte necrosis.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2108558461</t>
+          <t>https://openalex.org/W2993247134</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/anie.200504555</t>
+          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sun &amp; DiMagno (2006)</t>
+          <t>Nugraha (2019)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Room-Temperature Nucleophilic Aromatic Fluorination: Experimental and Theoretical Studies</t>
+          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
-        <is>
-          <t>Taming the reagent: The use of anhydrous tetrabutylammonium fluoride (TBAFanh) in nucleophilic aromatic substitution reactions, including variants of the selective halogen-exchange and fluorodenitration processes (see scheme), was investigated. It was shown that TBAFanh permits these reactions to be performed under surprisingly mild conditions if it is used in relatively nonpolar media. Despite their rarity in nature,1 organofluorine compounds play a leading role in the life sciences.2–11 The high electronegativity and small atomic radius of the fluorine atom mean that its incorporation into biologically active compounds induces a relatively small structural perturbation, whereas drastically altering the electronic properties and bioavailability of the compounds.9, 12 Fluorine substitution is a particularly effective strategy for aromatic groups, as the electron-withdrawing nature of the fluorine atom reduces the susceptibility of an aryl ring to cytochrome P-450 catalyzed hydroxylation, a common step in drug catabolism.8 The CF dipole in fluoroaromatic groups can also lead to an increase in molecular recognition through favorable, though generally weak, electrostatic interactions.3, 6, 10, 11, 13 Because of the medicinal importance of fluorinated aromatic compounds, mild and selective methods for their preparation are desirable. We recently reported the preparation of a soluble, highly nucleophilic fluoride-ion source, anhydrous tetrabutylammonium fluoride (TBAFanh).14 TBAFanh can be dissolved in dimethyl sulfoxide (DMSO) and CH3CN (2 M) and fluorinates primary alkyl halides and tosylates rapidly at low temperature (−35 °C, 5 min, THF). The rapid rate observed for SN2 reactions that feature TBAFanh prompted us to investigate nucleophilic aromatic substitution (SNAr) reactions with this reagent. Below we describe variants of the industrially important selective halogen exchange (Halex) and fluorodenitration processes for aromatic fluorination.15–18 We show that TBAFanh permits these reactions to be performed under surprisingly mild conditions. Electron-withdrawing substituents are typically required to activate chloroaromatic substrates toward Halex chemistry. The usual reagents employed to effect halogen exchange are spray-dried KF; a high-boiling-point polar aprotic solvent, such as sulfolane; and a phase-transfer catalyst to improve the solubility of the fluoride ion (Scheme 1). Prolonged and vigorous heating is often required. Such harsh conditions preclude syntheses in which the late introduction of fluorine substituents is desired. In contrast, many aromatic compounds undergo Halex reactions at room temperature in DMSO, CH3CN, or THF upon exposure to TBAFanh. In a typical preparation, TBAFanh (1.3 equiv) and the chloro- or nitroaromatic compound were simply stirred together in DMSO.19 Representative fluorinations are shown in Table 1. A typical Halex reaction.24 DMI=1,3-dimethyl-2-imidazolidinone. Entries Substrate Conditions[a] Product Yield [%][b] 1 TBAFanh (4 equiv) 14 days no reaction 0 2 TBAFanh (4 equiv) 14 days 80 3 TBAFanh (2.5 equiv) 1 h &gt;95 4 TBAFanh (2.5 equiv) 1.5 h &gt;95 5 TBAFanh (1.3 equiv) 20 min &gt;95 6 TBAFanh (1.3 equiv) 30 min &gt;95 7 TBAFanh (1.3 equiv) 1 h &gt;95 8 TBAFanh (2.5 equiv) 30 min &gt;95 9 TBAFanh (1.3 equiv) 30 min &gt;95 10 TBAFanh (1.4 equiv) ≈30 min &gt;90 11 TBAFanh (1.5 equiv) 2 days 80 12 TBAFanh (1.5 equiv) 5 days 2 13 TBAFanh (1.5 equiv) 18 h &gt;95 14 TBAFanh (2.5 equiv) 20 min &gt;95 15 TBAFanh (1.4 equiv) 20 min &gt;85 16 TBAFanh (2.5 equiv) 1 h &gt;90 17 TBAFanh (2.5 equiv) 1.5 h &gt;90 18 TBAFanh (1.3 equiv) 30 min &gt;95 19 TBAFanh (1.3 equiv) 30 min &gt;95 20 TBAFanh (1.3 equiv) 10 min &gt;95 21 TBAFanh (1.3 equiv) 24 h &gt;95 The scope of the room-temperature reactivity of TBAFanh with chloropyridines in DMSO is apparent from inspection of Table 1. If the pyridine ring has no electron-withdrawing groups, the nucleophilic substitution of chloride is sluggish for the ortho position and does not occur at all with m-chloropyridine. Smooth nucleophilic substitution occurs if mildly activating groups are present. A comparison of the mono- and dichloropyridine examples shows that a second electronegative substituent accelerates substitution: fluorination of 2-chloropyridine requires 14 days, whereas 2,6-dichloropyridine is exhaustively fluorinated in 90 minutes under identical conditions. In comparison, typical Halex fluorinations of 2,6-dichloropyridine require heating at 150 °C for ten hours.20–23 Chloropyridine substrates bearing more strongly electron-withdrawing (trifluoromethyl or carbonyl) substituents are also fluorinated rapidly, as are several other heterocyclic derivatives. It is noteworthy that N-benzyl-6-chloropurine is fluorinated quantitatively within 30 minutes. However, 6-chloropurine is deprotonated by TBAFanh if the amine is left unprotected, thus generating an equivalent of bifluoride ion. Fluorination of the 6-chloropurine anion requires excess TBAFanh (4 equiv) and an extended rea</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2396201264</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/1354067x15621476</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Märtsin et al. (2016)</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Using culture to manage the transition into university: Conceptualising the dynamics of withdrawal and engagement</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>This conceptual paper explored the purposes of using culture in the process of coping with stress by looking how first-year undergraduate students used cultural elements and activities to aid their transition into university. Results supported two key conceptualisations of the use of culture. First, results indicated that students used culture either for withdrawal purposes, that is, for escaping from the stressful situation, or for engagement purposes, that is, for actively engaging with the stressful situation. Second, the results suggested three different forms of using culture to engage with stressful situations: mood management, learning and personal interaction. While the results of the study resonate with the distinction between avoidance versus approach-oriented coping strategies that are widely explored in the stress and coping literature, they also suggest that the relationship between withdrawal and engagement might be dynamic with those two strategies serving distinct purposes in the process of coping with stress. This paper thus suggests that there is a need to develop process-oriented models of coping that would allow identifying patterns in the way people fluctuate between withdrawal and engagement that support and facilitate their personal growth and development.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3110285463</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s41598-020-77331-4</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Sushentsev et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>The effect of gadolinium-based contrast agent administration on magnetic resonance fingerprinting-based T1 relaxometry in patients with prostate cancer</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Abstract Magnetic resonance fingerprinting (MRF) is a rapidly developing fast quantitative mapping technique able to produce multiple property maps with reduced sensitivity to motion. MRF has shown promise in improving the diagnosis of clinically significant prostate cancer but requires further validation as part of a prostate multiparametric (mp) MRI protocol. mpMRI protocol mandates the inclusion of dynamic contrast enhanced (DCE) imaging, known for its significant T 1 shortening effect. MRF could be used to measure both pre- and post-contrast T 1 values, but its utility must be assessed. In this proof-of-concept study, we sought to evaluate the variation in MRF T 1 measurements post gadolinium-based contrast agent (GBCA) injection and the utility of such T 1 measurements to differentiate peripheral and transition zone tumours from normal prostatic tissue. We found that the T 1 variation in all tissues increased considerably post-GBCA following the expected significant T 1 shortening effect, compromising the ability of MRF T 1 to identify transition zone lesions. We, therefore, recommend performing MRF T 1 prior to DCE imaging to maintain its benefit for improving detection of both peripheral and transition zone lesions while reducing additional scanning time. Demonstrating the effect of GBCA on MRF T 1 relaxometry in patients also paves the way for future clinical studies investigating the added value of post-GBCA MRF in PCa, including its dynamic analysis as in DCE-MRF.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W62592376</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14264/318981</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Blythe (2024)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>A retailing history of the Ipswich central business district (CBD) from the mid-1970s to 2003</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>This thesis is a retail history of the Ipswich CBD from the mid- 1970s to 2003. It argues that the Ipswich CBD developed its physical composition through a combination of its belated experience of the national retail innovations, their rapid application once adopted, and the mitigating influence of local business factors. This evolution is explained through a matrix of four interconnected themes : the change in the type of CBD retail businesses; the nature of specific businesses involved in the CBD transformation; the increase in civic participation in CBD retail decision making, and the combined effect of these three factors upon the physical composition of the CBD and its image as a retail destination. These four themes are elaborated through a historical narrative that examines the introduction of the corporate supermarket and shopping centre from the mid- 1970s, the impact of the destruction of Reids (formerly Cribb and Foote) Department Store in 1985, the revitalisation of CBD shopping with the completion of the Ipswich Mall in 1987 and Kern Corporation's Ipswich City Square shopping centre in 1988, the negative effects of the recession in the early 1990s and the subsequent competition from suburban shopping centres, and the more recent debate surrounding the proposed Riverlink development and the adoption of the River Heart vision to plan for future CBD retail development.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2993247134</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Nugraha (2019)</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>Abstrak_x000D_
 Penelitian ini bertujuan untuk mendeskripsikan pandangan guru terhadap pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar. Pandangan tersebut dapat berupa argumen maupun asumsi pribadi berdasarkan sudut pandang dari guru yang bersangkutan. Jenis penelitian ini adalah deskriptif kualitatif. Teknik pengumpulan data yang digunakan adalah observasi, pedoman wawancara, dokumentasi, dan catatan lapangan. Subjek dalam penelitian ini adalah para guru di SD Dwijendra Denpasar. Analisis data yang digunakan meliputi tahap reduksi data, penyajian data, dan verifikasi data. Hasil dari penelitian adalah (1) guru menyambut baik fenomena revolusi industri 4.0 yang memberikan dampak terhadap reorientasi pembelajaran di kelas; (2) konsep pembelajaran yang diharapkan terwujud adalah pembelajaran kolaboratif dengan mengoptimalkan fungsi ICT media, keterbukaan terhadap berbagai sumber pengetahuan, hingga meningkatkan level kognitif siswa; (3) terwujudnya pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar adalah untuk membentuk gaya belajar yang efektif serta membangun keterampilan abad 21 yakni 4C bagi diri peserta didik; dan 4) dibutuhkan dukungan dari seluruh elemen pemegang otoritas pendidikan utamanya dalam penyediaan fasilitas dan pendampingan/pelatihan kepada guru-guru._x000D_
@@ -2861,294 +2773,403 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2274534862</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/resp.12749</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Jo et al. (2016)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2026539446</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Capranico et al. (1998)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4283581836</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/02670836.2022.2088163</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Cho et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Critical assessment 42: acicular ferrite formation and its influence on weld metal and heat-affected zone properties of steels</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Toughness and fatigue resistance of welds and associated heat-affected zones (HAZs) in high-strength steels are important design parameters in structural applications. Acicular ferrite microstructures, which can be achieved through control of weld process and nucleant (inclusions or precipitates) characteristics, are often regarded as key to enhancing weld metal and HAZ properties of welded steels. This paper addresses the transformation characteristics of acicular ferrite related to alloying and weld processing as well as the specific role of acicular ferrite in weld performance, along with future research needs to identify weld processes suitable to specific alloying strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2006443271</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Polly &amp; Nicole (2011)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Understanding the Transsexual Patient</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
+        </is>
+      </c>
+    </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1512676493</t>
+          <t>https://openalex.org/W2939080150</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11422-018-9891-z</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fernández (2004)</t>
+          <t>Dewsbury (2019)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Lenguas extranjeras, escritura y desarrollo: un reto para el profesional de las ciencias médicas</t>
+          <t>Deep teaching in a college STEM classroom</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The growing Cuban health sector collaboration with other countries as well as the revolution in
-information sciences has brought about the need to reconceptualize the role of learning how to write in
-foreign languages, English in particular, in Higher Medical Education. The present work explores the
-general contribution of this type of competence to the learner of foreign languages and gives particular
-attention to the usefulness of this skill to the health professional.</t>
+          <t>The retention of underrepresented students remains a significant challenge in the STEM (Science, Technology, Engineering and Math) disciplines. A broad range of studies across several disciplines have shown that conventional approaches to STEM instruction may have been unintentionally exclusive to students whose ethnicities are not traditionally represented in the STEM fields. This ‘exclusive’ classroom atmosphere has emerged as a major reason for the attrition of underrepresented minority students from STEM majors. In this manuscript, I describe a conceptual model called Deep Teaching, describing how pedagogical transformation incorporating practices that are more inclusive can occur. The model marks an evolution from other frameworks advancing inclusive instruction in higher education by advocating for the primacy of Freirean philosophy when thinking about self and student. Using specific examples, I discuss how a sequential approach to understanding ourselves and empathizing with students puts the instructor in a better position to create enduring, positive classroom climates. I also describe considerations necessary for various contexts, and suggestions for continued commitment to inclusive pedagogy in the long-term.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283581836</t>
+          <t>https://openalex.org/W3136201836</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02670836.2022.2088163</t>
+          <t>https://doi.org/10.1101/2021.03.18.435998</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cho et al. (2022)</t>
+          <t>Huang et al. (2021)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Critical assessment 42: acicular ferrite formation and its influence on weld metal and heat-affected zone properties of steels</t>
+          <t>Transcriptional condensates formed by phase-separated ALOG family proteins control shoot meristem maturation for flowering</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Toughness and fatigue resistance of welds and associated heat-affected zones (HAZs) in high-strength steels are important design parameters in structural applications. Acicular ferrite microstructures, which can be achieved through control of weld process and nucleant (inclusions or precipitates) characteristics, are often regarded as key to enhancing weld metal and HAZ properties of welded steels. This paper addresses the transformation characteristics of acicular ferrite related to alloying and weld processing as well as the specific role of acicular ferrite in weld performance, along with future research needs to identify weld processes suitable to specific alloying strategies.</t>
+          <t>Abstract Plants have evolved remarkable diversity in inflorescence architecture. At the center of this diversity lies a meristem maturation program featured by transition of stem cell populations from a vegetative state into a reproductive growth, determining when, where, and how many flowers are produced on inflorescences. Here we identified a new meristem maturation regulator TMF FAMILY MEMBER3 ( TFAM3 ) that encodes an ALOG family transcription factor. Loss of TFAM3 results in early flowering and simplified inflorescences with fewer flowers. Genetic analysis by creating high-order mutants of TFAM3 with three key regulators of tomato shoot meristem maturation, TERMINATING FLOWER ( TMF ), TMF FAMILY MEMBER1 ( TFAM1 ) and TMF FAMILY MEMBER2 ( TFAM2 ), suggested that they synergistically control flowering transition and inflorescence architecture. The four paralogous ALOG proteins share the prion-like properties and undergo liquid-liquid phase separation in vitro . Strikingly, TMF can recognize cognate TFAM proteins and selectively recruit them into phase separated condensates. Supporting this, they interact with themselves and each other to form biomolecular condensates in the nucleus. Their interaction induces formation of transcriptional condensates that directly repress expression of floral identity gene ANANTHA . Our study revealed a selective-recruitment phase separation mechanism for transcriptional condensation by which plants achieve optimal coordination of functional overlapped paralogs within a protein family to enable precise control of shoot meristem maturation for flowering and production of compound inflorescences.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2006443271</t>
+          <t>https://openalex.org/W1976620726</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
+          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Polly &amp; Nicole (2011)</t>
+          <t>Zou &amp; Zhang (2011)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Understanding the Transsexual Patient</t>
+          <t>A measurement model for collaboration between suppliers and manufacturers</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
+          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2939080150</t>
+          <t>https://openalex.org/W3092774362</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11422-018-9891-z</t>
+          <t>https://doi.org/10.1080/09583157.2020.1830029</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Dewsbury (2019)</t>
+          <t>Berrones-Morales et al. (2020)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Deep teaching in a college STEM classroom</t>
+          <t>Natural parasitism on&lt;i&gt;Anastrepha&lt;/i&gt;spp. (Diptera: Tephritidae) over Neotropical region boundaries in northeastern Mexico</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The retention of underrepresented students remains a significant challenge in the STEM (Science, Technology, Engineering and Math) disciplines. A broad range of studies across several disciplines have shown that conventional approaches to STEM instruction may have been unintentionally exclusive to students whose ethnicities are not traditionally represented in the STEM fields. This ‘exclusive’ classroom atmosphere has emerged as a major reason for the attrition of underrepresented minority students from STEM majors. In this manuscript, I describe a conceptual model called Deep Teaching, describing how pedagogical transformation incorporating practices that are more inclusive can occur. The model marks an evolution from other frameworks advancing inclusive instruction in higher education by advocating for the primacy of Freirean philosophy when thinking about self and student. Using specific examples, I discuss how a sequential approach to understanding ourselves and empathizing with students puts the instructor in a better position to create enduring, positive classroom climates. I also describe considerations necessary for various contexts, and suggestions for continued commitment to inclusive pedagogy in the long-term.</t>
+          <t>Anastrepha is one of the most species rich-genera of fruit flies in the order Diptera involving pest species of quarantine importance to Mexico. This study aimed to explore and analyze the natural parasitism associated with Anastrepha spp. in a Neotropical transition region from Mexico in the biosphere reserve ‘El Cielo,’ Tamaulipas, Mexico. Anastrepha was represented by Anastrepha fraterculus (Wiedemann), A. ludens Loew, A. obliqua Macquart, and A. zuelaniae. Doryctobracon areolatus (Szépligeti) revealed the highest parasitism rate (77.3%), followed by Trichopria sp. Ashmead (63.6%), Odontosema anastrephae (Borgmeier) (29.5%), Utetes anastrephae Viereck (7.95%), Doryctobracon crawfordi (Viereck) (7.69%), Aganaspis sp. Lin (1.2%)., and Trybliographa nordlanderi (Wharton) (0.7%). Prunus persica and Spondias mombin hosted the highest diversity of parasitoids. Natural parasitism of Do. crawfordi on A. ludens in Citrus sinensis is reported. Trichopria sp. was recorded attacking Anastrepha zuelaniae Stone in Passiflora serratifolia and O. anastrephae parasitising A. fraterculus and A. ludens on P. persica. Results highlight the prevalence of native parasitoids, as well as the biosphere reserve ‘El Cielo’ as the most northern natural reservoir of natural enemies of Anastrepha pest species in the neotropical region.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976620726</t>
+          <t>https://openalex.org/W4382769584</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
+          <t>https://doi.org/10.34104/bjah.02301310141</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Zou &amp; Zhang (2011)</t>
+          <t>Lito et al. (2023)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A measurement model for collaboration between suppliers and manufacturers</t>
+          <t>Management of Educational System and Practice: A Guide to Academic Transformation</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
+          <t>The paper investigates to seek answers on the extent of management in the educational system and practice for a guide in the academic transformation of the respondents especially on its contribution to the educational system. A mixed method of research is utilized in the study which focuses on Focused Group Discussion. Likewise, purposive and quota sampling techniques are employed in gathering the sample size and population of the study. The study comprised fifty (50) respondents only. Results show that extent of management of the educational system and practice as a guide for academic transformation explores and influences the mechanism of the context leadership transformation, shows that educational equity collaborates essentially on the equity issues and potentials, shows that educational motivation morale and improvement measures the quality of the improved motivation and knowledge in the educational system, show that student experiences establish mutual trust atmosphere, and encourages the interest of subordinates in school organization benefits, show that strengthening school culture reveals and focuses on leadership perspective in educational organization and strength through a school program and identity, and show that innovation skills in management leadership provide strategic requirement fulfillment of educational system and process which aligned to the mission and vision of school towards innovation and transformation of knowledge. Findings show that there is a significant relationship between the extent of management in the educational system and practice as a guide in the academic transformation as observed by the respondents.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144469520</t>
+          <t>https://openalex.org/W4200094928</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/smll.201202322</t>
+          <t>https://doi.org/10.1097/gco.0000000000000763</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Yu &amp; Stellacci (2012)</t>
+          <t>NA (2022)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Response to “Stripy Nanoparticles Revisited”</t>
+          <t>Editorial introductions</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SmallVolume 8, Issue 24 p. 3720-3726 CorrespondenceOpen Access Response to "Stripy Nanoparticles Revisited" Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author First published: 23 November 2012 https://doi.org/10.1002/smll.201202322Citations: 30 The copyright line for this article was changed on 15 Aug 2017 after original online publication. AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Graphical Abstract In a paper entitled "Stripy Nanoparticles Revisited", Lévy and co-workers contest the interpretation of scanning tunneling microscopy images of monolayer protected gold nanoparticles that our group has presented. We show that the two arguments they use are based on flawed assumptions and contradict each other. We also show new evidence for the existence of stripe-like domains on mixed monolayer-coated gold nanoparticles. This Correspondence is written in response to the paper entitled "Stripy Nanoparticles Revisited", published in this same issue.1 In 2004 we found, using scanning tunneling microscopy (STM), that self-assembled monolayers composed of a binary mixture of immiscible ligand molecules spontaneously develop stripe-like domains when assembled onto nanoparticles.2 The STM evidence produced was backed up by: Trasmission electron microscopy (TEM) and X-ray diffraction (XRD) data2 Fourier transform infrared (FTIR) spectroscopy studies3 Atomic force microscopy (AFM) images in water4 computational studies5, 6 In the latter case, a remarkable agreement both in terms of domain spacing5 and in terms of the existence of a size regime where these stripes occur6 was found. It was also established that these particles have a non-monotonic dependence of their saturation concentration (solubility)7 and their interfacial energy4 on their ligand shell composition, in good agreement with molecular dynamics simulations. They exhibit protein-resistance properties,2, 8 can penetrate cell membranes,8 and posses two polar point defects that can be selectively functionalized with a place-exchange reaction9 that has been modeled so as to calculate the free energy of the reaction.10 In ref. 1, Lévy and co-workers present a series of arguments questioning the interpretation of our data as well as some of our results. It appears that some parts of our work might be misinterpreted and hence we are grateful for this opportunity to clarify these aspects. Our experiments are no doubt challenging. Through the years, we have dedicated a good amount of time to improving our experimental approaches and to derive a more reliable picture of our system, both through experiments and through simulations. We appreciate every effort to stimulate a constructive scientific debate and hope that this exchange will contribute to a better understanding of self-assembled monolayers (SAMs) on nanoparticles as well as their investigation with scanning probe microscopy. The central argument presented in ref. 1 has to do with the interpretation of our STM images of mixed ligand nanoparticles, which Lévy and co-workers claim to be incorrect. We will present here a rebuttal to all of the points raised in ref. 1. In most cases we will start by correcting the selected presentation of our results given in ref. 1, to properly represent our body of work. We will also present new data to testify to our continuing research toward a deeper and more accurate interpretation of our STM data. In ref. 1, there exists the suggestion that our work on cell memb</t>
+          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254040095</t>
+          <t>https://openalex.org/W4244615726</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/cplu.201402166</t>
+          <t>https://doi.org/10.1177/026839629701200302</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Liú et al. (2014)</t>
+          <t>Subramanian &amp; Lacity (1997)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Spectroscopic and Computational Characterizations of Alkaline‐Earth‐ and Heavy‐Metal‐Exchanged Natrolites</t>
+          <t>Managing Client/Server Implementations: Today's Technology, Yesterday's Lessons</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Abstract Invited for this month’s cover features the collaboration between four different research groups at Yonsei University, Jilin University, Geophysical Laboratory, and the NanoCentre of the University of South Carolina. The image shows the framework of the small pore zeolite natrolite made up of alternating SiO 4 and AlO 4 tetrahedral 4‐rings and helical 8‐rings, which can accommodate, by structural relaxations, diverse alkali, alkaline‐earth as well as some heavy metals as charge‐balancing extra‐framework cations (EFC). Systematic structural changes have now been linked to the spectroscopic data. Read the full text of the article at 10.1002/cplu.201402114</t>
+          <t>Client/server computing is quickly becoming the computing architecture of choice in the 1990s. However, like many advances in information technology, public sources, such as trade journals and newspapers, portray client/server as a completely new paradigm which will transform our profession. But is it? We are conducting multiple case studies on organizations that have adopted client/server technology in order to extract managerial prescriptions for best practices in evaluating, developing and implementing effective client/server systems. Thus far, we have completed three case studies. Many of the lessons we are uncovering – the need for top management support, redesigning business processes before automation, user participation, phased implementation strategies and buying-in vendor skills to transfer learning – have been identified by previous researchers in other information technology contexts. Thus, although client/server is being touted as a radical change in information technology, practitioners need not discard the lessons from the past. Although there are some unique technical skills required to deploy client/server systems effectively, confirming project management lessons from the past is consoling to practitioners and academics alike. While the context of information technology changes rapidly, the organizational, administrative and policy practices are proving robust.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200094928</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/gco.0000000000000763</t>
+          <t>https://openalex.org/W153370640</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NA (2022)</t>
+          <t>Gradle (2004)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Editorial introductions</t>
+          <t>A Place of Presence</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
+          <t>This paper examines the studio of an iconographer as text, showing links to each essential component of the art maker's world: a strong attachment to tradition and prototypes, a life of contemplation, a sense of belonging to community, and the unveiling of the image as the place one meets the presence of the divine, through a process of transformation. As part of a larger vision to understand others and ourselves, the phenomenon of this artist's experience suggest that inclusion of spiritual understanding in art practice and instruction is a necessary consideration in the arts.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244615726</t>
+          <t>https://openalex.org/W4251649225</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/026839629701200302</t>
+          <t>https://doi.org/10.1007/978-1-349-23126-3_2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Subramanian &amp; Lacity (1997)</t>
+          <t>Corrin (1994)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Managing Client/Server Implementations: Today's Technology, Yesterday's Lessons</t>
+          <t>Transformations</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Client/server computing is quickly becoming the computing architecture of choice in the 1990s. However, like many advances in information technology, public sources, such as trade journals and newspapers, portray client/server as a completely new paradigm which will transform our profession. But is it? We are conducting multiple case studies on organizations that have adopted client/server technology in order to extract managerial prescriptions for best practices in evaluating, developing and implementing effective client/server systems. Thus far, we have completed three case studies. Many of the lessons we are uncovering – the need for top management support, redesigning business processes before automation, user participation, phased implementation strategies and buying-in vendor skills to transfer learning – have been identified by previous researchers in other information technology contexts. Thus, although client/server is being touted as a radical change in information technology, practitioners need not discard the lessons from the past. Although there are some unique technical skills required to deploy client/server systems effectively, confirming project management lessons from the past is consoling to practitioners and academics alike. While the context of information technology changes rapidly, the organizational, administrative and policy practices are proving robust.</t>
+          <t>This chapter outlines the unique transformations that went towards making Hungarian society what it is today. Various transformations that occurred within the Hungarian state struc-tures are assessed, as are the ways in which certain policies resulted in various social consequences. In turn the focus is upon the impact that societal developments had upon the statist structures. A major aim is to look at changing balances of power and within that political participation, especially in terms of later developments in the 1980s and early 1990s. Events in 1989 in Hungary cannot be seen as a knock-on effect as some commentators have viewed developments in the former GDR and Czechoslovakia. The rise of Solidarity, ably chartered by Garton Ash (1985), certainly forms a backdrop to changing interrelations in Hungary, but more significant are the attempts at economic reform from the late 1960s and the widespread influence of the second economy throughout Hungarian society (see Swain, 1992). A particular focus for this study will be women’s participation in, and views of, some of these changing power relations.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W153370640</t>
+          <t>https://openalex.org/W3203683278</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gradle (2004)</t>
+          <t>Hillier (2021)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>A Place of Presence</t>
+          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>This paper examines the studio of an iconographer as text, showing links to each essential component of the art maker's world: a strong attachment to tradition and prototypes, a life of contemplation, a sense of belonging to community, and the unveiling of the image as the place one meets the presence of the divine, through a process of transformation. As part of a larger vision to understand others and ourselves, the phenomenon of this artist's experience suggest that inclusion of spiritual understanding in art practice and instruction is a necessary consideration in the arts.</t>
+          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203683278</t>
+          <t>https://openalex.org/W4390597899</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
+          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hillier (2021)</t>
+          <t>Abbasi et al. (2024)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
+          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
+          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
         </is>
       </c>
     </row>
@@ -3182,49 +3203,44 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203426107</t>
+          <t>https://openalex.org/W3122703400</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rohmah (2021)</t>
+          <t>Serra et al. (2011)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>KARAKTERISTIK KEPEMIMPINAN PEREMPUAN</t>
+          <t>Education outcomes, school governance and parents'demand for accountability: evidence from Albania</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>In the past, women's leadership skills were still debated, women were still considered taboo to participate in the public arena, now as citizens women are free to explore and devote themselves in the public sphere, apart from this, the efficiency and effectiveness of leaders are seen from their expertise in influencing and directing their members and not about biology. Women may and can become leaders both in the government, education, family and other public spheres, while still paying attention to their boundaries as well as maintaining a balance between the domestic and the public with full responsibility. This is in line with the views of Islamic law and gender. Women's leadership has special characteristics, which can be a source of strength for women when they play a role as a leader. including: participation, delegation and granting of authority, better understanding of fellow women, and more far-sighted. In general, women's leadership styles are divided into 2; namely feminism- masculine leadership and transformational-transactional leadership styles, but in reality this is not always the case. Because the characteristics and demands of the job can affect a person's leadership style. As well as; feminism-masculine, feminism- transactional, masculine-transactional, transactional- transformational.</t>
+          <t>The extent to which teachers and school directors are held to account may play a central role in determining education outcomes, particularly in developing and transition countries where institutional deficiencies can distort incentives. This paper investigates the relationship between an expanded set of school inputs, including proxies for the functionality oftop-downandbottom-upaccountability systems, and education outputs in Albanian primary schools. The authors use data generated by an original survey of 180 nationally representative schools. The analysis shows a strong negative correlation between measures of top-down accountability and students'rates of grade repetition and failure in final examinations, and a strong positive correlation between measures of top-down accountability and students'excellence in math. Bottom-up accountability measures are correlated to various education outputs, although they tend lose statistical significance once parent characteristics, school resources and top-down accountability indicators are considered. An in-depth analysis of participatory accountability within the schools focuses on parents'willingness to hold teachers to account. Here, the survey data are combined with data from lab-type experiments conducted with parents and teachers in the schools. In general, the survey data highlight problems of limited parental involvement and lack of information about participatory accountability structures. The experiments indicate that the lack of parental participation in the school accountability system is owing to information constraints and weak institutions that allow parent class representatives to be appointed by teachers rather than elected by parents.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4316466003</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/cells12020323</t>
+          <t>https://openalex.org/W3203426107</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Stringer et al. (2023)</t>
+          <t>Rohmah (2021)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Circular RNAs: Non-Canonical Observations on Non-Canonical RNAs</t>
+          <t>KARAKTERISTIK KEPEMIMPINAN PEREMPUAN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>The existence of circular RNA (circRNA) research in mainstream science can be attributed to the contemporary synergism of big data and keen attention to detail by several research groups worldwide. Since the re-emergence of these non-canonical RNA transcripts, seminal advances have been made in understanding their biogenesis, interactome, and functions in diverse fields and a myriad of human diseases. However, most research outputs to date have focused on the ability of highly stable circRNAs to interact with, and impact signalling through, microRNAs. This is likely to be the result of seminal papers in the field ascribing a few remarkable circRNAs as “miRNA sponges”. However, the stoichiometric ratio between the (often-lowly-expressed) circRNA and their (commonly-more-abundant) target is rarely in favour of a biologically relevant and functional consequence of these interactions. It is time for yet another revolution in circRNA research to uncover functions beyond their documented ability to bind miRNAs. This Special Issue aims to highlight non-canonical functions for this non-canonical family of RNA molecules.</t>
+          <t>In the past, women's leadership skills were still debated, women were still considered taboo to participate in the public arena, now as citizens women are free to explore and devote themselves in the public sphere, apart from this, the efficiency and effectiveness of leaders are seen from their expertise in influencing and directing their members and not about biology. Women may and can become leaders both in the government, education, family and other public spheres, while still paying attention to their boundaries as well as maintaining a balance between the domestic and the public with full responsibility. This is in line with the views of Islamic law and gender. Women's leadership has special characteristics, which can be a source of strength for women when they play a role as a leader. including: participation, delegation and granting of authority, better understanding of fellow women, and more far-sighted. In general, women's leadership styles are divided into 2; namely feminism- masculine leadership and transformational-transactional leadership styles, but in reality this is not always the case. Because the characteristics and demands of the job can affect a person's leadership style. As well as; feminism-masculine, feminism- transactional, masculine-transactional, transactional- transformational.</t>
         </is>
       </c>
     </row>
@@ -3258,518 +3274,510 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035348680</t>
+          <t>https://openalex.org/W4298147432</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m807213200</t>
+          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.062</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kos et al. (2009)</t>
+          <t>Ozcan et al. (2022)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The Klebsiella pneumoniae O2a Antigen Defines a Second Mechanism for O Antigen ATP-binding Cassette Transporters</t>
+          <t>Home-based geriatric oncology care: A feasibility study.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>An ATP-binding cassette (ABC) transporter-dependent mechanism is responsible for the biosynthesis of polysaccharide O antigens in the lipopolysaccharides of many Gram-negative bacteria. In the Escherichia coli O9a prototype, addition of a non-reducing terminal modification regulates chain length. The terminal residue is an export signal recognized by the nucleotide-binding domain component of the cognate ABC transporter. The Klebsiella pneumoniae O2a antigen lacks a capping residue, and the corresponding nucleotide-binding protein does not contain a separate substrate-binding domain. Unlike the O9a transporter, the O2a transporter can export heterologous O antigens. Export of the O2a antigen is obligatorily coupled to chain elongation, and the O2a transporter is essential for establishing O antigen chain length. The E. coli O9a transporter operates after chain length has been determined. Furthermore biosynthesis and export can be uncoupled. O antigen chain length is a critical element in the ability of lipopolysaccharides to confer resistance to complement-mediated killing. This study establishes that two distinctly different approaches are available for the regulation of O antigen chain length and export via an ABC transporter. An ATP-binding cassette (ABC) transporter-dependent mechanism is responsible for the biosynthesis of polysaccharide O antigens in the lipopolysaccharides of many Gram-negative bacteria. In the Escherichia coli O9a prototype, addition of a non-reducing terminal modification regulates chain length. The terminal residue is an export signal recognized by the nucleotide-binding domain component of the cognate ABC transporter. The Klebsiella pneumoniae O2a antigen lacks a capping residue, and the corresponding nucleotide-binding protein does not contain a separate substrate-binding domain. Unlike the O9a transporter, the O2a transporter can export heterologous O antigens. Export of the O2a antigen is obligatorily coupled to chain elongation, and the O2a transporter is essential for establishing O antigen chain length. The E. coli O9a transporter operates after chain length has been determined. Furthermore biosynthesis and export can be uncoupled. O antigen chain length is a critical element in the ability of lipopolysaccharides to confer resistance to complement-mediated killing. This study establishes that two distinctly different approaches are available for the regulation of O antigen chain length and export via an ABC transporter. Lipopolysaccharide (LPS) 4The abbreviations used are: LPS, lipopolysaccharide; OS, oligosaccharide; ABC, ATP-binding cassette; O-PS, O-polysaccharide; S-LPS, smooth LPS; und-PP, undecaprenol pyrophosphate-linked; NBD, nucleotide-binding domain; LB, Luria-Bertani; CPS, capsular polysaccharide. is the major component of the outer leaflet of the outer membrane of Gram-negative bacteria (1Nikaido H. Microbiol. Mol. Biol. Rev... 2003; 67: 593-656Google Scholar). The prototypical LPS molecule consists of three distinct regions: a hydrophobic domain known as lipid A, a core oligosaccharide (OS), and an O-polysaccharide (O-PS) (2Raetz C.R. Whitfield C. Annu. Rev. Biochem... 2002; 71: 635-700Google Scholar). LPS molecules isolated from bacterial cultures form a complex mixture. Some comprise only the lipid A and core OS and are known as “rough” LPS, whereas others are “smooth” (S-LPS) and capped by O-PS. When separated by SDS-PAGE, most S-LPS profiles reveal a strain- or serotype-specific range of modal O-PS chain lengths that vary by repeat unit increments. Lipid A and the core OS are synthesized by a sequential assembly process, and the product is exported across the inner membrane by MsbA (2Raetz C.R. Whitfield C. Annu. Rev. Biochem... 2002; 71: 635-700Google Scholar, 3Raetz C.R. Reynolds C.M. Trent M.S. Bishop R.E. Annu. Rev. Biochem... 2007; 76: 295-329Google Scholar). Synthesis of the O-PS occurs separately by one of two principal pathways that involve fundamentally different processes: the ABC transporter-dependent pathway or the Wzy-dependent pathway (2Raetz C.R. Whitfield C. Annu. Rev. Biochem... 2002; 71: 635-700Google Scholar, 4Valvano M.A. Front. Biosci... 2003; 8: s452-s471Google Scholar). In the ABC transporter-dependent pathway, polymerization of the O-PS occurs at the cytoplasmic face of the inner membrane. Initiation of synthesis requires an undecaprenol pyrophosphate-linked (und-PP) N-acetamido sugar. In Escherichia coli, this lipid-linked residue is typically N-acetylglucosamine (GlcNAc). Und-PP-GlcNAc is formed by the action of WecA, the N-acetylglucosamine:undecaprenylphosphate N-acetylglucosamine-1-phosphate transferase first identified in the biosynthesis of enterobacterial common antigen (5Meier-Dieter U. Barr K. Starman R. Hatch L. Rick P.D. J. Biol. Chem... 1992; 267: 746-753Google Scholar). WecA involvement has been established for ABC transporter-dependent O-PS pathways in E. coli and Klebsiella pneumoniae (5Meier-Dieter U. Barr K. Starman</t>
+          <t>62 Background: The Comprehensive Geriatric Assessment (CGA) improves the outcomes of older patients with cancer, and by identifying of geriatric impairments the CGA can guide the development of supportive interventions. However, the implementation of these interventions in a real-world setting can be burdensome for patients, particularly when additional visits are required in an often frail population. Therefore, our team developed a collaborative model for home-based delivery of CGA-guided interventions. Methods: We performed a retrospective review of community-dwelling patients aged ≥ 70 years with an active cancer diagnosis who were deemed to be frail by a CGA and who received home-based CGA-guided supportive interventions under a collaborative care model established by the geriatric oncology and the palliative home care teams at Hartford HealthCare Cancer Institute between October 2020 and April 2022. The collaboration is based on multidisciplinary discussion of the CGA results / interventions and weekly rounds to discuss patient’s progress and emerging needs. Results: A total of 182 patients received a CGA during the study period, 54% (n = 99) were determined to be frail based on impairment in ≥ 7 geriatric domains. Among all eligible patients, 19 patients (19%) were included in the collaborative model. The median age of enrolled patients was 84 years (74-90), 12/19 (63%) had metastatic cancer, 7/19 (37%) received systemic treatment, and 8/19 (42%) received radiation. The average number of geriatric impairments per patients was 9.5 (7-12). Geriatric impairments addressed at home were skilled nursing (19/19), physical therapy (18/19), occupational therapy (12/19), speech-language-pathology (2/19), nutrition (5/19), or social worker (11/19) support at home. The average number of unplanned hospitalizations was 1.16 per patient (range 0-4), and the average unplanned emergency room visit was 0.89 per person (range 0-4) during study time. Transition to hospice occurred in 8/19 patients (42%), the median time to transition to hospice was 33.5 days (15-167). Conclusions: This study demonstrates the feasibility of a collaborative model for home-based geriatric oncology care in a real-world setting to help reduce the burden of care on patients and ensure patient-centered delivery of CGA-guided interventions. Findings underscore the need for future work to evaluate the impact of this novel geriatric oncology care model on patient outcomes.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206630382</t>
+          <t>https://openalex.org/W4387516816</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/md-07-2020-0882</t>
+          <t>https://doi.org/10.1002/adfm.202306929</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Nguyễn et al. (2022)</t>
+          <t>Wu et al. (2023)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The effects of transformational leadership on employee creativity in Vietnam telecommunications enterprises</t>
+          <t>Functional Nanozymes Consisting of Co&lt;sup&gt;2+&lt;/sup&gt;‐ZIF‐67 Metal‐Organic Framework Nanoparticles and Co&lt;sup&gt;2+&lt;/sup&gt;‐ZIF‐67/Polyaniline Conjugates</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Purpose The purpose of this paper is to investigate the effects of transformational leadership on employee creativity through psychological empowerment, creative process engagement and intrinsic motivation. Design/methodology/approach Data were collected from 420 employees at 21 telecommunications enterprises in Vietnam directly by questionnaire survey. Statistical methods, such as confirmatory factor analysis (CFA) and structural equation model (SEM), were used to analyze the data. Findings This paper shows that transformational leadership indirectly affects employee creativity through the mediating variables. Transformational leadership has a positive relationship with psychological empowerment. Psychological empowerment has a proportional relationship with both creative process engagement and intrinsic motivation. Creative process engagement and intrinsic motivation have been shown to have positive effects with the employee creativity. Research limitations/implications The main limitation of this paper is that the study only explores the relationship between transformational leadership and employee creativity through a number of the mediating variables. Practical implications The telecommunications industry is an industry that requires constant innovation, so managers need to aim for a leadership style that promotes employee creativity. Therefore, transformational leadership is a style that should be considered during the appointing and recruiting. Originality/value This paper contributes to the existing literature by focusing on understanding the relationship between transformational leadership and employee creativity in telecommunications enterprises in an Asian country with an emerging economy like Vietnam.</t>
+          <t>Abstract Co 2+ ‐ZIF‐67 metal‐organic framework nanoparticles (NMOFs), act as nanozymes catalyzing diverse processes, including peroxidase, oxidase, and catalase activities. Peroxidase activities are reflected by the nanozyme‐catalyzed H 2 O 2 oxidation of dopamine to aminochrome, the H 2 O 2 oxidation of NADH to NAD + , the H 2 O 2 ‐catalyzed generation of chemiluminescence through oxidation of luminol, and the H 2 O 2 ‐mediated oxidation of aniline to polyaniline. Oxidase activities of the nanozyme are demonstrated by the Co 2+ ‐ZIF‐67 NMOFs catalyzed aerobic oxidation of dopamine to aminochrome and of NADH to NAD + , and catalase activities of the nanozyme are reflected by the catalytic decomposition of H 2 O 2 . Moreover, the Co 2+ ‐ZIF‐67 catalyzed oxidation of aniline to polyaniline (PAN) by H 2 O 2 is accompanied by the coating of NMOFs with PAN to yield a Co 2+ ‐ZIF‐67/PAN hybrid material. Coating the particles in the presence of guest substrates leads to molecular imprinted PAN matrices revealing enhanced ZIF‐67 catalyzed transformations as compared to non‐imprinted PAN matrices. This is demonstrated by imprinting of 2,2′‐azinobis(3‐ethylbenzothiazoline‐6‐sulfonic acid), ABTS 2− , in the PAN coating and the 3.3‐fold enhanced catalyzed oxidation of ABTS 2− by H 2 O 2 , as compared to the non‐imprinted PAN hybrid composite. Moreover, imprinting of L‐/D‐DOPA in the PAN coating of Co 2+ ‐ZIF‐67 NMOFs leads to chiro‐selective H 2 O 2 ‐guided oxidation of L‐/D‐DOPA to dopachrome by the NMOFs/PAN composite.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4230231932</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-044452748-6/00001-8</t>
+          <t>https://openalex.org/W1529456615</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DZIEWONSKI &amp; ROMANOWICZ (2007)</t>
+          <t>Sleezer et al. (2004)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Formative Evaluation of a CSCLIP Lesson</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>In the first part of this overview we discuss briefly the role of the studies of the Earth’s structure in geophysics and follow with a short presentation of the contents of individual chapters. Then, we present an outline of history of seismology, beginning with the first recording in Germany of teleseismic waves from an earthquake in Japan in 1889 and the development of seismological theory, observations and their interpretation. We trace in more detail the developments in the 1950’s and afterwards. We emphasize the role of computers and broadband digital seismographic systems in the rapid progress during the last 30, or so, years. In the last part of the overview we discuss some problems in global seismic tomography emphasizing the importance of using data sets that have good control over the structure in different depth ranges. The structure in the transition zone (410–650 km depth) is an example of a region in which the gap between the resolution provided by surface waves and teleseismic travel times must be bridged by inclusion of overtone data.</t>
+          <t>Abstract Laboratory instruction at a distance using synchronous, remote group settings is the next generation of online learning. Computer-supported, collaborative learning requiring immersive presence (CSCLIP) relies on synchronous web-based instruction and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. This case study describes the formative evaluation of one CSCLIP lesson. The evaluation identified eight variables that impact such learning. The evaluation resulted in the team sharing ideas on all aspects of the course, brainstorming improvements, and planning activities for their implementation. Introduction The noteworthy growth of online learning in higher education will likely continue (Singh &amp; Pan, 2004). Most distance instruction has concentrated on asynchronous learning and computer-based training. The next generation of online learning involves learning at a distance using synchronous, remote group settings. Indeed, telepresence systems can now immerse remote learners in an environment captured by video cameras and permit them to operate and control devices and processes while working at a distance (Ausburn &amp; Ausburn, in press). This manuscript focuses on a specific instructional approach that includes content delivered via telepresence, CSCLIP (computer-supported, collaborative learning requiring immersive presence). CSCLIP integrates synchronous, collaborative e-learning and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. Immersive presence is characterized by same time, different place interactions among students and instructors, and by the students' physical control over elements that are typical in laboratory and other situated environments. For example, Juanita participates in a university web-based CSCLIP course while seated at her office desk. She interacts virtually during pre-specified times with equipment, local students, other remote students, and the instructors. She engages in group work, completes laboratory exercises, manipulates equipment and materials, and receives feedback on her learning. Juanita engages in the active, real-time learning of laboratory skills without physically entering the laboratory. She visits all the lab corridors, rooms, etc. virtually, and, she operates and configures many real devices as if she were physically in the lab. She also interacts with other students and instructors in a live mode. Thus the CSCLIP lab experience is a hybrid of real and virtual interaction. CSCLIP offers increased instructor capabilities. The instructor controls the instructional content, the technology that delivers the content, and CSCLIP's increased interaction capabilities that allow all students to interact with remote students, students in the physical laboratory, the instructor, and the laboratory equipment and materials. The instructor limits interaction as appropriate for the lesson. Consequently, the instructor simultaneously manages more phenomena-of-interest than are required by traditional instructional methods. The increased capabilities afforded by CSCLIP instruction call for evaluation research that informs educators about how they can shape it to maximize learning. In this manuscript, we provide as a case study the formative evaluation of one CSCLIP lesson. We first describe the CSCLIP instruction and then we provide the research methodology, results, and discussion. The CSCLIP Instruction CSCLIP was developed by a cross-disciplinary research team with faculty members from engineering, management, and telecommunications. A theoretical foundation for CSCLIP was developed based on scholarly literature in learning and online learning. The team then selected a traditional hands-on laboratory course for transformation to the CSCLIP format (See Scheets &amp; Weiser, 2001). …</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007275367</t>
+          <t>https://openalex.org/W4254523410</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m414016200</t>
+          <t>https://doi.org/10.5342/michhistrevi.42.1.0100</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lisenbee et al. (2005)</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
+          <t>Taft (2016)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
+          <t>100 The Michigan Historical Review Andrew R. Highsmith. Demolition Means Progress: Flint, Michigan, and the Fate of the American Metropolis. Chicago: University of Chicago Press, 2015. Pp. 376. Illustrations. Index. Notes. Cloth: $45.00. The title of Andrew Highsmith’s book is a quote from a placard outside the razed site of the General Motors Buick City plant in Flint, Michigan: Demolition Means Progress (p. 266). The subject of the book, however, reaches far beyond the Vehicle City’s post-1970s deindustrialization. Highsmith traces the long history of metropolitan Flint and its “ceaseless quest for revitalization” to argue that “progress” has been associated with large-scale clearance and reinvention from the early twentieth century to today (p. 20). But even the best-intentioned urban renewal policies, his research makes clear, instead hardened social and economic inequalities as Flint became a poster-city for Rust Belt decay. While individual threads of Highsmith’s interlocking narratives of suburbanization, racial segregation, and deindustrialization seem at first blush familiar to urban historians, this work is notable for its comprehensive, metropolitan approach and for adding a small-city case study to the literature on urban renewal and decline. With chronological chapters focusing on Flint’s housing and education policies, workplace discrimination, industrial decentralization, and slum clearance, Highsmith provides a fine-grained analysis of how economic and racial inequality in American cities is spatialized and planned from the federal to municipal levels. He adds the useful concept of “administrative segregation” to the customary de jure/de facto binary as he details the processes by which officials drew school district boundaries around racial enclaves, suburbs incorporated to protect property values, and developers maximized government subsidies by building substandard housing. Highsmith convincingly demonstrates that it was the implementation of policies as much as the letter of the law or individual choice that led to widespread urban inequality. In foregrounding the uneven effects of pro-growth renewal, Highsmith rejects the simplified declension narrative that corporate abandonment and white flight drove urban decline. Instead, he pivots the book around General Motors’ failed push for a “New Flint” metropolitan government in the late 1950s, insisting that the corporation maintained ties to Flint even after relocating its plants to the urban fringes. Rather than reify the image of the homogenous and upwardly mobile postwar suburb, Highsmith reveals little-discussed policies of “suburban redlining” in working-class white neighborhoods and federally backed Book Reviews 101 “Section 235” predatory lending practices that preceded the most recent housing crisis by four decades. With his long view, Highsmith shows that citizen demands for civil rights, such as open housing and school desegregation, have been time and again overshadowed by economic development agendas. Despite his concluding optimism for an alternative future, the cumulative weight of Highsmith’s research leaves a deep and durable imprint of spatially embedded inequality on Flint’s poor and working-class African Americans. As such, Demolition Means Progress offers a case study that puts national metropolitan trends in the twentieth century into sharp relief. Readers with an interest in the racial and economic histories and transformations of Flint and the industrial North will find it of particular value. Chloe Taft Yale University Holly M. Karibo. Sin City North: Sex, Drugs, and Citizenship in the DetroitWindsor Borderland. Chapel Hill: University of North Carolina Press, 2015. Pp. 226. Bibliography. Illustrations. Index. Notes. Paper: $29.95. Holly Karibo’s Sin City North explores the role of cross-border prostitution and heroin-trafficking in shaping the communities and local economies of the postwar Detroit-Windsor borderland. She posits that the rise of crime and vice exposed the “contradictory nature of the border” as it made both travel and trade easier while also attempting to filter out illegal or unwanted products and people (p. 3). Karibo argues the study of vice provides insight into the ways in which men and women defined citizenship and determined belonging within the social space of the national border (p. 156). The relative economic success and rising interest in leisure tourism following the war aided the boom in illicit economies, and Karibo reads participation in vice economy as an alternative and viable path to a consumer-based identity in the era of postwar...</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060337978</t>
+          <t>https://openalex.org/W4206630382</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m106659200</t>
+          <t>https://doi.org/10.1108/md-07-2020-0882</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Khadilkar et al. (2001)</t>
+          <t>Nguyễn et al. (2022)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Identification of Sites in the Second Exomembrane Loop and Ninth Transmembrane Helix of the Mammalian Na+/H+ Exchanger Important for Drug Recognition and Cation Translocation</t>
+          <t>The effects of transformational leadership on employee creativity in Vietnam telecommunications enterprises</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Na+/H+ exchanger 5- (N-ethyl-N-isopropyl) amiloride Na+/H+ exchangers (NHE)1 are present at the cell surface and various organellar compartments of mammalian cells and mediate the electroneutral exchange of Na+ for H+, a process driven by the relative concentration gradients of the respective cations. To date seven distinct isoforms (NHE1 to NHE7) have been isolated that share ∼20–70% amino acid identity (calculated Mr ranging from ∼74,000 to 93,000) and exhibit similar membrane topologies, with 12 predicted N-terminal membrane-spanning (M) α-helices and a large C-terminal cytoplasmic region (1Orlowski J. Grinstein S. J. Biol. Chem. 1997; 272: 22373-22376Abstract Full Text Full Text PDF PubMed Scopus (521) Google Scholar, 2Wakabayashi S. Shigekawa M. Pouysségur J. Physiol. Rev. 1997; 77: 51-74Crossref PubMed Scopus (563) Google Scholar, 3Yun C.H.C. Tse C.-M. Nath S.K. Levine S.A. Brant S.R. Donowitz M. Am. J. Physiol. 1995; 269: G1-G11Crossref PubMed Scopus (38) Google Scholar, 4Numata M. Petrecca K. Lake N. Orlowski J. J. Biol. Chem. 1998; 273: 6951-6959Abstract Full Text Full Text PDF PubMed Scopus (234) Google Scholar, 5Numata M. Orlowski J. J. Biol. Chem. 2001; 276: 17387-17394Abstract Full Text Full Text PDF PubMed Scopus (215) Google Scholar). They show considerable differences in their patterns of tissue expression, membrane localization, kinetic properties, sensitivity to pharmacological antagonists, and responsiveness to various signaling pathways. Consistent with their molecular diversity, the exchangers participate in a broad spectrum of physiological processes, including the regulation of intracellular pH (pHi), maintenance of cell volume, and transepithelial transport of electrolytes. In addition, activation of certain exchangers appear to facilitate cellular growth and proliferation in response to numerous growth factors and other mitogens and are associated with events leading to apoptosis (6Shrode L.D. Tapper H. Grinstein S. J. Bioenerg. Biomembr. 1997; 29: 393-399Crossref PubMed Scopus (179) Google Scholar, 7Li J. Eastman A. J. Biol. Chem. 1995; 270: 3203-3211Abstract Full Text Full Text PDF PubMed Scopus (223) Google Scholar, 8Zhu W.H. Loh T.T. Biochim. Biophys. Ac</t>
+          <t>Purpose The purpose of this paper is to investigate the effects of transformational leadership on employee creativity through psychological empowerment, creative process engagement and intrinsic motivation. Design/methodology/approach Data were collected from 420 employees at 21 telecommunications enterprises in Vietnam directly by questionnaire survey. Statistical methods, such as confirmatory factor analysis (CFA) and structural equation model (SEM), were used to analyze the data. Findings This paper shows that transformational leadership indirectly affects employee creativity through the mediating variables. Transformational leadership has a positive relationship with psychological empowerment. Psychological empowerment has a proportional relationship with both creative process engagement and intrinsic motivation. Creative process engagement and intrinsic motivation have been shown to have positive effects with the employee creativity. Research limitations/implications The main limitation of this paper is that the study only explores the relationship between transformational leadership and employee creativity through a number of the mediating variables. Practical implications The telecommunications industry is an industry that requires constant innovation, so managers need to aim for a leadership style that promotes employee creativity. Therefore, transformational leadership is a style that should be considered during the appointing and recruiting. Originality/value This paper contributes to the existing literature by focusing on understanding the relationship between transformational leadership and employee creativity in telecommunications enterprises in an Asian country with an emerging economy like Vietnam.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1551831145</t>
+          <t>https://openalex.org/W4230231932</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1325988</t>
+          <t>https://doi.org/10.1016/b978-044452748-6/00001-8</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Martin (2005)</t>
+          <t>DZIEWONSKI &amp; ROMANOWICZ (2007)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Entrepreneurial Solutions for Social Challenges: Seminar on Social Entrepreneurship and Strategic Philanthropy (HSG 2005)</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>This course takes a strategic perspective on social change. It asks how emerging leaders - social entrepreneurs and strategic philanthropists - can stimulate systemic change through local interventions and collaboration. The course was developed and taught by Maximilian Martin at HSG for the 2005 fall semester. The course is divided in four parts. Part one sets the stage by introducing the core conceptual material on social entrepreneurship and philanthropy, deploying case studies to render the challenges concrete. Part two looks into typical challenges social enterprise organizations face, as well as the linkages between social entrepreneurship, microfinance and bottom-of-the-pyramid style interventions. Part three asks how we can strategically orchestrate social innovation through specific projects. Which roles do intermediaries (civil society vehicles that service grassroots social entrepreneurs) play? How can we formulate effective social change strategies? Part four unifies the different course themes, asking what the frontiers in social entrepreneurship are, and what they mean for social change. Students present the status of their projects in class during the last regular class session.</t>
+          <t>In the first part of this overview we discuss briefly the role of the studies of the Earth’s structure in geophysics and follow with a short presentation of the contents of individual chapters. Then, we present an outline of history of seismology, beginning with the first recording in Germany of teleseismic waves from an earthquake in Japan in 1889 and the development of seismological theory, observations and their interpretation. We trace in more detail the developments in the 1950’s and afterwards. We emphasize the role of computers and broadband digital seismographic systems in the rapid progress during the last 30, or so, years. In the last part of the overview we discuss some problems in global seismic tomography emphasizing the importance of using data sets that have good control over the structure in different depth ranges. The structure in the transition zone (410–650 km depth) is an example of a region in which the gap between the resolution provided by surface waves and teleseismic travel times must be bridged by inclusion of overtone data.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3189596502</t>
+          <t>https://openalex.org/W2007275367</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/lag.2021.0036</t>
+          <t>https://doi.org/10.1074/jbc.m414016200</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Crane (2021)</t>
+          <t>Lisenbee et al. (2005)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert</t>
+          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Reviewed by: San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert Nicholas Jon Crane Lisa Pinley Covert San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site. Lincoln, NE: University of Nebraska Press, 2017. xxix + 289 pp. Table, notes, references, and index. $65.00 hardcover (ISBN 978-1-4962-0038-9); $30.00 paperback (ISBN 978-1-4962-0060-0); $30.00 eBook (PDF) (ISBN 978-1-4962-0138-6); $30.00 eBook (EPUB) ( 978-1-4962-0136-2) Lisa pinley covert's san miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site is a cultural history of the relationship between national identity and economic development. The book draws upon archival research and qualitative research with residents of San Miguel, a city in the eastern part of the state of Guanajuato, northwest of Mexico City. Interviews and social engagement yielded access to private archives in order to write a history of competing visions in a city which is now famous as a UNESCO World Heritage Site. Across five chapters and a introduction, which together provide a story of San Miguel as it has changed for a century and a half, Covert reveals articulations of national identity formation and economic development upon which the form of the city has been contingent. Even if contemporary geographers might observe a missed opportunity to explicitly draw out theoretical implications of the analysis for thinking about the intersection of culture, economy, and landscape, the book will certainly be of interest to geographers, and particularly to cultural and historical geographers of modern Mexico. Covert's book circles around the question of how a place that is popularly represented as typical of Mexico can be, in tangible ways, so palpably international. She shows us that this paradox—of San Miguel being both "'typically Mexican' and jarringly foreign" (p. xviii)—has been produced by countervailing social relations around distinct visions for the city, and divergent efforts to enact those competing visions. Tensions between distinct visions for San Miguel were often articulated either through claims about forms of life proper to the city, or as claims about perceived requirements for local, regional, and national economic development. These claims found material support in the work of identifiable social blocs in post-revolutionary Mexico. Covert reveals the negotiations and adversarial relations of different social blocs through careful attention to specific conflicts in the five substantive chapters. For example, Chapter One features an analysis of the locally-meaningful conservative counter-revolution to the revolutionary anti-clericalism and agrarian reforms of the Party of [End Page 184] the Mexican Revolution (PRM), which ironically promoted Catholic architecture and spatial practices that historical preservationists would later valorize through government recognition of their significance for the nation. Chapter Two provides a critical discourse analysis of place-promotion texts (e.g., travel writing, planning documents of historic preservation elites, etc.) that echoed and instrumentalized the Pan-American rhetoric of the Good Neighbor Policy for local economic development. And Chapters Three and Four reveal tensions and surprising complementarities between a tourism sector that tended to privilege foreigners and international tastes and a proudly nationalist agenda of industrialization that was never to be realized in San Miguel. Covert's work shows that blurry social categories like foreigner and Mexican tend to harden and become oppositional during moments of cultural-political conflict, for example, around the destabilization of gendered divisions of labor and authority, or disagreements about what constitute the requirements of local economic development. Through these conflicts, distinct visions for San Miguel, and conflicting strategies of selectively remembering the region's histories, found expression in the cultural landscape. Painted walls, historic markers, bilingual storefronts, and tolerated performances of gender identity, among other landscape forms, can accordingly be interpreted as material expressions of distinct and often conflicting discourses on what is (or should be) deemed historically significant in this place. Taken together, San Miguel de Allende is a regional cultural history of post-revolutionary Mexico. In its fine-grained ethno graphic and archival attention to constitutive tensions between state authority, cultural-political movements, and popular perceptions of economic requirements, Covert's book...</t>
+          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2555589681</t>
+          <t>https://openalex.org/W2060337978</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/annrheumdis-2016-eular.2862</t>
+          <t>https://doi.org/10.1074/jbc.m106659200</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Stöcker et al. (2016)</t>
+          <t>Khadilkar et al. (2001)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>AB1112-HPR Systemic Sclerosis Treatment: An Occupational Therapists' View</t>
+          <t>Identification of Sites in the Second Exomembrane Loop and Ninth Transmembrane Helix of the Mammalian Na+/H+ Exchanger Important for Drug Recognition and Cation Translocation</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;Background&lt;/h3&gt; SSc has a great impact on daily functioning [1]. People with SSc make regular use of allied health care, mainly physiotherapy and occupational therapy (OT), for guidance in coping with the many consequences of the disease. Little is known about the current practice of occupational therapy for people with SSc [2]. &lt;h3&gt;Objectives&lt;/h3&gt; The purpose of this qualitative pilot study was to map the experience of Dutch occupational therapists about their daily practice and vision on optimal SSc care through OTs. &lt;h3&gt;Methods&lt;/h3&gt; Five female OTs, median age 38.6 years (range 25–46 years) from different work settings and regions with an average work experience of 8.6 years in SSc care, were recruited through the Dutch organisation of Health Professionals in rheumatology. A semi-structured interview was conducted with each participant and transcribed verbatim. Data were analysed by the three-step method of Boeije [3]. &lt;h3&gt;Results&lt;/h3&gt; OTs describe that in CURRENT PRACTICE patients report problems on a functional, activity and participation level, while the treatment is mostly aiming at functional level (including aids and compensations). They experience that their work is experience-based due to the lack of available evidence. The nature of interventions is significantly dependent on the phase of disease in which patients are. They experience a low number of referrals in a late state of the disease and suggest that this might be due to the lack of knowledge about occupational therapy. In an OPTIMAL SITUATION OTs are involved earlier in the disease process and focus on training and patient needs. They would want to focus on prevention and education including the social environment of the patient. In order to offer optimal treatment they would want to work guideline-based and establish sustained treatment relationships. Earlier referral in the disease process would enable meaningful treatment. They express their need for a clear OT profile to be known by rheumatologists, to facilitate timely and appropriate referrals to OTs. &lt;h3&gt;Conclusions&lt;/h3&gt; We found a distinct difference between current and ideal OT practice. The newly gained knowledge of this study can be used by OTs for a transition from treatment addressing compensation to a treatment targeting activity and participation. More attention should be paid to timely referrals with a transparent indication. &lt;h3&gt;References&lt;/h3&gt; Stamm, T., et al. (2011). Concepts of functioning and health important to people with systemic sclerosis: a qualitative study in four European countries. Ann Rheum Dis, 70(6), 1074–1079. Willems, L., et al. (2013). Health care use and patients9 perceptions on quality of care in systemic sclerosis. Clin Exp Rheum, 64. Boeije, H. R. (2014). Analyseren in kwalitatief onderzoek: denken en doen. Den Haag: Boom Lemma. &lt;h3&gt;Disclosure of Interest&lt;/h3&gt; None declared</t>
+          <t>Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Na+/H+ exchanger 5- (N-ethyl-N-isopropyl) amiloride Na+/H+ exchangers (NHE)1 are present at the cell surface and various organellar compartments of mammalian cells and mediate the electroneutral exchange of Na+ for H+, a process driven by the relative concentration gradients of the respective cations. To date seven distinct isoforms (NHE1 to NHE7) have been isolated that share ∼20–70% amino acid identity (calculated Mr ranging from ∼74,000 to 93,000) and exhibit similar membrane topologies, with 12 predicted N-terminal membrane-spanning (M) α-helices and a large C-terminal cytoplasmic region (1Orlowski J. Grinstein S. J. Biol. Chem. 1997; 272: 22373-22376Abstract Full Text Full Text PDF PubMed Scopus (521) Google Scholar, 2Wakabayashi S. Shigekawa M. Pouysségur J. Physiol. Rev. 1997; 77: 51-74Crossref PubMed Scopus (563) Google Scholar, 3Yun C.H.C. Tse C.-M. Nath S.K. Levine S.A. Brant S.R. Donowitz M. Am. J. Physiol. 1995; 269: G1-G11Crossref PubMed Scopus (38) Google Scholar, 4Numata M. Petrecca K. Lake N. Orlowski J. J. Biol. Chem. 1998; 273: 6951-6959Abstract Full Text Full Text PDF PubMed Scopus (234) Google Scholar, 5Numata M. Orlowski J. J. Biol. Chem. 2001; 276: 17387-17394Abstract Full Text Full Text PDF PubMed Scopus (215) Google Scholar). They show considerable differences in their patterns of tissue expression, membrane localization, kinetic properties, sensitivity to pharmacological antagonists, and responsiveness to various signaling pathways. Consistent with their molecular diversity, the exchangers participate in a broad spectrum of physiological processes, including the regulation of intracellular pH (pHi), maintenance of cell volume, and transepithelial transport of electrolytes. In addition, activation of certain exchangers appear to facilitate cellular growth and proliferation in response to numerous growth factors and other mitogens and are associated with events leading to apoptosis (6Shrode L.D. Tapper H. Grinstein S. J. Bioenerg. Biomembr. 1997; 29: 393-399Crossref PubMed Scopus (179) Google Scholar, 7Li J. Eastman A. J. Biol. Chem. 1995; 270: 3203-3211Abstract Full Text Full Text PDF PubMed Scopus (223) Google Scholar, 8Zhu W.H. Loh T.T. Biochim. Biophys. Ac</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4292117313</t>
+          <t>https://openalex.org/W3189596502</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tet.2022.132957</t>
+          <t>https://doi.org/10.1353/lag.2021.0036</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Тихомиров et al. (2022)</t>
+          <t>Crane (2021)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Reductive elimination of alkoxy group in anthraquinone derivatives</t>
+          <t>San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Anthraquinone derivatives are constantly in a focus of synthetic chemists due to a diversity of valuable biological, photochemical and redox properties. However, quinone core limits applicability of chemical transformations making a search for new methods of modification of anthraquinones highly demanded. A convenient approach of regioselective reductive α-alkoxy group cleavage of anthraquinone derivatives was developed and evaluated. Most effectively transformation goes via a zinc reduction of quinone moiety and prototropic rearrangement in acidic media followed by the alkoxy group elimination. Strong donors in β -position of anthraquinone core are crucial for transformation and provide the elimination exclusively from α -position. The method simplifies an access to some bioactive 1,3-substituted anthraquinones and was applied for synthesis of natural products, e.g., rubiadin 1-methyl ether, anthragallol 1,2-dimethyl ether, and damnacanthol. • Reductive α-alkoxy group cleavage of anthraquinone derivatives was developed. • Strong donors in β-position contribute reactivity and high regioselectivity. • Method simplifies an access to bioactive 1,3-substituted anthraquinones.</t>
+          <t>Reviewed by: San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert Nicholas Jon Crane Lisa Pinley Covert San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site. Lincoln, NE: University of Nebraska Press, 2017. xxix + 289 pp. Table, notes, references, and index. $65.00 hardcover (ISBN 978-1-4962-0038-9); $30.00 paperback (ISBN 978-1-4962-0060-0); $30.00 eBook (PDF) (ISBN 978-1-4962-0138-6); $30.00 eBook (EPUB) ( 978-1-4962-0136-2) Lisa pinley covert's san miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site is a cultural history of the relationship between national identity and economic development. The book draws upon archival research and qualitative research with residents of San Miguel, a city in the eastern part of the state of Guanajuato, northwest of Mexico City. Interviews and social engagement yielded access to private archives in order to write a history of competing visions in a city which is now famous as a UNESCO World Heritage Site. Across five chapters and a introduction, which together provide a story of San Miguel as it has changed for a century and a half, Covert reveals articulations of national identity formation and economic development upon which the form of the city has been contingent. Even if contemporary geographers might observe a missed opportunity to explicitly draw out theoretical implications of the analysis for thinking about the intersection of culture, economy, and landscape, the book will certainly be of interest to geographers, and particularly to cultural and historical geographers of modern Mexico. Covert's book circles around the question of how a place that is popularly represented as typical of Mexico can be, in tangible ways, so palpably international. She shows us that this paradox—of San Miguel being both "'typically Mexican' and jarringly foreign" (p. xviii)—has been produced by countervailing social relations around distinct visions for the city, and divergent efforts to enact those competing visions. Tensions between distinct visions for San Miguel were often articulated either through claims about forms of life proper to the city, or as claims about perceived requirements for local, regional, and national economic development. These claims found material support in the work of identifiable social blocs in post-revolutionary Mexico. Covert reveals the negotiations and adversarial relations of different social blocs through careful attention to specific conflicts in the five substantive chapters. For example, Chapter One features an analysis of the locally-meaningful conservative counter-revolution to the revolutionary anti-clericalism and agrarian reforms of the Party of [End Page 184] the Mexican Revolution (PRM), which ironically promoted Catholic architecture and spatial practices that historical preservationists would later valorize through government recognition of their significance for the nation. Chapter Two provides a critical discourse analysis of place-promotion texts (e.g., travel writing, planning documents of historic preservation elites, etc.) that echoed and instrumentalized the Pan-American rhetoric of the Good Neighbor Policy for local economic development. And Chapters Three and Four reveal tensions and surprising complementarities between a tourism sector that tended to privilege foreigners and international tastes and a proudly nationalist agenda of industrialization that was never to be realized in San Miguel. Covert's work shows that blurry social categories like foreigner and Mexican tend to harden and become oppositional during moments of cultural-political conflict, for example, around the destabilization of gendered divisions of labor and authority, or disagreements about what constitute the requirements of local economic development. Through these conflicts, distinct visions for San Miguel, and conflicting strategies of selectively remembering the region's histories, found expression in the cultural landscape. Painted walls, historic markers, bilingual storefronts, and tolerated performances of gender identity, among other landscape forms, can accordingly be interpreted as material expressions of distinct and often conflicting discourses on what is (or should be) deemed historically significant in this place. Taken together, San Miguel de Allende is a regional cultural history of post-revolutionary Mexico. In its fine-grained ethno graphic and archival attention to constitutive tensions between state authority, cultural-political movements, and popular perceptions of economic requirements, Covert's book...</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1603890268</t>
+          <t>https://openalex.org/W2555589681</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0306-9192(90)90082-b</t>
+          <t>https://doi.org/10.1136/annrheumdis-2016-eular.2862</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Reutlinger (1990)</t>
+          <t>Stöcker et al. (2016)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Hunger and public action</t>
+          <t>AB1112-HPR Systemic Sclerosis Treatment: An Occupational Therapists' View</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Brazil’s South-South cooperation (SSC) has been accused of using a depoliticizing language of similarity and horizontality that hid structural asymmetries between very divergent realities. Focusing on a SSC project in health between Brazil and Mozambique, the Mozambican Pharmaceutical Ltd. (SMM), this article seeks to understand whether SSC can in fact re-politicize development. Drawing on a poststructuralist approach to discourse, I see re-politicization as challenging views of development in line with foreign aid (privatization in this context) and the enactment of initiatives in line with SSC principles (state-ownership). I explore the political negotiations and conflict around the implementation of the SMM and argue that while initially the language of horizontality masked structural differences between Brazil and Mozambique, it was later mobilized to challenge Mozambique’s desire to privatize the SMM. A compromise between stakeholders allowed the SMM to be majority state-owned, in what I say represented some degree of structural transformation. My analysis shows that development principles are neither universal (a criticism long addressed at foreign aid) nor do they have a single effect. The implementation of SSC projects that aim to effect structural transformation on highly divergent contexts will be subject to contestation, negotiation and accommodation by stakeholders, and the strategic employment of principles. The article suggests that SSC would require a more frequent engagement between partners so that SSC norms become naturalized. More broadly, it echoes part of the SSC literature that calls for a focus on development encounters, political dynamics and local constructions of reality rather than generic policy statements or principles.</t>
+          <t>&lt;h3&gt;Background&lt;/h3&gt; SSc has a great impact on daily functioning [1]. People with SSc make regular use of allied health care, mainly physiotherapy and occupational therapy (OT), for guidance in coping with the many consequences of the disease. Little is known about the current practice of occupational therapy for people with SSc [2]. &lt;h3&gt;Objectives&lt;/h3&gt; The purpose of this qualitative pilot study was to map the experience of Dutch occupational therapists about their daily practice and vision on optimal SSc care through OTs. &lt;h3&gt;Methods&lt;/h3&gt; Five female OTs, median age 38.6 years (range 25–46 years) from different work settings and regions with an average work experience of 8.6 years in SSc care, were recruited through the Dutch organisation of Health Professionals in rheumatology. A semi-structured interview was conducted with each participant and transcribed verbatim. Data were analysed by the three-step method of Boeije [3]. &lt;h3&gt;Results&lt;/h3&gt; OTs describe that in CURRENT PRACTICE patients report problems on a functional, activity and participation level, while the treatment is mostly aiming at functional level (including aids and compensations). They experience that their work is experience-based due to the lack of available evidence. The nature of interventions is significantly dependent on the phase of disease in which patients are. They experience a low number of referrals in a late state of the disease and suggest that this might be due to the lack of knowledge about occupational therapy. In an OPTIMAL SITUATION OTs are involved earlier in the disease process and focus on training and patient needs. They would want to focus on prevention and education including the social environment of the patient. In order to offer optimal treatment they would want to work guideline-based and establish sustained treatment relationships. Earlier referral in the disease process would enable meaningful treatment. They express their need for a clear OT profile to be known by rheumatologists, to facilitate timely and appropriate referrals to OTs. &lt;h3&gt;Conclusions&lt;/h3&gt; We found a distinct difference between current and ideal OT practice. The newly gained knowledge of this study can be used by OTs for a transition from treatment addressing compensation to a treatment targeting activity and participation. More attention should be paid to timely referrals with a transparent indication. &lt;h3&gt;References&lt;/h3&gt; Stamm, T., et al. (2011). Concepts of functioning and health important to people with systemic sclerosis: a qualitative study in four European countries. Ann Rheum Dis, 70(6), 1074–1079. Willems, L., et al. (2013). Health care use and patients9 perceptions on quality of care in systemic sclerosis. Clin Exp Rheum, 64. Boeije, H. R. (2014). Analyseren in kwalitatief onderzoek: denken en doen. Den Haag: Boom Lemma. &lt;h3&gt;Disclosure of Interest&lt;/h3&gt; None declared</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2596529768</t>
+          <t>https://openalex.org/W2578829602</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Grbavac (2015)</t>
+          <t>Madden et al. (2015)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Makrozoobentos stalnih i povremenih krških izvora</t>
+          <t>The Future of Unmanned Aerial Systems (UAS) for Monitoring Natural and Cultural Resources</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Springs represent ecotons, i.e. the transition zone where groundwater rises to the surface of the earth forming surface flow. Karst springs are specific type of springs. Permanent karst springs represent stable habitats with very low seasonal variations of abiotic conditions, while temporary springs show more pronounced seasonal oscillations. In this study we explored the macroinvertebrate communities of four different karst springs, three of them were permanent (springs of the river Krka, Krupa and Kosovcica) and one temporary (Krcic spring). One-year research was conducted with monthly macroinvertebrates sampling using Surber sampler. Seasonal fluctuations in physico-chemical parameters of the water were generally low, nevertheless there were differences between the studied springs, depending on the origin of water. The greatest differences in the composition, structure and seasonal variations of macroinvertebrates were observed between permanent and temporary springs, indicating the importance of the presence of the surface flow. Overall, diversity and abundance of macroinvertebrates were higher at the permanent springs than the Krcic spring, which dries up in the summer months. In permanent springs, greatest abundance of macroinvertebrates was recorded in moss, whereas at the Krcic spring it was highest in the mesolithal, due to the high density of Micropterna nycterobia (Limnephilidae, Trichoptera). This species has specifically adapted life cycle to the seasonal drying up, and large proportion of such species is typical for communities in temporary habitat.</t>
+          <t>Aerial imagery and photogrammetric techniques that have long been used to monitor natural and cultural resources are undergoing innovative transformation with the increased availability of low-cost unmanned aerial systems (UAS) and software for Structure-from-Motion (SfM) image processing. Cultural resources of historic buildings, gardens and monuments, along with natural resources such as inland freshwater wetlands that are small in size (e.g., &lt; 0.5 ha), composed of diverse aquatic plant species and temporaly variable in soil mosture/open water, present challenges to managers tasked with detection, delineation and monitoring using remotely sensed data. Traditional image data sources of medium (10 to 30-m pixels) and high (1 to 5-m pixels) spatial resolution satellite images, large-scale (1:10,000 and greater) airborne film format aerial photographs and digital camera imagery (0.5 to 1-m pixels) present limitations for detailed resource monitoring due to relatively coarse spatial and temporal resolution. The capability to respond quickly and capture imagery with pixel sizes in the range of a few centimeters is needed to accommodate variable weather conditions, rapid phenological changes and unexpected disturbances. Such systems are required to obtain optimal aerial imagey tailored for specific resource applilcations. Off-the-shelf, portable UASs fitted with video cameras now permit users to collect high quality imagery within minutes of launch and processing capability on-site for near real time 3D data extraction and visualization for quick decision making. Researchers at the University of Georgia’s Center for Geospatial Research (CGR) have explored the use of small UAS quadcopters for mapping wetlands, assessing woody debris biomass in forests, creating 3D visualizations of historical buildings and documenting seasonal changes in botanical gardens. This paper will describe methods used to acquire aerial images with DJI Phantom 2 Vision and Vision+ quadcopters to create image mosaics, 3D point clouds and image models used to monitor natural and cultural resources. Finally, future directions will be addressed with an eye towards advances for resource monitoring.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2554904237</t>
+          <t>https://openalex.org/W4292117313</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apa.13614</t>
+          <t>https://doi.org/10.1016/j.tet.2022.132957</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Belgrave &amp; Čustović (2016)</t>
+          <t>Тихомиров et al. (2022)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The importance of being earnest in epidemiology</t>
+          <t>Reductive elimination of alkoxy group in anthraquinone derivatives</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big data sets and novel analytical methods present us with an opportunity and a challenge to push the boundaries of medical research to move towards more targeted, personalised management strategies 1. The concept of ‘big data’ and the promises made concerning the potential of big data to generate novel hypotheses and provide most of the solutions in health care is becoming everyday parlance, with increasing belief that the data must and will speak for themselves. In childhood allergic diseases, discovering latent structure and patterns within large data sets using unbiased machine learning techniques has been used to identify distinct subgroups (classes or clusters) under the umbrella diagnoses of asthma, eczema and rhinitis 2, 3. The study by Goksör et al. 4 in the current issue of the journal is a timely reminder that in addition to disaggregating the structure in the big data sets using ‘unbiased’ analytical techniques, we need to look at the detailed associations of the temporality and comorbidity of symptoms via more traditional epidemiological approaches to fully understand the development of allergic diseases. This study from the Swedish longitudinal cohort presents a valuable epidemiological analysis which may contribute to a better understanding of the development of allergic symptoms during childhood. With the advent of the computational revolution combined with the amplified scale of biological, genetic and phenotypic healthcare data which has become available, the horizons of a data-driven hypothesis-generating approach to understanding disease have somewhat overshadowed the more traditional epidemiological hypotheses-testing approach based on carefully constructed scientific questions and observations. The ever-increasing quantity of data which is generated has made it impossible at times to know what we are looking for, and what questions need to be asked. One way of tackling this has been by taking an agnostic approach towards understanding the structure of the data by using unsupervised machine learning algorithms. Machine learning searches through data to look for patterns, combining mathematical modelling for analysing high-dimensional data and computational statistics to identify model-based patterns or structure within the data. However, nothing replaces and indeed nothing can replace carefully constructed epidemiological studies which ask specific questions and interrogate data sets to test specific hypotheses based on scientific intuition and prior clinical knowledge, and which act as a sanity check to validate the findings of hypothesis-generating studies. In his classical textbook, Rothman describes epidemiology as the study of the distribution and determinants of disease, as well as its frequency and occurrence 5. Epidemiology is concerned with understanding associations and risk factors of diseases, by using carefully constructed frameworks to understand disease causality 5. These concepts, which seem so simple on the surface, are fundamental if we are to extract meaningful clinical interpretations of the vast amount of medical data with which we are constantly presented. Goksör et al. 4 use this epidemiological approach, presenting a carefully structured question to investigate whether allergic manifestations in early life are associated with an increased risk in allergic manifestations in later life. The way in which they go about answering this question is likewise carefully constructed, looking at a range of symptoms and definitions of eczema, asthma, allergic rhinitis and food allergy. This study takes us back to the fundamental principles of epidemiology, which is understanding causality in order to influence policy. This was the aim of the ‘first epidemiologist’, Sir John Snow, who established the cause of the 1854 cholera epidemic in London was contaminated water, rather than bacteria from the surrounding area, which led to the closing down of the water pumps in Soho. We need to go back to the basics of epidemiology so that we do not miss the opportunity to capitalise on what epidemiology is all about: understanding causality and distinguishing causality from confounding. Confounding, an important albeit too often overlooked concept in epidemiology, is the study of effects which may explain away apparently causal associations observed in a statistical model. Confounding is a complex scenario and the existence of latent or unobserved confounders is an area which is acknowledged, but in which much development needs to be encouraged on the more practical level 6. The thorough analysis by Goksör et al. 4 has made an attempt to disaggregate all possible explanations of the development of, and the relationship between allergic manifestations during childhood, through carefully addressing confounding. The results challenge the view that development of allergic manifestations in childhood is a progressive development of one disease. Traditionally, the term ‘atopic march’ has been </t>
+          <t>Anthraquinone derivatives are constantly in a focus of synthetic chemists due to a diversity of valuable biological, photochemical and redox properties. However, quinone core limits applicability of chemical transformations making a search for new methods of modification of anthraquinones highly demanded. A convenient approach of regioselective reductive α-alkoxy group cleavage of anthraquinone derivatives was developed and evaluated. Most effectively transformation goes via a zinc reduction of quinone moiety and prototropic rearrangement in acidic media followed by the alkoxy group elimination. Strong donors in β -position of anthraquinone core are crucial for transformation and provide the elimination exclusively from α -position. The method simplifies an access to some bioactive 1,3-substituted anthraquinones and was applied for synthesis of natural products, e.g., rubiadin 1-methyl ether, anthragallol 1,2-dimethyl ether, and damnacanthol. • Reductive α-alkoxy group cleavage of anthraquinone derivatives was developed. • Strong donors in β-position contribute reactivity and high regioselectivity. • Method simplifies an access to bioactive 1,3-substituted anthraquinones.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588171043</t>
+          <t>https://openalex.org/W2951518878</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/408187</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Salemink (2016)</t>
+          <t>Ribeiro et al. (2018)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
+          <t>Remotely sensed indicators and open-access biodiversity data to assess bird diversity patterns in Mediterranean rural landscapes</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
+          <t>Abstract Changes in ecosystem area are often used to assess human impacts on habitats and estimate biodiversity change. However, because species respond to structural changes at fine spatial scales the use of area alone may not capture all relevant changes. Operational costs limit the assessment of biodiversity change at a simultaneously fine spatial resolution and large scales. The development of cost-effective and expedite methods to monitor biodiversity change is therefore required. We use open access satellite imagery and biodiversity data to investigate the importance of variables of habitat extent and structure in explaining species richness and community dissimilarity of forest and open-land birds at the regional scale. Moreover, because Mediterranean landscapes are subject to seasonal dynamics, we explore the indicator value of remotely sensed variables measured in spring and summer. A large-scale dataset of bird occurrence data, including 8042 observations and 78 species, distributed by 40 landscape-sized cells, was assembled from GBIF after controlling for data quality. We found that summer satellite imagery, when the green perennial vegetation is more apparent, is particularly suited to model the diversity patterns of forest species, because distribution of tree cover in the landscape is well captured. Summer data is also useful to monitor the perennial elements that shape landscape structure and the habitat of open-land species. Specifically, mean NDVI and a second-order NDVI texture variable, were found to be good indicators of forest and open-land habitats, respectively. The use of spring imagery appears to be useful to monitor habitat structure within open-land habitat patches. Overall, NDVI texture measures were found to be good predictors of bird diversity patterns at large scales. Also, we were able to successfully conduct a regional scale analysis using open-access data, which illustrates their potential to inform large scale biodiversity monitoring.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1603462536</t>
+          <t>https://openalex.org/W1603890268</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0306-9192(90)90082-b</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>황규철 (2009)</t>
+          <t>Reutlinger (1990)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>문제극의 관점에서 본 에드워드 본드의 Summer 고찰</t>
+          <t>Hunger and public action</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>This paper examines the three factors which inevitably make Edward Bond’s Summer a problem play on Nazism and socialist revolutions in Europe. The existing criticism on the play can be divided into three: that of comparing it with Shakespeare’s The Tempest; that of viewing it as a problem play; that of viewing it as an answer play. However, the first category tries to search for the common denominators based on misreading. The second category focuses either on one of the two main issues, that is, Nazism and socialist revolutions or on less comprehensive issues such as violence and World War II. The third category commits significant errors by overlooking the political problems caused by Xenia, German, David, and Ann. Marthe indicts Nazis who collaborated with bourgeoisie for their atrocities during World War II and justifies the achievements of the socialist revolution led by proletariat. Also, she emphasizes the importance of justice over mercy for the realization of the desirable society. However, Xenia fails to accept the dark reality concerning the past historic events, though she has two heated arguments with Marthe and listens to German’s narrative on Nazi collaboration with her family. German insists on his innocence by revealing no repentance after his narration that he joined in killing many citizens and deserted a great number of dead bodies on the sea during World War II.. Ann and David bid farewell to each other because of their own incompatible political values which they inherited from their own mothers. Therefore, Edward Bond’s Summer is definitely a problem play because it reveals that Xenia’s destructive hypocrisies, her biased history education of Ann, and German’s prejudiced Nazi values can be obstacles to the realization of the just societies in Eastern and Western Europe.</t>
+          <t>Brazil’s South-South cooperation (SSC) has been accused of using a depoliticizing language of similarity and horizontality that hid structural asymmetries between very divergent realities. Focusing on a SSC project in health between Brazil and Mozambique, the Mozambican Pharmaceutical Ltd. (SMM), this article seeks to understand whether SSC can in fact re-politicize development. Drawing on a poststructuralist approach to discourse, I see re-politicization as challenging views of development in line with foreign aid (privatization in this context) and the enactment of initiatives in line with SSC principles (state-ownership). I explore the political negotiations and conflict around the implementation of the SMM and argue that while initially the language of horizontality masked structural differences between Brazil and Mozambique, it was later mobilized to challenge Mozambique’s desire to privatize the SMM. A compromise between stakeholders allowed the SMM to be majority state-owned, in what I say represented some degree of structural transformation. My analysis shows that development principles are neither universal (a criticism long addressed at foreign aid) nor do they have a single effect. The implementation of SSC projects that aim to effect structural transformation on highly divergent contexts will be subject to contestation, negotiation and accommodation by stakeholders, and the strategic employment of principles. The article suggests that SSC would require a more frequent engagement between partners so that SSC norms become naturalized. More broadly, it echoes part of the SSC literature that calls for a focus on development encounters, political dynamics and local constructions of reality rather than generic policy statements or principles.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3120193981</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2101.04713</t>
+          <t>https://openalex.org/W2596529768</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Torpey &amp; Klein (2021)</t>
+          <t>Grbavac (2015)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Explicit homography estimation improves contrastive self-supervised learning</t>
+          <t>Makrozoobentos stalnih i povremenih krških izvora</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>The typical contrastive self-supervised algorithm uses a similarity measure in latent space as the supervision signal by contrasting positive and negative images directly or indirectly. Although the utility of self-supervised algorithms has improved recently, there are still bottlenecks hindering their widespread use, such as the compute needed. In this paper, we propose a module that serves as an additional objective in the self-supervised contrastive learning paradigm. We show how the inclusion of this module to regress the parameters of an affine transformation or homography, in addition to the original contrastive objective, improves both performance and learning speed. Importantly, we ensure that this module does not enforce invariance to the various components of the affine transform, as this is not always ideal. We demonstrate the effectiveness of the additional objective on two recent, popular self-supervised algorithms. We perform an extensive experimental analysis of the proposed method and show an improvement in performance for all considered datasets. Further, we find that although both the general homography and affine transformation are sufficient to improve performance and convergence, the affine transformation performs better in all cases.</t>
+          <t>Springs represent ecotons, i.e. the transition zone where groundwater rises to the surface of the earth forming surface flow. Karst springs are specific type of springs. Permanent karst springs represent stable habitats with very low seasonal variations of abiotic conditions, while temporary springs show more pronounced seasonal oscillations. In this study we explored the macroinvertebrate communities of four different karst springs, three of them were permanent (springs of the river Krka, Krupa and Kosovcica) and one temporary (Krcic spring). One-year research was conducted with monthly macroinvertebrates sampling using Surber sampler. Seasonal fluctuations in physico-chemical parameters of the water were generally low, nevertheless there were differences between the studied springs, depending on the origin of water. The greatest differences in the composition, structure and seasonal variations of macroinvertebrates were observed between permanent and temporary springs, indicating the importance of the presence of the surface flow. Overall, diversity and abundance of macroinvertebrates were higher at the permanent springs than the Krcic spring, which dries up in the summer months. In permanent springs, greatest abundance of macroinvertebrates was recorded in moss, whereas at the Krcic spring it was highest in the mesolithal, due to the high density of Micropterna nycterobia (Limnephilidae, Trichoptera). This species has specifically adapted life cycle to the seasonal drying up, and large proportion of such species is typical for communities in temporary habitat.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2746205999</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/chase.2017.93</t>
+          <t>https://openalex.org/W2588171043</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sholla et al. (2017)</t>
+          <t>Salemink (2016)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Incorporating Ethics in Internet of Things (IoT) Enabled Connected Smart Healthcare</t>
+          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Emerging Internet of Things represents a paradigm shift in our understanding of modern communication networks. The basic premise is to have smart sensors collaborate directly without human involvement to deliver a new class of applications having far reaching consequences for all aspects of human life. In particular Internet of Things revolution is transforming the modern connected healthcare. However, ubiquitous nature and increased autonomy of the IoT devices raise serious concerns about the ethical complicity of connected smart healthcare applications. In this paper we present a novel method to incorporate ethics in IoT driven connected smart healthcare so that the services provided do not unwittingly infringe on the ethical rights of its beneficiaries.</t>
+          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2586502405</t>
+          <t>https://openalex.org/W3120193981</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119388715.ch5</t>
+          <t>https://doi.org/10.48550/arxiv.2101.04713</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Maesschalck (2017)</t>
+          <t>Torpey &amp; Klein (2021)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Promoting Reflexive Governance of RRI</t>
+          <t>Explicit homography estimation improves contrastive self-supervised learning</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The fundamental challenge is to shift the attention that directs reformative activism onto the production of a reflected and collaborative mode of piloting attempts at reform. The challenge for reflexive governance is to produce effects that shift the heart of attention away from the aim of producing results that fit within an interest-equilibrium model, and onto the transformation of actors and their relational potential. This chapter starts from the recognized need to establish transversal vigilance across all orientations of a responsible research and innovation (RRI) policy, in order to target two major shifts, one collective, and the other subjective. The first considers RRI as a process of constructing new forms of relations between networks and research sectors, while the other concerns RRI insofar as it directly raises the question of singular research identities. Any RRI policy must include, as an integral and explicitly-thematized element, an acute vigilance aimed at its fundamental guiding principles.</t>
+          <t>The typical contrastive self-supervised algorithm uses a similarity measure in latent space as the supervision signal by contrasting positive and negative images directly or indirectly. Although the utility of self-supervised algorithms has improved recently, there are still bottlenecks hindering their widespread use, such as the compute needed. In this paper, we propose a module that serves as an additional objective in the self-supervised contrastive learning paradigm. We show how the inclusion of this module to regress the parameters of an affine transformation or homography, in addition to the original contrastive objective, improves both performance and learning speed. Importantly, we ensure that this module does not enforce invariance to the various components of the affine transform, as this is not always ideal. We demonstrate the effectiveness of the additional objective on two recent, popular self-supervised algorithms. We perform an extensive experimental analysis of the proposed method and show an improvement in performance for all considered datasets. Further, we find that although both the general homography and affine transformation are sufficient to improve performance and convergence, the affine transformation performs better in all cases.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2523246991</t>
+          <t>https://openalex.org/W2885728915</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1538-7445.am2018-4989</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ermold et al. (2016)</t>
+          <t>Mohammed et al. (2018)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Life history evolution of Galba truncatula in cooling water discharge : evidence for rapid thermal adaptation?</t>
+          <t>Abstract 4989: Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Earth mean surface temperature has increased by 1 °C since the industrial revolution, and this has already had considerable effects on animal and plant species. Ecological responses to the warming climate – often facilitated via phenotypic plasticity – are ubiquitous. However, even though evolution can occur rapidly there are only few examples of genetic adaptation to climate change.In my thesis, I used a near-natural system to study if and how organisms have adapted to 30 years of warming, and how this has affected competitive species interactions. I investigated Baltic Sea populations of the aquatic snails Galba truncatula and Theodoxus fluviatilis, which had been subjected to cooling water discharge from power plants, resulting in water temperatures 4 to 10 °C higher than in the surrounding sea.G. truncatula had high upper thermal limits and large acclimation potential. This plasticity may have helped the species to survive under the new conditions, allowing evolution through natural selection to take place. I found that the populations of the two thermal origins had diverged in SNP markers associated with warmer temperature, whereas divergence in selectively neutral markers was mainly related to geographical distance. Adaptation occurred from standing genetic variation, emphasizing the importance of genetic diversity and population size in enabling the persistence of populations. Changes in thermal sensitivity of growth and survival were subtle yet significant, and complied with theoretical models of thermal adaptation in ectotherms. At the community level, pre-adaptation to warmer conditions aided the native T. fluviatilis when competing with the alien Potamopyrgus antipodarum. However, interspecific competition limited the snails most in those traits favored under warming, highlighting the challenge of adapting to different selecting forces during global change.The persistence of species and populations under climate change depends on several factors - plasticity allowing for initial survival, evolvability in allowing the genetic changes, and species interactions affecting the new ecological niches. The results of my thesis indicate that persistence under climate change is possible when these factors align, but the relative roles of ecology and plasticity may explain why there are so few observed instances of evolution in response to climate change.</t>
+          <t>Abstract Inflammation and epidermal growth factor receptor (EGFR) signaling dysregulation plays an important role in urinary bladder cancer development. We have previously shown that single agent regimens with erlotinib (EGFR inhibitor) or naproxen (nonsteroidal anti-inflammatory drug; NSAID) when given continuously were highly effective in the prevention of OH-BBN-induced urinary bladder cancers in rats. Better tolerated chemoprevention regimens can be obtained by reducing doses and frequency of administration. Low dose combinations may also achieve substantial efficacy with minimal toxicity by targeting complementary pathways. Female Fischer-344 rats were obtained at 28 days of age, placed on Teklad (4% fat) diet, and received OH-BBN (150 mg/gavage) 2x/week for 8 weeks beginning at 56 days of age. In the first study, beginning one week after the final OH-BBN treatment the rats (25/group) received either: Group 1, erlotinib (42 mg/kg BW, 1x/week); Group 2, naproxen (30 mg/kg BW/day, 3 weeks on/ 3 weeks off); Group 3, the combination of erlotinib and naproxen (using the same treatment regimens), and Group 4, vehicle. The rats were palpated for urinary bladder tumors, weighed 1x/week and observed daily for signs of toxicity. At the end of the study (10 months after the initial OH-BBN), the average weights of the urinary bladders (bladder plus tumors combined) were determined. The weights in Groups 1-4 were: 194*, 186*, 136* and 354 mg (*P &amp;amp;lt;0.05, Wilcoxon Rank test). This was accompanied by an increase in tumor latency, a decrease in tumor multiplicity, and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). The second study used the same treatment regimens, but administration of the agents was delayed until three months after the final OH-BBN treatment, at which point microscopic transitional cell carcinomas were present. At the end of the study (11 months after the initial OH-BBN), the weights of the individual bladders in Groups 1-4 were: 584, 234*, 138* and 779 mg (*P&amp;amp;lt; 0.05, Wilcoxon Rank test). Thus, naproxen and particularly the combination were still highly effective. This was accompanied by an increase in tumor latency and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). These studies demonstrate that in protocols meant to reduce the toxicity of agents (weekly erlotinib or intermittent dosing with naproxen), high chemopreventive efficacy was achieved. Of importance, starting erlotinib and/or naproxen intermittent treatments at the time microscopic cancers were present still reduced the size of the urinary bladder cancers without showing observable toxicity. The latter is of particular interest based on the clinical FAP trial showing great efficacy of erlotinib and sulindac. Supported by NCI contract number HHSN261201500036I, Task Order HHSN26100002. Citation Format: Altaf Mohammed, Mark S. Miller, Ronald A. Lubet, Chen Suen, Shizuko Sei, Robert H. Shoemaker, Clinton J. Grubbs. Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2018; 2018 Apr 14-18; Chicago, IL. Philadelphia (PA): AACR; Cancer Res 2018;78(13 Suppl):Abstract nr 4989.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2254419660</t>
+          <t>https://openalex.org/W1507962280</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Hay (2011)</t>
+          <t>Ackland (2010)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ARC: process not product</t>
+          <t>Literary politics and the cold war: the case of Christina Stead</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>This paper discusses the ARC project in Hull. It takes the form of a case study of a building conceived from the outset as having no fixed final form or indeed permanent location. The first iteration of the building, designed by Niall McLaughlin Architects, was completed in 2006 and houses the events space and offices for ARC, the Architecture centre for Hull and the Humber Region._x000D_
-_x000D_
-Background_x000D_
-The building project grew out of the creation of Hull’s Architecture Centre, an initiative formed by collaboration between academics from the two local Universities, plus Community and Business representatives. The intention was that the organization would act as a catalyst for change, and raise architectural aspirations underpinned by an ethos that local people are experts in their own lives. ARC does this through a series of interlinked programmes entitled the learning Programme, Design Review, and the Public Realm. In addition the building hosts exhibitions, debates and workshops of various kinds. _x000D_
-_x000D_
-The Building Project_x000D_
-The building project grew out of a particular set of circumstances that have already passed into history. The opportunity to access money, supported by the regional regeneration agency, now abolished, enabled ARC to consider building – the only UK architecture centre to have thus done so. The underlying intention behind the brief, which the current author jointly developed, and the resultant building, where he subsequently acted as client representative for the project, was that we (ARC) needed to go to the people rather than always expecting the people to come to ARC. The idea of mobility, change and transformation was thus built into the project from the start. Rather than seeing the project as a permanent marker in time and space the project was conceived as is a 25-year ongoing experiment where relocation, transformation and adaptability are the only constants._x000D_
-_x000D_
-The building is thus a series of interlinked components, systems and narratives born of the city and its people that embrace the incomplet, the contingent and the unexpected. Arc is a building that can adapt and reconfigure as occasion and resources allow. It is a project that can never actually be considered to be finished.</t>
+          <t>Christina Stead's life is at once too well and too little known. Fourteen major works, totally more than five and a half thousand pages, refract half a century of her experiences on three continents. These are complemented by important caches of surviving letters, which evoke her impressions of specific places and countries, capture ebb and flow of her personal relations, and offer apparently frank avowals on a variety of literary, social and historical subjects. Moreover Stead, following reissuing of The Man Who Loved Children in 1965, enjoyed considerable fame and, after returning permanently to her native land in 1975, made herself publicly available on numerous occasions, including for lengthy periods as a writer in residence at Australian National University and Monash University. There she cultivated impression of being primarily interested in her art. Certainly she responded to current issues, embracing concern of her friend, Nugget Coombs, with indigenous affairs, as well as lending her voice to growing opposition to war in Vietnam. But there was little in her utterances to distinguish them from local leftist agenda of day, which opposed American imperialsim and sought to elect a federal Labour government after decades of conservative rule. There was nothing to suggest that she had once been a fervent member of organisations opposed to parliamentary democracy, or a vehement advocate of engaged art, and belief that writers should use their pens to cut through moribund tissues of society in cause of human freedom and revolution. Her political engagement before, and even during, Pacific War was fast fading from memory. In 1973 she remarked, without exaggeration, in an interview: People don't remember all that, you know. The thirties was a hundred years ago. Since then amnesia has only deepened, so that she remains in important respects, as a recent monograph underscored, the enigmatic Christina Stead (Peterson).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1507962280</t>
+          <t>https://openalex.org/W2441604512</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ackland (2010)</t>
+          <t>Skiba (2016)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Literary politics and the cold war: the case of Christina Stead</t>
+          <t>Face with Tears of Joy Is Word of the Year</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Christina Stead's life is at once too well and too little known. Fourteen major works, totally more than five and a half thousand pages, refract half a century of her experiences on three continents. These are complemented by important caches of surviving letters, which evoke her impressions of specific places and countries, capture ebb and flow of her personal relations, and offer apparently frank avowals on a variety of literary, social and historical subjects. Moreover Stead, following reissuing of The Man Who Loved Children in 1965, enjoyed considerable fame and, after returning permanently to her native land in 1975, made herself publicly available on numerous occasions, including for lengthy periods as a writer in residence at Australian National University and Monash University. There she cultivated impression of being primarily interested in her art. Certainly she responded to current issues, embracing concern of her friend, Nugget Coombs, with indigenous affairs, as well as lending her voice to growing opposition to war in Vietnam. But there was little in her utterances to distinguish them from local leftist agenda of day, which opposed American imperialsim and sought to elect a federal Labour government after decades of conservative rule. There was nothing to suggest that she had once been a fervent member of organisations opposed to parliamentary democracy, or a vehement advocate of engaged art, and belief that writers should use their pens to cut through moribund tissues of society in cause of human freedom and revolution. Her political engagement before, and even during, Pacific War was fast fading from memory. In 1973 she remarked, without exaggeration, in an interview: People don't remember all that, you know. The thirties was a hundred years ago. Since then amnesia has only deepened, so that she remains in important respects, as a recent monograph underscored, the enigmatic Christina Stead (Peterson).</t>
+          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
         </is>
       </c>
     </row>
@@ -3798,2627 +3806,2448 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389787858</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.hrcr.2023.11.001</t>
+          <t>https://openalex.org/W2416670648</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Winterfield (2023)</t>
+          <t>Dalton (2004)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Good luck where preparation meets opportunity</t>
+          <t>Proteasome inhibition in hematologic malignancies: clinical update and practical applications.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>“Luck is what happens when preparation meets opportunity.”– Seneca Much of the emergence of the electrophysiology (EP) program at the Medical University of South Carolina (MUSC) began with work done by others—Drs Michael Gold and Marcus Wharton formed the academic core 2 decades ago. Dr Gold developed the cardiology division as chief, and he led the EP academic mission with his stewardship of pacing and implantable cardioverter-defibrillator trials. My former MUSC partner, Dr Frank Cuoco, developed a robust atrial fibrillation program and understood the need for an academic ventricular tachycardia (VT) practice. With this talented group, the die had been cast for a program supportive of robust investigator-initiated studies and clinical trials. After speaking at a conference in 2015, I was fortunate to receive an invitation to look at MUSC to build the VT program and later joined, in August 2016. The preparation had been a decade in the making, with a winding course through fellowship at Brigham and Women’s Hospital with an early focus on ion channel genetics and arrhythmogenesis; but, with mentorship from Drs Usha Tedrow and Bill Stevenson, the path steered toward clinical EP. The Brigham had been—and remains—a think tank for VT management, so the obvious next career step with support from mentors led to the great VT center at Loyola in Chicago under the leadership of Dr Dave Wilber. By then, focus on VT management—both mechanistic and technical with interest in ablation biophysics—led to collaborative growth with the great Loyola EP group. The “3 amigos”—Dr Smit Vasaiwala, Dr Alex Green, and me—grew together, with challenging VT cases complemented by sage input from Dr Wilber. He advised methods for improving mapping efficiency, addressing failures, and avoiding complications. The learning post-fellowship never stopped, and collaboration among junior EPs created one of the most transformational experiences of my career. I am grateful for those 5 years with the Loyola group. Mistakes are great teachers. Somewhat serendipitously, after abandoning VT ablation in an ischemic cardiomyopathy patient owing to hemodynamic instability after repeated inductions, Dr Wilber offered this advice: “You can learn a lot in sinus rhythm.” The patient, thankfully, did okay, but this initially confusing statement opened another path: how can we democratize VT ablation? Substrate-guided approaches with high-density mapping emerged during the 2010s, yet generalizability remained challenging given variable signal interpretation by operators and diversity of electrode arrangements on the newest high-density catheters. So the opportunity at MUSC could not have been more fertile for development of a VT program. In an environment somewhat suspicious of the risks of VT ablation, we constructed a program with safety and service at the forefront. Patients survived cases and returned to their doctors. We counseled patients and referring physicians that repeat ablations would sometimes be necessary. We grew from 29 VT ablations to more than 100 in 1 year, and we have experienced double-digit growth annually since 2019. In parallel, MUSC developed the advanced heart failure program with the recruitment of talented physicians and subsequent explosion in transplant / ventricular assist device volumes. Partnership with the heart failure group enabled the program to take on sicker patients with plans for bail-out strategies developed in a collaboration between EP and heart failure physicians. With an emerging VT program, I soon took over the EP section just over a year after arrival at MUSC. The work continued, but the needs of the VT program no longer took sole priority. We lacked a comprehensive lead extraction program, and our atrial fibrillation program required additional help to manage the growth in ablations and left atrial appendage closure. We recruited the superbly talented Dr Anne Kroman, who rapidly built a collaborative program with surgical colleagues to support complex extractions. In parallel, we hired additional faculty, including Dr Josh Payne, among others, to extend the complex ablation programs. Junior and midcareer faculty alike share responsibility for core EP work, but each enjoys opportunities to differentiate in niche practices and to lead research initiatives. The luck at MUSC EP emerged from hard work and preparation, coupled with focus on team play at every opportunity. Mentorship never ended, and I continue to engage colleagues for advice at critical program moments, such as recruitment or scientific investment. We will see the mission through, and we welcome colleagues and trainees to visit our open lab environment. No conflicts of interest. This research did not receive any specific grant from funding agencies in the public, commercial, or not-for-profit sectors.</t>
+          <t>Throughout my career, I have collaborated with many colleagues who share a common goal of mapping and reversing the molecular mechanisms involved in the malignant transformation of plasma cells and resistance of myeloma cells to chemotherapy drugs. Over the years, I have had the privilege of participating in and witnessing the discovery of numerous promising molecular targets, which has led to the development of many unique antitumor drugs; however, the marketing of a compound that significantly impacts the lives of cancer patients is still rare.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2416670648</t>
+          <t>https://openalex.org/W2144337453</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2478/v10089-008-0014-6</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Dalton (2004)</t>
+          <t>Szymańska &amp; Biegańska (2008)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Proteasome inhibition in hematologic malignancies: clinical update and practical applications.</t>
+          <t>The Eastern and the Western Cuiavia - One Region, Two Development Lines</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Throughout my career, I have collaborated with many colleagues who share a common goal of mapping and reversing the molecular mechanisms involved in the malignant transformation of plasma cells and resistance of myeloma cells to chemotherapy drugs. Over the years, I have had the privilege of participating in and witnessing the discovery of numerous promising molecular targets, which has led to the development of many unique antitumor drugs; however, the marketing of a compound that significantly impacts the lives of cancer patients is still rare.</t>
+          <t>The Eastern and the Western Cuiavia - One Region, Two Development Lines Cuiavia is one of the oldest historical regions in Poland characterized by diverse physical and geographical conditions, as well as different administrative and historical past. The aim of this paper is to present the impact of historical and administrative divisions, as well as diverse socio-economic and political transformations that in a significant way influenced the diversity of social and economical features of Eastern and Western Cuiavia. Against such a background different development directions will be discussed.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W172083429</t>
+          <t>https://openalex.org/W4376111100</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1126/sciadv.adg1237</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>García &amp; García (2011)</t>
+          <t>Li et al. (2023)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Abriendo caminos en el re-cuento de las historias : la reescritura y la remembranza como agentes movilizadores de procesos terapéuticos en la deconstrucción de historias dominantes, con niños, niñas y sus familias en situación de desplazamiento forzado en la ciudad de Bogotá</t>
+          <t>Nature-inspired catalytic asymmetric rearrangement of cyclopropylcarbinyl cation</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Blazing Trails in counting stories, is a work that characterizes the deconstruction of dominant stories or dilemmas of families with children / girls aged 2 to 15 years in situation of displacement in Bogota, through the therapeutic resources for rewriting and own remembrance of narrative therapy in the social constructionist paradigm. The methodology used was action research through a qualitative exploratory study framed in the logic of the postmodern narrative proposals. This allowed the versatility and flexibility between the ante and transformations at the level of process and content throughout the project, becoming a source of analysis. It was recognized that to generate conversations rewritten and remembrance in connection with artistic communication practices with / as boys / girls and their families, met the objectives of expanding possibilities, seek emergency unique achievements and collaborative construction of alternative histories to family dilemmas. What opened the door ways to the active transformation of both the participants and the therapeutic.</t>
+          <t>In nature, cyclopropylcarbinyl cation is often involved in cationic cascade reactions catalyzed by natural enzymes to produce a great number of structurally diverse natural substances. However, mimicking this natural process with artificial organic catalysts remains a daunting challenge in synthetic chemistry. We report a small molecule-catalyzed asymmetric rearrangement of cyclopropylcarbinyl cations, leading to a series of chiral homoallylic sulfide products with good to excellent yields and enantioselectivities (up to 99% enantiomeric excess). In the presence of a chiral SPINOL-derived N-triflyl phosphoramide catalyst, the dehydration of prochiral cyclopropylcarbinols occurs rapidly to generate symmetrical cyclopropylcarbinyl cations, which are subsequently trapped by thione-containing nucleophiles. A subgram-scale experiment and multiple downstream transformations of the sulfide products are further pursued to demonstrate the synthetic utility. Notably, a few heteroaromatic sulfone derivatives could serve as "covalent warhead" in the enzymatic inhibition of severe acute respiratory syndrome coronavirus 2 main protease.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231284013</t>
+          <t>https://openalex.org/W3127939233</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9780470755594.refs</t>
+          <t>https://doi.org/10.17184/eac.3590</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Barss (2003)</t>
+          <t>Pety (2020)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Le rôle de l’amateur dans la construction des savoirs (XIXe-XXIe siècles)siècles)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Andrew Barss, Search for more papers by this author First published: 01 January 2003 https://doi.org/10.1002/9780470755594.refs AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat References Aoun, Joseph, and Yen-hui Audrey Li (1989) Scope and constituency. Linguistic Inquiry, 20, 141– 72. Web of Science®Google Scholar Aoun, J., and D. Sportiche (1983) On the formal theory of government. Linguistic Review, 2, 221– 36. Google Scholar Armbuster, T. (1981) How to influence responses to “Is Kathy easy to see?” Journal of Psycholinguistic Research, 10, 27– 39. CrossrefWeb of Science®Google Scholar Bach, E. (1986) The algebra of events. Linguistics and Philosophy, 9, 5– 16. Web of Science®Google Scholar Bach, E., and B. H. Partee (1980) Anaphora and semantic structure. In Jody Kreiman and Almerindo E. Ojeda (eds), Papers from the Parasession on Pronouns and Anaphora, Chicago Linguistics Society. Chicago: University of Chicago Press. Google Scholar Badecker, W., and K. Straub (1992) Resolving pronoun antecedent relations. Poster presentation at the Fifth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1994) Evidence that binding principles participate in a constraint satisfaction process. Poster presentation at the Seventh Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1995) The composition of the initial candidate set in the selection of referential antecedents. Poster presentation at the Eighth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1997) The processing role of structural constraints on the interpretation of pronouns and anaphors. Ms, Johns Hopkins University. Web of Science®Google Scholar Barss, A. (1984) Chain binding. Ms, MIT. Google Scholar Barss, A. (1986) Chains and anaphoric dependence: on reconstruction and its implications. Doctoral dissertation, MIT. Google Scholar Barss, A. (1995) Anaphora and the timing of dependency formation. Ms, University of Arizona. Google Scholar Barss, A. (2000) Minimalism and asymmetric WH-interpretation. In R. Martin, D. Michaels, and J. Uriagereka (eds), Step by Step. Cambridge, MA: MIT Press. Web of Science®Google Scholar Barss, A. (forthcoming) Derivations and dependencies. Ms, University of Arizona. Google Scholar Barss, A., and D. Basilico (1994) The scope of events. Ms, University of Arizona. Web of Science®Google Scholar Belletti, A. (1990) Generalized Verb Movement. Turin: Rosenberg and Sellier. Google Scholar Belletti, A., and L. Rizzi (1988) Psych verbs and theta theory. Natural Language and Linguistic Theory, 6, 291– 352. CrossrefWeb of Science®Google Scholar Berwick, R. C. (1985) The Acquisition of Syntactic Knowledge. Cambridge, MA: MIT Press. CrossrefGoogle Scholar Bittner, M. (1992) Movement and scope. Ms, Rutgers University. Google Scholar Bloom, P., A. Barss, J. Nicol, and L. Conway (1994) Children's knowledge of binding and coreference: evidence from spontaneous speech. Language, 70, 53– 71. CrossrefWeb of Science®Google Scholar Bolinger, D. L. (1987) “Each other” and its friends. In Another Indiana University Linguistics Club Twentieth Anniversary Volume. Bloomington: Indiana University Linguistics Club. Google Scholar Borer, H. (1984) Parametric Syntax: Case Studies in Semitic and Romance Languages. Dordrecht: Foris. CrossrefGoogle Scholar Boskovic, Z., and D. Takahashi (1998) Scrambling and last resort. Linguistic Inquiry, 29, 347– 66. CrossrefWeb of Science®Google Scholar Brody, M. (1979) Infinitivals, relative clauses, and deletion. Ms, University of London. Google Scholar Broihier, K., and K. Wexler (1995) Children's acquisition of control in temporal adjuncts. In C. T. Schütze, J. B. Ganger, and K. Broihier (eds), Papers on Language Processing and Acquisition. MIT Working Papers in Linguistics 26. Google Scholar Byrne, B. (1981) Deficient syntactic control in poor readers: is a weak phonetic memory coder responsible? Applied Psycholinguistics, 2, 201– 12. CrossrefPubMedWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, and J. R. Hsu forthcoming) On the nature of the pronoun coreference requirement. Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, and M. Rapp (1994) A longitudinal study of principles of control and pronominal reference in child English. Language, 70, 260– 88. CrossrefWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, S. Parsons, and D. Konstantyn (1995) Gram</t>
+          <t>La figure de l’amateur, héritée des pratiques culturelles de l’Ancien régime, est en train de retrouver un rôle de premier plan à l’ère des technologies numériques collaboratives. Dans cette nouvelle « économie de la contribution » (B. Stiegler), on peut faire figurer diverses pratiques informationnelles, conversationnelles ou créatives, mais aussi les apports à des projets scientifiques collaboratifs qu’on range désormais sous l’étiquette des « sciences participatives » ou « sciences citoyennes ». C’est également la notion de patrimoine qui est aujourd’hui puissamment questionnée par les technologies numériques et leur dimension participative : on mesure mieux en quoi les individus (et non plus seulement les institutions), les profanes (et non plus seulement les spécialistes) peuvent contribuer au processus de la patrimonialisation, et à la légitimation qu’elle confère en retour à de nouveaux objets de savoir, ou à de nouveaux modes d’appropriation du savoir. C’est donc cette filiation entre l’amateur du XIXe siècle et l’internaute contemporain, à la croisée des sciences participatives et des nouveaux modèles numériques de patrimonialisation, que nous voudrions analyser, en nous interrogeant particulièrement sur la transformation des sociabilités, des valeurs et des représentations attachées désormais aux pratiques de l’amateur.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252947360</t>
+          <t>https://openalex.org/W2592333264</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1596/29113</t>
+          <t>https://doi.org/10.1201/9781315226255-12</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NA (2017)</t>
+          <t>Bodino (2017)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>India Financial Sector Assessment</t>
+          <t>South Africa’s new challenges</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Against the backdrop of important structural reforms and terms of trade gains, India recorded strong growth in recent years in both economic activity and financial assets. Increased diversification, commercial orientation, and technology-driven inclusion have supported growth in the financial industry, backed by improved legal, regulatory, and supervisory frameworks. Yet, the financial sector is grappling with significant challenges, and growth has recently slowed. Highnonperforming assets (NPAs) and slow deleveraging and repair of corporate balance sheets are testing the resilience of the banking system and holding back investment and growth. The largest banks appear sufficiently capitalized and profitable to withstand a deterioration in economic conditions, reflecting relatively solid capital buffers and, particularly for the private banks, core profitability that is strong enough to cover credit costs. There is a group of public sector banks (PSBs) where vulnerabilities seem highest; these banks would require additional capital under the baseline scenario and some would almost deplete capital buffers due to growing NPAs and provisioning needs if stress intensifies. Capital needs are manageable in the aggregate, ranging between 0.75 percent of GDP in the baseline to 1.5 percent of GDP in the severe adverse scenario. Much needed efforts are now underway to accelerate the process of NPA resolution. The various debt restructuring schemes introduced over the past years have had limited uptake, and agreement among lenders has been hampered by their uneven capacity to withstand losses. The RBI was recently empowered to direct restructuring cases to the insolvency process, with the potential for insolvency used to exert pressure on creditors to finalize debt restructuring agreements outside the court process. This new approach shows promise of further progress, but more needs to be done to ensure that the debt restructuring process gains traction: banks need additional provisions and capital buffers; corporates need to undergo sustainable financial and operational restructuring; and infrastructure for debt restructuring needs to be improved.</t>
+          <t>The purpose of this paper is to define whether and how it is possible to create inclusive connection spaces through planning, by analysing some of the most segregated cities in the world. The starting point is an overview of the current urban situation in South Africa, twenty years after the first democratic elections. Scholars argue that, due to a history of colonialism and apartheid, cities there are increasingly segregated and fragmented. At the same time the political agenda is struggling to address the process of transformation in order to mitigate spatial inequalities and promote urban integration, while on the other hand taking global interests into account. Through the examination of three examples this work attempts to identify some progress in the creation of inclusive spaces, while looking at the complexities involved in operating in a South African context.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3127939233</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.17184/eac.3590</t>
+          <t>https://openalex.org/W920405028</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pety (2020)</t>
+          <t>Seligmann (1985)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Le rôle de l’amateur dans la construction des savoirs (XIXe-XXIe siècles)siècles)</t>
+          <t>Architecture et cinéma : l'appropriation de l'espace</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>La figure de l’amateur, héritée des pratiques culturelles de l’Ancien régime, est en train de retrouver un rôle de premier plan à l’ère des technologies numériques collaboratives. Dans cette nouvelle « économie de la contribution » (B. Stiegler), on peut faire figurer diverses pratiques informationnelles, conversationnelles ou créatives, mais aussi les apports à des projets scientifiques collaboratifs qu’on range désormais sous l’étiquette des « sciences participatives » ou « sciences citoyennes ». C’est également la notion de patrimoine qui est aujourd’hui puissamment questionnée par les technologies numériques et leur dimension participative : on mesure mieux en quoi les individus (et non plus seulement les institutions), les profanes (et non plus seulement les spécialistes) peuvent contribuer au processus de la patrimonialisation, et à la légitimation qu’elle confère en retour à de nouveaux objets de savoir, ou à de nouveaux modes d’appropriation du savoir. C’est donc cette filiation entre l’amateur du XIXe siècle et l’internaute contemporain, à la croisée des sciences participatives et des nouveaux modèles numériques de patrimonialisation, que nous voudrions analyser, en nous interrogeant particulièrement sur la transformation des sociabilités, des valeurs et des représentations attachées désormais aux pratiques de l’amateur.</t>
+          <t>J’ai place le sujet « appropriation de l’espace et architecture » au centre de ma pratique cinematographique. La raison de ce choix, c’est que dans mon experience d’architecture, j’ai constate qu’il me manquait un moyen d’expression qui pouvait lier l’activite motrice humaine a l’espace ou elle s’inscrit. J’ai choisi mes lieux de tournage dans differents milieux culturels. C’est ainsi que le film que j’ai tourne a Belem do Para (Belem do Para et alentours) (1982) se passe dans un milieu ou predomine la tradition orale et ou j’ai vecu plusieurs annees. Les gens que j’ai filmes ont ete amenes, comme moi-meme, a vivre une experience ou la parole a un role majeur dans la mise en scene. Dans ce film, la camera que Jean Rouch a appele « camera de contact » a une fonction essentielle. Le type d’espace en rapport avec la superficie du terrain que s’approprie la camera, determine les differentes strategies d’appropriation de cet espace. Pour faire ce film, il fallait me deplacer dans une region bien definie et le type d’espace que j’allais filmer m’imposait donc de choisir d’abord une strategie de mise en scene de la region. Les quartiers, les rues, les « espaces de transition » ainsi que les espaces cloisonnes ont eux aussi de diverses categories d’appropriations differentes. En effet, comme dans ce film (Belem do Para et alentours) on ne voit personne se deplacer entre un type d’espace approprie par la camera et un autre, il m’a fallu adopter deux strategies bien specifiques. Pour faire ressortir un changement d’ambiance, j’ai donc fait un arret sur photogramme accompagne d’un commentaire sur le parcours effectue d’un espace a l’autre. J’ai egalement accompagne d’un commentaire les images des paysages mis en scene au moyen de travellings ou de panoramiques. Une autre de mes experiences filmees, c’est celle que j’ai intitulee « Construction d’un edifice devant la place Gaston Baty a Paris ». Avant d’effectuer la mise en scene de ce film, j’avais deja une connaissance theorique de la construction. Dans ce film, mon utilisation de la « camera de contact » se limite aux heures de pause des ouvriers du chantier. J’ai passe le reste du temps, c’est-a-dire presqu’un an, en tant que simple observatrice des activites des ouvriers. Je me suis efforcee de mettre l’accent sur l’acte de bâtir en me servant surtout d’une focale moyenne, rarement d’une focale longue. Je n’ai utilise de focale courte que pour accompagner les modifications de l’espace, resultat des travaux executes par toute une equipe. J’ai egalement, et de facon exceptionnelle adopte un poste d’observation extra-focal reel compense par un poste d’observation intra-focal fictif. C’est ainsi que j’ai filme une demi-heure d’une journee entiere de travail. Ma troisieme experience a ete le tournage de trois films au Japon. J’ai d’abord tourne un film dans la banlieue d’Osaka (« Les Yamamoto dans la banlieue d’Osaka ») ou les types d’espace varient en fonction de la surface du terrain. Ils vont de la piece d’une maison a l’etendue du quartier ou habite la famille proprietaire de la maison. La strategie que j’ai adoptee pour faire ce film est bien differente de celle de « Belem do Para et alentour ». En effet, j’ai mis des personnes en scene. Les espaces des rues, des rizieres, des cimetieres etc sont toujours presentes avec des membres de la famille Yamamoto. Le deuxieme de ces films tournes au Japon (« La refection d’une tatami ») montre les activites quotidiennes d’un artisan, voisin de la famille Yamamoto. Le type d’espace predominant de ce film est appele par Claudine de France « espace operatoire » (cf. C. De France, p. 372 « Cinema et Anthropologie », Paris, Maison des Sciences de l’Homme, 1982, 400p. ). Dans mon troisieme film « japonais », « Bamboo babies ou Takenokogroup » c’est la place publique qui est appropriee par la camera pendant les activites dominicales d’un groupe de jeunes rockeurs d’Osaka. Dans tous mes films, j’ai analyse et justifie l’utilisation de focales differentes selon l’expression de la presentation qui me semblaient essentielles. Finalement, j’ai effectue une analyse de la continuite et de la discontinuite de la presentation ainsi que l’equilibre entre la presentation et l’expression de chaque film. Pour ce faire, je suis partie d’un point de vue macrocenographique. Des mouvements strategiques de la camera traduisent les changements d’ambiance ainsi que le parcours avec ou sans personnages soit dans l’espace des villes, soit dans les espaces cloisonnes. L’equilibre entre presentation et expression appartient au rapport temps filmique-temps reel des activites filmees liees a l’expression du cineaste.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2592333264</t>
+          <t>https://openalex.org/W4242368351</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781315226255-12</t>
+          <t>https://doi.org/10.31219/osf.io/93hk4</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Bodino (2017)</t>
+          <t>Peltz et al. (2020)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>South Africa’s new challenges</t>
+          <t>Shocks to the System: The Influence of COVID-19-related Stressors on Coparental and Family Functioning</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The purpose of this paper is to define whether and how it is possible to create inclusive connection spaces through planning, by analysing some of the most segregated cities in the world. The starting point is an overview of the current urban situation in South Africa, twenty years after the first democratic elections. Scholars argue that, due to a history of colonialism and apartheid, cities there are increasingly segregated and fragmented. At the same time the political agenda is struggling to address the process of transformation in order to mitigate spatial inequalities and promote urban integration, while on the other hand taking global interests into account. Through the examination of three examples this work attempts to identify some progress in the creation of inclusive spaces, while looking at the complexities involved in operating in a South African context.</t>
+          <t>In addition to the fears associated with contracting COVID-19, the pandemic has forced families across the United States to quickly transition to new patterns of living. These transitions present new stressors, including health related concerns, new demands placed on families by lockdowns and stay-at-home orders, and the possibility of losing a job or inability to pay bills. Such stressors have the potential to disrupt collaboration between coparents in addition to basic family functioning. Drawing upon a family systems perspective, the current study thus sought to examine links between COVID-19-related stressors and family cohesion through coparental functioning. A total of 1003 parents (97% from the US; 82% Caucasian, 74% female; M = 40.9 years old, SD = 8.5; Mincome = $83,631, SDincome = $36,320) of school-aged children completed an initial online survey from the end of March to the end of April of 2020. Of the initial sample, a total of 685 parents completed weekly diaries for a month. Based on multi-level modeling, results suggested that, at the between-family level, coparental conflict mediated the impact of the stress of parenting/work demands and financial stress on family cohesion. At the within-family level, weekly spikes in health-related stress were associated with corresponding spikes in coparental conflict, which, in turn, were associated with drops in family cohesion. Results from the current study suggest that beyond the fears associated with contracting the COVID-19 virus, other key stressors associated with the emerging pandemic played a role in increasing coparental conflict, ultimately exacerbating family functioning.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W920405028</t>
+          <t>https://openalex.org/W2065259353</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/bimj.4710360217</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Seligmann (1985)</t>
+          <t>Bartoloni (1994)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Architecture et cinéma : l'appropriation de l'espace</t>
+          <t>Influence of the Interaction for Fitness on the Population Structure</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>J’ai place le sujet « appropriation de l’espace et architecture » au centre de ma pratique cinematographique. La raison de ce choix, c’est que dans mon experience d’architecture, j’ai constate qu’il me manquait un moyen d’expression qui pouvait lier l’activite motrice humaine a l’espace ou elle s’inscrit. J’ai choisi mes lieux de tournage dans differents milieux culturels. C’est ainsi que le film que j’ai tourne a Belem do Para (Belem do Para et alentours) (1982) se passe dans un milieu ou predomine la tradition orale et ou j’ai vecu plusieurs annees. Les gens que j’ai filmes ont ete amenes, comme moi-meme, a vivre une experience ou la parole a un role majeur dans la mise en scene. Dans ce film, la camera que Jean Rouch a appele « camera de contact » a une fonction essentielle. Le type d’espace en rapport avec la superficie du terrain que s’approprie la camera, determine les differentes strategies d’appropriation de cet espace. Pour faire ce film, il fallait me deplacer dans une region bien definie et le type d’espace que j’allais filmer m’imposait donc de choisir d’abord une strategie de mise en scene de la region. Les quartiers, les rues, les « espaces de transition » ainsi que les espaces cloisonnes ont eux aussi de diverses categories d’appropriations differentes. En effet, comme dans ce film (Belem do Para et alentours) on ne voit personne se deplacer entre un type d’espace approprie par la camera et un autre, il m’a fallu adopter deux strategies bien specifiques. Pour faire ressortir un changement d’ambiance, j’ai donc fait un arret sur photogramme accompagne d’un commentaire sur le parcours effectue d’un espace a l’autre. J’ai egalement accompagne d’un commentaire les images des paysages mis en scene au moyen de travellings ou de panoramiques. Une autre de mes experiences filmees, c’est celle que j’ai intitulee « Construction d’un edifice devant la place Gaston Baty a Paris ». Avant d’effectuer la mise en scene de ce film, j’avais deja une connaissance theorique de la construction. Dans ce film, mon utilisation de la « camera de contact » se limite aux heures de pause des ouvriers du chantier. J’ai passe le reste du temps, c’est-a-dire presqu’un an, en tant que simple observatrice des activites des ouvriers. Je me suis efforcee de mettre l’accent sur l’acte de bâtir en me servant surtout d’une focale moyenne, rarement d’une focale longue. Je n’ai utilise de focale courte que pour accompagner les modifications de l’espace, resultat des travaux executes par toute une equipe. J’ai egalement, et de facon exceptionnelle adopte un poste d’observation extra-focal reel compense par un poste d’observation intra-focal fictif. C’est ainsi que j’ai filme une demi-heure d’une journee entiere de travail. Ma troisieme experience a ete le tournage de trois films au Japon. J’ai d’abord tourne un film dans la banlieue d’Osaka (« Les Yamamoto dans la banlieue d’Osaka ») ou les types d’espace varient en fonction de la surface du terrain. Ils vont de la piece d’une maison a l’etendue du quartier ou habite la famille proprietaire de la maison. La strategie que j’ai adoptee pour faire ce film est bien differente de celle de « Belem do Para et alentour ». En effet, j’ai mis des personnes en scene. Les espaces des rues, des rizieres, des cimetieres etc sont toujours presentes avec des membres de la famille Yamamoto. Le deuxieme de ces films tournes au Japon (« La refection d’une tatami ») montre les activites quotidiennes d’un artisan, voisin de la famille Yamamoto. Le type d’espace predominant de ce film est appele par Claudine de France « espace operatoire » (cf. C. De France, p. 372 « Cinema et Anthropologie », Paris, Maison des Sciences de l’Homme, 1982, 400p. ). Dans mon troisieme film « japonais », « Bamboo babies ou Takenokogroup » c’est la place publique qui est appropriee par la camera pendant les activites dominicales d’un groupe de jeunes rockeurs d’Osaka. Dans tous mes films, j’ai analyse et justifie l’utilisation de focales differentes selon l’expression de la presentation qui me semblaient essentielles. Finalement, j’ai effectue une analyse de la continuite et de la discontinuite de la presentation ainsi que l’equilibre entre la presentation et l’expression de chaque film. Pour ce faire, je suis partie d’un point de vue macrocenographique. Des mouvements strategiques de la camera traduisent les changements d’ambiance ainsi que le parcours avec ou sans personnages soit dans l’espace des villes, soit dans les espaces cloisonnes. L’equilibre entre presentation et expression appartient au rapport temps filmique-temps reel des activites filmees liees a l’expression du cineaste.</t>
+          <t>Abstract The incidence of non‐allelic interaction for fitness in a diallelic digenic model is analyzed. Three types of interaction between the fitnesses are considered, namely: i) additive, ii) exponential and, iii) logarithmic. The model of MATHER and JINKS (1970) is applied in the computation of the interaction parameters. The theory of finite absorbing Markov chains (FELLER, 1968) is utilized in the representation of the genotypic structure of the selfing population over time. Expressions depending on the parameters of interaction are obtained for the mean number of generations that the process of genetic information flow delays in transitions among transient states. Also, a numerical example is studied in which the mean absorption times and the variances are calculated. Finally, the impact of fitness interaction on the genetic diversity of some populations is analyzed through the calculation of the genetic information neg‐entropy (BRILLOUIN, 1959).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990123427</t>
+          <t>https://openalex.org/W4319786062</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1155/2019/2763093</t>
+          <t>https://doi.org/10.1080/00295639.2022.2153617</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chen et al. (2019)</t>
+          <t>Kowal et al. (2023)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Association between Serum Uric Acid and Non-Alcoholic Fatty Liver Disease according to Different Menstrual Status Groups</t>
+          <t>Enhancing Monte Carlo Workflows for Nuclear Reactor Analysis with Metamodel-Driven Modeling</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>The present study aimed to explore the association between SUA and NAFLD in women with different menstrual statuses.A total of 6043 women were selected from the Jidong and Kailuan communities for inclusion in the present study. The SUA levels of participants were divided into quartiles. NAFLD was determined by abdominal ultrasonography. Data from laboratory tests and clinical examination were collected, and basic information was obtained from standardized questionnaires. The menstrual status was stratified into menstrual period, menopause transition period, and postmenopause. Multivariate logistic regression models were used to determine the relationship between menstrual status, SUA, and NAFLD.The levels of SUA in subjects with NAFLD in the menstrual period, menopause transition period, and postmenopause were 268.0 ± 71.1, 265.6 ± 67.8, and 286.7 ± 75.8 (mmol/L), respectively, and were higher than those in subjects without NAFLD. The adjusted odds ratios (ORs) with 95% confidence interval (CI) for NAFLD among participants in the menopause transition period and postmenopausal period were 1.10 (0.89-1.37) and 1.28 (1.04-1.58), respectively, compared with the menstrual period women. Compared to the lowest quartile of SUA, the adjusted ORs with 95% CI of the highest quartile for NAFLD were 2.24 (1.69-2.99) for females in the menstrual period, 1.92 (1.10-3.37) for females in the menopause transition period, and 1.47 (1.06-2.03) for females in postmenopause.Menstrual status was significantly correlated with NAFLD. High levels of SUA were associated with NAFLD in females during the three menstrual periods.</t>
+          <t>AbstractMonte Carlo codes are essential components of many reactor physics simulation workflows as high-fidelity continuous-energy neutron transport solvers. Among Monte Carlo radiation transport codes, MCNP is particularly notable due to its diverse simulation capabilities, large user base, and long validation history. Despite being a powerful simulation tool, MCNP provides limited capabilities to allow automated execution, model transformation, or support for user-defined logic and abstractions that limit its compatibility with modern workflows. To better integrate MCNP into a modern scientific workflow, we have developed an intuitive yet full-featured MCNP Application Program Interface (API) in Python, named MCNPy, which provides a specialized set of classes for MCNP input development. Moreover, to guarantee that our reading, writing, and modeling capabilities remain self-consistent (and to render the huge scope of the MCNP API manageable), we have adopted a strategy of model-driven software development in which a generalized model of the MCNP input format has been created. From this generalized model, or “metamodel,” problem-specific implementations such as an engine for input validation or a codebase for programmatic operations may be automatically generated. Since MCNPy primarily acts as a Python front-end to the underlying Java API that directly interfaces with the metamodel, it is intrinsically linked to the metamodel and thus remains maintainable. With MCNPy, users can programmatically read, write, and modify any syntactically valid MCNP input file regardless of its origin. These capabilities allow users to automate complicated tasks like design optimization and model translation for nuclear systems. As examples, this work demonstrates the use of MCNPy to find the critical radius of a plutonium sphere and to translate a 9000+ line MCNP input file into a corresponding OpenMC model.Keywords: MCNPAPIPythonmetamodelMCNPy AcknowledgmentsThis material is based upon work supported by the NRC Office of Nuclear Regulatory Research under award number 31310020M0006. Partial support for this work also came from the U.S. Department of Energy Office of Nuclear Energy under award number DE-NE0008707. This research was performed under appointment of the third author to the Rickover Fellowship Program in Nuclear Engineering sponsored by the Naval Reactors Division of the National Nuclear Security Administration.Disclosure StatementNo potential conflict of interest was reported by the authors.Additional informationFundingThis work was supported by the U.S. Nuclear Regulatory Commission [31310020M0006]; the U.S. Department of Energy Office of Nuclear Energy’s Nuclear Energy University Programs [DE-NE0008707].</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065259353</t>
+          <t>https://openalex.org/W1602556105</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/bimj.4710360217</t>
+          <t>https://doi.org/10.1002/0471028959.sof320</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bartoloni (1994)</t>
+          <t>Harauz (2002)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Influence of the Interaction for Fitness on the Population Structure</t>
+          <t>Software Engineering Standards in the Nuclear Power Industry—Safety‐Related Applications</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Abstract The incidence of non‐allelic interaction for fitness in a diallelic digenic model is analyzed. Three types of interaction between the fitnesses are considered, namely: i) additive, ii) exponential and, iii) logarithmic. The model of MATHER and JINKS (1970) is applied in the computation of the interaction parameters. The theory of finite absorbing Markov chains (FELLER, 1968) is utilized in the representation of the genotypic structure of the selfing population over time. Expressions depending on the parameters of interaction are obtained for the mean number of generations that the process of genetic information flow delays in transitions among transient states. Also, a numerical example is studied in which the mean absorption times and the variances are calculated. Finally, the impact of fitness interaction on the genetic diversity of some populations is analyzed through the calculation of the genetic information neg‐entropy (BRILLOUIN, 1959).</t>
+          <t>Abstract Nuclear power is very much an international industry. U.S., Canadian, and European vendors are actively involved in the deployment of modern nuclear reactors (including I&amp;amp;C systems) in Asia. I&amp;amp;C systems are routinely delivered across national boundaries; for instance U.S. designed systems have been implemented in Czech Republic, Ukraine, and South Korea; German designed systems have been implemented throughout Europe and proposed for the United States; Canadian designed systems have been installed in Canada and South Korea. The Canadian software engineering technology for safety critical software has been considered for adoption in the development of new I&amp;amp;C safety‐related systems outside of Canada. Japanese I&amp;amp;C systems have proven reliable and should attract wider interest. The global nature of nuclear power points to the strong need for consistency in international sets of nuclear and other standards in addition to consistent approaches to licensing such systems. The application of standards in the nuclear industry is a nontrivial exercise. Many standards organizations worldwide develop standards that affect nuclear I&amp;amp;C systems. Developing a system in one country to one set of standards is no longer sufficient. As such systems cross national boundaries, they need to demonstrate conformance to more than one set of standards and must be licensable in the country of implementation. There is a broad consensus on general principles and approaches in the standards, and national licensing approaches are converging. However, there remain a number of specific issues on which consensus is still outstanding. Examples are the benefits to be gained from the use of formal methods, how to quantify the benefits from applying diversity principles to software, methods for measuring and achieving software reliability and requirements, and methods for the validation of transformation tools and of their output. As technology advances, issues of concern today may be solved, or new issues may arise. Nuclear industry standards and regulatory criteria will have to be periodically updated to keep pace with new international standards, increasing regulatory rigor with respect to software, fast‐paced computer technology advances, and experience gained, both within and outside the nuclear industry, for safety‐related computer‐based I&amp;amp;C systems.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995450923</t>
+          <t>https://openalex.org/W2156634548</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9783527817290.ch5</t>
+          <t>https://doi.org/10.1111/j.1728-4457.2013.00614.x</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Puthiaraj &amp; Ahn (2019)</t>
+          <t>Bélanger &amp; Bastien (2013)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Metal–Organic Frameworks as Catalysts</t>
+          <t>The Future Composition of the Canadian Labor Force: A Microsimulation Projection</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Metal–organic frameworks (MOFs) are emerging porous materials with large metal centers, high surface area, structural diversity, flexibility in the design of the active functional organic linkers, and potential for introducing multifunctional sites. They have attracted increasing attention for a range of applications, especially in catalysis. Herein, we review the recent research progress regarding heterogeneous catalysis using MOFs in various organic transformations including chiral reactions in liquid-phase reactions, emphasizing the diversity and significance of MOFs in catalysis based on the active sites such as metal nodes with uncoordinated sites, organic linkers and functionalized species, multifunctional catalytic sites combining metal and organic linkers, and guest species introduced into the pore space in MOFs.</t>
+          <t>This article charts the future transformations of the Canadian labor force population using a microsimulation projection model. The model takes into account differentials in demographic behavior and labor force participation of individuals according to their ethnocultural and educational characteristics. As a result of a rapid fall in fertility, the Canadian population is expected to age rapidly as baby boomers start to retire from the labor market in large numbers. In response to declining fertility, Canada raised its immigration intake at the end of the 1980s, and immigration is now the main driver of Canadian population growth. At the same time, immigrants to Canada are becoming more culturally diversified. Over the last half century, the main source regions have shifted from Europe to Asia. Results of the microsimulation show that Canada's labor force population will continue to increase, but at a slower rate than in the recent past. By 2031, almost one third of the country's total labor force could be foreign‐born, and almost all its future increase is expected to be among university graduates, while the less‐educated labor force is projected to decline.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365800751</t>
+          <t>https://openalex.org/W2018444071</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2979/mande.23.1.11</t>
+          <t>https://doi.org/10.1017/s0266467414000728</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sow (2022)</t>
+          <t>Rocha et al. (2014)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>The Future of Mande Studies: Views from the Literary</t>
+          <t>Positive association between &lt;i&gt;Bromelia balansae&lt;/i&gt; (Bromeliaceae) and tree seedlings on rocky outcrops of Atlantic forest</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The Future of Mande Studies: Views from the Literary Alioune Sow (bio) The literary domain represents a key source for a discussion on the future of Mande studies. A substantial corpus of oral and written narratives has long engaged with transformations of the Mande territories, providing contrasting interpretations of Mande experiences and raising questions about the significance of the concept of Mande itself and its identification and meanings. Analyzing Mande realities through literary works can be a complex exercise partly due to competing interpretations of the narratives. Texts such as those of Seydou Badian Kouyaté (Sous l’orage, 1954), Camara Laye (L’enfant noir, 1953), Fily Dabo Sissoko (La savane rouge, 1962), Massa Makan Diabaté (Comme une piqûre de guêpe, 1980), and Moussa Konaté (Fils du chaos, 1986) have been interpreted by some as powerful and unique explorations of Mande modernity and as evidence of its unique forms of cosmopolitanism (Keita 1995). Others interpret these narratives as either exemplifying the loss of cultural landmarks underlining the erosion of specific Mande ways of life or, in the case of readings of Konaté, the necessary emancipation from the constraints that Mande traditional values impose on the individual (Nissim 1993). In addition, discordant interpretations of Mande’s evolutions are also due to the generic categorization that tends to oppose readings of written production to those of oral production. Oral literature is regarded as the embodiment of “Mandeness,” to use Amselle’s term (Amselle 1998, 56), since [End Page 169] Mande realities and values are central to the features, narrative conventions, contents, ideologies, and purposes of the oral production (Belcher 1999, 64). Contrary to oral literature, and certainly due to the themes, sociology, and reception of the texts, written production is often perceived skeptically as being “Mande” and more equivocal in its engagement with Mande experiences. While engagement with Mande undoubtedly differs between oral and written literatures, the contrast may be overestimated since both genres share similar features and concerns about Mande and its future (Kane 1982, 62; Keita 1995). For instance, in the Entretiens avec Balla Kanté, Jan Jansen and Mountaga Diarra point to a long list of changes affecting Mande territories such as “l’inclusion dans l’ensemble mondial, la soumission aux pouvoirs extérieurs, la monétarisation de la vie quotidienne, l’introduction du salariat et des nouvelles technologies, l’abandon des anciennes coutumes et des formes d’association et d’organisation sociale, l’introduction d’une nouvelle morale sexuelle, les changements climatologiques” (2006, 9). Jansen’s reflection on the vicissitudes of the “inclusion” of Mande societies into “l’ordre mondial” can be easily applied to the written production. Consider canonical works such as Camara Laye’s L’enfant noir, Seydou Badian’s Sous l’orage, Ahmadou Kourouma’s Les soleils des indépendances (1968), Massa Makan Diabaté’s Comme une piqûre de guêpe, Moussa Konaté’s Fils du chaos, or Mandé Alpha Diarra’s Sahel sanglante sécheresse (1981). These texts exemplify what Christopher Miller has called “Mande subjectivities” and emphasize “what is specific to the Mande” (Miller 1990, 167). Indeed, in their narratives Badian, Camara Laye, Diabaté, and Diarra probe unique ways of life, identify distinct historical trajectories and itineraries, and create bodies of knowledge and experiences defined by Mande values and customs. At the same time, and without exception, all these narratives acknowledge the irreversible transformations of Mande realities, accounting for the metamorphoses of territories and societies and debating at length about the emergence of new political ideas, orders, and sensibilities (Badian, Kourouma, and Konaté). Some of these cultural transformations followed from the introduction of colonial education (Badian, Laye), relations between Mande and its neighbors and its changing demographics (Diabaté), increased mobility from rural to urban areas and across national borders (Badian, Kourouma, Konaté, and Diarra), and the expansion of Islam and new forms of religiosity (Laye, Diabaté, and Konaté). Most importantly, these writings point to the dilution of Mande ways of life. From Badian to Diarra, the narratives tell us about familial and social tensions stemming from the diffusion and adoption of outside values that inevitably alter Mande political and cultural institutions. Whether in colonial or decolonial contexts, the narratives speculate about...</t>
+          <t>Abstract: Plant facilitation can improve the diversity of plant communities in several ecosystems, especially in stressful environments. The establishment of tree species on rocky outcrops can be limited by several biotic and abiotic factors. The richness and abundance of forest trees species on rocky outcrops surrounded by a large forest remnant in south Brazil were correlated with the cover of Bromelia balansae , a spiny stoloniferous species commonly occurring at forest–grassland transitions. Sixty plots were established on three flat rocky outcrops (20 in each). In each plot the coverage of bromeliads was estimated into three classes (0%, 1–50% and 51–100%) and all seedlings (individuals 10–30 cm in height) were counted and identified. ANOVAs with randomization tests were performed to establish the effect of different bromeliad cover classes on the richness and abundance of seedlings. The cover of bromeliads was positively related to the richness and abundance of young pioneer tree species. Evidence suggests that B. balansae can act as a nurse plant for tree seedlings, but manipulative experiments are needed to confirm this.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1602556105</t>
+          <t>https://openalex.org/W4386307673</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/0471028959.sof320</t>
+          <t>https://doi.org/10.1016/j.gfs.2023.100715</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Harauz (2002)</t>
+          <t>N.A. et al. (2023)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Software Engineering Standards in the Nuclear Power Industry—Safety‐Related Applications</t>
+          <t>The nascent state of urban food policy action in Asian cities</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Abstract Nuclear power is very much an international industry. U.S., Canadian, and European vendors are actively involved in the deployment of modern nuclear reactors (including I&amp;amp;C systems) in Asia. I&amp;amp;C systems are routinely delivered across national boundaries; for instance U.S. designed systems have been implemented in Czech Republic, Ukraine, and South Korea; German designed systems have been implemented throughout Europe and proposed for the United States; Canadian designed systems have been installed in Canada and South Korea. The Canadian software engineering technology for safety critical software has been considered for adoption in the development of new I&amp;amp;C safety‐related systems outside of Canada. Japanese I&amp;amp;C systems have proven reliable and should attract wider interest. The global nature of nuclear power points to the strong need for consistency in international sets of nuclear and other standards in addition to consistent approaches to licensing such systems. The application of standards in the nuclear industry is a nontrivial exercise. Many standards organizations worldwide develop standards that affect nuclear I&amp;amp;C systems. Developing a system in one country to one set of standards is no longer sufficient. As such systems cross national boundaries, they need to demonstrate conformance to more than one set of standards and must be licensable in the country of implementation. There is a broad consensus on general principles and approaches in the standards, and national licensing approaches are converging. However, there remain a number of specific issues on which consensus is still outstanding. Examples are the benefits to be gained from the use of formal methods, how to quantify the benefits from applying diversity principles to software, methods for measuring and achieving software reliability and requirements, and methods for the validation of transformation tools and of their output. As technology advances, issues of concern today may be solved, or new issues may arise. Nuclear industry standards and regulatory criteria will have to be periodically updated to keep pace with new international standards, increasing regulatory rigor with respect to software, fast‐paced computer technology advances, and experience gained, both within and outside the nuclear industry, for safety‐related computer‐based I&amp;amp;C systems.</t>
+          <t>While the important role of cities in food system transformation has long been understood, there is a more recent recognition that food-related outcomes also have an important influence on how well cities can achieve their own broad socio-economic and other aspirations. This recognition has led many cities, around the world, to engage more actively in food policies and programs. The literature documenting this experience is largely case study-based and primarily covers actions and outcomes in larger cities. We analyze the overall state of urban food policy across Asia, drawing attention to distinctive patterns across city size categories and testing hypotheses which may explain the diversity of observed patterns of food policy engagement. Particular attention is given to demographic, institutional, and geographical factors which have likely influenced either the motivation or the capacities of cities to act on food matters. We find that most Asian cities are at an early stage in efforts to apply coherent and coordinated approaches to address food-related challenges and opportunities. The opportunities for future economic gain and avoidance of social costs may be greatest among the region's fast-growing small- and medium-sized cities, yet many such cities lack the requisite capacities to influence complex food system matters and will require assistance from national agencies and others.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1577625429</t>
+          <t>https://openalex.org/W2016766836</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/str.45.suppl_1.wp333</t>
+          <t>https://doi.org/10.1046/j.1365-2133.2001.03956.x</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cahill et al. (2014)</t>
+          <t>Ross et al. (2001)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Abstract W P333: Medications for Secondary Stroke Prevention at Hospital Discharge in Da Nang, Viet Nam</t>
+          <t>Phenotypic and genotypic characterization of antibiotic-resistant Propionibacterium acnes isolated from acne patients attending dermatology clinics in Europe, the U.S.A., Japan and Australia</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Background: Developing countries, such as Viet Nam, are currently undergoing a health transition from infectious to chronic medical conditions, including vascular diseases. Medications for secondary stroke prevention may be underused. Our objectives were to quantify the frequency of such underuse and to identify patient characteristics associated with it. Methods: Data from consecutive patients admitted with stroke to Da Nang Hospital from March 2010 through February 2011 were collected using the WHO Stroke STEPS approach. Patients with ischemic stroke (IS) discharged alive, and not sent home to die, were included. Hypertension (HTN), diabetes mellitus (DM) and hyperlipidemia (HL) were conditions eligible for preventative medications at discharge. "Underuse" was defined as prescribing less than all appropriate medications, given each patient’s conditions. Patients with intraparenchymal hemorrhage were excluded from analyses. Multivariate associations with underuse were assessed for age, gender, number of conditions, stroke symptoms, employment status, level of education, hospital ward, and discharge modified Rankin scale. Results: Of 754 patients admitted with stroke, 260 patients met our inclusion criteria with a mean age of 67.2 years and with 42% women. Most had HTN (91.5%), and some, DM (9.6%) and HL (11.2%). Patients mostly had ≥ 2 conditions needing treatment at discharge (93.5 %). Underuse occurred in 69.2%, with only half being discharged on antithrombotic agents. Factors independently associated with underuse included older age (RR=1.06 per decade; 95% CI: 1.0-1.1), admission to the ward caring for most stroke patients (RR=2.3; 95% CI: 1.5-3.5), and completing only primary school education (RR=1.3; 95% CI: 1.1-1.7). Conclusions: Stroke patients discharged from Da Nang Hospital in Viet Nam are not consistently prescribed medications for secondary stroke prevention. A specific ward, older age, and lower education were independently associated with underuse of preventative medications. Opportunities exist to increase use of medications for secondary stroke prevention at the time of hospital discharge, but barriers will need to be identified.</t>
+          <t>Propionibacterium acnes is the target of antimicrobial treatments for acne vulgaris. Acquired resistance to erythromycin, clindamycin and tetracyclines has been reported in strains from diverse geographical loci, but the molecular basis of resistance, via mutations in genes encoding 23S and 16S rRNA, respectively, has so far only been elucidated for isolates from the U.K.To determine whether similar or different resistance mechanisms occur in resistant P. acnes isolates from outside the U.K.The phenotypes and genotypes of 73 antibiotic-resistant strains of P. acnes obtained from the skin of acne patients in the U.K., U.S.A., France, Germany, Australia and Japan were compared. Antibiotic susceptibilities were determined by minimum inhibitory concentration (MIC) measurements, and polymerase chain reaction and DNA sequencing were used to identify mutations in genes encoding rRNA.Most erythromycin-resistant isolates (MIC(90) &gt; or = 512 microg mL(-1)) were cross-resistant to clindamycin but at a much lower level (MIC(90) &gt; or = 64 microg mL(-1)). As in the U.K., resistance to erythromycin was associated with point mutations in 23S rRNA in 49 of 58 strains. An A--&gt;G transition at Escherichia coli equivalent base 2058 was present in 24 strains. This gave a unique cross-resistance phenotype against a panel of macrolide, lincosamide and type B streptogramin antibiotics. Two further point mutations (at E. coli equivalent bases 2057 and 2059) were identified (in three and 22 isolates, respectively) and these were also associated with specific cross-resistance patterns originally identified in isolates from the U.K. However, nine of 10 erythromycin resistant-strains from Germany did not exhibit any of the three base mutations identified and, in six cases, cross-resistance patterns were atypical. Consistent with previous U.K. data, 34 of 38 tetracycline-resistant strains carried a base mutation at E. coli 16S rRNA equivalent base 1058. Tetracycline-resistant isolates displayed varying degrees of cross-resistance to doxycycline and minocycline, but isolates from the U.S.A. had higher MICs for minocycline (4--16 microg mL(-1)) than isolates from other countries and, in particular, Australia. All the P. acnes isolates resistant to one or more of the commonly used antiacne antibiotics were sensitive to penicillin, fusidic acid, chloramphenicol and the fluoroquinolone, nadifloxacin. All but one isolate (from the U.K.) were sensitive to trimethoprim.This study shows that 23S and 16S mutations identified in the U.K. conferring antibiotic resistance in P. acnes are distributed widely. However, resistant strains were isolated in which mutations could not be identified, suggesting that as yet uncharacterized resistance mechanisms have evolved. This is the first report of high-level resistance to minocycline and is of concern as these strains are predicted to be clinically resistant and are unlikely to remain confined to the U.S.A. Epidemiological studies are urgently required to monitor how resistant strains are selected, how they spread and to ascertain whether the prevalence of resistance correlates with antibiotic usage patterns in the different countries.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018444071</t>
+          <t>https://openalex.org/W2046635277</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0266467414000728</t>
+          <t>https://doi.org/10.1074/jbc.m212639200</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Rocha et al. (2014)</t>
+          <t>Bosserhoff et al. (2003)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Positive association between &lt;i&gt;Bromelia balansae&lt;/i&gt; (Bromeliaceae) and tree seedlings on rocky outcrops of Atlantic forest</t>
+          <t>Specific Expression and Regulation of the New Melanoma Inhibitory Activity-related Gene MIA2 in Hepatocytes</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Abstract: Plant facilitation can improve the diversity of plant communities in several ecosystems, especially in stressful environments. The establishment of tree species on rocky outcrops can be limited by several biotic and abiotic factors. The richness and abundance of forest trees species on rocky outcrops surrounded by a large forest remnant in south Brazil were correlated with the cover of Bromelia balansae , a spiny stoloniferous species commonly occurring at forest–grassland transitions. Sixty plots were established on three flat rocky outcrops (20 in each). In each plot the coverage of bromeliads was estimated into three classes (0%, 1–50% and 51–100%) and all seedlings (individuals 10–30 cm in height) were counted and identified. ANOVAs with randomization tests were performed to establish the effect of different bromeliad cover classes on the richness and abundance of seedlings. The cover of bromeliads was positively related to the richness and abundance of young pioneer tree species. Evidence suggests that B. balansae can act as a nurse plant for tree seedlings, but manipulative experiments are needed to confirm this.</t>
+          <t>The novel human gene MIA2encoding a melanoma inhibitory activity (MIA) homologous protein was identified by a GenBankTM search. MIA2, together with MIA, OTOR, and TANGO, belongs to the novel MIA gene family sharing important structural features, significant homology at both the nucleotide and protein levels, and similar genomic organization. In situ hybridization, reverse transcriptase-PCR, and Northern blots presented a highly tissue-specific MIA2 expression pattern in the liver. Promoter studies analyzing transcriptional regulation of MIA2 revealed an HNF-1-binding site at position −236 controlling hepatocyte-specific expression. Mutation of the site led to a complete loss of promoter activity in HepG2 cell. Further sites detected in the MIA2 promoter were consensus binding sites for SMAD and STAT3, Consistently, stimulation of MIA2 mRNA expression occurred by treatment with interleukin-6, transforming growth factor-β, and conditioned medium from activated hepatic stellate cells. In accordance with these results, MIA2 mRNA was found to be increased in liver tissue of patients with chronic hepatitis C infection compared with controls. MIA2 mRNA levels were significantly higher in patients with severe fibrosis or inflammation than in patients with less severe fibrosis or inflammation. In summary our data indicate that MIA2 represents a potential novel acute phase protein and MIA2 expression responds to liver damage. The increased transcription in more severe chronic liver disease suggests that MIA2 may serve as a marker of hepatic disease activity and severity. The novel human gene MIA2encoding a melanoma inhibitory activity (MIA) homologous protein was identified by a GenBankTM search. MIA2, together with MIA, OTOR, and TANGO, belongs to the novel MIA gene family sharing important structural features, significant homology at both the nucleotide and protein levels, and similar genomic organization. In situ hybridization, reverse transcriptase-PCR, and Northern blots presented a highly tissue-specific MIA2 expression pattern in the liver. Promoter studies analyzing transcriptional regulation of MIA2 revealed an HNF-1-binding site at position −236 controlling hepatocyte-specific expression. Mutation of the site led to a complete loss of promoter activity in HepG2 cell. Further sites detected in the MIA2 promoter were consensus binding sites for SMAD and STAT3, Consistently, stimulation of MIA2 mRNA expression occurred by treatment with interleukin-6, transforming growth factor-β, and conditioned medium from activated hepatic stellate cells. In accordance with these results, MIA2 mRNA was found to be increased in liver tissue of patients with chronic hepatitis C infection compared with controls. MIA2 mRNA levels were significantly higher in patients with severe fibrosis or inflammation than in patients with less severe fibrosis or inflammation. In summary our data indicate that MIA2 represents a potential novel acute phase protein and MIA2 expression responds to liver damage. The increased transcription in more severe chronic liver disease suggests that MIA2 may serve as a marker of hepatic disease activity and severity. melanoma inhibitory activity reverse transcriptase interleukin transforming growth factor β tumor necrosis factor-α lipopolysaccharide phorbol myristyl acetate hepatic stellate cells α1-antitrypsin α2-macrogobulin α1-acid glycoprotein α1-antichymotrypsin Src homology 3 Melanoma inhibitory activity (MIA)1 protein was identified previously within growth-inhibiting activities purified from the tissue culture supernatant of the human melanoma cell line HTZ-19 (1Bogdahn U. Apfel R. Hahn M. Gerlach M. Behl C. Hoppe J. Martin R. Cancer Res. 1989; 49: 5358-5363PubMed Google Scholar). MIA is translated as a 131-amino acid precursor molecule and is processed into a mature 107-amino acid protein after cleavage of a hydrophobic secretion signal. The position within the human genome was mapped to chromosome 19q13.32-13.33 (2Koehler M.R. Bosserhoff A. von Beust G. Bauer A. Blesch A. Buettner R. Schlegel J. Bogdahn U. Schmid M. Genomics. 1996; 35: 265-267Crossref PubMed Scopus (33) Google Scholar). MIA mRNA was identified independently by differential display approaches comparing melanoma cell lines and also comparing differentiated and dedifferentiated cartilage cells in vitro. Therefore, MIA has also been referred to as cartilage-derived retinoic acid-sensitive protein (3Dietz U.H. Sandell L.J. J. Biol. Chem. 1996; 271: 3311-3316Abstract Full Text Full Text PDF PubMed Scopus (119) Google Scholar). Subsequent studies of murine embryos and murine adult tissues demonstrated specific mRNA expression patterns in cartilage but not in any other non-neoplastic tissue (4Bosserhoff A.K. Kondo S. Moser M. Dietz U.H. Copeland N.G. Gilbert D.J. Jenkins N.A. Buettner R. Sandell L.J. Dev. Dyn. 1997; 208: 516-525Crossref PubMed Scopus (103) Google Scholar). Functionally, MIA was initially purified and described to exert a</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285031098</t>
+          <t>https://openalex.org/W4200216148</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/3536169.3537779</t>
+          <t>https://doi.org/10.1111/jols.12333</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Escalante &amp; Mortimer (2022)</t>
+          <t>Bryson (2021)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Value-mapping transitions into the Pluriverse</t>
+          <t>The politics of preservation: oral history, socio‐legal studies, and praxis</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>research-article Share on Value-mapping transitions into the Pluriverse: Design notes on Participatory Methods, Traditional Ecological Knowledge and Emergency Community Resilience within the Ring of Fire Authors: Maria Alejandra Lujan Escalante School of Design, London College of Communication. University of the Arts London, UK School of Design, London College of Communication. University of the Arts London, UKSearch about this author , Christine Mortimer Organisation, Work and Technology/Management School, Lancaster University, UK Organisation, Work and Technology/Management School, Lancaster University, UKSearch about this author Authors Info &amp; Claims PDC '22: Proceedings of the Participatory Design Conference 2022 - Volume 1August 2022 Pages 50–62https://doi.org/10.1145/3536169.3537779Published:19 August 2022Publication History 0citation47DownloadsMetricsTotal Citations0Total Downloads47Last 12 Months47Last 6 weeks6 Get Citation AlertsNew Citation Alert added!This alert has been successfully added and will be sent to:You will be notified whenever a record that you have chosen has been cited.To manage your alert preferences, click on the button below.Manage my AlertsNew Citation Alert!Please log in to your account Save to BinderSave to BinderCreate a New BinderNameCancelCreateExport CitationPublisher SiteGet Access</t>
+          <t>Abstract Oral history is a surprisingly under‐utilized resource in socio‐legal studies. This article explores some of the theoretical and experiential reasons for this deficiency. It begins with an overview of both fields to date, including instances of intellectual collaboration. It then considers tensions between qualitative and oral history interviews under the overlapping themes of preservation, accountability, and agency. The concluding section develops these theoretical arguments in light of ongoing ‘real‐world’ work in transitional justice. I argue in favour of a flexible, pragmatic, and imaginative response to the politics of oral history preservation and a more critical approach to the relationship between oral history, law, and politics. This is designed to encourage the collection and preservation of material that is otherwise side‐stepped, censored, or destroyed. Such an approach would yield benefits not only for the vexed process of ‘dealing with the past’ in post‐conflict societies but for socio‐legal scholarship more generally.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2989634271</t>
+          <t>https://openalex.org/W2019259807</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/26410397.2019.1686198</t>
+          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Feld et al. (2019)</t>
+          <t>Buttriss (2008)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>“We keep quiet”: exploring the context of pregnancy intention in a low-resource community in Ecuador</t>
+          <t>Health policy set to tackle obesity</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Unintended pregnancies are both a consequence and a cause of socioeconomic inequality. Family planning prevents unintended pregnancy and reduces health disparities. The purpose of this study is to describe the structural, social, economic context of pregnancy intention in a peri-urban, diverse, low-resource community in Ecuador. A qualitative descriptive methodology was used. Semi-structured individual interviews were performed with 19 female participants of reproductive age. Interviews were professionally transcribed in Spanish, translated into English, and analysed in MAXQDA using content analysis. The majority of pregnancies were reported as unintended and four themes emerged to describe the context. (1) Women's autonomy is limited by men, (2) Women keep quiet, (3) Systems failed women, and (4) Building resilience. Health systems, gender-based violence, limited education and financial means, and policies yet to be enforced served as barriers to both empowerment and family planning. In spite of this, many women were able to transition into safety, and prevent or delay pregnancy with new partners. Ecuador has made significant economic gains in the past two decades, but these findings suggest that inequality persists in some regions of Ecuador. The women in this study report needing to feel safe, productive and valued to plan their families. Public health professionals need to involve multi-sectors in solutions to reduce health disparities and address determinants of maternal/child health including gender-based violence, economic and systemic limitations. DOI:10.1080/26410397.2019.1686198</t>
+          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200216148</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/jols.12333</t>
+          <t>https://openalex.org/W3211885409</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bryson (2021)</t>
+          <t>Tinel et al. (2018)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>The politics of preservation: oral history, socio‐legal studies, and praxis</t>
+          <t>De la Universidad a la Pluriversidad Alternativas educativas en América Latina para otros “desarrollos”</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Abstract Oral history is a surprisingly under‐utilized resource in socio‐legal studies. This article explores some of the theoretical and experiential reasons for this deficiency. It begins with an overview of both fields to date, including instances of intellectual collaboration. It then considers tensions between qualitative and oral history interviews under the overlapping themes of preservation, accountability, and agency. The concluding section develops these theoretical arguments in light of ongoing ‘real‐world’ work in transitional justice. I argue in favour of a flexible, pragmatic, and imaginative response to the politics of oral history preservation and a more critical approach to the relationship between oral history, law, and politics. This is designed to encourage the collection and preservation of material that is otherwise side‐stepped, censored, or destroyed. Such an approach would yield benefits not only for the vexed process of ‘dealing with the past’ in post‐conflict societies but for socio‐legal scholarship more generally.</t>
+          <t>espanolEl cambio climatico, las crisis sistemicas de una economia que incrementa las desigualdades en vez de reducirlas, y el exodo anual de millones de personas de su tierra por el hambre o la guerra, son algunas de las patologias de un modelo de civilizacion en crisis. Frente a la velocidad de los cambios, las universidades son entidades esenciales en la sociedad para facilitar las transiciones requeridas hacia otras concepciones del mundo y de las relaciones entre el ser humano y la naturaleza. Empero, al reconocerse a si misma como la fuente monopolistica del conocimiento y de la verdad, se ha adjudicado tambien a esta institucion casi milenaria parte de la responsabilidad en esta crisis. En America Latina, desde hace mas de una decada, estan surgiendo otras propuestas educativas como las de las Universidades interculturales, la Universidad de la Tierra, o aun de universidades que se reivindican del o para el buen vivir como instituciones de educacion superior que estan haciendo eco a apuestas distintas de construccion de conocimiento y pretenden ofrecer otro modelo educativo de ensenanza y aprendizaje, mas diverso e inclusivo; asi, este trabajo analiza las diversas experiencias y perspectivas de Educacion Superior en la Universidad del Siglo XXI en America latina que han incorporado las nociones de interculturalidad y Buen Vivir en sus diferentes estrategias o apuestas curriculares como alternativas a los modelos hegemonicos y con un vinculo particular con los ejercicios comunitarios. Por ello esta investigacion reflexiona alrededor de los siguientes interrogantes: ?De que manera la educacion para el desarrollo promueve y acompana esos otros desarrollos o alternativas al desarrollo en Latinoamerica? y ?Que tan alternativas y vinculantes son estas otras apuestas de educacion superior hoy en el mundo? EnglishThis paper analyzes different experiences and perspectives of higher education in Latin America who have incorporated the notions of interculturality and Good Living in their curricular strategies, as an alternative to the hegemonic models of development and linked to community exercises, more diverse and inclusive. In this region, these educational proposals embody different modalities of knowledge construction and aim to erect another educational and learning model of education; therefore, they represent essential means to facilitate required transitions towards other conceptions of the world and relationships between humans and nature. RESUMEN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2749363332</t>
+          <t>https://openalex.org/W3040864496</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.watres.2020.116133</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Poznanović &amp; Stasikelis (2017)</t>
+          <t>Durán et al. (2020)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Properties of the Promotion Markov Chain on Linear Extensions</t>
+          <t>Modeling the anaerobic treatment of sulfate-rich urban wastewater: Application to AnMBR technology</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>The Tsetlin library is a very well studied model for the way an arrangement of books on a library shelf evolves over time. One of the most interesting properties of this Markov chain is that its spectrum can be computed exactly and that the eigenvalues are linear in the transition probabilities. This result has been generalized in different ways by various people. In this work we investigate one of the generalizations given by the extended promotion Markov Chain on linear extensions of a poset $P$ introduced by Ayyer, Klee, and Schilling in 2014. They showed that if the poset $P$ is a rooted forest, the transition matrix of this Markov chain has eigenvalues that are linear in the transition probabilities and described their multiplicities. We show that the same property holds for a larger class of posets for which we also derive convergence to stationarity results.</t>
+          <t>Although anaerobic membrane bioreactors (AnMBR) are a core technology in the transition of urban wastewater (UWW) treatment towards a circular economy, the transition is being held back by a number of bottlenecks. The dissolved methane released from the effluent, the need to remove nutrients (ideally by recovery), or the energy lost by the competition between methanogenic and sulfate-reducing bacteria (SRB) for the biodegradable COD have been identified as the main issues to be addressed before AnMBR becomes widespread. Mathematical modeling of this technology can be used to obtain further insights into these bottlenecks plus other valuable information for design, simulation and control purposes. This paper therefore proposes an AnMBR anaerobic digestion model to simulate the crucial SRB-related process since these bacteria degrade more than 40% of the organic matter. The proposed model, which is included in the BNRM2 collection model, has a reduced but all-inclusive structure, including hydrolysis, acidogenesis, acetogenesis, methanogenesis and other SRB-related processes. It was calibrated and validated using data from an AnMBR pilot plant treating sulfate-rich UWW, including parameter values obtained in off-line experiments and optimization methods. Despite the complex operating dynamics and influent composition, it was able to reproduce the process performance. In fact, it was able to simulate the AD of sulfate-rich UWW considering only two groups of SRB: heterotrophic SRB growing on both VFA (propionate) and acetate, and autotrophic SRB growing on hydrogen. Besides the above-mentioned constraints, the model reproduced the dynamics of the mixed liquor solids concentration, which helped to integrate biochemical and filtration models. It also reproduced the alkalinity and pH dynamics in the mixed liquor required for assessing the effect of chemical precipitation on membrane scaling.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019259807</t>
+          <t>https://openalex.org/W1991617345</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
+          <t>https://doi.org/10.1161/01.hyp.25.4.464</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Buttriss (2008)</t>
+          <t>Daemen &amp; Mey (1995)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Health policy set to tackle obesity</t>
+          <t>Regional Heterogeneity of Arterial Structural Changes</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
+          <t>Arterial structural changes in experimental models of hypertension and restenosis differ between vessel types and within vessels. Inspired by the diversity of short-term functional responses to vasoactive agents, hypotheses are presented with respect to the heterogeneity of structural alterations. Considered are the multifactorial nature of smooth muscle cell growth control and the possibility that vascular smooth muscle is not homogeneous but composed of different smooth muscle cell populations. These hypotheses may help explain the origin of both intervascular and intravascular heterogeneity of vascular structural responses.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W47711345</t>
+          <t>https://openalex.org/W1985122628</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Palmer (2006)</t>
+          <t>Chwalisz et al. (1992)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Narratives beyond civility : moral protest and cooperation in ethical communities</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>In spite of the rhetoric of partnership and collaboration in the Australian community sectors, economic values of competition have superseded social and co-operative values of self-help, empowerment, mutual benefit and solidarity. Reconfiguration of how co-operative practices can be understood in terms of social capital theory and civil society has been of limited success in countering this slide to economic rationalism. Ironically, many community practices, including co-operatives, explicitly emerged from moral protest against prevailing oppressive policies; that is co-operative and community development practices exist to embody an alternative set of values to oppressive features of dominant political and social institutions of the day.
-This thesis identifies and analyses the features of co-operative practices which resist economic capture by the dominant ideology of neo-liberalism. It examines how co-operative practices can be analysed as forms of moral protest that offer and embody counterstories to master narratives that shape dominant institutions. Importantly, it is understood that not all forms of moral protest are socially transformative. While fostering social change, co-operatives must also resist ossification of their own principles and practices into homogenised traditions that exclude rather than include others.
-To conduct this analysis, interviews were conducted with subjects engaged in co-operative activities. H. L. Nelson's (2001) narrative approach to ethics was used to identify how co-operatives can be positioned as counterstories to dominant narratives. T. Cooper's (1997) distinction between moral and ethical communities was then deployed to account for the features of co-operative practice that might lead to exclusion and non-co-operative identities. Finally, A.W. Frank's (1995) body-self type continuum was applied to co-operative practices to further evaluate the degree to which those who participated in these saw themselves contributing to practices of social transformation or defensive strategies of personal survival.</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3211885409</t>
+          <t>https://openalex.org/W4239966576</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5194/cp-2016-91</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tinel et al. (2018)</t>
+          <t>Bréant et al. (2016)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>De la Universidad a la Pluriversidad Alternativas educativas en América Latina para otros “desarrollos”</t>
+          <t>Modelling the firn thickness evolution during the last deglaciation: constrains on sensitivity to temperature and impurities</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>espanolEl cambio climatico, las crisis sistemicas de una economia que incrementa las desigualdades en vez de reducirlas, y el exodo anual de millones de personas de su tierra por el hambre o la guerra, son algunas de las patologias de un modelo de civilizacion en crisis. Frente a la velocidad de los cambios, las universidades son entidades esenciales en la sociedad para facilitar las transiciones requeridas hacia otras concepciones del mundo y de las relaciones entre el ser humano y la naturaleza. Empero, al reconocerse a si misma como la fuente monopolistica del conocimiento y de la verdad, se ha adjudicado tambien a esta institucion casi milenaria parte de la responsabilidad en esta crisis. En America Latina, desde hace mas de una decada, estan surgiendo otras propuestas educativas como las de las Universidades interculturales, la Universidad de la Tierra, o aun de universidades que se reivindican del o para el buen vivir como instituciones de educacion superior que estan haciendo eco a apuestas distintas de construccion de conocimiento y pretenden ofrecer otro modelo educativo de ensenanza y aprendizaje, mas diverso e inclusivo; asi, este trabajo analiza las diversas experiencias y perspectivas de Educacion Superior en la Universidad del Siglo XXI en America latina que han incorporado las nociones de interculturalidad y Buen Vivir en sus diferentes estrategias o apuestas curriculares como alternativas a los modelos hegemonicos y con un vinculo particular con los ejercicios comunitarios. Por ello esta investigacion reflexiona alrededor de los siguientes interrogantes: ?De que manera la educacion para el desarrollo promueve y acompana esos otros desarrollos o alternativas al desarrollo en Latinoamerica? y ?Que tan alternativas y vinculantes son estas otras apuestas de educacion superior hoy en el mundo? EnglishThis paper analyzes different experiences and perspectives of higher education in Latin America who have incorporated the notions of interculturality and Good Living in their curricular strategies, as an alternative to the hegemonic models of development and linked to community exercises, more diverse and inclusive. In this region, these educational proposals embody different modalities of knowledge construction and aim to erect another educational and learning model of education; therefore, they represent essential means to facilitate required transitions towards other conceptions of the world and relationships between humans and nature. RESUMEN</t>
+          <t>Abstract. The transformation of snow into ice is a complex phenomenon difficult to model. Depending on surface temperature and accumulation rate, it may take several decades to millennia for air to be entrapped in ice. The air is thus always younger that the surrounding ice. The resulting gas-ice age difference is essential to document the phasing between CO2 and temperature changes especially during deglaciations. The air trapping depth can be inferred in the past using a firn densification model, or using δ15N of air measured in ice cores. All firn densification models applied to deglaciations show a large disagreement with δ15N measurements in several sites of East Antarctica, predicting larger firn thickness during the Last Glacial Maximum, whereas δ15N suggests a reduced firn thickness compared to the Holocene. We present here modifications of the LGGE firn densification model, which significantly reduce the model-data mismatch for the gas trapping depth evolution over the last deglaciation, while preserving the good agreement between measured and modelled modern firn density profiles. In particular, we introduce a dependency of the activation energy to temperature and impurities in the firn densification rate calculation. The temperature influence reflects the existence of different mechanisms for firn compaction at different temperatures. We show that both the new temperature parameterization and the influence of impurities contribute to the increased agreement between modelled and measured δ15N evolution during the last deglaciation at sites with low temperature and low accumulation rate, such as Dome C or Vostok. However, the inclusion of impurities effects deteriorates the agreement between modelled and measured δ15N evolution in Greenland and Antarctic sites with high accumulation.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995315818</t>
+          <t>https://openalex.org/W2786717833</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.echo.2019.09.021</t>
+          <t>https://doi.org/10.1109/icmcce.2017.51</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pockros et al. (2020)</t>
+          <t>Xu et al. (2017)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>System-Wide Echocardiography Accreditation: Physician Perceptions and Concerns</t>
+          <t>Task Classification: Towards Tasks Correlation for Combinatorial Auction Mechanism in Crowdsourcing</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Echocardiography accreditation at outpatient imaging facilities has been reported to improve diagnostic quality, reduce interpretative variability, and increase imaging appropriateness.1Behera S. Smith S.N. Tracy T.A. Impact of accreditation on quality in echocardiograms: a quantitative approach.J Am Soc Echocardiogr. 2017; 30: 913-922Abstract Full Text Full Text PDF PubMed Scopus (10) Google Scholar, 2Daubert M.A. Yow E. Barnhart H.X. Quality improvement implementation: improving reproducibility in the echocardiography laboratory.J Am Soc Echocardiogr. 2015; 28: 959-968Abstract Full Text Full Text PDF PubMed Scopus (33) Google Scholar, 3Bhatia R.S. Milford C.E. Picard M.H. Weiner R.B. An educational intervention reduces the rate of inappropriate echocardiograms on an inpatient medical service.J Am Coll Cardiol Imaging. 2013; 6: 545-555Crossref Scopus (76) Google Scholar Historically, outpatient echocardiography facilities have individually applied for Intersocietal Accreditation Commission (IAC) accreditation. However, some health systems have recently experimented with “system-wide accreditation,” in which all of a hospital's affiliated echocardiography facilities apply for accreditation under the same IAC application and standards.4The Intersocietal Accreditation CommissionIAC standards and guidelines for adult echocardiography accreditation. Part A: organization. Section 6A: multiple sites (fixed and/or mobile).https://www.intersocietal.org/echo/standards/IACAdultEchocardiographyStandards2017.pdfDate accessed: August 7, 2019Google Scholar This new approach to accreditation may potentially reduce application expenditures, save resources, and promote collaborative cardiac care across a health network. There are currently no published studies evaluating physician perceptions about this novel approach to accreditation. We examined physician perceptions about echocardiography accreditation following a hospital's recent transition to system-wide echocardiography accreditation. Maximizing the potential benefits of system-wide accreditation will require hospital physicians to trust the quality of imaging and accuracy of interpretation from referring facilities. We e-mailed a survey to all 32 cardiologists and all 35 hospitalists at Maine Medical Center, a tertiary-care hospital in southern Maine, which recently transitioned to system-wide echocardiography accreditation for its 22 affiliated facilities in 2018. The survey consisted of seven questions presented as single-answer multiple choice, multiple-answer multiple choice, rating scale, and open ended, along with an opportunity for additional comments. All responses were anonymous. A statistical analysis was performed using Excel version 15.40 (Microsoft, Redmond, WA) software. We performed two-tailed unpaired t tests comparing cardiologist and hospitalist responses. P values were derived from Fisher's exact test for categorical variables and a Mann-Whitney U test for continuous variables. We accepted P &lt; .05 as significant. Physician responses to the questionnaire are reported in Table 1. We received 30 responses in total (45%): 17 from cardiologists (53%) and 13 from hospitalists (37%). Fourteen out of 17 cardiologists (82%) and 11 out of 13 hospitalists (85%) indicated that they do not consider echocardiography accreditation when evaluating an interpretation from a referral site; 29% of cardiologists reported, “I do not trust reports from physicians I am not familiar with, regardless of accreditation.”Table 1Physician responses to surveyCardiologists (n = 32)Hospitalists (n = 35)P valueResponse rate (n)53 (17)37 (13)—Ordered repeat echo: Yes100100 No00—Reason for repeat: Poor image quality5331.23 Images from unaccredited facility68.84 “Do not trust interpreting physician”290.03 Financial incentives00— Image not available7654.19 Change in patient clinical status6569.79 Other00—Consider IAC accreditation before repeat echo: Yes128.71 No8285.87 Other68.84More likely to repeat for specific patient population: Yes7638.03 No2462.04Repeat echo resulting in different diagnosis32.0 (CI, 23.2-40.7)23.2 (CI, 12.8-33.6).22“Unnecessary” repeat echo ordered in 2-week period6.4 (CI, 3.9-8.9)3.3 (CI, 1.4-5.2).09All data are shown as percentages unless otherwise indicated. Open table in a new tab All data are shown as percentages unless otherwise indicated. Physicians were asked to estimate how often they ordered an “unnecessary” repeat echocardiogram in a 2-week period. We defined unnecessary as reasons excluding changes in patient condition or unavailability of images. Cardiologists estimated that within a 2-week period, 6.4% (95% CI, 3.9%-8.9%) of echocardiograms ordered are unnecessary repeats. In comparison, 3.3% (95% CI, 1.4%-5.2%) of echocardiograms ordered by hospitalists were considered unnecessary repeats (P = .09). The findings of our study are an important consideration for hospitals considering IAC system-wide accreditation. We demonstrate that most physicians</t>
+          <t>People experience a revolution of society when the crowdsourcing period comes. The social reform changed the way of work and lifestyle. And the popularity of crowdsourcing has brought a new opportunity for mobile computing and online auctions. Because of the significance of incentivizing worker participation in crowdsourcing system, the correlative theories of auction-based incentive mechanisms have been proposed in past literature. Combinatorial auctions can be used to reach efficient resource and task allocations in Multi-agent systems where the items are complementary or substitutable. Although many good auction-based incentive mechanisms can attract more participation, facing a large-scale of complex social perception tasks in the market, a combinatorial auction mechanism which simply relies on to allocate resources is not efficiently. In order to solve this problem, we design two algorithm models to classify all crowdsourcing-tasks into many groups according to the intentions that the workers provided, and then the workers and the crowdsourcing platform start the combinatorial auction for each task-group. The first model, namely the frequent-driven model, adopts correlation analysis technology, and the second model, namely weight-driven model, use a method that combines the concept of weight and the hierarchical clustering technology to solve problems.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985122628</t>
+          <t>https://openalex.org/W4283585803</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
+          <t>https://doi.org/10.21248/gups.68649</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Chwalisz et al. (1992)</t>
+          <t>Pham (2022)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
+          <t>Analytic and numerical treatment of an effective lattice theory for heavy QCD at zero and finite density</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
+          <t>We discuss aspects of the phase structure of a three-dimensional effective lattice theory of Polyakov loops derived from QCD by strong coupling and hopping parameter expansions. The theory is valid for the thermodynamics of heavy quarks where it shows all qualitative features of nuclear physics emerging from QCD. In particular, the SU(3) pure gauge effective theory also exhibits a first-order thermal deconfinement transition due to spontaneous breaking of its global Z₃ center symmetry. The presence of heavy dynamical quarks breaks this symmetry explicitly and consequently, the transition weakens with decreasing quark mass until it disappears at a critical endpoint. At non-zero baryon density, the effective theory can be evaluated either analytically by the so-called high-temperature expansion which does not suffer from the sign problem, or numerically by standard Monte-Carlo methods due to its mild sign problem. The first part of this work devotes to a systematic derivation of the effective theory up to the 6th order in the hopping parameter κ. This method combined with the SU(3) link update algorithm provides a way to simulate the O(κ⁶) effective theory. The second part involves a study of the deconfinement transition of the pure gauge effective theory, with and without static quarks, at all chemical potentials with help of the high-temperature expansion. Our estimate of the deconfinement transition and its critical endpoint as a function of quark mass and all chemical potentials agrees well with recent Monte-Carlo simulations. In the third part, we investigate the N ſ ∈ {1,2} effective theory with zero chemical potential up to O(κ⁴). We determine the location of the critical hopping parameter at which the first-order deconfinement phase transition terminates and changes to a crossover. Our results for the critical endpoint of the O(κ²) effective theory are in excellent agreement with the determinations from simulations of four-dimensional QCD with a hopping expanded determinant by the WHOT-QCD collaboration. For the O(κ⁴) effective theory, our estimate suggests that the critical quark mass increases as the order of κ-contributions increases. We also compare with full lattice QCD with N ſ = 2 degenerate standard Wilson fermions and thus obtain a measure for the validity of both the strong coupling and the hopping expansion in this regime.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4239966576</t>
+          <t>https://openalex.org/W4394697342</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/cp-2016-91</t>
+          <t>https://doi.org/10.1007/978-981-99-8886-0_3</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bréant et al. (2016)</t>
+          <t>Panda &amp; Badar (2024)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Modelling the firn thickness evolution during the last deglaciation: constrains on sensitivity to temperature and impurities</t>
+          <t>Distribution Network Local Energy Market: A Comprehensive Review</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Abstract. The transformation of snow into ice is a complex phenomenon difficult to model. Depending on surface temperature and accumulation rate, it may take several decades to millennia for air to be entrapped in ice. The air is thus always younger that the surrounding ice. The resulting gas-ice age difference is essential to document the phasing between CO2 and temperature changes especially during deglaciations. The air trapping depth can be inferred in the past using a firn densification model, or using δ15N of air measured in ice cores. All firn densification models applied to deglaciations show a large disagreement with δ15N measurements in several sites of East Antarctica, predicting larger firn thickness during the Last Glacial Maximum, whereas δ15N suggests a reduced firn thickness compared to the Holocene. We present here modifications of the LGGE firn densification model, which significantly reduce the model-data mismatch for the gas trapping depth evolution over the last deglaciation, while preserving the good agreement between measured and modelled modern firn density profiles. In particular, we introduce a dependency of the activation energy to temperature and impurities in the firn densification rate calculation. The temperature influence reflects the existence of different mechanisms for firn compaction at different temperatures. We show that both the new temperature parameterization and the influence of impurities contribute to the increased agreement between modelled and measured δ15N evolution during the last deglaciation at sites with low temperature and low accumulation rate, such as Dome C or Vostok. However, the inclusion of impurities effects deteriorates the agreement between modelled and measured δ15N evolution in Greenland and Antarctic sites with high accumulation.</t>
+          <t>The rapid power grid transition from wholesale electricity market toward liberalized distribution market has evolved over a decade time with increasing penetration of distributed energy resources (DERs) and digitization of grid. It has facilitated two-way communication between the market players by enabling peer-to-peer (P2P) energy trading. P2P market allows flexible energy trades between peers, i.e., the local prosumers in a distribution network local energy market (D-LEM) framework. Such energy trading is challenging as it requires different market mechanism and different pricing scheme considering all the physical network constraints as well as uncertainties to be handled at the same time. This study briefs different aspects of D-LEM that have evolved in diverse market framework across different countries, their potential development and challenges.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3184756130</t>
+          <t>https://openalex.org/W4244003996</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/mtomcs/mfab046</t>
+          <t>https://doi.org/10.5089/9781513572833.002</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Edmonds et al. (2021)</t>
+          <t>NA (2021)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>COG0523 proteins: a functionally diverse family of transition metal-regulated G3E P-loop GTP hydrolases from bacteria to man</t>
+          <t>Kingdom of the Netherlands—Aruba: 2021 Article IV Consultation Discussions-Press Release; Staff Report; and Staff Supplement</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transition metal homeostasis ensures that cells and organisms obtain sufficient metal to meet cellular demand while dispensing with any excess so as to avoid toxicity. In bacteria, zinc restriction induces the expression of one or more Zur (zinc-uptake repressor)-regulated Cluster of Orthologous Groups (COG) COG0523 proteins. COG0523 proteins encompass a poorly understood sub-family of G3E P-loop small GTPases, others of which are known to function as metallochaperones in the maturation of cobalamin (CoII) and NiII cofactor-containing metalloenzymes. Here, we use genomic enzymology tools to functionally analyse over 80 000 sequences that are evolutionarily related to Acinetobacter baumannii ZigA (Zur-inducible GTPase), a COG0523 protein and candidate zinc metallochaperone. These sequences segregate into distinct sequence similarity network (SSN) clusters, exemplified by the ZnII-Zur-regulated and FeIII-nitrile hydratase activator CxCC (C, Cys; X, any amino acid)-containing COG0523 proteins (SSN cluster 1), NiII-UreG (clusters 2, 8), CoII-CobW (cluster 4), and NiII-HypB (cluster 5). A total of five large clusters that comprise ≈ 25% of all sequences, including cluster 3 which harbors the only structurally characterized COG0523 protein, Escherichia coli YjiA, and many uncharacterized eukaryotic COG0523 proteins. We also establish that mycobacterial-specific protein Y (Mpy) recruitment factor (Mrf), which promotes ribosome hibernation in actinomycetes under conditions of ZnII starvation, segregates into a fifth SSN cluster (cluster 17). Mrf is a COG0523 paralog that lacks all GTP-binding determinants as well as the ZnII-coordinating Cys found in CxCC-containing COG0523 proteins. On the basis of this analysis, we discuss new perspectives on the COG0523 proteins as cellular reporters of widespread nutrient stress induced by ZnII limitation.</t>
+          <t>Context.Aruba managed to contain the pandemic in the first months of the outbreak but experienced a resurgence of new infections in the summer.The economic impact of COVID-19 is particularly severe given Aruba's high dependency on tourism.While the authorities' swift response has helped contain the human and economic damage, it could not avoid a severe GDP contraction.Outlook and Risks.Real GDP is projected to have contracted 25½ percent in 2020, followed by continued weakness in 2021.Public debt spiked to 117 percent of GDP and is projected to peak at about 130 percent in 2021, exacerbating risks to debt sustainability.The outlook is subject to exceptionally high risks, reflecting the uncertain evolution of the COVID-19 pandemic and its impact on the tourism industry.Policy Recommendations.The authorities appropriately provided essential support to households and businesses.Facilitating the recovery while ensuring debt sustainability will require that:• Fiscal policy continues meeting immediate health and economic needs while narrowing the targeting of support measures to the most vulnerable sectors and individuals, given very limited fiscal room.Once the pandemic is in under control and the recovery is underway, the focus should move toward restoring debt sustainability and, subsequently, rebuilding buffers.• Monetary policy stays accommodative to uphold the recovery while maintaining reserve adequacy to safeguard the peg.• Financial policies remain supportive while closely monitoring financial stability risks and continuing enhancing the AML/CFT framework.• Structural reforms that limit permanent scarring on the tourism industry and labor market, catalyze economic diversification and productivity, and enhance governance are steadily implemented to foster resilient and inclusive medium-term growth.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2786717833</t>
+          <t>https://openalex.org/W3008635302</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmcce.2017.51</t>
+          <t>https://doi.org/10.1016/j.envsci.2020.02.017</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Xu et al. (2017)</t>
+          <t>Ainsworth et al. (2020)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Task Classification: Towards Tasks Correlation for Combinatorial Auction Mechanism in Crowdsourcing</t>
+          <t>Integrating scientific and local knowledge to address conservation conflicts: Towards a practical framework based on lessons learned from a Scottish case study</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>People experience a revolution of society when the crowdsourcing period comes. The social reform changed the way of work and lifestyle. And the popularity of crowdsourcing has brought a new opportunity for mobile computing and online auctions. Because of the significance of incentivizing worker participation in crowdsourcing system, the correlative theories of auction-based incentive mechanisms have been proposed in past literature. Combinatorial auctions can be used to reach efficient resource and task allocations in Multi-agent systems where the items are complementary or substitutable. Although many good auction-based incentive mechanisms can attract more participation, facing a large-scale of complex social perception tasks in the market, a combinatorial auction mechanism which simply relies on to allocate resources is not efficiently. In order to solve this problem, we design two algorithm models to classify all crowdsourcing-tasks into many groups according to the intentions that the workers provided, and then the workers and the crowdsourcing platform start the combinatorial auction for each task-group. The first model, namely the frequent-driven model, adopts correlation analysis technology, and the second model, namely weight-driven model, use a method that combines the concept of weight and the hierarchical clustering technology to solve problems.</t>
+          <t>Integrating local knowledge with scientific knowledge can offer significant benefits to improving environmental decision-making. However, this is especially challenging in environmental conflict situations where advice is lacking, and no single approach can foster conflict transformation. To understand stakeholder knowledge and its integration in a conflict transformation process in Scotland, we brought together diverse stakeholder organisations and encouraged power sharing in the project’s management. Our mixed-methods approach was based on theories of community science, knowledge co-production, knowledge integration and implementation and conflict transformation. We gathered stakeholder perceptions to see where local and scientific knowledge converged and diverged. Stakeholders holding opposing views mutually prioritised knowledge gaps and identified future collaborative actions. Building upon lessons learned, we present a practical framework and associated considerations to realise knowledge integration goals in conservation conflict situations. This framework is widely applicable, especially in situations where disputes over the evidence-base prevent positive outcomes for people and nature.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283585803</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21248/gups.68649</t>
+          <t>https://openalex.org/W2224312693</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Pham (2022)</t>
+          <t>Coste &amp; Dubus (2015)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Analytic and numerical treatment of an effective lattice theory for heavy QCD at zero and finite density</t>
+          <t>Individu, technologie et territoire ou les trois dimensions de la transition énergétique sur lesquelles se recompose le paysage de la recherche et des formations</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>We discuss aspects of the phase structure of a three-dimensional effective lattice theory of Polyakov loops derived from QCD by strong coupling and hopping parameter expansions. The theory is valid for the thermodynamics of heavy quarks where it shows all qualitative features of nuclear physics emerging from QCD. In particular, the SU(3) pure gauge effective theory also exhibits a first-order thermal deconfinement transition due to spontaneous breaking of its global Z₃ center symmetry. The presence of heavy dynamical quarks breaks this symmetry explicitly and consequently, the transition weakens with decreasing quark mass until it disappears at a critical endpoint. At non-zero baryon density, the effective theory can be evaluated either analytically by the so-called high-temperature expansion which does not suffer from the sign problem, or numerically by standard Monte-Carlo methods due to its mild sign problem. The first part of this work devotes to a systematic derivation of the effective theory up to the 6th order in the hopping parameter κ. This method combined with the SU(3) link update algorithm provides a way to simulate the O(κ⁶) effective theory. The second part involves a study of the deconfinement transition of the pure gauge effective theory, with and without static quarks, at all chemical potentials with help of the high-temperature expansion. Our estimate of the deconfinement transition and its critical endpoint as a function of quark mass and all chemical potentials agrees well with recent Monte-Carlo simulations. In the third part, we investigate the N ſ ∈ {1,2} effective theory with zero chemical potential up to O(κ⁴). We determine the location of the critical hopping parameter at which the first-order deconfinement phase transition terminates and changes to a crossover. Our results for the critical endpoint of the O(κ²) effective theory are in excellent agreement with the determinations from simulations of four-dimensional QCD with a hopping expanded determinant by the WHOT-QCD collaboration. For the O(κ⁴) effective theory, our estimate suggests that the critical quark mass increases as the order of κ-contributions increases. We also compare with full lattice QCD with N ſ = 2 degenerate standard Wilson fermions and thus obtain a measure for the validity of both the strong coupling and the hopping expansion in this regime.</t>
+          <t>Comment la transition energetique reinterroge-t-elle la formation et la recherche en architecture ? La question est examinee a partir de deux entrees : la dimension transdisciplinaire de la transition energetique et la maniere dont elle fait evoluer les relations reciproques entre recherche et enseignement. Notre propos s'appuie sur les travaux de la filiere de master « Architecture et Cultures constructives », conjointement avec le Labex AE&amp;CC : participations a la competition interuniversitaire et internationale Solar Decathlon Europe et coordination d'un projet de recherche dans le cadre du programme Ignis Mutat Res, Penser l'architecture, la ville et les paysages au prisme de l'energie. Si nos objets sont centres sur la spatialisation de la transition energetique, notre approche est fondee sur l'idee que les aspects techniques ne peuvent etre deconnectes des pratiques et de l'echelle territoriale. Individu, technologie et territoire renvoient reciproquement aux sciences humaines, sciences de l'ingenieur et sciences sociales : trois grands domaines qui sont precisement en train de co-construire un axe transversal aux poles scientifiques de la COMUE Universite Grenoble Alpes, s'affranchissant des frontieres traditionnelles entre ces champs de connaissances.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394697342</t>
+          <t>https://openalex.org/W2935826977</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-981-99-8886-0_3</t>
+          <t>https://doi.org/10.25159/1947-9417/3521</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Panda &amp; Badar (2024)</t>
+          <t>Bonzet &amp; Frick (2019)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Distribution Network Local Energy Market: A Comprehensive Review</t>
+          <t>Gender Transformation Experiences among Women Leaders in the Western Cape TVET Sector: A Narrative Response</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The rapid power grid transition from wholesale electricity market toward liberalized distribution market has evolved over a decade time with increasing penetration of distributed energy resources (DERs) and digitization of grid. It has facilitated two-way communication between the market players by enabling peer-to-peer (P2P) energy trading. P2P market allows flexible energy trades between peers, i.e., the local prosumers in a distribution network local energy market (D-LEM) framework. Such energy trading is challenging as it requires different market mechanism and different pricing scheme considering all the physical network constraints as well as uncertainties to be handled at the same time. This study briefs different aspects of D-LEM that have evolved in diverse market framework across different countries, their potential development and challenges.</t>
+          <t>Leadership structures in Technical and Vocational Education and Training (TVET) colleges in South Africa face stark gender inequalities. Narratives of women currently in TVET leadership positions in the Western Cape province of South Africa might shed light on gender transformation in this sector. This article provides an insider perspective on 10 purposively selected respondentsâ€™ shared experiences during their careers as women leaders through a narrative methodology. The data produced themes like family roles and a professional career balance, stages in becoming a leader, gender-related notions, leadership contexts, and strategies to manage gendered experiences. The analytical framework developed illustrates how these themes were reconciled with a structured method of narrative analysis, described as a problem-solution approach, analysing raw data for five elements of plot structure, namely characters, setting, problem, actions, and resolutions. Aligning the conceptual and analytical frameworks facilitated re-storying inside a plot-structured narrative. The results reported gender transformation progress regarding the career progression of women leaders. Conversely, progress concerning gender stereotyping and men-to-women and women-to-women discrimination was unsatisfactory, causing some respondents to abandon leadership ambitions. Although the small sample size precludes any claim to generalisability, the reported narratives serve as a guideline in addressing all-inclusive gender transformation in TVET college leadership.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244003996</t>
+          <t>https://openalex.org/W3007378192</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5089/9781513572833.002</t>
+          <t>https://doi.org/10.1016/j.future.2020.02.027</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NA (2021)</t>
+          <t>D’Angelo et al. (2020)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Kingdom of the Netherlands—Aruba: 2021 Article IV Consultation Discussions-Press Release; Staff Report; and Staff Supplement</t>
+          <t>Decentralized learning for self-adaptive QoS-aware service assembly</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Context.Aruba managed to contain the pandemic in the first months of the outbreak but experienced a resurgence of new infections in the summer.The economic impact of COVID-19 is particularly severe given Aruba's high dependency on tourism.While the authorities' swift response has helped contain the human and economic damage, it could not avoid a severe GDP contraction.Outlook and Risks.Real GDP is projected to have contracted 25½ percent in 2020, followed by continued weakness in 2021.Public debt spiked to 117 percent of GDP and is projected to peak at about 130 percent in 2021, exacerbating risks to debt sustainability.The outlook is subject to exceptionally high risks, reflecting the uncertain evolution of the COVID-19 pandemic and its impact on the tourism industry.Policy Recommendations.The authorities appropriately provided essential support to households and businesses.Facilitating the recovery while ensuring debt sustainability will require that:• Fiscal policy continues meeting immediate health and economic needs while narrowing the targeting of support measures to the most vulnerable sectors and individuals, given very limited fiscal room.Once the pandemic is in under control and the recovery is underway, the focus should move toward restoring debt sustainability and, subsequently, rebuilding buffers.• Monetary policy stays accommodative to uphold the recovery while maintaining reserve adequacy to safeguard the peg.• Financial policies remain supportive while closely monitoring financial stability risks and continuing enhancing the AML/CFT framework.• Structural reforms that limit permanent scarring on the tourism industry and labor market, catalyze economic diversification and productivity, and enhance governance are steadily implemented to foster resilient and inclusive medium-term growth.</t>
+          <t>The highly dynamic nature of future computing systems, where applications dynamically emerge as opportunistic aggregation of autonomous and independent resources available at any given time, requires a radical shift in the adopted computing paradigms. Indeed, they should fully reflect the decentralized perspective of the execution environment and consider QoS, scalability and resilience as key objectives. In this context, the everything-as-a-service (XaaS) paradigm, which envisions the creation of new services as an assembly of independent services available within the environment, can greatly help in tackling the challenges of developing future applications. However, in order to be effective, XaaS paradigm requires self-adaptive service assembly solutions able to cope with the unpredictable variability and scalability of the execution environment, the lack of global knowledge, and the QoS requirements of services to be built. We contribute in this direction by designing a fully decentralized and collective self-adaptive service assembly framework whose main features are: (i) self-assembly, i.e., the ability to operate autonomously, (ii) online-learning, i.e., the ability to dynamically learn from experience, (iii) QoS-awareness, i.e., the inclusion of QoS requirements as driving forces for self-assembly, (iv) scalability, i.e., the ability to cope with a large number of services, and (v) resilience, i.e., the ability to maintain the persistence of service delivery when facing unexpected changes (e.g., in the number and/or QoS of services). Simulation experiments show that our solution makes the system able to quickly converge to viable assemblies that improve and maintain over time the social welfare of the system, despite the local perspective of each participating service.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3107564679</t>
+          <t>https://openalex.org/W2030101668</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cej.2020.127868</t>
+          <t>https://doi.org/10.1080/14742837.2014.994094</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Li et al. (2021)</t>
+          <t>Brandt (2015)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Facile synthesis of high crystallinity and oxygen vacancies rich bismuth oxybromide upconversion nanosheets by air-annealing for UV–Vis–NIR broad spectrum driven Bisphenol A degradation</t>
+          <t>Feminist Practice and Solidarity in Secular Societies: Case Studies on Feminists Crossing Religious–Secular Divides in Politics and Practice in Antwerp, Belgium</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>In this paper, we report on a facile solvothermal with a subsequent air-annealing strategy for synthesizing high crystallinity and surface oxygen vacancies (OVs) rich BiOBr:Yb3+/Er3+ upconversion (UC) ultrathin nanosheets, as well as investigating the generation mechanism of OVs. Theoretical calculations and experimental results demonstrate that introducing a suitable concentration of OVs can extend the photoresponse to the NIR region, promote charge carrier separation and enhance the molecular oxygen adsorption and activation. At the same time, NIR light can be converted into Vis light by UC transition of Er3+, enhancing the effective utilization of NIR light. Benefiting from a collaborative promotion effect, the optimized sample (BYE-OV-450) possesses the highest BPA degradation rate, which is 2.60, 5.73, 2.27 and 2.16 times that of BYE-OV-0 under UV–Vis–NIR, NIR, Vis, and UV light irradiation, respectively. In addition, the effects of dosages of BYE-OV-450, initial pH, coexisting ions and water matrices on BPA degradation were investigated. This work not only provides an effective and scalable strategy for synthesizing high crystallinity and OVs rich ultrathin bismuth oxyhalides nanosheets, but also presents a new perspective for design and fabrication of full-spectrum responsive highly active photocatalyst for organic pollutant degradation.</t>
+          <t>In west European countries, public debates on migration, integration, and diversity are informed by particular understandings of secularism and the secular society. In our increasingly diverse societies, so the story goes, it is needed to implement a certain type of secularism and/or support particular types of secular standpoints in order to maintain a certain status quo that guarantees security, democracy, and equality for all. Religion is often perceived and simultaneously constructed in opposition to the emancipation and equal rights of women. This dominant logic, in which secularism and religion are opposites, makes it difficult for women of diverse religious–cultural backgrounds to cooperate on an equal footing for a shared feminist cause. However, feminist politics and practices that cross religious–secular divides can and do take place. Feminist research has so far paid little attention to the actualities of this feminist border-crossing and the transformations it may engender in our current sociopolitical context. In this article, I aim to offer a consideration of feminist politics and solidarity crossing religious–secular divides in Flanders, the Dutch-speaking northern region of Belgium. Through two case studies, I explore how cooperation and solidarity across religious–secular boundaries are developed and being talked about by activists. I argue that such feminist coalitions can and do directly and indirectly affect the public debates and inspire feminist thinking on issues regarding religion, secularism, and feminism in the multicultural society.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2935826977</t>
+          <t>https://openalex.org/W3038735985</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25159/1947-9417/3521</t>
+          <t>https://doi.org/10.1016/j.cplett.2020.137755</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bonzet &amp; Frick (2019)</t>
+          <t>Liu et al. (2020)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Gender Transformation Experiences among Women Leaders in the Western Cape TVET Sector: A Narrative Response</t>
+          <t>Effect of NaOH on the preparation of two-dimensional flake-like zirconia nanostructures</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Leadership structures in Technical and Vocational Education and Training (TVET) colleges in South Africa face stark gender inequalities. Narratives of women currently in TVET leadership positions in the Western Cape province of South Africa might shed light on gender transformation in this sector. This article provides an insider perspective on 10 purposively selected respondentsâ€™ shared experiences during their careers as women leaders through a narrative methodology. The data produced themes like family roles and a professional career balance, stages in becoming a leader, gender-related notions, leadership contexts, and strategies to manage gendered experiences. The analytical framework developed illustrates how these themes were reconciled with a structured method of narrative analysis, described as a problem-solution approach, analysing raw data for five elements of plot structure, namely characters, setting, problem, actions, and resolutions. Aligning the conceptual and analytical frameworks facilitated re-storying inside a plot-structured narrative. The results reported gender transformation progress regarding the career progression of women leaders. Conversely, progress concerning gender stereotyping and men-to-women and women-to-women discrimination was unsatisfactory, causing some respondents to abandon leadership ambitions. Although the small sample size precludes any claim to generalisability, the reported narratives serve as a guideline in addressing all-inclusive gender transformation in TVET college leadership.</t>
+          <t>The monolayer flake-like zirconia was prepared by a clean molten salt method, which does not require any adsorbent and template. The effects of NaOH on the composition, morphology and structure of zirconia were studied by XRD, IR, Raman, FE-SEM and TEM. The nanostructures synthesized under 2 wt% NaOH exhibit definite flake-like geometry with a large percentage of (0 0 1) plane, which measure approximately 1.8 μm long and 80 nm thick. This concomitant phase and morphology change originate from the martensite transformation of metastable tetragonal zirconia. The as-prepared zirconia sheet has potential utility in fields as diverse as chemical adsorption and photocatalysis.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3030252671</t>
+          <t>https://openalex.org/W4220791801</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s13033-020-00370-x</t>
+          <t>https://doi.org/10.1080/19320248.2022.2059428</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Strand et al. (2020)</t>
+          <t>Richardson &amp; Fernqvist (2022)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Combining online and offline peer support groups in community mental health care settings: a qualitative study of service users’ experiences</t>
+          <t>Transforming the Food System through Sustainable Gastronomy - How Chefs Engage with Food Democracy</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Peer support for people with long-term mental health problems is central to recovery-oriented approaches in mental health care. Peer support has traditionally been conducted offline in face-to-face groups, while online groups on the Internet have increased rapidly. Offline and online peer support groups are shown to have differing strengths and weaknesses. However, little is known about how combining the two formats might be experienced by service users, which this paper aims to illuminate.In this exploratory and descriptive study, a recovery-oriented Internet-based portal called ReConnect was used by service users in two mental health communities in Norway for 6-12 months. The portal included an online peer support group which also facilitated participation in local offline peer support groups. Both group formats were moderated by an employed service user consultant. Qualitative data about service users' experiences were collected through focus groups and individual interviews and inductively analyzed thematically.A total of 14 female service users 22-67 years of age with various diagnoses participated in three focus groups and 10 individual interviews. Two main themes were identified: (1) balancing anonymity and openness, and (2) enabling connectedness. These themes are further illustrated with the subthemes: (i) dilemmas of anonymity and confidentiality, (ii) towards self-disclosure and openness, (iii) new friendships, and (iv) networks in the local community. Three of the subthemes mainly describe benefits, while challenges were more implicit and cut across the subthemes. Identified challenges were related to transitions from anonymity online to revealing one's identity offline, confidentiality, and barriers related to participation in offline peer support groups.This study suggests that online and offline peer support groups complement each other, and that combining them is mainly described as beneficial by service users. Identified benefits appeared to arise from service users' options of one format or the other, or that they could combine formats in ways that suited their individual values and comfort zones. Moderation by a trained service user consultant appeared essential for both formats and can be used systematically to address identified challenges. Combining online and offline peer support groups is a promising concept for facilitating recovery-oriented care and warrants continued research.</t>
+          <t>The global food system contributes significantly to climate change and environmental degradation. New dynamics are needed to sustainably transform the system. Using the theoretical frames of food democracy and a food systems approach, interviews were conducted with ten chefs practicing sustainable gastronomy with the aim of determining their contribution to the system transition and their practices in this process. Results show that the chefs use the principles of food democracy to engage and motivate people, find new forms of collaboration and ways to promote sustainable food practices, and improve food values and sustainable food behaviors.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164994590</t>
+          <t>https://openalex.org/W2542403453</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpls.2021.670497</t>
+          <t>https://doi.org/10.1016/j.jval.2016.09.1125</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Gómez-Soto et al. (2021)</t>
+          <t>Rencz et al. (2016)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Overexpression of a SOC1-Related Gene Promotes Bud Break in Ecodormant Poplars</t>
+          <t>A Cost-Effectiveness Analysis of Biosimilar Infliximab (Inflectra®) For The Treatment of Psoriatic Arthritis In Nine European Countries</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Perennial species in the boreal and temperate regions are subject to extreme annual variations in light and temperature. They precisely adapt to seasonal changes by synchronizing cycles of growth and dormancy with external cues. Annual dormancy–growth transitions and flowering involve factors that integrate environmental and endogenous signals. MADS-box transcription factors have been extensively described in the regulation of Arabidopsis flowering. However, their participation in annual dormancy–growth transitions in trees is minimal. In this study, we investigate the function of MADS12 , a Populus tremula × alba SUPPRESSOR OF CONSTANS OVEREXPRESSION 1 ( SOC1 )-related gene. Our gene expression analysis reveals that MADS12 displays lower mRNA levels during the winter than during early spring and mid-spring. Moreover, MADS12 activation depends on the fulfillment of the chilling requirement. Hybrid poplars overexpressing MADS12 show no differences in growth cessation and bud set, while ecodormant plants display an early bud break, indicating that MADS12 overexpression promotes bud growth reactivation. Comparative expression analysis of available bud break-promoting genes reveals that MADS12 overexpression downregulates the GIBBERELLINS 2 OXIDASE 4 ( GA2ox4 ), a gene involved in gibberellin catabolism. Moreover, the mid-winter to mid-spring RNAseq profiling indicates that MADS12 and GA2ox4 show antagonistic expression during bud dormancy release. Our results support MADS12 participation in the reactivation of shoot meristem growth during ecodormancy and link MADS12 activation and GA2ox4 downregulation within the temporal events that lead to poplar bud break.</t>
+          <t>Biosimilar infliximab (Inflectra®) has been approved by the European Medicines Agency for the treatment of active and progressive psoriatic arthritis (PsA) in adult patients since 2013. Currently in most European countries, the price of biosimilars is considerably lower compared to the reference product. We aim to compare cost-effectiveness of adalimumab, certolizumab pegol, etanercept, golimumab, infliximab, secukinumab, ustekinumab and biosimilar infliximab for the treatment of PsA in nine European countries: Belgium, France, Germany, Hungary, Italy, the Netherlands, Spain, Sweden and the UK. The analysis was based on a probabilistic Markov model of selected biological treatment sequences compared to the standard care or to other biological sequences in patients with PsA with inadequate response to previous disease-modifying antirheumatic drug therapy. Transition probabilities between health states were derived from randomized controlled trials. The model included costs of drugs, monitoring, administration and hospitalisation from third-party payer perspective. A five-year time horizon was adopted, and both costs and benefits were discounted at country-specific discount rates. The incremental cost-utility ratios (ICUR) of biosimilar infliximab-standard care treatment sequence versus standard care were as follows: €50,103/QALY (Belgium), €60,141/QALY (France), €79,730/QALY (Germany), €40,897/QALY (Hungary), €48,059/QALY (Italy), €49,212/QALY (the Netherlands), €53,602/QALY (Spain), €74,773/QALY (Sweden) and €68,697/QALY (the UK). Compared to standard care, the originator infliximab was dominated by biosimilar infliximab in all countries. The inclusion of additional biologicals to the treatment sequence resulted in higher cost-utility ratios. ICURs of biosimilar infliximab-secukinumab-etanercept sequence ranged from €54,946/QALY to €104,113/QALY and between €67,487/QALY and €121,203/QALY for the biosimilar infliximab-ustekinumab-certolizumab pegol sequence. The results were the most sensitive to changes in the perspective of the analysis, utility weights and time horizon (10-year). Biosimilar infliximab is a cost-effective alternative to the originator product for the treatment of adults with PsA that may increase the affordability of, and thus the access to biological treatments in Europe.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220791801</t>
+          <t>https://openalex.org/W4283725963</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/19320248.2022.2059428</t>
+          <t>https://doi.org/10.1016/j.enchem.2022.100080</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Richardson &amp; Fernqvist (2022)</t>
+          <t>Hong et al. (2022)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Transforming the Food System through Sustainable Gastronomy - How Chefs Engage with Food Democracy</t>
+          <t>Pore space partition of metal-organic frameworks for gas storage and separation</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>The global food system contributes significantly to climate change and environmental degradation. New dynamics are needed to sustainably transform the system. Using the theoretical frames of food democracy and a food systems approach, interviews were conducted with ten chefs practicing sustainable gastronomy with the aim of determining their contribution to the system transition and their practices in this process. Results show that the chefs use the principles of food democracy to engage and motivate people, find new forms of collaboration and ways to promote sustainable food practices, and improve food values and sustainable food behaviors.</t>
+          <t>Pore space partition (PSP) concept is a synthetic design concept and can also serve as a structure analysis method useful for next-step synthetic planning and execution. PSP provides an integrated chemistry-topology-focused tool to design new materials platforms. While PSP is no less effective for making large-pore materials, the growing importance of small-molecule gas storage and separation for green-energy applications provides impetus for developing small-pore materials for which the PSP strategy is uniquely suited. Currently, the best embodiment of the PSP concept is the partitioned-acs (pacs) platform in which both fine or coarse adjustments to the building blocks have sparked a transformation of a prototype framework into a huge and continuously expanding family of chemically robust materials with controllable pore metrics and functionalities suitable for tailored applications. The pacs compositional diversity results from the platform's intrinsic multi-module nature, geometric flexibility and tolerance towards individual module variations, and mutual structure-directing effects among various modules, all of which combine to enable the molecular-level uniform co-assemblies of chemical components rarely seen together elsewhere. In this contribution, we present an overview of different pore space engineering methods and how different MOF materials have contributed to important advances in chemical stability, industrial gas storage and gas separation. In particular, we will focus on synthetic assembly of the pacs system, highlighting the differences of pacs materials from other MOF platforms and advantages of pacs materials in enhancing various MOF properties.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3132921311</t>
+          <t>https://openalex.org/W4211081331</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/aia-09-2019-0029</t>
+          <t>https://doi.org/10.1002/9781118278710.refs</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Hedley et al. (2021)</t>
+          <t>Smil (2013)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Supportive employment practices: perspectives of autistic employees</t>
+          <t>References</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Purpose Employment can make an important contribution to individual well-being, for example, by providing people with a sense of purpose; however, autistic individuals face significant barriers to entering the workforce. This is reflected in high levels of underemployment and unemployment, with an estimated 80% of autistic people unemployed worldwide. This is higher than both other disability groups and people without disabilities. Research is needed to identify strategies that facilitate the sustained employment of autistic adults. This study aims to examine the perspectives of autistic individuals participating in a specialized employment program within the information and communication technology sector. Design/methodology/approach Three focus groups were conducted with nine adults on the autism spectrum. Data were analyzed using an inductive approach according to established guidelines, which included coding and categorizing data into themes. Findings Focus group analysis revealed four themes: trainees’ previous work experiences; expectations of the employment program; recruitment and selection processes; and training and transition. Several factors associated with the changes to the recruitment and selection process were found to benefit the autistic employees. Originality/value Few studies have characterized the work experiences of adults on the autism spectrum. Tailored employment processes that challenge traditional human resource management practices can increase the participation of autistic individuals in the workforce. Strategies for promoting the success of these programs are discussed.</t>
+          <t>Free Access References Book Editor(s):Vaclav Smil, Vaclav SmilSearch for more papers by this author First published: 18 March 2013 https://doi.org/10.1002/9781118278710.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat References a Calorie Counter. 2012. Fast Food Restaurants &amp; Nutrition Facts Compared. http://www.acaloriecounter.com/fast-food.php. Accessed on November 14, 2012. Google Scholar Aarestrup, F. 2012. Get pigs off antibiotics. Nature 486: 465– 466. Google Scholar Abel, W. 1962. Geschichte der deutschen Landwirtschaft von frühen Mittelalter bis zum 19 Jahrhundert. Stuttgart: Ulmer. Google Scholar Aberle, E.D. et al. 2001. Principles of Meat Science. Dubuque, IA: Kendall Hunt Publishing. Google Scholar Adams, C. 2010. The Sexual Politics of Meat: A Feminist-Vegetarian Critical Theory. New York: Continuum International Publishing Group. http://books.google.ca/books/about/The_Sexual_Politics_of_Meat.html?id=AwrwRKNavtAC. Accessed on November 14, 2012. Google Scholar AFSSA (Agence française_de_sécurité sanitaire des produits de santé). 2009. Synthèse de l'étude Individuelle Nationale des Consommations Alimentaires 2 (INCA 2) 2006–2007. Paris: AFSSA. Google Scholar Aiello, L.C. and J.C.K. Wells. 2002. Energetics and the evolution of the genus Homo . Annual Review of Anthropology 31: 323– 338. Google Scholar Aiello, L.C. and P. Wheeler. 1995. The expensive-tissue hypothesis. Current Anthropology 36: 199– 221. Google Scholar Al-Deseit, B. 2009. Least-cost broiler ration formulation using linear programming technique. Journal of Animal and Veterinary Advances 8: 1274– 1278. Google Scholar Allan, J.A. 1993. Fortunately there are substitutes for water otherwise our hydro-political futures would be impossible. In: Priorities for Water Resources Allocation and Management. London: ODA, pp. 13– 26. Google Scholar Allbaugh, L.G. 1953. Crete: A Case Study of an Undeveloped Area. Princeton, NJ: Princeton University Press. Google Scholar Allen, R.C. 2007. How Prosperous Were the Romans? Evidence from Diocletian's Price Edict (301 AD). Oxford: Department of Economics, Oxford University. Google Scholar Allen, J.R.M. 2010. Last glacial vegetation of northern Eurasia. Quaternary Science Reviews 29: 2604– 2618. Google Scholar de Almeida, J.C. et al. 2006. Fatty acid composition and cholesterol content of beef and chicken meat in Southern Brazil. Brazilian Journal of Pharmaceutical Sciences 42: 109– 117. Google Scholar Alonso, A. et al. 2009. Cardiovascular risk factors and dementia mortality: 40 years of follow-up in the Seven Countries Study. Journal of Neurological Sciences 2009: 79– 83. Google Scholar Alroy, J. 2001. A multispecies overkill simulation of the end-Pleistocene megafaunal mass extinction. Science 292: 1893– 1896. Google Scholar Alvard, M.S. and L. Kuznar. 2001. Deferred harvests: The transition from hunting to animal husbandry. American Anthropologist 103: 295– 311. Google Scholar Alverson, D.L. 2005. Managing the catch of non-target species. In: W.S. Wooster and J.M. Quinn, eds., Improving Fishery Management: Melding Science and Governance. Seattle, WA: The School of Marine Affairs, University of Washington. Google Scholar Alverson, D.L. et al. 2004. A Global Assessment of Fisheries Bycatch and Discards. Rome: FAO. Google Scholar AMI (American Meat Institute). 2012. The United States Meat Industry at a Glance. http://www.meatami.com/ht/d/sp/i/47465/pid/47465. Accessed on November 14, 2012. Google Scholar Amit, M. 2010. Vegetarian diets in children and adolescents. Pediatric Child Health 15(3): 303– 308. Google Scholar Anderson, O.E. 1953. Refrigeration in America: A History of a New Technology and Its Impact. Princeton, NJ: Princeton University Press. Google Scholar Animal Liberation Front. 2012. Manifesto for Radical Abolitionism: By Any Means. http://www.animalliberationfront.com/ALFront/Manifesto-TotalLib.htm. Accessed on November 14, 2012. Google Scholar Antony, A.C. 2003. Vegetarianism and vitamin B-12 (cobalamin) deficiency. American Journal of Clinical Nutrition 78: 3– 6. Google Scholar Århem, K. 1989. Maasai food symbolism: The cultural connotations of milk, meat, and blood in the pastoral Maasai diet. Anthropos 8: 1– 23. Google Scholar Armelagos, G.J. and K.N. Harper. 2005. Genomics at the origins of agriculture, part one. Evolutionary Anthropology 14: 68– 77. Google Scholar Asner, G.P. et al. 2004. Grazing systems, ecosystem responses and global change. Annual Review of Environment and Resources 29: 261– 299. Google Scholar Atalay, S. and C.A. Hastorf. 2006. Food, meals, and daily activities: Food habitus at Neolithic Çatalhöyük. American Antiquity 71: 283– 319. Google Scholar Atwater, W.O. 1888. Foods and beverages. The Century Magazine. May, pp. 135– 139. Google Scholar Atwater, W. and C. Woods. 1896. The Chemical Composition of American Food Materials. Washington, DC: USDA. Google Scholar</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385724022</t>
+          <t>https://openalex.org/W4384342817</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/00220345231187828</t>
+          <t>https://doi.org/10.7554/elife.86636.3.sa0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Listl et al. (2023)</t>
+          <t>Antunes (2023)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Evidence-Informed Oral Health Policy Making: Opportunities and Challenges</t>
+          <t>eLife assessment: Longitudinal map of transcriptome changes in the Lyme pathogen Borrelia burgdorferi during tick-borne transmission</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Despite a clear need for improvement in oral health systems, progress in oral health systems transformation has been slow. Substantial gaps persist in leveraging evidence and stakeholder values for collective problem solving. To truly enable evidence-informed oral health policy making, substantial "know-how" and "know-do" gaps still need to be overcome. However, there is a unique opportunity for the oral health community to learn and evolve from previous successes and failures in evidence-informed health policy making. As stated by the Global Commission on Evidence to Address Societal Challenges, COVID-19 has created a once-in-a-generation focus on evidence, which has fast-tracked collaboration among decision makers, researchers, and evidence intermediaries. In addition, this has led to a growing recognition of the need to formalize and strengthen evidence-support systems. This article provides an overview of recent advancements in evidence-informed health policy making, including normative goals and a health systems taxonomy, the role of evidence-support and evidence-implementation systems to improve context-specific decision-making processes, the evolution of learning health systems, and the important role of citizen deliberations. The article also highlights opportunities for evidence-informed policy making to drive change in oral health systems. All in all, strengthening capacities for evidence-informed health policy making is critical to enable and enact improvements in oral health systems.</t>
+          <t xml:space="preserve">Full text Figures and data Side by side Abstract eLife assessment Introduction Results Discussion Methods Data availability References Peer review Author response Article and author information Metrics Abstract Borrelia burgdorferi (Bb), the causative agent of Lyme disease, adapts to vastly different environments as it cycles between tick vector and vertebrate host. During a tick bloodmeal, Bb alters its gene expression to prepare for vertebrate infection; however, the full range of transcriptional changes that occur over several days inside of the tick are technically challenging to capture. We developed an experimental approach to enrich Bb cells to longitudinally define their global transcriptomic landscape inside nymphal Ixodes scapularis ticks during a transmitting bloodmeal. We identified 192 Bb genes that substantially change expression over the course of the bloodmeal from 1 to 4 days after host attachment. The majority of upregulated genes encode proteins found at the cell envelope or proteins of unknown function, including 45 outer surface lipoproteins embedded in the unusual protein-rich coat of Bb. As these proteins may facilitate Bb interactions with the host, we utilized mass spectrometry to identify candidate tick proteins that physically associate with Bb. The Bb enrichment methodology along with the ex vivo Bb transcriptomes and candidate tick interacting proteins presented here provide a resource to facilitate investigations into key determinants of Bb priming and transmission during the tick stage of its unique transmission cycle. eLife assessment In this Tools and Resources article, the authors overcome the challenge of low Borrelia burgdorferi numbers during infection for analyses such as RNA-sequencing or mass spectrometry. They do so by physically enriching for spirochetes, which is important, as it provides technical advances for the study of global transcriptomic changes of B. burgdorferi during tick feeding, helping to build on the knowledge already collected by the field. The evidence presented is compelling, and the strategy described here could benefit researchers in the field and possibly also support broader applications. https://doi.org/10.7554/eLife.86636.3.sa0 About eLife assessments Introduction Vector-borne microbial pathogens are transmitted by the bite of arthropods and have evolved sophisticated ways to adapt to vastly different environments as they move between vector and host. Uncovering their adaptive mechanisms can not only open avenues for disrupting pathogen transmission but also provide fundamental insights into vector physiology and microbial symbioses (Shaw and Catteruccia, 2019). Lyme disease, the most reported vector-borne disease in North America, is caused by the bacterial pathogen Borrelia burgdorferi (Bb) (Rosenberg et al., 2018; Steere et al., 2016). Its primary vector, the blacklegged tick Ixodes scapularis, acquires and transmits Bb through two separate multi-day bloodmeals, one in which Bb is acquired from an infected vertebrate host and a second, during the subsequent life stage, in which Bb is transmitted to a new host (Tilly et al., 2008). During the transmission bloodmeal, Bb proliferates in the tick midgut before a subset of these cells disseminate to the salivary glands (Dunham-Ems et al., 2009). Bb is deposited into the new host via the tick saliva extruded into the bite site (Ribeiro et al., 1987). Given the prolonged nature of I. scapularis feeding, the high specificity of vector-pathogen relationships, and the complicated array of events needed for successful Bb transmission, the tick bloodmeal provides an opportune intervention point for preventing pathogen spread. However, we do not currently have a clear understanding of the molecular mechanisms involved in this process. Bb must adapt to dramatically different environments as it cycles from tick to vertebrate host, and understanding the genes involved in this process will enable the identification of key interactions to target to prevent transmission. When an infected tick feeds, Bb responds to bloodmeal-induced environmental changes and undergoes cellular modifications driven by key transcriptional circuits, including the RpoN/RpoS sigma factor cascade and the Hk1/Rrp1 two-component system (Radolf et al., 2012). In vitro analyses of Bb cells cultured in tick- or mammal-like growth conditions have pointed to additional genetic determinants of tick-borne transmission by revealing widespread transcriptome remodeling during host switching (reviewed in Samuels et al., 2021). However, it is not fully clear how these in vitro expression changes correspond to complex in vivo changes over the course of a transmission bloodmeal. Capturing comprehensive, longitudinal data on Bb gene expression from inside its vector has been hampered by technical challenges due to the dynamic nature of the bloodmeal and the general low abundance of bacterial cells relative to the tick (Samuels et al., 2021). Some </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2542403453</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jval.2016.09.1125</t>
+          <t>https://openalex.org/W230146716</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rencz et al. (2016)</t>
+          <t>Zieliński (2005)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>A Cost-Effectiveness Analysis of Biosimilar Infliximab (Inflectra®) For The Treatment of Psoriatic Arthritis In Nine European Countries</t>
+          <t>Formal approach to the design of robot programming frameworks: the behavioural control case</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Biosimilar infliximab (Inflectra®) has been approved by the European Medicines Agency for the treatment of active and progressive psoriatic arthritis (PsA) in adult patients since 2013. Currently in most European countries, the price of biosimilars is considerably lower compared to the reference product. We aim to compare cost-effectiveness of adalimumab, certolizumab pegol, etanercept, golimumab, infliximab, secukinumab, ustekinumab and biosimilar infliximab for the treatment of PsA in nine European countries: Belgium, France, Germany, Hungary, Italy, the Netherlands, Spain, Sweden and the UK. The analysis was based on a probabilistic Markov model of selected biological treatment sequences compared to the standard care or to other biological sequences in patients with PsA with inadequate response to previous disease-modifying antirheumatic drug therapy. Transition probabilities between health states were derived from randomized controlled trials. The model included costs of drugs, monitoring, administration and hospitalisation from third-party payer perspective. A five-year time horizon was adopted, and both costs and benefits were discounted at country-specific discount rates. The incremental cost-utility ratios (ICUR) of biosimilar infliximab-standard care treatment sequence versus standard care were as follows: €50,103/QALY (Belgium), €60,141/QALY (France), €79,730/QALY (Germany), €40,897/QALY (Hungary), €48,059/QALY (Italy), €49,212/QALY (the Netherlands), €53,602/QALY (Spain), €74,773/QALY (Sweden) and €68,697/QALY (the UK). Compared to standard care, the originator infliximab was dominated by biosimilar infliximab in all countries. The inclusion of additional biologicals to the treatment sequence resulted in higher cost-utility ratios. ICURs of biosimilar infliximab-secukinumab-etanercept sequence ranged from €54,946/QALY to €104,113/QALY and between €67,487/QALY and €121,203/QALY for the biosimilar infliximab-ustekinumab-certolizumab pegol sequence. The results were the most sensitive to changes in the perspective of the analysis, utility weights and time horizon (10-year). Biosimilar infliximab is a cost-effective alternative to the originator product for the treatment of adults with PsA that may increase the affordability of, and thus the access to biological treatments in Europe.</t>
+          <t>Programming frameworks [1] are application generators with the following components: library of software modules (building blocks out of which the system is constructed), a method for designing new modules that can be appended to the above mentioned library, a pattern according to which ready modules can be assembled into a complete system jointly exerting control over it and realizing the task at hand. The presented transition function based formalism can be applied to specifying programming frameworks for robot controllers executing very diverse tasks. The paper deals with systems consisting of multiple embodied agents, influencing the environment through effectors, gathering information from the environment through sensors and communicating with other agents through communication channels. The presented code patterns pertain to behavioural agents. The formalism was instrumental in the design of MRROC++ robot programming framework, which has been used for producing controllers of single and two manipulator systems performing diverse tasks. The formalism introduces rigor into the discussion of the structure of embodied agent controllers. It is used as the means for the specification of the functions of the components of the control system and the structure of the communication links between them. This structures the implementation of a programming framework, and that in turn makes the coding of specific controllers much easier, both from the point of view of dealing with the hardware configuration of the system and the specific task that has to be executed.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2153776917</t>
+          <t>https://openalex.org/W4386999357</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/cbo9780511489822.015</t>
+          <t>https://doi.org/10.3917/pox.139.0095</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Kwak &amp; Berry (2006)</t>
+          <t>Madon (2023)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>« Tu peux être écolo sans être extrémiste »</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>In its short history Canada has become a diverse and pluralistic modern society, both in terms of its geography and the contacts among its cultural groups. When the first European explorers – mainly from France and Britain – arrived on the east coast of Canada in the 1500s they found a land populated by less than half a million Aboriginal peoples. The Inuit lived along the coastal edges and islands of the Arctic; First Nations, or Aboriginal, peoples inhabited the rest of the land. As the population of French and British colonialists grew, settlers expanded westward for trade and land by colonial policy and war. Following the American Revolution of 1776, colonists loyal to Britain came up from America and settled in Canada. The eighteenth and nineteenth centuries saw a steady flow of British immigrants on the one hand, and Chinese, Italian, and Irish workers on the other.</t>
+          <t>La littérature sur les mouvements sociaux a montré que l’engagement dans une organisation militante, a fortiori un collectif qui promeut des transformations de modes de vie comme certains mouvements écologistes, est vecteur d’une socialisation secondaire. Les membres de ces collectifs font l’expérience d’un rejet de leur identité d’écologistes par leur entourage non engagé : leur engagement est perçu comme trop radical. Ils cherchent alors à s’engager en évitant toute forme de stigmate. Ce sont ces négociations que cet article s’attache à explorer, en étudiant ce qui se passe dans les interactions entre les individus engagés, leur collectif et les membres de leur entourage. À travers une ethnographie comparative d’un mouvement de jeunes et d’un écovillage, l’article montre comment les individus valorisent leur distance vis-à-vis de tout engagement trop catégorique par l’adoption de stratégies de pacification , qui visent à communiquer leurs choix de vie d’une manière qui soit acceptable par d’autres.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283692820</t>
+          <t>https://openalex.org/W4294749298</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14639/0392-100x-suppl.1-42-2022-06</t>
+          <t>https://doi.org/10.17072/2078-7898/2022-2-339-349</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Ralli et al. (2022)</t>
+          <t>Ermilova (2022)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Risk of SARS-CoV-2 contagion in otolaryngology specialists</t>
+          <t>The habitus of the athlete: a sociological interpretation through the prism of P. Bourdieu’s theory</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Il rischio di contagio da SARS-CoV-2 tra gli specialisti in otorinolaringoiatria.La malattia da COVID-19 si è rapidamente diffusa negli ultimi due anni con un forte impatto sull’attività otorinolaringoiatrica, che ha subito una radicale trasformazione per garantire assistenza principalmente a pazienti oncologici e urgenti, e assicurare protezione al personale sanitario e ai pazienti. Durante le fasi iniziali della pandemia, le visite programmate e gli interventi chirurgici elettivi sono stati posticipati, spesso causando un ritardo nella diagnosi e nel trattamento di diverse condizioni, anche oncologiche, con diagnosi in fasi di malattia avanzata e trattamenti più aggressivi. L’aerosol e le goccioline di saliva sono la principale via di trasmissione del virus SARS-CoV-2. Pertanto, l’uso corretto dei dispositivi di protezione individuale (DPI) e l’attenzione ai rischi e alle misure di protezione specifiche per ogni procedura otorinolaringoiatrica sono della massima importanza. In conclusione, questa review evidenzia che l’attività otorinolaringoiatrica implica un alto rischio di contagio in occasione di visite, interventi chirurgici o trattamento di condizioni urgenti. Il corretto utilizzo dei DPI, la valutazione dei rischi specifici di ogni procedura e la riduzione di visite e interventi non urgenti sono considerate le principali strategie per limitare il contagio.COVID-19 has rapidly spread in the past two years with a profound impact on otolaryngological activities, which has undergone radical transformation to guarantee diagnostic and therapeutic procedures mainly in oncology and urgent patients, while ensuring protection for healthcare personnel and patients. During the initial phases of the pandemic, scheduled visits and elective surgeries were postponed leading to a delay in the diagnosis and treatment of several diseases, including head and neck cancer, with a shift toward more advanced cancer stages and more aggressive treatments. Aerosol and droplets are the main routes of transmission of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), thus leading to a high risk of contagion during otolaryngology visits and surgery. Therefore, the correct use of personal protective equipment (PPE) and attention to procedure-specific risks and measures to avoid contagion are of utmost importance for healthcare professionals, and especially for those dealing with otolaryngology diseases. This narrative review highlights that otolaryngological activity implies a high risk of contagion during outpatient visit, surgery, or urgent conditions. The correct use of PPE, evaluation of procedure-specific risks and reduction of non-urgent procedures are considered the main strategies to limit contagion.</t>
+          <t>The article provides a sociological interpretation of the concept of the «athlete’s habitus» performed through the prism of P. Bourdieu’s theory based on sociological research data. To describe the athletes’ habitus, data of the following sociological studies were used: interviews with athletes studying at the Faculty of Physical Culture and Sports of Lobachevsky University (n = 74 persons representing individual and team sports in a 50/50 ratio); secondary analysis of interviews with mothers of high-performance athletes (n = 3 persons); participant observation carried out during the training and sports process with representatives of the following sports: volleyball, basketball, hockey, athletics, martial arts. The grounded theory approach, proposed by A. Strausset and D. Corbin, was used to analyze the data obtained during the interviews with student athletes, part of which were applied the method of «life histories» (analysis of the life of athletes from their mothers’ words) and conversational analysis (analysis of the interviewer-athlete dialogues). During the data analysis (coding procedure) the following concepts were identified and described: trajectories and stages of the sports habitus formation, social practices of the athlete’s habitus; a strong connection was noted between these concepts. Reliability of the obtained results is within the acceptable level as the subjective views of the informants are expressed in the indicators typical of their activity, acquired in the process of integration into the sports field over 10 years or more. This resulted in a high sports status (candidate master of sports, master of sports), which was the rationale for their selection for the interview. The paper reveals the peculiarities of the formation of the athletes’ habitus, its trajectory, and formation stages. Depending on the stage of the habitus formation in the sports field, the agent is endowed with transitional sports habitus, which, accumulating, allow the individual to acquire the habitus of the established athlete. The athlete’s habitus synthesizes the diversity of social experiences of agents of various social fields, thereby endowing itself with the identity of the realization of practices characteristic only of the social space of sport. In general, we can define the athlete’s habitus as a system of acquired predispositions that are imposed by the structure of the social field of sport.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4211081331</t>
+          <t>https://openalex.org/W2088607182</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781118278710.refs</t>
+          <t>https://doi.org/10.3860/irrn.v31i1.1179</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Smil (2013)</t>
+          <t>Bruskiewich et al. (2009)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Bioinformatics and crop information systems in rice research</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Vaclav Smil, Vaclav SmilSearch for more papers by this author First published: 18 March 2013 https://doi.org/10.1002/9781118278710.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat References a Calorie Counter. 2012. Fast Food Restaurants &amp; Nutrition Facts Compared. http://www.acaloriecounter.com/fast-food.php. Accessed on November 14, 2012. Google Scholar Aarestrup, F. 2012. Get pigs off antibiotics. Nature 486: 465– 466. Google Scholar Abel, W. 1962. Geschichte der deutschen Landwirtschaft von frühen Mittelalter bis zum 19 Jahrhundert. Stuttgart: Ulmer. Google Scholar Aberle, E.D. et al. 2001. Principles of Meat Science. Dubuque, IA: Kendall Hunt Publishing. Google Scholar Adams, C. 2010. The Sexual Politics of Meat: A Feminist-Vegetarian Critical Theory. New York: Continuum International Publishing Group. http://books.google.ca/books/about/The_Sexual_Politics_of_Meat.html?id=AwrwRKNavtAC. Accessed on November 14, 2012. Google Scholar AFSSA (Agence française_de_sécurité sanitaire des produits de santé). 2009. Synthèse de l'étude Individuelle Nationale des Consommations Alimentaires 2 (INCA 2) 2006–2007. Paris: AFSSA. Google Scholar Aiello, L.C. and J.C.K. Wells. 2002. Energetics and the evolution of the genus Homo . Annual Review of Anthropology 31: 323– 338. Google Scholar Aiello, L.C. and P. Wheeler. 1995. The expensive-tissue hypothesis. Current Anthropology 36: 199– 221. Google Scholar Al-Deseit, B. 2009. Least-cost broiler ration formulation using linear programming technique. Journal of Animal and Veterinary Advances 8: 1274– 1278. Google Scholar Allan, J.A. 1993. Fortunately there are substitutes for water otherwise our hydro-political futures would be impossible. In: Priorities for Water Resources Allocation and Management. London: ODA, pp. 13– 26. Google Scholar Allbaugh, L.G. 1953. Crete: A Case Study of an Undeveloped Area. Princeton, NJ: Princeton University Press. Google Scholar Allen, R.C. 2007. How Prosperous Were the Romans? Evidence from Diocletian's Price Edict (301 AD). Oxford: Department of Economics, Oxford University. Google Scholar Allen, J.R.M. 2010. Last glacial vegetation of northern Eurasia. Quaternary Science Reviews 29: 2604– 2618. Google Scholar de Almeida, J.C. et al. 2006. Fatty acid composition and cholesterol content of beef and chicken meat in Southern Brazil. Brazilian Journal of Pharmaceutical Sciences 42: 109– 117. Google Scholar Alonso, A. et al. 2009. Cardiovascular risk factors and dementia mortality: 40 years of follow-up in the Seven Countries Study. Journal of Neurological Sciences 2009: 79– 83. Google Scholar Alroy, J. 2001. A multispecies overkill simulation of the end-Pleistocene megafaunal mass extinction. Science 292: 1893– 1896. Google Scholar Alvard, M.S. and L. Kuznar. 2001. Deferred harvests: The transition from hunting to animal husbandry. American Anthropologist 103: 295– 311. Google Scholar Alverson, D.L. 2005. Managing the catch of non-target species. In: W.S. Wooster and J.M. Quinn, eds., Improving Fishery Management: Melding Science and Governance. Seattle, WA: The School of Marine Affairs, University of Washington. Google Scholar Alverson, D.L. et al. 2004. A Global Assessment of Fisheries Bycatch and Discards. Rome: FAO. Google Scholar AMI (American Meat Institute). 2012. The United States Meat Industry at a Glance. http://www.meatami.com/ht/d/sp/i/47465/pid/47465. Accessed on November 14, 2012. Google Scholar Amit, M. 2010. Vegetarian diets in children and adolescents. Pediatric Child Health 15(3): 303– 308. Google Scholar Anderson, O.E. 1953. Refrigeration in America: A History of a New Technology and Its Impact. Princeton, NJ: Princeton University Press. Google Scholar Animal Liberation Front. 2012. Manifesto for Radical Abolitionism: By Any Means. http://www.animalliberationfront.com/ALFront/Manifesto-TotalLib.htm. Accessed on November 14, 2012. Google Scholar Antony, A.C. 2003. Vegetarianism and vitamin B-12 (cobalamin) deficiency. American Journal of Clinical Nutrition 78: 3– 6. Google Scholar Århem, K. 1989. Maasai food symbolism: The cultural connotations of milk, meat, and blood in the pastoral Maasai diet. Anthropos 8: 1– 23. Google Scholar Armelagos, G.J. and K.N. Harper. 2005. Genomics at the origins of agriculture, part one. Evolutionary Anthropology 14: 68– 77. Google Scholar Asner, G.P. et al. 2004. Grazing systems, ecosystem responses and global change. Annual Review of Environment and Resources 29: 261– 299. Google Scholar Atalay, S. and C.A. Hastorf. 2006. Food, meals, and daily activities: Food habitus at Neolithic Çatalhöyük. American Antiquity 71: 283– 319. Google Scholar Atwater, W.O. 1888. Foods and beverages. The Century Magazine. May, pp. 135– 139. Google Scholar Atwater, W. and C. Woods. 1896. The Chemical Composition of American Food Materials. Washington, DC: USDA. Google Scholar</t>
+          <t>The triple revolution in biotechnology, computing science, and communication technology has stimulated informatics applications in rice research. This review specifically covers the impact of biology-focused informatics (bioinformatics) in rice research on the discovery of genotype-phenotype relationships for priority traits, using diverse data sources. Bioinformatics is a scientific discipline lying at the intersection of biology, mathematics, computing science, and information technology. Bioinformatics can be discussed within the following frameworks: • Applications: What kind of research questions can be answered using bioinformatics? • Databases: What data sources and applicable semantic standards (ontology1) are pertinent to answering these research questions? • Protocols, algorithms, and tools: What analysis protocols, computing algorithms, and software tools can be applied to answer these research questions? • Infrastructure: What hardware, software, and networking systems are required to support the above? This review will focus primarily on germplasm-based crop research, although many of the same tools can be applied to current problems in soil microbiology, entomology, and other areas of crop research. Also, some of the design principles of bioinformatics information systems will be useful  for other research fields, such as geographic and agronomic information systems.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384342817</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7554/elife.86636.3.sa0</t>
+          <t>https://openalex.org/W2381344088</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Antunes (2023)</t>
+          <t>Xiao-ling (2010)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>eLife assessment: Longitudinal map of transcriptome changes in the Lyme pathogen Borrelia burgdorferi during tick-borne transmission</t>
+          <t>Teachers Spoken Language Teaching——The Teaching Concept of Inter-subjectivity of Teachers and Students</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Full text Figures and data Side by side Abstract eLife assessment Introduction Results Discussion Methods Data availability References Peer review Author response Article and author information Metrics Abstract Borrelia burgdorferi (Bb), the causative agent of Lyme disease, adapts to vastly different environments as it cycles between tick vector and vertebrate host. During a tick bloodmeal, Bb alters its gene expression to prepare for vertebrate infection; however, the full range of transcriptional changes that occur over several days inside of the tick are technically challenging to capture. We developed an experimental approach to enrich Bb cells to longitudinally define their global transcriptomic landscape inside nymphal Ixodes scapularis ticks during a transmitting bloodmeal. We identified 192 Bb genes that substantially change expression over the course of the bloodmeal from 1 to 4 days after host attachment. The majority of upregulated genes encode proteins found at the cell envelope or proteins of unknown function, including 45 outer surface lipoproteins embedded in the unusual protein-rich coat of Bb. As these proteins may facilitate Bb interactions with the host, we utilized mass spectrometry to identify candidate tick proteins that physically associate with Bb. The Bb enrichment methodology along with the ex vivo Bb transcriptomes and candidate tick interacting proteins presented here provide a resource to facilitate investigations into key determinants of Bb priming and transmission during the tick stage of its unique transmission cycle. eLife assessment In this Tools and Resources article, the authors overcome the challenge of low Borrelia burgdorferi numbers during infection for analyses such as RNA-sequencing or mass spectrometry. They do so by physically enriching for spirochetes, which is important, as it provides technical advances for the study of global transcriptomic changes of B. burgdorferi during tick feeding, helping to build on the knowledge already collected by the field. The evidence presented is compelling, and the strategy described here could benefit researchers in the field and possibly also support broader applications. https://doi.org/10.7554/eLife.86636.3.sa0 About eLife assessments Introduction Vector-borne microbial pathogens are transmitted by the bite of arthropods and have evolved sophisticated ways to adapt to vastly different environments as they move between vector and host. Uncovering their adaptive mechanisms can not only open avenues for disrupting pathogen transmission but also provide fundamental insights into vector physiology and microbial symbioses (Shaw and Catteruccia, 2019). Lyme disease, the most reported vector-borne disease in North America, is caused by the bacterial pathogen Borrelia burgdorferi (Bb) (Rosenberg et al., 2018; Steere et al., 2016). Its primary vector, the blacklegged tick Ixodes scapularis, acquires and transmits Bb through two separate multi-day bloodmeals, one in which Bb is acquired from an infected vertebrate host and a second, during the subsequent life stage, in which Bb is transmitted to a new host (Tilly et al., 2008). During the transmission bloodmeal, Bb proliferates in the tick midgut before a subset of these cells disseminate to the salivary glands (Dunham-Ems et al., 2009). Bb is deposited into the new host via the tick saliva extruded into the bite site (Ribeiro et al., 1987). Given the prolonged nature of I. scapularis feeding, the high specificity of vector-pathogen relationships, and the complicated array of events needed for successful Bb transmission, the tick bloodmeal provides an opportune intervention point for preventing pathogen spread. However, we do not currently have a clear understanding of the molecular mechanisms involved in this process. Bb must adapt to dramatically different environments as it cycles from tick to vertebrate host, and understanding the genes involved in this process will enable the identification of key interactions to target to prevent transmission. When an infected tick feeds, Bb responds to bloodmeal-induced environmental changes and undergoes cellular modifications driven by key transcriptional circuits, including the RpoN/RpoS sigma factor cascade and the Hk1/Rrp1 two-component system (Radolf et al., 2012). In vitro analyses of Bb cells cultured in tick- or mammal-like growth conditions have pointed to additional genetic determinants of tick-borne transmission by revealing widespread transcriptome remodeling during host switching (reviewed in Samuels et al., 2021). However, it is not fully clear how these in vitro expression changes correspond to complex in vivo changes over the course of a transmission bloodmeal. Capturing comprehensive, longitudinal data on Bb gene expression from inside its vector has been hampered by technical challenges due to the dynamic nature of the bloodmeal and the general low abundance of bacterial cells relative to the tick (Samuels et al., 2021). Some </t>
+          <t>Of the main educational theory that education activities are the activities of teachers and students inter-subjectivity,according to Teachers Spoken Language class,as the characteristics of skills training courses,teachers should change their ideas and establish the concept of teaching teachers and students' inter-subjectivity.In the Teachers Spoken Language teacher-student inter-subject teaching,students with learning autonomy,initiative,challenge and creativity of the characteristics of teachers with selecting the right entry point for the course,sort out their knowledge points to stimulate the excitement of learning points,divergent points of learning to cultivate the characteristics of active participation in the classroom with teachers and students,cooperative learning,and deepen thinking,respect for differences in characteristics.Interaction in teaching,students continue to transformation,evolution and development,and teachers continue to be strengthened,enrich and improve,both sides in a harmonious unity of the activities together to achieve the mutual motivated,both teaching and learning.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3010245350</t>
+          <t>https://openalex.org/W4313839267</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.54355.sa1</t>
+          <t>https://doi.org/10.25148/etd.fidc009718</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Farkašovský (2019)</t>
+          <t>Gudnitz (2023)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Decision letter: Guanidine hydrochloride reactivates an ancient septin hetero-oligomer assembly pathway in budding yeast</t>
+          <t>Comparison of Modern and Mid-Holocene Benthic Foraminifera to Assess Recent Environmental Change in Almirante Bay, Caribbean Panama</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Article Figures and data Abstract eLife digest Introduction Results Discussion Materials and methods Data availability References Decision letter Author response Article and author information Metrics Abstract Septin proteins evolved from ancestral GTPases and co-assemble into hetero-oligomers and cytoskeletal filaments. In Saccharomyces cerevisiae, five septins comprise two species of hetero-octamers, Cdc11/Shs1–Cdc12–Cdc3–Cdc10–Cdc10–Cdc3–Cdc12–Cdc11/Shs1. Slow GTPase activity by Cdc12 directs the choice of incorporation of Cdc11 vs Shs1, but many septins, including Cdc3, lack GTPase activity. We serendipitously discovered that guanidine hydrochloride rescues septin function in cdc10 mutants by promoting assembly of non-native Cdc11/Shs1–Cdc12–Cdc3–Cdc3–Cdc12–Cdc11/Shs1 hexamers. We provide evidence that in S. cerevisiae Cdc3 guanidinium occupies the site of a ‘missing’ Arg side chain found in other fungal species where (i) the Cdc3 subunit is an active GTPase and (ii) Cdc10-less hexamers natively co-exist with octamers. We propose that guanidinium reactivates a latent septin assembly pathway that was suppressed during fungal evolution in order to restrict assembly to octamers. Since homodimerization by a GTPase-active human septin also creates hexamers that exclude Cdc10-like central subunits, our new mechanistic insights likely apply throughout phylogeny. eLife digest For a cell to work and perform its role, it relies on molecules called proteins that are made up of chains of amino acids. Individual proteins can join together like pieces in a puzzle to form larger, more complex structures. How the protein subunits fit together depends on their individual shapes and sizes. Many cells contain proteins called septins, which can assemble into larger protein complexes that are involved in range of cellular processes. The number of subunits within these complexes differs between organisms and sometimes even between cell types in the same organism. For example, yeast typically have eight subunits within a septin protein complex and struggle to survive when the number of septin subunits is reduced to six. Whereas other organisms, including humans, can make septin protein complexes containing six or eight subunits. However, it is poorly understood how septin proteins are able to organize themselves into these different sized complexes. Now, Johnson et al. show that a chemical called guanidinium helps yeast make complexes containing six septin subunits. Guanidinium has many similarities to the amino acid arginine. Comparing septins from different species revealed that one of the septin proteins in yeast lacks a key arginine component. This led Johnson et al. to propose that when guanidinium binds to septin at the site where arginine should be, this steers the septin protein towards the shape required to make a six-subunit complex. These findings reveal a new detail of how some species evolved complexes consisting of different numbers of subunits. This work demonstrates a key difference between complexes made up of six septin proteins and complexes which are made up of eight, which may be relevant in how different human cells adapt their septin complexes for different purposes. It may also become possible to use guanidinium to treat genetic diseases that result from the loss of arginine in certain proteins. Introduction Septin proteins are found in nearly every eukaryotic lineage, with the exception of land plants (Auxier et al., 2019; Nishihama et al., 2011; Onishi and Pringle, 2016; Pan et al., 2007). In most extant organisms studied to date, multiple septin proteins co-assemble into linear, rod-shaped hetero-oligomers with at least some potential to polymerize into filaments (Fung et al., 2014; Mostowy and Cossart, 2012; Oh and Bi, 2011). Septin hetero-oligomers are now known to contribute functionally to a wide variety of cellular processes (Dolat et al., 2014; Saarikangas and Barral, 2011). A number of human diseases and disorders, ranging from cancer to male infertility, have been linked to septin dysregulation or mutation (Dolat et al., 2014; Saarikangas and Barral, 2011), but within our understanding of septin roles in cellular function one common theme emerges: the ability to assemble into quaternary complexes is key. All distinct septins share clear homology, but phylogenetic analysis reveals septin groups and subgroups (Pan et al., 2007) that can accurately predict which septin occupies which subunit position within hetero-oligomers (Nakahira et al., 2010). However, the subtleties of the distinctions between septins that drive assembly of hetero-oligomers with precise subunit organization remain incompletely understood. Moreover, the oligomerization interfaces have not diverged drastically from the ancestral form, as nearly all septins retain the ability to homo-oligomerize in vitro (Farkasovsky et al., 2005; Versele et al., 2004) whether or not they do so in vivo. How cells assemble specific septin het</t>
+          <t>This study used the diversity and distribution of benthic foraminiferal assemblages of Almirante Bay, Caribbean Panama, as environmental proxies to compare modern coral, seagrass, and mangrove habitats to mid-Holocene coral reef facies on the island of Isla Colón, to investigate both natural and human-influenced changes.The modern study associated species and assemblage characteristics with environmental conditions related to degraded water quality.Assemblages were fairly similar among neighboring habitats but differed in species proportions, while several stress-tolerant taxa might indicate eutrophic conditions.Diversity appeared to be regionally controlled by freshwater input irrespective of habitat type, was generally lower near the mainland than the southwest coast of Isla Colón, and was predominantly lower in mangroves than in coral reef and seagrass sediments.These results provide baseline ecologic data for comparisons to past, pristine coastal habitats. viThe assemblages from mid-Holocene reef facies were analyzed for their correspondence to marine habitats and dominant invertebrates.Assemblages differentiated seagrass and molluscan mud samples from corals.Reefal assemblages were most diverse and did not distinguish among sediments characterized by different coral taxa, suggesting similar, normal marine conditions and/or mixing of coral fragments.Molluscan mud samples with high total organic carbon content were least diverse, though foraminifera in other molluscan mud samples showed a transition to proximal corals.Epiphytic seagrass taxa were present in relatively greater amounts in seagrass and samples with the corals Porites and Agaricia.The distribution of foraminiferal species suggests this reef was a patch reef similar to those of modern Almirante Bay.Modern and mid-Holocene foraminiferal assemblages are significantly different with few exceptions.Modern mangroves and mid-Holocene molluscan mud facies were least diverse, while seagrass and reef diversity were near even.Although foraminiferal wall types suggested more freshwater input today, similarities in species assemblages and diversities suggest the modern embayed ecosystem is comparable in water quality to that of the pristine reef that grew prior to human settlement.These results demonstrate the utility and explore the limits of benthic foraminiferal assemblages to assess the impact of anthropogenic disturbance in patch-reef environments, with implications for the preservation and conservation of marine habitats along tropical coastlines.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386999357</t>
+          <t>https://openalex.org/W4394844600</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3917/pox.139.0095</t>
+          <t>https://doi.org/10.17073/1997-308x-2024-1-31-39</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Madon (2023)</t>
+          <t>Polozov et al. (2024)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>« Tu peux être écolo sans être extrémiste »</t>
+          <t>Influence of copper on the microstructure and mechanical properties of titanium ortho-alloy produced by selective laser melting</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>La littérature sur les mouvements sociaux a montré que l’engagement dans une organisation militante, a fortiori un collectif qui promeut des transformations de modes de vie comme certains mouvements écologistes, est vecteur d’une socialisation secondaire. Les membres de ces collectifs font l’expérience d’un rejet de leur identité d’écologistes par leur entourage non engagé : leur engagement est perçu comme trop radical. Ils cherchent alors à s’engager en évitant toute forme de stigmate. Ce sont ces négociations que cet article s’attache à explorer, en étudiant ce qui se passe dans les interactions entre les individus engagés, leur collectif et les membres de leur entourage. À travers une ethnographie comparative d’un mouvement de jeunes et d’un écovillage, l’article montre comment les individus valorisent leur distance vis-à-vis de tout engagement trop catégorique par l’adoption de stratégies de pacification , qui visent à communiquer leurs choix de vie d’une manière qui soit acceptable par d’autres.</t>
+          <t>This study explores an intermetallic orthorhombic titanium alloy produced by incorporating varying copper concentrations ranging from 0 to 6 wt. % through in-situ doping during selective laser melting (SLM) fabrication, coupled with simultaneous substrate preheating. The investigation delves into the influence of copper introduction on grain refinement within the primary B2/β-phase and subsequent alterations in mechanical properties. Through X -ray diffraction analysis and scanning electron microscopy, the microstructure characterized by the presence of the B2/β-phase and orthorhombic phase precipitates was identified. Additionally, the detection of a minor quantity of the α 2 -Ti 3 Al-phase was noted, with its proportion increasing proportionally with the augmentation of copper content. Differential scanning calorimetry revealed a shift in the phase transformation temperatures towards higher temperatures and a constricted α 2 -Ti 3 Al + B2/β + Ti 2 AlNb region, attributed to the inclusion of copper. The addition of copper, up to 6 wt. %, resulted in the softening and embrittlement of the orthorhombic alloy, forming a fine-grained microstructure with an average grain size of 8.3 μm. Energy dispersive X -ray spectroscopy confirmed the presence of an intermetallic O-phase along the grain boundaries, contributing to a 12 % increase in hardness compared to the orthorhombic alloy without copper after SLM with substrate heating at 850 °C. An alloy containing 4 wt. % copper exhibited superior plastic properties and a tensile strength of 1080 MPa, comparable to the strength of the orthorhombic alloy obtained via SLM followed by hot isostatic pressing.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4294749298</t>
+          <t>https://openalex.org/W4376459924</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17072/2078-7898/2022-2-339-349</t>
+          <t>https://doi.org/10.1515/ang-2023-0002</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ermilova (2022)</t>
+          <t>İlimen (2023)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The habitus of the athlete: a sociological interpretation through the prism of P. Bourdieu’s theory</t>
+          <t>Gertrude Atherton’s WWI Propaganda to the Home Front:&lt;i&gt;Mrs. Balfame&lt;/i&gt;,&lt;i&gt;The Living Present&lt;/i&gt;and&lt;i&gt;The White Morning&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>The article provides a sociological interpretation of the concept of the «athlete’s habitus» performed through the prism of P. Bourdieu’s theory based on sociological research data. To describe the athletes’ habitus, data of the following sociological studies were used: interviews with athletes studying at the Faculty of Physical Culture and Sports of Lobachevsky University (n = 74 persons representing individual and team sports in a 50/50 ratio); secondary analysis of interviews with mothers of high-performance athletes (n = 3 persons); participant observation carried out during the training and sports process with representatives of the following sports: volleyball, basketball, hockey, athletics, martial arts. The grounded theory approach, proposed by A. Strausset and D. Corbin, was used to analyze the data obtained during the interviews with student athletes, part of which were applied the method of «life histories» (analysis of the life of athletes from their mothers’ words) and conversational analysis (analysis of the interviewer-athlete dialogues). During the data analysis (coding procedure) the following concepts were identified and described: trajectories and stages of the sports habitus formation, social practices of the athlete’s habitus; a strong connection was noted between these concepts. Reliability of the obtained results is within the acceptable level as the subjective views of the informants are expressed in the indicators typical of their activity, acquired in the process of integration into the sports field over 10 years or more. This resulted in a high sports status (candidate master of sports, master of sports), which was the rationale for their selection for the interview. The paper reveals the peculiarities of the formation of the athletes’ habitus, its trajectory, and formation stages. Depending on the stage of the habitus formation in the sports field, the agent is endowed with transitional sports habitus, which, accumulating, allow the individual to acquire the habitus of the established athlete. The athlete’s habitus synthesizes the diversity of social experiences of agents of various social fields, thereby endowing itself with the identity of the realization of practices characteristic only of the social space of sport. In general, we can define the athlete’s habitus as a system of acquired predispositions that are imposed by the structure of the social field of sport.</t>
+          <t>Abstract Gertrude Atherton’s Mrs. Balfame (1916), The Living Present (1917) and The White Morning (1918) address the home front audience about the war front of World War I. Atherton chronicles American political transition from isolationism to new internationalism with her pro-Ally and pro-American agenda. In her novel Mrs. Balfame , Atherton reflects political polarization in American society during the U. S. neutrality and anti-German stance, referring to the impacts of war reports on public opinion. The Living Present underlines French women’s wartime services on the home front and transatlantic collaboration through Atherton’s recollections. In her novel The White Morning , German women’s suffering and sense of duty gradually carry them to the war front with women’s revolution that brings their war to an end with Prussian militarism and patriarchal oppression. Thus, Atherton’s propaganda literature encourages women’s political awareness and wartime mobilization for their postwar progress and demands as citizens.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2088607182</t>
+          <t>https://openalex.org/W4396597102</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3860/irrn.v31i1.1179</t>
+          <t>https://doi.org/10.47894/mpal.70.3.07</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bruskiewich et al. (2009)</t>
+          <t>Trubin et al. (2024)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Bioinformatics and crop information systems in rice research</t>
+          <t>Upper Eocene benthic foraminiferal assemblages from Western Siberia (Trans-Ural Region): a multi-proxy approach to infer environmental changes</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The triple revolution in biotechnology, computing science, and communication technology has stimulated informatics applications in rice research. This review specifically covers the impact of biology-focused informatics (bioinformatics) in rice research on the discovery of genotype-phenotype relationships for priority traits, using diverse data sources. Bioinformatics is a scientific discipline lying at the intersection of biology, mathematics, computing science, and information technology. Bioinformatics can be discussed within the following frameworks: • Applications: What kind of research questions can be answered using bioinformatics? • Databases: What data sources and applicable semantic standards (ontology1) are pertinent to answering these research questions? • Protocols, algorithms, and tools: What analysis protocols, computing algorithms, and software tools can be applied to answer these research questions? • Infrastructure: What hardware, software, and networking systems are required to support the above? This review will focus primarily on germplasm-based crop research, although many of the same tools can be applied to current problems in soil microbiology, entomology, and other areas of crop research. Also, some of the design principles of bioinformatics information systems will be useful  for other research fields, such as geographic and agronomic information systems.</t>
+          <t>During the Late Eocene, the West Siberian Basin became increasingly isolated from the Peri-Tethys Ocean. The final stage of this marine connection is marked by sediments of the Tavda Formation thatwere deposited during the Bartonian and Priabonion. We have analyzed the composition, structure and diversity of benthic foraminiferal assemblages in core material from the Kyshtyrla Quarry located in the southwest of Western Siberia to reconstruct the depositional environment during the terminal phase of marine sedimentation in theWest Siberian Basin (Upper Tavda Subformation). The foraminiferal record was jointly used with lithological and geochemical multi-proxy data to infer the chronology of events that shaped the critical transition until the complete closure of the basin. Based on stratigraphic index markers, a Priabonian age is indicated for sediments of the Upper Tavda Subformation. From the bottom to the top of the core, the foraminiferal biotas progressively shift from shallow subtidal to low-diverse and stress-tolerant intertidal assemblages, indicative for an increasing isolation of the West Siberian Basin. The increasing shallowing of the marine basin is accompanied by a gradual shift in grain size, and the continuous presence of benthic foraminifera and ratios of geochemical proxies (Sr/Ba, Si/Al, Ti/Al, Zr/Al, K/Al, and U/Th) indicate that mainly marine to brackish water conditions prevailed.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2381344088</t>
+          <t>https://openalex.org/W3195852376</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Xiao-ling (2010)</t>
+          <t>Soto (2021)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Teachers Spoken Language Teaching——The Teaching Concept of Inter-subjectivity of Teachers and Students</t>
+          <t>Educación Física para el desarrollo de la consciencia: una propuesta pedagógica</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Of the main educational theory that education activities are the activities of teachers and students inter-subjectivity,according to Teachers Spoken Language class,as the characteristics of skills training courses,teachers should change their ideas and establish the concept of teaching teachers and students' inter-subjectivity.In the Teachers Spoken Language teacher-student inter-subject teaching,students with learning autonomy,initiative,challenge and creativity of the characteristics of teachers with selecting the right entry point for the course,sort out their knowledge points to stimulate the excitement of learning points,divergent points of learning to cultivate the characteristics of active participation in the classroom with teachers and students,cooperative learning,and deepen thinking,respect for differences in characteristics.Interaction in teaching,students continue to transformation,evolution and development,and teachers continue to be strengthened,enrich and improve,both sides in a harmonious unity of the activities together to achieve the mutual motivated,both teaching and learning.</t>
+          <t>espanolEn este ensayo se presenta una propuesta pedagogica en educacion fisica dirigida a favorecer un aprendizaje significativo transferible a la vida cotidiana y una mayor consciencia social, a partir de la integracion de mindfulness (consciencia plena) como base onto-epistemologica. Para ello, en la primera parte, se analiza el concepto de mindfulness desde su naturaleza esencial segun la perspectiva budista, que integra sus fundamentos morales y sus implicaciones politicas. Asimismo, se critica el uso de mindfulness en el ambito educativo como una mera tecnica, para, a partir de ahi, defender las posibilidades de su inclusion como esencia onto-epistemologica de la accion pedagogica. En la segunda parte, se desarrollan los principios de esta propuesta de educacion fisica enfocada a la expansion de la consciencia no condicionada del ser humano: una educacion fisica orientada al crecimiento personal y moral, que estimule la participacion politica y contribuya a la transformacion social. EnglishIn this essay, a pedagogical proposal in physical education is presented aimed at promoting meaningful learning transferableto everyday life and greater social awareness, based on the integration of mindfulness as an onto-epistemological basis. For this, in thefirst part, the concept of mindfulness is analyzed from its essential nature according to the Buddhist perspective, which integrates itsmoral foundations and its political implications. Likewise, the use of mindfulness in the educational field is criticized as a mere technique,in order to, from there, defend the possibilities of its inclusion as an onto-epistemological essence of pedagogical action. In the secondpart, the principles of this proposal of physical education focused on the expansion of the unconditional consciousness of the humanbeing are developed: a physical education oriented to personal and moral growth, which stimulates political participation and contributesto social transformation.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2761783439</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.techfore.2018.10.004</t>
+          <t>https://openalex.org/W2771179883</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cian et al. (2020)</t>
+          <t>Hugon (2016)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Actors, decision-making, and institutions in quantitative system modelling</t>
+          <t>From the Mixed Results of the Millennium Development Goals (MDGs) to the Implementation Difficulties of Sustainable Devel</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Increasing realism in quantitative system modelling with respect to the representation of actors, decision-making, and institutions is critical to better understand the transition towards a low-carbon sustainable society. Yet, studies using quantitative system models, which have become a key analytical tool to support sustainability and decarbonization policies, focus on outcomes, therefore overlooking the dynamics of the drivers of change. We explore opportunities that arise from a deeper engagement of quantitative systems modelling with social science. We argue that several opportunities for enriching the realism in model-based scenario analysis can arise through model refinements oriented towards a more detailed approach in terms of actor heterogeneity, as well as through integration across different analytical and disciplinary approaches. Several opportunities that do not require major changes in model structure are ready to be seized. Promising ones include combining different types of models and enriching model-based scenarios with evidence from applied economics and transition studies.</t>
+          <t>MDGs, conceived in terms of social objectives to be achieved by 2015 solely for the countries of the South, did not question the collective preferences of the North. The transition from MDGs to SDGs occurs in a context where global, in particular climatic, questions dominate the debates. Translating objectives to be achieved into resources to be mobilized and into observable results (profits) is particularly difficult for a long-lasting (sustainable) and, at the same time, inclusive development. This article presents the contrasted assessment of MDGs, and examines the main stakes of SDGs in a multipolar world where the financialization of capitalism is characterized by the displacement of wealth and power and the vulnerability of part of the population.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1990995725</t>
+          <t>https://openalex.org/W4295957317</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005768-199805001-00456</t>
+          <t>https://doi.org/10.1525/jpms.2022.34.3.142</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Butcher (1998)</t>
+          <t>Abramowitz (2022)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PHYSICAL ACTIVITY PARTICIPATION: TRANSITION FROM LATE ADOLESCENCE TO EARLY ADULTHOOD</t>
+          <t>Review Essay: &lt;i&gt;Am I Blue?: Black Music &amp;amp; White Male Self-Construction&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Essay| September 01 2022 Review Essay: Am I Blue?: Black Music &amp; White Male Self-Construction Adam Gussow, Whose Blues?: Facing Up to Race and the Future of the Music. Chapel Hill: University of North Carolina Press, 2020. 332 pp.George Henderson, Blind Joe Death’s America: John Fahey, the Blues, and Writing White Discontent. Chapel Hill: University of North Carolina Press, 2021. 228 pp. Sophie Abramowitz Sophie Abramowitz Email: sophie_abramowitz@brown.edu Dr. Sophie Abramowitz is a Postdoctoral Fellow at Brown University in a joint appointment with the Department of American Studies and the Center for Digital Scholarship at Brown University Library. Her current book project, Playing the Folk, examines how authors like Zora Neale Hurston, Langston Hughes, and Francis La Flesche adapted the language and ideas of folklore to create musical and dramatic performances, in order to exchange and address changing ideas of racial and gender self-definition. Her teaching similarly focuses on race, cultural history, and creative world-building through the practices of collecting and musical performance. Dr. Abramowitz also collaborates on a number of archival and digital projects, including a multiplatform compilation of recordings from the 1969 Ann Arbor Blues Festival, released on Third Man Records in 2019. Search for other works by this author on: This Site PubMed Google Scholar Journal of Popular Music Studies (2022) 34 (3): 142–151. https://doi.org/10.1525/jpms.2022.34.3.142 Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation Sophie Abramowitz; Review Essay: Am I Blue?: Black Music &amp; White Male Self-Construction. Journal of Popular Music Studies 1 September 2022; 34 (3): 142–151. doi: https://doi.org/10.1525/jpms.2022.34.3.142 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentJournal of Popular Music Studies Search Adam Gussow’s Whose Blues?: Facing Up to Race and the Future of the Music and George Henderson’s Blind Joe Death’s America: John Fahey, the Blues, and Writing White Discontent were both published in the last three years, a time of Black revolution. As revisiting the politics of cultural appropriation and dismantling the violent construction of whiteness become increasingly urgent, so too does the study of histories of Black creativity and of the ways that whiteness has been historically constructed against and through ideas of Blackness. It is within these imperatives that I situate these two books. Each looks to roots music as a lens through which to deal with the shifting history of white longing for a particular, socially contingent idea of Blackness. In Whose Blues? Gussow answers the question proposed in the book’s title by staging a debate between two positions that he calls “black bluesism” and “blues... You do not currently have access to this content.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059453244</t>
+          <t>https://openalex.org/W4295769128</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/2325957413500532</t>
+          <t>https://doi.org/10.23919/picmet53225.2022.9882799</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Gardner et al. (2013)</t>
+          <t>Viswanathan &amp; Telukdarie (2022)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Initial Linkage and Subsequent Retention in HIV Care for a Newly Diagnosed HIV-Infected Cohort in Denver, Colorado</t>
+          <t>The Impact of 4IR on the Future Skills in Food and Beverage Industry</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>This is a retrospective cohort study of 352 newly diagnosed HIV-infected individuals in Denver, from 2005 to 2007. Utilizing data from 3 health care systems, 2 clinical trials units, and statewide Colorado HIV laboratory reporting databases, we tracked initial linkage to HIV care, retention in care, loss to follow-up, and transitions between HIV care providers. After more than 2.6 years of follow-up, 256 (73%) individuals linked to HIV care within 180 days. Of the 301 individuals who eventually linked to care, 168 (56%) had at least one 180-day gap in care, while 49 (16%) had a 360-day gap. Transitions in care were common, with 131 (37%) individuals accessing care from 2 different providers and 15% having evidence of living outside of Colorado. In this newly diagnosed HIV-infected cohort, linkage to care was slow and long-term retention in care was poor. Transitions between HIV care providers were common and may impair engagement in care over time. Out-of-state migration was frequent and may cause an underestimation of engagement in care.</t>
+          <t>Globalization impacts the economy of every nation, worldwide. The global impact of the Fourth Industrial Revolution (4IR) is impending. In an aim to achieve excellence amidst dynamic\volatile market with difficult environmental conditions, there is a growing demand for competent personnel in all fields inclusive of technological and other. Sectors such as the food and beverage sector are not immune to changes. This paper conducts a tier one analysis of global publications in the Food and Beverage sector, extracting trends and changes. The secondary data analysis focus on the focus themes as defined in the literature, specific to country, region, research area, and highest cited papers. The core objective is to provide a detailed analysis for further studies in focusing on the demand for future skills in this sector. The research team provide for key data analysis to guide sector skills investment in order to provide skills training for future skills.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376459924</t>
+          <t>https://openalex.org/W2172493267</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/ang-2023-0002</t>
+          <t>https://doi.org/10.1007/bf02894784</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>İlimen (2023)</t>
+          <t>Weimar (1973)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Gertrude Atherton’s WWI Propaganda to the Home Front:&lt;i&gt;Mrs. Balfame&lt;/i&gt;,&lt;i&gt;The Living Present&lt;/i&gt;and&lt;i&gt;The White Morning&lt;/i&gt;</t>
+          <t>A general first-order deformation solution</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Abstract Gertrude Atherton’s Mrs. Balfame (1916), The Living Present (1917) and The White Morning (1918) address the home front audience about the war front of World War I. Atherton chronicles American political transition from isolationism to new internationalism with her pro-Ally and pro-American agenda. In her novel Mrs. Balfame , Atherton reflects political polarization in American society during the U. S. neutrality and anti-German stance, referring to the impacts of war reports on public opinion. The Living Present underlines French women’s wartime services on the home front and transatlantic collaboration through Atherton’s recollections. In her novel The White Morning , German women’s suffering and sense of duty gradually carry them to the war front with women’s revolution that brings their war to an end with Prussian militarism and patriarchal oppression. Thus, Atherton’s propaganda literature encourages women’s political awareness and wartime mobilization for their postwar progress and demands as citizens.</t>
+          <t>The general first-order deformation of representationsϱ of inhomogeneous Lie algebras into those of semi-simple noncompact Lie algebras $$\mathfrak{G} = \mathfrak{K} + \mathfrak{P}$$ is studied. If dim $$H^1 (\mathop \mathfrak{G}\limits^ \circ ,\mathfrak{K}) = 1$$ and the irreducible initial representationϱ with M2 ≠ 0 decomposes into a sum of irreducible representations of $$\mathfrak{K}$$ with multiplicity 1, then the general solution can be constructed by the aid of a spectral solution of the deformation problem $$\mathop \mathfrak{G}\limits^ \circ \to \mathfrak{G}$$ and the general solution of the corresponding deformation problem $$\mathop \mathfrak{G}\limits^ \circ \to \mathop \mathfrak{G}\limits^ \circ $$ . If $$\mathop \mathfrak{P}\limits^ \circ $$ allows transitions within one representation of $$\mathfrak{K}$$ , the special solution is unique. Otherwise there exists an additional degree of freedom leading to—as three examples studied in the Appendix show—supplementary series of ©.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4396597102</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.47894/mpal.70.3.07</t>
+          <t>https://openalex.org/W2519370118</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Trubin et al. (2024)</t>
+          <t>Bradley (2015)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Upper Eocene benthic foraminiferal assemblages from Western Siberia (Trans-Ural Region): a multi-proxy approach to infer environmental changes</t>
+          <t>Le rituel funéraire hindou en contexte diasporique : rite de passage et rite d'ancrage : la communauté tamoule d'origine sri-lankaise de Montréal et Toronto</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>During the Late Eocene, the West Siberian Basin became increasingly isolated from the Peri-Tethys Ocean. The final stage of this marine connection is marked by sediments of the Tavda Formation thatwere deposited during the Bartonian and Priabonion. We have analyzed the composition, structure and diversity of benthic foraminiferal assemblages in core material from the Kyshtyrla Quarry located in the southwest of Western Siberia to reconstruct the depositional environment during the terminal phase of marine sedimentation in theWest Siberian Basin (Upper Tavda Subformation). The foraminiferal record was jointly used with lithological and geochemical multi-proxy data to infer the chronology of events that shaped the critical transition until the complete closure of the basin. Based on stratigraphic index markers, a Priabonian age is indicated for sediments of the Upper Tavda Subformation. From the bottom to the top of the core, the foraminiferal biotas progressively shift from shallow subtidal to low-diverse and stress-tolerant intertidal assemblages, indicative for an increasing isolation of the West Siberian Basin. The increasing shallowing of the marine basin is accompanied by a gradual shift in grain size, and the continuous presence of benthic foraminifera and ratios of geochemical proxies (Sr/Ba, Si/Al, Ti/Al, Zr/Al, K/Al, and U/Th) indicate that mainly marine to brackish water conditions prevailed.</t>
+          <t>Cette these entend demontrer l'importance des rituels religieux dans le processus de reconstruction identitaire en contexte diasporique, particulierement dans un cas de deterritorialisation forcee. Le cas etudie est celui de la communaute tamoule refugiee au Canada depuis pres de trente ans en raison de la guerre civile au Sri Lanka. Le rituel religieux analyse est le rite hindou de fin de vie qui s'etend sur plus d'un an apres le deces. Ceremonial complexe, il se deploie dans l'espace et dans le temps, ainsi que dans l'univers mental des participants. A partir des theories de Charles Taylor sur l'authenticite, de Stuart Hall sur l'identite et l'ethnicite, d'Arjun Appadurai sur le recours a l'imaginaire en contexte diasporique, le rituel funeraire hindou des Tamouls sri-lankais a Montreal et a Toronto est decrit avec minutie et analyse en profondeur. Si celui-ci a subi de nombreuses transformations par rapport a son deroulement traditionnel en pays d'origine, notamment afin de se conformer aux lois et reglements en vigueur au Canada, le rituel de fin de vie tamoul de tradition saiva a egalement amene l'industrie funeraire canadienne a evoluer et a s'adapter a de nouvelles pratiques religieuses afin d'accommoder ces nouveaux arrivants. Fruit d'une etude de terrain menee depuis une dizaine annees au sein de la communaute hindoue du temple Thiru Murugan de Dollard-des-Ormeaux ainsi que dans divers complexes funeraires et lieux de cremation de Montreal et de Toronto, cette these pose diverses questions de recherche, notamment pourquoi les funerailles tamoules saiva sont-elles presentement les plus couteuses sur le marche funeraire canadien? Cette these entend aussi verifier un certain nombre d'hypotheses. Par exemple, que la pratique religieuse des Tamouls saiva en contexte diasporique repose davantage sur l'accomplissement exact des rites que sur un dogme ou des articles de foi. L'execution parfaite du rituel serait ainsi plus importante que sa comprehension. Egalement, que le developpement de son rituel funeraire en terre canadienne vise a demontrer la transformation du statut de ses membres, de refugies en transit a celui de citoyens a part entiere, par un ancrage permanent dans leur pays d'adoption, element essentiel du processus de reconstruction identitaire a la fois individuel et collectif._x000D_
+______________________________________________________________________________ _x000D_
+MOTS-CLES DE L’AUTEUR : Immigration, refugie, diaspora, identite, hindou, saiva, Tamoul, Sri Lanka, mort, deuil, rituel funeraire, transnational, cosmopolitisme.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2570753418</t>
+          <t>https://openalex.org/W4289667608</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.33024/mnj.v4i8.6619</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Berahab et al. (2016)</t>
+          <t>Novita &amp; Fitriyani (2022)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Seven Years after the Crisis: Intersecting Perspectives</t>
+          <t>Pengaruh Indeks Massa Tubuh (IMT) terhadap Usia Menarche pada Remaja Putri: Literatur Review</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>This joint Bruegel-OCP Policy Center publication comprised of four policy contributions from researchers of both institutions is the result of the establishment of “Platform for Advanced &amp; Emerging Economies Policy Dialogue.” The first edition of this continuous dialogue took place in Rabat on April 1st 2016 under the theme of “Seven Years after the Crisis: Intersecting Perspectives.” In the first paper, “Youth Unemployment in the Mediterranean Region and its Long term Implications”, written by Nuria Boot, Karen E. Wilson and Guntram B. Wolff, the focus is on the correlation between youth unemployment in the Mediterranean region and the problems that this leads to in Europe as a whole. The second paper, “Energy Across the Mediterranean: A call for Realism”, by Simone Tagliapietra and George Zachmann, advises the European Union to draw lessons from two decades of unproductive regional cooperation attempts. Karim El Aynaoui, Uri Dadush, Karim El Mokri and Rim Berahab contributed with the paper “The Unmet Challenge of Interdependence in the EU-MENA space: A View from the South”. They examine bilateral relations between Europe and the Arab world, especially as they relate to trade, migration, investment, and energy. In “Industrial Policy, Structural Change and Global Value Chains Participation: A Case Study of Morocco, Tunisia and Egypt”, Abdelaaziz Ait Ali and Yassine Msadfa use two methods to analyse the pace of structural transformation (the positive change in manufacturing capability) in Morocco, Tunisia and Egypt.</t>
+          <t>ABSTRACT Adolescence is a period of transition from children to adults. A period for a person to experience changes from various aspects, one of which is experiencing menarche in young women. Menarche (first menstruation) is associated with increased BMI. The purpose of this literature review is to determine the effect of Body Mass Index (BMI) on the age of menarche in adolescent girls based on previous studies. In this literature review, the author uses three databases, namely PuBmed, Cochrane and Scholar to find articles according to the inclusion and exclusion criteria and then conduct a review. The research design included in this literature review used a cross-sectional and case-control design, the search years 2012-2022. The finding of this literature review is an analysis of the effect of body mass index (BMI) on the age of menarche in adolescent girls. There is a significant relationship between Body Mass Index (BMI) and age at menarche. The incidence of menarche is significantly higher in adolescent girls who have excess BMI or obesity (overweight) than normal BMI and underweight in the same age group. Keywords: Adolescent Girls, Body Mass Index, Age of Menarche ABSTRAK Remaja adalah masa transisi dari anak-anak menuju dewasa. Masa bagi seseorang mengalami perubahan dari berbagai aspek, salah satu mengalami menarche pada remaja putri. Menarche (haid pertama) di kaitkan dengan peningkatan IMT. Tujuan dari review literatur ini adalah untuk mengetahui pengaruh Indeks Massa Tubuh (IMT) terhadap usia menarche pada remaja putri berdasarkan penelitian-penelitian yang sudah dilakukan sebelumnya. Dalam review literatur ini, penulis menggunakan tiga database yaitu PuBmed, Cochrane dan scholar untuk menemukan artikel sesuai kriteria inklusi dan ekslusi kemudian dilakukan review. Desain penelitian yang masuk dalam literatur review ini menggunakan desain cross sectional dan case control, tahun pencarian 2012-2022. Temuan dari review literatur ini adalah analisis pengaruh indeks massa tubuh (IMT) terhadap usia menarche pada remaja putri. Terdapat hubungan yang signifikan antara Indeks Massa Tubuh (IMT) dan usia menarche. Angka kejadian menarche secara signifikan lebih tinggi pada remaja putri yang memiliki IMT berlebih atau obesitas (overweight) daripada IMT normal dan kurus (underweight) dalam kelompok usia yang sama. Kata Kunci: Adolescent Girls, Body Mass Index, Age of Menarche</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3195852376</t>
+          <t>https://openalex.org/W2978717232</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22146/jh.38222</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Soto (2021)</t>
+          <t>Kristina &amp; Saptaningsih (2019)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Educación Física para el desarrollo de la consciencia: una propuesta pedagógica</t>
+          <t>Evolution in Visual Communication of the Javanese Printed Wedding Invitations</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>espanolEn este ensayo se presenta una propuesta pedagogica en educacion fisica dirigida a favorecer un aprendizaje significativo transferible a la vida cotidiana y una mayor consciencia social, a partir de la integracion de mindfulness (consciencia plena) como base onto-epistemologica. Para ello, en la primera parte, se analiza el concepto de mindfulness desde su naturaleza esencial segun la perspectiva budista, que integra sus fundamentos morales y sus implicaciones politicas. Asimismo, se critica el uso de mindfulness en el ambito educativo como una mera tecnica, para, a partir de ahi, defender las posibilidades de su inclusion como esencia onto-epistemologica de la accion pedagogica. En la segunda parte, se desarrollan los principios de esta propuesta de educacion fisica enfocada a la expansion de la consciencia no condicionada del ser humano: una educacion fisica orientada al crecimiento personal y moral, que estimule la participacion politica y contribuya a la transformacion social. EnglishIn this essay, a pedagogical proposal in physical education is presented aimed at promoting meaningful learning transferableto everyday life and greater social awareness, based on the integration of mindfulness as an onto-epistemological basis. For this, in thefirst part, the concept of mindfulness is analyzed from its essential nature according to the Buddhist perspective, which integrates itsmoral foundations and its political implications. Likewise, the use of mindfulness in the educational field is criticized as a mere technique,in order to, from there, defend the possibilities of its inclusion as an onto-epistemological essence of pedagogical action. In the secondpart, the principles of this proposal of physical education focused on the expansion of the unconditional consciousness of the humanbeing are developed: a physical education oriented to personal and moral growth, which stimulates political participation and contributesto social transformation.</t>
+          <t>Printed wedding invitations have been one of the most crucial aspects in the social organization among many countries like Brunei Darussalam, Iran, Egypt, and Persia. Javanese people also pay special attention to this social document as it represents social class, social status, prestige, and fnancial support allocated by the host. Evolution of printed Javanese wedding invitations represent social and economic pressures. The diasporic communities who were absent to earn a living brought a noticeable change by setting up the bride’s parents’ photographs in the invitations. 15 invitation texts were selected ranging from 1980 – 2017 used in Tawangmangu, Wonogiri and Sukoharjo, the eastern part of Central Java, Indonesia. There was a consistent regularity in terms of rhetorical structure. Functionally, the invitations have the same role of inviting prospective guests to share happiness in a more family-bound relationship. Inclusion of parents’ photographs, map of the location, pre-wedding photos, wise words, calendar, the profle of the couple were indicators of transformation taking place. Later, the printing decision of the invitations is pretty much customer-driven informed by the customers’ needs, values, and beliefs. Rhetorically the materialistically-driven social phenomenon was shown by an explicit gifts desired.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3139941535</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1053/j.gastro.2021.03.038</t>
+          <t>https://openalex.org/W1157432391</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Solitano et al. (2021)</t>
+          <t>Yunker (2013)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>The Evolution of Biologics Administration From Intravenous to Subcutaneous: Treatments for Inflammatory Bowel Disease Go Home</t>
+          <t>Musical Theatre, Realism and Entertainment</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">See “Randomized controlled trial: subcutaneous vs intravenous infliximab CT-P13 maintenance in inflammatory bowel disease,” by Schreiber S, Ben-Horin S, Leszczyszyn J, et al, on page 2340. See “Randomized controlled trial: subcutaneous vs intravenous infliximab CT-P13 maintenance in inflammatory bowel disease,” by Schreiber S, Ben-Horin S, Leszczyszyn J, et al, on page 2340. The year 2020 will be remembered always as the time of the coronavirus disease 2019 (COVID-19) pandemic, but apart from that, remarkable advances in biologic development were reached in the field of inflammatory bowel disease (IBD). In fact, the subcutaneous (SC) formulations of the 2 intravenous (IV) biologic agents, infliximab and vedolizumab, have been made available to patients. An SC formulation of CT-P13, biosimilar of infliximab originator, was approved by the European Medicines Agency for rheumatoid arthritis, psoriatic arthritis, psoriasis, ankylosing spondylitis, and IBD treatment,1European Medicines AgencyMeeting highlights from the Committee for Medicinal Products for Human Use (CHMP) 22-25 June 2020. June 26, 2020.https://www.ema.europa.eu/en/news/meeting-highlights-committee-medicinal-products-human-use-chmp-22-25-june-2020Date accessed: January 14, 2021Google Scholar and a phase III trial is currently ongoing in the United States (NCT03945019). In the article by Schreiber et al,2Schreiber S. Ben-Horin S. Leszczyszyn J. et al.Randomized controlled trial: subcutaneous vs intravenous infliximab CT-P13 maintenance in inflammatory bowel disease.Gastroenterology. 2021; 160: 2340-2353Abstract Full Text Full Text PDF PubMed Scopus (26) Google Scholar CT-P13 SC was compared with CT-P13 IV in terms of pharmacokinetics, efficacy, safety, and immunogenicity in patients with IBD.2Schreiber S. Ben-Horin S. Leszczyszyn J. et al.Randomized controlled trial: subcutaneous vs intravenous infliximab CT-P13 maintenance in inflammatory bowel disease.Gastroenterology. 2021; 160: 2340-2353Abstract Full Text Full Text PDF PubMed Scopus (26) Google Scholar After IV induction, patients were randomized to receive CT-P13 SC every 2 weeks from week 6 to week 54 or CT-P13 IV every 8 weeks from week 6 to week 22. In addition, after 30 weeks all patients on CT-P13 IV were switched to CT-P13 SC for ≤1 year. The pharmacokinetic primary end point of noninferiority of the SC formulation compared with IV was met (geometric least-squares means ratio for trough concentrations at week 22: 1154.17%; 90% confidence interval, 786.37–1694.00). Notably, infliximab trough levels measured on CT-P13 SC treatment were consistently maintained above the target therapeutic concentration over the entire duration of the study, irrespective of whether patients had received CT-P13 SC immediately after dose loading or had switched to CT-P13 SC for the maintenance phase. As regards efficacy outcomes, the proportions of patients with ulcerative colitis (UC) achieving clinical (total Mayo score of ≤2 points) and endoscopic (absolute Mayo endoscopic subscore of ≤1 point) remission were not significantly different in the 2 groups at week 22 (clinical remission, 44.7% vs 25.6%; endoscopic remission, 47.4% vs 30.8% of patients; P &gt; .05 for both, in the SC and IV arms, respectively). Similarly, in Crohn’s disease (CD) clinical (CD Activity Index score of &lt;150 points) and endoscopic (absolute simple endoscopic score for CD of ≤2 points) remission rates were comparable between the SC and IV arms (clinical remission, 60.7% vs 60%; endoscopic remission, 35.7% vs 14.3%; P &gt; .05). Immunogenicity and safety profiles did not differ between the 2 groups. Indeed, after switching from CT-P13 IV to CT-P13 SC, similar proportions of patients in each arm reported drug-related adverse events (19.7% vs 18.5 in the SC and IV groups, respectively) and developed antidrug antibodies (47.0% vs 38.5 in the SC and IV groups, respectively). Hence, this study provided evidence for the use of CT-P13 SC in patients with IBD, both early after induction and after switch from IV to SC during maintenance phase. Clinical benefits in terms of pharmacokinetics have also been reported for the new SC formulation of vedolizumab and, based on the VISIBLE trials findings, the European Commission approved the SC formulation for all the indications of vedolizumab in 2020.3Summary of opinion (post authorisation) Entyvio vedolizumab Committee for Medicinal Products for Human Use.www.ema.europa.eu/en/documents/smop/chmp-post-authorisation-summary-positive-opinion-entyvio_en.pdfDate accessed: January 14, 2021Google Scholar The phase III VISIBLE 1 trial evaluated SC vedolizumab as maintenance therapy in patients with moderate-to-severe UC.4Sandborn W.J. Baert F. Danese S. et al.Efficacy and safety of vedolizumab subcutaneous formulation in a randomized trial of patients with ulcerative colitis.Gastroenterology. 2020; 158: 562-572.e12Abstract Full Text Full Text PDF PubMed Scopus (78) Google Scholar Patients received IV vedolizumab </t>
+          <t>Millie Taylor, Musical Theatre, Realism and Entertainment. Basingstoke: Ashgate Studies in Opera Series, 2012. Cloth, 202 pp., $99.95. ISBN 978-0-7546-6670-7 ashgate.comDespite their similarities to opera, musicals are firmly situated in popular culture-in contrast to opera's status as high art. This new book by director and music theater professor Millie Taylor explores what exactly makes music theater so entertaining for audiences. One of the newest additions to the Ashgate series Interdisciplinary Studies in Opera, it is an interesting examination of canonic musicals.Taylor begins by raising concerns about the current discussion of musicals. Music theater works are incredibly diverse, spanning narrative and musical genres-in spite of which, scholarship seems focused on tracking the increase of integration in musicals; that is, works that feature a narrative as the defining feature of the combined musico-dramatic text. Many musicals, however, do not feature a linear narrative, such as The Last Five Years or Cabaret, two of Taylor's notable examples. Moreover, many musicals are performed in revue style, where the musical numbers are not connected to the action (be they diegetic or not), such as early Tin Pan Alley revue musicals and more recent jukebox musicals like Jersey Boys and We Will Rock You. Because these do not fit into the narrative of integration, Taylor offers a new way to talk about musicals, one that seeks to account for all variations of musicals.Taylor begins with more general observations, asking what the music is doing, regardless of the experience of the audience. Specifically, she attends to what is symbolized by the text and vocal range. Her observations from chapter one and two focus on how class is musically portrayed in HMS Pinafore and the mix of jazz-influence and bel canto singing styles of Show Boat, respectively. As the author moves on to more complex examples, her thesis regarding the pleasure of anti-integration musicals becomes clear. Subsequent chapters touch on works that are less and less linear. She begins in chapter three with the example of Sweeney Todd, examining the breaks in the story, where music and plot are interrupted by character interjections or chorus narration, then moves to perhaps the most discussed nonlinear musical: Kurt Weill's Aufsteig und Fall der Stadt Mahagonny. To be sure, in chapter four alone, Taylor does not allow time for a full explication of Brecht's ideas of epic theater, choosing to consider instead on how the music and text play off each other in ironic ways, jolting the audience out of emotional involvement. The rest of chapter four and the whole of chapter five are devoted to descriptions of nonlinear musicals, including the examples offered by Cabaret and Kiss of the Spider Woman, which rely on alternative formats such as montage, collage, or nonlinear time structuring. Taylor builds her argument on conclusions by both neuroscientists and French theorist Roland Barthes that pleasure is had when the brain must synthesize discrete aspects of a performance or text, in this case, the gaps in the narrative.Taylor focuses in the next two chapters on audience experience. Chapters six and seven explicate opposite sides of the spectrum: first, realism (How do audiences forget that they are watching a theatrical piece?), and second, live performance (How do audiences revel in watching a performed piece?). This dichotomy is striking, and here Taylor offers valuable musical description. In the case of West Side Story, rhythmic dialog and instrumental introduction are used to transition from the spoken to the sung, which keeps the shift from being too abrupt for the listener. (In this chapter, she also explains John Doyle's work with actor-musicians, a fascinating postmodern production tactic that has the actors performing on an instrument when they are not singing. …</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2771179883</t>
+          <t>https://openalex.org/W2208937801</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Hugon (2016)</t>
+          <t>Arango (2015)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>From the Mixed Results of the Millennium Development Goals (MDGs) to the Implementation Difficulties of Sustainable Devel</t>
+          <t>Ethnographies de la gestion de l’eau à Tuti (Khartoum, Soudan) et Caño de Loro (Carthagène, Colombie). Histoire, localité et politique dans une perspective d’anthropologie urbaine comparée.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MDGs, conceived in terms of social objectives to be achieved by 2015 solely for the countries of the South, did not question the collective preferences of the North. The transition from MDGs to SDGs occurs in a context where global, in particular climatic, questions dominate the debates. Translating objectives to be achieved into resources to be mobilized and into observable results (profits) is particularly difficult for a long-lasting (sustainable) and, at the same time, inclusive development. This article presents the contrasted assessment of MDGs, and examines the main stakes of SDGs in a multipolar world where the financialization of capitalism is characterized by the displacement of wealth and power and the vulnerability of part of the population.</t>
+          <t>Au tournant du XXe siecle, un modele technique et administratif centralise est adopte pour l’approvisionnement en eau de consommation dans de nombreuses villes de la planete, dont Carthagene (Colombie) et Khartoum (Soudan). Des lors, associe aux projets de developpement urbain planifie, le reseau hydrique se constitue comme une technologie politique et devient un marqueur de la spatialite et des modes de vie urbains, autant pour les administrateurs que pour les techniciens et les populations citadines. L’analyse comparee des strategies d’acces, des usages quotidiens et de l’imaginaire lie a l’eau de deux populations insulaires dont le caractere urbain s’avere problematique – Cano de Loro (Carthagene) et Tuti (Khartoum) – permet d’aborder la complexite sociale des villes du Sud contemporaines. La comparaison comporte dans ce sens une orientation critique et conduit, au-dela de l’etude des dynamiques sociopolitiques propres a chaque contexte, a interroger les diverses categories d’analyse utilisees au cours de ce travail. Dans la premiere partie de la these, le reseau hydrique est restitue dans l’histoire de chaque agglomeration ou sa mise en place, relativement recente, repose a la fois sur le renforcement, voire sur l’emergence, d’importants rapports de pouvoir et sur une transformation dans la conception de la nature, et plus particulierement de l’eau. Ce caractere relationnel et politique du reseau ouvre la voie, dans une deuxieme partie, a la comprehension de la facon dont la materialite de l’eau et ses echanges contribuent a la production de « localites » particulieres au sein de l’espace urbain. Ainsi, l’analyse des relations entre espaces publics et prives par le biais du partage quotidien de l’eau amene a discuter la pertinence de la notion de « gestion collective » des ressources a Carthagene et a Khartoum. La troisieme partie aborde les mecanismes mobilises par differents acteurs, dans le contexte particulier de la planification urbaine, pour negocier leur marge d’action sur l’eau et la terre. Elle met en lumiere la dimension politique des categories d’appartenance ainsi que le pouvoir transformateur des actions collectives et individuelles dans des situations ou la gestion des ressources est traversee par de logiques, a la fois individuelles, locales, nationales et globales.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295957317</t>
+          <t>https://openalex.org/W4237089403</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1525/jpms.2022.34.3.142</t>
+          <t>https://doi.org/10.5194/acpd-15-25837-2015</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Abramowitz (2022)</t>
+          <t>Jathar et al. (2015)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Review Essay: &lt;i&gt;Am I Blue?: Black Music &amp;amp; White Male Self-Construction&lt;/i&gt;</t>
+          <t>Simulating secondary organic aerosol in a regional air quality model using the statistical oxidation model – Part 1: Assessing the influence of constrained multi-generational ageing</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Essay| September 01 2022 Review Essay: Am I Blue?: Black Music &amp; White Male Self-Construction Adam Gussow, Whose Blues?: Facing Up to Race and the Future of the Music. Chapel Hill: University of North Carolina Press, 2020. 332 pp.George Henderson, Blind Joe Death’s America: John Fahey, the Blues, and Writing White Discontent. Chapel Hill: University of North Carolina Press, 2021. 228 pp. Sophie Abramowitz Sophie Abramowitz Email: sophie_abramowitz@brown.edu Dr. Sophie Abramowitz is a Postdoctoral Fellow at Brown University in a joint appointment with the Department of American Studies and the Center for Digital Scholarship at Brown University Library. Her current book project, Playing the Folk, examines how authors like Zora Neale Hurston, Langston Hughes, and Francis La Flesche adapted the language and ideas of folklore to create musical and dramatic performances, in order to exchange and address changing ideas of racial and gender self-definition. Her teaching similarly focuses on race, cultural history, and creative world-building through the practices of collecting and musical performance. Dr. Abramowitz also collaborates on a number of archival and digital projects, including a multiplatform compilation of recordings from the 1969 Ann Arbor Blues Festival, released on Third Man Records in 2019. Search for other works by this author on: This Site PubMed Google Scholar Journal of Popular Music Studies (2022) 34 (3): 142–151. https://doi.org/10.1525/jpms.2022.34.3.142 Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation Sophie Abramowitz; Review Essay: Am I Blue?: Black Music &amp; White Male Self-Construction. Journal of Popular Music Studies 1 September 2022; 34 (3): 142–151. doi: https://doi.org/10.1525/jpms.2022.34.3.142 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentJournal of Popular Music Studies Search Adam Gussow’s Whose Blues?: Facing Up to Race and the Future of the Music and George Henderson’s Blind Joe Death’s America: John Fahey, the Blues, and Writing White Discontent were both published in the last three years, a time of Black revolution. As revisiting the politics of cultural appropriation and dismantling the violent construction of whiteness become increasingly urgent, so too does the study of histories of Black creativity and of the ways that whiteness has been historically constructed against and through ideas of Blackness. It is within these imperatives that I situate these two books. Each looks to roots music as a lens through which to deal with the shifting history of white longing for a particular, socially contingent idea of Blackness. In Whose Blues? Gussow answers the question proposed in the book’s title by staging a debate between two positions that he calls “black bluesism” and “blues... You do not currently have access to this content.</t>
+          <t>Abstract. Multi-generational oxidation of volatile organic compound (VOC) oxidation products can significantly alter the mass, chemical composition and properties of secondary organic aerosol (SOA) compared to calculations that consider only the first few generations of oxidation reactions. However, the most commonly used state-of-the-science schemes in 3-D regional or global models that account for multi-generational oxidation (1) consider only functionalization reactions but do not consider fragmentation reactions, (2) have not been constrained to experimental data; and (3) are added on top of existing parameterizations. The incomplete description of multi-generational oxidation in these models has the potential to bias source apportionment and control calculations for SOA. In this work, we used the Statistical Oxidation Model (SOM) of Cappa and Wilson (2012), constrained by experimental laboratory chamber data, to evaluate the regional implications of multi-generational oxidation considering both functionalization and fragmentation reactions. SOM was implemented into the regional UCD/CIT air quality model and applied to air quality episodes in California and the eastern US. The mass, composition and properties of SOA predicted using SOM are compared to SOA predictions generated by a traditional "two-product" model to fully investigate the impact of explicit and self-consistent accounting of multi-generational oxidation. Results show that SOA mass concentrations predicted by the UCD/CIT-SOM model are very similar to those predicted by a two-product model when both models use parameters that are derived from the same chamber data. Since the two-product model does not explicitly resolve multi-generational oxidation reactions, this finding suggests that the chamber data used to parameterize the models captures the majority of the SOA mass formation from multi-generational oxidation under the conditions tested. Consequently, the use of low and high NOx yields perturbs SOA concentrations by a factor of two and are probably a much stronger determinant in 3-D models than constrained multi-generational oxidation. While total predicted SOA mass is similar for the SOM and two-product models, the SOM model predicts increased SOA contributions from anthropogenic (alkane, aromatic) and sesquiterpenes and decreased SOA contributions from isoprene and monoterpene relative to the two-product model calculations. The SOA predicted by SOM has a much lower volatility than that predicted by the traditional model resulting in better qualitative agreement with volatility measurements of ambient OA. On account of its lower-volatility, the SOA mass produced by SOM does not appear to be as strongly influenced by the inclusion of oligomerization reactions, whereas the two-product model relies heavily on oligomerization to form low volatility SOA products. Finally, an unconstrained contemporary hybrid scheme to model multi-generational oxidation within the framework of a two-product model in which "ageing" reactions are added on top of the existing two-product parameterization is considered. This hybrid scheme formed at least three times more SOA than the SOM during regional simulations as a result of excessive transformation of semi-volatile vapors into lower volatility material that strongly partitions to the particle phase. This finding suggests that these "hybrid" multi-generational schemes should be used with great caution in regional models.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295769128</t>
+          <t>https://openalex.org/W3191177359</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23919/picmet53225.2022.9882799</t>
+          <t>https://doi.org/10.4043/31046-ms</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Viswanathan &amp; Telukdarie (2022)</t>
+          <t>Karim et al. (2021)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>The Impact of 4IR on the Future Skills in Food and Beverage Industry</t>
+          <t>Value Tracking Thru Digital Fields Countrywide Solution Big Data Analytics Project</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Globalization impacts the economy of every nation, worldwide. The global impact of the Fourth Industrial Revolution (4IR) is impending. In an aim to achieve excellence amidst dynamic\volatile market with difficult environmental conditions, there is a growing demand for competent personnel in all fields inclusive of technological and other. Sectors such as the food and beverage sector are not immune to changes. This paper conducts a tier one analysis of global publications in the Food and Beverage sector, extracting trends and changes. The secondary data analysis focus on the focus themes as defined in the literature, specific to country, region, research area, and highest cited papers. The core objective is to provide a detailed analysis for further studies in focusing on the demand for future skills in this sector. The research team provide for key data analysis to guide sector skills investment in order to provide skills training for future skills.</t>
+          <t>Abstract The Digital Field initiative is transforming the daily operations on the oilfield and it is now part of PETRONAS corporate wide digital strategy. This transformation is done by onboarding multiple disciplines such as subsurface team, facilities, and operations, HSSE and Business Planning and is designed to replicates the performance of an oilfield in the computer, combining business process management and technical workflows. Digital Field has enabled the customer to execute their work collaboratively, by providing decision support system (technical workflows and business process management tools) subsequently improving their process efficiencies and optimizing their production. It is believed that by conducting a systematic review of the improvement and tracking the values that has been achieved, it will help to promote and accelerate digital adoption faster. The main objectives of the Automated Value Tracking are: To promote opportunity generation through collaborative environment. To track stages of every opportunity of the following categories of Production Optimization, Unplanned Deferment and Process Cycle Efficiencies. To quantify values associated with opportunities generated from automated workflows and current business process. To promote ownership of the actions associated with the assigned opportunity and to help to quantify on individual level contribution to the corporate goal in terms of production volume and time savings. To measures optimized number of opportunities generated against production volume associated with Production Optimization activity according to Field category and Quality of Opportunity Generated from Optimization Advisor. The process is summarized as follow: Opportunity generation: Automated opportunity generation generated through current Production Optimization Advisory framework. Integration with existing Petronas business process tools i.e. Daily Operational Tracking System, Alpha projects, Opportunity Management system, etc. Manual opportunity generation. Opportunity evaluation and analysis: Provide quantitatively confidence level of production incremental volume from automated Optimization Advisory through machine learning. Establish relationship between numbers of opportunity completed and categories versus production volume gain. Opportunity tracking and approval: Tracking the opportunity generation according to the process level. Escalating Opportunity and value recognition through business process approval. This workflow helps to improve to understand the current update of the different levels such as well, field, region and upstream with the help of integrating the value realization and allows "cards" to show information that can trigger opportunities to increase production, reduce time of decision and fast action.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2172493267</t>
+          <t>https://openalex.org/W3012145242</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/bf02894784</t>
+          <t>https://doi.org/10.1080/24694193.2020.1733707</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Weimar (1973)</t>
+          <t>Leake et al. (2020)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A general first-order deformation solution</t>
+          <t>Primary Care Providers Involvement in Caring for Young Adults with Complex Chronic Conditions Exiting Pediatric Care: An Integrative Literature Review</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>The general first-order deformation of representationsϱ of inhomogeneous Lie algebras into those of semi-simple noncompact Lie algebras $$\mathfrak{G} = \mathfrak{K} + \mathfrak{P}$$ is studied. If dim $$H^1 (\mathop \mathfrak{G}\limits^ \circ ,\mathfrak{K}) = 1$$ and the irreducible initial representationϱ with M2 ≠ 0 decomposes into a sum of irreducible representations of $$\mathfrak{K}$$ with multiplicity 1, then the general solution can be constructed by the aid of a spectral solution of the deformation problem $$\mathop \mathfrak{G}\limits^ \circ \to \mathfrak{G}$$ and the general solution of the corresponding deformation problem $$\mathop \mathfrak{G}\limits^ \circ \to \mathop \mathfrak{G}\limits^ \circ $$ . If $$\mathop \mathfrak{P}\limits^ \circ $$ allows transitions within one representation of $$\mathfrak{K}$$ , the special solution is unique. Otherwise there exists an additional degree of freedom leading to—as three examples studied in the Appendix show—supplementary series of ©.</t>
+          <t>The transition to adulthood is a critical time for everyone to build independence, experience new things, and become self-sufficient. With medical advances, individuals with complex chronic conditions are surviving into adulthood. As such they withstand additional challenges during this stage of their life including; facing a discontinuity of care, loss of prior health-care networks and champions, and a shift toward increased responsibility and self-management of their conditions. Often this shift results in the need for primary care providers to act as care managers, coordinating care and supporting the young adult as they navigate adulthood. In exploring the role of primary care providers with this population we reviewed the literature to identify what strategies primary care providers can use to enhance the transition process for young adults ages 15 to 25 years with complex chronic conditions exiting pediatric services. An integrative literature review approach was used to systematically search the contemporary literature. Applying inclusion criteria and quality assessment of relevant research and gray literature we identified 12 studies that warranted detailed review and analysis. Analysis of the studies highlighted four key themes: relationships, fear and anxiety, preparedness, and communication and collaboration. It was evident that health-care transition for young adults with complex chronic conditions was complicated by their psychosocial development and extensive health and service needs. Health-care transition is a team effort influenced by local contexts, resources, and relational practices. Both groups of primary care providers and young adults must be prepared prior to transition if they are to become immersed and engaged in this work. The population of young adults with complex chronic conditions exiting pediatric care will continue to grow as access to care delivery and medical technology continue to expand. While health-care transition for this population is complicated by extensive needs and psychosocial development, primary care providers can act as key supports in employing strategies to enhance the transition process for these young adults.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2502303414</t>
+          <t>https://openalex.org/W3037304094</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2507/daaam.scibook.2013.61</t>
+          <t>https://doi.org/10.25131/sajg.123.0009</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Šešlija (2013)</t>
+          <t>Smith et al. (2020)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Strategic Control Level for Industrial Robotic Contact Tasks</t>
+          <t>Introduction to the tetrapod biozonation of the Karoo Supergroup</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Increasing the level of production in a flexible way with large amount of differences in lot sizes, products and order of production, became a nightmare for many of industrial engineers.Enabling automated performance of specific production cell intended for such a diverse production conditions requires a lot of research efforts.New manufacturing paradigms are being researched and developed since the last decade of the 20th century.Intelligent manufacturing systems, "holonic manufacturing system", "agent-oriented manufacturing system" and "Self Organising Complex Flexible Assembly Systems" or Bionic Assembly Systems are some of them.They were enabled thanks to the development of production systems theory that lay the ground for such paradigms.Automation is the key driver of the transformation of production for the future needs.These chapter is concerned with the development of such an automated, robotic production cell equiped with industrial robots, pneumatic and hydraulic components, sensors, PLCs and other parts of complex robotic cell.Particularly, the structure and development of the strategic hierarchical control level applied in complex robotic production cells is shown..A control structure for the robot able to assemble and machine parts in a flexible robotic cell is presented.Tasks such as deburring, grinding, engraving, cutting and assembly demonstrate appropriate contact tasks for such a cell.An expert system is proposed and several production rules are given as an example.In this chapter, efforts have been made in the direction of the development of a new generation of industrial robotic controllers with enhanced capabilities.</t>
+          <t>Research Article| June 01, 2020 Introduction to the tetrapod biozonation of the Karoo Supergroup R.M.H. Smith; R.M.H. Smith Evolutionary Studies Institute, University of the Witwatersrand, Johannesburg, 2050 South Africa Karoo Palaeontology, Iziko South African Museum, P.O. Box 61, Cape Town, 8000, South Africa e-mail: Roger.Smith4@wits.ac.za Search for other works by this author on: GSW Google Scholar B.S. Rubidge; B.S. Rubidge Evolutionary Studies Institute, University of the Witwatersrand, Johannesburg 2050, South Africa e-mail: bruce.rubidge@wits.ac.za Search for other works by this author on: GSW Google Scholar M.O. Day; M.O. Day Department of Earth Sciences, Natural History Museum, Cromwell Road, London SW7 5BD, United Kingdom Evolutionary Studies Institute, University of the Witwatersrand, Johannesburg 2050, South Africa e-mail: michael.day@nhm.ac.uk Search for other works by this author on: GSW Google Scholar J. Botha J. Botha National Museum, P.O. Box 266, Bloemfontein, 9300, South Africa Department of Zoology and Entomology, University of the Free State, 9300, South Africa e-mail: jbotha@nasmus.co.za Search for other works by this author on: GSW Google Scholar South African Journal of Geology (2020) 123 (2): 131–140. https://doi.org/10.25131/sajg.123.0009 Article history first online: 18 Jul 2020 Cite View This Citation Add to Citation Manager Share Icon Share Twitter LinkedIn Tools Icon Tools Get Permissions Search Site Citation R.M.H. Smith, B.S. Rubidge, M.O. Day, J. Botha; Introduction to the tetrapod biozonation of the Karoo Supergroup. South African Journal of Geology 2020;; 123 (2): 131–140. doi: https://doi.org/10.25131/sajg.123.0009 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search nav search search input Search input auto suggest search filter All ContentBy SocietySouth African Journal of Geology Search Advanced Search The main Karoo Basin of South Africa contains the most abundant, diverse, and time expansive record of terrestrial vertebrates around the Palaeozoic-Mesozoic transition. This 10 km thick sedimentary succession accumulated in a large intracratonic, retro-arc, foreland basin (Johnson 1991; Catuneanu et al. 2005) in front of the rising Cape Fold Belt portion of the Gondwanide Mountain range that fringed the southern margin of Gondwana. Today, rocks of the Karoo Supergroup have a spatial distribution of some 300 000 km2 (Smith 1990), which is more than one-half the land surface of South Africa. They were... You do not currently have access to this article.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2154188682</t>
+          <t>https://openalex.org/W4285103511</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/2659766.2659777</t>
+          <t>https://doi.org/10.7554/elife.69596.sa2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Wang &amp; Lindeman (2014)</t>
+          <t>Kajikawa et al. (2022)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Coordinated 3D interaction in tablet- and HMD-based hybrid virtual environments</t>
+          <t>Author response: UP-DOWN states and ripples differentially modulate membrane potential dynamics across DG, CA3, and CA1 in awake mice</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Traditional 3D User Interfaces (3DUI) in immersive virtual reality can be inefficient in tasks that involve diversities in scale, perspective, reference frame, and dimension. This paper proposes a solution to this problem using a coordinated, tablet- and HMD-based, hybrid virtual environment system. Wearing a non-occlusive HMD, the user is able to view and interact with a tablet mounted on the non-dominant forearm, which provides a multi-touch interaction surface, as well as an exocentric God view of the virtual world. To reduce transition gaps across 3D interaction tasks and interfaces, four coordination mechanisms are proposed, two of which were implemented, and one was evaluated in a user study featuring complex level-editing tasks. Based on subjective ratings, task performance, interview feedback, and video analysis, we found that having multiple Interaction Contexts (ICs) with complementary benefits can lead to good performance and user experience, despite the complexity of learning and using the hybrid system. The results also suggest keeping 3DUI tasks synchronized across the ICs, as this can help users understand their relationships, smoothen within- and between-task IC transitions, and inspire more creative use of different interfaces.</t>
+          <t>Article Figures and data Abstract Editor's evaluation Introduction Results Discussion Materials and methods Data analysis Data availability References Decision letter Author response Article and author information Metrics Abstract Hippocampal ripples are transient population bursts that structure cortico-hippocampal communication and play a central role in memory processing. However, the mechanisms controlling ripple initiation in behaving animals remain poorly understood. Here we combine multisite extracellular and whole-cell recordings in awake mice to contrast the brain state and ripple modulation of subthreshold dynamics across hippocampal subfields. We find that entorhinal input to the dentate gyrus (DG) exhibits UP and DOWN dynamics with ripples occurring exclusively in UP states. While elevated cortical input in UP states generates depolarization in DG and CA1, it produces persistent hyperpolarization in CA3 neurons. Furthermore, growing inhibition is evident in CA3 throughout the course of the ripple buildup, while DG and CA1 neurons exhibit depolarization transients 100 ms before and during ripples. These observations highlight the importance of CA3 inhibition for ripple generation, while pre-ripple responses indicate a long and orchestrated ripple initiation process in the awake state. Editor's evaluation This paper combines intracellular and extracellular recordings in the hippocampus in awake mice to investigate the initiation of sharp wave-ripples, synchronous bursts of activity thought to support memory replay. They report a specific hyperpolarization of the pyramidal cells in the CA3 subfield while the dentate granule cells or CA1 pyramidal cells are depolarized. This paper will be of interest to system neuroscientists interested in the cellular and network mechanisms of memory formation. https://doi.org/10.7554/eLife.69596.sa0 Decision letter Reviews on Sciety eLife's review process Introduction Bidirectional interactions between the hippocampus and neocortical areas are believed to play a key role in memory consolidation (Squire, 1992). Hippocampal ripples are deemed essential for this process because the associated population activity reflects prior experience (Foster, 2017; Kudrimoti et al., 1999; Lee and Wilson, 2002; Wilson and McNaughton, 1994) and ripple disruption results in memory deficits (Ego-Stengel and Wilson, 2010; Girardeau et al., 2009; Jadhav et al., 2012). Ripples provide synchronous volleys that drive cortical targets and co-occur with distinct cortical network patterns (Battaglia et al., 2004; Jiang et al., 2019; Ji and Wilson, 2007; Logothetis et al., 2012; Mölle et al., 2006; Shein-Idelson et al., 2016; Siapas and Wilson, 1998; Wierzynski et al., 2009). In particular, ripples normally occur during slow-wave sleep and quiet wakefulness when hippocampal local field potentials (LFPs) display large-amplitude irregular activity (LIA) (Buzsáki, 1986; Jarosiewicz and Skaggs, 2004; Kay et al., 2016; O’Keefe, 1976; Vanderwolf, 1969), whereas neocortical dynamics are marked by the presence of UP and DOWN states (UDS), alternating periods of elevated and depressed network activity that can also be observed under anesthesia (Cowan and Wilson, 1994; Steriade et al., 1993b; Steriade et al., 1993c). Neocortical and hippocampal dynamics can be coordinated via the entorhinal cortex (EC), the main gateway between neocortical areas and the hippocampus, which provides direct input to the dentate gyrus (DG), and areas CA3 and CA1 (Amaral and Witter, 1989; Steward et al., 1976; Tamamaki and Nojyo, 1993). Experiments in sleeping and anesthetized animals show that the EC also exhibits UDS that modulate activity across hippocampal subfields (Hahn et al., 2012; Isomura et al., 2006). However, the influence of cortical UDS on hippocampal dynamics and ripple generation in wakefulness are not well understood. Ripples are believed to be the product of excitatory buildup in the recurrent CA3 network, culminating in a population burst that drives CA1 spiking organized by the transient ripple oscillation (Buzsáki, 1986; Miles and Wong, 1983; Stark et al., 2014; Traub and Miles, 1991). This suggests that CA3 neurons should get progressively depolarized and come closer to firing threshold through the course of the ripple buildup. Separate from the buildup itself, the processes controlling ripple initiation and termination are not fully understood. In vitro experiments indicate that ripples are initiated once stochastic fluctuations in the population firing rate of CA3 pyramidal cells exceed a threshold level (de la Prida et al., 2006; Schlingloff et al., 2014), implying that an increase in the firing of CA3 neurons should result in a corresponding increase in the rate of ripple occurrence. Recent in vitro studies have also emphasized the importance of inhibitory neurons in ripple initiation (Bazelot et al., 2016; Ellender et al., 2010; Schlingloff et al., 2014), while other studies suggested that area CA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1991462997</t>
+          <t>https://openalex.org/W2346032802</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.histeuroideas.2010.12.003</t>
+          <t>https://doi.org/10.1111/1468-2346.12601</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>McNally (2011)</t>
+          <t>Phillips (2016)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Revisiting the Gramsci–Bukharin relationship: Neglected symmetries</t>
+          <t>When less was more: external assistance and the political settlement in Somaliland</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Abstract In this article I revisit the ideas of Antonio Gramsci and Nikolai Bukharin from a contextual perspective to argue for a revision in the way current scholarship on Gramsci interprets his thought as fundamentally at odds with that of Bukharin. I show in particular that if we resist the temptation to reduce Bukharin to the level of his 1921 book, Historical Materialism, and concentrate instead on his more sophisticated NEP writings of the mid-1920s a series of symmetries in the advanced thought of these two key thinkers of early 20th century Marxism emerges that have been poorly recognised in the literature on Gramsci to date. Keywords: GramsciBukharinNEPUnited FrontHistoric BlocHegemony Notes 1 E. Laclau, C. Mouffe, Hegemony and Socialist Strategy (London, 2001), 59. 2 See, ‘Quaderno 11,’ in: A. Gramsci, Quaderni del Carcere, 4 vols. ed. V. Gerratana (Torino, 2007), vol. 2, 1363–509. 3 See, for example, J. Femia, Gramsci's Political Thought: Hegemony, Consciousness and the Revolutionary Process (Oxford, 1981), 66–79; F. Frosini, Gramsci e la Filosofia (Roma, 2003), 103–22; S. Golding, Gramsci's Democratic Theory (Toronto, 1992), 51–4; P. Ives, Language and Hegemony in Gramsci (London, 2004), 86–7; J. Martin, Gramsci's Political Analysis (Basingstoke, 1998), 77–9; P. Thomas, The Gramscian Moment: Philosophy, Hegemony and Marxism (Leiden, 2009), 277–8, 298–301. 4 For Bukharin's original text see, N. Bukharin, Historical Materialism: A System of Sociology (London, 1926). The subtitle of the book in Russian, and indeed, in the French copy which Gramsci possessed in prison was ‘A Popular Manual of Marxist Sociology.’ This is why Gramsci consistently referred to it in prison as ‘Il Saggio Populare’ (‘The Popular Manual’) or simply ‘Il Saggio.’ J. A. Buttigieg, ‘Notes’, in A. Gramsci, Prison Notebooks, vol. 1, ed. J. A. Buttigieg (New York, 1991), 520. 5 Gramsci, Quaderni del Carcere, Vol. 2, 865–7. 6 P. Anderson, Considerations on Western Marxism (London, 1976). 7 R. Bellamy, D. Schecter, Gramsci and the Italian State (Manchester, 1993); M. Finnochiaro, Gramsci and the History of Dialectical Thought (New York, 1988); P. Piccone, Italian Marxism (Berkeley, 1983). 8 While this tendency to disassociate Gramsci from Bukharin is undoubtedly the dominant approach in the literature, Christine Buci-Glucksmann and Paolo Spriano have at least recognised some of the political and intellectual similarities in their writings as I will show below. C. Buci-Glucksmann, Gramsci and the State (London, 1980); P. Spriano, Storia del Partito Communista Italiano, 5 vols. (Torino, 1967–1975), Vol. 1. 9 Q. Skinner, Visions of Politics, 3 vols. (Cambridge, 2002), Vol. 1. 10 My intention here is to focus on the symmetries between the ideas of the two thinkers since it is precisely these which have been overlooked, but this does not indicate that I regard their thought as identical as will become evident in the course of the article. 11 The origin of the passivist tendency can be traced to The Communist Manifesto in which Marx presented the impending crisis of the anarchic bourgeois economy as a necessity of the historical process. ‘Its fall and the victory of the proletariat’ were ‘equally inevitable.’ K. Marx, The Communist Manifesto (Harmondsworth, 1967), 93–4. Among the Third Internationalists it was Lenin who fuelled the economically informed voluntarist strand in his most widely read work, The State and Revolution, although it should not be confused with the purely voluntarist idea that political or ideological struggle were all that were required to bring about a successful revolution. In The State and Revolution Lenin in fact endorsed Engels’ economistic idea that the state in capitalist society was a reflection of the class antagonisms in the sphere of production which it managed in the interests of capital. ‘The development of production,’ he argued, has now reached a stage where ‘the existence of these classes has not only ceased to be a necessity, but is becoming a positive hindrance to production’ which ‘will fall as inevitably as they arose’ and ‘with them the state will inevitably fall.’ This economistic account of degenerate anarchic capitalism on the road to ruin formed the basis, however, of the even more dogmatic voluntarist assertion that there could be no question of the capitalist state ‘withering away’ or ‘evolving’ into a socialist state in these conditions. For it was only if the proletariat kept faith with Marxist theory and ‘the dictatorship of the proletariat’ that the transition from this age of anarchy in production and politics could be traversed to the stateless harmonious communist society of the future. V. I. Lenin, ‘The State and Revolution’ in: Essential Works of Lenin, ed. H. M. Christman (New York, 1987), 279–85. 12 R. V. Daniels, The Rise and Fall of Communism (New Haven, 2007), 130. 13 E. H. Carr's well-know interpretation of the policy that has been hotly contested ever since. E. H. Carr, Th</t>
+          <t>The internationally unrecognized ‘Republic of Somaliland’ presents a case in which the domestic drivers of peace and development may be examined when aid and other forms of international intervention are not significant variables. The relative autonomy of its peace process offers an alternative perspective on post-conflict transitions to that offered in the majority of the literature, which instead problematizes either the perverse outcomes or unintended consequences of international interventions in conflict-affected areas. The purpose of this article is not to establish the salience of Somaliland's relative isolation in its ability to achieve peace and relative political order, as this is already documented in the literature. Rather, it explores the ways in which that isolation fostered mutual dependence between powerful political and economic actors for their survival and prosperity. It uses a political settlements framework to probe the implications of this dependence for western statebuilding interventions in post-conflict situations. The findings present a challenge to orthodox assumptions about how states transition out of conflict, particularly that: greater vertical inclusivity necessarily strengthens a political settlement; effective Weberian institutions are a prerequisite of an enduring peace; and that external assistance is usually necessary to end large-scale violence in developing states or to prevent a recurrence of the conflict.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2978717232</t>
+          <t>https://openalex.org/W2485735263</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22146/jh.38222</t>
+          <t>https://doi.org/10.1002/9781119176626.ch1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Kristina &amp; Saptaningsih (2019)</t>
+          <t>Rothwell et al. (2015)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Evolution in Visual Communication of the Javanese Printed Wedding Invitations</t>
+          <t>Organization Development, Transformation, and Change</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Printed wedding invitations have been one of the most crucial aspects in the social organization among many countries like Brunei Darussalam, Iran, Egypt, and Persia. Javanese people also pay special attention to this social document as it represents social class, social status, prestige, and fnancial support allocated by the host. Evolution of printed Javanese wedding invitations represent social and economic pressures. The diasporic communities who were absent to earn a living brought a noticeable change by setting up the bride’s parents’ photographs in the invitations. 15 invitation texts were selected ranging from 1980 – 2017 used in Tawangmangu, Wonogiri and Sukoharjo, the eastern part of Central Java, Indonesia. There was a consistent regularity in terms of rhetorical structure. Functionally, the invitations have the same role of inviting prospective guests to share happiness in a more family-bound relationship. Inclusion of parents’ photographs, map of the location, pre-wedding photos, wise words, calendar, the profle of the couple were indicators of transformation taking place. Later, the printing decision of the invitations is pretty much customer-driven informed by the customers’ needs, values, and beliefs. Rhetorically the materialistically-driven social phenomenon was shown by an explicit gifts desired.</t>
+          <t>This chapter explores organization development (OD), transformation, and change. It questions why we need to care about them and what are the key terms associated with OD, transformation, and change. The chapter also discusses systems thinking, and its importance to OD practitioners. The various definitions of OD presented imply several key themes: OD is long-range in perspective, works best when supported by senior leadership, effects change primarily through education, emphasizes employee participation, and empowers the system to take responsibility for creating and evaluating results. The challenge of the future is to help people learn to ride the waves of transformation and change in real-time and as events unfold. The chapter lists some useful to know terms in communicating with others.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1157432391</t>
+          <t>https://openalex.org/W4245889923</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/9789004460386</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Yunker (2013)</t>
+          <t>Naidoo (2021)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Musical Theatre, Realism and Entertainment</t>
+          <t>Teaching and Learning in the 21st Century</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Millie Taylor, Musical Theatre, Realism and Entertainment. Basingstoke: Ashgate Studies in Opera Series, 2012. Cloth, 202 pp., $99.95. ISBN 978-0-7546-6670-7 ashgate.comDespite their similarities to opera, musicals are firmly situated in popular culture-in contrast to opera's status as high art. This new book by director and music theater professor Millie Taylor explores what exactly makes music theater so entertaining for audiences. One of the newest additions to the Ashgate series Interdisciplinary Studies in Opera, it is an interesting examination of canonic musicals.Taylor begins by raising concerns about the current discussion of musicals. Music theater works are incredibly diverse, spanning narrative and musical genres-in spite of which, scholarship seems focused on tracking the increase of integration in musicals; that is, works that feature a narrative as the defining feature of the combined musico-dramatic text. Many musicals, however, do not feature a linear narrative, such as The Last Five Years or Cabaret, two of Taylor's notable examples. Moreover, many musicals are performed in revue style, where the musical numbers are not connected to the action (be they diegetic or not), such as early Tin Pan Alley revue musicals and more recent jukebox musicals like Jersey Boys and We Will Rock You. Because these do not fit into the narrative of integration, Taylor offers a new way to talk about musicals, one that seeks to account for all variations of musicals.Taylor begins with more general observations, asking what the music is doing, regardless of the experience of the audience. Specifically, she attends to what is symbolized by the text and vocal range. Her observations from chapter one and two focus on how class is musically portrayed in HMS Pinafore and the mix of jazz-influence and bel canto singing styles of Show Boat, respectively. As the author moves on to more complex examples, her thesis regarding the pleasure of anti-integration musicals becomes clear. Subsequent chapters touch on works that are less and less linear. She begins in chapter three with the example of Sweeney Todd, examining the breaks in the story, where music and plot are interrupted by character interjections or chorus narration, then moves to perhaps the most discussed nonlinear musical: Kurt Weill's Aufsteig und Fall der Stadt Mahagonny. To be sure, in chapter four alone, Taylor does not allow time for a full explication of Brecht's ideas of epic theater, choosing to consider instead on how the music and text play off each other in ironic ways, jolting the audience out of emotional involvement. The rest of chapter four and the whole of chapter five are devoted to descriptions of nonlinear musicals, including the examples offered by Cabaret and Kiss of the Spider Woman, which rely on alternative formats such as montage, collage, or nonlinear time structuring. Taylor builds her argument on conclusions by both neuroscientists and French theorist Roland Barthes that pleasure is had when the brain must synthesize discrete aspects of a performance or text, in this case, the gaps in the narrative.Taylor focuses in the next two chapters on audience experience. Chapters six and seven explicate opposite sides of the spectrum: first, realism (How do audiences forget that they are watching a theatrical piece?), and second, live performance (How do audiences revel in watching a performed piece?). This dichotomy is striking, and here Taylor offers valuable musical description. In the case of West Side Story, rhythmic dialog and instrumental introduction are used to transition from the spoken to the sung, which keeps the shift from being too abrupt for the listener. (In this chapter, she also explains John Doyle's work with actor-musicians, a fascinating postmodern production tactic that has the actors performing on an instrument when they are not singing. …</t>
+          <t>Within the era of the Fourth Industrial Revolution, we are living in a technologically advanced society, and students and teacher educators need to be adequately prepared to succeed within this progressive society. Teaching and Learning in the 21st Century: Embracing the Fourth Industrial Revolution is an edited volume that situates teaching and learning for the 21st century within diverse contexts globally so that teacher educators could make sense of their professional knowledge, curriculum, classroom contexts and diverse students. This book intends to frame and explore the different responsive and innovative pedagogies that are used for embracing the Fourth Industrial Revolution. Additionally, it aims to clarify some key concepts (for example blended learning, coding, digital, E-Learning, Internet, M-Learning, simulation and tools) in addition to other issues that surround teaching and learning for the 21st century. The book also exemplifies authentic case studies located within global contexts focusing on: the 21st-century curriculum, the 21st-century classroom environment, teachers in the 21st century and students in the 21st century. Contributors from around the world (Australia, Indonesia, Mauritius, South Africa, Tanzania and the United States of America) share their innovations in education by interrogating research experiences and examples of good practice.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2208937801</t>
+          <t>https://openalex.org/W2484509147</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Arango (2015)</t>
+          <t>Olin (1997)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Ethnographies de la gestion de l’eau à Tuti (Khartoum, Soudan) et Caño de Loro (Carthagène, Colombie). Histoire, localité et politique dans une perspective d’anthropologie urbaine comparée.</t>
+          <t>Transforming the Common Place: Selections from Laurie Olin's Sketchbooks</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Au tournant du XXe siecle, un modele technique et administratif centralise est adopte pour l’approvisionnement en eau de consommation dans de nombreuses villes de la planete, dont Carthagene (Colombie) et Khartoum (Soudan). Des lors, associe aux projets de developpement urbain planifie, le reseau hydrique se constitue comme une technologie politique et devient un marqueur de la spatialite et des modes de vie urbains, autant pour les administrateurs que pour les techniciens et les populations citadines. L’analyse comparee des strategies d’acces, des usages quotidiens et de l’imaginaire lie a l’eau de deux populations insulaires dont le caractere urbain s’avere problematique – Cano de Loro (Carthagene) et Tuti (Khartoum) – permet d’aborder la complexite sociale des villes du Sud contemporaines. La comparaison comporte dans ce sens une orientation critique et conduit, au-dela de l’etude des dynamiques sociopolitiques propres a chaque contexte, a interroger les diverses categories d’analyse utilisees au cours de ce travail. Dans la premiere partie de la these, le reseau hydrique est restitue dans l’histoire de chaque agglomeration ou sa mise en place, relativement recente, repose a la fois sur le renforcement, voire sur l’emergence, d’importants rapports de pouvoir et sur une transformation dans la conception de la nature, et plus particulierement de l’eau. Ce caractere relationnel et politique du reseau ouvre la voie, dans une deuxieme partie, a la comprehension de la facon dont la materialite de l’eau et ses echanges contribuent a la production de « localites » particulieres au sein de l’espace urbain. Ainsi, l’analyse des relations entre espaces publics et prives par le biais du partage quotidien de l’eau amene a discuter la pertinence de la notion de « gestion collective » des ressources a Carthagene et a Khartoum. La troisieme partie aborde les mecanismes mobilises par differents acteurs, dans le contexte particulier de la planification urbaine, pour negocier leur marge d’action sur l’eau et la terre. Elle met en lumiere la dimension politique des categories d’appartenance ainsi que le pouvoir transformateur des actions collectives et individuelles dans des situations ou la gestion des ressources est traversee par de logiques, a la fois individuelles, locales, nationales et globales.</t>
+          <t>Transforming the Common/Placepresents selected projects by landscape architect Laurie Olin and his firm Hanna/Olin. Considered by many to be an heir to Frederick Law Olmsted's legacy, Olin has put his stamp on public spaces from Manhattan to Los Angeles and from Columbus, Ohio to London, England. His work deals mainly with the transformation of the ordinary, taking commonplace elements and making them extraordinary. Transforming the Common/Place focuses on the three main elements of Olin's practice: public projects-Bryant Park in New York City and the Playa Vista development in Los Angeles; private/commercialcommissions-Canary Wharf and King's Cross in London; and experimental projects-the Wexner Center for the Visual Arts in Columbus, Ohio, carried out in collaboration with Peter Eisenman.An introduction by John Dixon Hunt and an essay by Peter G. Rowe accompany the detailed project descriptions and numerous photographs.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2734547256</t>
+          <t>https://openalex.org/W4386979717</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tt.2017.0024</t>
+          <t>https://doi.org/10.1093/lambio/ovad113</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Lewis &amp; Johnson (2017)</t>
+          <t>Avila-Arias et al. (2023)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Theatrical Reception and the Formation of Twenty-first-Century Perception: A Case Study for the iGeneration</t>
+          <t>Bacteria isolated from explosive contaminated environments transform pentaerythritol tetranitrate (PETN) under aerobic and anaerobic conditions</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Theatrical Reception and the Formation of Twenty-first-Century Perception: A Case Study for the iGeneration William W. Lewis (bio) and Sarah Johnson (bio) “As we connect with each other, with objects, and with data across material and digital landscapes, these hybrid spaces are transforming the ways we conceive of embodied space. The stakes related to the ways we conceive of embodied space are significant, including the ways we imagine identity, community, and cultural objects we create, including art, games, performance and narrative.” —Jason Farman (Mobile Interface Theory 15) In 2012 Will Lewis attended a conference roundtable on new media and theatre promoted as “multidisciplinary.” Unexpectedly, the panelist’s discussion quickly devolved into palpable fear of theatre departments’ dissolution due to the “encroachment” of interdisciplinarity with film and media studies departments. The fear in the room was alarming. However, during the question-and-answer session, one attendee resisted the narrative of anxiety by reframing the conversation. He offered an anecdote illustrating a new way of approaching the future. The story encouraged a novel outlook on the inclusion of digital media in theatre, one where theatre practitioners, critics, and educators are willing to adapt to the pervasive nature of mobile and social technology. He asked the room to make a gesture for how they would make something bigger. Nearly every person in the room, a majority of whom appeared to be in their late 40s or older, raised their hands and widened their reach outward by roughly four feet. Continuing, he then explained how his 3-year-old niece responded when asked the same question: “She raised one hand slightly in a pinched gesture and moved her thumb and forefinger outward about two inches.” This child represents the emergence of a future generation of performance spectators. Her generation perceives the world not from the same practical, tangible, “real” (actual/material) world of those born before the mid-1990s. Previous generations first experienced the world removed from the digital and the virtual; they were instead inscripted via a culture based in the live and actual that was perceived through the screens of their own eyes without constant digital remediation. The generation coming of age today was raised in digital cultures whose primary media source is the internet, delivered via multiple pervasive interfaces. For them, perception and thought process are forever altered by a chipping away at the “capacity for concentration and contemplation” (Carr 6). As coauthors, we belong to two different generations: one resides at the end of Generation X, and the other is firmly in Generation Y.1 One’s proximity to the next generation forces him to live in a tenuous cultural temporality, looking forward though also anxiously holding back, and the other is deeply rooted in her cultural paradigm. The gap between our individual ways of perceiving the world has proven fruitful in our ongoing collaborative investigation into performance and its relationship with different cultural expectations. Working together forces us to contemplate how each generation approaches the world differently and allows us to look forward so that we can adapt to new worldviews. As scholar-artists interested in cultural divides, we are attempting through this essay to explain how current trends toward digital culture affect the potential future of theatre. Our [End Page 123] primary mode of inquiry is to consider how social networking has become a pervasive presence in today’s hyper-connected, hyper-aware, and hyper-real worldview. We hope that our writing will urge other artists and scholars to contemplate how the pervasiveness of social connections made digitally are affecting the ways in which all theatrical performance is received and produced. This essay explores both the effect and affect of mobile digital technology on the understanding of the self (extrapolated out to the audience) in the age of digital social media. To do so, we begin from an understanding of media “both as technologies including infrastructures and as processes of sense-making” (Couldry and Hepp 5) that form the social reality of the current world.2 In the late 1990s Nicolas Bourriaud presciently foretold the current era of sociability through the digital as a coming fundamental shift in the ways of operating in the world, warning...</t>
+          <t>Pentaerythritol tetranitrate (PETN) is a nitrate ester explosive that may be persistent with scarce reports on its environmental fate and impacts. Our main objective was to isolate and characterize bacteria that transform PETN under aerobic and anaerobic conditions. Biotransformation of PETN (100 mg L-1) was evaluated using mineral medium with (M + C) and without (M - C) additional carbon sources under aerobic conditions and with additional carbon sources under anaerobic conditions. Here, we report on the isolation of 12 PETN-transforming cultures (4 pure and 8 co-cultures) from environmental samples collected at an explosive manufacturing plant. The highest transformation of PETN was observed for cultures in M + C under aerobic conditions, reaching up to 91% ± 2% in 2 d. Under this condition, PETN biotransformation was observed in conjunction with the release of nitrites and bacterial growth. No substantial transformation of PETN (&lt;45%) was observed during 21 d in M - C under aerobic conditions. Under anaerobic conditions, five cultures could transform PETN (up to 52% ± 13%) as the sole nitrogen source, concurrent with the formation of two unidentified metabolites. PETN-transforming cultures belonged to Alphaproteobacteria, Betaproteobacteria, Gammaproteobacteria, and Actinobacteria. In conclusion, we isolated 12 PETN-transforming cultures belonging to diverse taxa, suggesting that PETN transformation is phylogenetically widespread.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3191177359</t>
+          <t>https://openalex.org/W2499553543</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4043/31046-ms</t>
+          <t>https://doi.org/10.4018/978-1-5225-0016-2.ch010</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Karim et al. (2021)</t>
+          <t>Dingli et al. (2016)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Value Tracking Thru Digital Fields Countrywide Solution Big Data Analytics Project</t>
+          <t>Discovering Art using Technology</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Abstract The Digital Field initiative is transforming the daily operations on the oilfield and it is now part of PETRONAS corporate wide digital strategy. This transformation is done by onboarding multiple disciplines such as subsurface team, facilities, and operations, HSSE and Business Planning and is designed to replicates the performance of an oilfield in the computer, combining business process management and technical workflows. Digital Field has enabled the customer to execute their work collaboratively, by providing decision support system (technical workflows and business process management tools) subsequently improving their process efficiencies and optimizing their production. It is believed that by conducting a systematic review of the improvement and tracking the values that has been achieved, it will help to promote and accelerate digital adoption faster. The main objectives of the Automated Value Tracking are: To promote opportunity generation through collaborative environment. To track stages of every opportunity of the following categories of Production Optimization, Unplanned Deferment and Process Cycle Efficiencies. To quantify values associated with opportunities generated from automated workflows and current business process. To promote ownership of the actions associated with the assigned opportunity and to help to quantify on individual level contribution to the corporate goal in terms of production volume and time savings. To measures optimized number of opportunities generated against production volume associated with Production Optimization activity according to Field category and Quality of Opportunity Generated from Optimization Advisor. The process is summarized as follow: Opportunity generation: Automated opportunity generation generated through current Production Optimization Advisory framework. Integration with existing Petronas business process tools i.e. Daily Operational Tracking System, Alpha projects, Opportunity Management system, etc. Manual opportunity generation. Opportunity evaluation and analysis: Provide quantitatively confidence level of production incremental volume from automated Optimization Advisory through machine learning. Establish relationship between numbers of opportunity completed and categories versus production volume gain. Opportunity tracking and approval: Tracking the opportunity generation according to the process level. Escalating Opportunity and value recognition through business process approval. This workflow helps to improve to understand the current update of the different levels such as well, field, region and upstream with the help of integrating the value realization and allows "cards" to show information that can trigger opportunities to increase production, reduce time of decision and fast action.</t>
+          <t>The Selfie project was not only inspired by the long history of the self-portrait, but also intended to create a genealogy between the self-portraits of masters from the Modern art era and the selfie. The project, designed as a walkthrough experience, consisted of three major engagement areas. On entering the space, children were directed into a ‘transformation' area – a typical theatrical wardrobe, where they could dress up in a variety of costumes, including hats and wigs. Once garbed, children were given smart phones and led to the area where they could take a selfie with a celebrity such as Gauguin, Cézanne, Monet, Van Gogh, Modigliani and Munch. Finally, they could manipulate the selfie using gesture-based technology and post it online. The attraction proved to be extremely popular and the children who participated were extremely satisfied with the experience.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2799383018</t>
+          <t>https://openalex.org/W1539878406</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12913-018-3045-6</t>
+          <t>https://doi.org/10.1353/tj.2015.0049</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Goodridge et al. (2018)</t>
+          <t>Stephenson (2015)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Assessing the implementation processes of a large-scale, multi-year quality improvement initiative: survey of health care providers</t>
+          <t>Dramas of the Past On the Twentieth-Century Stage: In History’s Wings by Alexander Feldman</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Beginning in 2012, Lean was introduced to improve health care quality and promote patient-centredness throughout the province of Saskatchewan, Canada with the aim of producing coordinated, system-wide change. Significant investments have been made in training and implementation, although limited evaluation of the outcomes have been reported. In order to better understand the complex influences that make innovations such as Lean "workable" in practice, Normalization Process Theory guided this study. The objectives of the study were to: a) evaluate the implementation processes associated with Lean implementation in the Saskatchewan health care system from the perspectives of health care professionals; and b) identify demographic, training and role variables associated with normalization of Lean. Licensed health care professionals were invited through their professional associations to complete a cross-sectional, modified, online version of the NoMAD questionnaire in March, 2016. Analysis was based on 1032 completed surveys. Descriptive and univariate analyses were conducted. Multivariate multinomial regressions were used to quantify the associations between five NoMAD items representing the four Normalization Process Theory constructs (coherence, cognitive participation, collective action and reflexive monitoring). More than 75% of respondents indicated that neither sufficient training nor resources (collective action) had been made available to them for the implementation of Lean. Compared to other providers, nurses were more likely to report that Lean increased their workload. Significant differences in responses were evident between: leaders vs. direct care providers; nurses vs. other health professionals; and providers who reported increased workload as a result of Lean vs. those who did not. There were no associations between responses to normalization construct proxy items and: completion of introductory Lean training; participation in Lean activities; age group; years of professional experience; or employment status (full-time or part-time). Lean leader training was positively associated with proxy items reflecting coherence, cognitive participation and reflexive monitoring. From the perspectives of the cross-section of health care professionals responding to this survey, major gaps remain in embedding Lean into healthcare. Strategies that address the challenges faced by nurses and direct care providers, in particular, are needed if intended goals are to be achieved.</t>
+          <t>Reviewed by: Dramas of the Past On the Twentieth-Century Stage: In History’s Wings by Alexander Feldman Jenn Stephenson DRAMAS OF THE PAST ON THE TWENTIETH-CENTURY STAGE: IN HISTORY’S WINGS. By Alexander Feldman. Routledge Advances in Theatre and Performance Studies. New York: Routledge, 2013; pp. 252. Taking its methodological inspiration from Linda Hutcheon’s concept of historiographical metafiction, Alexander Feldman’s Dramas of the Past helpfully extends this original notion to encompass dramatic representations of history that apply self-reflexive metatheatrical strategies to comment on the constructedness of history through an augmented awareness of the constructedness of theatre. Along the way, Feldman introduces a number of related threads. One prominent through-line of the book traces how the selected metatheatrical plays problematize participatory citizenship, thinking about belonging and exclusion in the specific context of British nationhood from the post–World War II period through the Thatcher era. Exclusion is the touchstone for the subtitle of the book—“In history’s wings,” referring to those social actors marginalized in the grand sweep of history who might yet seize the stage. Feldman’s discussion of the play-within-a-play is well-grounded in the pioneering work of Lionel Abel, Anne Righter, and Robert Nelson. Critically to his central idea of self-directed, autonomous citizenship, Feldman extends Abel’s dichotomous contrasting of those who are dramatized and those who provide scripts and direction for others, forging a strong connection between theatrical power (world-as-stage) and sociopolitical power (polity-as-stage). It is notable in this context that Feldman engages Performing History scholar Freddie Rokem dominantly as a metatheatre theorist. Outside of this specialized dramaturgical focus, other performance-of-history heavyweights like Pierre Nora, Joseph Roach, Diana Taylor, and Rebecca Schneider receive slight attention. The book is adeptly organized into four chapters, with each chapter matching two plays according to a particular shared motif. As Feldman notes, certain historical phenomena are already marked by an innate theatricality. The theatricality of popular insurrection constitutes the frame for the first chapter, pairing Marat/Sade by Peter Weiss with The Plebeians Rehearse the Uprising by Günter Grass. In both plays, the nested dramas offer an illusion of freedom and social regeneration. Yet, in the end, as the inside (and outside) plays conclude, the revolution is suppressed. One of the highlights of this chapter is Feldman’s detailed discussion of the Aldwych Theatre production curtain call for Marat/Sade, explicating how the theatrical mechanism itself acts as a subjugating force, containing the incipient riot within the fictional frame. Standing above the authority of the prison of Charenton, there is yet another layer of control: it is the stage manager with her whistle who compels the return of the inmates to their roles as actors. The hostility and threat are not erased fully, but mitigated and denatured. This example underscores one of the key theses of Dramas of the Past, noting the persistent tension in metatheatrical work between dramatic generative power granted to the playwright, director, and actor and the destabilizing contingency of the fictional that necessarily limits the actual-world efficacy of that power. Turning to the crucible of national identity that was World War I, Feldman considers this transformative moment, looking at comic treatments of the British landed upper classes. Forty Years On by Alan Bennett and Travesties by Tom Stoppard are viewed through the ideological lens of Wildean aesthetics. Of specific interest is the satirical performance of the “dandy” as a symbol of failing empire. Continuing this theme of war and leadership, the next chapter matches Howard Brenton’s The Churchill Play with Rolf Hochhuth’s Soldiers as exemplars of a reverse hagiography of “great men,” here specifically Winston Churchill. Finally, the innate theatricality of colonial encounter is the motif of the final chapter of the four, bringing together two plays by Timberlake Wertenbaker: Our Country’s Good and After Darwin. Whereas the former intimates redemption for the exiles of Sydney Cove—a redemption of citizenship [End Page 374] seeded in the new community of their theatrical labor—After Darwin reinforces barriers to cultural assimilation. Englishness remains an inaccessible territory to would-be immigrants. Feldman’s decision to use the...</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1992153908</t>
+          <t>https://openalex.org/W4288042673</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jeb.12460</t>
+          <t>https://doi.org/10.1089/pop.2022.0079</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Ng &amp; Smith (2014)</t>
+          <t>Rudy et al. (2022)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>How traits shape trees: new approaches for detecting character state-dependent lineage diversification</t>
+          <t>A Call for Consistent Measurement Across the Social Determinants of Health Industry Landscape</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Biologists have long sought to understand the processes underlying disparities in clade size across the tree of life and the extent to which such clade size differences can be attributed to the evolution of particular traits. The association of certain character states with species-rich clades suggests that trait evolution can lead to increased diversification, but such a pattern could also arise due other processes, such as directional trait evolution. Recent advances in phylogenetic comparative methods have provided new statistical approaches for distinguishing between these intertwined and potentially confounded macroevolutionary processes. Here, we review the historical development of methods for detecting state-dependent diversification and explore what new methods have revealed about classic examples of traits that affect diversification, including evolutionary dead ends, key innovations and geographic traits. Applications of these methods thus far collectively suggest that trait diversity commonly arises through the complex interplay between transition, speciation and extinction rates and that long hypothesized evolutionary dead ends and key innovations are instead often cases of directional trends in trait evolution.</t>
+          <t>Population Health ManagementVol. 25, No. 5 Points of ViewOpen AccessCreative Commons licenseA Call for Consistent Measurement Across the Social Determinants of Health Industry LandscapeEllen T. Rudy, Kelsey C. McNamara, Zachary N. Goldberg, Andrew Parker, and David B. NashEllen T. RudyAddress correspondence to: Ellen T. Rudy, PhD, Department of Research and Impact, Papa, Inc., 66 SW 6th Street, Miami, FL 90089-0001, USA E-mail Address: erudy@papa.comDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Department of Health Policy and Management, Sol Price School of Public Policy, University of Southern California, Los Angeles, California, USA.Search for more papers by this author, Kelsey C. McNamaraDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, Zachary N. Goldberghttps://orcid.org/0000-0003-1935-6421Sidney Kimmel Medical College, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this author, Andrew ParkerDepartment of Research and Impact, Papa, Inc., Miami, Florida, USA.Search for more papers by this author, and David B. NashJefferson College of Population Health, Thomas Jefferson University, Philadelphia, Pennsylvania, USA.Search for more papers by this authorPublished Online:14 Oct 2022https://doi.org/10.1089/pop.2022.0079AboutSectionsPDF/EPUB Permissions &amp; CitationsPermissionsDownload CitationsTrack CitationsAdd to favorites Back To Publication ShareShare onFacebookTwitterLinked InRedditEmail IntroductionSocial determinants of health (SDOH) create the haves and have-nots in access to quality health care.1 These SDOH include both the conditions in which people are born, grow, live, work, and age as well as the complex, interrelated social structures and economic systems that shape these conditions. SDOH consistently predict premature morbidity and mortality. For example, lack of emotional support results in earlier dementia, increases the risk of death after heart attack, and is a predictor of functional decline and death for older adults.2–4 Notably, SDOH disproportionately impact people of color, who are more likely to report higher financial insecurity and greater transportation barriers, and to be met with inadequate care access and substandard patient experience.5,6 Subsequently, people of color shoulder a disproportionate burden of disease and negative health outcomes, including higher rates of diabetes, worse maternal outcomes, greater prevalence of HIV, and less preventive screenings.7–10The purpose of this commentary is to (1) present a successful example of an SDOH intervention evaluation in a for-profit SDOH Industry company and (2) to call on industry—SDOH entrepreneurial ventures, health payers and providers, and policymakers—to collaborate and align on more consistent metrics that evaluate the impact of SDOH interventions. In this article, the authors employ an SDOH intervention evaluation strategy first presented by Goldberg and Nash of a company in the SDOH Industry to determine the efficacy of the company's intervention.11 We then present additional recommendations to expand the conversation about SDOH intervention evaluation to foster greater collaboration among stakeholders over time.Despite all the evidence, until recently, health payers—the primary risk bearers of health care costs—were not explicitly allowed or incentivized to cover nonclinical benefits on a broad scale. This changed markedly with the passing of the CHRONIC Care Act of 2018, which opened the door to industry adoption of nonclinical supplemental benefits aimed at social needs.12Increased funding for SDOH interventions by payers coupled with inefficient SDOH intervention management strategies by providers has led to the emergence or enhanced focus of nonprofit and for-profit companies addressing SDOH.13 For example, as of late 2021, 58 private, for-profit SDOH companies existed, with the majority emerging after 2010.13 They offer solutions that include large-scale meal delivery, transportation to medical appointments or social activities, and companionship and personal assistance in the home.As this industry continues to grow in size and scope, there remains no clear consensus on the best approach to address each social determinant.13 Moreover, little focus has been placed on rigorous evaluations of SDOH interventions employed by companies in this industry.13 Without an aligned effort between various stakeholders of all types into measurement, there is a risk of limited impact relative to both the need and to the industry's large investment and valuation ($2.4 billion of funding and $18.5 billion valuation as of 2021).13SDOH Intervention MeasurementSDOH Industry organizations face 2 primary challenges in using traditional key performance indicators (KPIs). First, the measurements reflect an outdated expectation of having a cost impact in weeks or months. Transitions of care programs and emergency department dive</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3012145242</t>
+          <t>https://openalex.org/W3127212672</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/24694193.2020.1733707</t>
+          <t>https://doi.org/10.24321/2454.325x.202011</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Leake et al. (2020)</t>
+          <t>George (2021)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Primary Care Providers Involvement in Caring for Young Adults with Complex Chronic Conditions Exiting Pediatric Care: An Integrative Literature Review</t>
+          <t>Dietary Behaviours among Adolescent Girls in Pathanamthitta District, Kerala</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>The transition to adulthood is a critical time for everyone to build independence, experience new things, and become self-sufficient. With medical advances, individuals with complex chronic conditions are surviving into adulthood. As such they withstand additional challenges during this stage of their life including; facing a discontinuity of care, loss of prior health-care networks and champions, and a shift toward increased responsibility and self-management of their conditions. Often this shift results in the need for primary care providers to act as care managers, coordinating care and supporting the young adult as they navigate adulthood. In exploring the role of primary care providers with this population we reviewed the literature to identify what strategies primary care providers can use to enhance the transition process for young adults ages 15 to 25 years with complex chronic conditions exiting pediatric services. An integrative literature review approach was used to systematically search the contemporary literature. Applying inclusion criteria and quality assessment of relevant research and gray literature we identified 12 studies that warranted detailed review and analysis. Analysis of the studies highlighted four key themes: relationships, fear and anxiety, preparedness, and communication and collaboration. It was evident that health-care transition for young adults with complex chronic conditions was complicated by their psychosocial development and extensive health and service needs. Health-care transition is a team effort influenced by local contexts, resources, and relational practices. Both groups of primary care providers and young adults must be prepared prior to transition if they are to become immersed and engaged in this work. The population of young adults with complex chronic conditions exiting pediatric care will continue to grow as access to care delivery and medical technology continue to expand. While health-care transition for this population is complicated by extensive needs and psychosocial development, primary care providers can act as key supports in employing strategies to enhance the transition process for these young adults.</t>
+          <t>Background: Adolescence is a time of rapid transition and complex experiences with society, defining the capacity of a person to reach adult life. Diet plays a crucial role in overall development of the child precisely female child as they will become the future mothers. The study objective is to assess the dietary pattern of the school adolescents in various region of the district. Methods: 869 school going adolescents 10-18 years from 20 schools in Pathanamthitta District, Kerala participated in this study and was distributed a questionnaire exploring the dietary habits using food frequency questionnaire along with socio demographic details. Result: Altogether, penurious diet patterns were observed, 64.6% were habituated to skip one meal in a day, 86.7% consumed junk food, 35.5% adolescents skipping breakfast, consumption of Green leafy vegetables was diminished, nearly two third of adolescents did not consumed any fruit once in a day. Most of the respondents depended on rice with one or two vegetables. Conclusion: Lack of variety food intake in adolescents may vary due to numerous factors like availability, socio-economic status, parent education, accessibility .Dietary diversity score and dietary assessment needs to be calculated and there is a need of in depth study of nutrient consumption.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2485735263</t>
+          <t>https://openalex.org/W4307023951</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119176626.ch1</t>
+          <t>https://doi.org/10.1016/j.cjca.2022.08.069</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Rothwell et al. (2015)</t>
+          <t>Faiella &amp; Moeller (2022)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Organization Development, Transformation, and Change</t>
+          <t>COMPETENCY-BASED CARDIOLOGY TRAINING: A SIMPLE APPROACH TO IMPROVE SUPERVISOR COMPLETION OF EPAS</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>This chapter explores organization development (OD), transformation, and change. It questions why we need to care about them and what are the key terms associated with OD, transformation, and change. The chapter also discusses systems thinking, and its importance to OD practitioners. The various definitions of OD presented imply several key themes: OD is long-range in perspective, works best when supported by senior leadership, effects change primarily through education, emphasizes employee participation, and empowers the system to take responsibility for creating and evaluating results. The challenge of the future is to help people learn to ride the waves of transformation and change in real-time and as events unfold. The chapter lists some useful to know terms in communicating with others.</t>
+          <t>Adult Cardiology Residency Training Programs across the country made the formal transition to Competency By Design (CBD) in July 2021, with some programs launching earlier, including Dalhousie University. The overarching goal of CBD is to ensure physicians complete their training with competencies deemed necessary to meet evolving health care needs. CBD was designed to establish clear learning expectations and increased opportunities for coaching. However, cited challenges include an increased administrative burden for residents, inconsistent participation by staff, and variable timelines for receiving feedback. The goal of this project is to implement a simple intervention to improve completion rates and timelines of Entrustable Professional Activities (EPAs). EPAs triggered by cardiology residents at Dalhousie University between July 1, 2020 and Dec 31, 2021 were reviewed in the one45 software program. Data including number of EPAs triggered, completed, expired, and time to completion were collected according to supervisor. The intervention was the distribution of a personalized data set to each staff supervisor with individual statistics for collected data points, along with group averages for comparison. The outcomes of interest include average number of EPAs completed per staff, average time to completion and percentage of expired EPAs, evaluated at 6- and 18-months post-intervention. Between July 1, 2020 to Dec 31, 2021, a total of 568 EPAs were triggered, 385 (67.78%) completed and 183 (32.22%) expired. The average number of EPAs completed per staff was 9.14±11.80. The average time to completion was 7.32±5.98 days, which is above the 48-hour targeted timeline for completion. A higher percentage of EPAs were completed in the first 7 days after being triggered, with 33.1% and 16.7% of EPAs being completed on day 0 and 1 respectively, and only 18.8% of EPAs completed between 8-14 days. Next steps include data collection at 6- and 18-months post-intervention. We hope this simple intervention will increase supervisor awareness of and participation in CBD, as timely completion of EPAs is necessary for good quality and actionable feedback. Findings will be helpful to implement further CBD-related curriculum changes, which may include continuing this strategy annually.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2484509147</t>
+          <t>https://openalex.org/W2547003935</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Olin (1997)</t>
+          <t>Braman (2003)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Transforming the Common Place: Selections from Laurie Olin's Sketchbooks</t>
+          <t>The Need: Communication Research as an Input into Policy</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transforming the Common/Placepresents selected projects by landscape architect Laurie Olin and his firm Hanna/Olin. Considered by many to be an heir to Frederick Law Olmsted's legacy, Olin has put his stamp on public spaces from Manhattan to Los Angeles and from Columbus, Ohio to London, England. His work deals mainly with the transformation of the ordinary, taking commonplace elements and making them extraordinary. Transforming the Common/Place focuses on the three main elements of Olin's practice: public projects-Bryant Park in New York City and the Playa Vista development in Los Angeles; private/commercialcommissions-Canary Wharf and King's Cross in London; and experimental projects-the Wexner Center for the Visual Arts in Columbus, Ohio, carried out in collaboration with Peter Eisenman.An introduction by John Dixon Hunt and an essay by Peter G. Rowe accompany the detailed project descriptions and numerous photographs.</t>
+          <t>As the global information infrastructure evolves, the field of communication has the opportunity to renew itself while addressing the urgent policy need for new ways of thinking and new data to think about. Communication Researchers and Policy-making examines diverse relationships between the communication research and policy communities over more than a century and the issues that arise out of those interactions. The book provides primary material in the form of reports on such relationships spanning time periods, subject matter, policy issues, decision-making venues, and governments.The essays range from historical pieces on the importance of communication research since the beginning of systematic policy analysis and on the various roles that researchers can play to contemporary analyses of contributions of research to policy debates over network design and access, media violence, and advertising fraud. Substantial interstitial essays by the editor explore the impact of the policy context on communication theories and research practices, relationships between researchers and their institutional homes, the role of communication researchers as public intellectuals, and ways to maximize the impact of communication research on policy-making during this period of infrastructural transformation. The book includes an extensive bibliography.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2499553543</t>
+          <t>https://openalex.org/W2147863424</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-5225-0016-2.ch010</t>
+          <t>https://doi.org/10.1067/mva.2000.106499</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Dingli et al. (2016)</t>
+          <t>Bredenberg (2000)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Discovering Art using Technology</t>
+          <t>Presidential address: “These united colonies are…”</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>The Selfie project was not only inspired by the long history of the self-portrait, but also intended to create a genealogy between the self-portraits of masters from the Modern art era and the selfie. The project, designed as a walkthrough experience, consisted of three major engagement areas. On entering the space, children were directed into a ‘transformation' area – a typical theatrical wardrobe, where they could dress up in a variety of costumes, including hats and wigs. Once garbed, children were given smart phones and led to the area where they could take a selfie with a celebrity such as Gauguin, Cézanne, Monet, Van Gogh, Modigliani and Munch. Finally, they could manipulate the selfie using gesture-based technology and post it online. The attraction proved to be extremely popular and the children who participated were extremely satisfied with the experience.</t>
+          <t xml:space="preserve">Thank you for the opportunity to serve as your president for this past year. This recognition is more broadly addressed to the surgeons of my adopted state, Maine. Among them, Ferris Ray, who served as vice president of this society, stands out as the one surgeon who did the most to forge vascular surgery as a distinct specialty in Maine. The real heart of a surgical society is the secretary, and I want particularly to thank Jim Menzoian for his indefatigable efforts. Jim continues the distinguished line of strong secretaries with which this society has been blessed. “These United Colonies are...”—the phrase, of course, comes from the Declaration of Independence: “We, therefore, the Representatives of the United States of America, in General Congress, Assembled... solemnly publish and declare, That these United Colonies are and of Right ought to be Free and Independent States.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar What jars the modern ear is the plurality of the syntax: “These United Colonies are... Free and Independent States.” The verb is plural, which implies a plural subject. Today we would say, “The United States is a free and independent nation.” The third-person singular in the verb explicitly states our perception of a single nation, a concept that is not at all clear in our Declaration of Independence. The emphasis on the plurality of the colonies is not accidental; it fills the operative paragraph: “They are absolved from all allegiance to the British Crown... All political connection between them and the state of Great Britain is and ought to be totally dissolved... As Free and Independent States, they have full Power.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar The problem of unity and the tension between peripheral autonomy and central authority have been central to the history of the United States. Are we a single nation or a federation of sovereign states? This tension was most dramatically confronted during the roughly 100 years from 1763 to 1865. I should like to briefly review this interval in our nation's history, because I believe many of the issues that played out so dramatically are common to all human organizations, because organization itself is crucial to human endeavor, and because, as many people see it, the future quality of health care in this country depends, in part, on improving our organization of health care delivery. As you listen to this interpretation of history, you may hear issues familiar to your own experience. In 1763, the Peace of Paris concluded the Seven Years' War, one of a series of European wars stretching back to the late 17th century, which arose largely over the conflict between France's attempts to establish hegemony in Europe and England's attempt to thwart these efforts with a balance of European powers. These wars had spilled onto the North American continent as the so-called French and Indian Wars.2Morison SE Commager HS Leuchtenburg WE. The growth of the American republic. 7th edition. Oxford University Press, New York1980: 1-923Google Scholar In North America at Quebec, Wolfe's victory in 1759 on the Plains of Abraham (named not after the Old Testament patriarch, but after Abraham Martin, a French river pilot and farmer) gave Britain all of French Canada and all the land east of the Mississippi down to the lower Mississippi delta. It was a great victory, which cost the 32-year-old major general's life when he stood in front of one of his regiments ready to personally lead the bayonet charge that followed the devastating close-range British musket volleys that had already determined the outcome of the battle.3Keegan J. Fields of battle. Alfred A. Knopf, New York1995: 1-348Google Scholar Wars cost money as well as lives, and Britain's victory in the Seven Years' War increased the British national debt nearly 2½-fold.4Middlekauff R The glorious cause: the American Revolution, 1763–1789. The Oxford history of the United States.in: Oxford University Press, New York1982: 1-696Google Scholar The king and parliament felt that the American colonies should be taxed to contribute to the cost of their own defense. The American colonists, like everyone else before or since, objected to taxes. The centers for the conflict of the colonies with England were Virginia and New England. New England had been populated largely by Puritan refuges from East Anglia, a section of England east of London with particularly strong traditions of both literacy and support of representation over arbitrary power.5Phillips K. The cousins war: Religion, politics, and the triumph of Anglo-America. Basic Books, New York1999: 1-707Google Scholar It was the regional power base for Cromwell and the Puritan parliament, which rose in revolt against the Stuart attempt at </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1539878406</t>
+          <t>https://openalex.org/W4304080266</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tj.2015.0049</t>
+          <t>https://doi.org/10.3126/jpd.v3i1.48807</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Stephenson (2015)</t>
+          <t>Mishra (2022)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Dramas of the Past On the Twentieth-Century Stage: In History’s Wings by Alexander Feldman</t>
+          <t>Female Labor Migration: Gender Prospective</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Reviewed by: Dramas of the Past On the Twentieth-Century Stage: In History’s Wings by Alexander Feldman Jenn Stephenson DRAMAS OF THE PAST ON THE TWENTIETH-CENTURY STAGE: IN HISTORY’S WINGS. By Alexander Feldman. Routledge Advances in Theatre and Performance Studies. New York: Routledge, 2013; pp. 252. Taking its methodological inspiration from Linda Hutcheon’s concept of historiographical metafiction, Alexander Feldman’s Dramas of the Past helpfully extends this original notion to encompass dramatic representations of history that apply self-reflexive metatheatrical strategies to comment on the constructedness of history through an augmented awareness of the constructedness of theatre. Along the way, Feldman introduces a number of related threads. One prominent through-line of the book traces how the selected metatheatrical plays problematize participatory citizenship, thinking about belonging and exclusion in the specific context of British nationhood from the post–World War II period through the Thatcher era. Exclusion is the touchstone for the subtitle of the book—“In history’s wings,” referring to those social actors marginalized in the grand sweep of history who might yet seize the stage. Feldman’s discussion of the play-within-a-play is well-grounded in the pioneering work of Lionel Abel, Anne Righter, and Robert Nelson. Critically to his central idea of self-directed, autonomous citizenship, Feldman extends Abel’s dichotomous contrasting of those who are dramatized and those who provide scripts and direction for others, forging a strong connection between theatrical power (world-as-stage) and sociopolitical power (polity-as-stage). It is notable in this context that Feldman engages Performing History scholar Freddie Rokem dominantly as a metatheatre theorist. Outside of this specialized dramaturgical focus, other performance-of-history heavyweights like Pierre Nora, Joseph Roach, Diana Taylor, and Rebecca Schneider receive slight attention. The book is adeptly organized into four chapters, with each chapter matching two plays according to a particular shared motif. As Feldman notes, certain historical phenomena are already marked by an innate theatricality. The theatricality of popular insurrection constitutes the frame for the first chapter, pairing Marat/Sade by Peter Weiss with The Plebeians Rehearse the Uprising by Günter Grass. In both plays, the nested dramas offer an illusion of freedom and social regeneration. Yet, in the end, as the inside (and outside) plays conclude, the revolution is suppressed. One of the highlights of this chapter is Feldman’s detailed discussion of the Aldwych Theatre production curtain call for Marat/Sade, explicating how the theatrical mechanism itself acts as a subjugating force, containing the incipient riot within the fictional frame. Standing above the authority of the prison of Charenton, there is yet another layer of control: it is the stage manager with her whistle who compels the return of the inmates to their roles as actors. The hostility and threat are not erased fully, but mitigated and denatured. This example underscores one of the key theses of Dramas of the Past, noting the persistent tension in metatheatrical work between dramatic generative power granted to the playwright, director, and actor and the destabilizing contingency of the fictional that necessarily limits the actual-world efficacy of that power. Turning to the crucible of national identity that was World War I, Feldman considers this transformative moment, looking at comic treatments of the British landed upper classes. Forty Years On by Alan Bennett and Travesties by Tom Stoppard are viewed through the ideological lens of Wildean aesthetics. Of specific interest is the satirical performance of the “dandy” as a symbol of failing empire. Continuing this theme of war and leadership, the next chapter matches Howard Brenton’s The Churchill Play with Rolf Hochhuth’s Soldiers as exemplars of a reverse hagiography of “great men,” here specifically Winston Churchill. Finally, the innate theatricality of colonial encounter is the motif of the final chapter of the four, bringing together two plays by Timberlake Wertenbaker: Our Country’s Good and After Darwin. Whereas the former intimates redemption for the exiles of Sydney Cove—a redemption of citizenship [End Page 374] seeded in the new community of their theatrical labor—After Darwin reinforces barriers to cultural assimilation. Englishness remains an inaccessible territory to would-be immigrants. Feldman’s decision to use the...</t>
+          <t>This paper is based on level, trends and pattern of female labor migration in Nepal. The changes in the lives of Nepalese women due to the increasing trend foreign labor migration of men. The changes in intra-household power relations and the transformations in women’s lives, due to the male-dominated nature of Nepalese migration, are largely neglected. The aim of this paper to find the level and trend of female labour migration in Nepal and also examine women’s experiences, as they assume the role of household heads, financial managers and single parents, in a society that has historically suppressed their freedom. The analysis is based on secondary data source. Women who take on the role of household head are more likely to gain decision-making power and experience an increase in social participation, while those left under the supervision of other members (usually their in-laws) may suffer from reduced decision-making ability and increased restrictions on their mobility in public spaces. These consequences are highly sensitive to the regional socio-cultural norms as well as women’s caste, class, and individual characteristics. The consequences of female migration increasing trend day by day and their experience provides the valuable information for the developing policy of migration as well as traditional gender inequality and providing women with the resources to manage with the challenges faced during men’s migration.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3127212672</t>
+          <t>https://openalex.org/W4360603309</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24321/2454.325x.202011</t>
+          <t>https://doi.org/10.1016/s0140-6736(23)00579-2</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>George (2021)</t>
+          <t>Samarasekera (2023)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Dietary Behaviours among Adolescent Girls in Pathanamthitta District, Kerala</t>
+          <t>Anna Gilmore: confronting the commercial determinants of health</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Background: Adolescence is a time of rapid transition and complex experiences with society, defining the capacity of a person to reach adult life. Diet plays a crucial role in overall development of the child precisely female child as they will become the future mothers. The study objective is to assess the dietary pattern of the school adolescents in various region of the district. Methods: 869 school going adolescents 10-18 years from 20 schools in Pathanamthitta District, Kerala participated in this study and was distributed a questionnaire exploring the dietary habits using food frequency questionnaire along with socio demographic details. Result: Altogether, penurious diet patterns were observed, 64.6% were habituated to skip one meal in a day, 86.7% consumed junk food, 35.5% adolescents skipping breakfast, consumption of Green leafy vegetables was diminished, nearly two third of adolescents did not consumed any fruit once in a day. Most of the respondents depended on rice with one or two vegetables. Conclusion: Lack of variety food intake in adolescents may vary due to numerous factors like availability, socio-economic status, parent education, accessibility .Dietary diversity score and dietary assessment needs to be calculated and there is a need of in depth study of nutrient consumption.</t>
+          <t>Public health researcher Anna Gilmore is a big picture person whose research focuses on the influence of major corporations on health and finding and evaluating solutions to their negative impacts. “Commercial actors influence health in all sorts of ways, both positive and negative. For example, evidence shows major corporations have influenced our political and economic systems, our approaches to policy making, as well as specific policies and diverse environments. Health is determined by all those broader factors, known as ‘determinants of health’, and that's really what I look at, with a focus on commercial actors”, she explains. Gilmore is Professor of Public Health, Director and founder of the Tobacco Control Research Group (TCRG), and Co-Director of the Beacon for 21st Century Public Health at the University of Bath, UK, and an Honorary Consultant in Public Health Medicine at the UK's Government's Office for Health Improvement and Disparities. She is also one of the lead authors of the new Lancet Series on the commercial determinants of health (CDOH), which details how commercial entities impact human and planetary health and what can be done to address this, providing a new conceptual model to aid understanding of the issue. She hopes the Series will help “the medical community to realise the massive impact that commercial actors are having on health. Currently, what is killing many of their patients is the products and practices of major corporations and much of that is entirely preventable.” With that knowledge, she wants health-care professionals to “join the call for change and push governments to take action, not least because health systems can't cope with the burden of disease that some corporations are currently causing and the cost that entails”. Unravelling the commercial determinants of healthIn early March, in the wake of the COVID-19 pandemic, nearly 200 people—including former UN Secretary-General Ban Ki-moon—signed a letter strongly criticising pharmaceutical companies for putting a desire to make extraordinary profits before the needs of humanity. Selling publicly funded vaccines, treatments, and tests to the highest bidder resulted in inequities that cost more than a million lives, while private companies made billions of dollars. The signatories called on world leaders to ensure that such an injustice is never repeated. Full-Text PDF Rob Moodie: a radical voice in public healthRob Moodie, Professor of Public Health in the School of Population and Global Health at Australia's University of Melbourne, has a radical agenda for industry and business. His ambition, shared with a group of coauthors and set out in three Series papers in The Lancet, is to tackle the commercial determinants of health (CDOH). The health-harming effects of the tobacco, alcohol, food, and fossil fuel industries are well documented. But Moodie would like to widen the net; almost any business, he points out, can affect health and equity. Full-Text PDF Defining and conceptualising the commercial determinants of healthAlthough commercial entities can contribute positively to health and society there is growing evidence that the products and practices of some commercial actors—notably the largest transnational corporations—are responsible for escalating rates of avoidable ill health, planetary damage, and social and health inequity; these problems are increasingly referred to as the commercial determinants of health. The climate emergency, the non-communicable disease epidemic, and that just four industry sectors (ie, tobacco, ultra-processed food, fossil fuel, and alcohol) already account for at least a third of global deaths illustrate the scale and huge economic cost of the problem. Full-Text PDF Conceptualising commercial entities in public health: beyond unhealthy commodities and transnational corporationsMost public health research on the commercial determinants of health (CDOH) to date has focused on a narrow segment of commercial actors. These actors are generally the transnational corporations producing so-called unhealthy commodities such as tobacco, alcohol, and ultra-processed foods. Furthermore, as public health researchers, we often discuss the CDOH using sweeping terms such as private sector, industry, or business that lump together diverse entities whose only shared characteristic is their engagement in commerce. Full-Text PDF Commercial determinants of health: future directionsThis paper is about the future role of the commercial sector in global health and health equity. The discussion is not about the overthrow of capitalism nor a full-throated embrace of corporate partnerships. No single solution can eradicate the harms from the commercial determinants of health—the business models, practices, and products of market actors that damage health equity and human and planetary health and wellbeing. But evidence shows that progressive economic models, international frameworks, government regulation, co</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2547003935</t>
+          <t>https://openalex.org/W2184673946</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Braman (2003)</t>
+          <t>Chandu (2015)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>The Need: Communication Research as an Input into Policy</t>
+          <t>THE FORMATION OF INDIAN DIASPORAS ETHNIC IDENTITY IN THE AUSTRALIA</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>As the global information infrastructure evolves, the field of communication has the opportunity to renew itself while addressing the urgent policy need for new ways of thinking and new data to think about. Communication Researchers and Policy-making examines diverse relationships between the communication research and policy communities over more than a century and the issues that arise out of those interactions. The book provides primary material in the form of reports on such relationships spanning time periods, subject matter, policy issues, decision-making venues, and governments.The essays range from historical pieces on the importance of communication research since the beginning of systematic policy analysis and on the various roles that researchers can play to contemporary analyses of contributions of research to policy debates over network design and access, media violence, and advertising fraud. Substantial interstitial essays by the editor explore the impact of the policy context on communication theories and research practices, relationships between researchers and their institutional homes, the role of communication researchers as public intellectuals, and ways to maximize the impact of communication research on policy-making during this period of infrastructural transformation. The book includes an extensive bibliography.</t>
+          <t>The present study emphases the varied aspects and social bases of Indian Diasporas in Australia. And it also looks at Indian Diasporas identity in Australia, particularly identities based on ethnicity race, religion, caste, class, sexuality, gender, age, both separately and intersects with an interdisciplinary framework (Gbeg Nobele, Scott Poyting and Paul Tabar, 1999:29). How do people of Indian origin in Australia establish their identities (Clinton Golding, 2009)? It also traces up identities of Indians based on space, both geographical, virtual, and looks at their struggles over recognition, categorize by civil bias, nationalisms, and social movement. In this way, Indians have represented diversity of its socio-cultural, spiritual and political in multicultural Australian society. In which approximately 1.9% Indians and their children are widely living across country of the Australia (Census, 2011). The present study has made an attempt to understand, the Indian Diasporas struggle over their recognition, nationalism, cultural, politically, spiritual development in multicultural Australian society, taking into consideration of largely constructed Indian ethnicity, in major cities of Australia such as Sydney, Melbourne, Victoria, New South Wales, Queensland and Canberra. The study concludes by discussing how does transition has taken place among Indian Diasporas lives in day to day with their socio-cultural, ethnic, economic and political by the influence of multicultural Australian society. Apart from this, the study will also focus on, by the time and again, how the immigration policy has been Changing from both nations; India and Australia government looking at economic and political strategy toward Indian immigrants.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2147863424</t>
+          <t>https://openalex.org/W2063401965</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1067/mva.2000.106499</t>
+          <t>https://doi.org/10.3997/2214-4609.201406184</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Bredenberg (2000)</t>
+          <t>Oelsner et al. (2002)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Presidential address: “These united colonies are…”</t>
+          <t>Interurban - geophysical assessment of water dynamics and solute transport in urban soils</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for the opportunity to serve as your president for this past year. This recognition is more broadly addressed to the surgeons of my adopted state, Maine. Among them, Ferris Ray, who served as vice president of this society, stands out as the one surgeon who did the most to forge vascular surgery as a distinct specialty in Maine. The real heart of a surgical society is the secretary, and I want particularly to thank Jim Menzoian for his indefatigable efforts. Jim continues the distinguished line of strong secretaries with which this society has been blessed. “These United Colonies are...”—the phrase, of course, comes from the Declaration of Independence: “We, therefore, the Representatives of the United States of America, in General Congress, Assembled... solemnly publish and declare, That these United Colonies are and of Right ought to be Free and Independent States.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar What jars the modern ear is the plurality of the syntax: “These United Colonies are... Free and Independent States.” The verb is plural, which implies a plural subject. Today we would say, “The United States is a free and independent nation.” The third-person singular in the verb explicitly states our perception of a single nation, a concept that is not at all clear in our Declaration of Independence. The emphasis on the plurality of the colonies is not accidental; it fills the operative paragraph: “They are absolved from all allegiance to the British Crown... All political connection between them and the state of Great Britain is and ought to be totally dissolved... As Free and Independent States, they have full Power.”1Commager HS Morris RB The spirit of ‘76: the story of the American Revolution as told by participants. Bonanza Books, New York1983: 1-1348Google Scholar The problem of unity and the tension between peripheral autonomy and central authority have been central to the history of the United States. Are we a single nation or a federation of sovereign states? This tension was most dramatically confronted during the roughly 100 years from 1763 to 1865. I should like to briefly review this interval in our nation's history, because I believe many of the issues that played out so dramatically are common to all human organizations, because organization itself is crucial to human endeavor, and because, as many people see it, the future quality of health care in this country depends, in part, on improving our organization of health care delivery. As you listen to this interpretation of history, you may hear issues familiar to your own experience. In 1763, the Peace of Paris concluded the Seven Years' War, one of a series of European wars stretching back to the late 17th century, which arose largely over the conflict between France's attempts to establish hegemony in Europe and England's attempt to thwart these efforts with a balance of European powers. These wars had spilled onto the North American continent as the so-called French and Indian Wars.2Morison SE Commager HS Leuchtenburg WE. The growth of the American republic. 7th edition. Oxford University Press, New York1980: 1-923Google Scholar In North America at Quebec, Wolfe's victory in 1759 on the Plains of Abraham (named not after the Old Testament patriarch, but after Abraham Martin, a French river pilot and farmer) gave Britain all of French Canada and all the land east of the Mississippi down to the lower Mississippi delta. It was a great victory, which cost the 32-year-old major general's life when he stood in front of one of his regiments ready to personally lead the bayonet charge that followed the devastating close-range British musket volleys that had already determined the outcome of the battle.3Keegan J. Fields of battle. Alfred A. Knopf, New York1995: 1-348Google Scholar Wars cost money as well as lives, and Britain's victory in the Seven Years' War increased the British national debt nearly 2½-fold.4Middlekauff R The glorious cause: the American Revolution, 1763–1789. The Oxford history of the United States.in: Oxford University Press, New York1982: 1-696Google Scholar The king and parliament felt that the American colonies should be taxed to contribute to the cost of their own defense. The American colonists, like everyone else before or since, objected to taxes. The centers for the conflict of the colonies with England were Virginia and New England. New England had been populated largely by Puritan refuges from East Anglia, a section of England east of London with particularly strong traditions of both literacy and support of representation over arbitrary power.5Phillips K. The cousins war: Religion, politics, and the triumph of Anglo-America. Basic Books, New York1999: 1-707Google Scholar It was the regional power base for Cromwell and the Puritan parliament, which rose in revolt against the Stuart attempt at </t>
+          <t>Urban soils are subject to strong variations of environmental conditions, like water flow, solute transport or heat budget. The research project INTERURBAN has been formed to clarify the dynamics of water and materials at urban locations with special consideration of the spatial heterogeneity, the organic soil substance, and soil-biological transformation processes. In order to achieve these objectives, we work on four interdisciplinary questions: 1st The evaluation of spatial heterogeneity and its interaction with sub-processes; 2nd The influence of biotic and abiotic factors on the characteristics of the organic substance; 3rd The recording of water- and material transport from heterogeneous urban locations and application to selected locations; 4th The recording of the interaction between biotic and abiotic factors and their participation in the dynamics of the release of pollutants. These goals of the research group define the target for geophysics: The development of a noninvasive conception to map the water distribution and important structural parameters. In addition to standard methods, like geoelectrics and Ground Penetrating Radar (GPR), Spectral Induced Polarization (SIP) and Surface Nuclear Magnetic Resonance (SNMR) will be used. SNMR is the only method that allows to determine water content and pore size distribution directly from the surface and therefore a special focus in the project.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4304080266</t>
+          <t>https://openalex.org/W2078271565</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3126/jpd.v3i1.48807</t>
+          <t>https://doi.org/10.1016/j.pnucene.2011.04.008</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Mishra (2022)</t>
+          <t>Maschek et al. (2011)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Female Labor Migration: Gender Prospective</t>
+          <t>Prevention and mitigation of severe accident developments and recriticalities in advanced fast reactor systems</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>This paper is based on level, trends and pattern of female labor migration in Nepal. The changes in the lives of Nepalese women due to the increasing trend foreign labor migration of men. The changes in intra-household power relations and the transformations in women’s lives, due to the male-dominated nature of Nepalese migration, are largely neglected. The aim of this paper to find the level and trend of female labour migration in Nepal and also examine women’s experiences, as they assume the role of household heads, financial managers and single parents, in a society that has historically suppressed their freedom. The analysis is based on secondary data source. Women who take on the role of household head are more likely to gain decision-making power and experience an increase in social participation, while those left under the supervision of other members (usually their in-laws) may suffer from reduced decision-making ability and increased restrictions on their mobility in public spaces. These consequences are highly sensitive to the regional socio-cultural norms as well as women’s caste, class, and individual characteristics. The consequences of female migration increasing trend day by day and their experience provides the valuable information for the developing policy of migration as well as traditional gender inequality and providing women with the resources to manage with the challenges faced during men’s migration.</t>
+          <t>GEN-IV nuclear systems, especially advanced sodium-cooled fast reactors (SFRs) are on the horizon and a key issue of their success is the promise of a higher and improved safety level. In Europe safety investigations are currently under way e.g. in the collaborative CP-ESFR project of the EU. Both on the prevention and mitigation side significant efforts are invested to fulfill the high safety goals. One route of assurance concentrates on the mitigation or even elimination of specific severe accident routes leading to core disruption and recriticalities. The accident phase with larger disrupted and molten fuel regions is coined the transition phase. A competition between fuel losses and in-pool material motion exists deciding over recriticalities and energetics potentials in this phase. To get a control of the transition phase recriticalities and energetics, ideas have been developed to install dedicated means in the core that enhance and guarantee a sufficient and timely fuel discharge - a controlled material relocation (CMR). Several proposals are under way to accomplish this CMR and especially in Japan significant theoretical and experimental work has been performed. In Europe the path to develop CMR measures was driven in the past by the development of the CAPRA reactors with a high Pu enrichment. In the current paper the status of analyses is described and some new concepts are discussed. The CMR measures are discussed along two accident scenarios, the unprotected loss of flow (ULOF) and the instantaneous blockage accident (TIB).</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995013469</t>
+          <t>https://openalex.org/W2767301034</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20849/aes.v2i4.213</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Grard (2019)</t>
+          <t>Yuan (2017)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Generic instance segmentation for object-oriented bin-picking</t>
+          <t>A “House United” or a “House Divided”: Investigating the Role of China’s Household Registration in Educational Quality and Equity in K12 Classrooms</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Referred to as robotic random bin-picking, a fast-expanding industrial task consists in robotizing the unloading of many object instances piled up in bulk, one at a time, for further processing such as kitting or part assembling. However, explicit object models are not always available in many bin-picking applications, especially in the food and automotive industries. Furthermore, object instances are often subject to intra-class variations, for example due to elastic deformations.Object pose estimation techniques, which require an explicit model and assume rigid transformations, are therefore not suitable in such contexts. The alternative approach, which consists in detecting grasps without an explicit notion of object, proves hardly efficient when the object geometry makes bulk instances prone to occlusion and entanglement. These approaches also typically rely on a multi-view scene reconstruction that may be unfeasible due to transparent and shiny textures, or that reduces critically the time frame for image processing in high-throughput robotic applications.In collaboration with Sileane, a French company in industrial robotics, we thus aim at developing a learning-based solution for localizing the most affordable instance of a pile from a single image, in open loop, without explicit object models. In the context of industrial bin-picking, our contribution is two-fold.First, we propose a novel fully convolutional network (FCN) for jointly delineating instances and inferring the spatial layout at their boundaries. Indeed, the state-of-the-art methods for such a task rely on two independent streams for boundaries and occlusions respectively, whereas occlusions often cause boundaries. Specifically, the mainstream approach, which consists in isolating instances in boxes before detecting boundaries and occlusions, fails in bin-picking scenarios as a rectangle region often includes several instances. By contrast, our box proposal-free architecture recovers fine instance boundaries, augmented with their occluding side, from a unified scene representation. As a result, the proposed network outperforms the two-stream baselines on synthetic data and public real-world datasets.Second, as FCNs require large training datasets that are not available in bin-picking applications, we propose a simulation-based pipeline for generating training images using physics and rendering engines. Specifically, piles of instances are simulated and rendered with their ground-truth annotations from sets of texture images and meshes to which multiple random deformations are applied. We show that the proposed synthetic data is plausible for real-world applications in the sense that it enables the learning of deep representations transferable to real data. Through extensive experiments on a real-world robotic setup, our synthetically trained network outperforms the industrial baseline while achieving real-time performances. The proposed approach thus establishes a new baseline for model-free object-oriented bin-picking.</t>
+          <t>The household registration system and policies have profound influences on the economic development, social transformation, and the process of urbanization and industrialization in China. This research paper conducted an extend review on China’s household registration policy’s influences on rural-to-urban migrant students’ educational participation, attainment, and achievement in K12 levels. Previous review of academic achievement gaps between rural-urban and migrant-local students identifies the quest for educational equity for every student, but much of them leave open the question of the historically rooted Hukou system’s powerful influences on migrant students’ educational experiences and outcomes in their processes of integration to the new social and cultural environment.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360603309</t>
+          <t>https://openalex.org/W4391584282</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0140-6736(23)00579-2</t>
+          <t>https://doi.org/10.14254/jsdtl.2023.8-2.19</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Samarasekera (2023)</t>
+          <t>Drożdż et al. (2023)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Anna Gilmore: confronting the commercial determinants of health</t>
+          <t>Sustainability assessment of the energy generation systems</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Public health researcher Anna Gilmore is a big picture person whose research focuses on the influence of major corporations on health and finding and evaluating solutions to their negative impacts. “Commercial actors influence health in all sorts of ways, both positive and negative. For example, evidence shows major corporations have influenced our political and economic systems, our approaches to policy making, as well as specific policies and diverse environments. Health is determined by all those broader factors, known as ‘determinants of health’, and that's really what I look at, with a focus on commercial actors”, she explains. Gilmore is Professor of Public Health, Director and founder of the Tobacco Control Research Group (TCRG), and Co-Director of the Beacon for 21st Century Public Health at the University of Bath, UK, and an Honorary Consultant in Public Health Medicine at the UK's Government's Office for Health Improvement and Disparities. She is also one of the lead authors of the new Lancet Series on the commercial determinants of health (CDOH), which details how commercial entities impact human and planetary health and what can be done to address this, providing a new conceptual model to aid understanding of the issue. She hopes the Series will help “the medical community to realise the massive impact that commercial actors are having on health. Currently, what is killing many of their patients is the products and practices of major corporations and much of that is entirely preventable.” With that knowledge, she wants health-care professionals to “join the call for change and push governments to take action, not least because health systems can't cope with the burden of disease that some corporations are currently causing and the cost that entails”. Unravelling the commercial determinants of healthIn early March, in the wake of the COVID-19 pandemic, nearly 200 people—including former UN Secretary-General Ban Ki-moon—signed a letter strongly criticising pharmaceutical companies for putting a desire to make extraordinary profits before the needs of humanity. Selling publicly funded vaccines, treatments, and tests to the highest bidder resulted in inequities that cost more than a million lives, while private companies made billions of dollars. The signatories called on world leaders to ensure that such an injustice is never repeated. Full-Text PDF Rob Moodie: a radical voice in public healthRob Moodie, Professor of Public Health in the School of Population and Global Health at Australia's University of Melbourne, has a radical agenda for industry and business. His ambition, shared with a group of coauthors and set out in three Series papers in The Lancet, is to tackle the commercial determinants of health (CDOH). The health-harming effects of the tobacco, alcohol, food, and fossil fuel industries are well documented. But Moodie would like to widen the net; almost any business, he points out, can affect health and equity. Full-Text PDF Defining and conceptualising the commercial determinants of healthAlthough commercial entities can contribute positively to health and society there is growing evidence that the products and practices of some commercial actors—notably the largest transnational corporations—are responsible for escalating rates of avoidable ill health, planetary damage, and social and health inequity; these problems are increasingly referred to as the commercial determinants of health. The climate emergency, the non-communicable disease epidemic, and that just four industry sectors (ie, tobacco, ultra-processed food, fossil fuel, and alcohol) already account for at least a third of global deaths illustrate the scale and huge economic cost of the problem. Full-Text PDF Conceptualising commercial entities in public health: beyond unhealthy commodities and transnational corporationsMost public health research on the commercial determinants of health (CDOH) to date has focused on a narrow segment of commercial actors. These actors are generally the transnational corporations producing so-called unhealthy commodities such as tobacco, alcohol, and ultra-processed foods. Furthermore, as public health researchers, we often discuss the CDOH using sweeping terms such as private sector, industry, or business that lump together diverse entities whose only shared characteristic is their engagement in commerce. Full-Text PDF Commercial determinants of health: future directionsThis paper is about the future role of the commercial sector in global health and health equity. The discussion is not about the overthrow of capitalism nor a full-throated embrace of corporate partnerships. No single solution can eradicate the harms from the commercial determinants of health—the business models, practices, and products of market actors that damage health equity and human and planetary health and wellbeing. But evidence shows that progressive economic models, international frameworks, government regulation, co</t>
+          <t>Purpose: This paper aims to assess the sustainability of energy generation systems in various European Union countries. It seeks to understand the diverse challenges and opportunities these countries face in transitioning to sustainable energy. Methodology: The study employs a multi-criteria decision analysis (MCDA) approach, considering economic, environmental, and social aspects. Data from various databases, including Eurostat, the International Energy Agency, and the World Bank, were analyzed. Results: The results reveal significant variations in sustainability performance across different countries and regions. With strong policy support and high public awareness, Scandinavian countries generally performed well across all sustainability indicators. In contrast, Eastern European countries faced more challenges due to their heavy reliance on fossil fuels. Theoretical Contribution: This study contributes to the ongoing discourse on sustainable energy by providing a comprehensive assessment of the sustainability of energy generation systems. It underscores the complex and multifaceted nature of sustainability and the various factors that influence it. Practical Implications: The findings provide valuable insights for policymakers and energy providers. They highlight the importance of policy support, public awareness, and acceptance in promoting sustainable energy. They also underscore the need for continued efforts and interventions to address the challenges faced by countries heavily reliant on fossil fuels.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2184673946</t>
+          <t>https://openalex.org/W2373174098</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Chandu (2015)</t>
+          <t>Fengxiang (2011)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>THE FORMATION OF INDIAN DIASPORAS ETHNIC IDENTITY IN THE AUSTRALIA</t>
+          <t>Mantle's Window:Diamonds</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>The present study emphases the varied aspects and social bases of Indian Diasporas in Australia. And it also looks at Indian Diasporas identity in Australia, particularly identities based on ethnicity race, religion, caste, class, sexuality, gender, age, both separately and intersects with an interdisciplinary framework (Gbeg Nobele, Scott Poyting and Paul Tabar, 1999:29). How do people of Indian origin in Australia establish their identities (Clinton Golding, 2009)? It also traces up identities of Indians based on space, both geographical, virtual, and looks at their struggles over recognition, categorize by civil bias, nationalisms, and social movement. In this way, Indians have represented diversity of its socio-cultural, spiritual and political in multicultural Australian society. In which approximately 1.9% Indians and their children are widely living across country of the Australia (Census, 2011). The present study has made an attempt to understand, the Indian Diasporas struggle over their recognition, nationalism, cultural, politically, spiritual development in multicultural Australian society, taking into consideration of largely constructed Indian ethnicity, in major cities of Australia such as Sydney, Melbourne, Victoria, New South Wales, Queensland and Canberra. The study concludes by discussing how does transition has taken place among Indian Diasporas lives in day to day with their socio-cultural, ethnic, economic and political by the influence of multicultural Australian society. Apart from this, the study will also focus on, by the time and again, how the immigration policy has been Changing from both nations; India and Australia government looking at economic and political strategy toward Indian immigrants.</t>
+          <t>From the point on economic value of diamond,it is the very expensive gemstone;from the point on science mining,it is a window to provide the physical states and chemical compositions of mantle.The nature occurrences of diamonds,the forming condition, its impurities,the feature of varied inclusions,and the origin model of diamonds have been introduced briefly.The major host rocks are peridotites and eclogites.Syngenetic inclusions in diamonds can offer the important evidences on the composition of host rocks,P-T condition of diamonds and residence ages in mantle of diamonds.In the last two decades ultra deep mineral assemblages as inclusions in diamonds were discovered and they may come from transition zone and lower mantle.According to this discovery diamonds are perhaps the unique window to recognized whole mantle.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2063401965</t>
+          <t>https://openalex.org/W2939370394</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3997/2214-4609.201406184</t>
+          <t>https://doi.org/10.4324/9781351268646-14</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Oelsner et al. (2002)</t>
+          <t>Olsson (2019)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interurban - geophysical assessment of water dynamics and solute transport in urban soils</t>
+          <t>The transformative potential of the food system concept</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Urban soils are subject to strong variations of environmental conditions, like water flow, solute transport or heat budget. The research project INTERURBAN has been formed to clarify the dynamics of water and materials at urban locations with special consideration of the spatial heterogeneity, the organic soil substance, and soil-biological transformation processes. In order to achieve these objectives, we work on four interdisciplinary questions: 1st The evaluation of spatial heterogeneity and its interaction with sub-processes; 2nd The influence of biotic and abiotic factors on the characteristics of the organic substance; 3rd The recording of water- and material transport from heterogeneous urban locations and application to selected locations; 4th The recording of the interaction between biotic and abiotic factors and their participation in the dynamics of the release of pollutants. These goals of the research group define the target for geophysics: The development of a noninvasive conception to map the water distribution and important structural parameters. In addition to standard methods, like geoelectrics and Ground Penetrating Radar (GPR), Spectral Induced Polarization (SIP) and Surface Nuclear Magnetic Resonance (SNMR) will be used. SNMR is the only method that allows to determine water content and pore size distribution directly from the surface and therefore a special focus in the project.</t>
+          <t>The dependence on the global food system both in the Global North and Global South, has a profound impact on people’s dietary pattern and health – and creates immediate vulnerability and unpredictability related to food security. With growing insight into the consequences of the global food system for the environment, many cities in the Global North have implemented local/regional food strategies, food charters and other food system-related policies in an attempt to improve urban food security and encourage sustainable food system activities. Such activities include, for example, climate and ecosystem-friendly production methods, minimising the transportation of commodities in favour of food production located closer to consumers, and food systems driven by local participation and community actions. There seems to be connection between several of the proposed food system activities and Transition Movement actions (IPBES, 2018). Could the development of a sustainable food system catalyse transitions towards sustainability? In order to explore this question, the aim of this chapter is to analyse the link between sustainable food systems and pathways towards sustainability transitions. The chapter elaborates on how the sustainable food system relates to the 17 United Nations Sustainable Development Goals and identifies eight aspects for such systems. Those dimensions/aspects agree well with the activities characteristic of the Transition Movements pathway towards a sustainable future.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2767301034</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20849/aes.v2i4.213</t>
+          <t>https://openalex.org/W2474384363</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Yuan (2017)</t>
+          <t>Hintz (2003)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A “House United” or a “House Divided”: Investigating the Role of China’s Household Registration in Educational Quality and Equity in K12 Classrooms</t>
+          <t>Confirming the diagnosis of growth hormone deficiency (GHD) and transitioning the care of patients with childhood-onset GHD.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>The household registration system and policies have profound influences on the economic development, social transformation, and the process of urbanization and industrialization in China. This research paper conducted an extend review on China’s household registration policy’s influences on rural-to-urban migrant students’ educational participation, attainment, and achievement in K12 levels. Previous review of academic achievement gaps between rural-urban and migrant-local students identifies the quest for educational equity for every student, but much of them leave open the question of the historically rooted Hukou system’s powerful influences on migrant students’ educational experiences and outcomes in their processes of integration to the new social and cultural environment.</t>
+          <t>Growth hormone deficiency (GHD) diagnosed in childhood may persist into adult life. After attainment of final height, retesting of the patient's growth hormone-insulin-like growth factor (GH-IGF) axis using the adult GHD diagnostic criteria should be performed after an appropriate interval of 1-3 months off GH therapy. At the time of retesting, other pituitary hormones and serum IGF-I levels should also be measured. The opportunity should be taken to assess body composition, bone mineral density, and fasting lipid and insulin levels. Patients with severe, long-standing, multiple pituitary hormone deficiency, genetic defects, or severe organic GHD can be excluded from GH retesting. When the diagnosis of adult GHD is established, continuation of GH therapy can be recommended unless there is a known risk of diabetes mellitus or malignancy. The patient's transition to GH replacement in adulthood should be arranged as a close collaboration between the pediatric and adult endocrinologists, who should discuss the reinitiation of treatment with the patient.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391584282</t>
+          <t>https://openalex.org/W2517968953</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14254/jsdtl.2023.8-2.19</t>
+          <t>https://doi.org/10.17645/mac.v4i4.695</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Drożdż et al. (2023)</t>
+          <t>McCallum et al. (2016)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Sustainability assessment of the energy generation systems</t>
+          <t>Mediatisation, Marginalisation and Disruption in Australian Indigenous Affairs</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Purpose: This paper aims to assess the sustainability of energy generation systems in various European Union countries. It seeks to understand the diverse challenges and opportunities these countries face in transitioning to sustainable energy. Methodology: The study employs a multi-criteria decision analysis (MCDA) approach, considering economic, environmental, and social aspects. Data from various databases, including Eurostat, the International Energy Agency, and the World Bank, were analyzed. Results: The results reveal significant variations in sustainability performance across different countries and regions. With strong policy support and high public awareness, Scandinavian countries generally performed well across all sustainability indicators. In contrast, Eastern European countries faced more challenges due to their heavy reliance on fossil fuels. Theoretical Contribution: This study contributes to the ongoing discourse on sustainable energy by providing a comprehensive assessment of the sustainability of energy generation systems. It underscores the complex and multifaceted nature of sustainability and the various factors that influence it. Practical Implications: The findings provide valuable insights for policymakers and energy providers. They highlight the importance of policy support, public awareness, and acceptance in promoting sustainable energy. They also underscore the need for continued efforts and interventions to address the challenges faced by countries heavily reliant on fossil fuels.</t>
+          <t>This article considers how changing media practices of minority groups and political and media elites impact on democratic participation in national debates. Taking as its case study the state-sponsored campaign to formally recognise Indigenous people in the Australian constitution, the article examines the interrelationships between political media and Indigenous participatory media—both of which we argue are undergoing seismic transformation. Discussion of constitutional reform has tended to focus on debates occurring in forums of influence such as party politics and news media that privilege the voices of only a few high-profile Indigenous media ‘stars’. Debate has progressed on the assumption that constitutional change needs to be settled by political elites and then explained and ‘sold’ to Indigenous and non-Indigenous Australians. Our research on the mediatisation of policymaking has found that in an increasingly media-saturated environment, political leaders and their policy bureaucrats attend to a narrow range of highly publicised voices. But the rapidly changing media environment has disrupted the media-driven &amp;lt;em&amp;gt;Recognise&amp;lt;/em&amp;gt; campaign. Vigorous public discussion is increasingly taking place outside the mainstream institutions of media and politics, while social media campaigns emerge in rapid response to government decisions. Drawing on a long tradition in citizens’ media scholarship we argue that the vibrant, diverse and growing Indigenous media sphere in Australia has increased the accessibility of Indigenous voices challenging the scope and substance of the recognition debate. The article concludes on a cautionary note by considering some tensions in the promise of the changing media for Indigenous participation in the national policy conversation.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4292333616</t>
+          <t>https://openalex.org/W3197275775</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.pocean.2022.102865</t>
+          <t>https://doi.org/10.1371/journal.pone.0256956</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Miyamoto et al. (2022)</t>
+          <t>Pinto et al. (2021)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Copepod community structure in the transition region of the North Pacific Ocean: Water mixing as a key driver of secondary production enhancement in subarctic and subtropical waters</t>
+          <t>Exploring the topology and dynamic growth properties of co-invention networks and technology fields</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>The North Pacific Ocean subtropical–subarctic gyre transition region is recognized as an important small pelagic fish nursery and feeding ground. To clarify the lower trophic level variability of the transition region pelagic ecosystem, we investigated the large-scale variation in copepod communities in relation to the oceanographic environment. We net sampled zooplankton in the upper 150 m from the coast to approximately 4,500 km offshore to the east (140° E − 165° W) during early summer in 2017 and 2018. Cluster analysis based on abundance and species composition at 233 sampling stations showed that the subarctic boundary, defined by a salinity of 34.0 at 150 m depth, separated subarctic and subtropical copepod communities, as a clear biogeographical border. The two communities were each further classified into four subgroups. Among the subgroups, a typical subarctic subgroup dominated by Neocalanus spp. was broadly distributed in the subarctic HNLC (high-nutrient and low-chlorophyll a concentrations) region, whereas a typical subtropical subgroup characterized by a higher overall species diversity occurred in the warm oligotrophic water. In addition, in both these subgroups, the composition of the chlorophyll a size fraction suggested that the food web was mainly based on small-sized phytoplankton. Further analysis of the other subgroups indicated that both the subtropical and subarctic communities showed distinctive succession patterns depending on the degree of water mixing. During succession, a consistent increase in copepod abundance, especially large-sized suspension feeders (e.g., Eucalanus and Calanus) associated with the high productivity of large diatoms was observed in both main communities. The present study revealed that water mixing in the transition region consistently enhances the grazing food chain in both subtropical and subarctic communities, showing the potential underlying mechanisms of control of prey availability for small pelagic fish that exploit the region as a key nursery and feeding ground.</t>
+          <t>This study investigates the topology and dynamics of collaboration networks that exist between inventors and their patent co-authors for patents granted by the USPTO from 2007-2019 (2,241,201 patents and 1,879,037 inventors). We study changes in the configurations of different technology fields via the power-law, small-world, preferential attachment, shrinking diameter, densification law, and gelling point hypotheses. Similar to the existing literature, we obtain mixed results. Based on network statistics, we argue that the sudden rise of large networks in six technology sectors can be understood as a phase transition in which small, isolated networks form one giant component. In two other technology sectors, such a transition occurred much later and much less dramatically. The examination of inventor networks over time reveals the increased complexity of all technology sectors, regardless of the individual characteristics of the network. Therefore, we introduce ideas associated with the technological diversification of inventors to complement our analysis, and we find evidence that inventors tend to diversify into new fields that are less mature. This behavior appears to be correlated with the compliance of some of the expected network rules and has implications for the emerging patterns among the different collaboration networks under consideration here.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2474384363</t>
+          <t>https://openalex.org/W2969956346</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/ccd.28449</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Hintz (2003)</t>
+          <t>Naidu et al. (2019)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Confirming the diagnosis of growth hormone deficiency (GHD) and transitioning the care of patients with childhood-onset GHD.</t>
+          <t>Hot topics in interventional cardiology: Proceedings from the Society for Cardiovascular Angiography and Interventions (SCAI) 2019 Think Tank</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Growth hormone deficiency (GHD) diagnosed in childhood may persist into adult life. After attainment of final height, retesting of the patient's growth hormone-insulin-like growth factor (GH-IGF) axis using the adult GHD diagnostic criteria should be performed after an appropriate interval of 1-3 months off GH therapy. At the time of retesting, other pituitary hormones and serum IGF-I levels should also be measured. The opportunity should be taken to assess body composition, bone mineral density, and fasting lipid and insulin levels. Patients with severe, long-standing, multiple pituitary hormone deficiency, genetic defects, or severe organic GHD can be excluded from GH retesting. When the diagnosis of adult GHD is established, continuation of GH therapy can be recommended unless there is a known risk of diabetes mellitus or malignancy. The patient's transition to GH replacement in adulthood should be arranged as a close collaboration between the pediatric and adult endocrinologists, who should discuss the reinitiation of treatment with the patient.</t>
+          <t>The Society for Cardiovascular Angiography and Interventions (SCAI) Think Tank is a collaborative venture held annually, bringing together interventional cardiologists, administrative partners, and select members of the cardiovascular industry community. During the SCAI 2019 Scientific Sessions, relevant topics in interventional cardiology were identified with the goals of defining the state of the field, current challenges, and future directions. Topics were determined by nomination, and solidified through a voting process ultimately vetted by SCAI leadership and the industry relations committee. The 2019 Think Tank was organized into four parallel sessions reflective of the field of interventional cardiology: (a) coronary intervention, (b) endovascular medicine, (c) structural heart disease (SHD), and (d) congenital heart disease (CHD). Each session was moderated by a senior content expert and co-moderated by a member of SCAI's Emerging Leader Mentorship (ELM) program. This document presents the proceedings to the wider cardiovascular community in order to enhance participation in this discussion, and create additional dialogue to aid SCAI in developing specific action items in the future. How should maintenance of skill/competency programming for less frequently used, but critical technologies (atherectomy, mechanical support, PFO closure, etc.) be developed? Should SCAI play a larger role in developing standards and confirming these requirements within the community of providers and practice settings? What would be the ideal role for device manufacturers? Who are other potential stakeholders to consider? The practice of interventional cardiology has been transformed in the last 20 years.1-5 Introduction and refinement of new procedural techniques and medical devices have resulted in significant reduction in morbidity and mortality for patients with cardiovascular disease.6 The complexity of procedures performed by interventional cardiologists in 2019 requires specific manual and cognitive skills as well as familiarity with multiple devices. The group discussed how to balance access to these therapeutic devices while ensuring optimal patient care (i.e., rational dispersion of technology). The discussion centered around three less frequently used but essential novel technologies in the cardiac catheterization laboratory, which might serve as examples to be utilized more broadly. These included coronary atherectomy, mechanical circulatory support (MCS), and patent foramen ovale (PFO) closure. The committee also discussed how to ensure optimal training in complex percutaneous coronary interventions (PCI) procedures such as left main stenting, coronary bifurcations, intracoronary imaging with intravascular ultrasound (IVUS) and optical coherence tomography (OCT), and chronic total occlusions (CTOs). The primary challenge when considering the optimal roll out of novel procedures and/or medical devices intended for niche applications, as opposed to high volume procedures, is that (a) there is a clinical need for widespread access to these technologies, yet (b) given their smaller total procedural volume, it is challenging to maintain a high level of operator competency and to measure uniform quality metrics. Core competency training in procedures fundamental to the practice of interventional cardiology is required and determined by the Accreditation Council for Graduate Medical Education (ACGME). However, newer technologies and procedures are rapidly introduced in the field and often at a pace much faster than the evolution of the competency guidelines. This is especially applicable to the less frequently used technologies and procedures in the catheterization laboratory but nonetheless have a critical role such as the use of lesion modification tools, chronic total occlusion PCI, and large bore peripheral access, among others. Access to these procedures must be available to all patients within a certain geography, but perhaps concentrated in centers or individuals who have received adequate training and are able to maintain their expertise. The discussion also reviewed the benefits and hazards of designated centers of excellence, including potential misuse by hospitals to drive business. It was also acknowledged that existing training standards for these procedures and techniques are heterogeneous and incongruent (Table 1). (1) Didactic in-service training (2) Self-certification letter 25 cases as the primary implanter (1) Peer-to-peer training (2) Ten cases during interventional fellowship plus proctor present for first 3–5 cases for each new device (3) Maintenance of certification: &gt;15 PFO procedures annually (1) Didactic training (2) One training case (PFO or ASD) Impella 2.5 or CP = 2 cases Impella 5.0 = 1 case Impella RP = 1 case Renewal of certification = 5 case per year or 10 every 2 years (1) Online didactic training (2) Wet heart hands-on simulation (3) Complete three cases, one under the supervision</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3197275775</t>
+          <t>https://openalex.org/W1999706859</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0256956</t>
+          <t>https://doi.org/10.1353/tj.2007.0111</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Pinto et al. (2021)</t>
+          <t>Pittenger (2007)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Exploring the topology and dynamic growth properties of co-invention networks and technology fields</t>
+          <t>Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850-1920 (review)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>This study investigates the topology and dynamics of collaboration networks that exist between inventors and their patent co-authors for patents granted by the USPTO from 2007-2019 (2,241,201 patents and 1,879,037 inventors). We study changes in the configurations of different technology fields via the power-law, small-world, preferential attachment, shrinking diameter, densification law, and gelling point hypotheses. Similar to the existing literature, we obtain mixed results. Based on network statistics, we argue that the sudden rise of large networks in six technology sectors can be understood as a phase transition in which small, isolated networks form one giant component. In two other technology sectors, such a transition occurred much later and much less dramatically. The examination of inventor networks over time reveals the increased complexity of all technology sectors, regardless of the individual characteristics of the network. Therefore, we introduce ideas associated with the technological diversification of inventors to complement our analysis, and we find evidence that inventors tend to diversify into new fields that are less mature. This behavior appears to be correlated with the compliance of some of the expected network rules and has implications for the emerging patterns among the different collaboration networks under consideration here.</t>
+          <t>Reviewed by: Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850–1920 Peach Pittenger Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850–1920. Melanie Dawson . Tuscaloosa: University of Alabama Press, 2005; pp. x + 257. $39.75 cloth. Melanie Dawson examines Victorian- and Progressive-era home entertainment as more than idle amusements. In this cultural study of American leisure, she analyzes a wide range of entertainment practices, from parlor games and amateur theatrics to recitations and elaborate tableaux, resulting in a "narrative of how a set of shifting, eccentric, and often spectacularly weird social practices represented the goals and tensions infusing the rise of a middling American culture" (6). Dawson argues that home entertainment served as a self-reflexive agent for the rising middle class; it was not only a vehicle of social striving, but also an ambivalent critique of striving and the ideals of gentility that propelled it. Dawson organizes her analysis in three phases of home entertainment and middle-class developments. The first three chapters focus on the mid-nineteenth century, when acquisition of social skills, adherence to rules of etiquette, and cultivation of gentility all played an essential role in the creation of a middle class. Text-based home theatrics, such as Sarah Annie Frost's Refinement, were often sentimentally cloaked indoctrinations of social ideals. In comparison, parlor games operated on a somewhat more complex level, facilitating social-skills development while simultaneously rewarding typically forbidden social behaviors. Adult play of children's games such as Blind Man's Bluff offered young Victorian adults the opportunity for socially sanctioned sexual play; kissing games also proved popular. Victorian play also reflected a fascination with the grotesque body, a transgressive response to increasing demands for gentility. Dawson's book is illustrated with images from entertainment guides and magazines showing how to create dwarfs, giants, and freaks through costume. Grotesque play often required elaborate preparation for a stunning visual payoff; staged tableaux of severed heads, singly or a Bluebeard-sized collection, were especially voguish. Instructions for "The Blue Beard Tableau" capture the spirit of grotesque play within Victorian life. The illustrations include a sketch of several young women's severed heads, complete with expressions of horror and ghastly makeup, which hang by the hair from a rope in front of a curtain. A second, "how-to" sketch viewed from behind reveals the proper young women in Victorian dress as they poke their heads through holes in the curtain. Chapters 4 and 5 are dedicated to literary analysis of home-entertainment scenes in novels as representations of class warfare and personal transformation. In the fictional accounts of home entertainments, which range from Charlotte Brontë's Jane Eyre and Louisa May Alcott's Little Women in mid-century to Henry James's The Tragic Muse and Edith Wharton's The House of Mirth at the turn of the century, female characters' social fates either rise or fall based on their performance in parlor games, charades, tableaux, and home theatrics. Dawson interprets these scenes as evidence of the changing role of home entertainment in the evolution of the middle class. Early novels (1840s to 1860s) include heroines whose skills substitute for privilege, thus serving as a mechanism for social ascent. In contrast, novels from the Gilded Age (1870s to 1890s) showcase characters that fail socially through participation in home entertainments. Dawson views this evolutionary development as a reflection of the successful formation of an affluent new social class; striving, which had been a means of social elevation, had become painfully obvious and ineffectual several decades later, marking the striver as an outsider. Dawson concludes with two chapters on trends and developments in home entertainment between the 1880s and the 1920s, when the middle class was firmly established and enjoying its affluence. Home entertainment came to be viewed as old-fashioned and a cultural relic of bygone days; the younger generation resisted participation. Nevertheless, one of the most popular entertainments—for adults—was child recitations, which Dawson terms "ventriloquized nostalgia" (178). These recitations centered on adult stories about past events, thus presenting nostalgic memories of adults for adults through the medium of the child performer...</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1999706859</t>
+          <t>https://openalex.org/W3186573777</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/tj.2007.0111</t>
+          <t>https://doi.org/10.1016/j.sajb.2021.07.003</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Pittenger (2007)</t>
+          <t>Kgaboesele et al. (2021)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850-1920 (review)</t>
+          <t>Reproductive strategies in the rare and endangered Killickia grandiflora (Lamiaceae) – implications for its urgent conservation</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Reviewed by: Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850–1920 Peach Pittenger Laboring to Play: Home Entertainment and the Spectacle of Middle-Class Cultural Life, 1850–1920. Melanie Dawson . Tuscaloosa: University of Alabama Press, 2005; pp. x + 257. $39.75 cloth. Melanie Dawson examines Victorian- and Progressive-era home entertainment as more than idle amusements. In this cultural study of American leisure, she analyzes a wide range of entertainment practices, from parlor games and amateur theatrics to recitations and elaborate tableaux, resulting in a "narrative of how a set of shifting, eccentric, and often spectacularly weird social practices represented the goals and tensions infusing the rise of a middling American culture" (6). Dawson argues that home entertainment served as a self-reflexive agent for the rising middle class; it was not only a vehicle of social striving, but also an ambivalent critique of striving and the ideals of gentility that propelled it. Dawson organizes her analysis in three phases of home entertainment and middle-class developments. The first three chapters focus on the mid-nineteenth century, when acquisition of social skills, adherence to rules of etiquette, and cultivation of gentility all played an essential role in the creation of a middle class. Text-based home theatrics, such as Sarah Annie Frost's Refinement, were often sentimentally cloaked indoctrinations of social ideals. In comparison, parlor games operated on a somewhat more complex level, facilitating social-skills development while simultaneously rewarding typically forbidden social behaviors. Adult play of children's games such as Blind Man's Bluff offered young Victorian adults the opportunity for socially sanctioned sexual play; kissing games also proved popular. Victorian play also reflected a fascination with the grotesque body, a transgressive response to increasing demands for gentility. Dawson's book is illustrated with images from entertainment guides and magazines showing how to create dwarfs, giants, and freaks through costume. Grotesque play often required elaborate preparation for a stunning visual payoff; staged tableaux of severed heads, singly or a Bluebeard-sized collection, were especially voguish. Instructions for "The Blue Beard Tableau" capture the spirit of grotesque play within Victorian life. The illustrations include a sketch of several young women's severed heads, complete with expressions of horror and ghastly makeup, which hang by the hair from a rope in front of a curtain. A second, "how-to" sketch viewed from behind reveals the proper young women in Victorian dress as they poke their heads through holes in the curtain. Chapters 4 and 5 are dedicated to literary analysis of home-entertainment scenes in novels as representations of class warfare and personal transformation. In the fictional accounts of home entertainments, which range from Charlotte Brontë's Jane Eyre and Louisa May Alcott's Little Women in mid-century to Henry James's The Tragic Muse and Edith Wharton's The House of Mirth at the turn of the century, female characters' social fates either rise or fall based on their performance in parlor games, charades, tableaux, and home theatrics. Dawson interprets these scenes as evidence of the changing role of home entertainment in the evolution of the middle class. Early novels (1840s to 1860s) include heroines whose skills substitute for privilege, thus serving as a mechanism for social ascent. In contrast, novels from the Gilded Age (1870s to 1890s) showcase characters that fail socially through participation in home entertainments. Dawson views this evolutionary development as a reflection of the successful formation of an affluent new social class; striving, which had been a means of social elevation, had become painfully obvious and ineffectual several decades later, marking the striver as an outsider. Dawson concludes with two chapters on trends and developments in home entertainment between the 1880s and the 1920s, when the middle class was firmly established and enjoying its affluence. Home entertainment came to be viewed as old-fashioned and a cultural relic of bygone days; the younger generation resisted participation. Nevertheless, one of the most popular entertainments—for adults—was child recitations, which Dawson terms "ventriloquized nostalgia" (178). These recitations centered on adult stories about past events, thus presenting nostalgic memories of adults for adults through the medium of the child performer...</t>
+          <t>Populations of rare and restricted species are commonly challenged due to risks associated with reduced genetic diversity, environmental variation, and demographic stochasticity. Killickia grandiflora (Lamiaceae) is one of three Killickia species endemic to the Drakensberg Mountain Centre in KwaZulu-Natal, South Africa. Its confirmed distribution is restricted to a firebreak between two catchments in the Cathedral Peak region of the Ukhahlamba Drakensberg Transfrontier Park, where it is threatened by habitat transformation. In this study, we aimed to understand factors that promote or inhibit gene flow within this highly restricted K. grandiflora population, to estimate inbreeding, and to assess its status as a potentially threatened species. Exclusion and hand pollination trials indicate that K. grandiflora cannot autonomously self-pollinate and is dependent on pollinators for outcrossing. Germination trials and tetrazolium staining suggest that the seeds may have dormancy breaking requirements or are inviable. Inbreeding and genetic diversity analyses show that the K. grandiflora population nonetheless maintains a high level of genetic diversity, likely through outcrossing, despite the small population size and apparent poor reproductive success. We recommend that the IUCN conservation status of K. grandiflora be changed from Vulnerable to ‘Critically Endangered’ based on observed reductions in population size, limited extent of occurrence, small number of mature individuals, and threats by woody competitors. We strongly recommend that the known population(s) be monitored and the habitat patches be conserved regardless of size and maintained through regular burning to enable the species’ survival and conservation. Ex situ propagation and reintroduction to its historical habitat should be explored as additional conservation measures for this species.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186573777</t>
+          <t>https://openalex.org/W3167480069</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sajb.2021.07.003</t>
+          <t>https://doi.org/10.1115/1.4051474</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Kgaboesele et al. (2021)</t>
+          <t>Kulinsky (2021)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Reproductive strategies in the rare and endangered Killickia grandiflora (Lamiaceae) – implications for its urgent conservation</t>
+          <t>Personal Observations of the Effects of COVID-19 Pandemic on Micromanufacturing Research and Education in the United States</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Populations of rare and restricted species are commonly challenged due to risks associated with reduced genetic diversity, environmental variation, and demographic stochasticity. Killickia grandiflora (Lamiaceae) is one of three Killickia species endemic to the Drakensberg Mountain Centre in KwaZulu-Natal, South Africa. Its confirmed distribution is restricted to a firebreak between two catchments in the Cathedral Peak region of the Ukhahlamba Drakensberg Transfrontier Park, where it is threatened by habitat transformation. In this study, we aimed to understand factors that promote or inhibit gene flow within this highly restricted K. grandiflora population, to estimate inbreeding, and to assess its status as a potentially threatened species. Exclusion and hand pollination trials indicate that K. grandiflora cannot autonomously self-pollinate and is dependent on pollinators for outcrossing. Germination trials and tetrazolium staining suggest that the seeds may have dormancy breaking requirements or are inviable. Inbreeding and genetic diversity analyses show that the K. grandiflora population nonetheless maintains a high level of genetic diversity, likely through outcrossing, despite the small population size and apparent poor reproductive success. We recommend that the IUCN conservation status of K. grandiflora be changed from Vulnerable to ‘Critically Endangered’ based on observed reductions in population size, limited extent of occurrence, small number of mature individuals, and threats by woody competitors. We strongly recommend that the known population(s) be monitored and the habitat patches be conserved regardless of size and maintained through regular burning to enable the species’ survival and conservation. Ex situ propagation and reintroduction to its historical habitat should be explored as additional conservation measures for this species.</t>
+          <t>Humanity has periodically faced cataclysmic events such as wars, famines, and plagues. These catastrophes caused untold suffering and loss of life. Despite the widespread optimism of modern times that advances in various technologies made these threats obsolete, today we find ourselves amidst a global pandemic caused by the COVID-19 virus that has led to millions of deaths worldwide and the widespread disruption of economic activity, severe limitation in travel, and even radical curtailment in normal social face-to-face contact between people. There are many facets of the impact of this pandemic on our society, but in this analysis, I would like to focus on two specific areas relevant to our micromanufacturing community—areas of research and of education.It has been said that the “Necessity is the mother of Invention.” Indeed, our global community has been able to adjust within several months to this new reality by switching to remote education utilizing technological platforms such as Zoom and Canvas (among others). We also adjusted in the way that we conduct laboratory research by dramatically reducing the number of researchers that could simultaneously be present in the laboratory and by switching to simulation-based research as well as by utilizing other approaches in order to reduce viral transmission.In education, rapid switching from in-person to remote education dictated by the current health crisis was made possible by the existing remote education tools. Many online schools have been continually using for years such online learning environments (OLEs) as Canvas or Blackboards. In many cases, lecturers were videorecording their lectures and posting them on OLEs as well. Additionally, hundreds of thousands of recorded lectures on all topics were posted on public platforms such as YouTube and students of all age groups could supplement their school studies by viewing online lectures from Khan Academy or watching OpenCourseWare university lectures (for example, on thermodynamics from the University of California, Irvine or on computer science from MIT). Millions of people were using videoconferencing platforms such as FaceTime, Skype, Group Meets, and others for a long time before the advent of the present global pandemic. Therefore, there was a very high level of technological acceptance and psychological readiness for teachers and students to switch to remote education and away from the traditional forms of in-person lectures when schools and universities were presented with that challenge.I have taught five undergraduate and graduate engineering classes at the University of California, Irvine since the beginning of the transition to the remote instruction in the spring of 2020 and I was able to observe some of the advantages and disadvantages of the remote education compared with in-person instructions. Specific tradeoffs of benefits and drawbacks of remote instructions depend greatly on several factors including the individual pedagogical style of the instructor, the familiarity of the instructor with technological tools at his/her disposal, and on the size of the class. In my opinion, the greatest drawback of remote education is the challenge to engage students, excite them into active class participation, including asking questions and engaging in in-class discussion. If a specific instructor is unable to engage the students and spends most of the in-person class with his/her back to the class writing statements or equations on the board, then this type of instruction will not suffer further by the shift to remote mode of instruction. However, if the goal of the instructor is to engage the class and have a high degree of interactivity (the approach that I support), then the most effective approach to offer remote instruction will likely depend on the size of the class. I will describe my approach to remote education for two types of classes—a large undergraduate engineering class with hundreds of students and a small graduate class with ten students of less. My approach for teaching large classes remotely involves offering prerecorded lectures (to minimize dropped connections and other disruptions) in combination with live online discussion sessions. This remote instruction strategy allows for high flexibility for students to watch lectures at a time that is convenient to them, while they can ask questions to their professors and have a greater degree of interaction during live discussion sessions. I had positive feedback from students on this format when I taught a large senior undergraduate engineering class of nearly 300 students on the Theory of Machines and Mechanisms in the spring quarter of 2020. I was pleasantly surprised by the large number of active participants in my optional live Zoom weekly discussion sessions. Students had their cameras disabled and possibly this additional layer of anonymity allowed for shy and introverted students to ask questions that they would otherwise be hes</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3167480069</t>
+          <t>https://openalex.org/W3196624883</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/1.4051474</t>
+          <t>https://doi.org/10.1177/09596836211041730</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Kulinsky (2021)</t>
+          <t>Wang et al. (2021)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Personal Observations of the Effects of COVID-19 Pandemic on Micromanufacturing Research and Education in the United States</t>
+          <t>Climate and human induced 2000-year vegetation diversity change in Yunnan, southwestern China</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Humanity has periodically faced cataclysmic events such as wars, famines, and plagues. These catastrophes caused untold suffering and loss of life. Despite the widespread optimism of modern times that advances in various technologies made these threats obsolete, today we find ourselves amidst a global pandemic caused by the COVID-19 virus that has led to millions of deaths worldwide and the widespread disruption of economic activity, severe limitation in travel, and even radical curtailment in normal social face-to-face contact between people. There are many facets of the impact of this pandemic on our society, but in this analysis, I would like to focus on two specific areas relevant to our micromanufacturing community—areas of research and of education.It has been said that the “Necessity is the mother of Invention.” Indeed, our global community has been able to adjust within several months to this new reality by switching to remote education utilizing technological platforms such as Zoom and Canvas (among others). We also adjusted in the way that we conduct laboratory research by dramatically reducing the number of researchers that could simultaneously be present in the laboratory and by switching to simulation-based research as well as by utilizing other approaches in order to reduce viral transmission.In education, rapid switching from in-person to remote education dictated by the current health crisis was made possible by the existing remote education tools. Many online schools have been continually using for years such online learning environments (OLEs) as Canvas or Blackboards. In many cases, lecturers were videorecording their lectures and posting them on OLEs as well. Additionally, hundreds of thousands of recorded lectures on all topics were posted on public platforms such as YouTube and students of all age groups could supplement their school studies by viewing online lectures from Khan Academy or watching OpenCourseWare university lectures (for example, on thermodynamics from the University of California, Irvine or on computer science from MIT). Millions of people were using videoconferencing platforms such as FaceTime, Skype, Group Meets, and others for a long time before the advent of the present global pandemic. Therefore, there was a very high level of technological acceptance and psychological readiness for teachers and students to switch to remote education and away from the traditional forms of in-person lectures when schools and universities were presented with that challenge.I have taught five undergraduate and graduate engineering classes at the University of California, Irvine since the beginning of the transition to the remote instruction in the spring of 2020 and I was able to observe some of the advantages and disadvantages of the remote education compared with in-person instructions. Specific tradeoffs of benefits and drawbacks of remote instructions depend greatly on several factors including the individual pedagogical style of the instructor, the familiarity of the instructor with technological tools at his/her disposal, and on the size of the class. In my opinion, the greatest drawback of remote education is the challenge to engage students, excite them into active class participation, including asking questions and engaging in in-class discussion. If a specific instructor is unable to engage the students and spends most of the in-person class with his/her back to the class writing statements or equations on the board, then this type of instruction will not suffer further by the shift to remote mode of instruction. However, if the goal of the instructor is to engage the class and have a high degree of interactivity (the approach that I support), then the most effective approach to offer remote instruction will likely depend on the size of the class. I will describe my approach to remote education for two types of classes—a large undergraduate engineering class with hundreds of students and a small graduate class with ten students of less. My approach for teaching large classes remotely involves offering prerecorded lectures (to minimize dropped connections and other disruptions) in combination with live online discussion sessions. This remote instruction strategy allows for high flexibility for students to watch lectures at a time that is convenient to them, while they can ask questions to their professors and have a greater degree of interaction during live discussion sessions. I had positive feedback from students on this format when I taught a large senior undergraduate engineering class of nearly 300 students on the Theory of Machines and Mechanisms in the spring quarter of 2020. I was pleasantly surprised by the large number of active participants in my optional live Zoom weekly discussion sessions. Students had their cameras disabled and possibly this additional layer of anonymity allowed for shy and introverted students to ask questions that they would otherwise be hes</t>
+          <t>Understanding long-term vegetation diversity patterns and their potential responses to climate and/or human driven processes are important for ecosystem modeling and conservation. Late-Holocene fossil pollen assemblage and associated vegetation diversity estimates provide an opportunity to explore the interactions among vegetation, climate, and human activities. A continuous 2000-year palynological record was obtained from the Beihai Wetland, southwestern China, to represent regional vegetation history, particularly the vegetation diversity changes. The results indicate that regional vegetation was dominated by deciduous broadleaved forest components (e.g. Alnus, deciduous Quercus), which showed a gradual decrease accompanied by expansion of herbaceous taxa (mainly Poaceae) after AD 800. Such progressive decline of forest was attributed to regional deforestation driven by intensified human activities, which was further confirmed by the increasing non-pollen polymorph abundance, particularly an abrupt rise after AD 1350. Vegetation diversity based on the Hill numbers ( N0, N1, and N2) showed a dramatic decline between ca. AD 200–400, which was triggered by regional fire events as shown by increased charcoal abundance from a nearby lake. The vegetation diversity reduced gradually after AD 800, especially the vegetation richness reflected by N0, revealing the transitional process from climate-driven to human-dominated vegetation changes. Minor increases of vegetation diversity occurred during Chinese dynastical transitions, probably due to reduced human activities following war-induced population crises. On the multidecadal scale, variations in vegetation diversity correlated significantly with climate fluctuations (revealed by synthesized temperature of China and stable oxygen isotope record from Dongge Cave) before AD 800, indicating a climate dominant condition. Then, the correlation between vegetation diversity and climate declined after AD 800, representing a progressive transition to human-dominant condition. In addition, the compositional turnover based on DCCA of the fossil pollen assemblage revealed a stepwise decrease, indicating reduced vegetation turnovers under anthropogenic influences.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4211059089</t>
+          <t>https://openalex.org/W3033656380</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.02.07.479433</t>
+          <t>https://doi.org/10.1016/j.oooo.2020.04.812</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Moyers et al. (2022)</t>
+          <t>Sardiña et al. (2020)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Strong genotype by environment interactions in the rice Global MAGIC population across seedling stage drought</t>
+          <t>Oral and maxillofacial disease: A model for interprofessional education and care</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Abstract Crop adaptation is required to sustainably increase the rate of yield gains to meet projected future needs under the challenging conditions of climate change and competition for resources. Future adaptation will likely need to harness both highly polygenic traits and genotype-by-environment interactions (GxE), the study of which is aided by complex recombinant populations. We used the diverse Oryza sativa Global Multiparent Advanced Generation InterCross (MAGIC) population to study the genetic architecture and contributions of seedling emergence, establishment, and development to yield components under dry-direct seeding and seedling stage drought across three growing seasons. Dry-direct seeding is an establishment practice that has the potential to reduce methane emissions, water use, and labor demands for rice farmers, but increases the possibility of early-season drought conditions. We found substantial evidence for large roles of environmental variation and GxE in controlling trait variation. Maintenance of shoot growth during seedling stage drought was positively correlated with crown root number and both directly and indirectly influenced agronomic traits. Other than the major green revolution locus sd1 , most allelic effects were conditionally neutral (affecting trait values in some environments but not others) and most alleles had their strongest effect in an environmental extreme. This discovery is both a challenge and a potential opportunity: with variable genetic architecture, selection in any one environment may not result in stable trait gains across environments. However, conditionally neutral GxE is a potential route to sustainable yield stability through allele pyramiding.</t>
+          <t>The patient with oral or maxillofacial disease may present to any of a variety of health care providers, including the general dentist, primary care physician, dermatologist, oral and maxillofacial surgeon, otolaryngologist/head and neck surgeon, or oral medicine specialist. Among these specialists, cumulative exposure to, and familiarity with, the management of oral and maxillofacial diseases varies. General dentists may be most comfortable with the management of dental caries and periodontal disease, including its advanced sequelae; primary care physicians with clinical findings in the context of systemic processes, such as infection; and dermatologists in the management of mucocutaneous disorders. The skills of the oral and maxillofacial surgeon and the otolaryngologist in performing tumor and bone biopsies are central to training in these specialties, whereas oral medicine specialists master the medical management of facial pain disorders, salivary gland hypofunction, and chronic oral mucosal conditions. Indeed, there is a lack of formal studies assessing patient outcomes in this multidisciplinary setting, and there are many instances of unnecessary patient referrals in search of the most appropriate treating clinician.1Pinto A Khalaf M Miller CS The practice of oral medicine in the United States in the twenty-first century: an update.Oral Surg Oral Med Oral Pathol Oral Radiol. 2015; 119: 408-415Abstract Full Text Full Text PDF PubMed Scopus (24) Google Scholar Apart from dental caries and periodontal disease, oral and maxillofacial diseases consist of nonodontogenic diseases native to the oral cavity; diseases native to organ systems of which the oral cavity may be considered an anatomic or physiologic part (such as skin, upper aerodigestive tract, and gastrointestinal tract); neuropathies; and gnathic disease, which is unique among skeletal diseases because of the supportive role of the jaws in facial growth and development. Patients expect to be appropriately managed by the provider to whom they present, even though the chief complaints often cross areas of expertise, such as pulsatile pain that may occur in the midface as a manifestation of a neurovascular headache, frictional hyperkeratoses in the oral mucosa that may resemble leukoplakia, or dermatologic disease affecting only the gingival and genital mucosae. Frequently, a specific diagnosis is elusive or could have several possible explanations, of which only some may be considered because of the specific training and experience level of the attending clinician.2Ni XG Wang GQ Hu FY et al.Clinical utility and effectiveness of a training programme in the application of a new classification of narrow-band imaging for vocal cord leukoplakia: a multicentre study.Clin Otolaryngol. 2019; 44: 729-735Crossref PubMed Scopus (10) Google Scholar Unique challenges in the management of the patient with oral or maxillofacial disease relate to the existence of disparate educational institutions with differing educational objectives, leading to different models of health care delivery. In dental curricula, for example, there is some exposure to oral and maxillofacial disease and clinical medicine, but competence is hindered by practice models and financial models of reimbursement emphasizing limited disease management (e.g., caries control and periodontal control). In medical curricula, exposure to oral and perioral diseases is variable, with no clear outcomes of education. Potential solutions, such as focused universal integration of the first 2 years of medical and dental undergraduate curricula or elimination of the dental doctoral degree and its redesignation as a medical specialty, are, in equal parts, appealing and idealistic. Furthermore, a successful interprofessional education model must include a vision for interprofessional practice, where the trainees will go into the field and practice, although this is a daunting task. Interprofessional education is tasked with recognizing the interdisciplinary opportunities that are present in clinical practice and developing long-term, durable methods for professional development that will lead to concrete improvements in patient care. Current models of health care delivery reveal not only opportunities for improvement but also insights into potential solutions. In the field of pathology, the development of subspecialty expertise over the past several decades has made significant contributions to improvements in clinical practice and advances in research.3Black-Schaffer WS Young RH Harris NL Subspecialization of surgical pathology at the Massachusetts General Hospital.Am J Clin Pathol. 1996; 106: S33-S42PubMed Google Scholar Dermatopathologists, head and neck pathologists, and oral and maxillofacial pathologists are just some of the subspecialists who provide expert diagnostic services for their respective clinical counterparts—dermatologists, head and neck surgeons/otolaryngologists, and oral and maxillofacial s</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049735746</t>
+          <t>https://openalex.org/W4387792429</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cri.2009.0102</t>
+          <t>https://doi.org/10.1093/oso/9780197748473.003.0003</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Hughes (2009)</t>
+          <t>McIntyre (2023)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Technological Empowerment: The Internet, State, and Society in China&lt;/i&gt;, and: &lt;i&gt;The Power of the Internet in China: Citizen Activism Online&lt;/i&gt; (review)</t>
+          <t>Scottish History, Presbyterian Culture, and the Right to Bear Arms</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Reviewed by: Technological Empowerment: The Internet, State, and Society in China, and: The Power of the Internet in China: Citizen Activism Online Christopher R. Hughes (bio) Yongnian Zheng. Technological Empowerment: The Internet, State, and Society in China. Stanford, CA: Stanford University Press. 2008. xx, 246 pp. Hardcover $50.00, isbn 978-0-8047-5737-9. Guobin Yang. The Power of the Internet in China: Citizen Activism Online. New York: Columbia University Press, 2009. xv, 302 pp. Hardcover $29.50, isbn 978-0-231-14420-9. The Internet has been a presence in China long enough for it to generate a subfield of the study of Chinese politics that goes well beyond the overly simplistic predictions that often characterized the first wave or work on the topic. These two books together give a good picture of just how much progress has been made, as well as some of the challenges that are emerging in what is still a relatively new area for the social sciences. Both books are rooted in earlier approaches to the subject insofar as they give overviews of the established knowledge on the topic, including updated statistics concerning the spread of accessibility, the unevenness of the digital divide, and the [End Page 585] measures used by the state to maintain control. They go further in their use of case studies to explore how the Internet is actually used by a number of actors to give insights into its impact on political change that was not possible for the first wave of literature. Perhaps the most interesting idea to emerge from reading these two works together, however, is the question of whether the impact of the Internet in China can be understood by applying established theories from the social sciences, or whether it represents a form of organization that is so qualitatively different that some radical departures are necessary. The more established approach is chosen by Zheng, who sets out to make the Internet part of the literature on state-society relations. He does this by disaggregating both state and society so that it is possible to examine how various actors engage in processes of mutual transformation as social actors push at the interstices of power while the state reacts with countermeasures of control. His most interesting insights are in his chapter on the growth of civic engagement and public distrust and his chapter on collective action, which use fascinating studies to show how the Internet has been used to mobilize public opinion around issues ranging from the arrest of online dissidents to the organization of the Falun Gong movement. Zheng builds on this evidence to conclude that collective actions based on the Internet are promoting a greater degree of political openness, transparency, and accountability. Yang's book takes the more radical approach because he does not treat the Internet as a force that shapes society from the outside. Instead, he sees it as constituting a new social space in which innovative forms of cultural acts can be performed. He casts his theoretical net wide, drawing on cultural studies and social movement literature to capture "a broad spectrum of converging and contending forces, technological, social, and economic, as well as political" (Yang, p. 1). Although he also uses case studies to show how the Internet is used for political mobilization, he is equally concerned with demonstrating how the "Chinese people have created a world of carnival, community and contention in and through cyberspace and how in this process they have transformed personhood, society and politics" (Yang, p. 1). Thus, the real transformation wrought by the Internet operates at a deeper level than the state-society paradigm and involves cultural and social revolutions. Space is, therefore, created for the emergence of an unofficial democracy, in which the state is being forced to move from repressive power to disciplinary power and from hard control to soft control. Focusing on the arduous process of this reorientation of values and identities has the merit of avoiding both extreme optimism based on technological determinism and the undue pessimism that arises from visible setbacks in the democratic project. The strength of such an approach lies in the attention it gives to interpreting the significance of...</t>
+          <t>Abstract This chapter illuminates how Scottish Presbyterian and covenanting history and culture shaped views of legitimate arms-bearing in parts of America in the decades leading up to the Second Amendment’s ratification. This chapter shows the diversity of non-English legal, political, and theological influences on self-defense and arms-bearing in the early United States. This history grounded both rights and duties to resist tyrannical government initially in religious understanding and obligations, before it shifted to a more individualized level as the American Revolution approached.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3137463096</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/20009666.2021.1879415</t>
+          <t>https://openalex.org/W2368034828</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Williams et al. (2021)</t>
+          <t>Qing-hua (2001)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Perspectives on the quality and utility of letters conforming to the AAIM guidelines</t>
+          <t>URBAN SYSTEM CONTROL AND URBAN PLANNING</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Background Standardized letters of recommendation (SLOR) have become common features of the medical school to residency transition. Research has shown many advantages over the narrative letter of recommendation including improved letter-writing efficiency, ease of interpretation, and improved reliability as performance predictors. Currently, at least four specialties require fellowship SLORs. Internal medicine adopted its SLOR in 2017. Previous research showed fellowship program directors’ satisfaction with the 2017 guidelines. Little is known about residency program directors’ acceptance and adherence to the guidelines.Objectives The study sought to assess the adoption rate of each component, barriers to adoption, time commitment, and alignment with intended goals of the guidelines.Methods Anonymous survey links were posted to an internal medicine discussion forum prior to the guidelines in spring 2017 and twice following the guidelines in fall 2018 and winter 2019. Two-sample tests of proportions were used to compare respondent characteristics with known survey population data. Pre- and post-survey comparisons were assessed for statistical significance with Pearson chi-squared statistic.Results The response rate varied from 30% to 35% for each survey period. Medical knowledge, patient care, interpersonal and communication skills, professionalism, and scholarly activity were reported frequently (&gt;96%) at baseline. Inclusion of residency program characteristics, systems-based practice, practice-based learning and improvement, and skills sought to master increased over the study period.Conclusions The new guidelines improved uniform reporting of all core competency data. Overall, the gains were modest, as many pre-survey respondents reported high rates of including components within the guidelines.</t>
+          <t>This paper concludes that the urban society as an anomie system has one of its for-itself control means, urban planning. During the society transitional period urban planning can contribute to the steady development of urban system. The paperfocuses on the use of some control means in urban planning and advances in the planning field jaw system should be perfected,public participation and society survey institution should be established, universal planning education should be spreaded, publicopinion and society appraisal should be taken advantage of.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556247791</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fmars.2016.00228</t>
+          <t>https://openalex.org/W1851584041</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fieth et al. (2016)</t>
+          <t>Morales-Hernández et al. (2015)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Ontogenetic Changes in the Bacterial Symbiont Community of the Tropical Demosponge Amphimedon queenslandica: Metamorphosis Is a New Beginning</t>
+          <t>Los conflictos socioambientales y la construcción de alternativas: experiencias de agricultura periurbana en el sur de la Zona Metropolitana de Guadalajara; Jalisco, México</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
-        <is>
-          <t>Vertical transmission of bacterial symbionts, which is known in many species of sponge (Porifera), is expected to promote strong fidelity between the partners. Combining 16S rRNA gene amplicon sequencing and electron microscopy, we have assayed the relative abundance of vertically-inherited bacterial symbionts in several stages of the life cycle of Amphimedon queenslandica, a tropical coral reef sponge. We reveal that adult A. queenslandica house a low diversity microbiome dominated by just three proteobacterial OTUs, with a single gammaprotebacterium clearly dominant through much of the life cycle. This ontogenetic perspective has revealed that, although vertical transmission occurs very early in development, the inherited symbionts do not maintain proportional dominance of the bacterial community at every developmental stage. A reproductive bottleneck in the A. queenslandica life cycle is larval settlement, when a free-swimming pelagic larva settles out of the water column onto the benthos and completes metamorphoses into the sessile body plan within just 3 to 4 days. During this dramatic life cycle transition, an influx of environmentally-derived bacteria leads to a major reorganization of the microbiome, potentially challenging the fidelity and persistence of the vertically-inherited symbiotic relationships. However, dominance of the primary, vertically-inherited symbionts is restored in adult sponges. The mechanisms underlying ontogenetic changes in the bacterial community are unknown, including how the dominance of the primary symbionts is restored in the adult sponge – does the host or symbiont regulate this process? Using high-resolution transcriptional profiling in multiple stages of the A. queenslandica life cycle combined with this natural perturbation of the microbiome immediately following larval settlement, we are beginning to identify candidate host genes associated with animal-bacterial crosstalk. Among the sponge host genes upregulated during the times of active microbiome assembly, there is an enrichment of genes potentially involved in innate immunity, including scavenger receptors, and of genes containing eukaryote-like domains, which have elsewhere been implicated in host-symbiont interactions. Intriguingly, we also see an enrichment of sponge genes arising from ancient horizontal transfer events from bacteria, which raises the possibility that host-bacterial associations in the evolutionary past may help to regulate host-bacterial associations in the ecological present.</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4395042973</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15330/msuc.2023.29.80-84</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Blavt (2023)</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>ІНКЛЮЗИВНЕ ФІЗИЧНЕ ВИХОВАННЯ ЗДОБУВАЧІВ ВИЩОЇ ОСВІТИ З ІНВАЛІДНІСТЮ: АКЦЕНТИ В СУЧАСНОМУ ВИМІРІ</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>The relevance of the study is due to the rapid increase of students with disabilities as a result of the war and the urgent need to adapt the educational process of higher school to the challenges of the state of war. We consider the benchmarks for solving the mentioned problem from the standpoint of domestic pedagogical science with an emphasis on taking into account the determinants of inclusive education and the use of forms, means, and methods of physical education. The purpose of the research is to identify and justify the emphasis on inclusive physical education of students with disabilities in the modern dimension. The research is based on the use of a complex of general scientific theoretical methods: analysis, synthesis, systematization, and generalization. The results. It has been studied that the change of emphasis in the interpretation of the concept of disability leads to the need to provide a comprehensive approach to creating conditions that would contribute to the full realization of the inclusion of students with disabilities during their studies in higher education institutions. It was found that inclusive physical education is currently the most effective means of inclusion, the main idea of which is to ensure the psychological comfort and interest of students with disabilities in the course of classes due to complete freedom of choice of means, methods, and forms of implementation of their physical education. The main goal of modern inclusive physical education with the help of various types of motor activity is the formation and development of physical condition, physical and psychological abilities, which ensure the adaptation of students with disabilities to their state of health, the variability of the environment, caused by transformations in the social life of the country. Attention is focused on the influence of inclusive physical education on the mental sphere of students with disabilities under martial law. The necessity of focusing inclusive physical education on creating a basis for students with disabilities to gain experience in health care skills and inclusion in active motor activity aimed at improving their health is determined. For many students with disabilities under martial law, inclusive physical education is the only way to "break" the closed space, enter society, find new friends, and get an opportunity for active physical activity. Conclusions. In the conditions of martial law, inclusive physical education is primarily aimed at creating conditions for the full realization of the physical and mental development of students with disabilities during the educational process, organized based on modern general scientific and special technologies of the theory, methodology and practice of physical culture, adapted to the needs of modern times.</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3033656380</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.oooo.2020.04.812</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Sardiña et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Oral and maxillofacial disease: A model for interprofessional education and care</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>The patient with oral or maxillofacial disease may present to any of a variety of health care providers, including the general dentist, primary care physician, dermatologist, oral and maxillofacial surgeon, otolaryngologist/head and neck surgeon, or oral medicine specialist. Among these specialists, cumulative exposure to, and familiarity with, the management of oral and maxillofacial diseases varies. General dentists may be most comfortable with the management of dental caries and periodontal disease, including its advanced sequelae; primary care physicians with clinical findings in the context of systemic processes, such as infection; and dermatologists in the management of mucocutaneous disorders. The skills of the oral and maxillofacial surgeon and the otolaryngologist in performing tumor and bone biopsies are central to training in these specialties, whereas oral medicine specialists master the medical management of facial pain disorders, salivary gland hypofunction, and chronic oral mucosal conditions. Indeed, there is a lack of formal studies assessing patient outcomes in this multidisciplinary setting, and there are many instances of unnecessary patient referrals in search of the most appropriate treating clinician.1Pinto A Khalaf M Miller CS The practice of oral medicine in the United States in the twenty-first century: an update.Oral Surg Oral Med Oral Pathol Oral Radiol. 2015; 119: 408-415Abstract Full Text Full Text PDF PubMed Scopus (24) Google Scholar Apart from dental caries and periodontal disease, oral and maxillofacial diseases consist of nonodontogenic diseases native to the oral cavity; diseases native to organ systems of which the oral cavity may be considered an anatomic or physiologic part (such as skin, upper aerodigestive tract, and gastrointestinal tract); neuropathies; and gnathic disease, which is unique among skeletal diseases because of the supportive role of the jaws in facial growth and development. Patients expect to be appropriately managed by the provider to whom they present, even though the chief complaints often cross areas of expertise, such as pulsatile pain that may occur in the midface as a manifestation of a neurovascular headache, frictional hyperkeratoses in the oral mucosa that may resemble leukoplakia, or dermatologic disease affecting only the gingival and genital mucosae. Frequently, a specific diagnosis is elusive or could have several possible explanations, of which only some may be considered because of the specific training and experience level of the attending clinician.2Ni XG Wang GQ Hu FY et al.Clinical utility and effectiveness of a training programme in the application of a new classification of narrow-band imaging for vocal cord leukoplakia: a multicentre study.Clin Otolaryngol. 2019; 44: 729-735Crossref PubMed Scopus (10) Google Scholar Unique challenges in the management of the patient with oral or maxillofacial disease relate to the existence of disparate educational institutions with differing educational objectives, leading to different models of health care delivery. In dental curricula, for example, there is some exposure to oral and maxillofacial disease and clinical medicine, but competence is hindered by practice models and financial models of reimbursement emphasizing limited disease management (e.g., caries control and periodontal control). In medical curricula, exposure to oral and perioral diseases is variable, with no clear outcomes of education. Potential solutions, such as focused universal integration of the first 2 years of medical and dental undergraduate curricula or elimination of the dental doctoral degree and its redesignation as a medical specialty, are, in equal parts, appealing and idealistic. Furthermore, a successful interprofessional education model must include a vision for interprofessional practice, where the trainees will go into the field and practice, although this is a daunting task. Interprofessional education is tasked with recognizing the interdisciplinary opportunities that are present in clinical practice and developing long-term, durable methods for professional development that will lead to concrete improvements in patient care. Current models of health care delivery reveal not only opportunities for improvement but also insights into potential solutions. In the field of pathology, the development of subspecialty expertise over the past several decades has made significant contributions to improvements in clinical practice and advances in research.3Black-Schaffer WS Young RH Harris NL Subspecialization of surgical pathology at the Massachusetts General Hospital.Am J Clin Pathol. 1996; 106: S33-S42PubMed Google Scholar Dermatopathologists, head and neck pathologists, and oral and maxillofacial pathologists are just some of the subspecialists who provide expert diagnostic services for their respective clinical counterparts—dermatologists, head and neck surgeons/otolaryngologists, and oral and maxillofacial s</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4387792429</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oso/9780197748473.003.0003</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>McIntyre (2023)</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Scottish History, Presbyterian Culture, and the Right to Bear Arms</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Abstract This chapter illuminates how Scottish Presbyterian and covenanting history and culture shaped views of legitimate arms-bearing in parts of America in the decades leading up to the Second Amendment’s ratification. This chapter shows the diversity of non-English legal, political, and theological influences on self-defense and arms-bearing in the early United States. This history grounded both rights and duties to resist tyrannical government initially in religious understanding and obligations, before it shifted to a more individualized level as the American Revolution approached.</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W645510661</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Nichols et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Coastal and Ocean Modeling Testbed Applications</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>The Southeastern Universities Research Association (SURA) is involved in the research, development, and transition of ocean models from exploratory/advanced research to operations. The SURA Coastal and Ocean Modeling Testbed (COMT) program uses the science of collaboration to apply advances made by the coastal ocean modeling research community to improve operational ocean products and services. The long-range vision of the program is to increase the accuracy, reliability, and scope of operational coastal and ocean forecasting products. Accurately modeling surface gravity waves in the coastal ocean is especially important to help protect property and to save lives. This paper highlights recent advances in wave modeling by principal investigators that have supported the COMT program [1]. The four pillars of COMT are basic and applied research, technology transition, archival of discoverable information, and dissemination of data standards and software tools.</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4390956768</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.17323/2500-2597.2023.4.1.4</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Pirzada et al. (2023)</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Corporate Strategies for Sustainable Development and Adoption of New Technologies</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Digital technologies and innovative solutions play a crucial role in promoting sustainable development. However, it is important to acknowledge that these technological advancements may positively and negatively impact sustainability (Gray, 1994; Al-Emran, Griffy-Brown, 2023). In 2015, the United Nations (UN) adopted the 2030 Agenda for Sustainable Development as a plan of action to end poverty, protect the planet, and ensure prosperity for all people worldwide (UN, 2015). The Agenda contains 17 integrated sustainable development goals (SDGs) and 169 specific measurable targets. It emphasizes the private sector’s role in facilitating the advancement and achievement of the UN’s sustainable development initiatives, working in partnership with governments, civil society, and other stakeholders (UN, 2015). Even before adoption of this agenda, several social, environmental, and technological developments have impacted the operations and functions of companies. One of these developments is the emergence of green sustainability (Gray, 1994; Abbas, 2019), which helped evaluate companies’ overall performance and shaped the creation of customer value. The corporate (as well as institutional) responses to the emergence of green sustainability have provided an impetus for companies to develop relevant business models compatible with these developments and to share these models with shareholders and society at large. This impetus, in turn, has made it possible to implement sustainable development practices coherently and nurtures a new culture consistent with a large-scale transition to a green, sustainable future. Digital communications effectively eliminate the geographical boundaries for businesses and their customers, so the latter can quickly contact different suppliers worldwide, and locate substitute goods that fulfil their needs (Singh, 2020; Mather, 2020). This trend has thus made acquiring and maintaining competitive advantage a real challenge for companies. This challenge involves the task of achieving the UN Sustainable Development Goals (SDGs) and aligning business strategies with these SDGs. Hence, companies successfully adopt multiple strategies and generate knowledge to satisfy the needs of their customers and achieve their SDGs. The private sector’s contribution to the achievement of the SDGs can be realized through the integration of principles into corporate strategies and operations. In this context, given that the development and implementation of corporate strategy is the responsibility of the firm-level green sustainability model (including environmental, social, and governance aspects), it is essential to provide an understanding of whether and how, green sustainability models affect or influence the corporate sector’s engagement with SDGs (Mangena, 2012; Pirzada et al., 2017).</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4394779286</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.marpol.2024.106140</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Cerca et al. (2024)</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Small-scale low-tropic ocean farming and coastal rural landscapes: Why the logistics of seaweed matter? Insights from Ireland for collaborative planning</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>Kelps are part of large brown macroalgae species with a fundamental role in temperate to subpolar coastal marine ecosystems and their cultivation has been expanding as part of several efforts and countries' policies. This study explores the relevance of post-harvesting logistics planning involving marine operations of emerging seaweed-based supply chains including kelp species. In the Irish context, we explore the potential of collaboration among low-tropic ocean farming sectors regarding shared space and infrastructure in rural and remote landscapes. Based on empirical data and a novel methodological approach, a multi-method analysis was performed involving geographic information systems, mathematical modelling and qualitative content analysis. The results indicate large potential production and collaboration capacity if current licensed areas and existing infrastructure were integrated with kelp cultivation for further processing and distribution in 40 local supply hubs and 14 optimal locations for shared processing facilities. Moreover, the different transportation scenarios considered indicate that costs and greenhouse gas emissions could be minimised by reducing moisture content locally and with increased payload. Further linkages reveal uncertainties in the uses of alternative methods of preservation such as ensiling and a lack of attention to non-market values. For future valorisation in diverse commercial and non-commercial applications, seaweed farming and collaborative processing opportunities still need to be incorporated into societal discourses and futures envisioned by rural coastal communities, including the engagement of young generations in such transformation pathways.</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1851584041</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Morales-Hernández et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Los conflictos socioambientales y la construcción de alternativas: experiencias de agricultura periurbana en el sur de la Zona Metropolitana de Guadalajara; Jalisco, México</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
         <is>
           <t>El crecimiento desordenado de la zona metropolitana de Guadalajara, Jalisco, Mexico, ha ocasionado una serie de conflictos socioambientales que impactan los recursos naturales y la calidad de vida de los habitantes del entorno periurbano. Ante ello, diversos actores locales se han orientado a construir alternativas a estos conflictos y alli es crucial el papel de la agricultura familiar periurbana, sustentable y multifuncional. En este trabajo se da cuenta de la experiencia del Instituto Tecnologico y de Estudios Superiores de Occidente, que lleva a cabo en la region un proyecto de acompanamiento e investigacion participativa, donde se ha formado a los agricultores locales en la transicion hacia agriculturas mas sustentables, con el que se han demostrado las experiencias de agricultura periurbana, su viabilidad y sus aportaciones a la sustentabilidad regional, y se ha favorecido la articulacion de los actores locales con organizaciones regionales y nacionales. Estos procesos se realizan en un tejido social fuerte que es la base para la construccion de alternativas a los conflictos socioambientales._x000D_
 The disordered sprawl of Guadalajara, Jalisco, Mexico has caused a number of_x000D_
@@ -6435,320 +6264,347 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1519775132</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22260/isarc2007/0083</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Ingawale (2007)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>A Decision Theoretic Framework for Information System Planning in the Construction Industry</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>A Decision Theoretic Framework for Information System Planning in the Construction Industry Myshkin Ingawale Pages 501-508 (2007 Proceedings of the 24th ISARC, Kochi, India, ISBN 978-81-904235-1-9, ISSN 2413-5844) Abstract: Automation and Information Systems (IS) implementation in the construction industry have evolved in scope and scale of effects over the years. With their growing importance, there is a need for a more practical IS planning approach. Along with the alignment of Information Technology Strategy with the overall corporate strategy of the firm, the Critical Success Factor method, the Value Chain method and other Opportunity frameworks emphasize the prioritization of the key processes for Information Systems planning. The effects of information technology on organizational hierarchy, internal power structures and control flows have been well documented. In the specifics pertaining to the construction industry, this involves a considerably risky transition from a multilevel hierarchy organizational structure to a relatively decentralized, flat organization. This paper presents a decision theoretic framework for Information Systems planning in the construction industry. The objective is to provide a comprehensive and unified approach for analysis and evaluation of the roles, scale and scope of Information Technology in the construction firm. This presupposes elicitation of requirements from a diverse set of stakeholders  managers, workers, suppliers and so on. One common problem is the difficulty in maintaining a sufficient degree of formalization and uniformity of structure to ensure effective communication across distributed design teams, while also ensuring adaptability and flexibility in the approach to accurately capture requirements elicitations of different users. The Cognitive Dimensions framework is an approach to analyzing the usability of information artifacts: Here, we apply it to the requirements elicitation process for IS planning in the Construction Industry. Keywords: IS Planning, Cognitive Dimensions, Requirements Engineering, Human-Centered Systems DOI: https://doi.org/10.22260/ISARC2007/0083 Download fulltext Download BibTex Download Endnote (RIS) TeX Import to Mendeley</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4244716685</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5089/9781475554045.002</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Fund (2013)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>The Republic of Yemen: 2013 Article IV Consultation</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Background: Political transition is advancing and economic reforms-supported by large external inflows including the 2012 Rapid Credit Facility (RCF)-helped Yemen stabilize its macroeconomy.However, the political and security situation remains fragile, and poverty and unemployment are widespread.Furthermore, the underlying fiscal deficit has recently widened, and large wage and subsidy outlays crowd out social spending and investment. Outlook and risks:The fledgling recovery is projected to continue over the medium term, supported by the implementation of the authorities' economic plans.However, stronger reforms and donor support are needed to achieve sustainable high and inclusive growth as well as prevent a deterioration in public debt and the external position.Delays in reforms, shortfalls in donor support, or sabotage activities that curtail oil and electricity supply could undermine the stabilization gains, reduce growth prospects, and threaten fiscal and external sustainability.Managing these risks will require an unwavering commitment to, and broad-based support for, the reform agenda, and careful contingency planning.Policy Discussions focused on how to safeguard macroeconomic stability, improve fiscal and external sustainability, and boost inclusive growth, while better protecting the poor.There was broad agreement on the need to reorient public expenditures to infrastructure and targeted transfers for social protection, increase non-hydrocarbon revenues, improve public finance management, and expedite structural policies to improve the business environment and develop the financial sector while preserving its stability.The authorities have announced initial measures to improve governance and efficiency in the energy sector.They agreed with staff on the need for comprehensive subsidies reforms, but are not ready to implement stronger measures that are needed to reduce the large energy subsidy bill.Postponing such reforms increases risks to macroeconomic stability and growth, hinders more effective social protection, and will require stronger adjustments down the road.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4391994807</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.54097/crskx270</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Mo &amp; Wu (2024)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Interpreting the Multiple Narrative Perspectives in Three of Us from the Stream of Consciousness</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Three of 'us is Yang Jiang' s review of the happy life about her two family members and herself in the past, so as to express her love to them. The narration of the book is plain and simple, the tone is moderate, and the narrative angle is diverse. The author mainly promotes the development of narrative plot through her free association and the transformation of dream, so as to make the narrative structure more compact. The adoption of the stream of consciousness technique contributes to the transformation of multiple narrative perspectives, and the two complement each other. The successful transformation of the narrative perspective also shows the effect of the stream of consciousness technique in the article.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4323923668</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.expneurol.2023.114375</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>McMillan et al. (2023)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Human microglial models to study host–virus interactions</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Microglia, the resident macrophage of the central nervous system, are increasingly recognized as contributing to diverse aspects of human development, health, and disease. In recent years, numerous studies in both mouse and human models have identified microglia as a "double edged sword" in the progression of neurotropic viral infections: protecting against viral replication and cell death in some contexts, while acting as viral reservoirs and promoting excess cellular stress and cytotoxicity in others. It is imperative to understand the diversity of human microglial responses in order to therapeutically modulate them; however, modeling human microglia has been historically challenging due to significant interspecies differences in innate immunity and rapid transformation upon in vitro culture. In this review, we discuss the contribution of microglia to the neuropathogenesis of key neurotropic viral infections: human immunodeficiency virus 1 (HIV-1), Zika virus (ZIKV), Japanese encephalitis virus (JEV), West Nile virus (WNV), Herpes simplex virus (HSV), and severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2). We pay special attention to recent work with human stem cell-derived microglia and propose strategies to leverage these powerful models to further uncover species- and disease-specific microglial responses and novel therapeutic interventions for neurotropic viral infections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4312956733</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tcss.2022.3219781</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Kafeza et al. (2023)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Time-Series Clustering for Determining Behavioral-Based Brand Loyalty of Users Across Social Media</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>In recent years social media data analytics allow enterprises to adopt a data driven approach to manage their processes. Although social media provide a plethora of data, still much work needs to be done to transform these data into services that businesses can use and make insightful decisions. In this work, we address one of the most important problems in business, the relationship with the customers and more precisely the identification of loyal customers. We use behavioral analytics to model and process customer actions. We extract user behavior based on our unified crawling approach and collect data from three different social media namely Reddit, Twitter and YouTube. We are extracting for each user three different behaviors namely communication, sentiment and product mix and convert them into a 3-D time-series. We use shapelet clustering to determine the loyal users. To verify our approach, we develop a set of metrics based on trust, commitment and engagement and we show that our approach results in differentiating the loyal users successfully. Moreover, we validate our results presenting a word cloud visualization. We extend our methodology introducing a semantic data transformation algorithm where we use the topic extraction, reducing the time-series to a more relevant one. Our experiments show that based on the verification metrics, our transformation increases the accuracy of the clustering results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1562489604</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7326/0003-4819-38-2-288</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Jackson &amp; Kass (1953)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>THE RELATIONSHIP BETWEEN PERIARTERITIS NODOSA AND SARCOIDOSIS</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Article1 February 1953THE RELATIONSHIP BETWEEN PERIARTERITIS NODOSA AND SARCOIDOSISALBERT JACKSON, M.D., IRVING KASS, M.D.ALBERT JACKSON, M.D.Search for more papers by this author, IRVING KASS, M.D.Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-38-2-288 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptIn their recent article, Churg and Strauss14 again called attention to the fact that they have found, in additional chronic cases of periarteritis nodosa, not only the typical vascular lesions but also extravascular granulomas.The purpose of this study is to review five autopsied cases of periarteritis nodosa and one case of sarcoidosis proved by biopsy. We would also like to consider the etiologic, clinical and histologic similarities between these two conditions, hitherto considered as distinctly separate entities.CASE REPORTSCase 1. This 21 year old white male was perfectly well until two days prior to admission, when he developed...Bibliography1. Adelson L: Periarteritis nodosa in infancy, J. Pediat. 39: 346, 1951. CrossrefMedlineGoogle Scholar2. Arkin A: Clinical and pathological study of periarteritis nodosa, Am. J. Path. 6: 401, 1930. MedlineGoogle Scholar3. BaggenstossShickPolley AHRMHF: Effect of cortisone on lesions of periarteritis nodosa, Am. J. Path. 27: 537, 1951. MedlineGoogle Scholar4. Baker LA: Periarteritis nodosa with report of two cases, Ann. Int. Med. 17: 223, 1942. LinkGoogle Scholar5. Banks BM: Is there a common denominator in scleroderma, dermatomyositis, disseminated lupus erythematosus, Libman-Sacks syndrome and polyarteritis nodosa? New England J. Med. 225: 433, 1941. CrossrefGoogle Scholar6. Barnumde TakatsDelkart DRGRE: Periarteritis nodosa following thiouracil therapy of hyperthyroidism, Angiology 2: 256, 1951. CrossrefMedlineGoogle Scholar7. Bergstrand H: Morphological equivalents in polyarthritis rheumatics, periarteritis nodosa, etc., J. Path. and Bact. 58: 399, 1946. CrossrefMedlineGoogle Scholar8. Berne RM: An unusual sensitivity reaction to penicillin: report of a case with autopsy findings, New England J. Med. 242: 814, 1950. CrossrefMedlineGoogle Scholar9. Boyd LJ: Periarteritis nodosa, abdominal manifestations, Bull. New York M. Coll., Flower and Fifth Ave. Hosps. 4: 27, 1941. Google Scholar10. Boyd LJ: Pulmonary manifestations of periarteritis nodosa, Bull. New York M. Coll., Flower and Fifth Ave. Hosps. 7: 94, 1944. Google Scholar11. Brudno JC: Chronic relapsing febrile nodular nonsuppurative panniculitis (Weber-Christian disease), New England J. Med. 243: 513, 1950. CrossrefMedlineGoogle Scholar12. Case records of the Massachusetts General Hospital (Case 36381), New England J. Med. 243: 454, 1950. CrossrefMedlineGoogle Scholar13. Case records of the Massachusetts General Hospital (Case 37511), New England J. Med. 245: 978, 1951. CrossrefMedlineGoogle Scholar14. ChurgStrauss JL: Allergic granulomatosis, allergic angiitis and periarteritis nodosa, Am. J. Path. 27: 277, 1951. MedlineGoogle Scholar15. Contratto AW: Periarteritis nodosa: a report of two cases, one with special reference to sensitivity factors, Arch. Int. Med. 80: 567, 1947. CrossrefGoogle Scholar16. Current Comment: Saranac symposium on the beryllium problem, J. A. M. A. 137: 648, 1948. Google Scholar17. CurtisGrekin ACRH: Sarcoidosis. III. A review, M. Clin. North America 33: 31, 1949. CrossrefMedlineGoogle Scholar18. Curtis GH: Cutaneous hypersensitivity due to beryllium: a study of 13 cases, Arch. Dermat. and Syph. 64: 470, 1951. CrossrefGoogle Scholar19. Diaz-RiveraMiller RSAJ: Periarteritis nodosa, a clinicopathologic analysis, Ann. Int. Med. 24: 420, 1946. LinkGoogle Scholar20. Downing JG: The use of ACTH and cortisone in dermatology, New England J. Med. 246: 56, 1952. CrossrefMedlineGoogle Scholar21. Dupont A: Un cas de bouton d'orient a structure de sarcoide de Boeck, Ann. de dermat. et syph. 1: 453, 1930. Google Scholar22. EasonCarpenter JG: Treatment of acute rheumatic polyarthritis with concentrated antiscarlatinal serum, Quart. J. Med. 30: 93, 1937. Google Scholar23. Ehrich WE: Nature of collagen diseases, Am. Heart J. 43: 121, 1952. CrossrefMedlineGoogle Scholar24. FinkelsteinBrewnan WPJ: Periarteritis nodosa, brief review and case report, Connecticut M. J. 7: 104, 1943. Google Scholar25. Forsham PH: Present status of ACTH and cortisone in therapy, M. Clin. North America 35: 1229, 1951. CrossrefMedlineGoogle Scholar26. FrazierHu CNCK: Isolation of Treponema pallidum from subcutaneous sarcoid, Proc. Soc. Exper. Biol. and Med. 30: 898, 1933. CrossrefGoogle Scholar27. Freiman DG: Sarcoidosis, New England J. Med. 239: 664-671, 709-716, 743-749, 1948. CrossrefMedlineGoogle Scholar28. FriedbergGross CKL: Periarteritis nodosa (necrotizing arteritis) associated with rheumatic heart disease, Arch. Int. Med. 54: 170, 1934. CrossrefGoogle Scholar29. Gartside I</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2143608477</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/jb.01290-13</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Bauler &amp; Hackstadt (2014)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Expression and Targeting of Secreted Proteins from Chlamydia trachomatis</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Chlamydia trachomatis is an obligate intracellular pathogen that replicates in a vacuole termed the inclusion. Many of the interactions of chlamydiae with the host cell are dependent upon bacterial protein synthesis and presumably exposure of these proteins to the cytosol. Because of the dearth of genetic tools for chlamydiae, previous studies examining secreted proteins required the use of heterologous bacterial systems. Recent advances in genetic manipulation of chlamydia now allow for transformation of the bacteria with plasmids. We describe here a shuttle vector system, pBOMB4, that permits expression of recombinant proteins under constitutive or conditional promoter control. We show that the inclusion membrane protein IncD is secreted in a type III-dependent manner from Yersinia pseudotuberculosis and also secreted from C. trachomatis in infected cells where it localizes appropriately to the inclusion membrane. IncD truncated of the first 30 amino acids containing the secretion signal is no longer secreted and is retained by the bacteria. Cytosolic exposure of secreted proteins can be confirmed by using CyaA, GSK, or microinjection assays. A protein predicted to be retained within the bacteria, NrdB is indeed localized to the chlamydia. In addition, we have shown that the chlamydial effector protein, CPAF, which is secreted into the host cell cytosol by a Sec-dependent pathway, also accesses the cytosol when expressed from this system. These assays should prove useful to assess the secretion of other chlamydial proteins that are potentially exposed to the cytosol of the host cell.</t>
+        </is>
+      </c>
+    </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1519775132</t>
+          <t>https://openalex.org/W2086205440</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22260/isarc2007/0083</t>
+          <t>https://doi.org/10.1002/jmor.1050640103</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Ingawale (2007)</t>
+          <t>Mccurdy (1939)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>A Decision Theoretic Framework for Information System Planning in the Construction Industry</t>
+          <t>Mitochondria in liver cells of fed and starved salamanders</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A Decision Theoretic Framework for Information System Planning in the Construction Industry Myshkin Ingawale Pages 501-508 (2007 Proceedings of the 24th ISARC, Kochi, India, ISBN 978-81-904235-1-9, ISSN 2413-5844) Abstract: Automation and Information Systems (IS) implementation in the construction industry have evolved in scope and scale of effects over the years. With their growing importance, there is a need for a more practical IS planning approach. Along with the alignment of Information Technology Strategy with the overall corporate strategy of the firm, the Critical Success Factor method, the Value Chain method and other Opportunity frameworks emphasize the prioritization of the key processes for Information Systems planning. The effects of information technology on organizational hierarchy, internal power structures and control flows have been well documented. In the specifics pertaining to the construction industry, this involves a considerably risky transition from a multilevel hierarchy organizational structure to a relatively decentralized, flat organization. This paper presents a decision theoretic framework for Information Systems planning in the construction industry. The objective is to provide a comprehensive and unified approach for analysis and evaluation of the roles, scale and scope of Information Technology in the construction firm. This presupposes elicitation of requirements from a diverse set of stakeholders  managers, workers, suppliers and so on. One common problem is the difficulty in maintaining a sufficient degree of formalization and uniformity of structure to ensure effective communication across distributed design teams, while also ensuring adaptability and flexibility in the approach to accurately capture requirements elicitations of different users. The Cognitive Dimensions framework is an approach to analyzing the usability of information artifacts: Here, we apply it to the requirements elicitation process for IS planning in the Construction Industry. Keywords: IS Planning, Cognitive Dimensions, Requirements Engineering, Human-Centered Systems DOI: https://doi.org/10.22260/ISARC2007/0083 Download fulltext Download BibTex Download Endnote (RIS) TeX Import to Mendeley</t>
+          <t>Abstract In the hepatic cells of well‐fed salamanders (Triturus pyrrhogaster) elongated mitochondria predominate which exhibit a diversity of shapes. Starvation tends gradually to produce a shift in predominance from the elongated to the granular forms of mitochondria; terminally looped and ring‐shaped mitochondria also characteristic of the well‐fed condition, gradually become rare to absent. Beaded elongated mitochondria increase in number after short periods of fasting, and appear to be transitional between smooth elongated mitochondria and granular mitochondria. Re‐feeding tends to bring about a recovery of the mitochondrial picture of the well‐fed animals. There are exceptions to the above general trend which show that the length of starvation and digestive activity are not the only factors that account for the changes in the mitochondrial condition. A closer relation is found between the mitochondrial condition and the relative amounts of fat and glycogen in the cell. It can be stated as a rule that the shift in predominance from elongated mitochondria to granular mitochondria parallels the decrease in amount of fat and glycogen in the cell.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386212162</t>
+          <t>https://openalex.org/W2124284644</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsnano.3c03315</t>
+          <t>https://doi.org/10.1091/mbc.e11-09-0743</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Oh et al. (2023)</t>
+          <t>Kellogg &amp; Drubin (2011)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Highly Effective Salt-Activated Alcohol-Based Disinfectants with Enhanced Antimicrobial Activity</t>
+          <t>&lt;i&gt;MBoC&lt;/i&gt; 2011: same values, improved feng shui</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Surfaces contaminated with pathogens raise concerns about the increased risk of disease transmission and infection. To clean biocontaminated surfaces, alcohol-based disinfectants have been predominantly used for disinfecting high-touch areas in diverse settings. However, due to its limited antimicrobial activities and concern over the emergence of alcohol-tolerant strains, much effort has been made to develop highly efficient disinfectant formulations. In this study, we hypothesize that the addition of a physical pathogen inactivation mechanism by salt recrystallization (besides the existing chemical inactivation mechanism by alcohol in such formulations) can improve inactivation efficiency by preventing the emergence of alcohol tolerance. To this end, we employed the drying-induced salt recrystallization process to implement the concept of highly efficient alcohol-based disinfectant formulations. To identify the individual and combined effects of isopropyl alcohol (IPA) and NaCl, time-dependent morphological/structural changes of various IPA solutions containing NaCl have been characterized by optical microscopy/X-ray diffraction analysis. Their antimicrobial activities have been tested on surfaces (glass slide, polystyrene Petri dish, and stainless steel) contaminated with Gram-positive/negative bacteria (methicillin-resistant Staphylococcus aureus, Pseudomonas aeruginosa, and Salmonella enterica subsp. enterica Typhimurium) and viruses (A/PR8/34 H1N1 influenza virus and HCoV-OC43 human coronavirus). We found that additional salt crystallization during the drying of the alcohol solution facilitated stronger biocidal effects than IPA-only formulations, regardless of the types of solid surfaces and pathogens, including alcohol-tolerant strains adapted from wild-type Escherichia coli MG1655. Our findings can be useful in developing highly effective disinfectant formulations by minimizing the use of toxic antimicrobial substances to improve public health and safety.</t>
+          <t>Molecular Biology of the CellVol. 22, No. 21 EditorialFree AccessMBoC 2011: same values, improved feng shuiDouglas R. Kellogg, and David G. DrubinDouglas R. KelloggSearch for more papers by this author, and David G. DrubinSearch for more papers by this authorPublished Online:13 Oct 2017https://doi.org/10.1091/mbc.e11-09-0743AboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail INTRODUCTIONMolecular Biology of the Cell (MBoC) was conceived nearly 20 years ago as a journal that would be run by and for cell biologists under the auspices of the American Society for Cell Biology (ASCB). The goal was to provide the cell biology community with a journal that would enhance scientific communication among cell biologists by providing authors with rapid, rigorous, constructive, and fair peer review, as well as editorial decisions that were not constrained by journal space or perceived trends. Over the years, MBoC has come to epitomize these values and in so doing has become a pillar of the cell biology community. Today, the values remain the same, but as MBoC heads into its twentieth year we are happy to highlight what we are doing to be more essential and relevant than ever. ASCB ANNUAL MEETING ISSUE AND COVERAGEThis issue is MBoC's third annual special issue focused on the ASCB Annual Meeting. It includes a collection of fascinating essays by the recipients of the E. B. Wilson Medal, the Keith Porter Award, the Women in Cell Biology Awards, the E. E. Just Award, and the Early Career Life Scientist Award. Together with invited Perspective and Retrospective essays by other prominent cell biologists, these articles provide insight into research careers, education, mentoring, diversity, science advocacy, and how key discoveries were made.In addition, for the second year in a row, we have invited chairs of the ASCB Annual Meeting Minisymposia to write reviews of their sessions. These will be published early in 2012. A REVAMPED WEBSITEIn August, MBoC launched a new and improved website (www.molbiolcell.org). In addition to a more contemporary look, better and more flexible use of screen real estate, and enhanced functionality, the new website includes links to sites with information about careers, education, ASCB events, and cell biology resources. Other new features and functionality will be added in the coming months.A NEW DESIGNEarly this year MBoC rolled out a new design for the “print” (PDF) versions of articles and for the journal's cover and front matter. We've received positive feedback; users have commented that the new look makes articles more inviting and easier to read.EXPECTATIONS FOR RIGOROUS AND CONSTRUCTIVE PEER REVIEWMBoC published an Editorial (Drubin, 2011) about the peer review process, which included a set of guidelines for how editors and reviewers can ensure that papers submitted to MBoC receive a rigorous, constructive, and fair review. This editorial received an extraordinary response from the community. It is clear that many scientists are frustrated with the current state of peer review and that MBoC can be an important part of the solution.FEATURE ARTICLESIn 2010 MBoC started publishing Features articles on topics of interest to the cell biology community. These have focused on a broad range of topics, including how to carry out quantitative binding assays, the role of National Institutes of Health Program Directors, meeting reviews, how to support innovation and translational research, and the transformational role of deep sequencing techniques in Caenorhabditis elegans genetics. The Features articles provide the cell biology community with a forum for communicating new ideas about topics such as research, mentoring, careers, and cell biology techniques.A VENUE FOR PAPERS WITH A THEORETICAL COMPONENTMBoC recognizes that theoretical approaches will increasingly be necessary to unlock some of the most interesting and challenging mysteries in cell biology. To encourage and support publication of articles with a theoretical component, MBoC published an Editorial from a group of experts that outlined guidelines for preparing theoretical papers (Mogilner et al., 2011). In addition, MBoC published a Features article that provided advice on when a project will benefit from theoretical approaches (Fletcher, 2011).With these improvements, we anticipate that MBoC will do even better at serving the ASCB community. As always, we welcome suggestions for further improvements, as well as suggestions for new Features articles. This is your journal, so let us know how MBoC can best serve your needs!FOOTNOTES10.1091/mbc.E11-09-0743Douglas R. Kellogg is the Features Editor of Molecular Biology of the Cell. David G. Drubin is Editor-in-Chief.ACKNOWLEDGMENTSWe thank the ASCB Award winners for their excellent contributions to this volume. We also thank Larry Goldstein, Ted Salmon, and Clare Waterman for contributing excellent articles on science</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244716685</t>
+          <t>https://openalex.org/W2326603122</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5089/9781475554045.002</t>
+          <t>https://doi.org/10.1080/00221546.1939.11773667</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Fund (2013)</t>
+          <t>Williams (1939)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>The Republic of Yemen: 2013 Article IV Consultation</t>
+          <t>Health in Colleges</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Background: Political transition is advancing and economic reforms-supported by large external inflows including the 2012 Rapid Credit Facility (RCF)-helped Yemen stabilize its macroeconomy.However, the political and security situation remains fragile, and poverty and unemployment are widespread.Furthermore, the underlying fiscal deficit has recently widened, and large wage and subsidy outlays crowd out social spending and investment. Outlook and risks:The fledgling recovery is projected to continue over the medium term, supported by the implementation of the authorities' economic plans.However, stronger reforms and donor support are needed to achieve sustainable high and inclusive growth as well as prevent a deterioration in public debt and the external position.Delays in reforms, shortfalls in donor support, or sabotage activities that curtail oil and electricity supply could undermine the stabilization gains, reduce growth prospects, and threaten fiscal and external sustainability.Managing these risks will require an unwavering commitment to, and broad-based support for, the reform agenda, and careful contingency planning.Policy Discussions focused on how to safeguard macroeconomic stability, improve fiscal and external sustainability, and boost inclusive growth, while better protecting the poor.There was broad agreement on the need to reorient public expenditures to infrastructure and targeted transfers for social protection, increase non-hydrocarbon revenues, improve public finance management, and expedite structural policies to improve the business environment and develop the financial sector while preserving its stability.The authorities have announced initial measures to improve governance and efficiency in the energy sector.They agreed with staff on the need for comprehensive subsidies reforms, but are not ready to implement stronger measures that are needed to reduce the large energy subsidy bill.Postponing such reforms increases risks to macroeconomic stability and growth, hinders more effective social protection, and will require stronger adjustments down the road.</t>
+          <t>F THERE is any one movement or any one characteristic attitude and action which stands out above all else in an analysis of the changes in organization and purpose of our colleges and universities, that movement is the one toward wider vision and expansion of the educational field. The consequent quantitative growth of material for presentation to students is a result of increasing interest in new and oftentimes neglected fields of knowledge, an interest born of a belief that all aspects of life and living are important, where before some of them have been, perhaps, merely curious. I refer to this movement as being particularly significant only in the long-range view; there may be several recent changes and differences noticeable in our institutions that could claim priority in emphasis today. But surely my point is evident. The span of years from the time when universities were concerned primarily with Latin and Greek and mathematics to the present has seen several revolutions in our ideas of education. We passed through years when gradually not only more variety in the so-called cultural courses was offered, but when domestic, industrial, artistic, and mechanical interests of students were given attention in the curriculum, also. Now we at least approach a view which is aware of the individual as a mental, physical, and spiritual whole, and which consequently pays some attention to these other aspects of life, not solely to the mind as if it were a thing apart. The physical side of life, thencertainly the most obvious in one sense-has at last come clear and full into the ken of general education. It has come, also, into the consciousness of the man on the street. An interest, in fact one might even call it a concern in health, characterizes the modern age. In our popular books and in our advertisements we are health crazy, although I do not mean to imply that it is crazy to be so. Perhaps one of the reasons that this interest seems to be in some respects exaggerated is that it is, for most, a recent thing, a concern which was undreamed of many years ago. That we should now have wide participation among young and old, male and female, in games and varied athletic programs is not surprising, for these things are an outgrowth of a play instinct as old as human nature itself; but that we should have in our schools the teaching of hygiene, the study of nutrition, and the</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391994807</t>
+          <t>https://openalex.org/W3203145424</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.54097/crskx270</t>
+          <t>https://doi.org/10.1016/b978-0-12-821941-6.00021-9</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Mo &amp; Wu (2024)</t>
+          <t>García‐Ruiz (2022)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interpreting the Multiple Narrative Perspectives in Three of Us from the Stream of Consciousness</t>
+          <t>The glaciers of the Iberian Range</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Three of 'us is Yang Jiang' s review of the happy life about her two family members and herself in the past, so as to express her love to them. The narration of the book is plain and simple, the tone is moderate, and the narrative angle is diverse. The author mainly promotes the development of narrative plot through her free association and the transformation of dream, so as to make the narrative structure more compact. The adoption of the stream of consciousness technique contributes to the transformation of multiple narrative perspectives, and the two complement each other. The successful transformation of the narrative perspective also shows the effect of the stream of consciousness technique in the article.</t>
+          <t>The Iberian Range is home to various preserved glacial landforms and deposits inherited from the cold Quaternary periods. However, they are small in size due to the moderate altitudes of the peaks, located at heights slightly higher than 2000 m above sea level. A total of 108 Pleistocene glaciers have been identified, of which 62 are located in the Sierra de la Demanda, 19 in the Sierra de Cebollera, 16 in the Sierra de Urbión, 7 in the Sierra de Neila, 3 in the Sierra del Moncayo, and 1 in the Sierra de Albarracín. The lithological and structural diversity explains the varied types of landforms found here as well as the dimensions of the glaciers. Thus, the Demanda and Moncayo mountain ranges developed smaller glaciers on very resistant Paleozoic materials, which exceptionally allowed the formation of glacial tongues. On the other hand, the Neila, Urbión, and Cebollera mountain ranges, which are marked by slightly deformed Mesozoic materials, favored the development of large cirques with abrupt walls that gave rise to glacial tongues exceeding lengths of 2 km and were accompanied by numerous moraine deposits. The available data indicate that the outermost moraines were formed during the global Last Glacial Maximum, that is, around 20 ka, with frequent later advances between 17 and 140 ka. Several rock glaciers and debris-covered glaciers were formed at the end of the 18.9–14.6 ka period and the transition to the Bølling–Allerød, in some cases with activity up to the Early Holocene.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312956733</t>
+          <t>https://openalex.org/W3155491672</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tcss.2022.3219781</t>
+          <t>https://doi.org/10.12958/1817-3772-2020-4(62)-52-63</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Kafeza et al. (2023)</t>
+          <t>Stolyarov et al. (2020)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Time-Series Clustering for Determining Behavioral-Based Brand Loyalty of Users Across Social Media</t>
+          <t>Systemic Interaction of Center and Regions in Ukraine (basics of national-civilizational security)</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>In recent years social media data analytics allow enterprises to adopt a data driven approach to manage their processes. Although social media provide a plethora of data, still much work needs to be done to transform these data into services that businesses can use and make insightful decisions. In this work, we address one of the most important problems in business, the relationship with the customers and more precisely the identification of loyal customers. We use behavioral analytics to model and process customer actions. We extract user behavior based on our unified crawling approach and collect data from three different social media namely Reddit, Twitter and YouTube. We are extracting for each user three different behaviors namely communication, sentiment and product mix and convert them into a 3-D time-series. We use shapelet clustering to determine the loyal users. To verify our approach, we develop a set of metrics based on trust, commitment and engagement and we show that our approach results in differentiating the loyal users successfully. Moreover, we validate our results presenting a word cloud visualization. We extend our methodology introducing a semantic data transformation algorithm where we use the topic extraction, reducing the time-series to a more relevant one. Our experiments show that based on the verification metrics, our transformation increases the accuracy of the clustering results.</t>
+          <t>The article poses and solves the problem of achieving coordinated interaction between the Center and the Regions as a single, organic and dynamic system of a sovereign independent state. Modern approaches of liberal and planned principles of overcoming bureaucratic and corrupt arbitrariness and urgent resuscitation with intensive revival of economic and vital activity of Ukraine, which is purposefully destroyed under external influence, are considered. The main provisions of the report of the President of France Emmanuel Macron in August 2019 on the Great Fracture in European and world civilization processes are revealed. The main ideas and directions of the Plan of the Great Reset and implementation of the fourth industrial revolution of June 2020 of the Davos World Economic Forum are presented. A meaningful chronology of the formation of the organizational mechanism for the introduction of inclusive capitalism and its management and staffing is given. The equivalence of the principles of homeostasis of economic and biological systems is considered by comparing the restoration of the viability of the global network economy and marine biological systems (on the example of a vampire octopus). Generalized signs of international and state terrorism in Ukraine. The necessity to change the Anglo-Saxon model of open market economy to socially oriented one using the doctrine of 3 "S": social forecasting, social planning and social management is substantiated. It is proposed to use the experience of the United States and Great Britain on social planning and the European financial model of people's capitalism. Based on the proposals of Emelyanov O.S. to enhance the role of the Center in cooperation with the Regions, it is recommended to develop National and Regional Human Development Programs. It is proposed to develop a Planning Code of Ukraine based on the provisions of the model of socially adequate management with encyclopedic criteria for their use at the national and regional levels of government.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200074825</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.cub.2021.11.041</t>
+          <t>https://openalex.org/W2782401343</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Fiete (2021)</t>
+          <t>Subramani (2016)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Ila Fiete</t>
+          <t>Investigation of Transition Metal Oxides towards Development of Functional Materials for Visible Light Absorption/Emission and Reversible Redox Lithium Deinsertion/Insertion</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
-        <is>
-          <t>Interviewed by Maxine Herman-Oakley Mills Ila Fiete is Professor of Brain and Cognitive Sciences at Massachusetts Institute of Technology, an Associate Member of the McGovern Institute, and the Director of the K. Lisa Yang Integrative Computational Neuroscience Center. Before joining MIT in 2018, Ila worked at the University of Texas at Austin, where she first started her group and joined the faculty as an Assistant Professor, working in the Center for Learning and Memory as well as the Department of Neuroscience. Prior to UT Austin, Ila completed her postdoctoral training first at the Kavli Institute for Theoretical Physics at the University of California, Santa Barbara and then as a Broad Fellow at the California Institute of Technology. Ila has a PhD from the Department of Physics at Harvard, though her research already involved work in neuroscience with Sebastian Seung at this time, and she completed her undergraduate work at the University of Michigan in Ann Arbor, studying physics and mathematics, as well as philosophy. Before this, Ila studied primarily in various places in Mumbai (formerly Bombay) in India where she grew up, spending much of her elementary, middle, and high school years going back and forth between Mumbai and Princeton and Berkeley, both in the US, as a result of her father’s work. Her group is interested in trying to understand the microscopic cellular and synaptic dynamics, principles, and processes that give rise to the rich behaviors of memory and cognition in the brain, trying to determine how interesting functions and memory emerge from these very low-level interactions. Over the last decade and a half the group has studied spatial navigation circuits, which provide a unique insight into cognitive computations while also allowing the team to address questions at the cellular and circuit levels. What turned you on to physics and biology in the first place? Of all the sciences, I was always most intrigued by biology, even as a child. I didn’t study biology seriously during my undergraduate work or even at the beginning of graduate school because I didn’t know if there was a path in biology that involved more computational and mathematical approaches. I felt like my drive to be a scientist was to do more analytical or theoretical work and, as I did not have exposure to any theoretical work in biology, I had no idea that this was a possible option. So I continued in math and physics. When I went to graduate school to study physics, I hoped that there might be a path into biophysics. Quite accidentally, as I was looking around for something to do in biology, I ended up taking a class at MIT taught by Sebastian Seung. It was a computational systems biology class that surveyed many different topics but approached them in a computational way, aiming to understand things like gene–protein interactions, regulation systems, molecular binding kinetics, and cell-molecular circuits, as well as a little bit of neuroscience at the end. I really enjoyed that class. It was finally the exact space that I wanted to work in and I thought Sebastian was an amazing person and teacher, so I asked to join his group, not knowing much of anything about neuroscience. So your time in Sebastian’s group really helped to decide the future direction of your studies? Yes, very much so. Sebastian is actually a physicist — a theoretical physicist by training. That’s probably in part why the way he taught that class resonated with me: we had a common background, though by that point he had already moved fully into working on statistical learning theory and computational neuroscience. So, in joining his group, I had essentially made the decision — though without knowing exactly what that meant at the time — that I would be working in computational neuroscience as well. It was a fascinating field and it gripped me immediately. Ever since then, I haven’t looked back; this was where I learned about neurons and computational neuroscience for the first time and this is the area that I have been working in ever since. Are there any mentors beside Sebastian who had a great impact on you? Yes, so many along my whole journey. There have always been academic mentors and teachers who have had a tremendous influence on me. They are examples of the importance of having someone in such a position who believes in you. I would say that some of the earliest influences I remember go all the way back to middle school, to teachers who nurtured my interests in Science or English or Art — those teachers who convey the faith that you have something to contribute. This is a huge encouragement, so a big shout out to Ms Stone from my middle school days in Mumbai, as well as Ms Stangl and Mr Collins from Huron High, Ann Arbor. These are people who are amazing and fun teachers — who just make learning enjoyable — and I really wish that more kids could have this kind of opportunity to really enjoy their STEM subjects and various others; I thin</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2143608477</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1128/jb.01290-13</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Bauler &amp; Hackstadt (2014)</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Expression and Targeting of Secreted Proteins from Chlamydia trachomatis</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Chlamydia trachomatis is an obligate intracellular pathogen that replicates in a vacuole termed the inclusion. Many of the interactions of chlamydiae with the host cell are dependent upon bacterial protein synthesis and presumably exposure of these proteins to the cytosol. Because of the dearth of genetic tools for chlamydiae, previous studies examining secreted proteins required the use of heterologous bacterial systems. Recent advances in genetic manipulation of chlamydia now allow for transformation of the bacteria with plasmids. We describe here a shuttle vector system, pBOMB4, that permits expression of recombinant proteins under constitutive or conditional promoter control. We show that the inclusion membrane protein IncD is secreted in a type III-dependent manner from Yersinia pseudotuberculosis and also secreted from C. trachomatis in infected cells where it localizes appropriately to the inclusion membrane. IncD truncated of the first 30 amino acids containing the secretion signal is no longer secreted and is retained by the bacteria. Cytosolic exposure of secreted proteins can be confirmed by using CyaA, GSK, or microinjection assays. A protein predicted to be retained within the bacteria, NrdB is indeed localized to the chlamydia. In addition, we have shown that the chlamydial effector protein, CPAF, which is secreted into the host cell cytosol by a Sec-dependent pathway, also accesses the cytosol when expressed from this system. These assays should prove useful to assess the secretion of other chlamydial proteins that are potentially exposed to the cytosol of the host cell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2086205440</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/jmor.1050640103</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Mccurdy (1939)</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Mitochondria in liver cells of fed and starved salamanders</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Abstract In the hepatic cells of well‐fed salamanders (Triturus pyrrhogaster) elongated mitochondria predominate which exhibit a diversity of shapes. Starvation tends gradually to produce a shift in predominance from the elongated to the granular forms of mitochondria; terminally looped and ring‐shaped mitochondria also characteristic of the well‐fed condition, gradually become rare to absent. Beaded elongated mitochondria increase in number after short periods of fasting, and appear to be transitional between smooth elongated mitochondria and granular mitochondria. Re‐feeding tends to bring about a recovery of the mitochondrial picture of the well‐fed animals. There are exceptions to the above general trend which show that the length of starvation and digestive activity are not the only factors that account for the changes in the mitochondrial condition. A closer relation is found between the mitochondrial condition and the relative amounts of fat and glycogen in the cell. It can be stated as a rule that the shift in predominance from elongated mitochondria to granular mitochondria parallels the decrease in amount of fat and glycogen in the cell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2124284644</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1091/mbc.e11-09-0743</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Kellogg &amp; Drubin (2011)</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;MBoC&lt;/i&gt; 2011: same values, improved feng shui</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Molecular Biology of the CellVol. 22, No. 21 EditorialFree AccessMBoC 2011: same values, improved feng shuiDouglas R. Kellogg, and David G. DrubinDouglas R. KelloggSearch for more papers by this author, and David G. DrubinSearch for more papers by this authorPublished Online:13 Oct 2017https://doi.org/10.1091/mbc.e11-09-0743AboutSectionsView PDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InRedditEmail INTRODUCTIONMolecular Biology of the Cell (MBoC) was conceived nearly 20 years ago as a journal that would be run by and for cell biologists under the auspices of the American Society for Cell Biology (ASCB). The goal was to provide the cell biology community with a journal that would enhance scientific communication among cell biologists by providing authors with rapid, rigorous, constructive, and fair peer review, as well as editorial decisions that were not constrained by journal space or perceived trends. Over the years, MBoC has come to epitomize these values and in so doing has become a pillar of the cell biology community. Today, the values remain the same, but as MBoC heads into its twentieth year we are happy to highlight what we are doing to be more essential and relevant than ever. ASCB ANNUAL MEETING ISSUE AND COVERAGEThis issue is MBoC's third annual special issue focused on the ASCB Annual Meeting. It includes a collection of fascinating essays by the recipients of the E. B. Wilson Medal, the Keith Porter Award, the Women in Cell Biology Awards, the E. E. Just Award, and the Early Career Life Scientist Award. Together with invited Perspective and Retrospective essays by other prominent cell biologists, these articles provide insight into research careers, education, mentoring, diversity, science advocacy, and how key discoveries were made.In addition, for the second year in a row, we have invited chairs of the ASCB Annual Meeting Minisymposia to write reviews of their sessions. These will be published early in 2012. A REVAMPED WEBSITEIn August, MBoC launched a new and improved website (www.molbiolcell.org). In addition to a more contemporary look, better and more flexible use of screen real estate, and enhanced functionality, the new website includes links to sites with information about careers, education, ASCB events, and cell biology resources. Other new features and functionality will be added in the coming months.A NEW DESIGNEarly this year MBoC rolled out a new design for the “print” (PDF) versions of articles and for the journal's cover and front matter. We've received positive feedback; users have commented that the new look makes articles more inviting and easier to read.EXPECTATIONS FOR RIGOROUS AND CONSTRUCTIVE PEER REVIEWMBoC published an Editorial (Drubin, 2011) about the peer review process, which included a set of guidelines for how editors and reviewers can ensure that papers submitted to MBoC receive a rigorous, constructive, and fair review. This editorial received an extraordinary response from the community. It is clear that many scientists are frustrated with the current state of peer review and that MBoC can be an important part of the solution.FEATURE ARTICLESIn 2010 MBoC started publishing Features articles on topics of interest to the cell biology community. These have focused on a broad range of topics, including how to carry out quantitative binding assays, the role of National Institutes of Health Program Directors, meeting reviews, how to support innovation and translational research, and the transformational role of deep sequencing techniques in Caenorhabditis elegans genetics. The Features articles provide the cell biology community with a forum for communicating new ideas about topics such as research, mentoring, careers, and cell biology techniques.A VENUE FOR PAPERS WITH A THEORETICAL COMPONENTMBoC recognizes that theoretical approaches will increasingly be necessary to unlock some of the most interesting and challenging mysteries in cell biology. To encourage and support publication of articles with a theoretical component, MBoC published an Editorial from a group of experts that outlined guidelines for preparing theoretical papers (Mogilner et al., 2011). In addition, MBoC published a Features article that provided advice on when a project will benefit from theoretical approaches (Fletcher, 2011).With these improvements, we anticipate that MBoC will do even better at serving the ASCB community. As always, we welcome suggestions for further improvements, as well as suggestions for new Features articles. This is your journal, so let us know how MBoC can best serve your needs!FOOTNOTES10.1091/mbc.E11-09-0743Douglas R. Kellogg is the Features Editor of Molecular Biology of the Cell. David G. Drubin is Editor-in-Chief.ACKNOWLEDGMENTSWe thank the ASCB Award winners for their excellent contributions to this volume. We also thank Larry Goldstein, Ted Salmon, and Clare Waterman for contributing excellent articles on science</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1986167736</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/09669760.2014.911078</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Petriwskyj et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Towards inclusion: provision for diversity in the transition to school</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Policies of inclusion challenge the construct of readiness and require schools to prepare for the diversity of children as they transition to school. However, there is limited empirical evidence concerning how this challenge is met. This paper presents two Australian studies that investigate inclusive practices in the transition to school. Study 1 examined the predictors of child outcomes across a sample of 1831 children in 39 schools. The results indicate that both quantity and quality of programme provision influenced outcomes and that programme effects were particularly potent for children with diverse abilities and backgrounds. Study 2 focuses on pedagogy in three of the schools to highlight how this provision can be achieved. Results show that provisions were reactive, that saliency of children's needs directed school practices and that professional knowledge impacted on measures of quality. Inclusive processes accounting for both child progress and broader family and teaching influences are necessary for improved transition to school.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2326603122</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/00221546.1939.11773667</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Williams (1939)</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Health in Colleges</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>F THERE is any one movement or any one characteristic attitude and action which stands out above all else in an analysis of the changes in organization and purpose of our colleges and universities, that movement is the one toward wider vision and expansion of the educational field. The consequent quantitative growth of material for presentation to students is a result of increasing interest in new and oftentimes neglected fields of knowledge, an interest born of a belief that all aspects of life and living are important, where before some of them have been, perhaps, merely curious. I refer to this movement as being particularly significant only in the long-range view; there may be several recent changes and differences noticeable in our institutions that could claim priority in emphasis today. But surely my point is evident. The span of years from the time when universities were concerned primarily with Latin and Greek and mathematics to the present has seen several revolutions in our ideas of education. We passed through years when gradually not only more variety in the so-called cultural courses was offered, but when domestic, industrial, artistic, and mechanical interests of students were given attention in the curriculum, also. Now we at least approach a view which is aware of the individual as a mental, physical, and spiritual whole, and which consequently pays some attention to these other aspects of life, not solely to the mind as if it were a thing apart. The physical side of life, thencertainly the most obvious in one sense-has at last come clear and full into the ken of general education. It has come, also, into the consciousness of the man on the street. An interest, in fact one might even call it a concern in health, characterizes the modern age. In our popular books and in our advertisements we are health crazy, although I do not mean to imply that it is crazy to be so. Perhaps one of the reasons that this interest seems to be in some respects exaggerated is that it is, for most, a recent thing, a concern which was undreamed of many years ago. That we should now have wide participation among young and old, male and female, in games and varied athletic programs is not surprising, for these things are an outgrowth of a play instinct as old as human nature itself; but that we should have in our schools the teaching of hygiene, the study of nutrition, and the</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2782401343</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Subramani (2016)</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Investigation of Transition Metal Oxides towards Development of Functional Materials for Visible Light Absorption/Emission and Reversible Redox Lithium Deinsertion/Insertion</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
         <is>
           <t>Materials chemistry basically deals with rational design and synthesis of new solids exhibiting various functional properties. A sound knowledge of crystal structures and chemical bonding is needed to understand the properties of materials. Space group, cell parameters and atomic positions provide a basic crystallographic description of the structure. Crystal structure could be described in a detailed way in terms of close packing of anions and occupancy of cations in different coordination sites. The coordination polyhedra and their interconnectivity bring out the interrelationships between different structures and the properties exhibited. 
 Transition metals (TMs) are d-block elements which occupy groups 3-12 in Periodic Table. IUPAC defines a TM as ‘an element whose atoms have partially filled d-shell, or which can give rise to cations with an incomplete d-shell’. The partially filled d-shell in TMs plays an important role in various chemical and physical properties of TMs. Although TM cations can form compounds with different anions, most of the TM containing compounds are metal oxides due to the large free energies for formation of oxides. Binary TM oxides adopt different kinds of structures among which rock salt (e.g. NiO), rutile (e.g. TiO2), and corundum (e.g. Cr2O3) are most common. Ternary TM oxides are also known to form in variety of structures with the perovskite (e.g. BaTiO3), and the spinel (e.g. MgFe2O4) structures being well known.
@@ -6758,192 +6614,337 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2955999718</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1538-7445.sabcs18-pl02-04</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Teh (2019)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Abstract PL02-04: Genomic and epigenomic studies of cholangiocarcinoma in diverse populations</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>It is well-known that Asian prevalent cancers are often associated with a pathogen or carcinogen. For example, hepatocellular carcinoma is driven by hepatitis B and C viruses, gastric cancer by Helicobacter pylori, and nasopharyngeal cancer by Epstein-Barr virus. In this presentation, we focus on biliary tract cancer or cholangiocarcinoma (CCA) of different etiologies which are associated with chronic carcinogenic exposures leading to distinct genomic and epigenomic changes. CCA is a malignant tumor of bile duct epithelial cells with very poor prognosis which accounted for approximately 5% of all primary liver cancers diagnosed worldwide. It is broadly divided into intrahepatic, perihilar, and distal CCAs which may differ in their spectrum and frequency of genetic alterations, possibly reflecting differences in cell of origin and tumorigenic process. CCA displays distinct molecular mechanisms that require different therapeutic regimes for effective treatment representing an important unmet clinical need. Similarly, the genomic and epigenomic changes may serve as effective biomarkers for disease detection and monitoring.Risk factors for CCA are related to geography and etiology. In Western countries, primary sclerosing cholangitis (PSC) is the most common risk factor of CCA, and other risk factors include hepatolithiasis, choledochal cysts, cirrhosis, diabetes, obesity, alcohol consumption and smoking. On the other hand, in the northeast region of Thailand, Laos and Cambodia, infestation of liver fluke called Opisthorchis viverrini (OV) has been associated with the highest incidence of CCA, with approximately 20,000 cases annually. Once ingested, OV can inhabit the biliary tract within the human host for over 10 years, promoting carcinogenesis potentially via 1) mechanical damage to the biliary epithelia caused by the feeding activities of the parasites, 2) immunopathology because of infection-related inflammation, 3) the toxic effects of parasite excretory/secretory molecules and 4) the disruption of the bile homeostasis. Furthermore, we and others have recently identified a potentially new risk factor for CCA, especially in China, Taiwan, South Korea and Singapore. Through mutation signature analysis on somatic genomic data, we observed an association of CCA with the herbal carcinogen Aristolochic Acid (AA), which is a natural compound exclusively found in plants of the Aristolochia genus used in traditional remedies for numerous indications.With the goal of better understanding the underlying oncogenic mechanisms in CCA, we characterized and compared the genetic and epigenetic changes in OV and non-OV driven and AA-related CCAs from different populations. We found that in non-OV driven CCA, mutations in epigenetic modifier genes including IDH1/2 and BAP1 are the main drivers whereas OV-infected tumors are characterized by frequent p53 mutations. These mutational differences set the stage for more in-depth epigenomic characterization and mechanistic dissection of the tumorigenic process. Our recent data indicate that OV driven CCAs display predominantly CpG Island DNA hypermethylation whereas non-OV driven CCAs are predominantly CpG Shore DNA hypermethylated. OV and non-OV CCAs also differ in their enhancer landscape: OV CCAs exhibit widespread activation of inflammatory response genes, while genes involved in maintenance of cell junction are disrupted in non-OV CCAs. Several lines of evidence also support that chronic inflammation can lead to aberrant DNA methylation and de novo enhancer activity. Consequently, chronic inflammation associated with OV infection may play a key role in setting up divergent enhancer landscapes between OV-related and non-OV CCAs.Other than OV and non-OV driven CCAs, AA represents a profound public health risk in Asia due to its wide use in herbal remedies. We found that AA exposure causes unique mutational signature of A:T to T:A transversion, with an antisense strand bias.We recently detected AA signature in many CCA cases, especially from Asian countries. At present, we are conducting epigenomics studies on AA-related CCAs to understand how AA may impact the epigenomic landscape of CCA.Our multi-omics analysis reflects the contrasting etiologies of CCA, strongly positing that the same disease manifestation can be in fact driven by vastly different molecular circuitries and that each patient should be treated with appropriately targeted therapy. These findings will deepen our understanding of early transformation events in CCA, which may lead to the development of relevant biomarkers and treatment regimens for each subgroup of CCA. As such, our study illustrates the value of investigating specific cancers in the context of diverse populations and etiologies.Citation Format: Bin Tean Teh. Genomic and epigenomic studies of cholangiocarcinoma in diverse populations [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2019; 2019 Mar 29-Apr 3;</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1976728998</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/bi991353h</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Wang et al. (1999)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Isolation of High-Affinity Peptide Antagonists of 14-3-3 Proteins by Phage Display</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>The 14-3-3 proteins interact with diverse cellular molecules involved in various signal transduction pathways controlling cell proliferation, transformation, and apoptosis. To aid our investigation of the biological function of 14-3-3 proteins, we have set out to identify high-affinity antagonists. By screening phage display libraries, we have identified a set of peptides which bind 14-3-3 proteins. One of these peptides, termed R18, exhibited a high affinity for different isoforms of 14-3-3 with estimated KD values of 7−9 × 10-8 M. Recognition of multiple isoforms of 14-3-3 suggests the targeting of R18 to a structure that is common among 14-3-3 proteins, such as the conserved ligand-binding groove. Indeed, mutations that alter critical residues in the ligand-binding site of 14-3-3 drastically decreased the level of 14-3-3−R18 association. R18 efficiently blocked the binding of 14-3-3 to the kinase Raf-1, a physiological ligand of 14-3-3, and effectively abolished the protective role of 14-3-3 against phosphatase-induced inactivation of Raf-1. The cocrystal structure of R18 in complex with 14-3-3ζ revealed the occupancy of the general binding groove of 14-3-3ζ by R18, explaining the potent inhibitory effect of R18 on 14-3-3−ligand interactions. Such a well-defined peptide will be an effective tool for probing the role of 14-3-3 in various signaling pathways, and may lead to the development of 14-3-3 antagonists with pharmacological applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2173065722</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.0014-3820.2004.tb00413.x</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rüber et al. (2004)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>EVOLUTION OF MOUTHBROODING AND LIFE-HISTORY CORRELATES IN THE FIGHTING FISH GENUS BETTA</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Abstract The origin of and evolutionary transitions among the extraordinary diverse forms of parental care in teleost fish remain largely unknown. The “safe harbor” hypothesis predicts that the evolution from a “guarding” to a “brooding” form of care in teleost fish is associated with shifts in reproductive and life-history features such as reduced fecundity, and increased egg volume with higher parental investment. Robust phylogenetic hypotheses may help to identify evolutionary changes in key traits associated with differences in the form of parental care. Here, we used reconstruction of ancestral character states to study the evolution of the two forms of parental care, bubble nesting and mouthbrooding in the fighting fish genus Betta. We also applied a comparative analysis using the phylogenetic generalized least-squares method to test the “safe harbor” hypothesis by evaluating differences between the two forms of parental care in standard length, life-history traits, and three habitat variables. Evolutionary hypotheses were derived from the first molecular phylogeny (nuclear and mitochondrial DNA sequence data; 4448 bp) of this speciose group. Ancestral character state reconstructions of the evolution of the form of parental care in the genus Betta, using the methods of unweighted parsimony and maximum likelihood, are uncertain and further indicate a high rate of evolutionary transitions. Applying different weights for the suspected directionality of changes, based on the consistent phenotypic and behavioral differences found between bubble nesters and mouthbrooders, recurrent origin of mouthbrooding in the genus Betta is favored using parsimony. Our comparative analyses further demonstrate that bubble nesters and mouthbrooders do not have a consistent set of life-history correlates. The form of parental care in Betta is correlated only with offspring size, with mouthbrooders having significantly bigger offspring than bubble nesters, but is not correlated with egg volume, clutch size, and broodcare duration, nor with any of the three habitat variables tested. Our results thus challenge the general predictions of the “safe harbor” hypothesis for the evolution of alternative brood care forms in the fighting fish genus Betta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4232628889</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5040/9781474290838.ch-011</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>NA (2017)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Personalized Education: Pedagogical Possibilities</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Possibilitiesproviders.This doesn't mean that technologies cannot push the boundaries of innovation or inspire transformation in practice.Quite the opposite.In many respects, the presence of touchscreens in the classroom has renewed interest in some effective pedagogies of the past, including creative teaching and child's authorship.In schools worldwide, touchscreens inspired the so-called 'maker movement' where students actively create and co-create the teaching content.A creative pedagogy effectively supports such approaches. Creative pedagogyIn Chapter 8, I discussed creativity in relation to the 5As, parent-child engagement and learning at home.As for creativity in schools, we find many synergies with children's autonomy, authorship and authentic engagement in the task.Based on their observations of creative teachers in British preschools, Cremin et al. (2006) proposed that the pedagogy of creative teachers is characterized by three key features: (1) the 'standing back' strategy, in which the teachers discursively position themselves as agents of possibilities or 'what if ' agents; (2) profiling learner agency, where teachers actively listen to children and engage in their activities; and (3) creating time and space in which learners' ideas are taken seriously and their independence is actively sought.Creative pedagogy is therefore best understood as a set of strategies adults can use to empower and support children.These strategies are not limited to school settings -to a large extent, we observed these strategies in the home context and in the ways father supported his daughter's text-making with digital and non-digital technologies (see Kucirkova &amp; Sakr, 2015).A creative pedagogy is a pedagogy that welcomes authorship and authenticity, and that empowers the child to be an independent learner and thinker.Creative pedagogy is therefore a perfect candidate for a pedagogy of personalized education.Creative pedagogy has been traditionally thought of as something teachers or caregivers, that is, real human beings, can do.However, with the advent of customisable technologies, affordable multimedia devices and intelligent personal assistants, creative pedagogy can be also embedded in a specific device.For instance, there are apps for film-making which provide some tips and advice through audiorecorded prompts or pop-up messages encouraging the creator along the production process.Also, some learning programmes are designed with tracking data to issue prompts and help according to the user's progress (see Chapter 3 and the technologyenabled personalization models).However, the design of the resources has focused on learning and convenience rather than creative activities.For adults' users, great progress has been made in terms of the personalized support provided by intelligent personal assistants, such as Siri or Google Now, developed for adults' use.These programmes provide tailored support in terms of supplying the user with requested information, and work best if they are combined with the use of several Internet-enabled devices (Internet of things) and several access points.However, the technology is used to support content delivery rather than content production and its optimal functioning necessitates the user's</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W11934560</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Medew &amp; Harden (2013)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Let the journey begin : cultivating student identity and a sense of belonging through a formal academic welcome</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Queensland University of Technology [QUT] Caboolture campus is a satellite campus co-located with Brisbane North Institute of TAFE. Building a sense of belonging on-campus continues to be challenging, with anecdotal evidence suggesting that QUT Caboolture students feel like second-class students, isolated from the prestige and excitement of the city campuses. A student identity and fostering a sense of belonging are fundamental to on-campus engagement and have been linked to retention (Field &amp; Morgan-Klein, 2010)._x000D_
+_x000D_
+A formal welcome ceremony, including an academic procession in full regalia, was a new inclusion for QUT Caboolture’s 2013 Orientation Day. The ritual was intended to be a temporal mark for students to recognise their personal transition and emerging identity as a university student. Cultural capital is one ingredient in a complex mix of interactions and relationships to build a sense of identity. (Ecclestone, Biesta &amp; Hughes, 2010). Fostering a sense of belonging and a connection to the campus and its staff was also anticipated. Students responded positively to the event, reporting feelings of excitement, inspiration and being welcomed into the university culture. The ceremony marked the beginning of the students’ journey together as QUT Caboolture students.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2791302190</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3997/2214-4609.201800098</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Ponomar (2018)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Phase transformation of soil iron minerals for identification by thermomagnetic analysis</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Phase transformation of goethite, hematite, and lepidocrocite was investigated by thermomagnetic analysis under oxidative and reducing condition. It is shown that the minerals reveal clearly diverse thermomagnetic behaviors. Hematite under oxidative condition does not change the magnetization, while under reducing condition, the magnetization of hematite increases significantly. The starting temperature of hematite to magnetite reduction is about 360 °C. Goethite under oxidative conditions has two changes in magnetization – the first at 50-100 °C is attributed to dehydration of the sample, the second at 270 °C indicates goethite to hematite transformation. Under reducing condition, goethite starts to transform to magnetite at 260 °C that is 100 °C lower than the temperature of hematite to magnetite reduction. Lepidocrocite under oxidation condition transforms to maghemite at 220 °C resulting in an increase in magnetization. Maghemite in turn transforms to hematite at 400 °C. Reducing condition leads to lepidocrocite transformation to magnetite. Obtained data can be useful for iron oxide and hydroxide identification in soils and sediments.</t>
+        </is>
+      </c>
+    </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213269074</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/genes13020380</t>
+          <t>https://openalex.org/W2968042269</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Alfieri et al. (2022)</t>
+          <t>Шепель &amp; Shepel (2017)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>A Primer for Single-Cell Sequencing in Non-Model Organisms</t>
+          <t>Методологічні підходи до типологізації економічної поведінки особистих селянських господарств</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Single-cell sequencing technologies have led to a revolution in our knowledge of the diversity of cell types, connections between biological levels of organization, and relationships between genotype and phenotype. These advances have mainly come from using model organisms; however, using single-cell sequencing in non-model organisms could enable investigations of questions inaccessible with typical model organisms. This primer describes a general workflow for single-cell sequencing studies and considerations for using non-model organisms (limited to multicellular animals). Importantly, single-cell sequencing, when further applied in non-model organisms, will allow for a deeper understanding of the mechanisms between genotype and phenotype and the basis for biological variation.</t>
+          <t>економіка, трудове селянське господарство._x000D_
+The purpose of the article. The aim of the study is to develop conceptual approaches to the functioning of private peasant farms. Research methods. Theoretical and methodological basis of the research is the work of domestic and foreign scientists on methodological approaches to the typology of economic behavior of personal peasant farms. As a result of the study, modern methods of general scientific and economic knowledge of socio-economic phenomena and processions were used: historical and monographic, dialectical, abstract-logical, graphic, and others. Main results and conclusions of the study. Among the socio-economic problems of the development of personal peasant economy, a special place belongs to the problem of its profitability, which is closely connected with the methods of realization of the production produced in it. The essence of this peculiarity is that the profitability itself, and otherwise, the economic expediency of conducting an economy, is the main condition for the existence of PF. She defined and will probably determine for a long time not only its existence, but also the structure, size, methods of product sales, general psychological mood and attitude towards it. The impact of the population's behavior on the economy of the PF has been analyzed. As a result, it is revealed: First, in this sphere a part of the country's social wealth is produced, and secondly, for some groups of population, it allows them to substantially improve their material condition, and thirdly, a part of the population at the same time. employed in social production and personal auxiliary farming. It is established that family farming is considered as the unity of peasant ownership, production, consumption, biological and social reproduction. It is proved that the subject of economic behavior in the investigated sphere is a family. It is homogeneous under the conditions of conducting a personal economy, in the family there are common plans for its content. They have different targets and plans for a personal economy, they use different methods to achieve optimal conditions for their conduct. There are two main reasons that determine the nature of economic behavior of the rural population in the PF: the diversity of needs and opportunities of families, as well as unequal conditions for the management of this household. It is determined that the most important external factor is interaction with agricultural enterprises, which is the basis for the survival of PF. Relations with them can take a different form depending on their technical and financial condition. The basic models of such relations are investigated. It is revealed that in addition to the relationship of PF with agricultural enterprises, their economic behavior is significantly influenced by the organization of procurement of products, the possibility of purchasing forages, the availability of economic buildings, equipment with mechanisms, household equipment and tools, landscaping of the site. It was investigated that the feature of industrial relations in PF is that the labor of family members does not have prices in the form of wages in the labor market. The payment of labor of employees – members of the household is carried out not in the cost of production, but in the final product. Revenues earmarked for consumption in kind and in cash, at the same time, become expenses for the life support of the family, including for the production of manpower. In family farming, costs and the structure of distribution are primarily formed under the pressure of social goals. Thus, the purpose of conducting PF is to achieve the necessary level of well-being of a rural household. The conducted analysis showed that the economic stability of PF is determined by the lack of competition from large agricultural enterprises due to different specialization of production. Significantly affect the formation of economic behavior of the population socio-economic characteristics of families, primarily because of the needs and level of satisfaction. Family needs depend on the quantitative and socio-demographic composition, the level of education of its members, their moral attitudes. The main types of PF have been identified and the peculiarities of their functioning, characteristics and conditions of their activity, as well as types of families forming these households have been analyzed. It is revealed that today, among most rural households, there is a rather slow transformation and adaptation to new economic conditions. Currently, there is a process of recovery of a natural consumer economy and turning it into a small-scale, activation of labor and economic functions of households. Each household combines in its daily activities the features of the commodity and natural-consumer methods, by types of employment and sources of income, uses all the reserves to avoid extreme poverty. Prevalence of a source of life support and a c</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2955999718</t>
+          <t>https://openalex.org/W4386385486</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.sabcs18-pl02-04</t>
+          <t>https://doi.org/10.1016/j.jacr.2023.08.029</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Teh (2019)</t>
+          <t>Schaefer &amp; Bedi (2023)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Abstract PL02-04: Genomic and epigenomic studies of cholangiocarcinoma in diverse populations</t>
+          <t>Introduction to the Teaching and Education Focus Issue</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>It is well-known that Asian prevalent cancers are often associated with a pathogen or carcinogen. For example, hepatocellular carcinoma is driven by hepatitis B and C viruses, gastric cancer by Helicobacter pylori, and nasopharyngeal cancer by Epstein-Barr virus. In this presentation, we focus on biliary tract cancer or cholangiocarcinoma (CCA) of different etiologies which are associated with chronic carcinogenic exposures leading to distinct genomic and epigenomic changes. CCA is a malignant tumor of bile duct epithelial cells with very poor prognosis which accounted for approximately 5% of all primary liver cancers diagnosed worldwide. It is broadly divided into intrahepatic, perihilar, and distal CCAs which may differ in their spectrum and frequency of genetic alterations, possibly reflecting differences in cell of origin and tumorigenic process. CCA displays distinct molecular mechanisms that require different therapeutic regimes for effective treatment representing an important unmet clinical need. Similarly, the genomic and epigenomic changes may serve as effective biomarkers for disease detection and monitoring.Risk factors for CCA are related to geography and etiology. In Western countries, primary sclerosing cholangitis (PSC) is the most common risk factor of CCA, and other risk factors include hepatolithiasis, choledochal cysts, cirrhosis, diabetes, obesity, alcohol consumption and smoking. On the other hand, in the northeast region of Thailand, Laos and Cambodia, infestation of liver fluke called Opisthorchis viverrini (OV) has been associated with the highest incidence of CCA, with approximately 20,000 cases annually. Once ingested, OV can inhabit the biliary tract within the human host for over 10 years, promoting carcinogenesis potentially via 1) mechanical damage to the biliary epithelia caused by the feeding activities of the parasites, 2) immunopathology because of infection-related inflammation, 3) the toxic effects of parasite excretory/secretory molecules and 4) the disruption of the bile homeostasis. Furthermore, we and others have recently identified a potentially new risk factor for CCA, especially in China, Taiwan, South Korea and Singapore. Through mutation signature analysis on somatic genomic data, we observed an association of CCA with the herbal carcinogen Aristolochic Acid (AA), which is a natural compound exclusively found in plants of the Aristolochia genus used in traditional remedies for numerous indications.With the goal of better understanding the underlying oncogenic mechanisms in CCA, we characterized and compared the genetic and epigenetic changes in OV and non-OV driven and AA-related CCAs from different populations. We found that in non-OV driven CCA, mutations in epigenetic modifier genes including IDH1/2 and BAP1 are the main drivers whereas OV-infected tumors are characterized by frequent p53 mutations. These mutational differences set the stage for more in-depth epigenomic characterization and mechanistic dissection of the tumorigenic process. Our recent data indicate that OV driven CCAs display predominantly CpG Island DNA hypermethylation whereas non-OV driven CCAs are predominantly CpG Shore DNA hypermethylated. OV and non-OV CCAs also differ in their enhancer landscape: OV CCAs exhibit widespread activation of inflammatory response genes, while genes involved in maintenance of cell junction are disrupted in non-OV CCAs. Several lines of evidence also support that chronic inflammation can lead to aberrant DNA methylation and de novo enhancer activity. Consequently, chronic inflammation associated with OV infection may play a key role in setting up divergent enhancer landscapes between OV-related and non-OV CCAs.Other than OV and non-OV driven CCAs, AA represents a profound public health risk in Asia due to its wide use in herbal remedies. We found that AA exposure causes unique mutational signature of A:T to T:A transversion, with an antisense strand bias.We recently detected AA signature in many CCA cases, especially from Asian countries. At present, we are conducting epigenomics studies on AA-related CCAs to understand how AA may impact the epigenomic landscape of CCA.Our multi-omics analysis reflects the contrasting etiologies of CCA, strongly positing that the same disease manifestation can be in fact driven by vastly different molecular circuitries and that each patient should be treated with appropriately targeted therapy. These findings will deepen our understanding of early transformation events in CCA, which may lead to the development of relevant biomarkers and treatment regimens for each subgroup of CCA. As such, our study illustrates the value of investigating specific cancers in the context of diverse populations and etiologies.Citation Format: Bin Tean Teh. Genomic and epigenomic studies of cholangiocarcinoma in diverse populations [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2019; 2019 Mar 29-Apr 3;</t>
+          <t>We are thrilled to bring you the inaugural JACR Focus Issue on Teaching and Education. Radiology education is undergoing a profound transformation, guided by the fusion of technological advancements, societal shifts, and the evolving demands of health care. Within the pages of this focus issue, JACR presents a diverse collection of articles that collectively offer a panoramic view of the current state and future directions of radiology education and underscore the paramount importance of evidence-based education methods. We have included 15 articles that provide insight into understanding new teaching and learning techniques that improve comprehension and knowledge retention, how to address new challenges related to the coronavirus disease 2019 pandemic, how to maximize the use of artificial intelligence (AI) in the training and continuing medical education learning environments, how to enhance trainee performance with behavioral modification, and unintended consequences of eliminating United States Medical Licensing Examination Step 1 scores.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313393268</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.25158/l11.2.8</t>
+          <t>https://openalex.org/W2614184621</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Collective et al. (2022)</t>
+          <t>O’Toole (2017)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Autistic, Surviving, and Thriving Under COVID-19</t>
+          <t>How the Revolution was Won</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>This article takes up Mia Mingus' call to 'leave evidence' of how we have lived, loved, cared, and resisted under ableist neoliberalism and necropolitics during COVID-19. We include images of artistic work from activist zines created online during the COVID-19 pandemic and led by the Re•Storying Autism Collective. The zines evidence lived experiences of crisis and heightening systemic and intersectional injustices, as well as resistance through activist art, crip community, crip knowledges, digital research creation, and the forging of collective hope for radically inclusive autistic futures—what zine maker Emily Gillespie calls 'The neurodivergent, Mad, accessible, Basic Income Revolution.' We frame the images of artistic work with a coauthored description of the Collective's dream to create neurodivergent art, do creative research, and work for disability justice under COVID-19. The zine project was a gesture of radical hope during crisis and a dream for future possibilities infused with crip knowledges that have always been here. We contend that activist digital artmaking is a powerful way to archive, theorize, feel, resist, co-produce, and crip knowledge, and a way to dream collectively that emerged through the crisis of COVID-19. This is a new, collective, affective, and aesthetic form of evidence and call for 'forgetting' ableist capitalist colonialism and Enlightenment modes of subjectivity and knowledge production that target different bodies to exploit, debilitate, and/or eliminate, and to objectify and flatten what it means to be and become human and to thrive together.</t>
+          <t>The story of the 1917 Russian Revolution is the story of a risen working class and also the story of the rise of Bolshevik Party. This article focuses on the crucial role played by the Bolsheviks. From participation in the first protests of February to the taking of power by the soviets — or worker’s councils — in Autumn 1917, the Bolsheviks made themselves the party of the masses.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3118275914</t>
+          <t>https://openalex.org/W2142207260</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/seo.2020.0024</t>
+          <t>https://doi.org/10.1111/1552-6909.12142</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Yoon (2020)</t>
+          <t>Maurer (2013)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Originless fantasy: Reading Korean modern and contemporary cultural history from feminist perspectives ed. by O Hyejin</t>
+          <t>Discharge Timeliness for Mother Baby Couplets: A Six Sigma Project to Improve Throughput</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Reviewed by: Originless fantasy: Reading Korean modern and contemporary cultural history from feminist perspectives ed. by O Hyejin Soo Ryon Yoon Wonbon eomneun pantaji: peminiseuteu sigak euro ingneun Hanguk hyeondae munhwasa [Originless fantasy: Reading Korean modern and contemporary cultural history from feminist perspectives] by O Hyejin (ed.), Pak Cha Minjeong, Yi Hwajin, Jeong Eunyeong, Kim Daehyeon, Han Chaeyun, Heo Yun, Yi Seunghui, Son Huijeong, An Sohyeon, Kim Hyojin, Kim Aera, Sim Hyegyeong, and Jo Hyeyeong. Seoul: Humanitas, 2020. 600 pp. Originless Fantasy is a 600-page opus written by fourteen authors who interrogate feminist cultural practices at a moment when feminism has become a contentious buzzword in South Korea. Based on a series of public lectures given in 2018, this edited volume is a timely response to the resurgence of public interest in feminism, which started as a reaction to a chain of events including the #MeToo Movement. The contributing pieces vary in terms of their topics, depths, disciplines, and methods. At first glance this volume will strike readers as somewhat unwieldy, but they will realize that the expansiveness is an intended effect pursued by the authors to collectively demonstrate against the practice of taxonomizing diverse works of feminist praxis. This move becomes a "fantasy" for radical transformation in cultural practices: The contributors imagine the fantasy of feminist praxis as nonnormative practices, which exceed formulaic oppositional binarism, e.g. masculinity vs. femininity, authenticity vs. appropriation, cisgender vs. transgender, heterosexual vs. non-heterosexual (8–9). This act critiques the reduction of [End Page 581] feminism to a "mechanical reversal" of an existing gendered arrangement of identities and cultural practices (9). The title starts to make sense here: if feminist scholarship maintains essentialist binary oppositions, it ultimately fails to explain nonnormative practices and desires as anything other than derivatives of the originary. The edited volume thus insists that we imagine slippages as a productive possibility that troubles oppositional binarism. The preface is followed by robust discussions of case studies in fourteen chapters. While chapters are roughly sequenced in chronological order in four segments, they are curated in a way that deflects from a "unified vision" (12) cohering to a singular feminist cultural history. Section One explores the sexual politics of deviant bodies in colonial and pre-1980s Cold War Korea. Pak Cha Min Jung [Pak Cha Minjeong]1 examines 1930s writings and discusses homicide cases involving women's same-sex relations, which shaped clinical pathology on women's deviance. Lee Hwajin [Yi Hwajin] explores ethnic crossdressing of Korean women in kimono in filmic representations. Their colonial mimicry conforms to the empire's demands and simultaneously troubles the ethnic distinction. Siren eun young jung [Jeong Eunyeong] interrogates the act of archiving yeoseonggukgeuk or women-only performance. Jung proposes sensorium as a way to understand the traces of queer subjects in yeoseonggukgeuk, problematizing the visual imperatives as the only form of archiving the performance form. Lastly, Kim Daehyun [Kim Daehyeon] examines the "diva" performers on the 1960s Walkerhill Hotel stage, including ciswomen and gender nonconforming talents. Their feminized performances furnished them with visibility even as they fought the statesanctioned commodification of women's bodies. Section Two enters the 1980s, when young women's pop-cultural consumption began to destabilize cultural normalcy and authenticity. Hahn Chaeyoon [Han Chaeyun] writes a unique contribution based on her own 1980s archival materials and experiences as a "fangirl." Han investigates the fans of singers Lee Sun-hee [Yi Seonhui] and Lee Sang-eun [Yi Sangeun], who fashioned themselves as tomboys. Expanding her discussion to include Amber of girl group f(x), Hahn offers an alternative genealogy of tomboy singers and [End Page 582] their fans as the agents who "queer" heteronormative cultural practices. Oh Hyejin [O Hyejin] recuperates the acts of reading Harlequin Romances and women's magazines in the 1980s. Oh concludes that women's reading culture was an experiment that allowed women readers to articulate sexual and intellectual desires, blurring the borders between literature and pop culture. Heo Yoon [Heo Yun] focuses on the popular romance comics series Blue and its 1990s women fandom. Heo reads possibilities of subversive metanarratives from Blue, which transgresses a heteronormative romance scenario through its subplots of homosociality, same-sex desires, and...</t>
+          <t>Purpose for the Program The purpose of the project was to improve the throughput and discharge timeliness of mother–baby couplets. The capacity on the mother–baby unit delayed care of the patients admitted to the labor and delivery unit for treatment and delivery. Six Sigma methodology application was enlisted to improve the care at discharge and provide a seamless discharge transition. Baseline measurements revealed that only 30% of mother–baby couplets was discharged by noon. Proposed Change The maternity throughput goals were to improve the rate of patients discharged by 12 p.m. from 31.5% to 50%, to have 75% of mother–baby couplets depart from the unit within 90 minutes of the last discharge, and to improve the skill level of the charge nurse to manage throughput. Implementation, Outcomes, and Evaluation An interdisciplinary team addressed processes. The methodology of Lean Six Sigma was applied. An improvement of 1.5% (30.5%) was noted. Areas that were stabilized through collaboration of the team were the services provided the day before discharge. Baseline data concluded that 69.1% of discharged patients left after 12 p.m., 55% of the deliveries occurred during the scheduled time frame, and low throughput. Lack of capacity to accommodate patients during periods of the day was identified. Stabilization of services before the day of discharge did not significantly improve throughput. The following processes on the day of discharge were not addressed: charge nurse ability, staff nurse ability, patient readiness for discharge, infant care, and physician discharge timeliness. The strategy for improvement included prepared designated charge nurses, a maternity discharge workflow indicator, and rapid cycle testing. The charge nurse ability was improved. The electronic discharge alert for mother and for infant was created. The maternity expected discharge list was completed each evening. Lactation consultation and documentation was developed within the electronic medical record. Phototherapy equipment consignment eliminated the wait for delivery and decreased readmissions for hyperbilirubinemia. The use of teletracking and transport aide expedited patients leaving the unit and maternity staff remained to care for other patients. Rapid cycle outcomes indicated that 47% of mother–baby couplets left the unit within rapid cycle three. The number of departures from the unit that took place within 90 minutes of the last discharge declined. Individual services and personal choice affected the data for couplet discharges. Average discharge time by 12 p.m. improved to 83%. A 12 p.m. discharge time has been normalized with correlation of consistency of application of processes. Implications for Nursing Practice Improved staffing ratios enhanced the ability to promote discharge timeliness. Patient perception improved and documentation for lactation services improved quality of care. Newborn readmissions declined by 75%. The purpose of the project was to improve the throughput and discharge timeliness of mother–baby couplets. The capacity on the mother–baby unit delayed care of the patients admitted to the labor and delivery unit for treatment and delivery. Six Sigma methodology application was enlisted to improve the care at discharge and provide a seamless discharge transition. Baseline measurements revealed that only 30% of mother–baby couplets was discharged by noon. The maternity throughput goals were to improve the rate of patients discharged by 12 p.m. from 31.5% to 50%, to have 75% of mother–baby couplets depart from the unit within 90 minutes of the last discharge, and to improve the skill level of the charge nurse to manage throughput. An interdisciplinary team addressed processes. The methodology of Lean Six Sigma was applied. An improvement of 1.5% (30.5%) was noted. Areas that were stabilized through collaboration of the team were the services provided the day before discharge. Baseline data concluded that 69.1% of discharged patients left after 12 p.m., 55% of the deliveries occurred during the scheduled time frame, and low throughput. Lack of capacity to accommodate patients during periods of the day was identified. Stabilization of services before the day of discharge did not significantly improve throughput. The following processes on the day of discharge were not addressed: charge nurse ability, staff nurse ability, patient readiness for discharge, infant care, and physician discharge timeliness. The strategy for improvement included prepared designated charge nurses, a maternity discharge workflow indicator, and rapid cycle testing. The charge nurse ability was improved. The electronic discharge alert for mother and for infant was created. The maternity expected discharge list was completed each evening. Lactation consultation and documentation was developed within the electronic medical record. Phototherapy equipment consignment eliminated the wait for delivery and decreased readmissions for hyperbili</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380904994</t>
+          <t>https://openalex.org/W2937360242</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-99193-3.00009-x</t>
+          <t>https://doi.org/10.4000/edso.5674</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Froesel et al. (2023)</t>
+          <t>Langé &amp; Kebaïli (2019)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Evolutionary perspective on peripersonal space and perception</t>
+          <t>Penser l’éducation au temps de l’anthropocène : conditions de possibilités d’une culture de l’engagement</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>In order to behave optimally in our environment, we must prioritize the diverse sensory and social information according to their relevance to our ongoing goals, internal states, and external context. The space directly close to the body represents a priority for survival purposes compared to more distant spaces. This space, called peripersonal space (PPS), when invaded by an object or even a conspecific generates defensive or avoidance behavior for the sake of self-protection. In this chapter, we describe this space that determines the limit between the self and the rest of the world, from an evolutionary point of view. We discuss how this space is dynamic and strongly dependent on physical, emotional, social, and cultural factors. The environment has greatly changed over hundreds of thousands of years, in parallel, and the human body has evolved and adapted to these changes. This is also the case of PPS, whether as a result of the transition to bipedalism, the use of increasingly sophisticated tools, or cultural and social pressures.</t>
+          <t>L'entrée du monde contemporain dans l'anthropocène, comme évènement civilisationnel global (Bonneuil et Fressoz, 2013) et sans attendre sa reconnaissance scientifique en tant que telle, impose au monde de l'éducation de participer aux changements en cours en vue de permettre aux publics, dans leur diversité culturelle et géopolitique, de prendre en compte et relever les défis qui en résultent.C'est notamment ce à quoi nous incite la feuille de route « Education 2030 » de l'UNESCO (2017).Dans le monde francophone, ces changements éducatifs prennent la forme des « éducations à », ensemble hétérogène de parcours éducatifs qui visent l'engagement des jeunes et le développement de compétences transférables (UNESCO, 2015) en vue de la durabilité.Pour autant, ces éducations ne sont pas en soit la source d'une transformation vertueuse de l'Ecole mise au service de celle, tout autant vertueuse, d'une transformation sociétale, car tout dépend des finalités retenues (Lange, 2017 ;Barthes, 2017) et des modèles pédagogiques convoqués (Franc et Lange, 2018).Ainsi, trois modèles coexistent actuellement et sont sources de tensions voire de controverses à leur propos : un « modèle cumulatif », vertical, d'empilement de connaissances laissant aux individus, eux aussi vertueux, le soin d'en tirer les implications d'action ; un « modèle techno-économiciste », antipolitique (Slimani et al 2017), réduisant l'agir à des technicités pratiques dont les finalités, indiscutables car bonnes par nature, s'imposeraient à tous ; et enfin un « modèle libéral » à finalité émancipatrice et donc critique, impliquant étayage par des modèles scientifiques, discussions et débats, et incertitude sur l'avenir.Si nous retenons le principe d'un engagement fondé sur la libre expression des choix individuels et collectifs, il y a alors besoin de réfléchir aux conditions de possibilité d'un tel projet émancipateur.Quatre conditions nous semblent alors nécessaires pour ce faire : penser le choix en termes de liberté réelle et non purement formelle au moyen de la théorie des « capabilités » et l'Ecole comme « environnement capacitant » (Janner-Raimondi, 2017) ; penser les défis sociétaux en termes d'enjeux (Lange, 2017), dans une perspective critique au moyen de leur (re)problématisation mais dans un contexte d'instabilité des savoirs, de problèmes flous (Fabre, 2017), et de la difficulté à dire le vrai, l'aléthurgie de Foucault (Foucault, 1984 ;Kebaïli et Azzouna, 2016) ; politiser ces enjeux et les savoirs qui y sont liés en les pensant non comme données objectives mais dans leur relation au pouvoir (Foucault, 1971 ;Kebaïli, 2015 ; Lange et Barthes, 2017) dans des pratiques de problématisation non formelle favorisant l'ouverture sur les espaces des autres, l'hétérotopie de Foucault ( 2001), conjuguant des hétérotopies de milieux et d'énoncées (Kebaïli et Azzouna, 2016).Cet article se propose ainsi d'élaborer et discuter ce modèle des conditions de possibilité d'une éducation au politique, visant l'engagement des jeunes pour une entrée non subit dans le monde de l'anthropocène.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232628889</t>
+          <t>https://openalex.org/W4243984855</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5040/9781474290838.ch-011</t>
+          <t>https://doi.org/10.1108/978-1-78754-317-120181014</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>NA (2017)</t>
+          <t>NA (2018)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Personalized Education: Pedagogical Possibilities</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Possibilitiesproviders.This doesn't mean that technologies cannot push the boundaries of innovation or inspire transformation in practice.Quite the opposite.In many respects, the presence of touchscreens in the classroom has renewed interest in some effective pedagogies of the past, including creative teaching and child's authorship.In schools worldwide, touchscreens inspired the so-called 'maker movement' where students actively create and co-create the teaching content.A creative pedagogy effectively supports such approaches. Creative pedagogyIn Chapter 8, I discussed creativity in relation to the 5As, parent-child engagement and learning at home.As for creativity in schools, we find many synergies with children's autonomy, authorship and authentic engagement in the task.Based on their observations of creative teachers in British preschools, Cremin et al. (2006) proposed that the pedagogy of creative teachers is characterized by three key features: (1) the 'standing back' strategy, in which the teachers discursively position themselves as agents of possibilities or 'what if ' agents; (2) profiling learner agency, where teachers actively listen to children and engage in their activities; and (3) creating time and space in which learners' ideas are taken seriously and their independence is actively sought.Creative pedagogy is therefore best understood as a set of strategies adults can use to empower and support children.These strategies are not limited to school settings -to a large extent, we observed these strategies in the home context and in the ways father supported his daughter's text-making with digital and non-digital technologies (see Kucirkova &amp; Sakr, 2015).A creative pedagogy is a pedagogy that welcomes authorship and authenticity, and that empowers the child to be an independent learner and thinker.Creative pedagogy is therefore a perfect candidate for a pedagogy of personalized education.Creative pedagogy has been traditionally thought of as something teachers or caregivers, that is, real human beings, can do.However, with the advent of customisable technologies, affordable multimedia devices and intelligent personal assistants, creative pedagogy can be also embedded in a specific device.For instance, there are apps for film-making which provide some tips and advice through audiorecorded prompts or pop-up messages encouraging the creator along the production process.Also, some learning programmes are designed with tracking data to issue prompts and help according to the user's progress (see Chapter 3 and the technologyenabled personalization models).However, the design of the resources has focused on learning and convenience rather than creative activities.For adults' users, great progress has been made in terms of the personalized support provided by intelligent personal assistants, such as Siri or Google Now, developed for adults' use.These programmes provide tailored support in terms of supplying the user with requested information, and work best if they are combined with the use of several Internet-enabled devices (Internet of things) and several access points.However, the technology is used to support content delivery rather than content production and its optimal functioning necessitates the user's</t>
+          <t>Citation (2018), "Index", Marsden, G. and Reardon, L. (Ed.) Governance of the Smart Mobility Transition, Emerald Publishing Limited, Bingley, pp. 167-174. https://doi.org/10.1108/978-1-78754-317-120181014 Publisher: Emerald Publishing Limited Copyright © 2018 Emerald Publishing Limited INDEX Apple (company), 6 Australia AV deployment, 125–127 urban planning, 126–127 context for interviews with planners of, 127–129 Australian Design Rules, 58 Automated vehicles (AV), 11, 20, 22, 52, 66, 70–71, 141 deployment frame, 124 deployment in Australia, 125–127 innovations, 43 in United Kingdom, 79–80 vehicles, 34 Automating transport in United Kingdom, 70–71 Automation, 66 Automobility, 4, 66, 140 in transport governance, 53–55 Autonomous vehicles. See Automated vehicles (AV) ‘B-riders’ implementation, 92–93 Behavioural change, 96–97 beneficial, 38 national Dutch programme and, 87 programmes, 89–90 in target groups, 86 Behaviours, 3, 45 adaptability and, 60 of early innovators, 4 Beter Benutten (BB), 87, 89–90 Biofuels, 37 BMW, 6, 23, 71 Brabant region, 92–93 Burn Fat Not Fuel (BFNF), 87, 90, 91 Business models, 8, 34, 111, 158 choice of, 37 of most ‘smart’ transport providers, 22 and resilience, 37–39 of smart mobility companies, 7 California Public Utilities Commission (CPUC), 110 Car sharing, 8, 52, 55–57 Categories, and framing in transport governance, 53–55 Centre on Connected and Autonomous Vehicles (CCAV), 73 Commodification of urban mobility, 43 Congestion, 10, 42–43 pricing, 116 Connected and Autonomous Vehicle (CAV), 74 Consumers, 72 protection, 42 Corporatized governance, 125, 133 Cruise Automation, 70–71 Culture, 3 hyper mobile, 26 wars, 29 Cyberattack, 39 Cycleways, 53–54 Decision-making processes, 89 Demand of mobility services, 20 Democracy, 69, 80, 161 decentralizing, 118 TM principles, 73 Democratic institutions, 160 Department for Business, Energy and Industrial Strategy, 73 Dependents, 89 Deviants, 89 Disruptive potential, 7 Disruptive transport businesses and modes, 54 Disruptive transport technologies, planning for AV deployment and urban planning in Australia, 126–127 fragmentation of effort, 133 government, 130–131 government as facilitator of integrated supply, 131–132 public sector knowledge gaps, 132–133 uncertainty hampering planning, 129–130 Diversity, TM principles, 73 Door-to-door mobility, 37 service, 26 ‘Drive Me London’ programme, 74–77 ‘Drive-by-wire’ technologies, 70 Driverless technologies. See Automated vehicles Driverless vehicles. See Automated vehicles Economy, 3, 23, 68 post-Brexit, 71 sharing, 25, 36–37, 52, 110, 111 Eindhoven (hub for technological innovation), 92 Electric mobility, 53 Epistemic experimentation, 54–55, 60 European MaaS Alliance, 36 Experimentation, 9, 69–70, 73–74, 162 absence in, 78 epistemic, 54–55, 60 places of, 78 from the operational and reflexive levels, 79–80 Facilitator, government as (integrated supply), 131–132 ‘First and last mile’, 57 Fiscal re-adjustment, 10 Footpaths, 53–54, 58 Fragmentation of effort, 133 Framing positive, 41 in transport governance, 53–55 Freedom, false promise of, 39–41 Full MaaS vision, 37 ‘Future technology adopters’, 78 General Motors, 126 Gett taxis, 42 Global Financial Crisis (GFC), 71 Global technology companies, 6 Google, 6 Governance, 5–6, 124, 127–128 capacities, 119 capacity transformation, 108–109 of governance, 6 implications for, 41–44 network, 8 outcomes, 115–120 processes, 67 smart mobility and, 6–12 urban, 34 See also Transport governance Governance challenges in era of ‘smart’ mobility autonomous mobility system, 22–23 fork in road, 26–29 negative externalities of mass car, 23–24 on-demand transport services, 26 transport governance, 24–25 transport projects, 21–22 Governmental capacity congestion charging in Stockholm, 112–114 disruption in transport sector, 106–108 policy success, implementation processes and governance outcomes, 115–120 ridesourcing in San Francisco, 109–112 transforming governance capacity, 108–109 Greenhouse gas emissions, 40 Hands-off approach, 21 mentality, 11 government, 144, 148 Hands-on governance, 11 government, 144 Hegemonic automobility, 52 High-profile technology companies, 113 House of Lords Science and Technology Select Committee (2017), 81n1 Implementation processes, 109, 115–120 Inclusivity, 69, 73, 80 Incremental politics, Transition Management (TM), 68 Industrial Strategy Green Paper, 72–73, 78 Information and communications technologies (ICT), 34, 39, 42 ICT-based aggregation services, 35 ICT-personal device, 94 network, 39 Infrastructure and Environment (I&amp;M), 90 Innovations, 8–9 Institutions, 3 Integrated supply, government as facilitator of, 131–132 ‘Intelligent Mobility Fund’ mechanism, 78 Interconnections, Transition Management (TM) levels, 79–80 Interdependence of organizations, 5 International Transport Forum, 22, 141, 163 Interviewees, 90, 130–131, 132 and fragmentation, 133 responses of, 89–90 and students, 97 Interviews with Australian planners, 127–129, 134 wi</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2659032272</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1299/jsmemecj.2013._g051046-1</t>
+          <t>https://openalex.org/W982507256</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Wakamatsu et al. (2013)</t>
+          <t>Algazi (2001)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>G051046 Study on Feedforward Control of Instability Waves in a Boundary Layer</t>
+          <t>La (re)institucionalización del Poder Legislativo en México</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>An improvement of the digital noise filter is attempted aimed at improving the system for the feedforward control of instability waves in a transitional flat-plate boundary layer. The older control method using the Chebyshev type filter had difficulty controlling the instability waves of plural frequencies. An Inverse Chebyshev type filter is adopted as a noise filter and its characteristics are compared to the Chebyshev type filter. The results show that the Inverse Chebyshev filter can ease the deformation of wave signals compared to the Chebyshev type filter.</t>
+          <t>This article proposes that the environment of plurality created by political democratization had a definitive impact in encouraging the adoption of the forms and principles of this kind of regimes in the institutional design that shapes the strategies and behavior of its members. This transformation is a consequence of changes experienced by the party system by introducing a new political balance that properly supports the development of plural representation in its chambers. Nevertheless, when concentrating in the parties important procedimental decisions related to this process, effective response of legislators to citizens demands is considerably shortened by discipline delivered to party leadership, something which can risk the possibility of a full democratic representation.</t>
         </is>
       </c>
     </row>

--- a/ch1_evidence_causes/data/samples_5.2_narrowed_criteria2.xlsx
+++ b/ch1_evidence_causes/data/samples_5.2_narrowed_criteria2.xlsx
@@ -387,2382 +387,1894 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389761872</t>
+          <t>https://openalex.org/W2479784797</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/2229754</t>
+          <t>https://doi.org/10.1057/9781137432094_10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pastor et al. (2023)</t>
+          <t>Brander et al. (2015)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COP28 Outcomes Report: Executive Summary</t>
+          <t>Collaborative Leadership for the Transformation of Health Systems</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Net Zero World, launched at COP26, is a flagship U.S. effort to partner with countries in accelerating transitions to clean energy systems. This initiative brings together world-class experts and resources from 10 U.S. Department of Energy national laboratories and nine U.S. government agencies. Collaboratively, they work with technical and government representatives from Argentina, Chile, Egypt, Indonesia, Nigeria, Singapore, Thailand, and Ukraine to advance decarbonization in these economies.</t>
+          <t>Globally, collaborative leadership has gained much attention in academic fora as a concept to achieve socially accountable education and health systems change for improved regional and local health outcomes. The authors of the Lancet Commission 2010 report, Health professionals for a new century: Transforming education to strengthen health systems in an interdependent world, put forward their vision of global health equity for high-quality comprehensive health services (Frenk et al., 2010). To achieve this vision, they advised that the reform needed in health professional education must be led by changes in two proposed directions: 1) transformative learning, and 2) interdependence in education. Transformative learning is best understood in the context of three successive and interconnected forms of learning: informative, formative and transformative. Informative learning is the process of acquiring knowledge and skills. Formative learning includes processes of socializing students about professional values. Transformative learning ‘is about developing leadership attributes; its purpose is to produce enlightened change agents’ (Frenk et al., 2010: 1924). The Commission posited that transformative learning would position health leaders to work collaboratively across professional, system, regulatory and local boundaries to lead change toward ‘locally responsive and globally connected teams’ (Frenk et al., 2010: 1924). Their second desired direction for educational</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307930458</t>
+          <t>https://openalex.org/W2486909579</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2210.16910</t>
+          <t>https://doi.org/10.1108/s1479-3679(2010)0000014015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Blanchard et al. (2022)</t>
+          <t>Sanyal (2010)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Using parity-nonconserving spin-spin coupling to measure the Tl nuclear anapole moment in a TlF molecular beam</t>
+          <t>Socialist, post-socialist, and post-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An experiment utilizing a TlF molecular beam is being developed by the CeNTREX collaboration to search for hadronic interactions that violate both time-reversal (T) and parity (P) invariance. Here we propose to use the same beam to look for a T-invariance conserving but P-nonconserving (PNC) effect induced by the anapole moment of the Tl nucleus, via a vector coupling of the two nuclear spins in TlF. To measure the nuclear anapole moment, the dc electric and magnetic fields in CeNTREX are replaced by rf fields resonant with a nuclear spin flip transition. We adapt the relativistic coupled cluster method in a combination with relativistic density functional theory for the calculation of the molecular PNC spin-spin vector coupling constant that links the experimental signal with the anapole moment. The value of the P-conserving spin-spin coupling constant calculated within the same approach is found to be in good agreement with available experimental data.</t>
+          <t>This chapter explores the case of post-socialist education transformations in Nicaragua. While less commonly known to have been a full participant in the Cold War, Nicaragua's conflict with the United States during the 1980s was underlain by a socialist/capitalist struggle. Education reforms in Nicaragua thus present an important example of a complex interplay between socialism and post-socialism in the context of Latin America. The case of Nicaragua is also significant because of its recent reelection of the same government that was in power during the socialist period, thus reflecting a reemerging mix of capitalist and socialist elements in education. The analysis focuses on important political periods in the last 30 years and responds to the following questions: What are the post-socialist education transformations that have occurred in Nicaragua? And, how have the directions of the reforms been shaped by international, national, and local political and economic factors? Drawing on qualitative policy analysis and interviews with various groups of education stakeholders, the findings highlight three specific dynamics of reforms. These dynamics highlight the complex nature of the reform processes, including the Nicaraguan government's relationship with and the role of international donor organizations, differing notions of “local participation” that signify the shifting role of civil society, and continuities and discontinuities in policy processes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231953898</t>
+          <t>https://openalex.org/W1975178141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-77890-7_17</t>
+          <t>https://doi.org/10.1111/jbg.12073</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Shackel &amp; Fiske (2018)</t>
+          <t>Hirooka (2014)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Conclusion</t>
+          <t>Marbled &lt;scp&gt;J&lt;/scp&gt;apanese Black cattle</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The conclusion discusses the key issues and conceptual challenges raised throughout the volume, highlighting the connections and relationships between different elements of transitional justice. Rather than reaching any firm ‘answers,’ the conclusion articulates the ways in which both theoretical and political tensions manifest in specific settings whether at national and global levels such as through prosecutions, or in highly specific settings such as Kenyan women’s engagement with electoral processes or Quechua women’s use of Peru’s Comisión de la verdad y Reconciliación (CVR) as a site of agency. The conclusion identifies the foundational tensions in need of rethinking to help drive the multitude of small shifts, recalibrations, and reframings needed to transform how transitional justice is fundamentally understood and enabled.</t>
+          <t>Wagyu is a general term used for native Japanese beef breeds (‘wa’ means ‘Japanese’ and ‘gyu’ means ‘cattle’). Wagyu cattle consist of four beef breeds, all of which belong to Bos taurus: the Japanese Black, Japanese Brown, Japanese Shorthorn and Japanese Polled. In 2010, a total of 737 281 breeding cows of all four Japanese beef breeds were counted nationwide; the Japanese Black cattle is the predominant breed and accounted for 97% with nationwide distribution. The other three breeds are minor and regional breeds; the Japanese Brown is mainly distributed in Kumamoto Prefecture in Kyushu island and Kochi Prefecture in Shikoku island, the Japanese Shorthorn in Tohoku region (north-eastern areas in main island) and the Japanese Polled only in Yamaguchi Prefecture (western area in main island). About 510 thousand heads of Japanese beef (Wagyu) feedlot steers and heifers and culled cows are slaughtered annually, and beef supply from Japanese beef cattle was 155 thousand tons (17.8% of total beef supply including imported beef) in 2010. The average retail prices in meat shops for outside-loin and sirloin cuts from Japanese beef cattle are $55 and $113/kg, respectively, whereas those from the USA beef are $21 and $40/kg for the same parts. Historically, over approximately 1200-year span from the year 676 until the Meiji Revolution in 1868, there had been no meat consumption culture in Japan because Buddhism prohibited eating meat. Japanese native cattle were used only as a draft tool for paddy rice cultivation, mining and transportation. During the early 19th century, inbred strains based on dam lines were built up by breeders (wealthy farmers and cattle dealers) in mountain areas in Chugoku districts at the west side of Japan's main island, Honshu. These strains were named ‘Tsuru’, which means ‘vine plants’. Interestingly, the breeding procedure used was similar to the close and continued inbreeding of Hereford and Shorthorn cattle practiced by Robert Bakewell and the Collong brothers in England. It is notable that the same types of inbred strains of cattle were established during the same period in both the Western world and the Far East although there was no academic or cultural exchange between the two worlds in those years. After the Meiji Revolution, the new government discontinued the prohibition on eating meat to introduce Western food habits and other aspects of Western culture. Various British and continental breeds such as Shorthorn, Brown Swiss, Devon, Simmental and Ayrshire were imported into Japan and were crossed with native cattle by local prefectural governments. However, none of these crossing efforts were successful, due to the inferior draft performance of the crossbreds, although crossbred animals were larger and produced more milk. No further crossing with foreign breeds was conducted after 1910. Nevertheless, because of the crossbreeding under local governments, the genetic diversity of the breeds was greatly expanded. In 1919, a registration system was organized in each prefecture according to the decision of the Japanese government, and selection on favourable traits utilizing variation from both native and foreign ancestors was started with the aim to have uniform conformation and quality of the cattle. Consequently, the cattle raised in the prefectures formed the four breeds; the Japanese Black, Japanese Brown and Japanese Polled were established as pure breeds in 1944, followed by the Japanese Shorthorn in 1957. Since the 1960s, with the rapid growth of the Japanese economy and the mechanization of crop production at the time, the use of the breeds has shifted from draft animals to beef production. The official cattle performance and progeny testing programmes for beef production started in 1968, and the testing schemes in central stations were established. In Japan, the carcass value has been determined by meat quality, primarily the degree of marbling. Since the liberalization of beef importations in 1991, marbling has been emphasized more and more as a reason to differentiate domestic beef from imported beef. Clear positive genetic trends for marbling of Japanese beef breeds have been realized by introducing field progeny testing programmes using carcass records collected at slaughter houses and processed by the BLUP method (Sasaki et al. 2006, J. Anim. Sci., 84, 317–323). Marbling is evaluated using the 12-point beef marbling standard (BMS score 1–12) with number 12 being best. The Japanese Black is known to have extremely superior marbled beef-producing ability among the four breeds. There is much genetic variation in the BMS score in the Japanese Black (Oyama 2012, Anim. Sci. J., 82, 367–373), and it is noticeable that there is a low or even negative genetic correlation between the BMS score and the subcutaneous fat thickness for Japanese Black (Oyama 2012) and also Japanese Brown (Hirooka et al. 1996, J. Anim. Sci., 74, 2112–2116). These favoured characteristics of the breeds en</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4393049949</t>
+          <t>https://openalex.org/W3104757856</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oso/9780192866264.003.0016</t>
+          <t>https://doi.org/10.1016/s0375-9474(00)00455-3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Motoyama (2024)</t>
+          <t>Nebauer &amp; Aichelin (2001)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Evolution of an Entrepreneurial Ecosystem in St. Louis, United States</t>
+          <t>Thermodynamics — a valuable approach to multifragmentation?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Abstract While studies of entrepreneurship and local systems—so-called entrepreneurship ecosystems—have grown exponentially in the past decade, most have been cross-sectional, and we still have limited understanding about the evolution of the ecosystem. Building upon the author’s earlier work, this chapter conducts an exploratory analysis of St. Louis, Missouri, over about fifteen years, during which the stakeholders in the region gained confidence as an upcoming entrepreneurial hub with increased venture capital investment and successful exits. The region has also experienced substantial transformation with privatization of support services and major reorientations by non-profit organizations, partially induced by a radical reduction in government funding. As a result, many organizations have pursued niche strategies with sectors and between districts inside the city. Given that the new entrepreneurial community emerged around Caucasian male entrepreneurs, the inclusion of women and minorities has become a pressing regional issue. Overall, the highly complex evolution, with many actors within the ecosystem, suggests that ecosystems do not follow linear patterns of nascence, growth, and maturity, but rather develop in a unique, highly complex way.</t>
+          <t>Since years it has been vividly debated whether multifragmentation is a thermal or a dynamical process.Recently it has been claimed [1,2] that new data allow to decide this question.The conclusion, drawn in these papers, are, however, opposite.Whereas [1] states that the behavior of different observables as a function of the fragment multiplicity excludes a thermal origin of the fragments in [2] it has been argued that data show a first order phase transition between a liquid and a gaseous phase.It is the aim of this paper to show that both conclusions are premature.They are based on the salient assumption, that the system is sufficiently large to be susceptible to a canonical description.We will show that this is not the case.A micro canonical approach describes the data as good as dynamical calculations.Hence the quest for the physical origin of multifragmentation continues.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3198723610</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1186/s12913-021-06942-y</t>
+          <t>https://openalex.org/W3126344494</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fridberg et al. (2021)</t>
+          <t>Dubeaux &amp; Miot (2020)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The innovation characteristics of person-centred care as perceived by healthcare professionals: an interview study employing a deductive-inductive content analysis guided by the consolidated framework for implementation research</t>
+          <t>Quand les politiques publiques suscitent de la réactivation citoyenne de locaux vacants : le cas du Livradois-Forez</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Abstract Background Person-centred care (PCC) is promoted as an innovation that will improve patients’ rights and increase their participation in healthcare. Experience shows that the implementation of PCC is challenging and often results in varying levels of adoption. How health care professionals (HCPs) perceive an innovation such as PCC is an important factor to consider in implementation. Yet, such studies are scarce. Thus, in a sample of healthcare units in a region in Sweden, involved in a transition to PCC, we aimed to investigate HCPs’ perceptions of PCC. Methods An interview study was conducted in 2018 during the implementation of PCC with HCPs ( n = 97) representing diverse vocational roles in six healthcare contexts. Data were collected via focus groups ( n = 15), dyadic interviews ( n = 5), and individual interviews ( n = 22) and analysed using a deductive–inductive content analysis. The deductive approach was guided by the Consolidated Framework for Implementation Research (CFIR), followed by an inductive analysis to describe HCPs’ in-depth perceptions of PCC in relation to each of the CFIR constructs. Results Eight constructs from two of the CFIR domains, Intervention characteristics and Inner setting, were used to code HCPs’ perceptions of PCC. One construct, Observability, was added to the coding sheet to fully describe all the data. The constructs Relative advantage, Complexity, Compatibility, Observability, and Available resources were discussed in depth by HCPs and resulted in rich and detailed data in the inductive data analysis. This analysis showed large variations in perceptions of PCC among HCPs, based on factors such as the PCCs ethical underpinnings, its operationalisation into concrete working routines, and each HCPs’ unique recognition of PCC and the value they placed on it. Conclusions We identified nine CFIR constructs that seem pertinent to HCPs’ perceptions of PCC. HCPs report an array of mixed perceptions of PCC, underlining its complex nature. The perceptions are shaped by a range of factors, such as their individual understandings of the concept and the operationalisation of PCC in their local context. Stakeholders in charge of implementing PCC might use the results as a guide, delineating factors that may be important to consider in a wide range of healthcare contexts.</t>
+          <t>Cette communication vise a analyser un processus de reactivation de bâtis vacants par des collectifs habitants dans le Livradois-Forez en lien avec une politique publique de revitalisation des centres-bourgs. En effet, ce territoire rural, caracterise par une decroissance territoriale seculaire, abrite une demarche inedite depuis 2012. En focalisant l’attention sur l’enjeu de la vacance et privilegiant une approche participative et experi-mentale, l’etude attire une categorie d’acteurs exterieurs et transforme le rapport a la vacance qu’entretient une partie des elus et habitants du territoire. Afin de mieux analyser ce processus, nous etudierons trois cas : la transformation d’un immeuble d’activites en colocation (l’Epaisse Cargne de Cunlhat), la creation d’un tiers-lieu dans une maison de bourg (les Lococotiers d’Ambert) et la creation d’un commerce a Sauxillanges (l’Alternateur). De nature diverse, ces trois projets sont issus de rapports contrastes avec les elus locaux et les politiques publiques.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318499542</t>
+          <t>https://openalex.org/W1982562287</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/challe14010009</t>
+          <t>https://doi.org/10.1353/mod.2007.0096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Soleri et al. (2023)</t>
+          <t>Zimring (2007)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
+          <t>“The Dangerous Art Where One Slip Means Death”: Dance and the Literary Imagination in Interwar Britain</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
+          <t>"The Dangerous Art Where One Slip Means Death": Dance and the Literary Imagination in Interwar Britain Rishona Zimring There comes a moment—"I will dance with you", says Emma—which rises higher than the rest, which, though not eloquent in itself, or violent, or made striking by beauty of language, has the whole weight of the book behind it. In Jane Austen, too, we have the same sense, though the ligatures are much less tight, that her figures are bound, and restricted to a few definite movements. She, too, in her modest, everyday prose, chose the dangerous art where one slip means death. —Virginia Woolf, "On Not Knowing Greek"1 . . . one is at a music-hall and on to the stage come the dancers, trained to liveliness. One can say that here is the primal scene, here is exhibitionism, here is anal control, here is masochistic submission to discipline, here is a defiance of the super-ego. Sooner or later one adds: here is LIFE. —D. W. Winnicott, "The Manic Defense"2 Recent scholarship on modernism and dance has celebrated the figure of the female dancer as not only a symbol, but as an agent of aesthetic transformation in the twentieth century. The female dancer, it is argued, embodies the quest for freedom. She represents a revolt against the confinements of domesticity, she invents, she breaks taboos, she is mad, she is criminal, society will not tolerate her, she is subversive. "She" is Lucia Joyce, Jane Avril, Loie Fuller, Maud Allan, Mata Hari, Isadora Duncan, Ruth St. Denis, Mary Wigman, Zelda Fitzgerald.3 Her context is the [End Page 707] heyday and decline of the music hall; the sensational impact of Diaghilev's Russian Ballet; ragtime, jazz, ballroom dance, and jazz dance; the rise of cabarets and nightclubs; dance crazes and dance "manias"; and, going farther afield, the mechanization of everyday life (embodied, say, in tap dance's mechanical rhythms or Busby Berkeley's musicals) or, the opposite, the graceful, therapeutic movements of swooping airplanes, roller coasters, zippers, and cursive writing, which, along with Duncan's startling fluidity and tragically flowing scarf, all make up what Hillel Schwartz, in a masterful essay, has called "the new kinaesthetic of the twentieth century."4 So compelling are the female dancers, so charismatic in capturing the imagination, that they have obscured another kind of dancing that, I shall argue, actually dominated the literary imagination in interwar Britain, and for good reason. I refer to social dancing, which was viewed as both mundane and dangerous; indeed, which brought to the fore the very potency of an everyday activity both banal and extraordinary. As experienced at parties, dance halls, night clubs, college clubs, and on the street, social dancing was both a symptom of modern alienation and its potential cure, an evanescent yet visceral form of collectivity that offered a vision of community as well as a sign of its elusiveness. Social dance (participatory and coercive, ritualistic and boring, lively and mechanical) embodied a problem of modernity—the quest for community and the desire for (re)enchantment—while at the same time putting on spectacular display the fragmentation and isolation that characterized the feeling of being modern. The hold of social dance on the literary imagination has been overlooked in modernist scholarship; in this article, I reassert the position of dance in interwar literature and culture. Hidden in plain sight, in modernist literary scenes, biographies and memoirs, psychoanalytic commentaries, educational manifestos, and ethnographies, social dance is everywhere in the documents of interwar Britain, serving as both fact and figure of modernity—of that famous feeling that "all that is solid melts into air."5 What better spectacle and symbol of ephemerality than the always changing, always temporary arrangement of bodies into now this, now that configuration, always ending with their dispersal? "Unity—dispersity" is the refrain of Woolf's Between the Acts: a neat summary of social dance itself, its rhythm of individuals pulled together, then...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W1637595559</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/1.2964634</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Helgeson et al. (2008)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Spatially-resolved microstructure in shear banding wormlike micellar solutions</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>Recently proposed theories for shear banding in wormlike micellar solutions (WLMs) rely on a shear‐induced isotropic‐nematic (I‐N) phase separation as the mechanism for banding. Critical tests of such theories require spatially‐resolved measurements of flow‐kinematics and local mesoscale microstructure within the shear bands. We have recently developed such capabilities using a short gap Couette cell for flow‐small angle neutron scattering (flow‐SANS) measurements in the 1–2 plane of shear with collaborators at the NIST Center for Neutron Research. This work combines flow‐SANS measurements with rheology, rheo‐optics and velocimetry measurements to present the first complete spatially‐resolved study of WLMs through the shear banding transition for a model shear banding WLM solution near the I‐N phase boundary. The shear rheology is well‐modeled by the Giesekus constitutive equation, with incorporated stress diffusion to predict shear banding. By fitting the stress diffusivity at the onset of banding, the model enables prediction of velocity profiles in the shear banded state which are in quantitative agreement with measured flow‐kinematics. Quantitative analysis of the flow‐SANS measurements shows a critical segmental alignment for banding and validates the Giesekus model predictions, linking segmental orientation to shear banding and providing the first rigorous evidence for the shear‐induced I‐N transition mechanism for shear banding.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087507141</t>
+          <t>https://openalex.org/W4388588935</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0168-0102(92)90045-e</t>
+          <t>https://doi.org/10.1093/neuonc/noad179.1155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Murakami et al. (1992)</t>
+          <t>Ahn (2023)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Plasticity of neuronal connections in developing brains of mammals</t>
+          <t>MODL-04. ESTABLISHMENT OF TUMOR MICROENVIRONMENT-PRESERVING ORGANOID MODEL FROM PATIENTS WITH INTRACRANIAL MENINGIOMA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Although mature nervous systems show substantial malleability following various surgical or environmental manipulations, developing brains show far more prominent plasticity, particularly in terms of morphological features. Neuronal circuits, for example, can be dramatically rewired following neonatal but not adult brain lesions. It remains unknown why neuronal circuits in developing brains show such remarkable plasticity. A number of anatomical and physiological studies suggest that there are transient projections in developing brains and they are eliminated by cell death and/or collateral elimination as development proceeds. This raises a possibility that aberrant projections observed following various surgical or environmental manipulations such as partial denervation, results from retention or stabilization of transient projections. However, evidence suggests that cell death does not play an important role in developmental fine-tuning of neuronal projections. Furthermore, although the elimination of axon collaterals takes place, individual neurons appear to elaborate axonal arbors in appropriate target areas, resulting in a net increase in the size of axonal arbor emerging from individual neurons. In accord with these observations, the number of synapses appear to increase during the period when axonal elimination proceeds. Taken together, reinforcement of appropriate projections rather than elimination of excessive connections plays a major role in developmental specification of neuronal connections. Appearance of aberrant projections after partial denervation may not be a consequence of disordered axonal growth, since they form topographic maps which precisely mirrors those for normal projections. They may be induced due to reinforcement of pre-existing neuronal connections rather than to construction of novel pathways. Observations of axonal morphology in denervated areas indicate that lesion-induced enlargement of projections is due to transformation of axonal morphology, from simple and poorly branched to multiply branched. Perhaps such simple and poorly branched axons in inappropriate target areas may represent ones in the course of elimination but they may serve as a source of sprouting when denervated. In other words, after total elimination of axons any surgical or environmental manipulation cannot induce enlargement of projections. The mechanisms underlying such modifiability of neuronal connections remains unclarified but possible participation of an activity-dependent competitive mechanism is discussed.</t>
+          <t>Abstract Although meningioma is the most common primary brain tumor, treatments depend only on the surgery and radiotherapy, and recurrent meningiomas have no standard therapeutic options due to a lack of clinically relevant research models. Current meningioma cell lines or organoids cannot reflect biological features of patients’ tumors since they undergo transformation along culture and consist of only tumor cells without microenvironment. Here, we firstly established patient-derived meningioma organoids (MNOs) preserving diverse cell types of tumor microenvironment, including endothelial cells and macrophage/microglia cells. Exclusion of the enzymatic dissociation-reaggregation steps endowed MNOs with original histology and tumor microenvironment. In addition, we used liquid media culture system instead of embedding into Matrigel, thus easy-to-handle, cost-efficient, and time-saving. MNOs maintained their functionality and morphology after long-term culture ( &amp;amp;gt; 9 wk) and repeated cryopreserving-recovery cycles. The similarity between MNOs and their corresponding parental tumors were confirmed by both immunohistochemistry and whole-exome sequencing. As a representative application, we utilized MNOs in drug screening, and mifepristone, an antagonist of progesterone receptor, showed prominent antitumor efficacy in respect to viability, invasiveness, and protein expression. Taken together, our MNO model overcame limitations of previous meningioma models and showed superiority in terms of resemblance with parental tumors. Thus, we expect that our model can facilitate translational research of identifying and selecting drugs for meningioma in the era of precision medicine.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W2468735228</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/nph.14092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Lallemand et al. (2016)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>The elusive predisposition to mycoheterotrophy in Ericaceae</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t xml:space="preserve">New PhytologistVolume 212, Issue 2 p. 314-319 LettersFree Access The elusive predisposition to mycoheterotrophy in Ericaceae Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author First published: 12 July 2016 https://doi.org/10.1111/nph.14092Citations: 27AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL The rise and diversification of land plants was accompanied by mycorrhizal symbiosis, from their emergence to their adaptation to various biomes and ecological situations (Selosse et al., 2015). In most mycorrhizal associations, fungi provide soil minerals to the plant, in exchange for sugars derived from photosynthesis (Smith &amp; Read, 2008; van der Heijden et al., 2015). However, several plant species adapted to shaded forest conditions by secondarily reversing this exchange of carbohydrates: they became achlorophyllous thanks to carbon provided by the fungus. This so-called mycoheterotrophic nutrition is described in over 400 species and evolved at </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972441030</t>
+          <t>https://openalex.org/W4291110600</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0003-4916(92)90360-x</t>
+          <t>https://doi.org/10.1016/j.physa.2022.128057</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alfaro &amp; Damgaard (1992)</t>
+          <t>Calixto et al. (2022)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRST symmetry of field redefinitions</t>
+          <t>Signatures of topological phase transitions in higher Landau levels of HgTe/CdTe quantum wells from an information theory perspective</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Field redefinitions are considered as a special case of BRST gauge fixings of more general field-enlarging transformations. At the two-loop level an extra local term in the action, the Gervais-Jevicki potential, is generated by point canonical transformations in the bosonic part of the theory. We give an example of how this additional term can be cancelled by the inclusion of the ghost fields. This is achieved through an anomalous Jacobian factor from the ghost measure.</t>
+          <t>We analyze the structure of low energy Hamiltonian eigenstates in zincblende heterostructures (like HgTe/CdTe quantum wells) near the gamma point, under magnetic fields, to characterize topological phase transitions (TPT) under an information-theoretic perspective. Using information markers like entanglement, quantum fluctuations, fidelity susceptibility, participation ration, area in phase space, etc., we realize that higher Landau levels (LL) feel the topological phase transition slightly displaced with regard to the edge state, thus leading to the concept of "higher Landau level |n|&gt;0 TPT", as "echoes" of the standard edge state n=0 TPT. We compute the critical magnetic field and the critical HgTe layer thickness at which these information measures of higher Landau levels undergo a structural change.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
+          <t>https://openalex.org/W2948937109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://doi.org/10.1021/acsomega.9b01017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
+          <t>Lyngdoh et al. (2019)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>Portrait of the Intrinsically Disordered Side of the HTLV-1 Proteome</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t>Intrinsically disordered proteins (IDPs) lack an ordered 3D structure. These proteins contain one or more intrinsically disordered protein regions (IDPRs). IDPRs interact promiscuously with other proteins, which leads to their structural transition from a disordered to an ordered state. Such interaction-prone regions of IDPs are known as molecular recognition features. Recent studies suggest that IDPs provide structural plasticity and functional diversity to viral proteins that are involved in rapid replication and immune evasion within the host cells. In the present study, we evaluated the prevalence of IDPs and IDPRs in human T lymphotropic virus type 1 (HTLV-1) proteome. We also investigated the presence of MoRF regions in the structural and nonstructural proteins of HTLV-1. We found abundant IDPRs in HTLV-1 bZIP factor, p30, Rex, and structural nucleocapsid p15 proteins, which are involved in diverse functions such as virus proliferation, mRNA export, and genomic RNA binding. Our study analyzed the HTLV-1 proteome with the perspective of intrinsic disorder identification. We propose that the intrinsic disorder analysis of HTLV-1 proteins may form the basis for the development of protein disorder-based drugs.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3117802593</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
+          <t>https://openalex.org/W3123408790</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Abysova &amp; Шоріна (2020)</t>
+          <t>Yılmaz (2009)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
+          <t>An Islamist Party, Constraints, Opportunities and Transformation to Post-Islamism: The Tajik Case</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
+          <t>Tajikistan is the only Central Asian state to politically include an Islamist political party—Hizbi Nahzati Islomii Todjikiston (the Islamic Revival Party of Tajikistan— IRPT) and to allow it to participate at the electoral process. This study argues that a combination of political opportunity structures together with constraints imposed by the constitutional framework and repressive attitudes of the semi-authoritarian regime towards political pluralism has been a decisive factor, among others, that has brought about the transformation of the Tajik Islamism to Tajik post-Islamism. The case of the IRPT shows that the Islamists are inclined to ideological moderation provided that political opportunity structures are available to them and they are politically included, even if the politico-legal framework is semi-authoritarian or liberalized autocracy. The IRPT has calculated the impact of its forms of activism and discourse according to political circumstances and changes, to opportunities and disincentives, while their normative frameworks, doctrine and discourses take on a subordinate role and remain subject to transformation.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380877901</t>
+          <t>https://openalex.org/W4205978259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
+          <t>https://doi.org/10.1007/s10668-021-02078-5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rani et al. (2023)</t>
+          <t>Vaio et al. (2022)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
+          <t>The transition towards circular economy and waste within accounting and accountability models: a systematic literature review and conceptual framework</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
+          <t>A transition towards a circular economy is a challenge. It is vital to know that circularity and sustainability are two different segments. So, circular economy can only be achieved in the long-term perspective. This study investigates accounting and accountability for circular economy and waste. Considering these principles and based on a critical review of the literature, economic gains from the transition toward a circular economy are measurable; the problems for corporations and governments are diverse; the way to handle the stakeholders who are losing control in the circular economy is considerable. Diffusion of innovation theory is used to conduct this study. It is essential that an organisational design built should help implement the circular model. Targeted questions responded by adopting a systematic literature review approach by applying PRISMA protocol. This study examines 78 publications in English between 2012 and 2021, which present a map of the circular economy-related knowledge published in web of science and Scopus. Besides, this study includes 03 European Commission reports, 01 Ellen Macarthur Foundation report, 01 Council for the Environment and Infrastructure report, 01 report from SUN IZA, 01 UN Global Compact and 01 the Brundtland Commission report. The results highlight how circular economy, waste management, sustainability, accountability, and management accounting practices help to develop an ecosystem and achieve sustainable development goals of the United Nations 2030 Agenda. Theoretical and practical implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281249674</t>
+          <t>https://openalex.org/W2615325591</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/21651434221098411</t>
+          <t>https://doi.org/10.1016/j.neuron.2017.04.035</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Howorth et al. (2022)</t>
+          <t>Kay &amp; Kozma (2017)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Effects of an Abbreviated and Adapted PEERS® Curriculum as Part of a College Transition Program for Young Adults on the Autism Spectrum</t>
+          <t>Walter J. Freeman: A Tribute</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>College students on the autism spectrum report the following support needs: interpersonal skills and coping with unexpected change. The purpose of this pilot study was to investigate the effects of an interpersonal skills seminar using elements of the PEERS® curriculum on the acquisition of conversational behaviors by three young adults on the autism spectrum who were attending a summer college transition program designed to help prepare and familiarize individuals with college living. A multiple probe across behaviors design was used. According to visual analysis, a functional relation was not established between participation and acquisition of foundational conversational skills. Our findings provide a model for how state vocational rehabilitation agencies and institutes of higher education can collaborate to provide effective support for college students with autism spectrum disorder.</t>
+          <t>In the early 1960s, few neuroscientists attempted to model brain function using mathematics. Computers were slow and expensive, so numerical approximations of complex phenomena were out of reach in most cases, and scientists resorted primarily to analytical representations of simpler processes. The study of circuits was not new to Walter J. Freeman. He had started his education studying engineering at MIT (transferring later to the University of Chicago to study English) and was a radio operator in WWII. When he returned from his service, he enrolled in medical school at Yale, where he did his dissertation research under John Fulton. While a postdoc at UCLA in neuropsychiatry, Freeman began to study responses of the olfactory system to shock stimuli. His engineering background and persistent nature led him to the first computational analysis of the olfactory system as a young assistant professor at UC Berkeley. This work carried him from characterizing oscillatory impulse responses and dipole fields within olfactory paleocortical areas in 1959 and the early 1960s to large-scale models of perceptual processing up until the time of his death in April of 2016. Along the way, he was a pioneer in neural networks, introduced the use of nonlinear dynamical systems and chaos theory to study and describe neural systems, and mentored countless scientists worldwide. This work, conducted over 55 years at UC Berkeley, engaged physiologists, physicists, physicians, computer scientists, and philosophers. Freeman’s legacy is multifaceted, covering six decades, nine monographs, and more than 400 papers (see http://massaction.berkeley.edu for a full catalog of papers). His persistence, together with the contribution of many of his colleages, has helped the field of neural oscillations to “come of age” (Buzsáki and Freeman, 2015Buzsáki G. Freeman W. Editorial overview: brain rhythms and dynamic coordination.Curr. Opin. Neurobiol. 2015; 31: v-ixCrossref PubMed Scopus (30) Google Scholar). A short chronology of papers reveals one of the first, if not the first, published computational treatments of a cortical oscillation (Freeman, 1962Freeman W.J. Linear approximation of prepyriform evoked potential in cats.Exp. Neurol. 1962; 5: 477-499Crossref PubMed Scopus (5) Google Scholar). Freeman applied control systems theory to model oscillatory responses to shock stimuli in the pyriform (olfactory) cortical circuit. A model of similar olfactory bulb responses was published in 1968 by Rall and Shepherd. During this part of his career and through the 1980s, Freeman was on a mission to tell neuroscientists to “open up their pass bands” in order to see high-frequency oscillations that had been overlooked due to low-frequency responses of polygraph pen-and-ink technology. With the advent of the digital age, neuroscientists were constrained only by the sampling rate, but for many it took decades to look beyond 20 or 30 Hz. Freeman’s models and mathematical descriptions of cortical systems were based on the idea that populations of neurons influence one another and that this influence can be measured, quantified, and represented by differential equations, which form the foundation for the Freeman-Katchalsky (K) model (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). This modeling approach encompasses deeply structured, multilayer neurodynamics, starting from microscopic cellular mechanisms, through mesoscopic population dynamics, to the macroscopic level, corresponding to hemisphere-wide brain functions and processes. Key to these models is the equation representing the transformation of analog input, in the form of inhibitory or excitatory postsynaptic potentials, to spiking output at the population level, the asymmetric sigmoid nonlinearity or K0 set (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). Cortical states could then be represented by the slope and inflection point of the sigmoid, which varied with different states of consciousness (deep anesthesia, light anesthesia, waking), producing different slopes in the experimental curves (low to high, respectively). When the slope is steep, the gain is high and fewer neurons are needed to produce a state transition, suggesting that the system can have a richer repertoire of states. Stability analysis using systems control theory allowed Freeman to make predictions about the system, many of which have been shown to be correct over the intervening decades. Several predictions regarding the olfactory bulb circuit and its connections with higher-order areas are notable, because they violated then-current assumptions about neural circuits. It had been assumed since the time of Cajal that mutual excitation or mutual inhibition in cortical circuits would make a system unstable, leading to runaway excitation. Freeman found that both mutual excitation and mutual inhibition were necessary in order to ad</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2891140531</t>
+          <t>https://openalex.org/W4395413484</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15468/dl.2psy87</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Malamud &amp; Pop-Eleches (2008)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>General Education vs. Vocational Training: Evidence from an Economy in Transition</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>This paper examines the relative benefits of general education and vocational training in Romania, a country which experienced major technological and institutional change during its transition from Communism to a market economy. To avoid the bias caused by non-random selection, we exploit a 1973 educational reform which shifted a large proportion of students from vocational training to general education while keeping average years of schooling unchanged. Using data from the 1992 and 2002 Romanian Censuses and household surveys from 1995-2000, we analyze the effect of this policy with a regression discontinuity design. We found that men in cohorts affected by the policy were significantly less likely to work in manual or craft-related occupations than their counterparts who were unaffected by the policy. However, in contrast to cross-sectional findings, we found no difference in labor market participation or earnings between cohorts affected and unaffected by the policy. We therefore conclude that differences in labor market returns between graduates of vocational and general schools are largely driven by selection.</t>
+          <t xml:space="preserve">A dataset containing 2001508455 species occurrences available in GBIF matching the query: { "BasisOfRecord" : [ "is one of (Human Observation, Observation, Machine Observation)" ] } The dataset includes 2001508455 records from 27193 constituent datasets: 124 records from Assemblage of living benthic foraminifera in sediment core CD146_55921#1, 63-150 µm. 3 records from 16 - Inventaire général de la flore et de la fonge - DREAL AURA - inventaire général de la flore et de la fonge réalisé sur le terrain. 25 records from Content of coarse fraction and G. menardii in sediment corev V25-43. 5 records from ZAC des Goucheronnes - Inventaire chiroptères. 18 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Especies observadas en Mercedes (Unterkofler, octubre 1999). 83298 records from MICA - Muskrat and coypu camera trap observations in Belgium, the Netherlands and Germany. 35 records from Ferme éolienne de ST JEAN DE LIVERSAY - Données biodiversité_Faune_St Jean de Liversay. 11 records from Gulf of Maine Razorbill Tracking (aggregated per 1-degree cell). 4 records from Nannofossil abundance of Hole 6-53A. 12 records from Nannofossil abundance of Hole 29-283A. 108 records from MIRC NAVFAC Incidental Sightings - Aerial 1965-2014. 319 records from projet centrale photovoltaïque de Selongey - Flore - Inventaire non protocolé. 8 records from Projet de construction d'un site logistique - Inventaire insectes. 26 records from Schulteich Heinrich-Mann-Schule. 810 records from Distribution of Cretaceous and early Danian planktonic foraminifera in ODP Hole 119-738C (Table 1). 439 records from Implementación de la bioindicación en el Río Magdalena - 2015. 3310 records from PELD - PNCA | Dados da ocorrência de plantas lenhosas em uma cronossequência em área de Caatinga, Parque Nacional do Catimbau, Buíque, PE, Brasil. 428 records from Range table from benthic foraminifers in ODP Hole 146-889A. 81 records from Frestoy-Vaux, Mortemer, Rollot - 60/80 - Frestoy-Vaux/Mortemer/Rollot - Chiroptères. 71 records from Invasive plants in Luronium natans habitats in Flanders, Belgium. 168 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 371 records from Bannwald Burghauser Forst. 942 records from Bibliographie de la faune, la flore et la fonge de France métropolitaine et outre-mer - Bulletin du Muséum d'Histoire Naturelle [1895- ]. 3 records from Sarcodine counts and carbon biomass at station TT007_8-CTD99. 78 records from Coccolith counts of multinet M32/5_MSN988. 10 records from ACQUISITION_CBNMC - MARANDON_ONCFS_juin2013. 6704 records from Phytoplankton abundance in surface water during Professor Vodyanitskiy cruise PV30_1. 333 records from Données du Comité Départemental de Protection de la Nature et de l'Environnement de Loir-et-Cher (CDPNE) - Données 2016 Pélobate brun Comité Départemental de Protection de la Nature et de l'Environnement. 33743 records from LiquenCAT: Banco de datos de los líquenes de Cataluña. 80 records from (Table 3) Relative abundances of palynoclasts, palynomorphs and microplankton in ODP Leg 112 samples. 2316 records from Monitoreo de la abundancia, riqueza y biodiversidad de aves del Santuario de Flora y Fauna Galeras de 2009 a 2014. 351 records from (Table 4) Abundance of planktonic foraminifera in ODP Hole 113-690C, small size fraction. 65 records from Meiofauna densities from in situ feeding experiments in the Nazare Canyon conducted with sediments from ROV push-core JC10-95-PUC03. 519 records from Parc éolien de Pougny (Ludmila) - Activité Grues cendrées printemps automne 2018 à 2020 (SEPE LUDMILA). 108 records from Plan de gestion 2017 - 2021 de la Réserve Naturelle Régionale d'Errota Handia (64) mené par le CEN Nouvelle-Aquitaine - Observations d'oiseaux réalisées par le CEN Nouvelle-Aquitaine selon le protocole STOC EPS. 609 records from Abundance of empty diatom frustules measured on water bottle samples at station PS58/092-3. 661 records from Benthic foraminifera and algae abundance of Hole 81-552A. 19 records from Chronicle of Nature - Phenology of Insects of National Park Bashkirija. 181 records from Projet de parc éolien de Comiac - avifaune nicheuse du projet de parc éoIien de Comiac (46). 151 records from Monocotiledóneas del cerro Tacarcuna-Chocó, en el marco del proyecto Colombia BIO 2017. 293 records from Planktic foraminifera abundance of Hole 32-310. 19 records from Dinoflagellate abundance of Hole 81-554. 5420 records from Données des membres de l'Association française d'Arachnologie. 87 records from Artenvielfalt des "Grünen Klassenzimmers". 69 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Lista Narosky: familia Vireonidae. 2814 records from Chronicle of Nature - Phenology of Birds of Pinezhsky State Nature Reserve. 240 records </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2994567979</t>
+          <t>https://openalex.org/W4396177043</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15468/dl.egwpkx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IuV et al. (2013)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
+          <t xml:space="preserve">A dataset containing 33539388 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Quercus rubra L., Quercus rugosa Née, Quercus stellata Wangenh., Quercus suber L., Quercus velutina Lam., Quercus virginiana Mill., Quesnelia liboniana (De Jonghe) Mez, Radermachera sinica (Hance) Hemsl., Rangaeris muscicola (Rchb.f.) Summerh., Raphanus sativus L., Raphia australis Oberm. &amp;amp; Strey, Raphia farinifera (Gaertn.) Hyl., Reevesia thyrsoidea Lindl., Reineckea carnea (Andrews) Kunth, Reutealis trisperma (Blanco) Airy Shaw, Rhamnus alaternus L., Rhamnus cathartica L., Rhaphiolepis indica (L.) Lindl., Rhapis excelsa (Thunb.) A.Henry, Rheum rhabarbarum L., Rhinella marina (Linnaeus, 1758), Rhodobium porosum (Sanderson, 1900), Rhododendron arboreum Sm., Rhododendron grande Wight, Rhododendron indicum (L.) Sweet, Rhododendron ponticum L., Rhododendron ×pulchrum Sweet, Rhodomyrtus tomentosa (Aiton) Hassk., Rhodosphaera rhodanthema (F.Muell.) Engl., Rhopalosiphum padi (Linnaeus, 1758), Rhopalostylis sapida (Sol. ex G.Forst.) H.Wendl. &amp;amp; Drude, Rhyzobius lophanthae (Blaisdell, 1892), Rondeletia odorata Jacq., Rosa canina L., Roseodendron donnell-smithii (Rose) Miranda, Rotala macrandra Koehne, Rotala rotundifolia (Buch.-Ham. ex Roxb.) Koehne, Rotala wallichii (Hook.fil.) Koehne, Rothmannia urcelliformis (Hiern) Bullock ex Robyns, Roystonea borinquena O.F.Cook, Roystonea regia (Kunth) O.F.Cook, Rubus fruticosus L., Rubus idaeus L., Rumex acetosa L., Ruprechtia coriacea (H.Karst.) S.F.Blake, Russelia equisetiformis Schltdl. &amp;amp; Cham., Ruta graveolens L., Ruttya fruticosa Lindau, Sabal mexicana Mart., Sabal minor (Jacq.) Pers., Sabal palmetto (Walter) Lodd. ex Schult. &amp;amp; Schult.f., Saccharum officinarum L., Cylista ornata (Holdsworth, 1855), Saguinus midas (Linnaeus, 1758), Saguinus oedipus (Linnaeus, 1758), Saimiri sciureus (Linnaeus, 1758), Salix acutifolia Willd., Salix babylonica L., Salix bonplandiana Kunth, Salix cinerea L., Salix mucronata Thunb., Salix nigra Marshall, Salix purpurea L., Salix viminalis L., Salmo salar Linnaeus, 1758, Salmo trutta Linnaeus, 1758, Salvelinus fontinalis (Mitchill, 1814), Salvia coccinea Buc'hoz ex Etl., Salvia farinacea Benth., Salvia leucantha Cav., Sambucus racemosa L., Samia cynthia Drury, 1773, Samolus valerandi L., Sannantha pluriflora (F.Muell.) Peter G.Wilson, Sannantha virgata (J.R.Forst. &amp;amp; G.Forst.) Peter G.Wilson, Dracaena trifasciata (Prain) Mabb., Santalum album L., Santolina decumbens Mill., Sapindus emarginatus Vahl, Sapindus saponaria L., Saponaria ocymoides L., Saraca indica L., Sarotherodon galilaeus (Linnaeus, 1758), Schefflera actinophylla (Endl.) Harms, Heptapleurum arboricola Hayata, Schinopsis balansae Engl., Schinus molle L., Schinus terebinthifolia Raddi, Schismus barbatus (L.) Thell., Schizaphis graminum (Rondani, 1852), Secale cereale L., Sedum nussbaumerianum Bitter, Sedum pachyphyllum Rose, Sehima galpinii Stent, Selaginella flabellata (L.) Spring, Selenocosmia aruana Strand, 1911, Selenocosmia crassipes (L.Koch, 1874), Selenocosmia similis Kulczyński, 1911, Semecarpus anacardium L.fil., Semimytilus patagonicus (Hanley, 1843), Semiricinula tissoti (Petit de la Saussaye, 1852), Sempervivum tectorum L., Senecio macroglossus DC., Senegalia montis-usti (Merxm. &amp;amp; A.Schreib.) Kyal. &amp;amp; Boatwr., Senna appendiculata (Vogel) Wiersema, Senna artemisioides (Gaudich. ex DC.) Randell, Senna bacillaris (L.f.) H.S.Irwin &amp;amp; Barneby, Senna macranthera (DC. ex Collad.) H.S.Irwin &amp;amp; Barneby, Senna pendula (Humb. &amp;amp; Bonpl. ex Willd.) H.S.Irwin &amp;amp; Barneby, Senna siamea (Lam.) H.S.Irwin &amp;amp; Barneby, Senna sophera (L.) Roxb., Senna spectabilis (DC.) H.S.Irwin &amp;amp; Barneby, Senna splendida (Vogel) H.S.Irwin &amp;amp; Barneby, Sequoia sempervirens (D.Don) Endl., Sequoiadendron giganteum (Lindl.) J.T.Buchholz, Serenoa repens (W.Bartram) Small, Sericopelma angustum (Valerio, 1980), Sericopelma rubronitens Ausserer, 1875, Serissa japonica (Thunb.) Thunb., Setaria lindenbergiana (Nees) Stapf, Setaria sphacelata (Schumach.) Stapf &amp;amp; C.E.Hubb. ex Moss, Shelfordella lateralis (Walker, 1868), Sideroxylon foetidissimum Jacq., Silene coronaria (L.) Clairv., Simplaria pseudomilitaris (Thiriot-Quievreux, 1965), Sinapis alba L., Sipha maydis Passerini, 1860, Siphoninus phillyreae (Haliday, 1835), Siphonochilus kirkii (Hook.f.) B.L.Burtt, Sistrurus catenatus (Rafinesque, 1818), Smilax anceps Willd., Solanum betaceum Cav., Solanum crinitum Lam., Solanum diphyllum L., Solanum laxum Spreng., Solanum lycopersicum L., Solanum melongena L., Solanum muricatum Aiton, Solanum tuberosum L., Solanum wendlandii Hook.fil., Soleirolia soleirolii (Req.) Dandy, Solidago canadensis L., Sophora tetraptera J.F.Mill., Sophora velutina Lindl., Sorbus aucuparia L., Sparaxis bulbifera (L.) Ker Gawl., Sparaxis elegans (Sweet) Goldblatt, Sparaxis tricolor (Schneev.) Ker Gawl., Spathiphyllum cannifolium (Dryand. ex Sims) Schott, Sphaerobothria hoffmanni </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2147719913</t>
+          <t>https://openalex.org/W2028358655</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/1471-2091-8-s1-s12</t>
+          <t>https://doi.org/10.1353/ctt.0.0035</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Upadhya &amp; Hegde (2007)</t>
+          <t>Klingner (2009)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Role of the ubiquitin proteasome system in Alzheimer's disease</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Though Alzheimer's disease (AD) is a syndrome with well-defined clinical and neuropathological manifestations, an array of molecular defects underlies its pathology. A role for the ubiquitin proteasome system (UPS) was suspected in the pathogenesis of AD since the presence of ubiquitin immunoreactivity in AD-related neuronal inclusions, such as neurofibrillary tangles, is seen in all AD cases. Recent studies have indicated that components of the UPS could be linked to the early phase of AD, which is marked by synaptic dysfunction, as well as to the late stages of the disease, characterized by neurodegeneration. Insoluble protein aggregates in the brain of AD patients could result from malfunction or overload of the UPS, or from structural changes in the protein substrates, which prevent their recognition and degradation by the UPS. Defective proteolysis could cause the synaptic dysfunction observed early in AD since the UPS is known to play a role in the normal functioning of synapses. In this review, we discuss recent observations on possible links between the UPS and AD, and the potential for utilizing UPS components as targets for treatment of this disease. Publication history: Republished from Current BioData's Targeted Proteins database (TPdb; http://www.targetedproteinsdb.com ).</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer Donald E. Klingner Introduction Technology transfer concerns the exogenous adaptation of innovations from their place of origin to other organizations, countries, or regions. As the articles in this issue of Comparative Technology Transfer and Society illustrate, the sustainability of diffused innovations depends heavily upon local contexts, requires innovative and flexible adaptation strategies, and results in diverse outcomes. Economic pressures and increasingly global research interests prompt universities around the world to focus on the commercial potential of their faculties’ research. One result is academic spin-offs. These have varied widely in effectiveness, leading researchers to investigate why some succeed while others have not. In the first article in this issue (University Spin-Offs as Technology Transfer: A Comparative Study among Norway, the United States, and Sweden), Norwegian scholar Alf Steinar Sætre and his co-authors assess the comparative effect of universities’ efforts capitalize on faculty inventions in these three countries. They identified four key dimensions—university relations, government-support mechanisms, industry relations, and equity funding—as central elements in all cases. Interestingly, they also concur with other researchers’ (Julnes &amp; Holzer, 2001; Landry, Lamari, &amp; Amara, 2003) conclusion that the distinctive and varied faculty-research cultures make it difficult for university technology transfer offices to cooperate effectively and consistently with government agencies and venture capitalists. In fact, they conclude that these offices seem to impede the development of startups and spin-offs as often as they help. The authors certainly suggest that increased competencies and a greater understanding of the innovation process among those who dole out grants might diminish waste and increase the effectiveness of government-support systems designed to advance the commercial prospects of technologies originating in universities. Technology transfer has played a similarly significant yet ambiguous role in national economic development. In the second article (Political Impediments to Technological Diffusion in Northeast Brazil, 1909–1964), historian Eve Buckley uses the case study of water-management projects in northeastern Brazil to study these effects. Beginning in the 1930s, Brazilian reformers sought to replicate the success of the Tennessee Valley [End Page vii] Authority (TVA) in the United States by using similar water-management projects to reduce drought, increase agricultural productivity, and generate electric power in the large northeastern region of their country. While the TVA had achieved tremendous success at using water-management infrastructure improvements not only to achieve economic objectives, but also changes in the political and social culture of Appalachia during the 1930s (Selznick, 1966), the Brazilian projects did not replicate these results. Paradoxically, although the water projects were intended to reduce the imbalance of wealth and power, their actual effect was to increase it. Infrastructure improvements (e.g., dams, roads, and irrigation canals) increased the security of landowners, their crops and their cattle, but did not reduce the poorest inhabitants’ vulnerability to drought or to the exploitative demands of their landowning patrons. In sum, Buckley concludes that underlying political and social factors (e.g., land ownership and class structure) trumped the otherwise admirable agricultural and economic objectives of moderate reformers and strengthened the argument of more radical reformers, who had unsuccessfully pushed for land redistribution in addition to infrastructure improvements. As always, this case demonstrates how local circumstances influence the outcome of international transfer projects designed to promote economic development. Economic-development literature generally supports this conclusion. While problems in one country may seem similar to those in another, most analysts (Borins, 1998; Jones &amp; Kettl, 2003) are well aware that solutions that are effective in one context may not succeed in another. Thus the term “smart practices” (Bardach, 2000) is preferable to the more commonly used “best practices,” because smart practices bring into view the need to adapt in order to sustain exogenous innovations. While we can learn much from comparative studies, applying what we learn must always take account of a number of variables specific to the local receiving context (Jabbra &amp; Dwivedi, 2004). In this case, this awareness helps explain why reform has ascended in the political agendas of some nations but not others (Barzelay, 2001, 2003). Smart-practice policy making emphasizes first elucidating and then reducing the mechanisms and factors that inhibit adaptation to contingency and...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019313590</t>
+          <t>https://openalex.org/W3197221739</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mon.2012.0017</t>
+          <t>https://doi.org/10.46340/eppd.2021.8.4.15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kniesche (2012)</t>
+          <t>Prykhozhanov (2021)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933</t>
+          <t>LEGAL AND SOCIAL RESPONSIBILITY OF BUSINESS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Reviewed by: Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933 Thomas W. Kniesche Metamorphoses of the Vampire in Literature and Film: Cultural Transformations in Europe, 1732-1933. By Erik Butler. Rochester, N.Y.: Camden House, 2010. ix + 225 pages. $75.00. The purpose of Erik Butler's book is to provide "a coherent, historically informed theory of the vampire" and "to account for the logic underlying the vampire's many and conflicting forms" (vii). At first glance, this seems to be a lofty goal for such a relatively slim volume, but the author is able to cover a lot of ground. Literary and non-literary texts by English, French, and German authors and films from the Weimar period are used to shed light on the figure of the vampire. The last chapter adds Hollywood movies, the TV show Buffy, the Vampire Slayer, the novels of Anne Rice, and [End Page 112] other monsters, such as cyborgs and zombies, to the mix. The historical framework indicated in the subtitle hints at his major thesis. According to Butler, the vampire is an eminently modern phenomenon: it owes its far-reaching impact and ongoing fascination to processes of change and transformation, to the crises that are constantly generated by modernization and the uncertainties and upheavals in its wake. Butler dismisses the countless pre-modern examples of vampire stories and myths of similar beings that are a staple of many diverse cultures and maintains that "real" vampires did not exist before the 1700s (5). In his introduction, Butler calls his methodological approach to the topic of vampirism a "[c]ultural teratology" (1) and defines the term as "the science of phenomena that contravene the rules of regularity and stability [ . . . ]" (8). He lists Carlo Ginzburg, Michel Foucault, Jacques Lacan, and René Girard as his sources of inspiration (8-9). He also freely admits his "debt to psychoanalysis" and states that "in large part, the study reads works as imaginary projections" (viii). His readings are indeed informed by Freudian and, to a limited extent, Lacanian concepts, but the study does not provide any in-depth discussion of psychoanalytic thinking. Referring to Foucault's Madness and Civilization, Butler argues that monstrosity is that against which man defines himself and his normalcy. He then goes on to claim that the vampire is a different kind of monster: by shape-shifting all the time, the vampire does not provide a steady monstrosity that would allow "us" to define ourselves. "Instead of giving us a stable enemy, the vampire belongs to multiple worlds, including our own. It therefore reflects an anxiety that we, perhaps, do not know at all who 'we' are" (9). The first of three parts of the book is devoted to the beginning of the modern discourse on vampires in the early 18th century and to the image of the vampire in the Enlightenment and Romanticism. Chapter One discusses early reports of vampirism in Eastern Europe and shows that vampirism was invented as a scholarly discourse during a time of crisis and confusion, brought about by secularization and metaphysical uncertainty. Butler also stresses the political dimension of the belief in vampires and claims that "Serbian vampirism suggested the vulnerability of the House of Habsburg" (36). The second chapter highlights the vampire as a means of political satire. According to this line of reasoning, in the late 18th and early 19th century, the vampire was "a uniquely dynamic allegory for the depersonalizing aspects of modernization" (54). The Romantic vampire—in the works of Shelley, Baudelaire, Brentano, and Heine—is, according to Butler, an extension of the writer's "sense of dislocation and alienation resulting from political transformations" (63). The second part of the study, entitled "England and France," looks at the 19th century vampire and features Polidori's vampire Lord Ruthven and Bram Stoker's Count Dracula. What is new about these two vampires, according to Butler, is that they represent the fluidity of modern class relations. Although Lord Ruthven may have been modeled after Lord Byron (88), the former also bears traits of a "factory owner" (92). Butler notes that Bram Stoker's Dracula establishes himself in London via "property deeds...</t>
+          <t>The problem of offenses and legal liability for them occupies one of the leading places in legal science.Such negative phenomena as embezzlement of the state budget, corruption, withdrawal of funds offshore, the monopoly position of business in the market, etc. require special attention.The reasons for the current situation, if the analysis of the reasons for the existence of the oligarchic mafia is limited to legislation in the field of reform, are their declarativeness, aimed at solving pseudo rather than real problems.Hence the inefficiency of legislative decisions, the transformation of the fight against the above negative phenomena in its simulation.The Draft Law of Ukraine "On Prevention of Threats to National Security Related to Excessive Influence of Persons with Significant Economic or Political Weight in Public Life (Oligarchs)" provides for the establishment of the Register of Persons with Significant Economic or Political Weight in Public Life (Oligarchs) ), determining the procedure for inclusion of persons in the Register and the consequences of such inclusion, introduction of declaring by public servants of contacts with persons included in the specified Register.It is projected that the implementation of the Law will affect those who have significant economic and political weight in public life (oligarchs) and their associates, as well as public servants.We have developed a model of organization of economic activity, in the conditions of which it is impossible to cause harm to the state in all the above areas.The essence of these organizational conditions requires separate consideration.It is clear that such conditions should be enshrined in the bill on de-oligarchization.This is, so to speak, the first block of issues of the bill on de-oligarchization.Such conditions should be enshrined in the bill on de-oligarchization.In addition to the above conditions, the bill on de-oligarchization should contain mechanisms to increase the social responsibility of oligarchs.Keywords: anti-corruption legislation, additional bodies of control over authorities, oligarchic mafia, embezzlement of the state budget, corruption, withdrawal of funds offshore, monopoly position of business.Introduction.The problem of offenses and legal liability for them occupies one of the leading places in legal science.Such negative phenomena as embezzlement of the state budget, corruption, withdrawal of funds offshore, the monopoly position of business in the market, etc. require special attention.But, despite the understanding of these problems by the current authorities, the adoption of anti-corruption legislation, the creation of appropriate structures for governance reform, the establishment of special (additional) bodies to combat these negative phenomena, assistance in reforming our foreign partnerstendencies to overcome the above offensesno observed.On the contrary, corruption in government, embezzlement of the state budget, monopoly in the economy, distortion of competition, and the volume of market monopolization are not decreasing, but, on the contrary, are increasing.Review of works on this issue.In the legal literature, issues related to the fight against the oligarchic mafia, the analysis of legislative acts in the field of reform, the declarative nature of existing acts and bills were practically not considered.Theoretical issues related to economic and legal responsibility of business were considered by well-known experts in business law, namely: O. Vinnyk, D. Zadykhailo, O. Zeldina, J. Petrunenko, O. Podtserkovnyy, V. Ustimenko, O. Shapovalova, S. Shishkin, V. Shcherbini, etc.At the same time, the country now needs to study the problems of responsibility, especially big business in business relations.In our opinion, insufficient attention is paid to the issues of social and legal responsibility of business.The purpose of this article is, first, to analyze and develop proposals to improve the concept of the draft law of Ukraine "On prevention of threats to national security associated with excessive influence of persons who have significant economic or political weight in public life (oligarchs)".Secondly, it is a study of the problems of responsibility, especially big business in business relations.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W4248121935</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.1353/ccr.2020.0020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Ma‐Kellams (2020)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>Y.Y</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>Y.Y Christine Ma-Kellams (bio) Mr. P asked us for our family history. Because A's were my only currency and history teachers the only loves of my life, I did what he said. Then chopsticks got waved, chairs pushed against linoleum, rice burned. Most things get lost in translation, especially if that translation involves a Twinkie who never went to Chinese school, but this much is true: this historiography never made it into Mr. P's hands. Four decades after the official end of the Great Proletariat Cultural Revolution and three decades after Mao's death, we were naturalized citizens living in Southern California, churchgoing Christians who believed in Jesus and George W's ability to be a cowboy when we needed him. We had American Ph.D.s and US-born children; the NSA was still a Great Unknown and Snowden's stories were still a figment of the conspiracy-minded foresight. Still, we were terrified. My folks weren't the only ones either. We had a UCLA friend whose father I talked to about what he went through in postbellum China. Ye Ye, what did you see? He stopped as soon as he found out this was something I was writing down. He had two grown sons who live far away, as sons are in the custom of doing these days, a dead wife, no grandchildren, and a hoarder-style studio outside Westwood. He was old. I would've said he had little to lose. "You don't know nothin' about Mao Zhe Dong." "He's dead." "When did that ever change anything?" "What are you afraid of?" "You don't know shit." (And that was the last I heard from him.) The Dominicans, they have their Junot Díaz and fukú, their Curse of the New World. The Russians have their glasnost and the Germans have their German guilt. They've got names for the gifts history dumped on them, a common thread upon which to string their hauntings. Leave it to the Chinese to have nothing but our fond silence that has made us such spectacular and tame students with nothing to say and everything to gain, except maybe inclusion in affirmative action or partner status at the firm or tenure. We don't talk about it, but when we must, it comes out in pieces, like peanut brittle, or teeth. Zhou Y.Y. didn't know how rich he had it, until he did, but by then it was too late. In those glory days before the Great Proletariat Cultural Revolution, Y.Y. had an afternoon snack at 3 every day. He [End Page 78] lived along a courtyard hedged by a string of arched wooden doors, and though they led to different-sized abodes you could not tell by looking whose houses were bigger. What you could tell—the most obvious and devastating social marker—was who ate what, and Y.Y. was never visiting the neighbors or meandering towards the market or silently scribbling his name at 3 p.m. He was always inside, and if you shushed your children and paused your chopping and boiling and sweeping, you would be able to hear the soft grinding of teeth on cookie, in a land where butter wouldn't be a household term for another four decades. Sometimes they were quartered persimmons and you could hear his gums squeak against the slippery orange skins. Other times they were flakey crackers and if you closed your eyes you could see the starchy crumbs falling from his crimson tongue like manna from heaven. When times were real thin you couldn't hear chewing at all, and you knew it was haw flakes silently held between soft gums, and you were both ashamed and happy. So Y.Y. ate his snacks at mid-afternoon while the rest of the country watched and waited for dinner. On Sundays his neighbors would stir-fry something green and stalky and the smell of ginger would pickle his nose. He would be jealous, as only privileged children can afford to be, because his grandmother forced him to eat meat, and he was born a vegetarian. Only on New Year...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2116178833</t>
+          <t>https://openalex.org/W2896774911</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/forestry/cpp023</t>
+          <t>https://doi.org/10.1016/j.accinf.2018.09.002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Macdonald et al. (2009)</t>
+          <t>Troshani et al. (2018)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The effects of transformation of even-aged stands to continuous cover forestry on conifer log quality and wood properties in the UK</t>
+          <t>Digital transformation of business-to-government reporting: An institutional work perspective</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>There is an increasing move in the UK to transform even-aged, single-species conifer plantations to continuous cover forest, i.e. more diverse and irregular stand structures. However, experience of doing this is limited and research to date has not addressed the consequences of this change on timber quality. This paper reviews the impact of transformation on timber quality and wood properties and uses coupled growth and timber property model simulations to examine the effects of different transformation scenarios on Sitka spruce (Picea sitchensis (Bong.) Carr.). The results of the modelling broadly confirmed the conclusions from the literature review. Five key aspects of transformation are considered. Retaining trees to older ages can produce higher quality timber with improved mechanical properties. Regular selective thinning and increased use of crown thinning will improve timber quality, but timing is critical to avoid producing highly tapered trees with heavy branches. Creating gaps in a uniform canopy will generally have a negative impact on the timber quality of the trees around the gap edges. Increased variation in tree age, size, spacing and species will result in greater variation in log quality and wood properties. Using natural regeneration reduces the opportunities for improved growth and timber quality offered by selectively bred planting stock but can deliver good-quality timber if the characteristics of the original stand are suitable and adequate stocking is achieved. The main conclusion of this review is that transformation to continuous cover forestry will not lead to a significant reduction or improvement in the quality of timber being produced in forests in the UK. The main effect will probably be to increase the variation of log sizes and wood properties that are available in the market.</t>
+          <t>Traditional business-to-government reporting is a core remit of the accounting function but is associated with a significant administrative burden on business. This burden is a major obstacle hindering business efforts to achieve core efficiency and innovation objectives. We use the conceptual lens of institutional work to examine how traditional business-to-government reporting is abolished and how digital reporting is established to replace it in attempts to reduce administrative burden but without compromising regulation effectiveness. We adopt a comparative approach to analyse qualitative evidence from three jurisdictions, namely, Netherlands, United Kingdom, and Australia. Regulators across these jurisdictions have been both pioneers and leaders internationally to transform business-to-government reporting in multi-agency settings. Our analyses illustrate how institutional work to develop digital business-to-government reporting across the jurisdictions was shaped by international influences and local factors. We also illuminate how actor engagement issues and the intertwined and mutually reinforcing nature of a mosaic of forms of institutional work shaped the path of these transformations. The study contributes to existing research by explaining how supportive conditions and structures are brought about and made to coalesce in the regulatory business reporting space for digital reporting to become established and widely adopted by business.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3116970065</t>
+          <t>https://openalex.org/W4385811424</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
+          <t>https://doi.org/10.36227/techrxiv.23899788</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Лиханова et al. (2020)</t>
+          <t>Ogbaga &amp; Christiana (2023)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
+          <t>Contextualizing Climate Change Solutions Through the Deployment of Cooperative Artificial Intelligence (AI) Agents</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
+          <t>&amp;lt;p&amp;gt;Climate change presents one of the most significant challenges facing humanity in the 21st century. Mitigating its impacts and developing sustainable solutions requires a multidisciplinary approach that leverages advanced technologies. This paper proposed the deployment of cooperative Artificial Intelligence (AI) agents as a viable strategy for contextualizing solutions to climate change. Firstly, it explored the use of AI agents in analyzing climate data, predicting future trends, and informing decision-making processes. This data-driven approach can help policymakers, scientists, and stakeholders to better understand the complex dynamics of climate change and design effective mitigation and adaptation strategies. This research also addressed ethical considerations associated with the deployment of AI agents in climate change contexts. It emphasized the importance of transparent and accountable AI systems, ensuring that their decisions align with human values and priorities. Additionally, it discussed the need for interdisciplinary collaboration to guide the development and deployment of AI agents, fostering inclusivity, fairness, and equitable access to AI technologies. Finally, this paper highlighted the potential of cooperative AI agents as a powerful tool for contextualizing solutions to climate change. By harnessing their analytical capabilities, adaptability, and collaboration potential, these agents can facilitate evidence-based decision-making, optimize resource management, and support the transition to a sustainable future. However, it also emphasizes the importance of addressing ethical concerns and fostering responsible AI development to ensure that AI agents serve as enablers rather than substitutes for human judgment and action. &amp;lt;/p&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322574685</t>
+          <t>https://openalex.org/W4281552355</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/anti.12229</t>
+          <t>https://doi.org/10.1103/physreve.105.054410</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Verga (2016)</t>
+          <t>Shrestha et al. (2022)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rhetoric in the Representation of a Multi-Ethnic Neighbourhood: The Case of Via Padova, Milan</t>
+          <t>Mechanochemical coupling of lipid organization and protein function through membrane thickness deformations</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>This paper analyses how the neighbourhood of Via Padova in Milan, Italy has been represented and problematized by the media and the last two municipal administrations over the last decade. Since the late 1990s, Via Padova has undergone a significant socio-demographic transformation, one which has eventually characterised the area as one of the most multi-ethnic and diverse districts in the whole city. However, this transformation process and the upcoming new framework for the neighbourhood have been explained and approached in very different (and contested) ways. The aim of this paper is to compare the different narratives provided by both the media and also governmental institutions during the formerly right-wing and current left-wing administrations, and the implications of this, both in the shaping of a collective image of the area and in the development of local policies. L'articolo analizza come nello scorso decennio il quartiere di Via Padova a Milano sia stato rappresentato e problematizzato dai media e dalle ultime due amministrazioni comunali. A partire dalla fine degli Anni Novanta l'area in questione ha subito un profondo mutamento socio-demografico che ha progressivamente caratterizzato Via Padova come uno dei settori più eterogenei e multietnici della città. Tuttavia, negli anni sono emerse letture ed interpretazioni discordanti di questo processo di trasformazione e della risultante nuova struttura del quartiere. L'articolo compara le diverse narrative fornite dai media e dalla giunta comunale, sia durante la passata amministrazione di centro-destra che durante quella attuale di centro-sinistra, al fine di individuare le implicazioni di queste nella costruzione di un immaginario pubblico del quartiere e nello sviluppo di specifiche politiche locali.</t>
+          <t>Cell membranes are composed of a great variety of protein and lipid species with distinct unperturbed hydrophobic thicknesses. To achieve hydrophobic matching, the lipid bilayer tends to deform around membrane proteins so as to match the protein hydrophobic thickness at bilayer-protein interfaces. Such protein-induced distortions of the lipid bilayer hydrophobic thickness incur a substantial energy cost that depends critically on the bilayer-protein hydrophobic mismatch, while distinct conformational states of membrane proteins often show distinct hydrophobic thicknesses. As a result, hydrophobic interactions between membrane proteins and lipids can yield a rich interplay of lipid-protein organization and transitions in protein conformational state. We combine here the membrane elasticity theory of protein-induced lipid bilayer thickness deformations with the Landau-Ginzburg theory of lipid domain formation to systematically explore the coupling between local lipid organization, lipid and protein hydrophobic thickness, and protein-induced lipid bilayer thickness deformations in membranes with heterogeneous lipid composition. We allow for a purely mechanical coupling of lipid and protein composition through the energetics of protein-induced lipid bilayer thickness deformations as well as a chemical coupling driven by preferential interactions between particular lipid and protein species. We find that the resulting lipid-protein organization can endow membrane proteins with diverse and controlled mechanical environments that, via protein-induced lipid bilayer thickness deformations, can strongly influence protein function. The theoretical approach employed here provides a general framework for the quantitative prediction of how membrane thickness deformations influence the joint organization and function of lipids and proteins in cell membranes.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2490211392</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/chol9780521816052</t>
+          <t>https://openalex.org/W2992242342</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brown &amp; Tackett (2006)</t>
+          <t>Jones et al. (2008)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The Cambridge History of Christianity</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
+          <t>Making the Transition to Collaborative Service-Learning.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W589563035</t>
+          <t>https://openalex.org/W4306248795</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ccr.2022.214882</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Chaouche (1991)</t>
+          <t>Liu et al. (2023)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Une méthode de collocation pour la prédiction et l'analyse des écoulements et des transferts dans les milieux en rotation rapide</t>
+          <t>Covalent organic frameworks towards photocatalytic applications: Design principles, achievements, and opportunities</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Une methode pseudo-spectrale de type collocation, sur la base des polynomes de chebyshev, est developpee pour la resolution des equations de navier-stokes instationnaires et la prediction des mouvements et des transferts d'un fluide de boussinesq dans une cavite en rotation rapide. L'utilisation de schemas d'adams-bashforth et d'euder retarde du second ordre associee a la technique de la matrice d'influence conduit a la resolution d'une succession d'equations de poisson-helmholtz avec des conditions limites de type dirichlet. Cette technique a ete etendue a diverses configurations de conditions limites de type neumann. Quelques regimes d'ecoulements stationnaires ou dependant du temps, generes par differents mecanismes moteurs sont etudies. Dans le cas des gradients thermiques, on s'est interesse a l'etude de l'interaction convection-rotation en cavite fermee afin de delimiter les differents regimes domines par l'une des forces en competition. Dans le cas d'un flux force radial, l'etude porte sur les differents regimes laminaires, lineaire ou non lineaire, avec des conditions de type dirichlet en sortie de cavite. L'extension a des conditions de tyupe neumann a aussi ete examinee. Dans le cas ou le mouvement est genere par la rotation differentielle dans une cavite fermee de grand allongement et pour lequel existent des resultats experimentaux, on s'est notamment attache a identifier les differents regimes avec une particuliere attention pour ceux au voisinage de la transition turbulente. Enfin, il est propose une extension de la methode de collocation en configuration tridimensionnelle en vue d'une simulation directe de la turbulence</t>
+          <t>As a subclass of porous framework materials, covalent organic frameworks (COFs) feature permanent porosity, long-range order, and rigid backbones, and offer an important material platform for addressing the issues of global energy and environmental crisis. Along with the rapid development of physics, chemistry, materials science, engineering, as well as their collaboration, this research area has witnessed a dramatic growth proceeding to wide applications including gas storage and separations, energy storage and conversion devices, drug delivery, chemical sensing, and photo/electrocatalysis. Specially, structural designability, large surface area, high porosity, and superior chemical stability make COFs ideal candidates for photocatalytic systems, and great achievement and progress have been made up to now. In this Review, the key advancements made in COF-based photocatalysis are thoroughly presented. We first highlight the design principles and strategies for COFs synthesis with a special focus on their potential for photocatalysis. Following this, various photocatalytic applications of COFs are presented, covering the topics of photocatalytic hydrogen evolution, photocatalytic oxygen evolution, carbon photocatalytic dioxide reduction, photocatalytic organic transformation, and other photocatalytic reactions. Finally, the key challenges to be addressed and future avenues to be pursued are outlined, aiming to yield novel insights and contribute to game-changing innovations in this emerging area.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3106467977</t>
+          <t>https://openalex.org/W3095268299</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4314/ujah.v20i3.12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vélez &amp; Ramírez (2018)</t>
+          <t>Umezi (2020)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>La escultura como medio representativo de la carrera de artes plásticas utmach</t>
+          <t>Ilu Igbo: Igosipụta Ọnọdụ Ụmụnwaanyị n’ọkwa Ọchịchị n’ala Igbo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The present project of titulacion, aims to inform the student community the emergence of the School of Fine Arts, name with which the current Career of Plastic Arts of the UTMACH was founded; for which sculpture is used as an ideal artistic medium, taking advantage of new materials and contemporary possibilities to achieve the dissemination and massification of that. Life and art through time have created a close communicative relationship, which strengthens history by marking an important value of sculpture, thanks to this plastic method can generate a contribution of knowledge, through the representation of a social event and cultural, full of merits and connotation of constant effort in order to conceive an objective, reaching the expectant in a diachronic manner. In search of altering space and time, this enriching contribution becomes a transcendental aesthetic contemplation in the academic community. As a main element of artistic promotion and diffusion, the Totem will be taken into account and what it represented for the ancestral culture that was to inform allegorically; then, in this aspect will be inserted compositional elements that are able to reach the viewer and thus demonstrate that the sculpture is of great importance because it transmits a message to the university spectator. By means of which the representation of this artistic object, named perpetuidad memorial, was used as a way to recognize the effort and work of Soc. Ramiro Ordonez, who saw in the city of Machala, the inherent need of implement a career that defines a cultural vision. For this, a small space is intervened within the UTMACH Campus Machala, which will be strategic, managing to convey the message directly about what art is and who formed it as an educational space for higher education. The arts degree is finally legitimized on September 2, 2003. Starting in 2004 its academic period, with the aim of training artists with extensive experience with a critical thinking that understands the importance of art in social development. Art seeks to confront the barriers that arise along the way, conjugating, signs and symbols, which put into question the present, retaking part of the past, to visualize the future, starting from images and pre-Columbian icons and those ideologies of contemplation by man guiding us in his anthropomorphic and sequential figures, capable of intervening in the educational and transitional space, orienting motivated students, predominating the will, delimited by curiosity. Art and public spaces, since a long time ago have been giving diversities of artistic interventions, giving another meaning to things. The totemic sculpture allows us to make visible, the artistic representation and other facts relevant to the construction of identity or origin, which will last over time, even if the work or the artist is extinguished, part of it will remain latent in the subconscious, as well as photographic records and electronic media.</t>
+          <t>Nchọcha a bụ maka Ilu Igbo: Igosipụta ọnọdụ ụmụnwaanyị n’ọkwa ọchịchị n’ala Igbo. Ihe nwanchọcha bu n’obi bụ izipụta etu ndị Igbo si eji ilu dị iche iche ha ji achọ okwu mma ezipụta na ụmụnwaanyị enweghi ọnọdụ n’ọchịchị n’ala Igbo. Nkụ dị na mba na-eghere mba nri. Ndị Igbo na-esi n’ilu dị iche iche were ezipụtaomenala ha. A bị a n’ala Igbo, ụmụnwaanyị bụ ndị a na-eleda anya nke ukwuu n’ihe gbasara ọnọdụ ọchịchị obodo dị iche iche. Odee nyochara ọnọdụ ọchịchị n’ala Igbo bido n’oge ochie ruo ugbu a; o mere ka o doo anya na n’agbanyeghị na usoro ọchịchị Bekee mere ka onye ọbụla nwee nhatanha ọnụokwu n’usoro ọchịchị mba ọbụla, ọ ka bụ ihe siri ike ugbu a nwaanyị ijide ọkwa ọchịchị n’ala Igbo. Ihe ndị a na-apụta ihe site n’ilu ndị Igbo ji ekwu okwu. Ụfọdụ ilu ndị ahụ bụ ndị a: Nwaanyị lerịa di ya, ike akpọọ ya nkụ., Ụbọchị di nwaanyị nwụrụ ka ọnụ mmiri okwu ya gwụrụ. Odee gara n’ihu wee jụọ ihe a ga-eme iji hụ na onye ọbụla nwere nhatanha ọnụokwu n’ọchịchị ododo dị iche iche. Ka o sila dị, ọ kọwapụtara na e nweela mgbanwo pụtatra ihe n’etu ndị Igbo si elegara ụmụnwaanyị anya n’ihe gbasara ọchịchị . Nke a pụtara na ụmụnwaanyị ji nwayọọ nwayọọ na-abanye n’ọkwa ọchịchị dị iche iche ugbu a.&amp;#x0D; English Abstract&amp;#x0D; Igbo Proverbs: X -Ray of the position of women in leadership position in Igboland. The writer intends to manifest how the Igbos use their proverbs to show that women have no chance in Igbo leadership position. The research was guided by transformational theory of leadership. The researcher traced the history of Igboleadership system from the time prior to the advent of the colonial masters till the present age. It was discovered that the Igbos look down on women when it comes to major decision making. They manifest this attitude through the proverbs they use in their daily conversations. Some of those proverbs are Nwaanyị lerịa di ya, ike akpọọ ya nkụ.(If a woman kooks down on her husband she would have a dry buttocks) Ụbọchị di nwaanyị nwụrụ ka ọnụ mmiri okwu ya gwụrụ. (whenever a woman loses her husband, she loses her speep saliva). However, it was noticed that in the present age, women are gradually being recognized in decision making process among the Igbos. He finally advocates that gender should not prevent peoples’ participation in leadership. Every person should be equal before the law. As such, women should not be excluded from leadership position among the Igbo.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2076518520</t>
+          <t>https://openalex.org/W4297819080</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3200/demo.13.4.543-594</t>
+          <t>https://doi.org/10.17994/it.2022.20.1.68.7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hahn (2005)</t>
+          <t>Korol’kova (2022)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The Rise of Islamist Extremism in Kabardino-Balkariya</t>
+          <t>Evolution of United States’ Private Military and Security Companies: The Case of Afghanistan 2001–2021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Abstract: This article examines the expansion of Russia's emerging Chechen-led revolutionary Islamist terrorist network into the central-western North Caucasian republic of Kabardino-Balkariya (the Republic of Kabardino-Balkaria or KBR), which in many ways is the geopolitical and ethnopolitical gateway to the western North Caucasus. The network's expansion into the region demonstrates the ability of Chechen-based Islamism to travel across geography and ethnicity among Russia's Muslims. This article argues for a comprehensive, multicausal explanation of communal mobilization that includes international, institutional, and economic factors in addition to communal-political ones, especially in cases of extremist terrorist groups, such as those in Russia's growing revolutionary Islamist network. It also shows that in Russia, as elsewhere, the international jihadist movement, inspired and funded by al Qaeda, has made some progress in coopting local nationalist movements among Muslim peoples to the Islamist cause. Key words: Chechnya, jihad, Kabardino-Balkariya, Islamism, terrorism ********** Russia's ongoing Chechen war and President Vladimir Putin's antifederalist, antidemocratic recentralizing counterrevolution are leading to the radical re-Islamization of some of Russia's Muslims and the formation of a geographically expansive, ethnically diverse, flexibly organized terrorist Islamist network across Russia, not unlike the al Qaeda model on the international level. If earlier the Islamist network of combat jamaats was limited first to the eastern North Caucasus--Chechnya, then Dagestan and Ingushetiya--it has recently spread to the western North Caucasus, dominated by the Circassian (or Adygei) groups. The emergence of Islamist cells, jamaats, or a full-fledged network node in the KBR, would not only reflect on the jihadist movement's geographical reach, but also on its potential multiethnic, pan-Caucasus and pan-Islamic appeal. The appearance of Islamism in the KBR seems to confirm that frustrated ethnonationalist aspirations under certain conditions can transmogrify into Islamic nationalism or revolutionary Islamist jihadism. The Immediate Causes of Communalism and Islamist Mobilization under Putin Watershed historical turns and processes, such as war, revolution, and other forms of regime transformation, have multiple causes. They are simply too large and multifaceted to be explained by one or two causes. Long-term historical, cultural, and structural causes mix with intermediate and immediate tipping or precipitating causes to produce major events. Putting aside historical (past conflict between the parties) and cultural (tendencies toward authoritarianism, expansion, and violence among the parties) structural causes, there are at least six intermediate and immediate causes of rising communalism (the drive for isolation and self-determination based on ethnic, national, linguistic, religious, or regional identity communities), Islamic nationalism, and Islamist terrorism in Russia. First and foremost, the festering Chechnya quagmire and the penetration of international Islamist terrorists through the Chechen movement are fomenting Islamist mobilization, revolution, and war throughout many Muslim-populated regions of Russia. The ongoing Chechen war is facilitating the international Islamists' deeper infiltration into Russia by justifying radicalism in some Muslims' eyes and extending the influence of Islamists beyond Chechnya. In the new war, both sides have attained an inhumane scale of atrocity. On the Russian side, the indiscriminate use of force at the start of the war was succeeded by more precise, but still often criminal, security sweeps, involving the seizure and murder of many thousands of innocent Chechens. On the Chechen side, there have been small-scale and unprecedented large-scale terrorist attacks, including suicide bombings and hospital and school sieges, targeting innocent citizens, including schoolchildren. …</t>
+          <t>The withdrawal of troops on 31 August 2021 which was carried out in accordance with the Agreement signed on 29 February 2020 between the U.S. government and the Taliban (an international terrorist organization banned in the Russian Federation) marked the end of the international military campaign in Afghanistan which lasted twenty years. Assessing the preliminary outcomes of nearly a quarter-century of the US military and their NATO allies’ presence in Afghanistan, U.S. President Joseph Biden announced the end of “an era of major military operations to remake other countries”. Though the consequences of the Western coalition campaign in the area remain to be evaluated and they are unlikely to turn out to be unequivocal, the Atlantic strategy aimed at rebuilding and democratization of Afghanistan proved itself as bankrupt. Our research focuses on the way the twenty-year military campaign in Afghanistan affected the development of the U.S. private military and security companies (PMSC) industry. For these purposes, we, firstly, studied and traced the transformation of the private military and security services market in the U.S., and examined the changes of approaches and mechanisms used to contract PMSCs. Secondly, we analyzed the way the U.S. authorities addressed the challenges new market evoked, focusing on the measures of legal regulation that were applied to PMSCs, and the way the working of the U.S. institutional mechanisms was transforming. The final part of the research contains conclusions on the perspectives for the development of the American PMSC industry after the withdrawal of the U.S. troops from Afghanistan. We believe that due to its duration and continuity, the Afghan operation ensured a launchpad for the PMSC industry and provided conditions for private military and security companies to acquire and master high-end experience which in turn, contributed to the development of a certain market that goes well beyond the involvement of conventional human capital. It provided solutions for the production, utilization, and maintenance of the equipment and technologies, allowing the minimization of the direct participation of specialists in hostilities. Alongside the development of the American PMSC industry itself, the research studies the investigations conducted by the U.S. authorities into the cases of abuse committed by the contractors during their participation in Afghan war. It discusses the way this practice encouraged the transformations of United States procedures and mechanisms aimed at reducing malpractice when performing contracts and launched changes in U.S. legislation. It also demonstrates the lessons learned by the U.S. from the contractual practice with regard to the regulation of PMSCs. The research reveals the strengths and weaknesses of the American policy regarding PMSCs during the whole period of the military conflict in Afghanistan and helps to evaluate the success of the U.S. efforts in monitoring contractors across Afghanistan. To conclude, we reckon that considerable contractual experience acquired in Afghanistan ensures technological and procedural progress of the U.S. PMSC industry. Given the enduring rivalry between the U.S., Russia, and China, including in the military and technological spheres, the twenty-year experience of direct participation in hostilities by U.S. PMSCs boosted its competitive advantage compared to Russia and China, whose PMSCs still lack such an experience.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026250138</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
+          <t>https://openalex.org/W4299882893</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Callahan (2015)</t>
+          <t>Brothers (2009)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Opening the Door to Transgender Care</t>
+          <t>Dispensing history, art and mystery in the Medical History Museum of University of Melbourne.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
-_x000D_
-The pressing need to reduce health disparities for those with marginalized sexual orientation and/or gender identity was brought to public attention with the publication of a committee report from the Institute of Medicine (IOM; 2011).2 That report documented serious health disparities in lesbian, gay, and bisexual (LGB) populations, prompting recognition of the medical profession’s ethical responsibility to reduce those disparities.3 Ironically, almost fully absent from the IOM report was the T in LGBT: trans populations. The near silence on trans health stems from the fact that there were so few data on the health of trans populations. In its report, the IOM committee recommends increased efforts to document the gender identity of patients seen in routine care as well as the gender identity of those responding to surveys. Since less than 0.5 % of the population is reputed to be trans, why is this a critical issue for readers of this journal?_x000D_
-_x000D_
-First, while gender identity disorders have not yet been the focus of formal epidemiologic studies, Atkins et al.4 contend that clinic-referred samples suggest an increasing prevalence. Reviewing ten years of data, Blosnich et al.5 reached the same conclusion: they found that the frequency of gender identity diagnoses in the Veteran’s Administration health care system nearly doubled from 2002 through 2011. That remarkable increase is prompting new VA initiatives to enhance care for trans patients, including new programs to reduce trans suicidality. Existing data cannot clarify whether the overall incidence of gender dysphoria has increased or whether the noticeable difference reflects more people becoming open about their gender identity. In addition to more individuals appearing to accept and acknowledge their gender identities, it is likely that the Affordable Care Act has increased access to primary care for many trans patients who had little or no access to care in the past._x000D_
-_x000D_
-Second, there is a strong cultural stigma against trans people that often negatively impacts their health. There is evidence of bullying and violence against trans people that begins in the early years, sometimes even within the family, and continues throughout life;6 this violence often extends to trans people being the target of sexual violence. Perhaps most importantly, the cultural rejection of children and adults who exhibit cross-gender behavior and/or appearance has permeated the health care environment._x000D_
-_x000D_
-Two recent surveys document common negative experiences of trans people seeking health care. An online survey conducted by Lambda Legal7 found that nearly 27 % of trans people surveyed reported that they had been denied the health care they sought because of their gender identity. Further, while 21 % reported verbal abuse by their provider, almost 8 % reported that they had experienced rough or physically abusive treatment by a health care professional. In that survey, trans patients reported far higher levels of mistreatment than LGB patients, even higher than the rates reported by HIV-positive patients. It is unknown how many trans patients have stopped seeking care because of their experience at the hands of primary care providers, but it is clear that there is a need for quality improvement in care for trans patients._x000D_
-_x000D_
-To better understand the health needs of sexual minority patients in California, the state Department of Public Health developed a collaborative online survey that was completed by over 3,000 lesbian, gay, bisexual, transgender, queer, and questioning (LGBTQ) individuals.8 The survey results revealed that 75 % of respondents agreed with the statement, ”I have experienced emotional difficulties such as stress, anxiety or depression which were directly related to my sexual orientation or gender identity/expression,” sowing the seeds for increased risk for a variety of</t>
+          <t>The installation of an 1849 Savory &amp; Moore Pharmacy has been a popular attraction for visitors, yet under-utilised in the Museum as a means through which a deeper understanding of the making and taking of medication could be told. The opportunity to research and present these stories to a wider field of viewers in an online multimedia production is discussed here, and is set within the context of the challenges met by the Museum in terms of its relevance and sustainability within a University focused on the future as a graduate University. Under the radical reform of its curriculum, funding and students are more likely to be attracted to medical science than medical history, unless new questions are put to historical items and ways sought to draw on the curiosity and imagination of students who might gain a greater breadth of knowledge by learning through engagement with original objects.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2980528933</t>
+          <t>https://openalex.org/W1965938370</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.abrep.2019.100224</t>
+          <t>https://doi.org/10.1090/s0002-9939-1969-0235546-5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Calabro et al. (2019)</t>
+          <t>Horelick (1969)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pilot study to inform young adults about the risks of electronic cigarettes through text messaging</t>
+          <t>Pointed minimal sets and 𝑆-regularity</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Young adults are rapidly adopting electronic cigarette (e-cigarette) use. The popularity of e-cigarettes among young people can be attributed to heavy industry advertising and misleading health claims. Data indicate that young e-cigarette users who have never used conventional cigarettes may transition toward smoking combustible cigarettes. Communicating e-cigarette risks via text messaging is limited. This pilot study assessed the impact of exposure to 16 text messages on e-cigarette knowledge and risk perception. The short text messages delivered to participants conveyed e-cigarette use may lead to addiction to nicotine and explained the latest health-related findings.A two-group randomized pretest and posttest study was conducted among 95 racially, ethnically diverse young adults recruited from vocational training programs. Fifty percent of participants were randomized to receive either gain- or loss-framed messages. Knowledge and risk perceptions about e-cigarettes and tobacco use were assessed pre- and post-message exposure.Participants had a mean age of 20.8 years, SD = 1.7. Current use of e-cigarettes was reported by 10.5% (10/95) and 27.4% (26/95) used a variety of other tobacco products. Findings revealed significant increases in knowledge about e-cigarettes after exposure to the messages (range for ps: p &lt; 04 to p &lt; 0.0001). A statistically significant increase in perceived e-cigarette risk was found post-exposure (p = 0.002). Participants randomized to gain-framed messages reported a significantly higher perceived risk of using e-cigarettes post-exposure than did those who received loss-framed messages (p = 0.02).This was a small-scale pilot requiring additional evidence to support the effectiveness of text messaging for increasing e-cigarette knowledge and risk perception. Future research may apply text messages to test new ways to educate young populations about tobacco use and consider addressing these messages to specific subgroups at high risk of use such as non-college bound young adults.</t>
+          <t>Let (X, T) be a point transitive transformation group (Cl (xT) = X for some xE X) with compact Hausdorff phase space X and discrete phase group T. Let 3T be the Stone-Cech compactification of T. If tET and {Sm} is a net in T converging to pGEEOT, put pt=lim Smt. If further { t, } is a net in T converging to q fEO3T, put pq =lim ptn. Ellis has observed [3] that these definitions make (fT, T) into a transformation group and make 3T into a semigroup in which left multiplication is continuous but right multiplication is generally not. Let e(/3T) = e be the algebra of all real-valued continuous functions on fT. Forf E e and t E T letfRt be the element of e, given by (fRt, p) = (f, pt) (pEE3T) (generally (f, p) =pf=the image of p under f). Define a subalgebra a of e to be a T-subalgebra if it is uniformly closed and iffRtEl whenever fEa and tET. Call a homomorphism of a into e a T-homomorphism if it commutes with Rt for all tET, and denote the set of all T-homomorphisms on a by a a . For eachfaE and tE T, define the map af t of I a I into the reals by O = (fc, t) (p E Ie a I). Ellis has shown [4] that, if I a I is provided with the smallest topology such that all the maps af t are continuous, then the action defined by (f(pt), p)= (fc, tp) (f E a, ck: E |I, tET, p C-3T) makes (I aI, T) into a point transitive transformation group for each T-subalgebra a. Further, given (X, T), a T-subalgebra a can be found such that ( a| , T) is isomorphic to (X, T) (we say a corresponds to X). In general there are many T-subalgebras corresponding to a given X. For convenience we repeat the Ellis construction, without proof. Choose xEX such that Cl(xT) =X. The map 7r. of Tonto X given by t7r =xt (t E T) becomes, when extended continuously, a homomorphism 7r * of (fT, T) onto (X, T); that is, a continuous map commuting with T. Write xp for p7r * (pEi3T), and define a map x* from e(X) into e by (fx*, p)=(f, xp) (fEC(X), pEfiT). Then a. = e(X)x* corresponds to X. Further, there is a natural isomorphisrr between (I axI, T) and (X, T) taking the inclusion map of I ax| onto x. Following Ellis, we shall say that a T-subalgebra (a of e has a certain recursive property if (I al , T) has that property. We shall primarily consider minimal algebras. For f e, q EofT, define fq ( e by (fq, p) = (f, qp) (p COT). Then Ellis has shown [5] that a is mini-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231551309</t>
+          <t>https://openalex.org/W3164506741</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119428299.oth1</t>
+          <t>https://doi.org/10.1016/j.cesys.2021.100038</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Andre (2017)</t>
+          <t>Yalçın &amp; Foxon (2021)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Conclusion</t>
+          <t>A systemic approach to transitions towards circular economy: The case of Brighton and Hove</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Free Access Conclusion Jean–Claude André, Jean–Claude AndréSearch for more papers by this author Book Author(s):Jean–Claude André, Jean–Claude AndréSearch for more papers by this author First published: 30 October 2017 https://doi.org/10.1002/9781119428299.oth1Citations: 1 AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat Citing Literature Bibliography Dufourmentelle A., Eloge du risque, Payot, Paris, 2011. Koestler A., Le cri d'Archimède: la découverte de l'art et l'art de la découverte, Les Belles Lettres, Paris, 2011. Lagadec P., Piloter en univers inconnu, Préventique, Bordeaux, 2013. Louisot J.M., “Optimiser la prise de risques”, Risk-Assur, vol. 474, pp. 28– 37, available at: https://www.riskassur-hebdo.com, 2017. Novel A.S., Riot S., Vive la co-révolution; pour une société collaborative, Manifestô-Gallimard, Paris, 2013. Pauli G., Croissance sans limites: objectif zéro pollution – Croissance économique et régénération de la nature, Quintessence Editions, Paris, 2007. Reich M.R., “ Le cas de la pollution du Michigan par le PBB ”, in M. Akrich , Y. Barth , C. RÉmy (eds), Sciences, politique et environnement, MINES ParisTech Editions, Paris, 2010. Rouquette M.L., Propagande et citoyenneté, PUF, Paris, 2007. Saint ExupÉry A., Citadelle, Folio, Paris, 2000. Schmitt L., “ L'industrie en pleine révolution”, available at: http://www.estrepublicain.fr/actualite/2017/01/19/l-industrie-en-pleine-revolution, 2017. From Additive Manufacturing to 3D/4D Printing 2: Current Techniques, Improvements and their Limitations ReferencesRelatedInformation</t>
+          <t>To date, the literature on the circular economy has been dominated by closed-loop industrial practices, circular products, and business models. Lack of systemic perspective in the circularity debate limited the understanding of multi-actor and multi-pattern transitions. In this paper, we apply a co-evolutionary framework to investigate key dimensions of a socio-technical system -ecosystems, technologies, businesses, institutions, and user practices-in the city of Brighton and Hove (United Kingdom). We present the causal interaction between these systems based on the outcomes of semi-structured interviews with the local actors and documentary analysis of relevant policies and strategies. Exploring how each system evolves under own dynamics and influenced by the dynamics in the others leads us to identify the main drivers and barriers of a circular economy in the city. Our findings underline the necessity of systems-level change with a holistic vision, consideration of place-specific factors and engagement of multiple actors for a successful transition.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3151650277</t>
+          <t>https://openalex.org/W1967038285</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10494820.2021.1905003</t>
+          <t>https://doi.org/10.2307/3514987</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Liu et al. (2021)</t>
+          <t>Curran &amp; White (1991)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Patterns of triggers for on-task and off-task behaviors: university students in independent study</t>
+          <t>Trace Fossils of Shallow Subtidal to Dunal Ichnofacies in Bahamian Quaternary Carbonates</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>With the rapid development of mobile devices and web-based technologies, it becomes common for students to switch between different tasks during study time. However, it remains unclear how the transition between on-task and off-task states happens and how digital devices affect the process. This study examines college students’ independent study in the library to delineate the pattern of on-task and off-task behavior, and identify the triggers for students’ engagement or disengagement. Through video recordings, the researchers captured the behaviors of over 266 students at the library. Observations were taken and used to double-check and confirm the behaviors. The study adopted the behavioral sequences method to scrutinize behavioral transition and explored gender differences. The results indicate that on-task behaviors tended to decline as the learning duration increased, whereas off-task behaviors tended to increase when students interacted with personal devices. As the most used device, smartphones posed persistent interference for learners, leading to reduced focus during independent study time. Moreover, male students were more likely to be influenced by external interruptions, whereas female students were more prone to the influence of internal interruptions. These findings can contribute to the development of research-based guidelines for improving students’ attention and self-adjusting during self-study time.</t>
+          <t>Pleistocene and Holocene carbonate grainstones or calcarenites capping the islands of the Bahamas commonly contain distinctive animal and/or plant trace fossils. Three ichnocoenoses within the Skolithos and Psilonichnus ichnofacies are recognized in the transition from sediments deposited in the shallow shelf environment, commonly associated with coral reefs, to sediments of the coastal dune environment. Analog relationships between the trace fossils and modern tracemakers can be established in many cases, and this correspondence strengthens the interpretive model. Ophiomorpha and Skolithos linearis characterize beds deposited in shallow shelf settings. Psilonichnus upsilon, the fossil burrow of the ghost crab Ocypode quadrata, marks beds deposited in the upper foreshorebackshore environment and has particular utility as an indicator of sea-level position. A diverse ichnocoenosis consisting of Skolithos linearis, a large cluster burrow, small, irregular burrows, and plant trace fossils formed along bedding planes characterizes beds of the dunal environment. The ichnologic model developed herein for recognition of depositional zones in the transition from shallow subtidal to dune environments in the tropical, carbonate coastal settings of the Bahamas should be applicable to other geologically similar settings around the world.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045183475</t>
+          <t>https://openalex.org/W1979426959</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3527655</t>
+          <t>https://doi.org/10.1016/s1386-1425(02)00300-1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bulger &amp; Barbato (2000)</t>
+          <t>Banerjee et al. (2003)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>On the Hippocratic Sources of Western Medical Practice</t>
+          <t>Photophysical studies of oxicam group of NSAIDs: piroxicam, meloxicam and tenoxicam</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
+          <t>Oxicam group of non steroidal anti-inflammatory drugs has been chosen as a prototype molecular group that shows diverse biological functions and dynamic structural features. Photophysical studies of three drugs from this group viz., piroxicam, meloxicam and tenoxicam have been carried out in different solvents with varying polarity, H-bond character and viscosity. The spectral responses of different prototropic forms of these drugs towards varying solvent parameters have been studied, with the aim to characterize their interaction in biomimetic environment non-invasively. The nature of the lowest transition has been identified. The extinction coefficient, quantum yield and viscosity dependence on the nature of the solvents, all indicate the extreme sensitivity of these drugs to their microenvironment.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086049761</t>
+          <t>https://openalex.org/W2271097186</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2014.07.567</t>
+          <t>https://doi.org/10.1021/acssuschemeng.5b01032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Akbota (2014)</t>
+          <t>Zhao et al. (2015)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bilingualism among Young People in Kazakhstan</t>
+          <t>Carbon Nitride Encapsulated Nanodiamond Hybrid with Improved Catalytic Performance for Clean and Energy-Saving Styrene Production via Direct Dehydrogenation of Ethylbenzene</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Abstract For Kazakhstan, a multilingual and multiethnic country, the issue of multilingualism is a historic and current phenomenon. It is home to 126 nationalities, such as: Belarusians, Kirghiz, Korean, Russian, Tajik, Tatar, Uighurs, Uzbeks, Ukrainians and others. It is well known fact that the observed linguistic and cultural diversity of the country is affected by a number of historical factors, in particular, processes accompanying the accession of Kazakhstan to Russia (1731-1865), as the researchers note,; repeated revision of state borders, especially state-political system pre-Soviet, Soviet and post-Soviet periods, and recent events that have taken extremely consequences for all the people of the country; radical transformation of the entire society - governmental system, the modernization of society and the economy of independent Kazakhstan (Suleimenova and others, 2010, Suleimenova, Smagulova 2005).</t>
+          <t>In this work, the unconsolidated carbon-nitride-layer close-wrapped nanodiamond (H-ND) hybrid has been successfully synthesized by a facile two-step approach including the mechanical milling of ND powder and hexamethylenetetramine and the followed pyrolysis of hexamethylenetetramine. The unique microstructure and surface chemistry characteristics of the nanohybrid have been identified by employing diverse characterization techniques including field emission scanning electron microscopy (FESEM), high-resolution transmission electron microscopy (HRTEM), N2 adsorption desorption (BET), X-ray diffraction (XRD), Raman spectroscopy (Raman), and X-ray photoelectron spectroscopy (XPS) analyses. Benefiting from the intensified synergistic effect between carbon nitride and nanodiamond, the as-synthesized H-ND hybrid carbocatalyst shows remarkably higher catalytic activity for oxidant- and steam-free direct dehydrogenation (DDH) of ethylbenzene than the nanodiamond (ND) and the previously developed mesoporous carbon nitride, which endows it to be a promising candidate for clean and energy-saving synthesis of styrene through DDH of ethylbenzene. Furthermore, this work also opens a new avenue for fabrication of diverse unconsolidated carbon nitride layers close wrapped nanocarbon hybrids with potential applications for diverse transformations owing to the intensified synergistic effect between carbon nitrides and the nanocarbons.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2051770317</t>
+          <t>https://openalex.org/W4385743484</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/kin.10172</t>
+          <t>https://doi.org/10.1016/j.procs.2023.08.074</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Frenklach et al. (2003)</t>
+          <t>Dumitrache et al. (2023)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Collaborative data processing in developing predictive models of complex reaction systems</t>
+          <t>Collaborative Decisions in Knowledge Management for Intelligent Cyber-Enterprises</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Abstract The subject of this report is a methodology for the transformation of (experimental) data into predictive models. We use a concrete example, drawn from the field of combustion chemistry, and examine the data in terms of precisely defined modes of scientific collaboration. The numerical methodology that we employ is founded on a combination of response surface technique and robust control theory. The numerical results show that an essential element of scientific collaboration is collaborative processing of data, demonstrating that combining the entire collection of data into a joint analysis extracts substantially more of the information content of the data. © 2003 Wiley Periodicals, Inc. Int J Chem Kinet 36: 57–66, 2004</t>
+          <t>The faster and faster IT integration of various categories of activities - from production to administration, passing through medicine, transport, education, government, etc. - led to important changes in terms of obtaining, storing and using data. On the other hand, the increasingly rapid accumulation of societal challenges has exerted immense pressure on the relatively nascent discipline of knowledge management, which is expected to help address increasingly complex issues, primarily related to decision-making aspects that necessitate the selection and transformation of data into information and knowledge. This article focuses on establishing a framework for developing a collaborative, dynamic, heterogeneous decision-making system that includes both human and cybernetic agents as well as digital twins. Such a system creates and sustains a knowledge management flow that is essential for making informed decisions, achieved by selectively collecting and appropriately transforming data into information.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3206144518</t>
+          <t>https://openalex.org/W2084164455</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12571-021-01219-y</t>
+          <t>https://doi.org/10.1016/s1473-3099(13)70242-1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alho et al. (2021)</t>
+          <t>Bauer &amp; Scheim (2013)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Analysis of banana and cocoa export commodities in food system transformation, with special reference to certification schemes as drivers of change</t>
+          <t>Sampling bias in transgender studies</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Abstract Food systems analysis is increasingly being applied to understand relations between production, distribution, and consumption of food products, the drivers that influence the system, and the outcomes that show how well the food system performs on health and nutrition, on environmental sustainability, and on income and inclusiveness. Little attention has gone to the position of global export commodities, where production and consumption are far apart. Banana in Costa Rica and cocoa in Cote d’Ivoire were the subject of this study to find out what major drivers determine the functioning of these systems. Next to identifying drivers such as population growth and increased plant disease pressure, it was found that the typical far-away setting and different living conditions between producer and consumer countries required a special eye on governance as a tripartite arena (government, private sector, civil society) with their power relations, and on certification schemes as a driver that follows from corporate social responsibility. The certification schemes addressed cover all food system outcomes, although health and nutrition in a less conspicuous way. The descriptions of the functioning of the schemes were also linked to living wages and incomes for banana plantation workers in Costa Rica and cocoa smallholder farmers in Côte d’Ivoire. Although very meaningful, certification schemes so far do not prove to be a silver bullet, but they do have the potential, in combination with other measures, to help positive food system transformations.</t>
+          <t>Thus, urban and clinic samples might not represent the sex lives of transgender women in less urban areas, of higher economic positions, or those who are not primarily sexually attracted to men. Although high HIV prevalences can serve as an advocacy instrument in drawing attention to the health of transgender women, labelling a group that experiences stereotypes of hypersexuality as a high risk group for HIV has the potential to add to stigma. We support Baral and colleagues’ arguments for greater inclusion of transgender women in HIV surveillance, research, and interventions, and for structural changes to increase social inclusion. However, we caution that the consistency that they observe might be, at least in part, a function of consistent sampling bias.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2403581178</t>
+          <t>https://openalex.org/W3005315390</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lebkova &amp; Uranova (1978)</t>
+          <t>Silha (2012)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[Histogenesis of adenomas of the parathyroid gland].</t>
+          <t>Transitioning a Living-Center: Resident Ability and Preference in Activity Programming</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The similarity of adenomas of the parathyroid gland with other tumours of the APUD-system elements was investigated. The structure of 10 adenomas was studied. The ultrastructural characteristics were compared with the histological structure of the tumour. Various histological variants of the neoplasias were shown to have similar ultrastructure. The tumour tissue was represented by clear transitional and dark cells. In their cytoplasm, osmiophilic granules of the secrete, villae, laminar structures resembling Nissl bodies, fine granular and fine fibrous substances, and lipid inclusions were found. The structural similarity of adenomas with other endocrine-active tumours developing from cells of the neuroectodermal origin (carcinoids, paragangliomas, etc.) was noted. It is suggested that parathyroid glands belong to the APUD-system.</t>
+          <t>Gerontologists have noted the importance of physical fitness (McPhee, et al., 2004), socialization (Lang &amp; Baltes, 1997), and cognitive maintenance (McDougall, 2000) to successful aging. Due to this, Assisted-Living Facility (ALF) Activity Departments serve an essential role in residents' lives, encouraging engagement and aiming to improve life satisfaction. Willowtree is an independent-living facility planning to transition into an ALF. This study sought to discover the existence of a relationship between Willowtree residents' activities of daily living/instrumental activities of daily living (ADL/IADL) functionality and their enjoyment levels with current activity programming. Residents' preferences with activity type, time of day, frequency, and duration were also explored. The sample consisted of 54 participants, 55-100 years of age, who were residents of Willowtree. Findings indicated that both ability level and personal preference influence participation in Willowtree's discretionary activity programming. Recommendations for activity programming and staff were discussed, as were the limitations of the study.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://openalex.org/W1644289212</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Cook &amp; Brueckner (1991)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Fine structure of the solar transition region - Observations and interpretation</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2790881213</t>
+          <t>https://openalex.org/W2899967149</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physreva.99.032502</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Noe et al. (2011)</t>
+          <t>Yang et al. (2019)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
+          <t>Laser-cooled HgF as a promising candidate to measure the electric dipole moment of the electron</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
+          <t>In order to realize more sensitive measurement of the electron's electric dipole moment ($e\mathrm{EDM}$), it would be worthwhile to find new laser-cooled molecules with large internal effective electric field (${E}_{\mathrm{eff}}$), high electric polarizability, and long lifetime of the $e\mathrm{EDM}$ measurement state. Here we demonstrate the theoretical feasibility of laser cooling and trapping the mercuric monofluoride ($^{202}\mathrm{Hg}^{19}\mathrm{F}$, ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}$) radicals, as well as their application in the $e\mathrm{EDM}$ measurement. We investigated the electronic, rovibrational, and hyperfine structures and verified the highly diagonal Franck-Condon factors of the main transitions by the Rydberg-Klein-Rees inversion method and the Morse approximation. Hyperfine manifolds of the ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}(\ensuremath{\upsilon}=0)$ rotational states were examined with the effective Hamiltonian approach and a feasible sideband modulation scheme was proposed. In order to enhance optical cycling, the microwave remixing method was employed to address all the necessary levels. The Zeeman effect and the hyperfine structure magnetic $g$ factors of the ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}\phantom{\rule{4pt}{0ex}}(\ensuremath{\upsilon}=0,N=1)$ state were studied subsequently. Finally, its statistical sensitivity for the $e\mathrm{EDM}$ measurement was estimated to be about $6\ifmmode\times\else\texttimes\fi{}{10}^{\ensuremath{-}32}e\phantom{\rule{0.16em}{0ex}}\mathrm{cm}$ in the trap, indicating that $^{202}\mathrm{Hg}^{19}\mathrm{F}$ might be a promising laser-cooled $e\mathrm{EDM}$ candidate when compared with the most recent ThO result of ${d}_{e}=(4.3\ifmmode\pm\else\textpm\fi{}{3.1}_{\mathrm{stat}}\ifmmode\pm\else\textpm\fi{}{2.6}_{\mathrm{syst}})\ifmmode\times\else\texttimes\fi{}{10}^{\ensuremath{-}30}e\phantom{\rule{0.16em}{0ex}}\mathrm{cm}$ [V. Andreev et al. (The ACME Collaboration), Nature (London) 562, 355 (2018)].</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3109180265</t>
+          <t>https://openalex.org/W2787364022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31355/58</t>
+          <t>https://doi.org/10.1130/g39930.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Saadé (2020)</t>
+          <t>Topper et al. (2018)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Digital Innovation &amp;amp; Transformation Opportunities for Researchers &amp;amp; Practitioners – A Structured Literature Review &amp;amp; Proposed Model</t>
+          <t>Characterization of kerogenous films and taphonomic modes of the Sirius Passet Lagerstätte, Greenland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aim/Purpose Although the latest review on digital innovation was made in 2018 (included articles up to 2017), the purpose of this study is to explore and examine opportunities for research in digital innovation and transformation for both researchers (including graduate students) and practitioners. A conceptual model is proposed. Background Digital innovation is omnipresent today, as it has penetrated deep into the structure and psyche of individuals, communities, organizations, institutions and governments. We find ourselves in a quagmire of opportunities risks and uncertainties, where ubiquitous technological interconnectedness form a new paradigm enabling industry to innovate and grow. All humanity is faced with these disruptive digital pressures. Yet, relatively there is little research done. Unfortunately, a coordinated effort for such a seriously important phenome-non does not exist. Methodology A structured literature review approach was conducted, the results of which were used for a qualitative approach, using nVivo, to extract insights and understanding. Findings This study identifies the extent of research done in the different areas of digital innovation and transformation and puts the results into perspective. Scholarly research is scarce, dispersed and diverse, lacking any direction or cohesion. Research on transformation is more than innovation and in both cases those that study their relationships with human or society are a handful. A conceptual model is proposed by integrating knowledge gained from the literature, the integral theory and the concept of impact assessment. Impact on Society This study shows that the integration of human agency digital innovation research and practice is primary. Researchers and practitioners can use the conceptual model to help them expand and extend their work.</t>
+          <t>The Sirius Passet Lagerstätte (northern Greenland) is an exceptionally well-preserved early Cambrian faunal community containing a diverse array of stem-group euarthropods, lobopodians, worms, sponges, and the iconic Halkieria. Material collected in situ during recent expeditions has yielded a range of fossil specimens that are preserved as two-dimensional, reflective films. Here we document in detail, for the first time from the Sirius Passet, compressed, kerogenous fossil films characteristic of Burgess Shale–type (BST) preservation. The carbon structure and the taphonomic mode associated with these films were investigated using Raman spectroscopy. Our analysis confirms that these reflective films are kerogenous, showing a higher D1 (disordered) band and G (graphite) band intensity and area, indicating a greater concentration of disordered carbon compared to the surrounding matrix. The spectral characteristics of the fossils denote moderately ordered kerogenous matter, indicating that the transitional Buen Formation that hosts the Sirius Passet was thermally altered at a peak temperature of 409 ± 50 °C. Phyllosilicate minerals are associated with the films, but they are not anatomical or taxon-specific, suggesting that the higher thermal maturation of the kerogen in the Sirius Passet produced a uniform distribution of minerals. This is unlike the kerogenous films in the Burgess Shale Lagerstätte (British Columbia, Canada) that have been metamorphosed at a lower temperature of 335 ± 50 °C and typically show an anatomically specific phyllosilicate distribution. Preservation as kerogenous films, however, is not continuous, and the presence of other taphonomic modes not indicative of BST preservation suggests that the Sirius Passet represents a unique and complex deposit.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4241610262</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.11647/obp.0193.20</t>
+          <t>https://openalex.org/W2743507272</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sumaila &amp; Pauly (2020)</t>
+          <t>Križaj (2017)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Only now, as innumerable species of fish face extinction, are we realizing that their supply is not inexhaustible. The industrial revolution spawned trawlers that were no longer reliant on the natural elements for their power and hoovered up the vast, easily accessible supplies of coastal biomass. Today, the well-oiled machine of commercial fishing, pressed on by the economic imperatives of national fishery departments, forges ever further into deeper water and distant latitudes, laying waste to entire marine ecosystems. When fish stocks began collapsing all over the globe from the mid-twentieth century onwards, greater attention was paid to the effects of vast mechanized ships, totally removing entire webs of biodiversity and indiscriminately damaging habitats with fishing equipment. As ever, implementation has fallen far short of global agreements on quotas and protected marine areas. Governments either do not realize the implications of what marine scientists are telling them or are beholden to powerful fisheries lobbies. At the present rate, industrial fishing will continue to decimate fish populations, with insufficient time for overexploited populations to recover. This will have tragic effects on the diversity of cascading marine food chains, with predictable, and inevitable, consequences.</t>
+          <t>AN EXPLORATION OF SLOVENIAN OLDER PEOPLE’S OCCUPATIONS AND THE INFLUENCE OF TRANSITION INTO A CARE HOME ON THEIR OCCUPATIONAL ENGAGEMENT</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4288058171</t>
+          <t>https://openalex.org/W1528558039</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-022-17206-y</t>
+          <t>https://doi.org/10.1163/9789460911477</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kim et al. (2022)</t>
+          <t>Land et al. (2008)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Spin-flip-driven reversal of the angle-dependent magnetic torque in layered antiferromagnetic Ca0.9Sr0.1Co2As2</t>
+          <t>Threshold Concepts within the Disciplines</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Abstract Spin-flip transition can occur in antiferromagnets with strong magnetocrystalline anisotropy, inducing a significant modification of the anisotropic magnetic properties through phase conversion. In contrast to ferromagnets, antiferromagnets have not been thoroughly examined in terms of their anisotropic characteristics. We investigated the magnetic-field and angle-dependent magnetic properties of Ising-type antiferromagnetic Ca 0.9 Sr 0.1 Co 2 As 2 using magnetic torque measurements. An A-type antiferromagnetic order emerges below T N = 97 K aligned along the magnetically easy c -axis. The reversal of the angle-dependent torque across the spin-flip transition was observed, revealing the strong influence of the magnetocrystalline anisotropy on the magnetic properties. Based on the easy-axis anisotropic spin model, we theoretically generated torque data and identified specific spin configurations associated with the magnetic torque variation in the presence of a rotating magnetic field. Our results enrich fundamental and applied research on diverse antiferromagnetic compounds by shedding new light on the distinct magnetic features of the Ising-type antiferromagnet.</t>
+          <t>Threshold Concepts within the Disciplines brings together leading writers from various disciplines and national contexts in an important and readable volume for all those concerned with teaching and learning in higher education. The foundational principle of threshold concepts is that there are, in each discipline, ‘conceptual gateways’ or ‘portals’ that must be negotiated to arrive at important new understandings. In crossing the portal, transformation occurs, both in knowledge and subjectivity. Such transformation involves troublesome knowledge, a key concern for contributors to this book, who identify threshold concepts in their own fields and suggest how to deal with them. Part One extends and enhances the threshold concept framework, containing chapters that articulate its qualities, its links to other social theories of learning and other traditions in educational research. Part Two encompasses the disciplinary heart of the book with contributions from a diversity of areas including computing, engineering, biology, design, modern languages, education and economics. In the many empirical case studies educators show how they have used the threshold concept framework to inform and evaluate their teaching contexts. Other chapters emphasise the equally important ‘being and becoming’ dimension of learning. Part Three suggests pedagogic directions for those at the centre of the education project with contributions focusing on the socialisation of academics and their continuing quest to be effective teachers. The book will be of interest to disciplinary teachers, educational researchers and educational developers. It also is of relevance to issues in quality assurance and professional accreditation.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117401019</t>
+          <t>https://openalex.org/W2282809857</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1068/c10222</t>
+          <t>https://doi.org/10.1086/203816</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Seyfang &amp; Haxeltine (2012)</t>
+          <t>Solway et al. (1990)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
+          <t>Foragers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
+          <t>Previous articleNext article No AccessForagers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]Jacqueline S. Solway, Richard B. Lee, Alan Barnard, M. G. Bicchieri, Alec C. Campbell, James Denbow, Robert Gordon, Mathias Guenther, Henry Harpending, Patricia Draper, Robert K. Hitchcock, Tim Ingold, L. Jacobson, Susan Kent, Pnina Motzafi-Haller, Thomas C. Patterson, Carmel Schrire, Bruce G. Trigger, Polly Wiessner, Edwin N. Wilmsen, John E. Yellen, and Aram A. YengoyanJacqueline S. Solway Search for more articles by this author , Richard B. Lee Search for more articles by this author , Alan Barnard Search for more articles by this author , M. G. Bicchieri Search for more articles by this author , Alec C. Campbell Search for more articles by this author , James Denbow Search for more articles by this author , Robert Gordon Search for more articles by this author , Mathias Guenther Search for more articles by this author , Henry Harpending Search for more articles by this author , Patricia Draper Search for more articles by this author , Robert K. Hitchcock Search for more articles by this author , Tim Ingold Search for more articles by this author , L. Jacobson Search for more articles by this author , Susan Kent Search for more articles by this author , Pnina Motzafi-Haller Search for more articles by this author , Thomas C. Patterson Search for more articles by this author , Carmel Schrire Search for more articles by this author , Bruce G. Trigger Search for more articles by this author , Polly Wiessner Search for more articles by this author , Edwin N. Wilmsen Search for more articles by this author , John E. Yellen Search for more articles by this author , and Aram A. Yengoyan Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Current Anthropology Volume 31, Number 2Apr., 1990 Sponsored by the Wenner-Gren Foundation for Anthropological Research Article DOIhttps://doi.org/10.1086/203816 Views: 45Total views on this site Citations: 137Citations are reported from Crossref Copyright 1990 The Wenner-Gren Foundation for Anthropological ResearchPDF download Crossref reports the following articles citing this article:Moren Tibabo Stone, Lesego Senyana Stone Conservation, tourism and indigenous communities’ dynamics: the case of Basarwa in the Central Kalahari Game Reserve (CKGR), Botswana, Transactions of the Royal Society of South Africa 78, no.33 (Sep 2023): 181–195.https://doi.org/10.1080/0035919X.2023.2255846Kathryn D. Croll San elders speak: ancestral knowledge of the Kalahari San San elders speak: ancestral knowledge of the Kalahari San , by Lucinda Backwell and Francesco d’Errico, Johannesburg, Wits University Press, 2021, 304 pp., ZAR 390 (paperback), ISBN 978-1-77614-662-8., Anthropology Southern Africa 46, no.33 (Dec 2023): 245–247.https://doi.org/10.1080/23323256.2023.2253277Bernard Clist, James Denbow, Raymond Lanfranchi Using the radiocarbon dates of Central Africa for studying long-term demographic trends of the last 50,000 years: potential and pitfalls, Azania: Archaeological Research in Africa 58, no.22 (Jun 2023): 235–293.https://doi.org/10.1080/0067270X.2023.2215649Tim Forssman Forager and Farmer Interactions in Late Holocene Southern Africa, (Jan 2023).https://doi.org/10.1016/B978-0-323-90799-6.00084-7Sheila Coulson, Sigrid Staurset, Sarah Mothulatshipi, Sallie L. Burrough, David J. Nash, David S.G. Thomas Thriving in the Thirstland: New Stone Age sites from the Middle Kalahari, Botswana, Quaternary Science Reviews 297 (Dec 2022): 107695.https://doi.org/10.1016/j.quascirev.2022.107695Sam Challis and Brent Sinclair-Thomson The Impact of Contact and Colonization on Indigenous Worldviews, Rock Art, and the History of Southern Africa: “The Disconnect”, Current Anthropology 63, no.S25S25 (Nov 2022): S91–S127.https://doi.org/10.1086/722260Duncan N. E. Stibbard‐Hawkes, Coren L. Apicella Myopia rates among Hadza hunter‐gatherers are low but not exceptional, American Journal of Biological Anthropology 179, no.44 (Sep 2022): 655–667.https://doi.org/10.1002/ajpa.24611Erik Gomez-Baggethun Rethinking work for a just and sustainable future, Ecological Economics 200 (Oct 2022): 107506.https://doi.org/10.1016/j.ecolecon.2022.107506Tim Forssman An Archaeological Contribution to the Kalahari Debate from the Middle Limpopo Valley, Southern Africa, Journal of Archaeological Research 30, no.33 (Jun 2021): 447–495.https://doi.org/10.1007/s10814-021-09166-0Manvir Singh, Luke Glowacki Human social organization during the Late Pleistocene: Beyond the nomadic-egalitarian model, Evolution and Human Behavior 43, no.55 (Sep 2022): 418–431.https://doi.org/10.1016/j.evolhumbehav.2022.07.003Andrew Skinner, Sam Challis Fluidities of personhood in the idioms of the Maloti-Drakensberg, past and present, and their use in incorporating co</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2497458810</t>
+          <t>https://openalex.org/W2021743488</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-60566-026-4.ch177</t>
+          <t>https://doi.org/10.1080/14442213.2011.636067</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Amoretti &amp; Casula (2009)</t>
+          <t>Naafs (2012)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>From Digital Divides to Digital Inequalities</t>
+          <t>Navigating School to Work Transitions in an Indonesian Industrial Town: Young Women in Cilegon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Concerns about inequalities deriving from the penetration of new information and communication technologies (ICTs) have only recently become a widely debated issue in industrial societies. Until the 1980s the diffusion of ICT was mainly considered a matter of technological innovation regarding selected fields and limited territorial areas (such as the military and academic centers in the U.S.). Gradually, scholars started to point to the rise of an information society based on the production of information as the crucial resource to manage coordination and control of increasingly interconnected organizational systems (Masuda, 1981; Beniger, 1986; Toffler, 1990). The expression offered an alternative to the otherwise negative definitions used by scholars since the 1970s to identify changes occurring in Western democratic societies (‘post-capitalism’, ‘post-industrialism’, ‘post-materialism’, etc.) (Touraine, 1969; Bell, 1973). The debate over the information society, enthusiastically greeted by some authors (Negroponte, 1995) and critically observed by others (Castells, 1996, 2001; May, 2002; Mattelart, 2003), witnessed since the mid-1990s widespread success in public and political debates (Thomas, 1996). In front of the fast and capillary diffusion of ICTs virtually to all sectors of private and public life, most Western countries’ governments and international organizations have inserted within their policy agendas a reference to the unavoidability, if not desirability, of a radical shift to the new information age. The rhetoric accompanying those discourses often presents the expansion of the ICT sector?and especially the Internet?as offering citizens returns at both the individual and collective level, in the form of greater access to goods and services, increased levels of social and civic participation, and wider economic and working opportunities for all. Presented as a crucial means to participate in the new global information society, ICTs become recognized as a resource that should be fairly distributed among citizens, albeit on the basis of different arguments (ranging from social equity to economic efficiency or global development concerns), often leading to opposite conclusions on the scope for redistributive interventions (Strover, 2003; Selwyn, 2007).</t>
+          <t>Abstract This article explores how young Muslim women make the transition from school to work in the industrial town of Cilegon, in Banten, Indonesia. As Cilegon's economy is shifting from manufacturing industries towards trade and services, job opportunities for young men in heavy industries is stagnant, but new job opportunities have opened up for young women. Young women's involvement in education and work offers new levels of autonomy and the opportunity to engage with modern, urban lifestyles. Their involvement in work continues to be bound by religious values and a gender ideology which sets age boundaries for marriage and emphasises girls' responsibilities as future wives and mothers, in ways that differ from male peers. How do young women navigate Cilegon's changing economy? What are their aspirations and strategies in pursuing certain kinds of desired employment? Keywords: Urban YouthIndonesiaFemininityEducation-to-Work TransitionsGlobalisationIslam Acknowledgements I express many thanks to the young women in Indonesia who shared their views and experiences with me and tolerated my questions. The names are pseudonyms. Research during 2007–10 was funded by the Royal Academy of Arts and Sciences (KNAW), the Royal Netherlands Institute of Southeast Asian and Caribbean Studies (KITLV) and the International Institute of Social Studies of Erasmus University. I would like to thank the Indonesian Ministry of Research and Technology for granting research permission to work in Cilegon, and Universitas Gadjah Mada for assistance and support throughout this project. During fieldwork, Robiatul Adawiyah has been an enthusiastic and perceptive assistant in collecting data. An earlier version of this paper was presented at a workshop on 'Growing Up in Indonesia: Experience and Diversity in Youth Transitions', held at the Australian National University, Canberra, 28–30 September 2009. Thanks to Ben White, Lyn Parker and two anonymous reviewers who gave insightful comments on drafts; all remaining errors are my own. Notes 1. The Indonesian Ministry of Youth and Sports defines youth (pemuda) as age 16–30. 2. Currently Krakatau Steel is still a state-owned company. An initial public offering of 20 per cent of PT Krakatau Steel's shares took place in November 2010 'Krakatau Steel to Raise Rp 3.63 Trillion in November IPO', The Jakarta Post, 13 October 2010. Additional informationNotes on contributorsSuzanne NaafsSuzanne Naafs is a PhD candidate in the International Institute of Social Studies of Erasmus University</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1644289212</t>
+          <t>https://openalex.org/W2756051889</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cook &amp; Brueckner (1991)</t>
+          <t>Zhang (2013)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fine structure of the solar transition region - Observations and interpretation</t>
+          <t>Self-repair at transition place as an interactional resource for pursuing response: Observation from Chinese conversation.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
+          <t>Repair is an important organization in talk-in-interaction that manages troubles arising from speaking, hearing and understanding the talk (Schegloff, Jefferson and Sacks 1977). In addition, it often serves as a vehicle for other actions in interaction as illustrated in the recent studies led by Lerner and Kitzinger (2012) on reference and repair. For instance, the action of pursuing response can be accomplished by repairing an indexical reference (Bolden and Mandelbaum 2012). Repair also contributes to the sustaining of socially shared cognition (Schegloff 1991). Previous studies have demonstrated that sameturn self-repair, in coordination with body deployment, provides means for speakers to construct and reconstruct turns at talk as display of their orientation to various knowledge state of the participants in a given conversation (Goodwin 1979, 1980, 1981). In line with these inquiries, we conducted a study of self-repair at transition place (TRP repair) in Chinese conversation with an aim to investigate possible actions in interaction accomplished by such repairs. Our analysis draws on video-recorded conversations, and examines TRP repairs in terms of their syntactic format, prosodic characteristics and deployment of body/gaze for potential interactional relevance of the action they accomplish. This presentation focuses on TRP repairs produced after possible completion of first actions such as question and topic initiator, where there is no immediate verbal uptake from the recipient. These repairs perform similar actions as those indexical repairs examined in Bolden and Mandelbaum (2012) in that the apparent repair on troubles of speaking in the prior turn constructional unit (TCU) serves to deal with the lack of immediate verbal response from the recipient. Close examination of the participants’ body deployment reveals that absence of verbal response in not equivalent to no response. Rather, absence of response may be accompanied with a ‘thinking/searching’ gaze on the face of the recipient, or absence of gaze engagement with the speaker which display possible problem or momentary difficulty being experienced by the recipient. TRP repairs are sensitive to such cues from body/gaze by extending and recompleting the prior turn, thus providing the recipient with a new relevant place for the yet-to-be produced verbal response. Our findings from the Chinese data agree with Bolden and Mandelbaum’s (2012) argument that TRP repairs pursue response in an indirect and off-the-record manner, and provide supporting evidence that such actions are not limited to indexical repairs at TRP, but repair at TRP in general. We argue that TRP repairs present an excellent venue for exploring the relation of talk and body as well as the relation between cognition and social interaction across languages in different speech communities.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2134270495</t>
+          <t>https://openalex.org/W4396296768</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s00464-008-9857-4</t>
+          <t>https://doi.org/10.15468/dl.hwnx8r</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aalbers et al. (2008)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hand-assisted or laparoscopic-assisted approach in colorectal surgery: a systematic review and meta-analysis</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Evidence of benefits of laparoscopic and laparoscopic-assisted colectomies (LAC) over open procedures in gastrointestinal surgery has continued to accumulate. With its wide implementation, technical difficulties and limitations of LAC have become clear. Hand-assisted laparoscopic surgery (HALS) was introduced in an attempt to facilitate the transition from open techniques to minimally invasive procedures. Continuing debate exists about which approach is to be preferred, HALS or LAC. Several studies have compared these two techniques in colorectal surgery, but no single study provided evidence which procedure is superior. Therefore, a systematic review was carried out comparing HALS with LAC colorectal resection.Eligible studies were identified from electronic databases (Medline, Embase Cochrane) and cross-reference search. The database search, quality assessment, and data extraction were independently performed by two reviewers. Minimal outcome criteria for inclusion were operating time, conversion rate, hospital stay, and morbidity.Out of 468 studies a total of 13 studies were selected for comprehensive review. Two randomized controlled trials (RCT) and 11 non-RCTs, comprising 1017 patients, met the inclusion criteria. Because of possible clinical heterogeneity two groups of procedures were created: segmental colectomies and total (procto)colectomies. In the segmental colectomy group significant differences in favor of the HALS group were seen in operating time (WMD 19 min) and conversion rate (OR of 0.3 conversions). In the total (procto)colectomy group a significant difference in favor of the HALS group was seen in operating time (WMD 61 min).This systematic review indicates that HALS provides a more efficient segmental colectomy regarding operating time and conversion rate, particularly accounting for diverticulitis. A significant operating time advantage exists for HALS total (procto)colectomy. HALS must therefore be considered a valuable addition to the laparoscopic armamentarium to avoid conversion and speed up complicated colectomies.</t>
+          <t>A dataset containing 1781054 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Valeriana celtica L., Valeriana dioica L., Valeriana elongata Jacq., Valeriana montana L., Valeriana officinalis L., Valeriana saxatilis L., Valeriana supina Ard., Vallisneria spiralis L., Veratrum album L., Veratrum nigrum L., Veronica aphylla L., Veronica bellidioides L., Veronica chamaedrys L., Veronica fruticans Jacq., Veronica fruticulosa L., Veronica officinalis L., Viola alba Besser, Viola biflora L., Viola calcarata L., Viola canina L., Viola collina Besser, Viola elatior Fries, Viola hirta L., Viola mirabilis L., Viola odorata L., Viola palustris L., Viola reichenbachiana Jord. ex Boreau, Viola riviniana Rchb., Viola uliginosa Besser, Vulpia bromoides (L.) Gray, Vulpia ciliata Dumort., Vulpia fasciculata (Forssk.) Samp., Vulpia myuros (L.) C.C.Gmel., Woodsia alpina (Bolton) Gray, Woodsia glabella R.Br. ex Rich., Woodsia ilvensis (L.) R.Br., Zannichellia palustris L., Zostera marina L., Zostera noltii Hornem., Achillea crithmifolia Waldst. &amp;amp; Kit., Achillea macrophylla L., Achillea nana L., Achillea pannonica Scheele, Achillea ptarmica L., Achillea salicifolia Besser, Achillea setacea Waldst. &amp;amp; Kit., Adonis vernalis L., Agave americana L., Agrimonia procera Wallr., Alnus incana (L.) Moench)", "Year is greater than or equal to 2000" ] } The dataset includes 1781054 records from 2560 constituent datasets: 7 records from Herbarium of the Institute of the problems of Northern development (TMN). 1 records from St Andrews BioBlitz 2015. 444 records from Observational database of Icelandic plants. 2 records from Dörnberg. 2 records from ACQUISITION_CBNMC - 2019_08_Barrat_HtAllier. 3 records from Landschaftsschutzgebiet Buchhorst 3. 1 records from Projet photovoltaïque sur ancien CET à RAUZAN - Flore - Inventaire non protocolé. 1 records from Wiese - Schulgelände des Franziskusgymnasiums (Lingen). 22 records from Chronicle of Nature - Phenology of Plants of Pechoro-Ilych State Nature Reserve. 1 records from Programmes sur les EVEE dans les départements de l'ancienne région Languedoc-Roussillon - Divers jeux de données sur les EVEE dans l'ex région LR. 1 records from ACQUISITION_CBNMC - DUPRÉ Rémi. 3 records from Projet de parc photovoltaïque au sol à Vallon-en-Sully (03) au lieu-dit "Les Graves" - 2018 Inventaire faune-flore à Vallon-en-Sully (03). 1 records from Biodiversity of Zmiinyi Island. 2 records from Langenberger Forst am Ochsenweg/ Niebüll-Leck. 453 records from Plant. 56 records from Visiolittoral : conservatoire du littoral - Visiolittoral : surveillance de sites du littoral. 118 records from Etudes scientifiques flore sur le TAG du CBNMed - Divers jeux de données du CBNMED produites dans le cadre de programmes scientifiques. 640 records from Inventaire de la flore de Dordogne 2015-2019 - Inventaire de la flore de Dordogne 2017. 3 records from Centrale éolienne du Moulin de la Houssaye - CEHOU - Prospection faune flore étude d'impact. 47953 records from Observations du Conservatoire botanique national du Bassin parisien.. 16 records from Chronicle of Nature - Phenology of Plants of State Nature Reserve Nurgush. 1 records from Biotope in Rheine - Aktion 350. 11 records from ACQUISITION_CBNMC - 2019_02_01_FR8302035_2018. 1 records from ACT BioBlitz. 3 records from Expertise IQE du Golf &amp;amp; Country club de Bossey en 2020 - Donnees espèces - Expertise IQE Golf &amp;amp; Country club de Bossey 2020. 2 records from Inventaire biodiversité du site Pierre Fabre de Castres / Péraudel. 8 records from Bulau. 1 records from Projet de centrale photovoltaïque au sol de St-Romain-en-Gal - Données biodiversité St-Romain-en-Gal. 3 records from CardObs : Observations naturalistes issues de l'outil de saisie et gestion CardObs mis en place par le Service du Patrimoine Naturel (MNHN) / UMS PatriNat (OFB - CNRS - MNHN) - Données naturalistes de Ségolène FAUSTEN. 2 records from Demande d’autorisation environnementale pour le renouvellement, l’extension et l’approfondissement de la carrière « le Mont Colquin » située sur le territoire de la commune de Doville - Etude écologique - Inventaires faune-flore 2016. 41 records from Faun. 1 records from PACA-AGP - Herbarium Anchieta. 1 records from Projet de renouvellement du Parc éolien des Trois Muids - Inventaires faune-flore. 3 records from ACQUISITION_CBNMC - Ecosphère. 6 records from ACQUISITION_CBNMC - CORNIER. 1 records from Abejas silvestres (Hymenoptera: Apoidea) de la región Praderas de Tokio-El Potosí - Sierra Mazmorras - Cañón de Iturbide, Coahuila y Nuevo León, México. 1 records from Parc éolien de Novion-Corny faune flore. 1 records from Projet éolien des Groies. 20 records from ACQUISITION_CBNMC - FNELoire_floreremarquable_2015. 125611 records from Artportalen (Swedish Species Observation System). 2 records from Projet de parc photovoltaïque au sol à Crotenay (39) au lieu-dit "champs des laves" - Inventaire faune-flore. 2 records from VF</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069989322</t>
+          <t>https://openalex.org/W4231662464</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fried (2011)</t>
+          <t>Eni et al. (2021)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A Letter to Emmanuel Faye</t>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587599875</t>
+          <t>https://openalex.org/W2260036895</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Данилович &amp; Александровна (2016)</t>
+          <t>Fetais (2017)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Формирование системы управления персоналом на промышленном предприятии</t>
+          <t>Le cadre juridique des investissements directs étrangers au Qatar : mise en perspective avec les législations des Emirats Arabes Unis, de l'Egypte et de la Tunisie</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>In article authors considered the role of staff in performance of strategic objectives of development of economy: inclusion of Russia into group of the leading countries on GDP, transition from raw to innovative economy, development of investments into the person. All this has to occur in the conditions of a number of threats: competition globalization, deterioration in the relations with the West, in particular, in the conditions of sanctions for deliveries of goods to Russia and the compelled import substitution. In this case the staff is the most important resource of the enterprise and the country in general. Therefore the purpose of article is increase of efficiency of use of this resource. In article authors offered the HR management system including selection, selection and process of staff hiring, development and estimates of efficiency of use of personnel and specified the modern concept of human resource management including approaches: scientific, economic, administrative, standard, system, process, resource; principles of management: scientific character, profitability, rationality of number and structure of staff, efficiency; functions of management: forecasting and planning of number and structure of staff, planning of fund of payment and awarding of work, organization of workplaces, definition of the ideal worker, controlling and monitoring of personnel, motivation, training and certification of personnel; results of human resource management: creation and introduction of innovations, efficiency of use of staff. In article authors offered the organizational and economic mechanism of motivation of the staff including all types of resources: information, organization, technology, training, career, incentives. Conclusions: human resource management promotes improvement of use of this resource. At the same time the system of motivation and development of staff includes material and financial resources, system of training and ensuring career development, revision of privileges for the staff (1-2 times a year) in system of motivation.</t>
+          <t>L'evolution des activites economiques internationales depuis la fin de la deuxieme guerre mondiale a eu pour consequence l'evolution du droit du commerce international. L’objectif du Qatar est d’entrer pleinement dans la modernite du droit des investissements directs etrangers en offrant un cadre sur aux detenteurs de capitaux. tout en conservant son identite culturelle et juridique. La volonte du Qatar de sortir de la dependance aux hydrocarbures et de permettre a sa population de beneficier des effets positifs des investissements est un defi majeur pour l’avenir du pays, particulierement dans un contexte de fluctuations du prix du petrole depuis 2014, passant de 100 dollars a 50 dollars. La comparaison avec d’autres pays arabes nous permet de positionner plus precisement le Qatar sur l’echiquier mondial. Les politiques dediees aux IDE au Qatar, en Egypte, en Tunisie et aux Emirats arabes unis montrent que l’accueil et le controle des flux de capitaux etrangers servent des objectifs differents. La mise en place d’un regime d’investissement tres liberal et tres favorable aux investisseurs etrangers en Egypte repond davantage a des conditions posees par les institutions internationales (le FMI) contre l’obtention de prets ou de reduction de la dette. En Tunisie, malgre un engagement dans une importante politique de liberalisation et d’integration a l'espace europeen, l'economie ne s’est pas modernisee suffisamment et n’a pas reussi a operer une transformation vers des activites a plus haute valeur ajoutee. Enfin, la comparaison avec les Emirats arabes unis est beaucoup plus pertinente car les deux pays ont des economies plus semblables et œuvrent au sein du Conseil de Cooperation du Golfe.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2311719642</t>
+          <t>https://openalex.org/W1964104170</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevb.76.184443</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Matthews (2015)</t>
+          <t>Cui et al. (2007)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The use of salivary biomarkers in the detection of oral squamous cell carcinoma</t>
+          <t>Effect of H on the crystalline and magnetic structures of the&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;YCo&lt;/mml:mi&gt;&lt;mml:mn&gt;3&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;mml:mtext&gt;−&lt;/mml:mtext&gt;&lt;mml:mi mathvariant="normal"&gt;H&lt;/mml:mi&gt;&lt;mml:mo&gt;(&lt;/mml:mo&gt;&lt;mml:mi mathvariant="normal"&gt;D&lt;/mml:mi&gt;&lt;mml:mo&gt;)&lt;/mml:mo&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;system. I.&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;YCo&lt;/mml:mi&gt;&lt;mml:mn&gt;3&lt;/…</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Background_x000D_
-Oral squamous cell carcinoma (OSCC) is the 15th most common cancer worldwide but has poor five year survival (50%). Late stage presentation and limitations of early diagnostic techniques are persistent clinical problems. Sixty percent of patients present with advanced stage disease and with the attendant increase in mortality, morbidity and risk of recurrent disease it is particularly burdensome for both patients and health economies. Early diagnosis and treatment of OSCC improves prognosis. There is an opportunity to diagnose OSCC early in patients with oral epithelial dysplasia however currently there is no way of accurately predicting which lesions will undergo malignant transformation. Aberrant methylation of tumour suppressor genes plays a significant role in the biology of early cancer and is detectable in both tumour and saliva. Saliva is a non-invasive method of longitudinal sampling and has potential as a tumour surrogate in disease surveillance programmes. This study aims to compare rates of methylation of a panel of genes in OSCC patients and a normal cohort to establish a threshold by which we could determine future disease testing in a dysplastic population. _x000D_
-Methods_x000D_
-Saliva samples were collected from 219 individuals from three diagnostic groups: Normal (defined as no oral malignant or premalignant disease) n=97, OSCC n=62 and dysplasia n=60. For statistical analysis the dysplasia cohort was sub-divided into lesions of low and high risk of malignant transformation based on the histological diagnosis of the index lesion. DNA was extracted and bisulphite treated from 258 saliva samples before duplex quantitative methylation specific PCR (qMSP) assays were performed on all samples to detect the frequency of methylation in saliva of a panel of genes. The five target genes (ADAMTS9, CCNA1, CYGB, P16, TMEFF2) were selected using a candidate approach on the basis of tumour specificity from studies on tumour/normal matched tissue pairs. Clinicopathological data was correlated with the qMSP data and analysed using SPSS v.21 statistical software to look for associations with tumour and survival characteristics._x000D_
-_x000D_
-_x000D_
-Results_x000D_
-Only 3/97 individuals from the control normal cohort had saliva samples with detectable methylation above the analytical sensitivity of the P16 assay. Methylation of the remaining target genes (ADAMTS9, CCNA1, CYGB, TMEFF2) was not detected in normal saliva at levels above the analytical sensitivity of the qMSP assays. The most significant finding in this study was that methylation of four of the target genes (CCNA1, CYGB, P16, TMEFF2) in saliva, individually and when considered as a panel, was significantly associated with OSCC and as such could aid discrimination between malignant disease and normal saliva samples. Methylation of at least one gene in the panel was discovered in 29/67 of the binned OSCC saliva samples but only 3/97 of normal samples (Fisher’s exact p=0.001). Furthermore methylation of the gene panel is associated with high risk lesions when detected in saliva of patients with premalignant lesions (Fisher’s exact p=0.03). _x000D_
-Conclusions_x000D_
-This exploratory data supports the utility of duplex qMSP as a detection method for methylation markers in saliva. The detection of methylation of this gene panel in saliva is significantly more associated with oral malignancy and high risk premalignant lesions than normal and low risk disease. This implies saliva may have merit as a surrogate tissue in an adjunctive role to clinical assessment and biopsy. The assays are specific but have limited sensitivity. However with further work, inclusive of additional genes, this methodology may identify predictive biomarkers that can be introduced into a trial surveillance of premalignant lesions.</t>
+          <t>This paper reports investigations into the influence of hydrogen on the magnetic properties of the ${\mathrm{YCo}}_{3}\text{\ensuremath{-}}\mathrm{H}$ system. We report results on the magnetic structure and magnetic transitions of ${\mathrm{YCo}}_{3}$ using a combination of neutron powder diffraction measurements and first-principles full potential augmented plane wave $+$ local orbital calculations under the generalized gradient approximation. The ferromagnetic and ferrimagnetic structures are examined on an equal footing. However, we identify that, no matter which structure is used as the starting point, the neutron diffraction data always refines down to the ferrimagnetic structure with the ${\mathrm{Co}}_{2}$ atoms having antiparallel spins. In the ab initio calculations, the inclusion of spin-orbit coupling is found to be important in the prediction of the correct magnetic ground state. Here, the results suggest that, for zero external field and sufficiently low temperatures, the spin arrangement of ${\mathrm{YCo}}_{3}$ is ferrimagnetic rather than ferromagnetic as previously believed. The fixed spin moment calculation technique has been employed to understand the two successive field-induced magnetic transitions observed in previous magnetization measurements under increasing ultrahigh magnetic fields. We find that the magnetic transitions start from the ferrimagnetic phase $(0.61{\ensuremath{\mu}}_{B}∕\mathrm{Co})$ and terminate with the ferromagnetic phase $(1.16{\ensuremath{\mu}}_{B}∕\mathrm{Co})$, while the spin on the ${\mathrm{Co}}_{2}$ atoms progressively changes from antiparallel ferrimagnetic to paramagnetic and then to ferromagnetic. Our neutron diffraction measurements, ab initio calculations, and the high field magnetization measurements are thus entirely self-consistent.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391789038</t>
+          <t>https://openalex.org/W2081988037</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/awf.2024.2</t>
+          <t>https://doi.org/10.1353/vp.2001.0039</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Keyserlingk et al. (2024)</t>
+          <t>Buchanan (2001)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Swine industry perspectives on the future of pig farming</t>
+          <t>&amp;quot;Doing battle with forgotten ghosts&amp;quot;: Carnival, Discourse, and Degradation in Tennyson's The Princess</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
+          <t>ALFRED LORD TENNYSON'S THE PRINCESS IS RIFE WITH AMBIGUITIES AND contradictions that prevent a straightforward interpretation of text. A Victorian frame surrounds medieval tale of Prince and Princess, one ultimately transformed from a fierce feminist into a broken nurse; men rather than women tell a story centering on women's issues; and narrative displays deeply puzzling oddities of tone, genre, and structure: these are just a few of poem's complicating elements. While it is not surprising, therefore, that little critical consensus exists as to whether finally presents a conservative or a progressive vision of gender relations in The Princess, what is less debatable is that contending male and female in text have decidedly implications. (1) The poem initially promotes expectations of a full exploration of the woman question that was then beginning to preoccupy Victorian society, but, as scholars of recent decades have noted, feminist discourse is silenced and patriarchal values upheld in end. (2) Terry Eagleton, in a provocative Marxist and Lacanian reading of poem, interprets transformation of lovers as an attempted resolution of both Prince's and mid-nineteenth century state's Oedipal complexes, former struggling with a barbaric, nakedly militaristic, blatantly sexist father and latter with internal and external changes in class, economic, and political relations. (3) Eagleton suggests that sexuality and politics are conflated in The Princess and that to address one is to address them both. Ultimately, Prince and Princess are reintegrated into symbolic order through ideological equation. . . feminine male x masculine female = masculine male + feminine female, couple thereby embracing conven tional (if somewhat humanized) gender roles and propagating restabilized bourgeois state as well (p. 79). However, despite poem's apparent surface liberality, Eagleton maintains that univocal masculine discourse retains complete control throughout: [The Princess] displays no dialectic of discourses whatsoever.... There is no sense in which one discourse inheres within, contradicts, interrogates or 'de-centres' another (pp. 86, 82). At no point, then, does a genuine interplay of voices occur that could produce true change. In what is perhaps most comprehensive study to date of poem's treatment of voice and gender, Donald Hall reaches a similar conclusion in Fixing Patriarchy, an examination of Victorian literary and cultural context that traces how feminist discourse incrementally changed a deeply resistant male hegemony over course of nineteenth century. Hall observes that women's increasingly audible demands for improved legal, political, educational, and professional status in 1840s challenged established gender roles assigning men public and women private spheres. Feminist discourse and gender experimentation were perceived as threats to patriarchal status quo, which in turn attempted to discursively fix such trouble by re-establishing a clearly delineated heterosexual binary: The perimeters and properties of Victorian masculinities were imperfectly secured through ongoing processes of differentiation, denigration, and appropriation, were constantly adjusted through negotiation with demands voiced by those to whom silence had been formerly ascribed, and were finally as fretted and fractured as class and gender ideologies of era, ones that only appear seamless to us when we mistake bombast for self-assurance. (Hall, pp. 3-4) Such bombast through appropriation of female Other is evident in The Princess, a representative cultural product of its times: Tennyson was neither unique, nor particularly blameworthy--he was simply caught in binaries of his day, as well as those of a particular model and dynamic of dialogue, in which two or more cannot be heard at once: following rules of competitive engagement, one must rise above cacophony, silencing others (Hall, p. …</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361005872</t>
+          <t>https://openalex.org/W4293456503</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/land12040747</t>
+          <t>https://doi.org/10.1097/jhq.0000000000000353</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Peña-Rodríguez et al. (2023)</t>
+          <t>White‐Williams et al. (2022)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
+          <t>Interprofessional Collaborative Practice Improves Access to Care and Healthcare Quality to Advance Health Equity</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
+          <t>Healthcare disparites exist in cardiovascular care, including heart failure. Care that is not equitable can lead to higher incidence of heart failure, increased readmissions, and poorer outcomes. The Heart Failure Transitional Care Services for Adults Clinic is an interprofessional collaborative practice that provides guideline-directed medical therapy and education to underserved patients with heart failure. Little is known regarding healthcare equity and quality metrics in relation to interprofessional teams. Thus, the purpose of this study was to examine if an interprofessional collaborative practice care delivery model can affect access to care and healthcare quality outcomes in underserved patients with heart failure. As evidenced by control charts over a two and a half year period, the Heart Failure Transitional Care Services for Adults Clinic was able to show improvements in access to care and quality metrics results without variation. An interprofessional collaborative practice can be an effective delivery model to address health equity and quality of care outcomes.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3157917116</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/0973703021998993</t>
+          <t>https://openalex.org/W3034638000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Jejeebhoy &amp; Kumar (2021)</t>
+          <t>Powell et al. (2005)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
+          <t>Coping in construction: Female students' perspectives</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
+          <t>All parts of the construction industry are quantitatively and hierarchically male-dominated. In response to widespread calls for greater diversity within the sector, a number of government initiatives have been introduced to encourage women to pursue engineering degree courses, including construction programmes. Women represent the most significant group of untapped potential for the UK construction sector and so their recruitment and retention in the industry is vital for its future prosperity. This paper reports on part of an ESRC funded study exploring the impact of women construction students' workplace experiences on their career intentions. Workplace experiences are examined in the form of the year long industrial placement, as this is usually women's first major contact with the construction industry. The industrial placement also represents a key transitional stage in each student's process of becoming a construction professional (or not). Specifically, the research presented uses qualitative interviews with female construction students on industrial placement to analyse how women manage their integration into the industry, and the coping strategies women adopt. The paper concludes by explaining how the findings will be built upon in future stages of the research, in which a practical guidance document identifying initiatives to improve women's careers in construction will be developed for industry employers.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008266806</t>
+          <t>https://openalex.org/W3013722721</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/h0094117</t>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Упитис (1993)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231360178</t>
+          <t>https://openalex.org/W2903786861</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
+          <t>https://doi.org/10.7922/g2028pqq</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Burton (2021)</t>
+          <t>O’Brien &amp; Jaishankar (2019)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
+          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231662464</t>
+          <t>https://openalex.org/W4394780829</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
+          <t>https://doi.org/10.30535/mto.30.1.5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Eni et al. (2021)</t>
+          <t>Lam (2024)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
+          <t>Pentatonic &lt;i&gt;Xuangong&lt;/i&gt; 旋宮 Transformations in Chinese Music</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
+          <t>The anhemitonic pentatonic scale is fundamental to Chinese music theory, and so is the concept of xuangong : transformations from one pentatonic scale to another. The vocabulary related to these transformations is as diverse as the musical contexts in which it appears; similar moves can be described using a multitude of perspectives, resulting in overlapping and, at times, confusing terminology. To describe xuangong transformations, I adopt the precise language of signature transformations to enrich, complement, and shed light on Chinese music theory. The four basic xuangong transformations are chromatic transposition (C, D, E, G, A → G, A, B, D, E), pentatonic transposition (C, D, E, G, A → G, A, C, D, E), bian -directed transformation (C, D, E, G, A → B, D, E, G, A), and qing -directed transformation (C, D, E, G, A → C, D, F, G, A). The last two are adapted from classical Chinese music theory, and they are analogous to key signature transformations in Western music. This paper discusses the structure of xuangong transformations, their application in Chinese music theory, and their analytical use in examples spanning Confucian court music, traditional instrumental music, Cantopop, and Chinese new music, both tonal and atonal.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524644</t>
+          <t>https://openalex.org/W2072233983</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/669055</t>
+          <t>https://doi.org/10.1353/mod.2014.0056</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Harvey (2014)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Notes on Contributors</t>
+          <t>Irish Aestheticism in Fin-de-Siècle Women’s Writing: Art, Realism, and the Nation</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
+          <t>Irish Aestheticism in Fin-de-Siècle Women’s Writing:Art, Realism, and the Nation Alison Harvey (bio) Much has been written on aestheticism as a European and English movement, whether in regard to the advocacy of l’art pour l’art by French writers such as Théophile Gautier or the espousal of antididactic “art for art’s sake” in the early works of Algernon Charles Swinburne and Walter Pater. But few scholars have turned their attention to the critical relations between aestheticism and Ireland, despite the prevalence of Irish authors in the formative moments of “British” aestheticism. Dennis Denisoff, for example, notes importantly that “two of the most influential contributors to the decadent phase of aestheticism were the Anglo-Irish George Moore and Oscar Wilde.”1 Yet he says nothing more about their Irishness or its potential significance to their decadent or aesthetic representations, turning instead to the influences on Moore and Wilde of the writings of Gautier, Baudelaire, Huysmans, and Pater (all of whose specifically French and English contexts also pass without comment). Richard Begam and Michael Valdez view Wilde’s Irishness as significant only in its absence or even eradication from his aestheticism, asserting that Wilde’s aestheticism “dared not speak its Irishness”—as if to suggest that Wilde’s national identity was as taboo as his sexuality.2 In contrast to these readings, recent work by Joseph Bristow, Declan Kiberd, and Jerusha McCormack situates Wilde’s Irishness firmly within the analytical frame, positing that Wilde’s Irishness in exile is itself central to his antimoralistic critique and subversion of English conventions in his works and life.3 As a colonial figure in the metropole, Wilde has an outsider’s point of view on Englishness that informs his aestheticist critique of key [End Page 805] Victorian forms and ideals. His focus on beautiful surfaces questions mimetic realism, and he challenges Victorian realist emphases on authenticity and sincerity, by asserting, in the words of his character Vivian, that “as a method, Realism is complete failure” and that “lying, the telling of beautiful untrue things, is the proper aim of art.”4 At the same time, Wilde’s aestheticism also satirizes the frivolity and exclusions of English upper-crust society, as his depictions of decadent English culture carefully expose its mannerisms as all surface, all mask, all shallowness and no depth. Wilde’s critiques of Englishness from his exilic or “nomadic” position within and against English culture thus constitute one compelling form of Irish aestheticism.5 But I am also interested in how the undertheorized phenomenon of Irish aestheticism appears in works that focus on Ireland itself during the turbulent fin-de-siècle period of decolonization, when the nation was undergoing political, social, economic, and cultural revolutions leading up to independence in 1921. One such form of Irish aestheticism emerges in the critically neglected fictions of coauthors Edith Somerville and Martin Ross, Emily Lawless, and Katherine Cecil Thurston, whose works stand in marked contrast to Wilde’s exilic aestheticism and its central focus on the cultural limitations of English society. These writers’ engagements with debates about art, beauty, and ugliness that preoccupy the tradition of l’art pour l’art also differ importantly from another manifestation of aestheticism in Ireland in works associated with the Irish revival. Revival writers including W. B. Yeats, Augusta Gregory, and J. M. Synge fused aestheticist modes—symbolism, myth, legend, allegory, and dream, among others—with nationalist politics as part of a project of forging and fostering a sovereign Irish identity and nation-to-be. Writing mainly in verse and drama rather than in prose or the novel form, revivalist authors emphasize Celtic and Gaelic myth and legend over contemporary Irish life, an emphasis that aligns their works formally with central aspects of British aestheticism while also differentiating them nationally from British imperialist depictions of Ireland and Irishness.6 Like Wilde, revivalists critique Englishness, though their works focus on Ireland, not England; they counter British colonialism by proffering “authentic” Irish forms and figures in place of colonial representations of Irishness. At the same time, however, the subversive and critical energies that characterize Wilde’s Irish aestheticism in England become considerably blunted when...</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1987249872</t>
+          <t>https://openalex.org/W2883543386</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/939981</t>
+          <t>https://doi.org/10.1353/cdr.1983.0025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Holmes &amp; Kimbell (1982)</t>
+          <t>Lyon (1983)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Verdi in the Age of Italian Romanticism</t>
+          <t>Bertolt Brecht. Political Theory and Literary Practice ed. by Betty Nance Weber, Hubert Heinen</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Preface Part I. The Setting: 1. Verdi's Italy 2. Theatrical censorship 3. The operatic experience 4. Dramatic principles and musical form in early ottocento opera Part II. A Documentary History of the Early Operas: 5. Launching a career 6. The genesis of an opera - Ernani 7. Two overcrowded years 8. Verdi the idealist - the Florence Macbeth 9. Opera as a business 10. Collaboration with Cammarano 11. Bouts with the censor 12. Giuseppina's operas - Il Trovatore and La Traviata Part III. The Development of Verdi's Musical Language: 13. The first operas - Oberto and Un Giorno di Regno 14. Italian grand opera - Nabucco and I Lombardi alla Prima Crociata 15. The early 'galley' operas - Ernani to Attila 16. Macbeth and its satellites 17. Verdi a la parisienne - Jerusalem and La Battaglia di Legnano 18. Luisa Miller and Stiffelio 19. 'The popular trilogy' - Rigoletto, Il Trovatore, La Traviata Part IV. The Operas: 20. Nabucco, a risorgimento opera 21. Verdi and French Romanticism - Ernani 22. Byronismo - I Due Foscari and Il Corsaro 23. The impact of Shakespeare - the Florence Macbeth 24. La Battaglia di Legnano - the opera of the revolution 25. Essays with Schiller 26. The originality of Rigoletto 27. Verdi and 'realism' - La Traviata Notes Bibliography Index.</t>
+          <t>284 Comparative Drama Bertolt Brecht. Political Theory and Literary Practice. Ed. Betty Nance Weber and Hubert Heinen. Athens, Georgia: University of Georgia Press, 1980. Pp. 209. $15.00. This book of essays, a reworking of papers read at the Fourth Inter­ national Symposium of the Brecht Society held in Austin, Texas, in November 1976 confirms the commonplace that published proceedings of scholarly meetings are usually diverse in topic and uneven in quality. Ranging from the provocative to the prosaic (and the outright wrong­ headed), they fall (or the editors have arranged them) under four general headings—I. Political Theory and Practice; II. Production (mean­ ing theatrical production); III. Alteration of Aesthetic Values; and IV. Uses of Poetry. But in fact the subject matter of most contributions spills over into other categories and might appear just as well under another heading. The editors do attempt to bring unifying terminology (if not principles) into the collection. Two authors (probably at the behest of the editors) borrow the formulation “Critical Dialectics” from Antony Tatlow’s essay of the same name to define the function of Brecht’s art in the broadest sense. And the two essays by Douglas Kellner (“Brecht’s Marxist Aesthetic: The Korsch Connection”) and Klaus-Detlef Müller (“Me-ti”) treat Brecht’s relationship to Karl Korsch and Korsch’s influence on Brecht’s thinking as it affected the shape of Me ti. Book of Changes. Nevertheless, the seams separating many independent contri­ butions still show. Kellner’s essay, for example, contends that Brecht held Trotsky in high regard, while Betty Nance Weber’s essay, “The Life of Galileo and the Theory of Revolution in Permanence,” makes Trotsky not only the model for the figure of Galileo, but a significantly more heroic figure than Brecht in fact thought Trotsky was. We are told of Brecht’s admiration for Stalin in some of the essays, whereas others (again Weber’s essay) maintain that Brecht portrayed Stalin at this time unfavorably. But if we ignore this unevenness, we find several essays that stand out. Iring Fetscher’s introductory piece on “Brecht in Politics” contains original insights and speculations that would provoke any Brechtian of whatever political persuasion to rethink his/her position. Kellner’s essay on “Me Ti” represents probably the best summary available in English of this material, though Brechtian scholars who read German will find little new in it. Klaus-Detlef Müller’s article contains fascinating material on Brecht’s dispute with Karl Korsch and how their differing views of Stalinism and Marxism stimulated Brecht and ultimately enriched his works, specifically the Me Ti complex. Following a highly informative essay by Efim Etkind on “Brecht and the Soviet Theater” which describes the discovery of and the profound effect Brecht’s dramas had on the Soviet theater and intelligentsia in the fifties, Henry Glade’s essay “Major Brecht Productions in the Soviet Union Since 1957” traces Brecht’s role as the darling of the avant garde in the Soviet Union where his works had to be disguised as “classic texts” in order to pass Soviet censorship. Each of these articles presents information scarcely known and interest­ ing from a dialectic perspective of Brecht vis-à-vis Marxists of a different persuasion. There are less distinguished pieces. Antony Tatlow, for example, combines profound insights with unsupported assertions and Reviews 285 muddy logic as he attempts to define the fundamental role of all Brecht’s work under the term “critical dialectics.” Writing in a form of shorthand that presupposes acceptance of or acquaintance with his basic arguments, Tatlow would need more detailed logical exposition to reach any audience but a few cognoscenti. And the brief article by Wolfgang Storch, “Political Climate and Experimental Staging: The Decline of the Egoist Johann Fatzer,” would escape the understanding of all but the most knowledge­ able Brecht experts who knew this fragmentary play in its manuscript form and possessed sophisticated understanding of Brecht’s thinking. Margareta N. Deschner’s “Wuolijoki’s and Brecht’s Politicization of the Volksstuck” reconstructs the Finnish material on which Brecht based his Puntila play and shows it in various transmutations from the Finnish into “pre-Brecht” and “post Brecht” plays. Though she...</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117387235</t>
+          <t>https://openalex.org/W4252462163</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bbabio.2013.06.006</t>
+          <t>https://doi.org/10.1080/000713100358471</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Spudich et al. (2014)</t>
+          <t>Sassen (2000)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mechanism divergence in microbial rhodopsins</t>
+          <t>New frontiers facing urban sociology at the Millennium</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A fundamental design principle of microbial rhodopsins is that they share the same basic light-induced conversion between two conformers. Alternate access of the Schiff base to the outside and to the cytoplasm in the outwardly open “E” conformer and cytoplasmically open “C” conformer, respectively, combined with appropriate timing of pKa changes controlling Schiff base proton release and uptake make the proton path through the pumps vectorial. Phototaxis receptors in prokaryotes, sensory rhodopsins I and II, have evolved new chemical processes not found in their proton pump ancestors, to alter the consequences of the conformational change or modify the change itself. Like proton pumps, sensory rhodopsin II undergoes a photoinduced E → C transition, with the C conformer a transient intermediate in the photocycle. In contrast, one light-sensor (sensory rhodopsin I bound to its transducer HtrI) exists in the dark as the C conformer and undergoes a light-induced C → E transition, with the E conformer a transient photocycle intermediate. Current results indicate that algal phototaxis receptors channelrhodopsins undergo redirected Schiff base proton transfers and a modified E → C transition which, contrary to the proton pumps and other sensory rhodopsins, is not accompanied by the closure of the external half-channel. The article will review our current understanding of how the shared basic structure and chemistry of microbial rhodopsins have been modified during evolution to create diverse molecular functions: light-driven ion transport and photosensory signaling by protein–protein interaction and light-gated ion channel activity. This article is part of a Special Issue entitled: Retinal Proteins — You can teach an old dog new tricks.</t>
+          <t>The article examines some of the major challenges facing urban sociology at century's end given its traditions and lineages. These challenges arise out of the intersection of major macrosocial trends and their particular spatial patterns. The city and the metropolitan region emerge as one of the strategic sites where these macrosocial trends materialize and hence can be constituted as an object of study. Among these trends are globalization and the rise of the new information technologies, the intensifying of transnational and translocal dynamics, and the strengthening presence and voice of specific types of socio-cultural diversity. Each one of these trends has its own specific conditionalities, contents and consequences for cities, and for theory and research. Cities are also sites where each of these trends interacts with the others in distinct, often complex manners, in a way they do not in just about any other setting. The city emerges once again as a strategic lens for the study of major macrosocial transformations as it was in the origins of sociology. Can urban sociology address these challenges and in so doing once again produce some of the analytic tools for understanding the broader transformation?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://openalex.org/W8595886</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Santoro (2007)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>[Podcasts, wikis and blogs: the web 2.0 tools for medical and health education].</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>In the recent years, we have witnessed a new revolution in the field of communication through Internet. Web 2.0, whose contents are provided by the collaboration, discussion, and sharing between more users, is replacing the traditional web (the web 1.0). The use of podcasts, wikis, and blogs is rapidly increasing, and today they are proposed as educational tools for health professionals, physicians, and medical students. Medical podcasts have been developed by online medical journals (such as the New England Journal of Medicine, the Lancet, the British Medical Journal, and the JAMA), and by medical societies, medical schools and health institutions to communicate to and educate the physicians, the students, the patients, and the health consumers. Following the example of Wikipedia, medical wikis and blogs are being developed to support the medical education, the collaboration among researchers, and the clinical practice. However, these tools present some limitations related to their openness and ease of use which virtually allows anybody to alter and edit existing contents or to create new ones. This could make the contents unreliable and inaccurate, and could introduce risks for a correct medical education and for the health of those patients deciding to follow the medical advice included. Studies are needed to evaluate limits, benefits, and efficacy of these tools when used in the contexts of medical education and clinical practice. Other studies are needed to evaluate the reliability and the accuracy of the medical contents posted online through the web 2.0 services.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W1971995207</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.1016/s0009-8981(98)00072-2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Hayashi et al. (1998)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>Preparation of discoid washed platelets by differential centrifugation</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Background: Human protein 1 which was originally isolated from pathological urine is identified with clara cell 10 kDa protein and uteroglobin. It has immunomodulatory and anti-inflammatory effects in many vertebrates. Although there have been thorough studies on the structure, molecular biology and biochemical characteristics, the precise mechanism of its biological activities is unknown. The purpose of this research is to clarify the biochemical mechanism of protein 1 through its effect on the platelet aggregation process. Methods: Changes in calcium mobilization, actin filament concentrations and functions of integrin αIIbβ3 resulting from platelet stimulation were measured in the presence or absence of recombinant protein 1 (rP1). Results: Recombinant protein 1 inhibited U46619- and thapsigargin-induced platelet aggregation by preventing store mediated calcium entry (SMCE). The binding of rP1 to resting platelets induced an increase in the actin filament that accompanied the structural changes of αIIbβ3. When rP1-pretreated platelets were activated by thrombin or thapsigargin, the alterations in the actin filament and αIIbβ3 resulting from the stimulation decreased. Conclusion: These results suggest that rP1 inhibits platelet aggregation by participation in the actin polymerization through which SMCE is mediated.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W4315563578</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.33790/jmhsb1100168</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Evans et al. (2022)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
+          <t>Social Connections and Community Engagement Trends Among Unaccompanied Refugee Minors Exiting Foster Care</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>The United States has more immigrants than any other country in the world. The Unaccompanied refugee minor program has been serving thousands of youth annually since the 1970s and yet there is still a dearth of research and some apprehension of how to assist these vulnerable children in making friends and supportive relationships in the US. Social ties, social support networks, and engagement in the local/ immigrant community have all been shown to help ease the transition to the United States and improve mental health well being for immigrants. A national refugee resettlement agency sent surveys to all the Unaccompanied Refugee Minors who had existed foster care program three to 15 months prior to assess their social connections and community engagement after the program ended. Thirty youth replied and results show that living arrangements varied among participants, social engagement in the community was present for most of the young adults, relationships were an aspect of social support, and reliance on public benefits was relatively low among respondents. There are implications for caseworkers in terms of case planning to help ensure youth are connected before they leave the program, and future recommendations for more in-depth research are included.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2488535010</t>
+          <t>https://openalex.org/W2058706419</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1057/9781137012340_8</t>
+          <t>https://doi.org/10.1117/12.2018530</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chew (2013)</t>
+          <t>Toth et al. (2013)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Intergenerational Identities: Negotiating Solidarity and Plurality</t>
+          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>While one may inherit one’s “race”, language is not necessarily inherited and nowhere is this more evident than migrant cities where the second and third generations begin to use languages that are vastly different from their parents and grandparents. This chapter proposes the solidarity-plurality model as a way of understanding early identities. It uses parameters such as dress, food, religious rites and literary endeavours as a means to examine the processes of acculturation and assimilation. The postulation of a cline or continuum rather than a more static classificatory listing is useful for the study of intergenerational identities, for it suggests a gradual/fluid movement rather than a neat transition from one identity stage to the other.</t>
+          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366463390</t>
+          <t>https://openalex.org/W4387868962</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/hex.13772</t>
+          <t>https://doi.org/10.3389/fonc.2023.1244740</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hughes et al. (2023)</t>
+          <t>Herrera-Quiterio &amp; Encarnación‐Guevara (2023)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
+          <t>The transmembrane proteins (TMEM) and their role in cell proliferation, migration, invasion, and epithelial-mesenchymal transition in cancer</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
+          <t>Transmembrane proteins (TMEM) are located in the different biological membranes of the cell and have at least one passage through these cellular compartments. TMEM proteins carry out a wide variety of functions necessary to maintain cell homeostasis TMEM165 participates in glycosylation protein, TMEM88 in the development of cardiomyocytes, TMEM45A in epidermal keratinization, and TMEM74 regulating autophagy. However, for many TMEM proteins, their physiological function remains unknown. The role of these proteins is being recently investigated in cancer since transcriptomic and proteomic studies have revealed that exits differential expression of TMEM proteins in different neoplasms concerning cancer-free tissues. Among the cellular processes in which TMEM proteins have been involved in cancer are the promotion or suppression of cell proliferation, epithelial-mesenchymal transition, invasion, migration, intravasation/extravasation, metastasis, modulation of the immune response, and response to antineoplastic drugs. Inclusive data suggests that the participation of TMEM proteins in these cellular events could be carried out through involvement in different cell signaling pathways. However, the exact mechanisms not clear. This review shows a description of the involvement of TMEM proteins that promote or decrease cell proliferation, migration, and invasion in cancer cells, describes those TMEM proteins for which both a tumor suppressor and a tumor promoter role have been identified, depending on the type of cancer in which the protein is expressed. As well as some TMEM proteins involved in chemoresistance. A better characterization of these proteins is required to improve the understanding of the tumors in which their expression and function are altered; in addition to improving the understanding of the role of these proteins in cancer will show those TMEM proteins be potential candidates as biomarkers of response to chemotherapy or prognostic biomarkers or as potential therapeutic targets in cancer.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3013722721</t>
+          <t>https://openalex.org/W3037457611</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circresaha.120.316763</t>
+          <t>https://doi.org/10.1108/s2055-364120200000022005</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dikalova &amp; Dikalov (2020)</t>
+          <t>Fraser et al. (2020)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
+          <t>Moving Culture to the Center of the Curriculum: A Strategy for Regional Relevance and Organization Sustainability</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
+          <t>When two regional institutes of technology merged in 2016, it created a singular opportunity for disruption to business-as-usual and for organizational transformation. The new entity’s strategic intent is to be regionally relevant, learner-centric, sustainable, and innovative in delivery. Overarching all these considerations is an emphasis on relationships with our community, and demonstrating leadership in the re-positioning of culture at the heart of everything we do. Aotearoa New Zealand is a nation that prides itself on our dual heritage (Māori and European), and the way in which this is reflected in all public sectors in a commitment to a contemporary, bi-cultural framework. The core principles of partnership, protection and participation (Ministry of Justice, 2016) are the means by which legislation, public policies, and curriculum development should be judged. Yet Māori educational achievement lags behind that of non-Māori by 9.5% in degree completions (Marriott &amp; Sim, 2014). Boosting achievement of Māori is a key government priority (Tertiary Education Commission, 2016) and organizational imperative.This chapter describes our cultural milieu and institutional vision, discusses the ways in which core values from Māori culture have informed curriculum development, and offers a pathway toward organizational sustainability. We outline how these different ways of thinking are being communicated to our students, staff, partners, and stakeholders, and how we expect to add value to the learning experience, and relevance to our own society and the wider global community. We emphasize that leadership and strategies directed toward sustainability, must and should begin with an understanding of organizational cultural identity - who we are, where we stand, and what we stand for.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2903193854</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
+          <t>https://openalex.org/W1557433145</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Hein et al. (2018)</t>
+          <t>LeBlanc (2007)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
+          <t>Imaniya and Young Muslim Women in Côte d'Ivoire</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
+          <t>Introduction: Religious Transformation and ConversionThis article examines the role African women in Islamic revivalism. More specifically, I will address the relationship between community conversion and individual experience in the 1990s in Cote d'Ivoire. I explore how, through imaniya or acts faith, French-speaking, Western-style educated and financially self-sufficient young women1 are negotiating their participation into local, and at times international, marriage markets. By means the public display orthodoxy and their participation into newly created Islamic associations, they position themselves as marriageable in light marriage practices that generally favour younger and less formally educated women.In relation contemporary postcolonial African societies, a number authors have highlighted the social, political and economic dimensions recent religious revivalisms (see Bayart 1993; Constantin and Coulon 1997; Gifford 1995; Miles 2004; among others). As such, religion has been one the sites social change in processes political decentralization starting in the 1980s with the end the Cold War. Political and economic liberalization have loosened the possibilities creating new social structures. In a number cases, political claims have been framed in terms religious identities; Cote d'Ivoire and Nigeria are two significant examples such processes in West Africa. Recent religious transformations have also been understood as a sociological critique the project modernization embodied in notions the state and citizenship (see for instance Hefner 1998 and Nagata 2001).While the sociopolitical aspects recent religious changes in African societies have been extensively discussed in the literature, very little has been said about its experiential dimension, namely the experience awakening one's religious consciousness, be it individual or community-based. Among Muslims in Cote d'Ivoire, as well as other Muslims in West Africa, it is commonly anticipated that one's religious practice will change throughout one's life course. With age, one is expected adhere more closely the locally prescribed orthodoxy. As one male informant explained, when you are young, you need try things out. You are not always a good Muslim. But with age, with responsibility, you need become a good Muslim.Clearly, here, the notion spiritual growth is embedded in a synchronicity between religiosity and the life course (LeBlanc 2003a; Soares 2004a, 2004b). Historically, some religious rituals have marked the transition towards adherence a Muslim way life. The hajj (yearly pilgrimage Mecca in Saudi Arabia) is a significant marker in this passage. After attending the pilgrimage, Muslims are expected follow a strict observance religious prescriptions; their religious experience is accompanied by the outward display Islamic markers, such as special head-dresses, as well as the adoption a set gestures and social attitudes (see LeBlanc 2005).In spite the expectation spiritual growth throughout one's life course, the experience imaniya described by young women in the 1990s marks actual changes in religious practice. Among Muslims in Cote d'Ivoire, imaniya refers the experience Literally, it means to have in the Dioula language. In the context recent religious transformations among Muslims in Cote d'Ivoire,2 imaniya highlights the experience by Muslims of assuming one's faith. One could also say: Ka seguiko I ka dinala, come back one's faith, religion or belief. As such, imaniya is associated with the notions humility and modesty,3 nimissa or remorse4 as well as djenebaya or purification (I will come back these three elements later in the discussion).The assertion one's faith by young Muslims in the 1990s implies a radical transformation one's lifestyle and worldview that fits the Pauline model conversion, namely a sudden and dramatic change accompanied by the reversal beliefs and allegiances (see Rambo 2003). …</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
+          <t>https://openalex.org/W2180817908</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://doi.org/10.1007/978-0-387-35692-1_28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Binney &amp; Ishak (2003)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>When E-Business becomes K-Business…‥will it be ‘A Natural Act’?</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>This paper proposes that the next wave of electronic business (e-business) will move from current transaction based e-business to the merging of e-business and knowledge management, and that organizations that have already internally adopted knowledge management (KM) will find the transition to this next wave of e-business a natural and sustainable act. The first part of the paper explores recent trends and forecasts pertaining to e-business and KM, concluding that organizations are moving towards a more networked economy where partnerships, collaboration and knowledge sharing will complement current transactional e-business, and that successful KM requires a balance between technology and organizational change interventions. The second part of the paper explores the issues associated with establishing a knowledge-sharing culture in preparation for the next proposed evolution of e-business by presenting interim results of a current study into the adoption of KM practices by staff in a global IT services company. Instantiating various adoption models, the study investigated time of adoption and potential factors that influenced the adoption of 2 KM applications by 283 survey respondents. The findings of this research are interpreted in light of the proposed next wave of e-business, providing additional considerations and actions that organizations may take to successfully participate in the evolution of e-business in a more knowledge sharing based networked economy.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
+          <t>https://openalex.org/W2321573811</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://doi.org/10.2307/1939742</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Soderlund (1987)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Women's Authority in Pennsylvania and New Jersey Quaker Meetings, 1680-1760</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>S CHOLARS seeking the source of the women's rights movement in North America discover that the trail leads to the Society of Friends. The Quakers, who in Sydney E. Ahlstrom's words had by I700 become probably the most potent religious movement in the colonies outside Puritan New England,' dwindled to a small sect after the Revolution. Nevertheless, a large percentage of nineteenth-century feminists were Quakers. These women had sharpened oratorical and organizational talents as ministers and as leaders of their separate women's meetings for discipline, and they had applied these skills to acquiring the same recognition and authority in the larger society that they possessed within their church. Lucretia Mott and her fellow Quaker activists had behind them almost two centuries of female participation in the leadership of their faith when in i848 they helped to draw up the Declaration of Sentiments for the convention at Seneca Falls. , In examining the history of eighteenth-century Friends in order to investigate the origins of American feminism, historians have employed a conceptual framework that makes autonomous female power the standard by which women's experiences should be judged.2 This model makes</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3126388929</t>
+          <t>https://openalex.org/W2089433433</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/agj2.20631</t>
+          <t>https://doi.org/10.1002/hrm.20445</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Govindasamy et al. (2021)</t>
+          <t>Marks &amp; Mirvis (2011)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
+          <t>A framework for the human resources role in managing culture in mergers and acquisitions</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
+          <t>Abstract Scholars, business people, and change agents agree that culture matters in eventual merger and acquisition (M&amp;amp;A) success. Researchers have generated many insights and practitioners have developed many interventions regarding culture in M&amp;amp;A. Managing culture, however, is often a low priority when executives are consumed with the deal's financial and strategic aspects. The authors propose a framework for how Human Resources (HR) can work with business partners in managing acculturation in M&amp;amp;A. They first examine the relationship between cultural differences and M&amp;amp;A outcomes, how culture manifests itself in combinations, and the causes and stages of culture clash. They then highlight the value of a clear “cultural endstate” in M&amp;amp;A and apply classic change management theory to identify actions that unfreeze current cultural mind‐sets, move people toward the desired endstate, and refreeze the desired culture. Their framework specifies HR actions for four distinct cultural endstates—pluralism (in which the partner companies coexist), integration (in which the partners blend current cultures together), assimilation (in which one company absorbs the other), and transformation (in which the partner companies abandon key elements of their current cultures and adopt new values and norms). © 2011 Wiley Periodicals, Inc.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2903786861</t>
+          <t>https://openalex.org/W2093671836</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7922/g2028pqq</t>
+          <t>https://doi.org/10.1038/ki.1974.19</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>O’Brien &amp; Jaishankar (2019)</t>
+          <t>Kramp et al. (1974)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
+          <t>A study by microdissection and micropuncture of the structure and the function of the kidneys and the nephrons of rats with chronic renal damage</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
+          <t>A study by microdissection and micropuncture of the structure and function of the kidneys and nephrons of rats with chronic renal damage. Individual nephrons were studied by microdissection and micropuncture in rats three to four weeks after subcutaneous injection of K 2 Cr 2 O 7 and HgCl 2 for comparison with clearances and tubular transport maximums (Tms) that represented the total activity of the kidney from which they were obtained. At the time of the experiments the acute renal lesions of necrosis had been replaced by regenerative processes of repair. This model has no exact clinical analogy but the structural changes in individual nephrons are similar to those observed in nephrons of humans with chronic renal disease. The kidneys were irregularly and greatly enlarged; in histologic sections there were moderate glomerular and extensive tubular changes. Microdissection demonstrated the renal lesion to be a combination of regressive changes (atrophy, fatty depositions) in some proximal convolutions, progressive reactions (hyperplasia, hypertrophy) in others or more frequently a combination of these alterations in single structural segments (the proximal convolutions) of individual nephrons. Glomerular filtration rates (GFR) in the damaged kidneys ranged from the highest to less than the lowest of normal control values but were lower when calculated per gram of kidney weight. Since TmPAH was normal, TmPAH:GFR was increased, indicating functional tubular predominance, correlating closely with the evidence by microdissection of morphological tubular hyperplastic predominance in the abnormal kidney. There was marked heterogeneity of individual nephron GFR but proximal fractional reabsorption was the same as in control nephrons, indicating that rates of reabsorption were also more variable than normal but appropriate for the rate of filtration. Tubular fluid transit times were markedly more variable than in normal animals yet correlated closely with morphological changes demonstrated by microdissection in the same nephrons on which the determination had been made. Microinjection indicated that the repaired abnormal tubules were impermeable to inulin. These results demonstrate a close correlation between the heterogeneity of structure and function at the level of the individual nephrons and, therefore, in their totality as they constitute the kidneys of rats with chronic renal damage. Although the rates of physiological processes showed marked diversity, proximal fractional reabsorption of salt and water was appropriate for the rate of filtration in individual nephrons and, thus, is evidence of the adaptive compensations which constitute the phenomena of chronic renal disease.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W2730651375</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.1002/jid.3284</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Menocal (2017)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>Political Settlements and the Politics of Transformation: Where Do ‘Inclusive Institutions’ Come From?</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t>Abstract This article analyses how political settlements can help deepen our understanding of how underlying rules of the game and power relations shape patterns of inclusion and exclusion, and prospects for political, social and economic transformation. Drawing on insights from a growing body of research in the area of the politics of development, the paper explores what kinds of factors have helped to foster more inclusive institutions across the developing world. By way of conclusion, it offers reflections on how a political settlement approach can enable donors to engage more effectively in efforts to foster progressive change. Copyright © 2017 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
+          <t>https://openalex.org/W4237372149</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://doi.org/10.1111/j.1835-9310.1982.tb01245.x</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>NA (2010)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>Book Reviews</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>MankindVolume 13, Issue 5 p. 430-471 Book Reviews First published: December 1982 https://doi.org/10.1111/j.1835-9310.1982.tb01245.xAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Book reviewed in this article: Animal Societies and Evolution. Readings from Scientific American; with an introduction by Howard Topoff. W. H. Freeman &amp; Company Sociobiology: The Whisperings Within. By David Barash On the Evolution of Human Behavior. The Argument from Animals to Man. By Peter C. Reynolds Symbols in Action. Ethnoarchaeological Studies of Material Culture. By Ian Hodder Early Man in Britain and Ireland. An Introduction to Palaeolithic and Mesolithic Cultures. By Alex Morrison Data Bank Application in Archaeology. Edited by Sylvia W. Gaines Hunter-Gatherer Foraging Strategies. Ethnographic and Archaeological Analysis. Edited by Bruce Winterhalder and Eric Alden Smith Aleuts: Survivors of the Bering Land Bridge. By William S. Laughlin The First Americans: Then and Now. By William H. Hodge Australian Stone Hatchets. A Study in Design and Dynamics. By F. P. Dickson Pioneer Aboriginal Mission. The Work of Wesleyan Missionary John Smithies in the Swan River Colony 1840–1855. By William McNair and Hilary Rumley The Aboriginal Tasmanians. By Lyndall Ryan Aborigines of the West. Their Past and Their Present. Edited by Ronald M. Berndt and Catherine H. Berndt Islanders and Aborigines at Cape York. By David R. Moore The Sweetness of the Fig: Aboriginal Women in Transition. By Virginia Huffer Law: The Old and the New Aboriginal Women in Australia Speak Out. By Diane Bell and Pam Ditton Edited by William C. McCormack and Stephen A. Wurm An Essay on Language. By George W. Grace Deadly Words. Witchcraft in the Bocage. By Jeanne Favret-Saada Death and the Family: The Importance of Mourning. By Lily Pincus Genocide. It's Political Use in the Twentieth Century. By Leo Kuper Tell Freedom. By Peter Abrahams. Faber and Faber The Ethnic Dimension. Papers on Ethnicity and Pluralism by Jean Martin. A Crisis of Identity. Israel and Zionism. By Dan V. Segre Eruera. The Teachings of a Maori Elder. By Eruera Stirling Rua and the Maori Millennium. By Peter Webster Indigenous Psychologies. The anthropology of the self. Edited by Paul Heelas and Andrew Lock Ancient Indian Magic and Folklore. By Margaret Stutley Women in India and Nepal. Edited by Michael Allen and S. N. Mukherjee Islamic and Western Concepts of Civilization. By M. J. Beg Mormons in the Pacific: A Bibliography. Compiled by Russel T. Clement Anthropology in Australia. Essays to Honour 50 Years of Mankind. Edited by Grant McCall The Teaching of Research Methodology: Special Issue of Sociology. Edited by M. Bulmer and R. G. Burgess Cross-cultural Samples and Codes. Edited by Herbert Barry III and Alice Schlegel Description and Comparison in Cultural Anthropology. The Lewis Henry Morgan Lectures. By Ward H. Goodenough Atlas of World Cultures. By George Peter Mur-dock Lives. An Anthropological Approach to Biography. By L. L. Langness and Gelya Frank The Flow of Life. Essays on Eastern Indonesia. Edited by James J. Fox Diego Silang and the Origins of Philippines Nationalism. By David Routledge The People and Art of the Philippines. By Father Gabriel Casial Some Reflections on the Nature of Iban Society. By Derek Freeman Economic Man in Sha Tin. Vegetable Gardeners in a Hong Kong Valley. By Göran Aijmer Australian Community Studies and Beyond. By R. A. Wild Middle-Class Couples. A Study of Segregation, Domination, and Inequality in Marraige. By Stephen Edgell Culture and Society in Contemporary Europe. A Casebook. Edited by Stanley Hoffman and Paschalis Kitromilides Volume13, Issue5December 1982Pages 430-471 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2073120171</t>
+          <t>https://openalex.org/W2074839063</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-8543.1988.tb00749.x</t>
+          <t>https://doi.org/10.1016/0165-7836(92)90029-s</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fulcher (1988)</t>
+          <t>Ranta et al. (1992)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden</t>
+          <t>Fish catch and water quality in small lakes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">British Journal of Industrial RelationsVolume 26, Issue 2 p. 246-274 On the Explanation of Industrial Relations Diversity: Labour Movements, Employers and the State in Britain and Sweden James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author James Fulcher, James Fulcher Lecturer in Sociology at the University of LeicesterSearch for more papers by this author First published: July 1988 https://doi.org/10.1111/j.1467-8543.1988.tb00749.xCitations: 16 AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Allen, V. L. (1971), The Sociology of Industrial Relations, London: Longmans. Åmark, Klas (1986), Fackligt makt och fackligt medlemskap. De svenska fackligt medlemskap, Lund: Arkiv. Bäckström, Knut (1977), Arbetarrörelsen i Sverige, Stockholm: Raben and Sjögren. Barrington Moore Jnr. (1978), Injustice: The Social Base of Obedience and Revolt, London: Macmillan. Brown, Henry Phelps (1983), The Origins of Trade Union Power, Oxford: Clarendon Press. Burgess, Keith (1975), The Origins of British Industrial Relations, London: Croom Helm. Casparsson, Ragnar (1966), LO: Bakgrund, Utveckling, Vertsamhet, Stockholm: Prisma. Cederqvist, Jane (1980), Arbetare i strejk. Studier rörande arbetarnas politiska mobilisering under industrialismens genombrott. Stockholm 1850–1909, Stockholm: Liber. Charles, Rodger (1973), The Development of Industrial Relations in Britain 1911–1913, London: Hutchinson. Clegg, H. A. (1976), Trade Unionism under Collective Bargaining, Oxford: Basil Blackwell. Clegg, H. A. (1985), A History of British Trade Unions Since 1889 vol.2 1911–1933, Oxford: Clarendon Press. Clegg, H. A. Fox, A and Thompson, A. F. (1964), A History of British Trade Unions since 1889, Vol. 1, Oxford: Clarendon Press. Cole, G. D. H. (1953), Attempts at General Union, London: Macmillan. De Geer, Hans (1986), S.A.F. i förhandlingar, Stockholm: Svenska Arbets-givareföreningen. Elvander, Nils (1980), Skandinavisk Arbetarrorelser, Stockholm: Liber. Engels, Frederick (1969), The Condition of the Working Class in England, London: Panther. Flanders, Allan (1970), Management and Unions: The Theory and Reform of Industrial Relations, London: Faber and Faber. Fox, Alan (1985), History and Heritage: the Social Origins of the British Industrial Relations System, London: Allen and Unwin. Fraser, W. Hamish (1974), Trade Unions and Society, London: George Allen and Unwin. Fulcher, James (1976), ‘Class conflict: Joint Regulation and Its Decline’, in Richard Scase ed. Readings in the Swedish Class Structure; Oxford: Pergamon. Fulcher, James (1987), ‘Labour Movement Theory Versus Corporatism: Social Democracy in Sweden’, Sociology, 21, 231–52. Galenson, Walter (1952), The Danish System of Labor Relations, Cambridge, Mass.: Havard University Press. Gårdlund, T. (1942), Industrialismens Samhälle, Stockholm: Tiden. Garside, W. R. (1977), ‘Management and Men: Aspects of British Industrial Relations in the Inter-War period’, in Barry Supple ed. Essays in British Business History, Oxford: Clarendon Press. Hadenius, Axel (1976), Facklig organisationsutveckling, Stockholm: Raben and Sjögren. Hentilä, Seppo (1979), Den svenska arbetarklassen och reformismens genombrott inom SAP före 1914, Helsingfors. Higgins, Winton (1985), ‘Political Unionism and the Corporatist Thesis’, Economic and Industrial Democracy, 6, 349–381. Hinton, James (1982), ‘The Rise of a Mass Labour Movement: Growth and Limits’, in Wrigley (1982). Hinton, James (1983), Labour and Socialism: a History of the British Labour Movement 1867–1974, Brighton: Wheatsheaf. Höglund, Sten (1978), Störforetagen, Svenska Arbetsgivareföreningen och Beslutsordningen i Arbetarnas Fackliga Organisationer, Research Reports from the Department of Sociology, University of Umeå. Hyman, Richard (1975), Industrial Relations: A Marxist Introduction, London: Macmillan. Ingham, Geoffrey K. (1974), Strikes and Industrial Conflict, London: Macmillan. Jackson, Peter and Sisson, Keith (1976), ‘Employers Confederations in Sweden and the UK and the Significance of Industrial Infrastructure’, British Journal of Industrial Relations, 14. Johansson, Ingemar (1982), Strejken som vapen. Fackföreningar och strejker i Norrköping 1870–1910, Kristianstad: Tiden. Karlbom, Rolf (1985), Revolution eller reformer, Göteborg: Göteborgs Universitet. Kirby, R. G. and Musson, A. E. The Voice of the People, Manchester: Manchester University Press. Kjellberg, Anders (1983), Facklig organisering i tolv länder, Lund: Arkiv. Korpi, </t>
+          <t>We examined the relationship between water quality and fish catch in 80 small Finnish lakes. Generally, fishing effort and gear may vary considerably among lakes; therefore, the detection of any relationship between water quality and fish catch may be hampered. To avoid this bias, fish in the present study were trapped with a standardised gill net (catch refers to the pooled biomass of trapped fish, catch per unit effort (CPUE). Water quality was assessed by measuring lake-specific values of pH, calcium, dissolved and total aluminium, conductivity, alkalinity and water colour. From these data, we extracted two principal components, together they retained 78% of the variation in the original data. Despite our efforts to minimise noise in the catch data, we could not find any predictive relationship between water quality and total biomass of fish. We conclude that in Finnish lakes it is difficult, if not impossible, to predict the lake-specific fish catch based on water quality. However, even with the present data there were differences in the total catch of fish originating from lakes with diverse values along the first principal component (a gradient composed of pH, calcium, conductivity and alkalinity). Lakes in the low end averaged a catch of 6.4 kg, while those at the high end averaged 9.2 kg. This was due to roach having increasing catches along the gradual transition from acid to neutral lakes.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2282662800</t>
+          <t>https://openalex.org/W81821564</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/19436149.2015.1101873</t>
+          <t>https://doi.org/10.1007/978-94-007-6916-8_6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Adib-Moghaddam (2015)</t>
+          <t>Macdonald (2013)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Islamic Secularism and the Question of Freedom in Iran</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>My research deals with the question of ‘freedom’ in Iran and the appropriation of ‘liberal’ ideas by influential intellectuals with an Islamic persuasion. At the same time, I am conceptualising the term ‘Islamic secularism’ with a particular emphasis on the spectre of democracy in Iran. I argue that Iranian thinkers, whose philosophical nodal point continues to be a modernistic interpretation of Islam (or Islamism), have struggled to formulate a theory that would transcend the confines of the revolution and satisfy the demands for pluralism and liberty put forward during several protests in Iran and, of course, during the 2011 Arab revolts.</t>
+          <t>Negotiating Safe and Unsafe Space: Participation, Discomfort and Response-Ability in Higher Education Institute Transformation in South Africa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W1971995030</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.1016/j.pcad.2012.02.004</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Yusuf et al. (2012)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Disturbances in Calcium Metabolism and Cardiomyocyte Necrosis: The Role of Calcitropic Hormones</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>A synchronized dyshomeostasis of extra- and intracellular Ca2+, expressed as plasma ionized hypocalcemia and excessive intracellular Ca2+ accumulation, respectively, represents a common pathophysiologic scenario that accompanies several diverse disorders. These include low-renin and salt-sensitive hypertension, primary aldosteronism and hyperparathyroidism, congestive heart failure, acute and chronic hyperadrenergic stressor states, high dietary Na+, and low dietary Ca2+ with hypovitaminosis D. Homeostatic responses are invoked to restore normal extracellular [Ca2+]o, including increased plasma levels of parathyroid hormone and 1,25(OH)2D3. However, in cardiomyocytes these calcitropic hormones concurrently promote cytosolic free [Ca2+]i and mitochondrial [Ca2+]m overloading. The latter sets into motion organellar-based oxidative stress, in which the rate of reactive oxygen species generation overwhelms their detoxification by endogenous antioxidant defenses, including those related to intrinsically coupled increments in intracellular Zn2+. In turn, the opening potential of the mitochondrial permeability transition pore increases, allowing for osmotic swelling and ensuing organellar degeneration. Collectively, these pathophysiologic events represent the major components to a mitochondriocentric signal-transducer-effector pathway to cardiomyocyte necrosis. From necrotic cells, there follows a spillage of intracellular contents, including troponins, and a subsequent wound healing response with reparative fibrosis or scarring. Taken together, the loss of terminally differentiated cardiomyocytes from this postmitotic organ and the ensuing replacement fibrosis each contribute to the adverse structural remodeling of myocardium and progressive nature of heart failure. In conclusion, hormone-induced ionized hypocalcemia and intracellular Ca2+ overloading comprise a pathophysiologic cascade common to diverse disorders and that initiates a mitochondriocentric pathway to nonischemic cardiomyocyte necrosis.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002131502</t>
+          <t>https://openalex.org/W2993247134</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
+          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Burns (1975)</t>
+          <t>Nugraha (2019)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
+          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
-        <is>
-          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2058706419</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1117/12.2018530</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Toth et al. (2013)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4200409676</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20535/2218-930032021247159</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Litynska et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2040919102</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Pangas et al. (2004)</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2786746787</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/acs.jpcc.7b11165</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Stan &amp; Toroker (2018)</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Lateral Chemical Bonding in Two-Dimensional Transition-Metal Dichalcogenide Metal/Semiconductor Heterostructures</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Discovering better materials for electronic devices is important for technological advancements. One of the most promising materials are transition-metal dichalcogenides (TMDCs) due to their ability to form two-dimensional structures with diverse compositions. Recently, experimental breakthroughs were demonstrated for all two-dimensional transistors that contain a semiconducting TMDC channel and other materials for the metallic source and drain. However, metal/semiconductor interfaces that are made of similar TMDC materials are anticipated to be better candidates because they provide better chemical bonding and thus smaller resistance. Furthermore, smaller resistance is expected to be achieved with a metal and a semiconductor that are joined in direct lateral contact. In this work, we use density functional theory to analyze the electronic structure properties of novel lateral TMDC metal/semiconductor heterojunctions. We discover promising metal/semiconductor heterojunctions, for example, VS2/CrS2, which is characterized by strong covalent bonds with limited metal-induced gap states, high charge density around the Fermi level, and no Schottky barrier. These properties are anticipated to be useful for practical implementation of these material heterojunctions in all two-dimensional transistors.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2139210122</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/0306312708090796</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Fullwiley (2008)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>The Biologistical Construction of Race</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>This paper presents an ethnographic case study of the use of race in two interconnected laboratories of medical genetics. Specifically, it examines how researchers committed to reducing health disparities in Latinos with asthma advance hypotheses and structure research to show that relative frequencies of genetic markers characterize commonly understood groupings of race. They do this first by unapologetically advancing the idea that peoples whom they take to be of the 'Old World', or 'Africans', 'Europeans', 'East Asians', and 'Native Americans', can serve as putatively pure reference populations against which genetic risk for common diseases such as asthma can be calculated for those in the 'New World'. Technologically, they deploy a tool called ancestry informative markers (AIMs), which are a collection of genetic sequence variants said to differ in present-day West Africans, East Asians, Europeans, and (ideally Pre-Columbian) Native Americans. I argue that this technology, compelling as it may be to a range of actors who span the political spectrum, is, at base, designed to bring about a correspondence of familiar ideas of race and supposed socially neutral DNA. This correspondence happens, in part, as the scientists in question often bracket the environment while privileging racialized genetic variance as the primary source of health disparities for common disease, in this case between Mexicans and Puerto Ricans with asthma. With their various collaborators, these scientists represent a growing movement within medical genetics to re-consider race and 'racial admixture' as biogenetically valid points of departure. Furthermore, many actors at the center of this ethnography focus on race as a function of their personal identity politics as scientists of color. This to say, they are driven not by racist notions of human difference, but by a commitment to reduce health disparities and to include 'their' communities in what they describe as the 'genetic revolution'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3046780771</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fendo.2020.00463</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Battagello et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>The Rat Mammary Gland as a Novel Site of Expression of Melanin-Concentrating Hormone Receptor 1 mRNA and Its Protein Immunoreactivity</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Lactation is a complex physiological process, depending on orchestrated central and peripheral events, including substantial brain plasticity. Among these events is a novel expression of pro-melanin-concentrating hormone (Pmch) mRNA in the rodent hypothalamus, such as the ventral part of the medial preoptic area (vmMPOA). This expression reaches its highest levels around postpartum day 19 (PPD19), when dams transition from lactation to the weaning period. The appearance of this lactation-related Pmch expression occurs simultaneously with the presence of one of the Pmch products, melanin-concentrating hormone (MCH), in the serum. Given the relevance of the MPOA to maternal physiology, and the contemporaneity between Pmch expression in this structure and the weaning period, we hypothesized that MCH has a role in the termination of lactation, acting as a mediator between central and peripheral changes. To test this, we investigated the presence of the MCH receptor 1 (MCHR1) and its gene expression in the mammary gland of female rats in different stages of the reproductive cycle. To that end, in situ hybridization, RT-PCR, RT-qPCR, nucleotide sequencing, immunohistochemistry and western blotting were employed. While Mchr1 expression was detected in the epidermis and dermis of both diestrus and lactating rats, parenchymal expression was exclusively found in the functional mammary gland of lactating rats. The expression of Mchr1 mRNA oscillated through lactation period and reached its maximum in PPD19 dams. Presence of MCHR1 was confirmed with immunohistochemistry, with preferential location of MCHR1 immunoreactive cells in the alveolar secretory cells. As was the case for gene expression, the MCHR1 protein levels were significantly higher in PPD19 than in other groups. Our data demonstrate the presence of an anatomical basis for the participation of MCH peptidergic system on the control of lactation through the mammary gland, suggesting that MCH could modulate a pro-lactation action in early postpartum days and the opposite role at the end of the lactation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1994009899</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/03067319.2014.983494</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Camilleri et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W27668594</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Rosario (2012)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2321573811</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/1939742</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Soderlund (1987)</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Women's Authority in Pennsylvania and New Jersey Quaker Meetings, 1680-1760</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>S CHOLARS seeking the source of the women's rights movement in North America discover that the trail leads to the Society of Friends. The Quakers, who in Sydney E. Ahlstrom's words had by I700 become probably the most potent religious movement in the colonies outside Puritan New England,' dwindled to a small sect after the Revolution. Nevertheless, a large percentage of nineteenth-century feminists were Quakers. These women had sharpened oratorical and organizational talents as ministers and as leaders of their separate women's meetings for discipline, and they had applied these skills to acquiring the same recognition and authority in the larger society that they possessed within their church. Lucretia Mott and her fellow Quaker activists had behind them almost two centuries of female participation in the leadership of their faith when in i848 they helped to draw up the Declaration of Sentiments for the convention at Seneca Falls. , In examining the history of eighteenth-century Friends in order to investigate the origins of American feminism, historians have employed a conceptual framework that makes autonomous female power the standard by which women's experiences should be judged.2 This model makes</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4394933426</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4337/9781800889842.00012</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Diamint (2024)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Military power and autonomy</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Autonomy refers to the strong influence of the military in civilian politics. Countries in transitions to democracy agreed to subordinate the armed forces to the authority of elected civilians. But, with the beginning of the new century, a reversal of these practices occurred. The rulers who previously favoured democratic civil control of the military tolerate varying degrees of military self-governance to achieve political stability. Why in Latin America, as well as other regions, the has military political participation not ended? To analysis this question the text inquiries into the relationship of the armed forces with political power in three cases: Colombia, Venezuela and Brazil. In these countries the armed forces have acted, simultaneously, as agents of the elected government and as members of their own corporation, demonstrating that they retain very high quotas of power. The three cases allow us to develop the ideas of Concurred Autonomy, Politized Autonomy, and Self-regulated Autonomy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1587591531</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Bardis et al. (2011)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2108558461</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/anie.200504555</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Sun &amp; DiMagno (2006)</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Room-Temperature Nucleophilic Aromatic Fluorination: Experimental and Theoretical Studies</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Taming the reagent: The use of anhydrous tetrabutylammonium fluoride (TBAFanh) in nucleophilic aromatic substitution reactions, including variants of the selective halogen-exchange and fluorodenitration processes (see scheme), was investigated. It was shown that TBAFanh permits these reactions to be performed under surprisingly mild conditions if it is used in relatively nonpolar media. Despite their rarity in nature,1 organofluorine compounds play a leading role in the life sciences.2–11 The high electronegativity and small atomic radius of the fluorine atom mean that its incorporation into biologically active compounds induces a relatively small structural perturbation, whereas drastically altering the electronic properties and bioavailability of the compounds.9, 12 Fluorine substitution is a particularly effective strategy for aromatic groups, as the electron-withdrawing nature of the fluorine atom reduces the susceptibility of an aryl ring to cytochrome P-450 catalyzed hydroxylation, a common step in drug catabolism.8 The CF dipole in fluoroaromatic groups can also lead to an increase in molecular recognition through favorable, though generally weak, electrostatic interactions.3, 6, 10, 11, 13 Because of the medicinal importance of fluorinated aromatic compounds, mild and selective methods for their preparation are desirable. We recently reported the preparation of a soluble, highly nucleophilic fluoride-ion source, anhydrous tetrabutylammonium fluoride (TBAFanh).14 TBAFanh can be dissolved in dimethyl sulfoxide (DMSO) and CH3CN (2 M) and fluorinates primary alkyl halides and tosylates rapidly at low temperature (−35 °C, 5 min, THF). The rapid rate observed for SN2 reactions that feature TBAFanh prompted us to investigate nucleophilic aromatic substitution (SNAr) reactions with this reagent. Below we describe variants of the industrially important selective halogen exchange (Halex) and fluorodenitration processes for aromatic fluorination.15–18 We show that TBAFanh permits these reactions to be performed under surprisingly mild conditions. Electron-withdrawing substituents are typically required to activate chloroaromatic substrates toward Halex chemistry. The usual reagents employed to effect halogen exchange are spray-dried KF; a high-boiling-point polar aprotic solvent, such as sulfolane; and a phase-transfer catalyst to improve the solubility of the fluoride ion (Scheme 1). Prolonged and vigorous heating is often required. Such harsh conditions preclude syntheses in which the late introduction of fluorine substituents is desired. In contrast, many aromatic compounds undergo Halex reactions at room temperature in DMSO, CH3CN, or THF upon exposure to TBAFanh. In a typical preparation, TBAFanh (1.3 equiv) and the chloro- or nitroaromatic compound were simply stirred together in DMSO.19 Representative fluorinations are shown in Table 1. A typical Halex reaction.24 DMI=1,3-dimethyl-2-imidazolidinone. Entries Substrate Conditions[a] Product Yield [%][b] 1 TBAFanh (4 equiv) 14 days no reaction 0 2 TBAFanh (4 equiv) 14 days 80 3 TBAFanh (2.5 equiv) 1 h &gt;95 4 TBAFanh (2.5 equiv) 1.5 h &gt;95 5 TBAFanh (1.3 equiv) 20 min &gt;95 6 TBAFanh (1.3 equiv) 30 min &gt;95 7 TBAFanh (1.3 equiv) 1 h &gt;95 8 TBAFanh (2.5 equiv) 30 min &gt;95 9 TBAFanh (1.3 equiv) 30 min &gt;95 10 TBAFanh (1.4 equiv) ≈30 min &gt;90 11 TBAFanh (1.5 equiv) 2 days 80 12 TBAFanh (1.5 equiv) 5 days 2 13 TBAFanh (1.5 equiv) 18 h &gt;95 14 TBAFanh (2.5 equiv) 20 min &gt;95 15 TBAFanh (1.4 equiv) 20 min &gt;85 16 TBAFanh (2.5 equiv) 1 h &gt;90 17 TBAFanh (2.5 equiv) 1.5 h &gt;90 18 TBAFanh (1.3 equiv) 30 min &gt;95 19 TBAFanh (1.3 equiv) 30 min &gt;95 20 TBAFanh (1.3 equiv) 10 min &gt;95 21 TBAFanh (1.3 equiv) 24 h &gt;95 The scope of the room-temperature reactivity of TBAFanh with chloropyridines in DMSO is apparent from inspection of Table 1. If the pyridine ring has no electron-withdrawing groups, the nucleophilic substitution of chloride is sluggish for the ortho position and does not occur at all with m-chloropyridine. Smooth nucleophilic substitution occurs if mildly activating groups are present. A comparison of the mono- and dichloropyridine examples shows that a second electronegative substituent accelerates substitution: fluorination of 2-chloropyridine requires 14 days, whereas 2,6-dichloropyridine is exhaustively fluorinated in 90 minutes under identical conditions. In comparison, typical Halex fluorinations of 2,6-dichloropyridine require heating at 150 °C for ten hours.20–23 Chloropyridine substrates bearing more strongly electron-withdrawing (trifluoromethyl or carbonyl) substituents are also fluorinated rapidly, as are several other heterocyclic derivatives. It is noteworthy that N-benzyl-6-chloropurine is fluorinated quantitatively within 30 minutes. However, 6-chloropurine is deprotonated by TBAFanh if the amine is left unprotected, thus generating an equivalent of bifluoride ion. Fluorination of the 6-chloropurine anion requires excess TBAFanh (4 equiv) and an extended rea</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W80517714</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Gasser (2013)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Career Self-Appraisals and Educational Aspirations of Diverse First-Year College Students.</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>This study examined the career, social, and academic self-appraisals and educational aspirations of first-year college students of diverse racial/ethnic backgrounds. Participants included 72 first-year students of Black, Asian, and White ethnicities. Career self-appraisals were significantly different for Black and Asian students when compared to White students, and subsequent analysis revealed that White students had higher career self-appraisals. Also, educational aspirations were significantly predicted by academic self-appraisals. Practice implications are explored. Keywords: first-year college students, academic self-appraisal, educational aspirations ********** Today, workers in the United States need to be competitive on the global job market, which requires being able to obtain the necessary training and education sought by employers (Hug, hey &amp; Hughey, 1999). The college preparation of students can be vital in securing a job and developing one's career post-graduation. Hence, educators and researchers have taken interest in the success of first-year college students in order to help these students transition from high school to college, and from college to the world of work. Factors associated with first-year college students' success include membership in learning communities and variables such as gender and ethnicity (Zheng, Saunders, Shelley, &amp; Whalen, 2002). Since it has been shown that ethnicity and other cultural factors can influence success and introduce additional issues and barriers, the career development of first-year college students of different racial/ethnic backgrounds is particularly salient (Alipuria, 2008). The psychological distress of these diverse first-year college students can be mitigated by positive parental/familial attachment (Kenny &amp; Perez, 1996), and research with Black and Latino men in their first year of college has indicated that parental encouragement and other factors helped these men choose to pursue college degrees (Contreras-Godfrey, 2009). Additionally, it has been demonstrated that a career development course can help decrease the dysfunctional career thoughts of diverse first-year students (Osborn, Howard, &amp; Leierer, 2007). Of particular interest to the success of these students are the factors of self-efficacy and educational aspirations. Self-efficacy refers to one's belief in one's ability to perform certain tasks (Bandura, 1977), and different areas of self-efficacy relevant to college students have included academic or educational self-efficacy (one's belief in her ability to do tasks associated with academic study), social self-efficacy (belief in his ability to perform social tasks), and career self-efficacy (belief in her ability to do career-oriented tasks) (c.f., Chung &amp; Sedlacek, 1999). Educational aspirations are the level of education an individual is striving towards, and is usually measured by asking people about what degree they plan to achieve. For instance, if a student is currently working towards earning a bachelor's degree, but hopes to earn a master's degree one day, then that person's educational aspiration is a master's degree. In the next two sections, literature pertaining to academic, social, and career self-efficacy as well as educational aspirations for diverse students will be examined. Racial/ethnic diversity of first-year college students and academic, social, and career self-efficacy. Chung and Sedlacek (1999) investigated the academic, social, and career self-appraisals (efficacy) of first-year college students of different racial/ethnic backgrounds, and found that White students had higher academic and social self-appraisals than Asian and Black students. Other studies of academic self-efficacy have identified this construct as related to performance and adjustment (Chemers, Hu, &amp; Garcia, 2001), student's feelings of class belonging (Freeman, Anderman, &amp; Jensen, 2007), and college persistence (Kahn &amp; Nauta, 2001). …</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W62592376</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.14264/318981</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Blythe (2024)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>A retailing history of the Ipswich central business district (CBD) from the mid-1970s to 2003</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>This thesis is a retail history of the Ipswich CBD from the mid- 1970s to 2003. It argues that the Ipswich CBD developed its physical composition through a combination of its belated experience of the national retail innovations, their rapid application once adopted, and the mitigating influence of local business factors. This evolution is explained through a matrix of four interconnected themes : the change in the type of CBD retail businesses; the nature of specific businesses involved in the CBD transformation; the increase in civic participation in CBD retail decision making, and the combined effect of these three factors upon the physical composition of the CBD and its image as a retail destination. These four themes are elaborated through a historical narrative that examines the introduction of the corporate supermarket and shopping centre from the mid- 1970s, the impact of the destruction of Reids (formerly Cribb and Foote) Department Store in 1985, the revitalisation of CBD shopping with the completion of the Ipswich Mall in 1987 and Kern Corporation's Ipswich City Square shopping centre in 1988, the negative effects of the recession in the early 1990s and the subsequent competition from suburban shopping centres, and the more recent debate surrounding the proposed Riverlink development and the adoption of the River Heart vision to plan for future CBD retail development.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2074839063</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0165-7836(92)90029-s</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Ranta et al. (1992)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Fish catch and water quality in small lakes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>We examined the relationship between water quality and fish catch in 80 small Finnish lakes. Generally, fishing effort and gear may vary considerably among lakes; therefore, the detection of any relationship between water quality and fish catch may be hampered. To avoid this bias, fish in the present study were trapped with a standardised gill net (catch refers to the pooled biomass of trapped fish, catch per unit effort (CPUE). Water quality was assessed by measuring lake-specific values of pH, calcium, dissolved and total aluminium, conductivity, alkalinity and water colour. From these data, we extracted two principal components, together they retained 78% of the variation in the original data. Despite our efforts to minimise noise in the catch data, we could not find any predictive relationship between water quality and total biomass of fish. We conclude that in Finnish lakes it is difficult, if not impossible, to predict the lake-specific fish catch based on water quality. However, even with the present data there were differences in the total catch of fish originating from lakes with diverse values along the first principal component (a gradient composed of pH, calcium, conductivity and alkalinity). Lakes in the low end averaged a catch of 6.4 kg, while those at the high end averaged 9.2 kg. This was due to roach having increasing catches along the gradual transition from acid to neutral lakes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1971995030</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.pcad.2012.02.004</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Yusuf et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Disturbances in Calcium Metabolism and Cardiomyocyte Necrosis: The Role of Calcitropic Hormones</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>A synchronized dyshomeostasis of extra- and intracellular Ca2+, expressed as plasma ionized hypocalcemia and excessive intracellular Ca2+ accumulation, respectively, represents a common pathophysiologic scenario that accompanies several diverse disorders. These include low-renin and salt-sensitive hypertension, primary aldosteronism and hyperparathyroidism, congestive heart failure, acute and chronic hyperadrenergic stressor states, high dietary Na+, and low dietary Ca2+ with hypovitaminosis D. Homeostatic responses are invoked to restore normal extracellular [Ca2+]o, including increased plasma levels of parathyroid hormone and 1,25(OH)2D3. However, in cardiomyocytes these calcitropic hormones concurrently promote cytosolic free [Ca2+]i and mitochondrial [Ca2+]m overloading. The latter sets into motion organellar-based oxidative stress, in which the rate of reactive oxygen species generation overwhelms their detoxification by endogenous antioxidant defenses, including those related to intrinsically coupled increments in intracellular Zn2+. In turn, the opening potential of the mitochondrial permeability transition pore increases, allowing for osmotic swelling and ensuing organellar degeneration. Collectively, these pathophysiologic events represent the major components to a mitochondriocentric signal-transducer-effector pathway to cardiomyocyte necrosis. From necrotic cells, there follows a spillage of intracellular contents, including troponins, and a subsequent wound healing response with reparative fibrosis or scarring. Taken together, the loss of terminally differentiated cardiomyocytes from this postmitotic organ and the ensuing replacement fibrosis each contribute to the adverse structural remodeling of myocardium and progressive nature of heart failure. In conclusion, hormone-induced ionized hypocalcemia and intracellular Ca2+ overloading comprise a pathophysiologic cascade common to diverse disorders and that initiates a mitochondriocentric pathway to nonischemic cardiomyocyte necrosis.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2993247134</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Nugraha (2019)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>Abstrak_x000D_
 Penelitian ini bertujuan untuk mendeskripsikan pandangan guru terhadap pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar. Pandangan tersebut dapat berupa argumen maupun asumsi pribadi berdasarkan sudut pandang dari guru yang bersangkutan. Jenis penelitian ini adalah deskriptif kualitatif. Teknik pengumpulan data yang digunakan adalah observasi, pedoman wawancara, dokumentasi, dan catatan lapangan. Subjek dalam penelitian ini adalah para guru di SD Dwijendra Denpasar. Analisis data yang digunakan meliputi tahap reduksi data, penyajian data, dan verifikasi data. Hasil dari penelitian adalah (1) guru menyambut baik fenomena revolusi industri 4.0 yang memberikan dampak terhadap reorientasi pembelajaran di kelas; (2) konsep pembelajaran yang diharapkan terwujud adalah pembelajaran kolaboratif dengan mengoptimalkan fungsi ICT media, keterbukaan terhadap berbagai sumber pengetahuan, hingga meningkatkan level kognitif siswa; (3) terwujudnya pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar adalah untuk membentuk gaya belajar yang efektif serta membangun keterampilan abad 21 yakni 4C bagi diri peserta didik; dan 4) dibutuhkan dukungan dari seluruh elemen pemegang otoritas pendidikan utamanya dalam penyediaan fasilitas dan pendampingan/pelatihan kepada guru-guru._x000D_
@@ -2773,2390 +2285,2302 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4231374354</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/9789004399013_002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Carbonnier &amp; Gironde (2019)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The ilo @ 100: In Search of Renewed Relevance</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>As the International Labour Organization (ilo) celebrates its centenary, its founding precept remains as relevant as ever: the main breeding grounds for threats to peace are the injustices and unequal opportunities that result from ongoing economic transformation. The moral idea that forged the ilo still lies at the heart of the international efforts for peace and development driving the Agenda for Humanity, the Agenda for Sustainable Development and the consensus on the need for inclusive growth that will ‘leave no one behind’. This introductory chapter explains the rationale behind the 11th special issue of International Development Policy, which addresses questions around the ilo’s capacity for action and its effectiveness, the relevance of its programmes and ability to adapt to a world of work undergoing profound change. The volume of thirteen chapters highlights the tensions that constitute the ilo and its action, the changing and different environments in which the Organization operates, and the initiatives taken by the ilo to respond to these challenges. The need for adaptation is especially pronounced today in view of the acceleration of technological developments and radical changes in the organisation of employment and work, and the consequent impact on social protection systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2026539446</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Capranico et al. (1998)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2051661038</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00220620.2010.514042</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Potts et al. (2010)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Disciplinary cultures in an Australian college of advanced education</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Abstract Recently scholars have called for more detailed historical study of the teaching lives of academics across countries, systems and institutions. This article contributes to the research on the professoriate in its widest sense. The article focuses on the disciplinary perspectives and cultures of academic staff employed in one of Australia’s oldest colleges of advanced education during the period 1965–1982. It examines official beliefs, slogans, and truisms, which formed part of these perspectives. Disciplinary perspectives include the academics’ views of the subject, the important problems for the subject, and the criteria of utility of the subject. Australia’s Commonwealth Advisory Committee on Advanced Education saw colleges of advanced education compared to universities enrolling students with different interests, stressing part‐time studies, concentrating on applied courses rather than humanities, being closely attuned to the labour market and workforce needs and being principally teaching institutions. They were to be equal but different to universities, but came to be viewed as equal but cheaper. A crucial issue is the extent to which the disciplinary perspectives of college of advanced education academics matched those that the legislators envisaged. Keywords: disciplinary cultureshigher educationAustralia Notes 1Amy S. Metcalf, ‘The Changing Academic Profession in Canada: Exploring Themes of Relevance, Internationalisation and Management’, in The Changing Academic Profession in International Comparative and Quantitative Perspectives, ed. Shinichi Yamamato (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008), 57. 2William Bruneau, ‘Quite Flow the Dons: Towards an International History of the Professoriate’, in Historical Identities: The Professoriate in Canada, ed. Paul Stortz and Lisa Panayotidis (Toronto: University of Toronto Press, 2006), 40–6. 3Ibid., 34. 4Ibid. 5Ibid., 31–4. 6Ibid., 32. 7William Clark, Academic Charisma and the Origins of the Research University (Chicago: University of Chicago Press, 2006), 6. 8Bruneau, ‘Quite Flow the Dons’, 49. 9Logan Wilson, American Academics: Then and Now (New York: Oxford University Press, 1979), 136. 10James J. Forest, ‘Teaching and Learning in Higher Education’, in International Handbook of Higher Education, ed. James J. Forest and Philip G. Altbach (Dordrecht: Springer, 2007), 347. 11William Locke. ‘The Stratified Academic Profession in England: Still Stratified after All these Years?’, in Yamamato, Changing Academic Profession, 101. 12Wilson, American Academics, 8. 13Ibid., 8. 14Ibid. 15Anthony Potts, College Academics (Charlestown, New South Wales: William Michael Press, 1997). 16Frank Cusack, From Canvas to Campus (Melbourne: Hawthorn Press, 1973). 17Howard Becker, Blanche Geer, Everett Hughes, and Anselm Strauss, Boys in White: Student Culture in Medical School (Chicago: University of Chicago Press, 1961), 34. 18Richard Startup, The University Teacher and His World (London: Saxon House, 1979), 19–20. 19Geoffrey M. Esland, ‘Teaching and Learning as the Organization of Knowledge’, in Knowledge and Control, ed. Michael F. Young (London: Collier Macmillan, 1971), 85–6. 20Ibid. 21John G. Gaff and Ray C. Wilson, ‘Faculty Cultures and Interdisciplinary Studies’, Journal of Higher Education 43, no. 3 (1971): 186–201. 22Roger L. Geiger, To Advance Knowledge: The Growth of American Research Universities, 1900–1940 (New York: Oxford University Press, 1986), 24. 23Geiger, To Advance Knowledge, 24. 24Tony Becher, ‘The Significance of Disciplinary Differences’, Studies in Higher Education 19, no. 2 (1994): 151. 25Clark, Academic Charisma, 13. 26Peter Rushbrook, ‘Policy, Practice and the Construction of Paraprofessional or Middle‐level Vocational Education Curriculum in Victoria, Australia, 1957–1975’, History of Intellectual Culture 7, no. 1 (2007): 1. 27Tony Becher, ‘Disciplinary Discourse’, Studies in Higher Education 12, no. 3 (1987): 261. 28Ibid., 262. 29Tony Becher and Paul R. Trowler, Academic Tribes and Territories (Buckingham, UK: SRHE and Open University Press, 2001), 44–7. 30Ibid. 31Becher, ‘Significance of Disciplinary Differences’, 151. 32Ibid., 152. 33Ibid. 34Ibid., 153. 35Wilson, American Academics, 249. 36Ibid. 37Ibid. 38Shinichi Yamamato, ed., The Changing Academic Profession in International Comparative and Quantitative Perspectives (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008). 39James J. Forest and Philip G, Altbach, eds., International Handbook of Higher Education (Dordrecht: Springer, 2007). 40Jurgen Enders, ed., Academic Staff in Europe: Changing Contexts and Conditions (Westport, CT: Greenwood Press, 2001). 41Ernest L. Boyer, Philip G. Altbach, and Mary J. Whitelaw, eds., The Academic Profession: An International Perspective (Princeton, NJ: Carnegie Foundation for the Advancement of Teaching, 1994). 42William K. Cummings, ‘The Context for the Changing Academic Professio</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3160846398</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21007/etd.cghs.2021.0528</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Dickerson (2021)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Investigating the Role of ZNF384 Rearrangements in Acute Leukemia</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>"Chromosomal rearrangements involving ZNF384 are the defining lesion in 5% of pediatric and adult B-cell acute lymphoblastic leukemia and tumors are characterized by aberrant myeloid marker expression. Additionally, ZNF384 rearrangements are the defining lesion in nearly half of pediatric B/myeloid mixed phenotype acute leukemia. These fusions juxtapose full-length ZNF384 to the N terminal portion of a diverse range of partners, most often, transcription factors or epigenetic modifiers. It has been shown that ZNF384-rearranged tumors have a distinct gene expression profile that is consistent between disease groups and N terminal partners. Genomic analyses of patient tumors has shown that ZNF384 fusions arise in hematopoietic stem cells and that expression of the fusion, but not the concomitant genetic alterations, results in lineage aberrancy, however, the mechanistic role of ZNF384 rearrangements has not been formally studied. The goal of this project was to investigate the role of ZNF384 rearrangements, together with concomitant genetic alterations, in leukemogenesis, with an emphasis on characterizing the role of cell-of-origin and lineage of the resulting leukemias. Additionally, I aimed to explore the mechanism that leads to a distinct gene expression profile and immunophenotype. Using viral overexpression and newly developed genetically engineered mouse models I have shown the effect of ZNF384 fusion expression at multiple stages of hematopoietic development in mouse and human systems. These experiments revealed the hematopoietic skewing toward immature, myeloid differentiation caused by expression of ZNF384 fusions. While expression of ZNF384 fusion oncoproteins in either mouse or human hematopoietic progenitors resulted in hematopoietic expansion, lineage skewing, and for some fusion partners, self-renewal in vitro; co-expression with common concomitant lesions, such as NRAS G12D, was necessary in order to develop a fully penetrant mouse leukemia in vivo. In contrast, ZNF384 fusions alone drive B/myeloid leukemia when expressed in human hematopoietic stem and progenitor cells and transplanted into NSG-SGM3 mice, highlighting the benefits of using human models to investigate human oncogenes. Importantly, these experiments confirm that hematopoietic stem cells are the most sensitive to cellular transformation by ZNF384 fusions. Mechanistic studies integrating gene expression and chromatin occupancy data revealed that fusions bind canonical ZNF384 sites with greater intensity than wild type protein. A subset of regions with increased fusion binding also had increased H3K27Ac and were intronic or intergenic suggesting they are putative enhancer regions. These findings support that ZNF384 fusions occur in an early hematopoietic stem or progenitor cell which leads to skewed hematopoiesis and leukemic transformation in the presence of additional lesions, proliferative stress, or cytokine stimulation. This is likely caused by inappropriate extended activation of stem and progenitor enhancer regions along with deregulation of lineage-specific genes by altered binding of ZNF384 fusions. Together, these results demonstrate an intersection of cell of origin and expression of fusion oncoproteins as necessary prerequisites for generating lineage ambiguous leukemia."</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4398165523</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/physiol.2024.39.s1.1836</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Babb et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Averaging Tidal Flow-volume Loops: A tale of two methods</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Introduction: A standard practice in cardiopulmonary exercise testing (CPET) is calculating the average flow and volume data across multiple breaths. Currently, many laboratories find average flow-volume loops by taking equal increments of the tidal volume and averaging the respective increments of flow for each breath. However, it has been proposed that using equal increments of total time to find an average flow-volume loop could more accurately capture the shape of the loop, which could be critical to determining expiratory flow limitation (EFL) when placed within a maximal flow-volume loop. Purpose: To compare the use of time vs. volume bins on producing averaged flow-volume loops and evaluate whether the results could affect the interpretation of EFL. Methods: Time, volume, and flow data of consecutive breaths at rest and during exercise were obtained for four individuals: one younger healthy man, one older healthy woman, one older man with heart failure, and one child with obesity. The data were separated into individual breaths using zero flow points, then total time and tidal volume were calculated for each full breath. For the time bin method as proposed by M. Younes, equal intervals of time were calculated for both the inspiratory and expiratory phases of each breath. Linear interpolation between surrounding data points was performed to obtain volume and flow values at these intervals. Volume data were then normalized to the tidal volume of the breath by taking the value as a percentage of the total tidal volume. From here, the volume and flow data at the corresponding intervals for each breath were averaged to create the final average flow-volume loop. For the volume bin method, equal intervals of volume were determined based on the tidal volume. Linear interpolation was then used to calculate the respective flow values at these intervals. The volume and flow data at the corresponding intervals for each breath were then averaged to generate the average flow-volume loop data. Standard deviation at each averaged point was also calculated for both methods. Results: Minimal difference was visible between the time bin and volume bin methods at 20 intervals. As the number of intervals used increased, the difference became less apparent. At 250 intervals, the volume bin method depicted the average flow-volume loop as effectively as the time bin method. Addition of standard deviations gave a better view of the variability of flow at any volume. Conclusion: Despite the inherent incrementation associated with the use of time bins vs. volume bins the average flow-volume loops looked very similar. However, the addition of the standard deviations of flow and volume at each data point could yield different results for determining EFL. Also, the time bin method may yield more resolution at rapid transition points at the beginning of inspiration and expiration. Overall, the observed similarities between time bin and volume bin methods are likely due to increased computer capabilities and the ability to create more intervals (i.e., 20 vs. 250), making a constant unit of measurement less necessary. Funding: NIH R01 HL136643, NIH R01 AG070262, NIH P01 HL137630, King Charitable Foundation Trust, Susan Lay Atwell Annuity Trust for Pulmonary Research, Cain Foundation, and Texas Health Presbyterian Hospital Dallas. Dr. Daniel Wilhite was funded by an NIH Administrative Supplement to Promote Diversity in Health-Related Research (HL136643-01S1). This is the full abstract presented at the American Physiology Summit 2024 meeting and is only available in HTML format. There are no additional versions or additional content available for this abstract. Physiology was not involved in the peer review process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3136201836</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2021.03.18.435998</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Huang et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Transcriptional condensates formed by phase-separated ALOG family proteins control shoot meristem maturation for flowering</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Abstract Plants have evolved remarkable diversity in inflorescence architecture. At the center of this diversity lies a meristem maturation program featured by transition of stem cell populations from a vegetative state into a reproductive growth, determining when, where, and how many flowers are produced on inflorescences. Here we identified a new meristem maturation regulator TMF FAMILY MEMBER3 ( TFAM3 ) that encodes an ALOG family transcription factor. Loss of TFAM3 results in early flowering and simplified inflorescences with fewer flowers. Genetic analysis by creating high-order mutants of TFAM3 with three key regulators of tomato shoot meristem maturation, TERMINATING FLOWER ( TMF ), TMF FAMILY MEMBER1 ( TFAM1 ) and TMF FAMILY MEMBER2 ( TFAM2 ), suggested that they synergistically control flowering transition and inflorescence architecture. The four paralogous ALOG proteins share the prion-like properties and undergo liquid-liquid phase separation in vitro . Strikingly, TMF can recognize cognate TFAM proteins and selectively recruit them into phase separated condensates. Supporting this, they interact with themselves and each other to form biomolecular condensates in the nucleus. Their interaction induces formation of transcriptional condensates that directly repress expression of floral identity gene ANANTHA . Our study revealed a selective-recruitment phase separation mechanism for transcriptional condensation by which plants achieve optimal coordination of functional overlapped paralogs within a protein family to enable precise control of shoot meristem maturation for flowering and production of compound inflorescences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4393177906</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2403.14773</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Henschel et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>StreamingT2V: Consistent, Dynamic, and Extendable Long Video Generation
+  from Text</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Text-to-video diffusion models enable the generation of high-quality videos that follow text instructions, making it easy to create diverse and individual content. However, existing approaches mostly focus on high-quality short video generation (typically 16 or 24 frames), ending up with hard-cuts when naively extended to the case of long video synthesis. To overcome these limitations, we introduce StreamingT2V, an autoregressive approach for long video generation of 80, 240, 600, 1200 or more frames with smooth transitions. The key components are:(i) a short-term memory block called conditional attention module (CAM), which conditions the current generation on the features extracted from the previous chunk via an attentional mechanism, leading to consistent chunk transitions, (ii) a long-term memory block called appearance preservation module, which extracts high-level scene and object features from the first video chunk to prevent the model from forgetting the initial scene, and (iii) a randomized blending approach that enables to apply a video enhancer autoregressively for infinitely long videos without inconsistencies between chunks. Experiments show that StreamingT2V generates high motion amount. In contrast, all competing image-to-video methods are prone to video stagnation when applied naively in an autoregressive manner. Thus, we propose with StreamingT2V a high-quality seamless text-to-long video generator that outperforms competitors with consistency and motion. Our code will be available at: https://github.com/Picsart-AI-Research/StreamingT2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1582806985</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Hanna (2010)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Transforming Government and Building the Information Society: Challenges and Opportunities for the Developing World</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Information and communication technology (ICT) is central to reforming governance, innovating public services, and building inclusive information societies. Countries are learning to weave ICT into their strategies for transforming government as enterprises have learned to use ICT to innovate and transform their processes and competitive strategies. ICT-enabled transformation offers a new path to digital-era government that is responsive to the challenges of our time. It facilitates innovation, partnering, knowledge sharing, community organizing, local monitoring, accelerated learning, and participatory development. In Transforming Government and Building the Information Society, Nagy Hanna draws on multi-disciplinary research on ICT in the public sector, and on his rich experience of over 35 years at the World Bank and other aid agencies, to identify the key ingredients for the strategic integration of ICT into governance and poverty reduction strategies. The author showcases promising practices from around the world to outline the strategic options involved in using ICT to maximize developmental impact--transforming government institutions and public services, and empowering communities for inclusion and grassroots innovation. Despite the ICT promise, Hanna acknowledges that reforming governance and empowering poor communities are difficult long-term undertakings. Hanna moves beyond the imperatives and visions of e-transformation to strategic design and implementation options, and draws practical lessons for policymakers, reformers, innovators, community leaders, ICT specialists and development experts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3094258816</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.compedu.2020.104058</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Mädamürk et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Adolescent students’ digital engagement and achievement goal orientation profiles</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>The current study investigated how students' digital engagement (i.e., digital learning preference, wish for digital schoolwork, and schoolwork and sleep impairment related to Internet use) is related to their achievement goal orientation profiles from Grades 8 to 9. The sample included 1482 Finnish students (15–16 years old, 53% female) from 26 schools. Students' digital engagement and achievement goal orientations were assessed with self-reported questionnaires. Latent profile and latent transition analyses were used to investigate goal orientation profiles, and the Bolck-Croon-Hagenaars approach and logistic regression were used to explore differences between the profiles with respect to digital engagement. Four groups with different achievement goal orientation profiles were identified: mastery-oriented (focused on learning and doing well in school); success-oriented (driven to succeed in school and outperform others); indifferent (had all achievement goals at average level); and avoidance-oriented (sought to avoid schoolwork). Most students tended to remain in a similar group over time. The results indicated that students with either average (indifferent) or high achievement goals (success-oriented) might wish for more digitally mediated schoolwork. Mastery-oriented students tended to have significantly lower schoolwork and sleep impairment related to Internet use than other students. The findings supported previous studies but also provided new insights into relationships between goal orientation profiles and digital engagement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2067602415</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jth.12948</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Kreuziger et al. (2015)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Antithrombotic therapy for left ventricular assist devices in adults: a systematic review</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Left ventricular assist devices (LVADs) have dramatically increased the survival of adults with end-stage systolic heart failure. However, rates of bleeding and thromboembolism remain high.We completed a systematic review to evaluate outcomes of adults with LVADs treated with various anticoagulant and antiplatelet strategies.Databases were searched using the terms 'assist device', 'thrombosis', and 'anticoagulant' or 'platelet aggregation inhibitor' with appropriate synonyms, device names and manufacturers.Of 977 manuscripts, 24 articles met the inclusion criteria of adults with implanted LVADs where clinical outcomes were defined based on anticoagulant and/or antiplatelet regimen. Most studies reported treatment with unfractionated heparin post-operatively which was transitioned to a vitamin K antagonist (VKA). Goal INR varied between 1.5-3.5. Antiplatelet regimens ranged from no treatment to dual therapy. Definition of major bleeding differed between trials and incidence varied between 0% and 58%. The available evidence could not demonstrate a clear benefit of aspirin compared with VKA therapy alone [stroke RR 1.02 (95% CI 0.49-2.1)]. There was a suggestion that treatment with aspirin and dipyridamole decreased the risk of thromboembolism compared to aspirin [RR 0.50 (0.36-0.68)], but the comparison is limited by differences in demographics, devices, and INR goals among studies. Additionally, most studies did not blind investigators to outcomes thus contributing to an increased risk for bias. Clinical equipoise exists as to the most appropriate antithrombotic therapy in LVAD patients. Randomization between regimens within a prospective trial is needed to define the treatment regimen that minimizes both bleeding and thrombotic complications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4390597899</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Abbasi et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4281678283</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15622/ia.21.3.6</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Perevaryukha (2022)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Dynamic Model of Population Invasion with Depression Effect</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>The article is devoted to the study of one of the current scenarios for thedevelopment of population processes in contemporary ecological systems. Biological invasionshave become extremely common due to climate change, economic activities to improve ecosystemproductivity, and random events. The invader does not always smoothly occupy an ecological niche,as in logistic models. The dynamics of the situations we have chosen after the introduction of analien species is extremely diverse. In some cases, the phenomenon of an outbreak of abundanceis quickly realized up to the beginning of the destruction by the species of its new range. Thedevelopment of the situation in the process of invasion depends on the superposition of bioticand abiotic factors. The dynamics of the abundance of the invader is affected by the favorableconditions and, to a greater extent, by the possibility of realizing the reproductive potential andthe resistance of the biotic environment. Counteraction develops with a delay and manifests itselfwhen the invader reaches a significant number. In the work, a continuous model of the invasiveprocess with a sharp transition to a state of population depression has been developed. The stageof the population crisis ends with the transition to equilibrium, since the resistance in the modelscenario depends adaptively and in a threshold way on the number. The problem of computationaldescription of a scenario with active but delayed environmental resistance is practically relevantfor situations of developing measures of artificial resistance to an undesirable invader. In thesolution of our model, there is a mode of prolonged stable fluctuations after exiting the depressionstage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2154607830</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/mcb.02076-07</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Steger et al. (2008)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DOT1L/KMT4 Recruitment and H3K79 Methylation Are Ubiquitously Coupled with Gene Transcription in Mammalian Cells</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The histone H3 lysine 79 methyltransferase DOT1L/KMT4 can promote an oncogenic pattern of gene expression through binding with several MLL fusion partners found in acute leukemia. However, the normal function of DOT1L in mammalian gene regulation is poorly understood. Here we report that DOT1L recruitment is ubiquitously coupled with active transcription in diverse mammalian cell types. DOT1L preferentially occupies the proximal transcribed region of active genes, correlating with enrichment of H3K79 di- and trimethylation. Furthermore, Dot1l mutant fibroblasts lacked H3K79 di- and trimethylation at all sites examined, indicating that DOT1L is the sole enzyme responsible for these marks. Importantly, we identified chromatin immunoprecipitation (ChIP) assay conditions necessary for reliable H3K79 methylation detection. ChIP-chip tiling arrays revealed that levels of all degrees of genic H3K79 methylation correlate with mRNA abundance and dynamically respond to changes in gene activity. Conversion of H3K79 monomethylation into di- and trimethylation correlated with the transition from low- to high-level gene transcription. We also observed enrichment of H3K79 monomethylation at intergenic regions occupied by DNA-binding transcriptional activators. Our findings highlight several similarities between the patterning of H3K4 methylation and that of H3K79 methylation in mammalian chromatin, suggesting a widespread mechanism for parallel or sequential recruitment of DOT1L and MLL to genes in their normal "on" state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1279469248</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1057/9781137283412_15</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Morley (2012)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Experiencing Higher Education in Ghana and Tanzania: The Symbolic Power of Being a Student</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>This chapter is based on findings from the project ‘Widening Participation in Higher Education in Ghana and Tanzania: Developing an Equity Score-card’ (WPHEGT).1 An original feature of the study was the inclusion of 200 interviews with students from sub-Saharan Africa (SSA). They narrated experiences, aspirations and disappointments. Positive and enabling student accounts were evident in both countries and in all case study universities. These included supportive and accessible lecturers, enjoyable and well-taught programmes of study, good peer relations, independent learning and the development of social capital in the form of networks, self-confidence and self-efficacy. However, negative experiences were also widely reported including lack of, or poor quality facilities and resources, large classes, poor pedagogy, lecturers’ lack of professionalism, problems with assessment, favouritism, corruption and lack of transparency in admissions procedures and student loan entitlements. In spite of many unsatisfactory experiences, the motivation for social mobility, status and employability drove students to enter, stay in and value higher education (HE). Social differentiation and the desire to ‘become a somebody’ meant that the symbolic power of being a student overrode many of the frustrations. This raises questions about whether a central impact of HE is dispositional and relates to identity transformation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2607942662</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Handorf (2017)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Connecting movement and emotion for childbirth preparation : an exploratory study</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>BACKGROUND
+During pregnancy, many women desire to develop self-confidence in their physical abilities and emotional strength to give birth. In order to achieve this, women often attend childbirth education classes. A number of studies show that traditional classes neither support women’s physical and emotional well-being, nor increase women’s self-confidence or affect women’s experience of childbirth. This led to a perceived need to develop a creative approach to exploring women’s physical and emotional transformation in preparation for childbirth. 
+PURPOSE
+To investigate women’s perceptions of an innovative childbirth preparation programme that integrates the therapeutic strategies of movement therapy with midwifery. The study further explored women’s experience of how connecting motion (movement) and emotions contributes to women’s self-awareness, and might contribute to the woman’s birth experience.
+METHODS
+An exploratory, pre-post, qualitative study investigated five women’s participation in a specially designed, two-day, pre-birth workshop. Focus groups, before and after the workshop and one-to-one, semi-structured interviews were conducted six to eight weeks after birth. The interviews were digitally recorded and transcribed. Researcher memos and field notes recorded non-verbal communication and the language of movement in combination with the interview data. Data were analysed thematically.
+FINDINGS
+Three themes were identified where the therapeutic approach of movement therapy offered women ‘strategies to find their own tools’, supported ‘women’s dialogue’ and ‘connected the whole woman with her baby’. This innovative approach increased women’s self-awareness and created positive expectations of giving birth. Paying attention to themselves and learning through experiencing may raise women’s confidence in their ability to actively give birth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3125019340</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Laporte et al. (2004)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Antecedents familiaux et acces aux etudes postsecondaires : que s'est-il passe pendant les annees 1990?</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Dans cet article, on fait etat de nouvelles donnees sur les relations entre l'acces aux etudes postsecondaires et les antecedents familiaux. A cette fin, on utilise les donnees tirees de l'Enquete aupres des sortants (EAS) et celles de l'Enquete aupres des jeunes en transition (EJET) pour analyser les taux de participation en 1991 et en 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4210667155</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5325/hungarianstud.48.1.0130</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Vári (2021)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The Names Heard Long Ago: How the Golden Age of Hungarian Soccer Shaped the Modern Game</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>A well-known British sports journalist and author of several books on the history of British, Catalan, and Latin American soccer, Jonathan Wilson sets out in this book to discuss the mid-twentieth-century history of Hungarian soccer. Wilson’s thesis is straightforward. He argues that the long streak of victories, culminating in the Wembley defeat of the English national team and the silver medal at the 1954 World Championship in Switzerland, that the legendary Aranycsapat [Golden squad] achieved between 1950–54 represented not the isolated peak of Hungarians’ achievements in football (soccer) but the glorious coda to a thirty-year period when Hungarian players and coaches reinvented what they had learned from the English, to reexport their know-how to the rest of the world. An important corollary of this argument is that the Hungarian football diaspora—spreading out from Hungary during the 1920s to play for or coach various major soccer teams during the subsequent decades in Italy, Spain, Portugal, France, Germany, the Netherlands, Sweden, Poland, Czechoslovakia, Romania, Yugoslavia, Argentina, Brazil, Uruguay, Chile, Colombia, and Mexico—planted the seeds of a new kind of football system everywhere it went, which reshaped and turned especially Italian, Brazilian, and Argentinian football into what they became after the 1950s.The so-called Danubian system that Hungarians exported was based on a creative reimagining of the English football that was transplanted to Hungary in the late 1880s. The new sport soon took root in Budapest and a few other cities. By 1901 there was a national league, and both the emerging Budapest football clubs and the Hungarian national side started winning games against their neighboring Austrian counterparts. According to Wilson, the Budapest grunds (the small empty plots between the buildings of bourgeoning Budapest) that youngsters used to play street football with a homemade ball were the settings where many talents of pre-war Hungarian football emerged. Once picked up by teams like Budapesti Torna Club [Budapest Athletic Club] (BTC), Ferencvárosi Torna Club [Ferencváros Athletic Club] (FTC), and Magyar Testgyakorlók Köre [Circle of Hungarian Fitness Activists] (MTK), they benefitted in later years from the coaching skills of English football professionals working in Budapest like John Tait Robertson and Jimmy Hogan, who prior to and during World War I taught the intricacies of the game to many of them. It was, however, only after the war, during the early 1920s that a specifically Hungarian style of playing emerged within the confines of clubs like Ferencváros and, especially, MTK. The latter was a veritable laboratory whose football products would soon be exported to the world at large.Wilson also muses at the beginning of the book on the role that the Budapest coffeehouses had in the emergence of the Danubian football system. He describes how Hungarian football aficionados sat around tables in these places, studiously discussing games and jotting down ideas about football strategy and teams’ setups, which was a practice that distinguished them from British football fans, who celebrated or mourned in pubs next to pints of beer. This more intellectual mindset about the game, which emerged in Budapest, propelled the careers of many former Hungarian players who chose later to become football coaches.Working with both secondary and primary sources in multiple languages, Wilson was able to assemble a very rich source base to prove his points. He elucidates in telling detail, for instance, the long-term formative influence that József (Csibi) Braun, Imre Schlosser, Kálmán Konrád, Dori Kürschner, István Tóth (Potya), Géza Kertész (Lajhár), Márton Bukovi, Béla Guttmann, Ernő Erbstein, Imre Hirschl, György Orth, Alfréd Schaffer (Spéci), and Árpád Weisz (all former MTK, Ferencváros, or Újpest FC players) had on teams that they coached in Germany, Italy, Brazil, and Argentina. For instance, after playing for MTK between 1904–13, Dori Kürschner took over the club’s coaching position in 1919 from Jimmy Hogan. This allowed him, after the team’s first-place finish in the Hungarian league and a spectacular 7–1 away win over Bayern Munich, to advance to a well-paid job as coach at Stuttgarter Kickers. After winning the Württemberg championship with the latter, he moved on to coach FC Nürnberg and then Bayern Munich. In 1923 he moved to Switzerland, where he coached FC Nordstern Basel and was employed as Switzerland’s national coach for the 1924 Olympics in Paris. After a few stints with teams back in Germany, Kürschner became the long-term coach of Grasshoppers Zurich. During the mid-1930s, however, he moved to Brazil, where, according to Wilson, as coach of Flamengo and Botafogo he revolutionized Brazilian football by acquainting it with the W-M system, consisting of a 3–2–2–3 team set-up, with “four midfielders who form a square” (155). His compatriot, Imre Hirschl, who was at the time acti</t>
+        </is>
+      </c>
+    </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274534862</t>
+          <t>https://openalex.org/W4254523410</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/resp.12749</t>
+          <t>https://doi.org/10.5342/michhistrevi.42.1.0100</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Jo et al. (2016)</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
+          <t>Taft (2016)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
+          <t>100 The Michigan Historical Review Andrew R. Highsmith. Demolition Means Progress: Flint, Michigan, and the Fate of the American Metropolis. Chicago: University of Chicago Press, 2015. Pp. 376. Illustrations. Index. Notes. Cloth: $45.00. The title of Andrew Highsmith’s book is a quote from a placard outside the razed site of the General Motors Buick City plant in Flint, Michigan: Demolition Means Progress (p. 266). The subject of the book, however, reaches far beyond the Vehicle City’s post-1970s deindustrialization. Highsmith traces the long history of metropolitan Flint and its “ceaseless quest for revitalization” to argue that “progress” has been associated with large-scale clearance and reinvention from the early twentieth century to today (p. 20). But even the best-intentioned urban renewal policies, his research makes clear, instead hardened social and economic inequalities as Flint became a poster-city for Rust Belt decay. While individual threads of Highsmith’s interlocking narratives of suburbanization, racial segregation, and deindustrialization seem at first blush familiar to urban historians, this work is notable for its comprehensive, metropolitan approach and for adding a small-city case study to the literature on urban renewal and decline. With chronological chapters focusing on Flint’s housing and education policies, workplace discrimination, industrial decentralization, and slum clearance, Highsmith provides a fine-grained analysis of how economic and racial inequality in American cities is spatialized and planned from the federal to municipal levels. He adds the useful concept of “administrative segregation” to the customary de jure/de facto binary as he details the processes by which officials drew school district boundaries around racial enclaves, suburbs incorporated to protect property values, and developers maximized government subsidies by building substandard housing. Highsmith convincingly demonstrates that it was the implementation of policies as much as the letter of the law or individual choice that led to widespread urban inequality. In foregrounding the uneven effects of pro-growth renewal, Highsmith rejects the simplified declension narrative that corporate abandonment and white flight drove urban decline. Instead, he pivots the book around General Motors’ failed push for a “New Flint” metropolitan government in the late 1950s, insisting that the corporation maintained ties to Flint even after relocating its plants to the urban fringes. Rather than reify the image of the homogenous and upwardly mobile postwar suburb, Highsmith reveals little-discussed policies of “suburban redlining” in working-class white neighborhoods and federally backed Book Reviews 101 “Section 235” predatory lending practices that preceded the most recent housing crisis by four decades. With his long view, Highsmith shows that citizen demands for civil rights, such as open housing and school desegregation, have been time and again overshadowed by economic development agendas. Despite his concluding optimism for an alternative future, the cumulative weight of Highsmith’s research leaves a deep and durable imprint of spatially embedded inequality on Flint’s poor and working-class African Americans. As such, Demolition Means Progress offers a case study that puts national metropolitan trends in the twentieth century into sharp relief. Readers with an interest in the racial and economic histories and transformations of Flint and the industrial North will find it of particular value. Chloe Taft Yale University Holly M. Karibo. Sin City North: Sex, Drugs, and Citizenship in the DetroitWindsor Borderland. Chapel Hill: University of North Carolina Press, 2015. Pp. 226. Bibliography. Illustrations. Index. Notes. Paper: $29.95. Holly Karibo’s Sin City North explores the role of cross-border prostitution and heroin-trafficking in shaping the communities and local economies of the postwar Detroit-Windsor borderland. She posits that the rise of crime and vice exposed the “contradictory nature of the border” as it made both travel and trade easier while also attempting to filter out illegal or unwanted products and people (p. 3). Karibo argues the study of vice provides insight into the ways in which men and women defined citizenship and determined belonging within the social space of the national border (p. 156). The relative economic success and rising interest in leisure tourism following the war aided the boom in illicit economies, and Karibo reads participation in vice economy as an alternative and viable path to a consumer-based identity in the era of postwar...</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026539446</t>
+          <t>https://openalex.org/W4393074269</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
+          <t>https://doi.org/10.1055/sos-sd-241-00025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Capranico et al. (1998)</t>
+          <t>Migliorini et al. (2024)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
+          <t>2.2 Metal-Promoted DEL-Compatible C—C Bond Forming Reactions</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
+          <t>Abstract DNA-encoded library (DEL) technology relies on the availability of robust and DNA-compatible chemical transformations. Metal-promoted C—C bond forming reactions are widely applied for the synthesis of fine chemicals such as pharmaceuticals. However, their application in DEL technology represents a challenge due to the use of metal catalysts, high temperatures, and organic solvents. In this chapter, we report tailored conditions for the on-DNA application of the Suzuki, Sonogashira, Heck, and Giese reactions. The conditions presented in this chapter have been systematically explored across different DEL designs and structurally-diverse building blocks. By providing a comprehensive insight into the practical implementation of these metal-promoted C—C bond cross-coupling reactions, this review aims at expanding and promoting the application of these transformations in DEL construction.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283581836</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/02670836.2022.2088163</t>
+          <t>https://openalex.org/W3118681739</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cho et al. (2022)</t>
+          <t>Gandhi et al. (2020)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Critical assessment 42: acicular ferrite formation and its influence on weld metal and heat-affected zone properties of steels</t>
+          <t>Smart Materials Selection Using COPRAS in Lingual Neutrosophic Environment</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Toughness and fatigue resistance of welds and associated heat-affected zones (HAZs) in high-strength steels are important design parameters in structural applications. Acicular ferrite microstructures, which can be achieved through control of weld process and nucleant (inclusions or precipitates) characteristics, are often regarded as key to enhancing weld metal and HAZ properties of welded steels. This paper addresses the transformation characteristics of acicular ferrite related to alloying and weld processing as well as the specific role of acicular ferrite in weld performance, along with future research needs to identify weld processes suitable to specific alloying strategies.</t>
+          <t>The deployment of smart technologies in the industries reflects the paradigm transition towardsIndustry 4.0. As the utility of smart materials caters the diverse needs of the users, the manufacturing sectorsare on the verge of creating a smart world with the applications of smart materials possessing versatileattributes. The production of various kinds of smart materials is in the progressive phase that puts theindustrial sectors amidst the challenge of optimal selection of desirable materials. This paper proposes adecision-making approach of smart material selection out of ten alternatives subjected to four criteria usingthe multi-criteria decision-making method of COPRAS in the linguistic neutrosophic environment. Thisdecision-making method will certainly assist the decision-makers to handle uncertainty as the criterionsatisfaction of the alternatives are represented as linguistic variables which are later quantified using triangularneutrosophic numbers.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2006443271</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
+          <t>https://openalex.org/W1485157749</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Polly &amp; Nicole (2011)</t>
+          <t>Steinem (1994)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Understanding the Transsexual Patient</t>
+          <t>Moving Beyond Words</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
+          <t>This is a collection of some of Gloria Steinem's best-known work combined with new material. It looks at where society is after decades of feminism, and where it might be going. Included are essays on economic empowerment, diversity, the advance of women in politics and ways toward revolution.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2939080150</t>
+          <t>https://openalex.org/W3029789544</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11422-018-9891-z</t>
+          <t>https://doi.org/10.1111/dgd.12685</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dewsbury (2019)</t>
+          <t>Suzuki &amp; Koshikawa (2020)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Deep teaching in a college STEM classroom</t>
+          <t>Enhancer functions underlying morphological diversity</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The retention of underrepresented students remains a significant challenge in the STEM (Science, Technology, Engineering and Math) disciplines. A broad range of studies across several disciplines have shown that conventional approaches to STEM instruction may have been unintentionally exclusive to students whose ethnicities are not traditionally represented in the STEM fields. This ‘exclusive’ classroom atmosphere has emerged as a major reason for the attrition of underrepresented minority students from STEM majors. In this manuscript, I describe a conceptual model called Deep Teaching, describing how pedagogical transformation incorporating practices that are more inclusive can occur. The model marks an evolution from other frameworks advancing inclusive instruction in higher education by advocating for the primacy of Freirean philosophy when thinking about self and student. Using specific examples, I discuss how a sequential approach to understanding ourselves and empathizing with students puts the instructor in a better position to create enduring, positive classroom climates. I also describe considerations necessary for various contexts, and suggestions for continued commitment to inclusive pedagogy in the long-term.</t>
+          <t>Recent progress in the technique of next generation sequencing has been remarkable in uncovering species-specific developmental mechanisms even in non-model animals. In this special issue, we focus on how morphological diversity or species-specific unique morphology was evolutionarily brought about by acquisition of novel enhancer functions, which has been elucidated using analyses of developmental biology and whole genome sequences of various organisms mostly determined by next generation sequencing. In the past, there was debate about what regions in the genome were responsible for morphological differences among species. Many cases were reported of such genetic causes in coding regions of genes; however, this bias was partly due to the technical difficulty in analyzing noncoding regions. Variations in nucleotide sequences of coding regions and gene copy numbers were well documented because it is easy to establish their association with functions. In contrast, it is very difficult to infer the effects of mutations in gene control regions only from the sequence information, and therefore such effects have been paid less attention or undervalued for a long time. From the early 2000s, the idea that the evolution of cis-regulatory sequences in non-coding DNA regions, especially enhancers that upregulate gene expression, contributed to morphological diversification, has become popular (Carroll, 2005; Stern &amp; Orgogozo, 2008). Although alterations of coding regions of developmental genes often disrupt their essential functions, those of enhancers result in addition or deletion of activities with preserving their essential functions. It is also argued that, when considering the structure of the gene regulatory network, evolution of binding sequences of transcription factors on the DNA is much easier than that of DNA binding properties of transcription factors. A growing body of experimental EvoDevo research has now been showing that various types of morphological diversity are explained by differences in the regulatory regions of genes of interest. We asked researchers to write review articles covering a wide range of animals, from invertebrates to vertebrates. The following 10 researchers or groups contributed to this special issue, in which most review articles were based on their latest and remarkable accomplishments. Kuroiwa (2020) gave an overview of the emerging themes as a result of recent technological innovations in analyzing the molecular basis of morphological diversity during evolution. Koshikawa (2020) reviewed recent studies on the evolution of pigmentation patterns in the Drosophila wing as an advantageous model for studying the evolutionary mechanism and parallel evolution of traits. Yasuoka (2020) used functional analysis of the cis-regulatory module (CRM) of amphioxus as an example to explain how conservation and variability of CRM functions contributed to the evolution of gene regulatory networks in chordates. Liu and Satou (2020) clarified and discussed how the genetic circuit is evolutionarily conserved between ascidians and vertebrates and how genetic programs regulate the regionalization of ectoderm-derived tissues in ascidian embryogenesis. Enny, Flaherty, Mori, Turner, and Nakamura (2020) described the evolutionary history of fins of fish, the mechanism of fin development, and the basis of evolution of paired fins and also described possible developmental constraints on fin evolution. Onimaru (2020) discussed the evolutionary origin of conserved non-coding elements (CNEs) that function as tissue-specific developmental enhancers, particularly focusing on the water-to-land transition during vertebrate evolution. Amano (2020) described how versatile expression patterns of the Shh gene are controlled by multiple cis-regulatory elements and how vertebrate lineages acquired distinct morphological features. Suzuki and Ochi (2020) summarized their recent study of injury/regeneration-related enhancers, named "regeneration signal-response enhancers (RSREs)," and discussed the mechanism of their activation. Sumiyama and Tanave (2020) introduced the latest findings on the regulation of three Dlx "bigene" clusters from the point of view of cis-regulatory motifs, TAD (Topologically Associating Domain) boundaries, CTCF loops, and distal enhancer landscapes. Taking the regulatory mechanism of Hox gene expression as an example, Saito and Suzuki (2020) discussed how the diversity of skeletal patterns among vertebrate species was brought about. Thus, in this special issue, we introduce and share the latest findings on how the molecular mechanisms underlying morphological diversity of organisms has been elucidated through the studies of gene regulatory mechanisms. This special issue was based on the symposium “Enhancer function explaining morphological diversity” held on May 17th, 2019, in the 52nd Annual Meeting of the Japanese Society of Developmental Biologists, in Osaka, Japan.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3136201836</t>
+          <t>https://openalex.org/W3177430413</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2021.03.18.435998</t>
+          <t>https://doi.org/10.2139/ssrn.3864189</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Huang et al. (2021)</t>
+          <t>Sautter &amp; Daling (2021)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Transcriptional condensates formed by phase-separated ALOG family proteins control shoot meristem maturation for flowering</t>
+          <t>Mixed Reality Supported Learning for Industrial on-the-job Training</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Abstract Plants have evolved remarkable diversity in inflorescence architecture. At the center of this diversity lies a meristem maturation program featured by transition of stem cell populations from a vegetative state into a reproductive growth, determining when, where, and how many flowers are produced on inflorescences. Here we identified a new meristem maturation regulator TMF FAMILY MEMBER3 ( TFAM3 ) that encodes an ALOG family transcription factor. Loss of TFAM3 results in early flowering and simplified inflorescences with fewer flowers. Genetic analysis by creating high-order mutants of TFAM3 with three key regulators of tomato shoot meristem maturation, TERMINATING FLOWER ( TMF ), TMF FAMILY MEMBER1 ( TFAM1 ) and TMF FAMILY MEMBER2 ( TFAM2 ), suggested that they synergistically control flowering transition and inflorescence architecture. The four paralogous ALOG proteins share the prion-like properties and undergo liquid-liquid phase separation in vitro . Strikingly, TMF can recognize cognate TFAM proteins and selectively recruit them into phase separated condensates. Supporting this, they interact with themselves and each other to form biomolecular condensates in the nucleus. Their interaction induces formation of transcriptional condensates that directly repress expression of floral identity gene ANANTHA . Our study revealed a selective-recruitment phase separation mechanism for transcriptional condensation by which plants achieve optimal coordination of functional overlapped paralogs within a protein family to enable precise control of shoot meristem maturation for flowering and production of compound inflorescences.</t>
+          <t>The digital transformation of industry – the so-called fourth industrial revolution – leads to changing work systems in industry and to new demands on industry workers. New job profiles emerge, existing profiles are changing, and new skills are needed. Thus, continuous and personalized learning on-the-job – directly integrated into the relevant working context – is imperative for 21st century industry workers. New technologies such as Virtual Reality (VR) and Augmented Reality (AR) could be an option for supporting hands-on learning for practical industrial training, directly on the real or virtual machine or factory. These Mixed Reality (MR) technologies are expected to meet the demands for situated and contextual learning according to respective constructivist learning theories. This paper presents two use cases for MR supported learning for industrial on-the-job training in a German manufacturing company focusing on two main research questions: (1) To what extent are MR technologies suitable for implementing key didactic aspects of situated and contextual learning (situational context, active participation, self-control, collective and experiential learning)? (2) What are key characteristics (e.g. type of task, user characteristics, interaction, information and technology-related aspects) for selecting the appropriate technical solution (AR vs. VR) for industrial training? The comparative use case analysis provides some valuable indications for overcoming the limitations of pure physical learning factories and for leveraging their potential for industrial on-the-job training through the targeted use of MR technologies.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976620726</t>
+          <t>https://openalex.org/W4395500978</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
+          <t>https://doi.org/10.15468/dl.6jxfsc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Zou &amp; Zhang (2011)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A measurement model for collaboration between suppliers and manufacturers</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
+          <t>A dataset containing 7829232 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Bixa orellana L., Persea americana Mill., Cynara scolymus L., Capparis spinosa L., Eugenia stipitata Mc Vaugh, Passiflora quadrangularis L., Musa L., Borojoa patinoi Cuatrec., Theobroma cacao L., Coffea arabica L., Coffea canephora Pierre ex A.Froehner, Saccharum L., Prunus capuli Cav. ex Spreng., Elettaria cardamomum (L.) Maton, Prunus avium (L.) L., Annona cherimola Mill., Prunus domestica L., Prunus salicina Lindl., Cocos nucifera L., Prunus persica (L.) Stokes, Asparagus officinalis L., Fragaria vesca L., Passiflora ligularis A.Juss., Inga edulis Mart., Annona muricata L., Psidium guajava L., Ficus carica L., Zingiber officinale Roscoe, Actinidia chinensis Planch., Citrus L., Citrus ×limon (L.) Burm.fil., Macadamia integrifolia Maiden &amp;amp; Betche, Pouteria sapota (Jacq.) H.E.Moore &amp;amp; Stearn, Citrus reticulata Blanco, Mangifera indica L., Malus domestica (Suckow) Borkh., Passiflora edulis Sims, Anacardium occidentale L., Cydonia oblonga Mill., Citrus sinensis (Mill.) Pers., 1806, Solanum quitoense Lam., Eriobotrya japonica (Thunb.) Lindl., Elaeis guineensis Jacq., Bactris gasipaes Kunth, Carica papaya L., Solanum muricatum Aiton, Pyrus communis L., Piper nigrum L., Ananas comosus (L.) Merr., Hylocereus undatus (Haw.) Britton &amp;amp; Rose, Tamarindus indica L., Passiflora mollissima (Kunth) Bailey, Camellia sinensis (L.) Kuntze, Cyphomandra betacea (Cav.) Sendtn., Citrus ×paradisi Macfad., Opuntia ficus-indica (L.) Mill., Vitis vinifera L., Physalis peruviana L., Mammea americana L., Capsicum frutescens L., Allium sativum L., Sesamum indicum L., Amaranthus spinosus L., Pimpinella anisum L., Apium graveolens L., Oryza sativa L., Pisum sativum L., Avena sativa L., Solanum melongena L., Brassica oleracea L., Ipomoea batatas (L.) Lam., Hordeum vulgare L., Allium fistulosum L., Allium cepa L., Secale cereale L., Lupinus mutabilis Sweet, Coriandrum sativum L., Spinacia oleracea L., Phaseolus vulgaris L., Cicer arietinum L., Helianthus annuus L., Vicia faba L., Ricinus communis L., Hibiscus sabdariffa L., Smallanthus Mack., Lactuca sativa L., Lens culinaris Medik., Linum usitatissimum L., Luffa acutangula (L.) Roxb., Zea mays L., Colocasia esculenta (L.) Schott, Arachis hypogaea L., Tropaeolum tuberosum Ruiz &amp;amp; Pav., Ullucus tuberosus Caldas, Cucumis melo L., Oxalis tuberosa Molina, Solanum tuberosum L., Brassica rapa L., Cucumis sativus L., Petroselinum crispum (Mill.) Fuss, Capsicum annuum L., Chenopodium quinoa Willd., Raphanus sativus L., Beta vulgaris L., Citrullus lanatus (Thunb.) Matsum. &amp;amp; Nakai, Sorghum bicolor (L.) Moench, Glycine max (L.) Merr., Cucurbita pepo L., Lycopersicon esculentum Mill., Physalis philadelphica Lam., Triticum aestivum L., Phaseolus vulgaris L., Manihot esculenta Crantz, Cucurbita ficifolia Bouché, Daucus carota L., Arracacia xanthorrhiza Bancr., Medicago sativa L., Brachiaria brizantha (A.Rich.) Stapf, Paspalum dilatatum Poir., Axonopus scoparius (Flüggé) Kuhlm., Eriochloa punctata (L.) Ham., Pennisetum clandestinum Hochst. ex Chiov., Pueraria phaseoloides (Roxb.) Benth., Brachiaria brizantha (A.Rich.) Stapf, Pennisetum purpureum Schumach., Axonopus compressus (Sw.) P.Beauv., Dactylis glomerata L., Pennisetum purpureum Schumach., Panicum maximum Nees, 1841, Setaria sphacelata (Schumach.) Stapf &amp;amp; C.E.Hubb. ex Moss, Lolium multiflorum Lam., Trifolium repens L., Trifolium pratense L., Vicia sativa L., Melinis minutiflora P.Beauv., Carica pentagona Heilborn, Pouteria caimito (Ruiz &amp;amp; Pav.) Radlk., Rubus glaucus Benth., Plukenetia volubilis L., Salvia hispanica L.)", "HasCoordinate is true", "OccurrenceStatus is Present" ] } The dataset includes 7829232 records from 4925 constituent datasets: 209 records from Herbarium Specimens of Museum of Nature and Human Activities, Hyogo Pref., Japan. 2 records from Ferme Éolienne de Saint Maurice - Données Brutes de Biodiversité Projet Eolien de Saint-Maurice-Etusson. 2 records from New Zealand Arthropod Collection (NZAC). 1 records from Schulhof Montessori Schule (Rotenburg / Wümme). 32 records from 19 - Inventaires de la flore et de la flore réalisés dans le cadre d'études environnementales - ECODIR - Inventaires de la flore et de la fonge réalisés dans le cadre d'études environnementales. 7 records from Plant species from the sacred and community forests of Mono departement. 6 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 17 records from Projet de parc photovoltaïque au sol à Moimay et Marast (70) - 2020 inventaire faune-flore à Moimay et Marast (70). 3 records from Plant specimens of Oiso Municipal Museum. 3 records from Artenvielfalt des "Grünen Klassenzimmers". 44 records from Dépôt des données brutes de suivis écologiques 2019 du pole multi-filières d'Entraigues sur la Sorgue (SUEZ) - Suivi écolog</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3092774362</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/09583157.2020.1830029</t>
+          <t>https://openalex.org/W1525710031</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Berrones-Morales et al. (2020)</t>
+          <t>Gwynne (2014)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Natural parasitism on&lt;i&gt;Anastrepha&lt;/i&gt;spp. (Diptera: Tephritidae) over Neotropical region boundaries in northeastern Mexico</t>
+          <t>From Innovation to Manufacturing</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Anastrepha is one of the most species rich-genera of fruit flies in the order Diptera involving pest species of quarantine importance to Mexico. This study aimed to explore and analyze the natural parasitism associated with Anastrepha spp. in a Neotropical transition region from Mexico in the biosphere reserve ‘El Cielo,’ Tamaulipas, Mexico. Anastrepha was represented by Anastrepha fraterculus (Wiedemann), A. ludens Loew, A. obliqua Macquart, and A. zuelaniae. Doryctobracon areolatus (Szépligeti) revealed the highest parasitism rate (77.3%), followed by Trichopria sp. Ashmead (63.6%), Odontosema anastrephae (Borgmeier) (29.5%), Utetes anastrephae Viereck (7.95%), Doryctobracon crawfordi (Viereck) (7.69%), Aganaspis sp. Lin (1.2%)., and Trybliographa nordlanderi (Wharton) (0.7%). Prunus persica and Spondias mombin hosted the highest diversity of parasitoids. Natural parasitism of Do. crawfordi on A. ludens in Citrus sinensis is reported. Trichopria sp. was recorded attacking Anastrepha zuelaniae Stone in Passiflora serratifolia and O. anastrephae parasitising A. fraterculus and A. ludens on P. persica. Results highlight the prevalence of native parasitoids, as well as the biosphere reserve ‘El Cielo’ as the most northern natural reservoir of natural enemies of Anastrepha pest species in the neotropical region.</t>
+          <t>The demise of American manufacturing has become a cliche in analyses of in- dustrial policy, and not without reason. Since beginning of this century, number of manufacturing jobs has fallen from 17 million to 12 million, continuing a decline that started 50 years ago, when 29 percent of Ameri- can employees worked in such jobs. Equally disturbing, most inventive American high-technology firms such as Apple, as well as their overseas rivals, now locate many of their production fa- cilities abroad.A recent report by a multidisciplinary commission at MIT, Making in America: From to Market, outlines reasons for deterioration and sug- gests ways in which corporate tech- nology sector, government, and other stakeholders can reverse situation. The need for such a reversal goes be- yond call to increase number of jobs in economy. The country con- tinues to produce potentially valuable innovations, report asserts. But ecosystem that moves such innovations from their progenitors in small firms and academic laboratories into mar- ket has developed blockages that halt that movement.We discovered that manufacturing is very important in bringing good ideas, whether they form in shop floor or laboratory, through stages of prototyping, pilot manufac- turing, larger-scale production, and fi- nally commercialization, says Suzanne Berger, an MIT professor of political science who co-chairs commission responsible for report. MIT presi- dent Rafael Reif reinforced point at a conference introducing new re- port. Innovation takes place at multiple points along line before commer- cialization, he said. If we want to stay strong in innovation, we must regain our strength in manufacturing.In-Depth InterviewsThe MIT commission, called Production in Economy (PIE) and launched in 2010, set out to discover how American strengths in innovation can lead to new production capabilities, thereby spurring growth and employ- ment. To do so, group's 21 MIT fac- ulty members and other researchers conducted 255 in-depth interviews with four types of manufacturing com- panies: US-based multinationals that invest heavily in R&amp;D, start-up firms, small-scale manufacturers operating lo- cally or regionally, and overseas firms in China and Germany.The initial goal was to discover why link between innovation and manu- facturing had broken down in United States. With American mul- tinationals, for instance, PIE team focused on why they kept their produc- tion facilities in United States or moved them abroad and, if they had chosen to move manufacturing, how they dealt with quality control and other technical issues that had to be handled by R&amp;D departments literally an ocean away. Interviews with start- ups revealed critical nature of finan- cial issues. After all, it can take 12--15 years for non-software start-ups to be- gin producing revenue. Small firms, meanwhile, face same dilemma as real estate firms: location matters. Local technology businesses don't necessarily need to be close to rivals or partners in same industry. But they benefit greatly when they collocate with com- panies that have complementary prod- ucts and abilities. If there's a diverse production ecosystem, it gives them an advantage, explains commission mem- ber Martin Schmidt, an electrical engi- neering professor. That proximity effect is incredibly valuable.Reasons for DeclineOne key result of interviews was a fresh understanding of reasons for decline in American manufacturing. Most prominent among them is what Berger calls the transformation of cor- porate structures that started in 1980s. US financial markets demanded that companies become asset-light, she explains. To do so, many high-technol- ogy firms reduced or completely out- sourced many of their business activities, such as R&amp;D, detailed design, manufac- turing, and after-sales service. …</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382769584</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.34104/bjah.02301310141</t>
+          <t>https://openalex.org/W1538336954</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lito et al. (2023)</t>
+          <t>Bandieri (2010)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Management of Educational System and Practice: A Guide to Academic Transformation</t>
+          <t>La historiografía y los fundamentos ideológicos del movimiento revolucionario en el Río de la Plata</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The paper investigates to seek answers on the extent of management in the educational system and practice for a guide in the academic transformation of the respondents especially on its contribution to the educational system. A mixed method of research is utilized in the study which focuses on Focused Group Discussion. Likewise, purposive and quota sampling techniques are employed in gathering the sample size and population of the study. The study comprised fifty (50) respondents only. Results show that extent of management of the educational system and practice as a guide for academic transformation explores and influences the mechanism of the context leadership transformation, shows that educational equity collaborates essentially on the equity issues and potentials, shows that educational motivation morale and improvement measures the quality of the improved motivation and knowledge in the educational system, show that student experiences establish mutual trust atmosphere, and encourages the interest of subordinates in school organization benefits, show that strengthening school culture reveals and focuses on leadership perspective in educational organization and strength through a school program and identity, and show that innovation skills in management leadership provide strategic requirement fulfillment of educational system and process which aligned to the mission and vision of school towards innovation and transformation of knowledge. Findings show that there is a significant relationship between the extent of management in the educational system and practice as a guide in the academic transformation as observed by the respondents.</t>
+          <t>The ideological dimension of the Revolution of May 1810, its implications and meaning, as well as the movement of ideas put forward by the actions of its protagonists, has been one of the elements of the national past most discussed by the argentinian historiography. Thus, the alleged predominance of certain ideological strands at the base of revolutionary thought gave rise to different historiographical versions emerged at specific moments of the historical development of the country, which cannot be ignored if we are to make an explanatory approach to the subject. We believe that a wealth of ideas and different political vocabularies were gathered at the thought of the “men of May”, from both the artwork and the Hispanic tradition in its various aspects. The making of each of them as the dominant has been a later historiographical exercise product. In this paper we analyze different images that on the revolutionary process were built over time on the basis of maintaining the preeminence of either ideological side. Finally, we will attempt to show the diversity of political ideas in force in the imaginary of that time, in itself diverse and complex as the interpretation of the revolutionary movement.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200094928</t>
+          <t>https://openalex.org/W3080647696</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/gco.0000000000000763</t>
+          <t>https://doi.org/10.1093/oso/9780190949501.003.0016</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NA (2022)</t>
+          <t>Welie &amp; Truffer (2020)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Editorial introductions</t>
+          <t>A Systemic Perspective on the Global Sanitation Challenge</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
+          <t>The sanitation target of the millennium development goals (MDGs) was not reached and progress toward the sustainable development goal on water and sanitation (SDG6) is very slow. The lack of sanitation is especially persistent in cities in the Global South, as the world is rapidly urbanizing. This problem demands long-term fundamental transformations of urban sanitation services and infrastructures. This chapter analyzes the challenges and opportunities of innovations that have the potential to contribute to solving urban sanitation problems. The authors therefore use a sociotechnical systems perspective that draws on insights from innovation studies and the sustainability transitions literature. Such a systemic perspective enables the analysis of the interplay between technologies, infrastructures and their associated actor networks, and institutions and user and provider practices. The chapter presents the analysis of the case of sanitation in Nairobi, Kenya, building on qualitative data from 104 expert interviews. Based on the analysis, the authors show that innovative efforts should focus on improving alignments between the various sanitation service regimes in the city—for example, through making utility services work in informal settlements or improving collaborations in the efforts to scale on-site sanitation innovations. The chapter illustrates how factors hindering innovation development toward reaching SDG6 often go beyond technological aspects, but rather represent system weaknesses related to actors, networks, and institutional aspects.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244615726</t>
+          <t>https://openalex.org/W2044130213</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/026839629701200302</t>
+          <t>https://doi.org/10.1061/(asce)up.1943-5444.0000180</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Subramanian &amp; Lacity (1997)</t>
+          <t>Peng-ying et al. (2014)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Managing Client/Server Implementations: Today's Technology, Yesterday's Lessons</t>
+          <t>Expo 2010: Strategic Transformation of Former Industrial Areas by Means of International Events</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Client/server computing is quickly becoming the computing architecture of choice in the 1990s. However, like many advances in information technology, public sources, such as trade journals and newspapers, portray client/server as a completely new paradigm which will transform our profession. But is it? We are conducting multiple case studies on organizations that have adopted client/server technology in order to extract managerial prescriptions for best practices in evaluating, developing and implementing effective client/server systems. Thus far, we have completed three case studies. Many of the lessons we are uncovering – the need for top management support, redesigning business processes before automation, user participation, phased implementation strategies and buying-in vendor skills to transfer learning – have been identified by previous researchers in other information technology contexts. Thus, although client/server is being touted as a radical change in information technology, practitioners need not discard the lessons from the past. Although there are some unique technical skills required to deploy client/server systems effectively, confirming project management lessons from the past is consoling to practitioners and academics alike. While the context of information technology changes rapidly, the organizational, administrative and policy practices are proving robust.</t>
+          <t>The transformation of former industrial areas is important to urban redevelopment, although such activity is often limited by possible on-site pollution, complicated ownership, and legal constraints. Rather than treating these areas as a problem, many cities recognize the advantages of redeveloping them because of their often central locations. Some are transformed through a temporary city event with the participation and support of external organizations and planned as a part of the urban development. This paper is an in-depth case study on the planning perspectives of Expo 2010, Shanghai, China, a regeneration project on a former industrial site. By scrutinizing the case with the details based on compiling information, contextualizing the project, and comparing the expectation and reality during the preevent, event phase, and postevent phase of the project, it is found that (1) governmental participation plays a key role in the transformation of former industrial area with city event, especially on the site where it has not completely finished its industrial activities; (2) the main motivation and significance of regenerating the former industrial area is to boost city redevelopment in the long term; and (3) a successful transformation is determined by not only the first stage from preevent to event phase but also the second stage from event to postevent phase. All these features provide a deep insight into the redevelopment of a former industrial area.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W153370640</t>
+          <t>https://openalex.org/W168473751</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/3583599</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gradle (2004)</t>
+          <t>Kasha (1960)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>A Place of Presence</t>
+          <t>Paths of Molecular Excitation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>This paper examines the studio of an iconographer as text, showing links to each essential component of the art maker's world: a strong attachment to tradition and prototypes, a life of contemplation, a sense of belonging to community, and the unveiling of the image as the place one meets the presence of the divine, through a process of transformation. As part of a larger vision to understand others and ourselves, the phenomenon of this artist's experience suggest that inclusion of spiritual understanding in art practice and instruction is a necessary consideration in the arts.</t>
+          <t>The intramolecular pathways for electronic excitation are described in terms of orbital type of excitation, and multiplicity of the states involved, with the consideration of the kinetic and quantal requirements on the transitions between excited states. For most molecules studied, it is appropriate to classify the lower energy-excited states into two broad groups, those involving only plus or minus -electron excitation ( plus or minus , plus or minus * states), and those involving lone-pair or nelectron (nonbonding) excitation to plus or minus -antibonding orbitals (n, plus or minus * states). When the oscillator strengths are oonsidered, and the nature of spin-orbital effects is taken into account, the predominance of singlet-singlet luminescence for molecules with lowest ( plus or minus , plus or minus *) singlet excited states, and the uniqueness of the triplet-singlet luminescence for molecules with lowest (n, plus or minus *) singlet excited states can be understood. The application to photochemical and radiationchemical studies are discussed, with an indication of the need for such studies on biologioally important molecules. 39 references. (auth)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4251649225</t>
+          <t>https://openalex.org/W2033149347</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-23126-3_2</t>
+          <t>https://doi.org/10.1155/2014/530642</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Corrin (1994)</t>
+          <t>Tian et al. (2014)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Transformations</t>
+          <t>Alleviation of Lead Toxicity by 5-Aminolevulinic Acid Is Related to Elevated Growth, Photosynthesis, and Suppressed Ultrastructural Damages in Oilseed Rape</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>This chapter outlines the unique transformations that went towards making Hungarian society what it is today. Various transformations that occurred within the Hungarian state struc-tures are assessed, as are the ways in which certain policies resulted in various social consequences. In turn the focus is upon the impact that societal developments had upon the statist structures. A major aim is to look at changing balances of power and within that political participation, especially in terms of later developments in the 1980s and early 1990s. Events in 1989 in Hungary cannot be seen as a knock-on effect as some commentators have viewed developments in the former GDR and Czechoslovakia. The rise of Solidarity, ably chartered by Garton Ash (1985), certainly forms a backdrop to changing interrelations in Hungary, but more significant are the attempts at economic reform from the late 1960s and the widespread influence of the second economy throughout Hungarian society (see Swain, 1992). A particular focus for this study will be women’s participation in, and views of, some of these changing power relations.</t>
+          <t>Lead (Pb) is a widely spread pollutant and leads to diverse morphological and structural changes in the plants. In this study, alleviating role of 5-aminolevulinic acid (ALA) in oilseed rape (Brassica napus L.) was investigated with or without foliar application of ALA (25 mg L(-1)) in hydroponic environment under different Pb levels (0, 100, and 400 µM). Outcomes stated that plant morphology and photosynthetic attributes were reduced under the application of Pb alone. However, ALA application significantly increased the plant growth and photosynthetic parameters under Pb toxicity. Moreover, ALA also lowered the Pb concentration in shoots and roots under Pb toxicity. The microscopic studies depicted that exogenously applied ALA ameliorated the Pb stress and significantly improved the cell ultrastructures. After application of ALA under Pb stress, mesophyll cell had well-developed nucleus and chloroplast having a number of starch granules. Moreover, micrographs illustrated that root tip cell contained well-developed nucleus, a number of mitochondria, and golgi bodies. These results proposed that under 15-day Pb-induced stress, ALA improved the plant growth, chlorophyll content, photosynthetic parameters, and ultrastructural modifications in leaf mesophyll and root tip cells of the B. napus plants.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203683278</t>
+          <t>https://openalex.org/W2885728915</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
+          <t>https://doi.org/10.1158/1538-7445.am2018-4989</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hillier (2021)</t>
+          <t>Mohammed et al. (2018)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
+          <t>Abstract 4989: Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
+          <t>Abstract Inflammation and epidermal growth factor receptor (EGFR) signaling dysregulation plays an important role in urinary bladder cancer development. We have previously shown that single agent regimens with erlotinib (EGFR inhibitor) or naproxen (nonsteroidal anti-inflammatory drug; NSAID) when given continuously were highly effective in the prevention of OH-BBN-induced urinary bladder cancers in rats. Better tolerated chemoprevention regimens can be obtained by reducing doses and frequency of administration. Low dose combinations may also achieve substantial efficacy with minimal toxicity by targeting complementary pathways. Female Fischer-344 rats were obtained at 28 days of age, placed on Teklad (4% fat) diet, and received OH-BBN (150 mg/gavage) 2x/week for 8 weeks beginning at 56 days of age. In the first study, beginning one week after the final OH-BBN treatment the rats (25/group) received either: Group 1, erlotinib (42 mg/kg BW, 1x/week); Group 2, naproxen (30 mg/kg BW/day, 3 weeks on/ 3 weeks off); Group 3, the combination of erlotinib and naproxen (using the same treatment regimens), and Group 4, vehicle. The rats were palpated for urinary bladder tumors, weighed 1x/week and observed daily for signs of toxicity. At the end of the study (10 months after the initial OH-BBN), the average weights of the urinary bladders (bladder plus tumors combined) were determined. The weights in Groups 1-4 were: 194*, 186*, 136* and 354 mg (*P &amp;amp;lt;0.05, Wilcoxon Rank test). This was accompanied by an increase in tumor latency, a decrease in tumor multiplicity, and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). The second study used the same treatment regimens, but administration of the agents was delayed until three months after the final OH-BBN treatment, at which point microscopic transitional cell carcinomas were present. At the end of the study (11 months after the initial OH-BBN), the weights of the individual bladders in Groups 1-4 were: 584, 234*, 138* and 779 mg (*P&amp;amp;lt; 0.05, Wilcoxon Rank test). Thus, naproxen and particularly the combination were still highly effective. This was accompanied by an increase in tumor latency and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). These studies demonstrate that in protocols meant to reduce the toxicity of agents (weekly erlotinib or intermittent dosing with naproxen), high chemopreventive efficacy was achieved. Of importance, starting erlotinib and/or naproxen intermittent treatments at the time microscopic cancers were present still reduced the size of the urinary bladder cancers without showing observable toxicity. The latter is of particular interest based on the clinical FAP trial showing great efficacy of erlotinib and sulindac. Supported by NCI contract number HHSN261201500036I, Task Order HHSN26100002. Citation Format: Altaf Mohammed, Mark S. Miller, Ronald A. Lubet, Chen Suen, Shizuko Sei, Robert H. Shoemaker, Clinton J. Grubbs. Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2018; 2018 Apr 14-18; Chicago, IL. Philadelphia (PA): AACR; Cancer Res 2018;78(13 Suppl):Abstract nr 4989.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390597899</t>
+          <t>https://openalex.org/W4388220798</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/979-8-3693-0363-4.ch017</t>
+          <t>https://doi.org/10.1145/3616961.3617804</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Abbasi et al. (2024)</t>
+          <t>Thibault et al. (2023)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility Initiatives in the Construction and Real Estate Sector</t>
+          <t>Who am AI?: Mapping Generative AI Impact and Transformative Potential in Creative Ecosystem</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>In the vast realm of construction and real estate, a revolution is underway: corporate social responsibility (CSR). These industries, vital to worldwide growth, consistently cast noteworthy social and environmental shadows. CSR represents a deliberate move in the direction of a better future. Equitable labor practices, security for workers, and community engagement are all emphasized by social responsibility. The sector is driven towards viable options through innovation and knowledge exchange. Constructability review services protect quality, cost-cutting, and risk reduction. CSR penetrates the real estate market by promoting ethical corporate practices, community involvement, and sustainable growth. The well-being of society is enhanced via CSR-driven charity, affordable housing projects, and employee welfare. A stellar reputation, regulatory compliance, financial sustainability, goodwill towards the community, and engaged employees are some of the long-term effects of CSR.</t>
+          <t>Generative AI’s emergence reshapes creative ecosystems, presenting diverse prospects and trials. As these systems adjust to AI’s inclusion, equilibrium is disrupted, influencing workers and society. A proactive cross-sectoral approach becomes crucial in navigating this transformation, harnessing AI’s potential for sustainable growth. This poster proposes two dimensions relevant to map the possible impacts of AI on the creative sector: the impact of AI on the Industry from a perspective of labour, professionalisation, and management and the Actor Network status of AI in creative efforts. This marks an initial step in a cross-disciplinary endeavor to comprehend and guide the evolution of creative ecosystems, underlining the necessity for comprehensive data engagement and broad academic collaboration.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3089235429</t>
+          <t>https://openalex.org/W2441604512</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7242/2658-705x/2020.2.4</t>
+          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ткаченко et al. (2020)</t>
+          <t>Skiba (2016)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The role of polyamines in the regulation of bacterial persistence</t>
+          <t>Face with Tears of Joy Is Word of the Year</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Using the complex of methods including reporter gene fusions, quantitative reverse transcriptase PCR and gene knockout mutations the participation of stress response genes ( rpoS, rmf, relA и spoТ ) in persister cell, formation was revealed in E. coli batch cultures during transition to stationary phase. The expression levels of these genes are positively modulated by polyamines (putrescine, spermidine, cadaverine) in a concentration-depended manner. So, effects of polyamines accumulated by stationary phase cells are targeted to the potentiation of the functions of cell global regulators implicated in stress response and persister cell formation. The data obtained in this work might be used for developing novel approaches targeted to the potentiation of traditional clinical antibiotics or elaboration of new antibacterials.</t>
+          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3122703400</t>
+          <t>https://openalex.org/W2057779626</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4028/www.scientific.net/amr.734-737.1531</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Serra et al. (2011)</t>
+          <t>Liang et al. (2013)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Education outcomes, school governance and parents'demand for accountability: evidence from Albania</t>
+          <t>Effects of Ce or Nb Addition on Nucleation of Pearlite in High Carbon Steel</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The extent to which teachers and school directors are held to account may play a central role in determining education outcomes, particularly in developing and transition countries where institutional deficiencies can distort incentives. This paper investigates the relationship between an expanded set of school inputs, including proxies for the functionality oftop-downandbottom-upaccountability systems, and education outputs in Albanian primary schools. The authors use data generated by an original survey of 180 nationally representative schools. The analysis shows a strong negative correlation between measures of top-down accountability and students'rates of grade repetition and failure in final examinations, and a strong positive correlation between measures of top-down accountability and students'excellence in math. Bottom-up accountability measures are correlated to various education outputs, although they tend lose statistical significance once parent characteristics, school resources and top-down accountability indicators are considered. An in-depth analysis of participatory accountability within the schools focuses on parents'willingness to hold teachers to account. Here, the survey data are combined with data from lab-type experiments conducted with parents and teachers in the schools. In general, the survey data highlight problems of limited parental involvement and lack of information about participatory accountability structures. The experiments indicate that the lack of parental participation in the school accountability system is owing to information constraints and weak institutions that allow parent class representatives to be appointed by teachers rather than elected by parents.</t>
+          <t>The high-carbon steel was micro-alloying by Ce and Nb respectively, and the effect of micro-alloying on the nucleation of pearlite was reported in the present work. The results show that the pearlite could nucleate in rare earth sulfide inclusions and Nb-containing precipitates. The formation of NbC caused the C-depleted zone, promote the formation of proeutectoid ferrite of the pearlite. And the strain energy caused by rare earth sulfide inclusions will provide activation energies for pearlitic transformation. The inclusion and precipitates will increase the rate of nucleation of pearlite and refined the microstructures of pearlitic steel.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203426107</t>
+          <t>https://openalex.org/W2569813292</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Rohmah (2021)</t>
+          <t>Udomcharoenchaikit (2016)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>KARAKTERISTIK KEPEMIMPINAN PEREMPUAN</t>
+          <t>Nature-based solutions for urban stormwater management: Experiences in Malmö and Copenhagen: A case study analysis on the decision-making process</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>In the past, women's leadership skills were still debated, women were still considered taboo to participate in the public arena, now as citizens women are free to explore and devote themselves in the public sphere, apart from this, the efficiency and effectiveness of leaders are seen from their expertise in influencing and directing their members and not about biology. Women may and can become leaders both in the government, education, family and other public spheres, while still paying attention to their boundaries as well as maintaining a balance between the domestic and the public with full responsibility. This is in line with the views of Islamic law and gender. Women's leadership has special characteristics, which can be a source of strength for women when they play a role as a leader. including: participation, delegation and granting of authority, better understanding of fellow women, and more far-sighted. In general, women's leadership styles are divided into 2; namely feminism- masculine leadership and transformational-transactional leadership styles, but in reality this is not always the case. Because the characteristics and demands of the job can affect a person's leadership style. As well as; feminism-masculine, feminism- transactional, masculine-transactional, transactional- transformational.</t>
+          <t>Nature-based Solutions (NBS) are one of the approaches to the regeneration of urban areas. These solutions are copied from, inspired by, or supported by nature. The solutions, ideally, result in multiple benefits to the society and environment. The examples of NBS measures for stormwater management are, including but not limited to, natural swale, retention ponds, and green roofs. Such measures have been successfully applied in Malmo, Sweden since the 1990s and recently been executed in the municipality of Copenhagen, Denmark. This research aimed to understand the transition from policy to the actual practice of integrating NBS measures into the stormwater management plans of the municipality of Malmo and the municipality of Copenhagen. It studied decision-making and planning processes for the integration at the city level of these two cities and the reasons behind their successful implementation by reviewing the literature and interviewing 14 stormwater management and climate adaptation professionals from both cities. The data gained from the studies were organised and analysed for better understanding three key issues: the initiation of integrating NBS, the process of integration, and how this process can be leveraged. The results point to the collaboration from various sectors and political support as the key social innovations which lead to the successful implementation of the NBS measures to the urban stormwater management plans. The suggested leverage points and strategies for scaling up the integration process include focusing on communication and knowledge transfer which could lead to the shift in the mindset of stakeholders towards stormwater management. (Less)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2901240248</t>
+          <t>https://openalex.org/W2407689120</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/s1535-120320180000011009</t>
+          <t>https://doi.org/10.2174/1381612820666140212210821</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kalra et al. (2018)</t>
+          <t>Bobryshev (2014)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Do All Roads Lead to Global Leadership? Three Approaches to Teaching Global Leadership in Modern Business Schools</t>
+          <t>Editorial (Thematic Issue: Targeting Vascular Calcification: Up-Date)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>In this essay, we seek to understand how international business schools contribute to the development of effective global leaders. To do so, we start by examining the practical needs and challenges faced by multicultural teams operating in diverse global environments. Next, we compare and contrast three models of global leadership skills development used at three international institutions in Poland, Mexico, and Canada. We analyze each approach using Brake’s (1997) global leadership triad and Oddou and Mendenhall’s (2018) transformational axes model. We then discuss the future of global leadership education and the role business schools should play in the development of appropriate skills.</t>
+          <t>Our society faces a growing burden of atherosclerosis and arteriosclerosis, diseases that result from dysregulated lipid and mineral metabolisms. Atherosclerosis and arteriosclerosis lead to increased acute cardiovascular events. A number of risk factors, including hypercholesterolemia, metabolic syndrome, diabetes mellitus and endstage renal diseases, have been found to contribute to acceleration of vascular calcification [1-5]. Vascular calcification occurs as a result of the deposition of calcium, predominantly in the form of hydroxyapatite, in both the tunica intima and the tunica media of the arterial wall [2-5]. Vascular calcification is known to occur in two distinct forms: intimal calcification, which always occurs in the context of atherosclerosis, and medial calcification, which can occur in its absence [12, 13, 19]. These two processes differ not only in morphology, but also in the pathological mechanisms involved [6, 12, 13, 19]. Inflammatory cells such as macrophages and mast cells infiltrating plaque lipid-rich regions play an important role in atherosclerotic calcification [5, 10-20]. In contrast to intimal calcification, medial calcification is known to occur in the absence of inflammatory cell infiltration and lipid deposition [5,10-20]. Apart from arteriosclerotic calcification of the media in large elastic-type arteries of nondiabetic individuals, the calcification process, known as Monckeberg's sclerosis, commonly affects the media of peripheral medium-sized arteries in aged and diabetic individuals [19]. Over the last decades, there has been growing interest in the identification of molecular and cellular mechanisms involved in vascular calcification [1-24]. Accumulating evidence suggests that the pathological processes that are instrumental for cardiovascular calcification utilize the mechanisms which are the same or similar to those of bone development, such as osteoblastic differentiation and biomineralization [1-24]. A significant body of evidence has accumulated to support a view that arterial calcification is not a passive but an active cell-regulated process similar to osteogenesis [1-24]. This view is supported by the findings of the expression of a variety of bone-associated proteins in atherosclerotic plaque, particularly at sites prone to or undergoing calcification as well as by identification of cases of the formation of bone in arterial tissue. Several cell types have been suggested to be responsible for arterial calcification. Vascular smooth muscle cells (SMCs), microvascular smooth muscle-like cells, and pericytes can differentiate in culture to form osteoblast-like cells producing a calcified matrix and the concept of multipotent mesenchymal calcifying vascular cells, which are capable of forming calcifying nodules, has been developed [2, 23]. The association of vascular calcification with SMC phenotypic transition, in which several osteogenic proteins including osteopontin, osteocalcin, the bone-determining factor Cbfa, S100 proteins were gained [1-24]. It has been reported that both vascular SMCs and macrophages express a variety of chondrocytic, osteoblastic, and osteoclast-associated proteins that may govern the calcification process in the arterial wall. The invasion of pluripotent bone marrow-derived cells into atherosclerotic plaques has been suggested as well, adding a new dimension to speculations about the origin of vascular calcifying cells [5, 10, 22]. Currently, no therapies are available to prevent vascular calcification. Despite the clinical importance of the elucidation of the mechanisms and the identification of biomarkers of vascular calcification, the mechanisms of vascular calcification and biomarkers are insufficiently studied and insufficiently understood. In 2010, the National Heart, Lung and Blood Institute (NHLBI) Working Group on Calcific Aortic Stenosis emphasized the importance of understanding the mechanisms of vascular calcification markers and the need to develop new imaging modalities for detection of subclinical calcification [15]. A special issue entitled” Targeting vascular calcification: Up-date” highlights the recent advances in our understanding of the mechanisms of vascular calcification and discuss challenges for treatment or suppression of the involved pathological processes. Vascular calcification is common in aging as well as a number of genetic and metabolic disorders. Ectopic mineralization in the arteries complicates the prognosis and increases the morbidity in diseases such as atherosclerosis, diabetes and chronic kidney disease (CKD). In this special issue, several reviews provide up-date information about the mechanism of vascular calcification associated with several human diseases [25-35], including atherosclerosis [25, 26], diabetes [27], and CKD [28]. Traditionally abdominal aortic calcification (AAC) has received less intensive study than artery calcification in atherosclerosis and diabetes, but the widespread use o</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4298147432</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.062</t>
+          <t>https://openalex.org/W2416670648</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ozcan et al. (2022)</t>
+          <t>Dalton (2004)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Home-based geriatric oncology care: A feasibility study.</t>
+          <t>Proteasome inhibition in hematologic malignancies: clinical update and practical applications.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>62 Background: The Comprehensive Geriatric Assessment (CGA) improves the outcomes of older patients with cancer, and by identifying of geriatric impairments the CGA can guide the development of supportive interventions. However, the implementation of these interventions in a real-world setting can be burdensome for patients, particularly when additional visits are required in an often frail population. Therefore, our team developed a collaborative model for home-based delivery of CGA-guided interventions. Methods: We performed a retrospective review of community-dwelling patients aged ≥ 70 years with an active cancer diagnosis who were deemed to be frail by a CGA and who received home-based CGA-guided supportive interventions under a collaborative care model established by the geriatric oncology and the palliative home care teams at Hartford HealthCare Cancer Institute between October 2020 and April 2022. The collaboration is based on multidisciplinary discussion of the CGA results / interventions and weekly rounds to discuss patient’s progress and emerging needs. Results: A total of 182 patients received a CGA during the study period, 54% (n = 99) were determined to be frail based on impairment in ≥ 7 geriatric domains. Among all eligible patients, 19 patients (19%) were included in the collaborative model. The median age of enrolled patients was 84 years (74-90), 12/19 (63%) had metastatic cancer, 7/19 (37%) received systemic treatment, and 8/19 (42%) received radiation. The average number of geriatric impairments per patients was 9.5 (7-12). Geriatric impairments addressed at home were skilled nursing (19/19), physical therapy (18/19), occupational therapy (12/19), speech-language-pathology (2/19), nutrition (5/19), or social worker (11/19) support at home. The average number of unplanned hospitalizations was 1.16 per patient (range 0-4), and the average unplanned emergency room visit was 0.89 per person (range 0-4) during study time. Transition to hospice occurred in 8/19 patients (42%), the median time to transition to hospice was 33.5 days (15-167). Conclusions: This study demonstrates the feasibility of a collaborative model for home-based geriatric oncology care in a real-world setting to help reduce the burden of care on patients and ensure patient-centered delivery of CGA-guided interventions. Findings underscore the need for future work to evaluate the impact of this novel geriatric oncology care model on patient outcomes.</t>
+          <t>Throughout my career, I have collaborated with many colleagues who share a common goal of mapping and reversing the molecular mechanisms involved in the malignant transformation of plasma cells and resistance of myeloma cells to chemotherapy drugs. Over the years, I have had the privilege of participating in and witnessing the discovery of numerous promising molecular targets, which has led to the development of many unique antitumor drugs; however, the marketing of a compound that significantly impacts the lives of cancer patients is still rare.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387516816</t>
+          <t>https://openalex.org/W2144337453</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adfm.202306929</t>
+          <t>https://doi.org/10.2478/v10089-008-0014-6</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Wu et al. (2023)</t>
+          <t>Szymańska &amp; Biegańska (2008)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Functional Nanozymes Consisting of Co&lt;sup&gt;2+&lt;/sup&gt;‐ZIF‐67 Metal‐Organic Framework Nanoparticles and Co&lt;sup&gt;2+&lt;/sup&gt;‐ZIF‐67/Polyaniline Conjugates</t>
+          <t>The Eastern and the Western Cuiavia - One Region, Two Development Lines</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Abstract Co 2+ ‐ZIF‐67 metal‐organic framework nanoparticles (NMOFs), act as nanozymes catalyzing diverse processes, including peroxidase, oxidase, and catalase activities. Peroxidase activities are reflected by the nanozyme‐catalyzed H 2 O 2 oxidation of dopamine to aminochrome, the H 2 O 2 oxidation of NADH to NAD + , the H 2 O 2 ‐catalyzed generation of chemiluminescence through oxidation of luminol, and the H 2 O 2 ‐mediated oxidation of aniline to polyaniline. Oxidase activities of the nanozyme are demonstrated by the Co 2+ ‐ZIF‐67 NMOFs catalyzed aerobic oxidation of dopamine to aminochrome and of NADH to NAD + , and catalase activities of the nanozyme are reflected by the catalytic decomposition of H 2 O 2 . Moreover, the Co 2+ ‐ZIF‐67 catalyzed oxidation of aniline to polyaniline (PAN) by H 2 O 2 is accompanied by the coating of NMOFs with PAN to yield a Co 2+ ‐ZIF‐67/PAN hybrid material. Coating the particles in the presence of guest substrates leads to molecular imprinted PAN matrices revealing enhanced ZIF‐67 catalyzed transformations as compared to non‐imprinted PAN matrices. This is demonstrated by imprinting of 2,2′‐azinobis(3‐ethylbenzothiazoline‐6‐sulfonic acid), ABTS 2− , in the PAN coating and the 3.3‐fold enhanced catalyzed oxidation of ABTS 2− by H 2 O 2 , as compared to the non‐imprinted PAN hybrid composite. Moreover, imprinting of L‐/D‐DOPA in the PAN coating of Co 2+ ‐ZIF‐67 NMOFs leads to chiro‐selective H 2 O 2 ‐guided oxidation of L‐/D‐DOPA to dopachrome by the NMOFs/PAN composite.</t>
+          <t>The Eastern and the Western Cuiavia - One Region, Two Development Lines Cuiavia is one of the oldest historical regions in Poland characterized by diverse physical and geographical conditions, as well as different administrative and historical past. The aim of this paper is to present the impact of historical and administrative divisions, as well as diverse socio-economic and political transformations that in a significant way influenced the diversity of social and economical features of Eastern and Western Cuiavia. Against such a background different development directions will be discussed.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1529456615</t>
+          <t>https://openalex.org/W4236855072</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/0141192032000133749</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sleezer et al. (2004)</t>
+          <t>NA (2003)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Formative Evaluation of a CSCLIP Lesson</t>
+          <t>Book reviews</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Abstract Laboratory instruction at a distance using synchronous, remote group settings is the next generation of online learning. Computer-supported, collaborative learning requiring immersive presence (CSCLIP) relies on synchronous web-based instruction and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. This case study describes the formative evaluation of one CSCLIP lesson. The evaluation identified eight variables that impact such learning. The evaluation resulted in the team sharing ideas on all aspects of the course, brainstorming improvements, and planning activities for their implementation. Introduction The noteworthy growth of online learning in higher education will likely continue (Singh &amp; Pan, 2004). Most distance instruction has concentrated on asynchronous learning and computer-based training. The next generation of online learning involves learning at a distance using synchronous, remote group settings. Indeed, telepresence systems can now immerse remote learners in an environment captured by video cameras and permit them to operate and control devices and processes while working at a distance (Ausburn &amp; Ausburn, in press). This manuscript focuses on a specific instructional approach that includes content delivered via telepresence, CSCLIP (computer-supported, collaborative learning requiring immersive presence). CSCLIP integrates synchronous, collaborative e-learning and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. Immersive presence is characterized by same time, different place interactions among students and instructors, and by the students' physical control over elements that are typical in laboratory and other situated environments. For example, Juanita participates in a university web-based CSCLIP course while seated at her office desk. She interacts virtually during pre-specified times with equipment, local students, other remote students, and the instructors. She engages in group work, completes laboratory exercises, manipulates equipment and materials, and receives feedback on her learning. Juanita engages in the active, real-time learning of laboratory skills without physically entering the laboratory. She visits all the lab corridors, rooms, etc. virtually, and, she operates and configures many real devices as if she were physically in the lab. She also interacts with other students and instructors in a live mode. Thus the CSCLIP lab experience is a hybrid of real and virtual interaction. CSCLIP offers increased instructor capabilities. The instructor controls the instructional content, the technology that delivers the content, and CSCLIP's increased interaction capabilities that allow all students to interact with remote students, students in the physical laboratory, the instructor, and the laboratory equipment and materials. The instructor limits interaction as appropriate for the lesson. Consequently, the instructor simultaneously manages more phenomena-of-interest than are required by traditional instructional methods. The increased capabilities afforded by CSCLIP instruction call for evaluation research that informs educators about how they can shape it to maximize learning. In this manuscript, we provide as a case study the formative evaluation of one CSCLIP lesson. We first describe the CSCLIP instruction and then we provide the research methodology, results, and discussion. The CSCLIP Instruction CSCLIP was developed by a cross-disciplinary research team with faculty members from engineering, management, and telecommunications. A theoretical foundation for CSCLIP was developed based on scholarly literature in learning and online learning. The team then selected a traditional hands-on laboratory course for transformation to the CSCLIP format (See Scheets &amp; Weiser, 2001). …</t>
+          <t>Book Reviewed in this article: Deconstructing Special Education and Constructing Inclusion Gary Thomas &amp;amp; Andrew Loxley Class Strategies and the Education Market: the middle classes and social advantage Stephen J. Ball Universities—the recovery of an idea G. Graham The New Idea of a University D. Maskell &amp;amp; I. Robinson Theory and Practice in Action Research: some international perspectives C. Day, J. Elliott, B. Somekh &amp;amp; R. Winter (Eds) Understanding, Designing and Conducting Qualitative Research in Education J. Schostak Growing Up Postmodern R. Strickland (Ed.) State of Transition: post‐apartheid educational reform in South Africa Clive Harber</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254523410</t>
+          <t>https://openalex.org/W2326380021</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5342/michhistrevi.42.1.0100</t>
+          <t>https://doi.org/10.1016/s0920-9964(12)70123-8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Taft (2016)</t>
+          <t>Fusar‐Poli (2012)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>THALAMIC GLUTAMATE LEVELS AS A PREDICTOR OF CORTICAL RESPONSE DURING EXECUTIVE FUNCTIONING IN SUBJECTS AT HIGH RISK FOR PSYCHOSIS</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>100 The Michigan Historical Review Andrew R. Highsmith. Demolition Means Progress: Flint, Michigan, and the Fate of the American Metropolis. Chicago: University of Chicago Press, 2015. Pp. 376. Illustrations. Index. Notes. Cloth: $45.00. The title of Andrew Highsmith’s book is a quote from a placard outside the razed site of the General Motors Buick City plant in Flint, Michigan: Demolition Means Progress (p. 266). The subject of the book, however, reaches far beyond the Vehicle City’s post-1970s deindustrialization. Highsmith traces the long history of metropolitan Flint and its “ceaseless quest for revitalization” to argue that “progress” has been associated with large-scale clearance and reinvention from the early twentieth century to today (p. 20). But even the best-intentioned urban renewal policies, his research makes clear, instead hardened social and economic inequalities as Flint became a poster-city for Rust Belt decay. While individual threads of Highsmith’s interlocking narratives of suburbanization, racial segregation, and deindustrialization seem at first blush familiar to urban historians, this work is notable for its comprehensive, metropolitan approach and for adding a small-city case study to the literature on urban renewal and decline. With chronological chapters focusing on Flint’s housing and education policies, workplace discrimination, industrial decentralization, and slum clearance, Highsmith provides a fine-grained analysis of how economic and racial inequality in American cities is spatialized and planned from the federal to municipal levels. He adds the useful concept of “administrative segregation” to the customary de jure/de facto binary as he details the processes by which officials drew school district boundaries around racial enclaves, suburbs incorporated to protect property values, and developers maximized government subsidies by building substandard housing. Highsmith convincingly demonstrates that it was the implementation of policies as much as the letter of the law or individual choice that led to widespread urban inequality. In foregrounding the uneven effects of pro-growth renewal, Highsmith rejects the simplified declension narrative that corporate abandonment and white flight drove urban decline. Instead, he pivots the book around General Motors’ failed push for a “New Flint” metropolitan government in the late 1950s, insisting that the corporation maintained ties to Flint even after relocating its plants to the urban fringes. Rather than reify the image of the homogenous and upwardly mobile postwar suburb, Highsmith reveals little-discussed policies of “suburban redlining” in working-class white neighborhoods and federally backed Book Reviews 101 “Section 235” predatory lending practices that preceded the most recent housing crisis by four decades. With his long view, Highsmith shows that citizen demands for civil rights, such as open housing and school desegregation, have been time and again overshadowed by economic development agendas. Despite his concluding optimism for an alternative future, the cumulative weight of Highsmith’s research leaves a deep and durable imprint of spatially embedded inequality on Flint’s poor and working-class African Americans. As such, Demolition Means Progress offers a case study that puts national metropolitan trends in the twentieth century into sharp relief. Readers with an interest in the racial and economic histories and transformations of Flint and the industrial North will find it of particular value. Chloe Taft Yale University Holly M. Karibo. Sin City North: Sex, Drugs, and Citizenship in the DetroitWindsor Borderland. Chapel Hill: University of North Carolina Press, 2015. Pp. 226. Bibliography. Illustrations. Index. Notes. Paper: $29.95. Holly Karibo’s Sin City North explores the role of cross-border prostitution and heroin-trafficking in shaping the communities and local economies of the postwar Detroit-Windsor borderland. She posits that the rise of crime and vice exposed the “contradictory nature of the border” as it made both travel and trade easier while also attempting to filter out illegal or unwanted products and people (p. 3). Karibo argues the study of vice provides insight into the ways in which men and women defined citizenship and determined belonging within the social space of the national border (p. 156). The relative economic success and rising interest in leisure tourism following the war aided the boom in illicit economies, and Karibo reads participation in vice economy as an alternative and viable path to a consumer-based identity in the era of postwar...</t>
+          <t>The chance of transition to psychosis in patients at Ultra High Risk for developing psychosis (UHR) is 10–15%. The aim of present study was to investigate differences in baseline clinical symptomatology, general level of functioning (GAF-score) and genetic risk between UHR patients who did (UHR + T) or did not (UHR + NT) make a transition to psychosis. Sharpening UHR inclusion criteria may aid in improving prediction of transition to psychosis.The study sample was taken from 285 patients who were examined within the Dutch Prediction of Psychosis Study (DUPS) at the Academic Medical Center of the University of Amsterdam, the Netherlands. Out of 73 included UHR subjects, 18 made a transition to psychosis. Psychopathology was investigated with the Structured Interview for Prodromal Syndromes, Bonn Scale for the Assessment of Basic Symptoms and GAF-score. The follow-up period of the study was three years.The UHR + T group showed more social anhedonia and withdrawal, more bizarre thinking and a lower GAF score at baseline than the UHR + NT group.In agreement with the results of Cannon et al. [Cannon, T.D., Cadenhead, K., Cornblatt, B., Woods, S.W., Addington, J., Walker, E., Seidman, L.J., Perkins, D., Tsuang, M., McGlashan, T., Heinssen, R., 2008. Prediction of Psychosis in Youth at High Clinical Risk: A Multisite Longitudinal Study in North America. Arch. Gen. Psychiat. 65 (1) 28–37.], our study indicates that severity of specific symptoms at baseline is related to transition to psychosis in UHR subjects. These findings may contribute to a more accurate prediction of a first psychotic episode. Furthermore, symptoms that are increased at baseline in the UHR + T group could be a focus of cognitive behavioural therapy in the UHR period.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206630382</t>
+          <t>https://openalex.org/W2207612463</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/md-07-2020-0882</t>
+          <t>https://doi.org/10.1017/jrr.2015.7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn et al. (2022)</t>
+          <t>Gray et al. (2015)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The effects of transformational leadership on employee creativity in Vietnam telecommunications enterprises</t>
+          <t>The Better Part of Valor: Developing a System for Studying How Couples Transition Out of Untimely Conflict Conversations</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Purpose The purpose of this paper is to investigate the effects of transformational leadership on employee creativity through psychological empowerment, creative process engagement and intrinsic motivation. Design/methodology/approach Data were collected from 420 employees at 21 telecommunications enterprises in Vietnam directly by questionnaire survey. Statistical methods, such as confirmatory factor analysis (CFA) and structural equation model (SEM), were used to analyze the data. Findings This paper shows that transformational leadership indirectly affects employee creativity through the mediating variables. Transformational leadership has a positive relationship with psychological empowerment. Psychological empowerment has a proportional relationship with both creative process engagement and intrinsic motivation. Creative process engagement and intrinsic motivation have been shown to have positive effects with the employee creativity. Research limitations/implications The main limitation of this paper is that the study only explores the relationship between transformational leadership and employee creativity through a number of the mediating variables. Practical implications The telecommunications industry is an industry that requires constant innovation, so managers need to aim for a leadership style that promotes employee creativity. Therefore, transformational leadership is a style that should be considered during the appointing and recruiting. Originality/value This paper contributes to the existing literature by focusing on understanding the relationship between transformational leadership and employee creativity in telecommunications enterprises in an Asian country with an emerging economy like Vietnam.</t>
+          <t>This study employed a novel methodological design to explore how couples transition out of a disagreement that they do not have time to resolve. Thirty college-aged dating couples participated in a 20-minute interaction with their partner where they were required to transition from a conflict conversation to the story of how they met, in a time-limited paradigm. Independent coders coded transition styles and couples completed self-report measures of relationship satisfaction pre, post, and at 6-month follow-up. We identified four transition styles: Mutual Avoidant, Mutual Collaborative, Abrupt/Controlling, and Resign/Withdraw. Couples with a Resign/Withdraw style deteriorated over time compared to couples with the other three styles. Further, couples also varied in terms of transition qualities, including how easily they disengaged and how deeply meaningful the conversation was. Ease of transition was associated with increases in relationship satisfaction at 6 months, whereas depth was associated with decreases in relationship satisfaction both immediately after the interaction and at 6 months. Implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4230231932</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-044452748-6/00001-8</t>
+          <t>https://openalex.org/W1594156146</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DZIEWONSKI &amp; ROMANOWICZ (2007)</t>
+          <t>Dingli (2012)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>The Manufacturing Industry – Coping with Challenges</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>In the first part of this overview we discuss briefly the role of the studies of the Earth’s structure in geophysics and follow with a short presentation of the contents of individual chapters. Then, we present an outline of history of seismology, beginning with the first recording in Germany of teleseismic waves from an earthquake in Japan in 1889 and the development of seismological theory, observations and their interpretation. We trace in more detail the developments in the 1950’s and afterwards. We emphasize the role of computers and broadband digital seismographic systems in the rapid progress during the last 30, or so, years. In the last part of the overview we discuss some problems in global seismic tomography emphasizing the importance of using data sets that have good control over the structure in different depth ranges. The structure in the transition zone (410–650 km depth) is an example of a region in which the gap between the resolution provided by surface waves and teleseismic travel times must be bridged by inclusion of overtone data.</t>
+          <t>The perception of many people who live in the developed economies of Europe and America are often heard saying that the days of manufacturing are numbered in these countries and that China is the new “factory of the world”. This paper demonstrates how far from reality such a broad sweeping statement is. Manufacturing in developed economies is still flourishing and there is still scope to maintain and sometimes to bring back manufacturing to these parts of the world. Indeed, the landscape has changed; the types of industries, technologies, capabilities and manufacturing methodologies have been totally transformed over the years and now display high levels of sophistication. What has not changed is that the majority of companies around the world are still Small &amp; Medium (SME) sized firms. The need for co-operation and collaboration has never been more needed than it is now as at individual firm level most SMEs do not possess all the resources and capabilities necessary to compete internationally. New challenges have also emerged. Indeed, the newly developing nations such as China, India and Korea have demonstrated a fast catch up capability. Competition is now global, greatly assisted by the revolutions undertaken in the communications and transportation sectors. Companies have also gone global through distributed organizations. The paper reviews current literature regarding trends and challenges in manufacturing and will illustrate how competition has shifted towards intangible assets, the capability to outsource, to innovate and to invest in advanced technologies not only to bring costs down but to enhance quality, cope with mass customization and develop the capability to produce high value added sophisticated products. Supply chains also form a new frontier to achieve competitive advantage and an area where competencies are being built. Malta is no exception. Being part of the European Union, and facing ever rising costs and global competition, manufacturing has shifted from low level labour intensive industries to more sophisticated, high technology companies within the pharmaceutical, electronics and medical products sectors among others. The total number of people employed in manufacturing has indeed reduced due to increased productivity of the manufacturing processes being deployed. The challenges to develop manufacturing capabilities and competencies remain as they have always been; central to competitive advantage. The change that has taken place is that many new manufacturing competencies had not traditionally been viewed as part of the manufacturing paradigm. The scope of the competency base has grown. Manufacturing companies have taken advantage of the globalization of industries by sourcing and producing where the highest competitive advantages can be reaped.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007275367</t>
+          <t>https://openalex.org/W4281724411</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m414016200</t>
+          <t>https://doi.org/10.1145/3532107.3532871</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Lisenbee et al. (2005)</t>
+          <t>Chuanromanee &amp; Metoyer (2022)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
+          <t>Designing the Trans Experience: Technology and Common Gender Transition Narratives</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
+          <t>Transgender (trans) experiences have greatly changed in the past few decades as Internet use has increased. However, HCI researchers have only recently examined trans technologies, and there is a need for greater understanding of the role that technology plays in gender transition. Recently, a new class of apps I term transition-tracking technologies have emerged that promises trans people increased control over their transition. However, given the diversity of the trans community, it is unknown how exactly these apps might be used and what narratives they may enforce. My dissertation studies transition-tracking technologies and how they support the needs of the trans community. As part of this, I analyze current usage of these apps to understand the usage of such apps and how they may include or exclude certain parts of the trans community. I will also facilitate co-design sessions to produce a transition timeline that challenges these normative transition narratives.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060337978</t>
+          <t>https://openalex.org/W4242368351</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m106659200</t>
+          <t>https://doi.org/10.31219/osf.io/93hk4</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Khadilkar et al. (2001)</t>
+          <t>Peltz et al. (2020)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Identification of Sites in the Second Exomembrane Loop and Ninth Transmembrane Helix of the Mammalian Na+/H+ Exchanger Important for Drug Recognition and Cation Translocation</t>
+          <t>Shocks to the System: The Influence of COVID-19-related Stressors on Coparental and Family Functioning</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Na+/H+ exchanger 5- (N-ethyl-N-isopropyl) amiloride Na+/H+ exchangers (NHE)1 are present at the cell surface and various organellar compartments of mammalian cells and mediate the electroneutral exchange of Na+ for H+, a process driven by the relative concentration gradients of the respective cations. To date seven distinct isoforms (NHE1 to NHE7) have been isolated that share ∼20–70% amino acid identity (calculated Mr ranging from ∼74,000 to 93,000) and exhibit similar membrane topologies, with 12 predicted N-terminal membrane-spanning (M) α-helices and a large C-terminal cytoplasmic region (1Orlowski J. Grinstein S. J. Biol. Chem. 1997; 272: 22373-22376Abstract Full Text Full Text PDF PubMed Scopus (521) Google Scholar, 2Wakabayashi S. Shigekawa M. Pouysségur J. Physiol. Rev. 1997; 77: 51-74Crossref PubMed Scopus (563) Google Scholar, 3Yun C.H.C. Tse C.-M. Nath S.K. Levine S.A. Brant S.R. Donowitz M. Am. J. Physiol. 1995; 269: G1-G11Crossref PubMed Scopus (38) Google Scholar, 4Numata M. Petrecca K. Lake N. Orlowski J. J. Biol. Chem. 1998; 273: 6951-6959Abstract Full Text Full Text PDF PubMed Scopus (234) Google Scholar, 5Numata M. Orlowski J. J. Biol. Chem. 2001; 276: 17387-17394Abstract Full Text Full Text PDF PubMed Scopus (215) Google Scholar). They show considerable differences in their patterns of tissue expression, membrane localization, kinetic properties, sensitivity to pharmacological antagonists, and responsiveness to various signaling pathways. Consistent with their molecular diversity, the exchangers participate in a broad spectrum of physiological processes, including the regulation of intracellular pH (pHi), maintenance of cell volume, and transepithelial transport of electrolytes. In addition, activation of certain exchangers appear to facilitate cellular growth and proliferation in response to numerous growth factors and other mitogens and are associated with events leading to apoptosis (6Shrode L.D. Tapper H. Grinstein S. J. Bioenerg. Biomembr. 1997; 29: 393-399Crossref PubMed Scopus (179) Google Scholar, 7Li J. Eastman A. J. Biol. Chem. 1995; 270: 3203-3211Abstract Full Text Full Text PDF PubMed Scopus (223) Google Scholar, 8Zhu W.H. Loh T.T. Biochim. Biophys. Ac</t>
+          <t>In addition to the fears associated with contracting COVID-19, the pandemic has forced families across the United States to quickly transition to new patterns of living. These transitions present new stressors, including health related concerns, new demands placed on families by lockdowns and stay-at-home orders, and the possibility of losing a job or inability to pay bills. Such stressors have the potential to disrupt collaboration between coparents in addition to basic family functioning. Drawing upon a family systems perspective, the current study thus sought to examine links between COVID-19-related stressors and family cohesion through coparental functioning. A total of 1003 parents (97% from the US; 82% Caucasian, 74% female; M = 40.9 years old, SD = 8.5; Mincome = $83,631, SDincome = $36,320) of school-aged children completed an initial online survey from the end of March to the end of April of 2020. Of the initial sample, a total of 685 parents completed weekly diaries for a month. Based on multi-level modeling, results suggested that, at the between-family level, coparental conflict mediated the impact of the stress of parenting/work demands and financial stress on family cohesion. At the within-family level, weekly spikes in health-related stress were associated with corresponding spikes in coparental conflict, which, in turn, were associated with drops in family cohesion. Results from the current study suggest that beyond the fears associated with contracting the COVID-19 virus, other key stressors associated with the emerging pandemic played a role in increasing coparental conflict, ultimately exacerbating family functioning.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3189596502</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/lag.2021.0036</t>
+          <t>https://openalex.org/W2919259568</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Crane (2021)</t>
+          <t>Gil-Solés (2019)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert</t>
+          <t>Del templo simbólico a la desmaterialización: un recorrido por la arquitectura bibliotecaria del siglo XX al XXI</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Reviewed by: San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site by Lisa Pinley Covert Nicholas Jon Crane Lisa Pinley Covert San Miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site. Lincoln, NE: University of Nebraska Press, 2017. xxix + 289 pp. Table, notes, references, and index. $65.00 hardcover (ISBN 978-1-4962-0038-9); $30.00 paperback (ISBN 978-1-4962-0060-0); $30.00 eBook (PDF) (ISBN 978-1-4962-0138-6); $30.00 eBook (EPUB) ( 978-1-4962-0136-2) Lisa pinley covert's san miguel de Allende: Mexicans, Foreigners, and the Making of a World Heritage Site is a cultural history of the relationship between national identity and economic development. The book draws upon archival research and qualitative research with residents of San Miguel, a city in the eastern part of the state of Guanajuato, northwest of Mexico City. Interviews and social engagement yielded access to private archives in order to write a history of competing visions in a city which is now famous as a UNESCO World Heritage Site. Across five chapters and a introduction, which together provide a story of San Miguel as it has changed for a century and a half, Covert reveals articulations of national identity formation and economic development upon which the form of the city has been contingent. Even if contemporary geographers might observe a missed opportunity to explicitly draw out theoretical implications of the analysis for thinking about the intersection of culture, economy, and landscape, the book will certainly be of interest to geographers, and particularly to cultural and historical geographers of modern Mexico. Covert's book circles around the question of how a place that is popularly represented as typical of Mexico can be, in tangible ways, so palpably international. She shows us that this paradox—of San Miguel being both "'typically Mexican' and jarringly foreign" (p. xviii)—has been produced by countervailing social relations around distinct visions for the city, and divergent efforts to enact those competing visions. Tensions between distinct visions for San Miguel were often articulated either through claims about forms of life proper to the city, or as claims about perceived requirements for local, regional, and national economic development. These claims found material support in the work of identifiable social blocs in post-revolutionary Mexico. Covert reveals the negotiations and adversarial relations of different social blocs through careful attention to specific conflicts in the five substantive chapters. For example, Chapter One features an analysis of the locally-meaningful conservative counter-revolution to the revolutionary anti-clericalism and agrarian reforms of the Party of [End Page 184] the Mexican Revolution (PRM), which ironically promoted Catholic architecture and spatial practices that historical preservationists would later valorize through government recognition of their significance for the nation. Chapter Two provides a critical discourse analysis of place-promotion texts (e.g., travel writing, planning documents of historic preservation elites, etc.) that echoed and instrumentalized the Pan-American rhetoric of the Good Neighbor Policy for local economic development. And Chapters Three and Four reveal tensions and surprising complementarities between a tourism sector that tended to privilege foreigners and international tastes and a proudly nationalist agenda of industrialization that was never to be realized in San Miguel. Covert's work shows that blurry social categories like foreigner and Mexican tend to harden and become oppositional during moments of cultural-political conflict, for example, around the destabilization of gendered divisions of labor and authority, or disagreements about what constitute the requirements of local economic development. Through these conflicts, distinct visions for San Miguel, and conflicting strategies of selectively remembering the region's histories, found expression in the cultural landscape. Painted walls, historic markers, bilingual storefronts, and tolerated performances of gender identity, among other landscape forms, can accordingly be interpreted as material expressions of distinct and often conflicting discourses on what is (or should be) deemed historically significant in this place. Taken together, San Miguel de Allende is a regional cultural history of post-revolutionary Mexico. In its fine-grained ethno graphic and archival attention to constitutive tensions between state authority, cultural-political movements, and popular perceptions of economic requirements, Covert's book...</t>
+          <t>This book also aims to establish a theoretical framework for the evolution of library architecture throughout the twentieth and early twenty-first centuries. Although it is a theoretical framework, it is not static at all, and of course it is open to improvements, criticisms and extensions. Yes, with this book I intend to establish a theoretical basis for reflection and study of the architecture of libraries, an area in which there is scarce bibliography in our cultural and geographical area. The evolution of library architecture over the last century and a half reveals the different transformations that library buildings have undergone, adapting to different forms, but above all it has served to respond to different and also changing social and cultural realities specific to each era and each historical moment. Each transformation has implicitly led to a reformulation of the very philosophy of the library, something I consider to be basic and which I have tried to reflect in this book._x000D_
+_x000D_
+The essay you have in your hands proposes an evolution divided into 5 major architectural transformations. For each of these five transformations, one or several paradigmatic libraries from all over the world are presented, clearly exemplifying the transformation to which we wish to refer. Each presentation is accompanied by an explanation of its main characteristics in terms of spaces and architecture; finally, to argue this decision based on quotations from external sources and also with its own argument. The result is a chronological and historical evolution that serves to frame and contextualize, ultimately, the fifth and last current transformation of libraries. The book also includes an extensive bibliography that should serve as a starting point for future and new studies on the subject._x000D_
+_x000D_
+This expansion and improvement has consisted in the addition of new sections that complement and deepen the arguments already expressed in the first edition of the book, together with the inclusion of new bibliographical references, as well as the presence of an epilogue that, in the manner of a certain philosophical and professional reflection, serves as a closing. In addition, a new prologue has been included to this second edition, by Jose Pablo Gallo Leon, librarian, who is one of the best experts in Spain in the field of library architecture, and prolific author of articles on this subject. The prologue to the first edition has also been maintained, by the architect Josep Maria Miro i Gellida -responsible for the Nitidus study- and who is the author of the future Provincial Public Library of Barcelona, still to be built (and which is one of the oldest and most persistent demands of the librarian collective in Catalonia). These prologues can also help to have a much broader and more polyhedral view of this subject.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2555589681</t>
+          <t>https://openalex.org/W2485784003</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/annrheumdis-2016-eular.2862</t>
+          <t>https://doi.org/10.1080/17502977.2016.1199478</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Stöcker et al. (2016)</t>
+          <t>Lai (2016)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>AB1112-HPR Systemic Sclerosis Treatment: An Occupational Therapists' View</t>
+          <t>Transitional Justice and Its Discontents: Socioeconomic Justice in Bosnia and Herzegovina and the Limits of International Intervention</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;Background&lt;/h3&gt; SSc has a great impact on daily functioning [1]. People with SSc make regular use of allied health care, mainly physiotherapy and occupational therapy (OT), for guidance in coping with the many consequences of the disease. Little is known about the current practice of occupational therapy for people with SSc [2]. &lt;h3&gt;Objectives&lt;/h3&gt; The purpose of this qualitative pilot study was to map the experience of Dutch occupational therapists about their daily practice and vision on optimal SSc care through OTs. &lt;h3&gt;Methods&lt;/h3&gt; Five female OTs, median age 38.6 years (range 25–46 years) from different work settings and regions with an average work experience of 8.6 years in SSc care, were recruited through the Dutch organisation of Health Professionals in rheumatology. A semi-structured interview was conducted with each participant and transcribed verbatim. Data were analysed by the three-step method of Boeije [3]. &lt;h3&gt;Results&lt;/h3&gt; OTs describe that in CURRENT PRACTICE patients report problems on a functional, activity and participation level, while the treatment is mostly aiming at functional level (including aids and compensations). They experience that their work is experience-based due to the lack of available evidence. The nature of interventions is significantly dependent on the phase of disease in which patients are. They experience a low number of referrals in a late state of the disease and suggest that this might be due to the lack of knowledge about occupational therapy. In an OPTIMAL SITUATION OTs are involved earlier in the disease process and focus on training and patient needs. They would want to focus on prevention and education including the social environment of the patient. In order to offer optimal treatment they would want to work guideline-based and establish sustained treatment relationships. Earlier referral in the disease process would enable meaningful treatment. They express their need for a clear OT profile to be known by rheumatologists, to facilitate timely and appropriate referrals to OTs. &lt;h3&gt;Conclusions&lt;/h3&gt; We found a distinct difference between current and ideal OT practice. The newly gained knowledge of this study can be used by OTs for a transition from treatment addressing compensation to a treatment targeting activity and participation. More attention should be paid to timely referrals with a transparent indication. &lt;h3&gt;References&lt;/h3&gt; Stamm, T., et al. (2011). Concepts of functioning and health important to people with systemic sclerosis: a qualitative study in four European countries. Ann Rheum Dis, 70(6), 1074–1079. Willems, L., et al. (2013). Health care use and patients9 perceptions on quality of care in systemic sclerosis. Clin Exp Rheum, 64. Boeije, H. R. (2014). Analyseren in kwalitatief onderzoek: denken en doen. Den Haag: Boom Lemma. &lt;h3&gt;Disclosure of Interest&lt;/h3&gt; None declared</t>
+          <t>The incorporation of socioeconomic concerns into transitional justice has traditionally, as a result of prevailing liberal notions about dealing with the past, been both conceptually and practically difficult.This paper demonstrates and accounts for these difficulties through the case of Bosnia and Herzegovina, a country which has been characterised by a complex transition process and a far-reaching international intervention, encompassing transitional justice and peacebuilding as well as political and economic reforms.Examining the limits of international intervention in Bosnia and the marginalisation of socioeconomic justice issues, the paper analyses the events surrounding the protests that broke out in February 2014, and the ensuing international engagement with the protest movement.Faced with a broad-based civic movement calling for socioeconomic justice, the international community struggled to understand its claims as justice issues, framing them instead as problems to be tackled through reforms aimed at completing Bosnia's transition towards a market economy.The operation of peacebuilding and transitional justice within the limits of neoliberal transformation is thus instrumental in explaining how and why socioeconomic justice issues become marginalised, as well as accounting for the expression of popular discontent where justice becomes an object of contestation and external intervention.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2578829602</t>
+          <t>https://openalex.org/W2552997845</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/com.2016.0029</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Madden et al. (2015)</t>
+          <t>Dalleo (2016)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>The Future of Unmanned Aerial Systems (UAS) for Monitoring Natural and Cultural Resources</t>
+          <t>The Grenada Revolution in the Caribbean Present: Operation Urgent Memory by Shalini Puri</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Aerial imagery and photogrammetric techniques that have long been used to monitor natural and cultural resources are undergoing innovative transformation with the increased availability of low-cost unmanned aerial systems (UAS) and software for Structure-from-Motion (SfM) image processing. Cultural resources of historic buildings, gardens and monuments, along with natural resources such as inland freshwater wetlands that are small in size (e.g., &lt; 0.5 ha), composed of diverse aquatic plant species and temporaly variable in soil mosture/open water, present challenges to managers tasked with detection, delineation and monitoring using remotely sensed data. Traditional image data sources of medium (10 to 30-m pixels) and high (1 to 5-m pixels) spatial resolution satellite images, large-scale (1:10,000 and greater) airborne film format aerial photographs and digital camera imagery (0.5 to 1-m pixels) present limitations for detailed resource monitoring due to relatively coarse spatial and temporal resolution. The capability to respond quickly and capture imagery with pixel sizes in the range of a few centimeters is needed to accommodate variable weather conditions, rapid phenological changes and unexpected disturbances. Such systems are required to obtain optimal aerial imagey tailored for specific resource applilcations. Off-the-shelf, portable UASs fitted with video cameras now permit users to collect high quality imagery within minutes of launch and processing capability on-site for near real time 3D data extraction and visualization for quick decision making. Researchers at the University of Georgia’s Center for Geospatial Research (CGR) have explored the use of small UAS quadcopters for mapping wetlands, assessing woody debris biomass in forests, creating 3D visualizations of historical buildings and documenting seasonal changes in botanical gardens. This paper will describe methods used to acquire aerial images with DJI Phantom 2 Vision and Vision+ quadcopters to create image mosaics, 3D point clouds and image models used to monitor natural and cultural resources. Finally, future directions will be addressed with an eye towards advances for resource monitoring.</t>
+          <t>Reviewed by: The Grenada Revolution in the Caribbean Present: Operation Urgent Memory by Shalini Puri Raphael Dalleo Shalini Puri, The Grenada Revolution in the Caribbean Present: Operation Urgent Memory New York: Palgrave Macmillan, 2014, 341 pp. Grenada haunts the Caribbean radical imagination. Shalini Puri’s first monograph, The Caribbean Postcolonial, showed her to be one of the most thoughtful and committed cultural critics of Caribbean radicalism. That book’s readings of concepts like hybridity, transgression, opposition and resistance cleared ground in post-colonial studies for a substantial political rethinking of the field’s conceptual categories. Her most recent scholarly work, The Grenada Revolution in the Caribbean Present, takes advantage of that reclaimed intellectual space. Whereas the earlier book belonged to a moment of extreme theoretical introspection within the field, the newer book is part of a larger move in postcolonial studies to engage with the materiality of social movements and governmentality in the global south. As a result, The Grenada Revolution in the Caribbean Present provides a model for a politically urgent literary studies, showing how much a cultural studies approach can offer to the rethinking of radical postcolonial projects. The Grenada Revolution in the Caribbean Present is brilliant simply as a cultural history, offering a compilation of the wide range of ways in which the Grenada Revolution has been remembered or has shaped our political and intellectual practices. The extensive research means that the book’s bibliography alone is a massive contribution to Caribbean studies. In calypsos by Black Wizard and Mighty Sparrow, novels by Merle Collins, and David Franklyn, plays such as Redemption Time and Sitting in Limbo, the paintings of Kolongi Brathwaite and Canute Caliste, or poetry by Dionne Brand, Kendel Hippolyte and Marion Bethel, Puri uncovers resonances of the Revolution from throughout the Caribbean from the 1980s up to today. She couples careful analysis of these artistic responses with a pioneering form of what she calls “literary fieldwork” (24) in which interviews and visits to the sites of memory acknowledge a reality in which “The land is an archive” (22). Puri’s reading of the physical remnants of the Revolution, and the memorialization of it, supplements the readings of creative texts to fully engage with not only intellectual but also popular engagement with this history. Beyond the vital accomplishment of rethinking the Grenada Revolution and recording the texts and practices responding to it, Puri’s work offers a new set of concepts for understanding Caribbean cultural history. Rather than attempting to apply to Grenada political or cultural frameworks developed in other contexts, Puri takes her inspiration from the Caribbean landscape, organizing The Grenada Revolution in the Caribbean Present around chapters such as “Wave,” “Volcano,” “Hurricane,” and “Straits.” The corresponding concepts allow virtuoso readings of [End Page 378] Grenadian history and culture while remaining supple enough that scholars could imagine adapting them to other regional contexts. Puri defines “volcanic memory,” for example, as “involuntary and restive … unauthorized, unexorcised, unsanitized, it erupts periodically, leaving traces but no monuments” (150). In contrast to “deliberate memory,” embodied in memorials and commemorations, Puri’s volcanic memory appears unexpectedly, breaking through apparent silence or amnesia to show the subterranean cultural unconscious in which traumatic events can reside. This approach to reading silences builds on the work of Michel-Rolph Trouillot and allows Puri to read the eruptions of the Revolution in works not obviously about it such as Earl Lovelace’s Is Just a Movie. This methodology allows Puri to uncover pan-Caribbean resonances similar to the kinds of specters of the Haitian Revolution that Sibylle Fischer finds haunting nineteenth-century Cuban and Dominican discourse in Modernity Disavowed. The hurricane, similarly, functions as “a gentle corrective to the vision of history” as teleology embodied in the Grenada Revolution’s slogan, “Forward Ever, Backward Never.” By contrast, “a hurricane historiography is more attuned to repetition, disorder, and unpredictability” (212). This vision of history—in which the events of the Revolution are not conceived as scientifically inevitable—resembles the vision of tragedy David Scott puts forward in Conscripts of Modernity, but as Puri distinguishes, “hurricane does not result in the axiomatic or inevitable failure of the revolutionary projects … hurricane as poetics remains evenly split...</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4292117313</t>
+          <t>https://openalex.org/W1969504162</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tet.2022.132957</t>
+          <t>https://doi.org/10.1152/japplphysiol.01139.2007</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Тихомиров et al. (2022)</t>
+          <t>McKenna &amp; Hargreaves (2008)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Reductive elimination of alkoxy group in anthraquinone derivatives</t>
+          <t>Resolving fatigue mechanisms determining exercise performance: integrative physiology at its finest!</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Anthraquinone derivatives are constantly in a focus of synthetic chemists due to a diversity of valuable biological, photochemical and redox properties. However, quinone core limits applicability of chemical transformations making a search for new methods of modification of anthraquinones highly demanded. A convenient approach of regioselective reductive α-alkoxy group cleavage of anthraquinone derivatives was developed and evaluated. Most effectively transformation goes via a zinc reduction of quinone moiety and prototropic rearrangement in acidic media followed by the alkoxy group elimination. Strong donors in β -position of anthraquinone core are crucial for transformation and provide the elimination exclusively from α -position. The method simplifies an access to some bioactive 1,3-substituted anthraquinones and was applied for synthesis of natural products, e.g., rubiadin 1-methyl ether, anthragallol 1,2-dimethyl ether, and damnacanthol. • Reductive α-alkoxy group cleavage of anthraquinone derivatives was developed. • Strong donors in β-position contribute reactivity and high regioselectivity. • Method simplifies an access to bioactive 1,3-substituted anthraquinones.</t>
+          <t>HIGHLIGHTED TOPICFatigue Mechanisms Determining Exercise PerformanceResolving fatigue mechanisms determining exercise performance: integrative physiology at its finest!Michael J. McKenna, and Mark HargreavesMichael J. McKenna, andMark HargreavesPublished Online:01 Jan 2008https://doi.org/10.1152/japplphysiol.01139.2007This is the final version - click for previous versionMoreSectionsPDF (37 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat the origins of fatigue during exercise have intrigued scientists for well over a century and have proven to be a rich, but complex, area of investigation. Understanding fatigue and the consequent exercise limitation is not just an intellectual curiosity, but has far-reaching implications that traverse the broad spectrum of our communities. In chronically diseased or acutely ill patients, fatigue and exercise limitation can profoundly restrict daily activities and thus impair quality of life. In healthy individuals, fatigue can restrict performance in diverse occupational duties such as firefighting, the military, construction, and laboring, as well as limiting participation in recreational activities and sports. Most readers would link fatigue and exercise limitation to the grand stage of national and international sporting competition, adversely affecting elite athletic performance, with implications for medals, glory, and the sports industry. Fatigue and exercise limitation also impact on the young through to the aged, thus affecting all persons at multiple stages of our lives. It is therefore not surprising that investigation into the underlying causes of fatigue and exercise limitation has attracted special attention of scientists from clinical, basic, and applied science specializations.Early investigations on fatigue mechanisms focused on metabolic fuel availability or accumulation of “waste products.” Prolonged exercise was thus considered to be limited by reduced muscle glycogen availability and/or hypoglycemia. Fatigue during intense exercise was typically portrayed as a consequence of phosphocreatine depletion and lactic acidosis. With evidence that action potential transmission across the neuromuscular junction was not impaired, fatigue was ascribed as largely occurring within the active muscles. Hence, the term “muscle fatigue” is now firmly entrenched within the general scientific vocabulary. This series of nine mini-reviews, all by experts in their respective fields, first demonstrate the tremendous recent advances in understanding the complex phenomenon known as fatigue. Second, these reviews clearly indicate that “fatigue” rather than “muscle fatigue” is much more appropriate for voluntary exercise, since fatigue limiting exercise involves mechanisms within the contracting peripheral or locomotive muscles and encompasses the respiratory muscles, muscle perfusion, other inactive skeletal muscle and organs regulating fuel, metabolite, or ionic homeostasis and, most importantly, within the central nervous system itself. Furthermore, fatigue can be understood not as a failure of regulation, “the bad guy,” but as a highly regulated strategy conserving cellular integrity, function and, indeed, survival. These state-of-the-art reviews reinforce the concept that understanding fatigue is integrative physiology at its finest. Each review integrates existing knowledge and importantly, includes a focus on new directions for the field, ensuring each is obligatory reading for all interested in fatigue and exercise.The first six reviews focus on the mechanisms and importance of what have been labeled as peripheral muscle fatigue and central fatigue. The first two reviews have a cellular or “myo-site” focus of fatigue. Drs. Allen, Westerblad, and Lamb (1) review evidence for a failure of sarcoplasmic reticulum Ca2+ release as a major causative factor in fatigue in muscle. The review draws heavily on elegant single-fiber experiments, which have used intact or mechanically skinned fibers and which clearly link insufficient Ca2+ release to a reduction in force. They focus on the role of inorganic phosphate sequestration of Ca2+ within the sarcoplasmic reticulum, rather than changes in action potential amplitude, as a primary factor responsible for the fatigue-induced decline in cytosolic Ca2+ concentration and force. Drs. McKenna, Bangsbo, and Renaud (5) examine exercise effects on muscle ionic homeostasis and their essential role in fatigue, integrating findings from human exercise studies and in vitro studies of ionic effects on muscle function. Marked intracellular-interstitial perturbations in K+ and Na+ concentrations and impaired Na+-K+ pump activity are presented as causative factors in fatigue, via cellular membrane depolarization and inexcitability; whereas Cl− conductance changes oppose these effects. Hence regulation of each of these ions, and of the Na+-K+ pump, must be considered in unde</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2951518878</t>
+          <t>https://openalex.org/W2899520072</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/408187</t>
+          <t>https://doi.org/10.1088/1742-6596/1076/1/012002</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ribeiro et al. (2018)</t>
+          <t>Antwi et al. (2018)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Remotely sensed indicators and open-access biodiversity data to assess bird diversity patterns in Mediterranean rural landscapes</t>
+          <t>Understanding kinematics graphs using MBL tools, simulations and graph samples in an interactive engagement context in a Ghanaian university</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Abstract Changes in ecosystem area are often used to assess human impacts on habitats and estimate biodiversity change. However, because species respond to structural changes at fine spatial scales the use of area alone may not capture all relevant changes. Operational costs limit the assessment of biodiversity change at a simultaneously fine spatial resolution and large scales. The development of cost-effective and expedite methods to monitor biodiversity change is therefore required. We use open access satellite imagery and biodiversity data to investigate the importance of variables of habitat extent and structure in explaining species richness and community dissimilarity of forest and open-land birds at the regional scale. Moreover, because Mediterranean landscapes are subject to seasonal dynamics, we explore the indicator value of remotely sensed variables measured in spring and summer. A large-scale dataset of bird occurrence data, including 8042 observations and 78 species, distributed by 40 landscape-sized cells, was assembled from GBIF after controlling for data quality. We found that summer satellite imagery, when the green perennial vegetation is more apparent, is particularly suited to model the diversity patterns of forest species, because distribution of tree cover in the landscape is well captured. Summer data is also useful to monitor the perennial elements that shape landscape structure and the habitat of open-land species. Specifically, mean NDVI and a second-order NDVI texture variable, were found to be good indicators of forest and open-land habitats, respectively. The use of spring imagery appears to be useful to monitor habitat structure within open-land habitat patches. Overall, NDVI texture measures were found to be good predictors of bird diversity patterns at large scales. Also, we were able to successfully conduct a regional scale analysis using open-access data, which illustrates their potential to inform large scale biodiversity monitoring.</t>
+          <t>Many students have problems when it comes to describing the shapes of displacement, velocity and acceleration-time graphs (x, v, a-t graphs), conversion of graphs from one form into another, and calculating and getting the meaning of slopes and areas under kinematics graphs. They often describe shapes of graphs as pictures and give interpretation without taking into cognizance of the type of graph being considered. In this study, 37 first year university physics students (Group One: 17 students and Group Two: 20 students) at the University of Education in Winneba (Ghana) in two consecutive years, were introduced to the use of microcomputer based laboratory (MBL) tools; simulations and graph samples to practice and describe the shapes of kinematics graphs; conversion of graphs from one form to the other; calculation of slopes and areas under kinematics graphs, and their meanings, all in an interactive engagement teaching. Students were made to answer the "Test of Understanding Graphs in Kinematics" (TUG-K) before and after the introduction of the use of MBL tools, simulations and graph samples. Students' scores were compiled and converted to mean proportion scores and average normalized gain 〈g〉, under the four concepts "Area under the graph (meaning and calculation); Slope (meaning and calculation); Graph description; and Graph transformation". The results indicate that the first year university students in the two groups all did better in describing the shapes of kinematics graphs, transforming kinematics graphs, calculating and getting the meaning of slopes and areas under kinematics graphs when they were tested with the same instrument after instruction in kinematics. This goes to show that MBL tools, simulations and graph samples when used in an interactive engagement manner can improve the teaching and learning of kinematics graphs in physics.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1603890268</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0306-9192(90)90082-b</t>
+          <t>https://openalex.org/W1575491887</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Reutlinger (1990)</t>
+          <t>Herzfeld &amp; Glauben (2006)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Hunger and public action</t>
+          <t>Labour mobility in transition countries and the impact of institutions</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Brazil’s South-South cooperation (SSC) has been accused of using a depoliticizing language of similarity and horizontality that hid structural asymmetries between very divergent realities. Focusing on a SSC project in health between Brazil and Mozambique, the Mozambican Pharmaceutical Ltd. (SMM), this article seeks to understand whether SSC can in fact re-politicize development. Drawing on a poststructuralist approach to discourse, I see re-politicization as challenging views of development in line with foreign aid (privatization in this context) and the enactment of initiatives in line with SSC principles (state-ownership). I explore the political negotiations and conflict around the implementation of the SMM and argue that while initially the language of horizontality masked structural differences between Brazil and Mozambique, it was later mobilized to challenge Mozambique’s desire to privatize the SMM. A compromise between stakeholders allowed the SMM to be majority state-owned, in what I say represented some degree of structural transformation. My analysis shows that development principles are neither universal (a criticism long addressed at foreign aid) nor do they have a single effect. The implementation of SSC projects that aim to effect structural transformation on highly divergent contexts will be subject to contestation, negotiation and accommodation by stakeholders, and the strategic employment of principles. The article suggests that SSC would require a more frequent engagement between partners so that SSC norms become naturalized. More broadly, it echoes part of the SSC literature that calls for a focus on development encounters, political dynamics and local constructions of reality rather than generic policy statements or principles.</t>
+          <t>The economic transformation in countries of Central and Eastern Europe as well as Asia has resulted in a diverse picture of change in agricultural labor use. Annual migration within this sector ranges between an emigration of about nearly 8 percent of the agricultural labor force, to an immigration into agriculture of about 10 percent on average. This paper considers the determinants of this occupational labor flow and separates the migration rate in an annual and a timeinvariant part. The most important determinants of the annual migration rate are the ratio of sectoral income per worker and the relative magnitude of agricultural labor. The time-invariant part of the migration is very closely related to initial conditions and the method of land privatization.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2596529768</t>
+          <t>https://openalex.org/W1986281221</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2298/muz0808091m</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Grbavac (2015)</t>
+          <t>Milin (2008)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Makrozoobentos stalnih i povremenih krških izvora</t>
+          <t>From communism to capitalism via the wars: The landscape of Serbian music 1985-2005</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Springs represent ecotons, i.e. the transition zone where groundwater rises to the surface of the earth forming surface flow. Karst springs are specific type of springs. Permanent karst springs represent stable habitats with very low seasonal variations of abiotic conditions, while temporary springs show more pronounced seasonal oscillations. In this study we explored the macroinvertebrate communities of four different karst springs, three of them were permanent (springs of the river Krka, Krupa and Kosovcica) and one temporary (Krcic spring). One-year research was conducted with monthly macroinvertebrates sampling using Surber sampler. Seasonal fluctuations in physico-chemical parameters of the water were generally low, nevertheless there were differences between the studied springs, depending on the origin of water. The greatest differences in the composition, structure and seasonal variations of macroinvertebrates were observed between permanent and temporary springs, indicating the importance of the presence of the surface flow. Overall, diversity and abundance of macroinvertebrates were higher at the permanent springs than the Krcic spring, which dries up in the summer months. In permanent springs, greatest abundance of macroinvertebrates was recorded in moss, whereas at the Krcic spring it was highest in the mesolithal, due to the high density of Micropterna nycterobia (Limnephilidae, Trichoptera). This species has specifically adapted life cycle to the seasonal drying up, and large proportion of such species is typical for communities in temporary habitat.</t>
+          <t>Two related processes were taking place in ex-Yugoslavia during the chosen period: 1) The transition from communism to capitalism, and 2) unsuccessful dealing with the political/economical crisis that led to the wars in the 1990s, both followed by the necessity to face the outcome and establish new identities. Although those eventful and tragic two decades have deeply shaken Serbian society, the art music production has not mirrored them in ways that might have been expected. Whereas pacifistic and oppositional political ideas were openly voiced in the public life, the majority of composers wished to distance themselves from explicit engagement in their works. That was probably due to the mistrust that art music, whose influence has always been very limited in the country, could make a strong impact on the political events.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588171043</t>
+          <t>https://openalex.org/W2001439070</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1144/gsjgs.140.4.0635</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Salemink (2016)</t>
+          <t>Touret &amp; Dietvorst (1983)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
+          <t>Fluid inclusions in high-grade anatectic metamorphites</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
+          <t>Fluid inclusions have been studied, by microthermometry, in metapelites and metabasites which have undergone partial melting in the transition zone from amphibolite to granulite facies. Mobilizates contain far more abundant and larger fluid inclusions than non-mobilized or restite layers, and these inclusions occur as several generations of well-defined and chemically contrasted fluids: carbonic (CO 2 ± CH 4 and hydrocarbon), aqueous (H 2 O ± NaCl) and N 2 . A garnet-bearing mobilizate in amphibolite contains 4 generations of relatively pure fluids, most of them trapped after peak metamorphic conditions in the following P - T domains: CO 2 and N 2 . P = 2–8 kbar, T = 550–850°C; CH 4 ., P = 1–2 kbar, T = 400–550°C; H 2 O, P T = 120–400° C.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3120193981</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2101.04713</t>
+          <t>https://openalex.org/W751652454</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Torpey &amp; Klein (2021)</t>
+          <t>Valenzuela (1988)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Explicit homography estimation improves contrastive self-supervised learning</t>
+          <t>Analyse de l'etat sous la dictature militaire : le cas du mouvement populaire chilien</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>The typical contrastive self-supervised algorithm uses a similarity measure in latent space as the supervision signal by contrasting positive and negative images directly or indirectly. Although the utility of self-supervised algorithms has improved recently, there are still bottlenecks hindering their widespread use, such as the compute needed. In this paper, we propose a module that serves as an additional objective in the self-supervised contrastive learning paradigm. We show how the inclusion of this module to regress the parameters of an affine transformation or homography, in addition to the original contrastive objective, improves both performance and learning speed. Importantly, we ensure that this module does not enforce invariance to the various components of the affine transform, as this is not always ideal. We demonstrate the effectiveness of the additional objective on two recent, popular self-supervised algorithms. We perform an extensive experimental analysis of the proposed method and show an improvement in performance for all considered datasets. Further, we find that although both the general homography and affine transformation are sufficient to improve performance and convergence, the affine transformation performs better in all cases.</t>
+          <t>Les forces armees ont joue un role tres important dans la formation de l'etat, d'ou leur grand professionnalisme, leur obeissance et leur absence d'esprit de contestation. Leur participation a l'etat chilien et sa transformation en un systeme autoritaire s'appuient sur la publication d'un ensemble de decrets-lois qui lui ont permis de s'institutionnaliser, donc de se legitimer. L'exclusion et la marginalisation de vastes secteurs de la societe civile se sont faites par la repression, le chomage ou tout simplement par la privatisation de l'enseignement. La legitimite du regime autoritaire et l'application d'un modele ultra-liberal lui ont permis de se consolider face au capital financier international. La suppression de tout espace de mediation entre societe civile et etat nous ont amene a caracteriser le regime comme : 1. Un regime non egalitaire controle de facon absolue par une fraction de la bourgeoisie; 2. Un regime portant atteinte aux libertes d'expression, qui a supprime le droit de reunion et la liberte d'information existante ; 3. Un regime non representatif : car les decisions ne sont pas le produit de l'expression de differentes tendances mais, au contraire, le fait de l'elite au pouvoir.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2885728915</t>
+          <t>https://openalex.org/W2626859028</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2018-4989</t>
+          <t>https://doi.org/10.1002/smll.201700527</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mohammed et al. (2018)</t>
+          <t>Li et al. (2017)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Abstract 4989: Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers</t>
+          <t>Emerging 0D Transition‐Metal Dichalcogenides for Sensors, Biomedicine, and Clean Energy</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Abstract Inflammation and epidermal growth factor receptor (EGFR) signaling dysregulation plays an important role in urinary bladder cancer development. We have previously shown that single agent regimens with erlotinib (EGFR inhibitor) or naproxen (nonsteroidal anti-inflammatory drug; NSAID) when given continuously were highly effective in the prevention of OH-BBN-induced urinary bladder cancers in rats. Better tolerated chemoprevention regimens can be obtained by reducing doses and frequency of administration. Low dose combinations may also achieve substantial efficacy with minimal toxicity by targeting complementary pathways. Female Fischer-344 rats were obtained at 28 days of age, placed on Teklad (4% fat) diet, and received OH-BBN (150 mg/gavage) 2x/week for 8 weeks beginning at 56 days of age. In the first study, beginning one week after the final OH-BBN treatment the rats (25/group) received either: Group 1, erlotinib (42 mg/kg BW, 1x/week); Group 2, naproxen (30 mg/kg BW/day, 3 weeks on/ 3 weeks off); Group 3, the combination of erlotinib and naproxen (using the same treatment regimens), and Group 4, vehicle. The rats were palpated for urinary bladder tumors, weighed 1x/week and observed daily for signs of toxicity. At the end of the study (10 months after the initial OH-BBN), the average weights of the urinary bladders (bladder plus tumors combined) were determined. The weights in Groups 1-4 were: 194*, 186*, 136* and 354 mg (*P &amp;amp;lt;0.05, Wilcoxon Rank test). This was accompanied by an increase in tumor latency, a decrease in tumor multiplicity, and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). The second study used the same treatment regimens, but administration of the agents was delayed until three months after the final OH-BBN treatment, at which point microscopic transitional cell carcinomas were present. At the end of the study (11 months after the initial OH-BBN), the weights of the individual bladders in Groups 1-4 were: 584, 234*, 138* and 779 mg (*P&amp;amp;lt; 0.05, Wilcoxon Rank test). Thus, naproxen and particularly the combination were still highly effective. This was accompanied by an increase in tumor latency and a decrease in the number of rats with large palpable tumors (&amp;amp;gt; 200 mg). These studies demonstrate that in protocols meant to reduce the toxicity of agents (weekly erlotinib or intermittent dosing with naproxen), high chemopreventive efficacy was achieved. Of importance, starting erlotinib and/or naproxen intermittent treatments at the time microscopic cancers were present still reduced the size of the urinary bladder cancers without showing observable toxicity. The latter is of particular interest based on the clinical FAP trial showing great efficacy of erlotinib and sulindac. Supported by NCI contract number HHSN261201500036I, Task Order HHSN26100002. Citation Format: Altaf Mohammed, Mark S. Miller, Ronald A. Lubet, Chen Suen, Shizuko Sei, Robert H. Shoemaker, Clinton J. Grubbs. Efficacy of erlotinib and/or naproxen when administered by intermittent dosing schedules in the prevention of chemically induced urinary bladder cancers [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2018; 2018 Apr 14-18; Chicago, IL. Philadelphia (PA): AACR; Cancer Res 2018;78(13 Suppl):Abstract nr 4989.</t>
+          <t>Following research on two‐dimensional (2D) transition metal dichalcogenides (TMDs), zero‐dimensional (0D) TMDs nanostructures have also garnered some attention due to their unique properties; exploitable for new applications. The 0D TMDs nanostructures stand distinct from their larger 2D TMDs cousins in terms of their general structure and properties. 0D TMDs possess higher bandgaps, ultra‐small sizes, high surface‐to‐volume ratios with more active edge sites per unit mass. So far, reported 0D TMDs can be mainly classified as quantum dots, nanodots, nanoparticles, and small nanoflakes. All exhibited diverse applications in various fields due to their unique and excellent properties. Of significance, through exploiting inherent characteristics of 0D TMDs materials, enhanced catalytic, biomedical, and photoluminescence applications can be realized through this exciting sub‐class of TMDs. Herein, we comprehensively review the properties and synthesis methods of 0D TMDs nanostructures and focus on their potential applications in sensor, biomedicine, and energy fields. This article aims to educate potential adopters of these excitingly new nanomaterials as well as to inspire and promote the development of more impactful applications. Especially in this rapidly evolving field, this review may be a good resource of critical insights and in‐depth comparisons between the 0D and 2D TMDs.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1507962280</t>
+          <t>https://openalex.org/W4385614929</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jnlssr.2023.07.002</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ackland (2010)</t>
+          <t>Zhou et al. (2023)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Literary politics and the cold war: the case of Christina Stead</t>
+          <t>Study on the influencing factors of piecewise multi-strain crossover epidemic spread under data contamination</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Christina Stead's life is at once too well and too little known. Fourteen major works, totally more than five and a half thousand pages, refract half a century of her experiences on three continents. These are complemented by important caches of surviving letters, which evoke her impressions of specific places and countries, capture ebb and flow of her personal relations, and offer apparently frank avowals on a variety of literary, social and historical subjects. Moreover Stead, following reissuing of The Man Who Loved Children in 1965, enjoyed considerable fame and, after returning permanently to her native land in 1975, made herself publicly available on numerous occasions, including for lengthy periods as a writer in residence at Australian National University and Monash University. There she cultivated impression of being primarily interested in her art. Certainly she responded to current issues, embracing concern of her friend, Nugget Coombs, with indigenous affairs, as well as lending her voice to growing opposition to war in Vietnam. But there was little in her utterances to distinguish them from local leftist agenda of day, which opposed American imperialsim and sought to elect a federal Labour government after decades of conservative rule. There was nothing to suggest that she had once been a fervent member of organisations opposed to parliamentary democracy, or a vehement advocate of engaged art, and belief that writers should use their pens to cut through moribund tissues of society in cause of human freedom and revolution. Her political engagement before, and even during, Pacific War was fast fading from memory. In 1973 she remarked, without exaggeration, in an interview: People don't remember all that, you know. The thirties was a hundred years ago. Since then amnesia has only deepened, so that she remains in important respects, as a recent monograph underscored, the enigmatic Christina Stead (Peterson).</t>
+          <t>The ongoing impact of the novel coronavirus disease 2019 (COVID-19) on work and daily life persists as we transition from emergency to normal circumstances. The continuous mutation of viral strains has resulted in a shift from a single strain to multiple cross-strains, contributing to the spread of the epidemic. Variations in infection rates of the same strain occur because of the implementation of diverse preventive measures at different times. This study investigated the dynamics of the pandemic in the presence of concurrent strains. Building on the classical Susceptible, Exposed, Infected, and Recovered (SEIR) model, a robust piecewise multi-strain cross-epidemic trend prediction model was proposed that employs the Hodges–Lehmann estimator to handle uncertain and contamination-prone epidemic information. A comparative analysis of epidemic spread trend curves across diverse populations using different robust methods revealed the superiority of the Hodges–Lehmann estimator-based model over the traditional method. The accurate prediction results of the model demonstrate its high reliability in tracking the changing trend of the COVID-19 outbreak, thereby supporting its implementation in subsequent epidemic prevention and control measures.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2441604512</t>
+          <t>https://openalex.org/W4251937053</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
+          <t>https://doi.org/10.1596/978-1-4648-0469-4_ch2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Skiba (2016)</t>
+          <t>NA (2015)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Face with Tears of Joy Is Word of the Year</t>
+          <t>The Welfare and Labor Market Behavior of Older People in East Asia and Pacific</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
+          <t>No AccessDec 2015The Welfare and Labor Market Behavior of Older People in East Asia and PacificAuthors/Editors: World BankWorld BankSearch for more papers by this authorhttps://doi.org/10.1596/978-1-4648-0469-4_ch2AboutView ChaptersFull TextPDF (1.1 MB) ToolsAdd to favoritesDownload CitationsTrack Citations ShareFacebookTwitterLinked In Abstract: Discusses key aspects of well-being, sources of support, and labor supply of the elderly in East Asia and Pacific by (1) documenting trends in poverty among the region’s elderly; (2) looking at other measures of well-being, such as functional limitations and mental health conditions; (3) describing living arrangements and access to support; and (4) investigating the sources of financial support and their relative importance in preventing incomes from falling below the poverty line, as well as patterns of labor force participation among older workers and their main drivers. Policy makers need to pay close attention to various aspects of elderly welfare, a task made more complex by the diversity of situations across countries and between different groups of elderly within countries. A key challenge lies in extending support for the elderly at risk of pove